--- a/South Africa Premier/South Africa Premier.xlsx
+++ b/South Africa Premier/South Africa Premier.xlsx
@@ -2580,7 +2580,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5350192</v>
+        <v>5350195</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2592,10 +2592,10 @@
         <v>44946.60416666666</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2607,43 +2607,43 @@
         <v>48</v>
       </c>
       <c r="K24">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="L24">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="M24">
         <v>3.8</v>
       </c>
       <c r="N24">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O24">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="P24">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q24">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R24">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S24">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T24">
         <v>1.75</v>
       </c>
       <c r="U24">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V24">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W24">
-        <v>1.1</v>
+        <v>0.909</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -2652,7 +2652,7 @@
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA24">
         <v>-1</v>
@@ -2661,7 +2661,7 @@
         <v>-1</v>
       </c>
       <c r="AC24">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2669,7 +2669,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5350195</v>
+        <v>5350192</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2681,10 +2681,10 @@
         <v>44946.60416666666</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2696,43 +2696,43 @@
         <v>48</v>
       </c>
       <c r="K25">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="L25">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="M25">
         <v>3.8</v>
       </c>
       <c r="N25">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O25">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="P25">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q25">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R25">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S25">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T25">
         <v>1.75</v>
       </c>
       <c r="U25">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V25">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W25">
-        <v>0.909</v>
+        <v>1.1</v>
       </c>
       <c r="X25">
         <v>-1</v>
@@ -2741,7 +2741,7 @@
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA25">
         <v>-1</v>
@@ -2750,7 +2750,7 @@
         <v>-1</v>
       </c>
       <c r="AC25">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -4360,7 +4360,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5349193</v>
+        <v>5350215</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4372,55 +4372,55 @@
         <v>44961.4375</v>
       </c>
       <c r="F44" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G44" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J44" t="s">
         <v>47</v>
       </c>
       <c r="K44">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="L44">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="M44">
-        <v>1.615</v>
+        <v>3</v>
       </c>
       <c r="N44">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="O44">
         <v>3</v>
       </c>
       <c r="P44">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q44">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R44">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S44">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T44">
         <v>2</v>
       </c>
       <c r="U44">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V44">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W44">
         <v>-1</v>
@@ -4429,19 +4429,19 @@
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="Z44">
         <v>-1</v>
       </c>
       <c r="AA44">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC44">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4449,7 +4449,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5350215</v>
+        <v>5349193</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4461,55 +4461,55 @@
         <v>44961.4375</v>
       </c>
       <c r="F45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G45" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
         <v>1</v>
-      </c>
-      <c r="I45">
-        <v>2</v>
       </c>
       <c r="J45" t="s">
         <v>47</v>
       </c>
       <c r="K45">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="L45">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M45">
-        <v>3</v>
+        <v>1.615</v>
       </c>
       <c r="N45">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="O45">
         <v>3</v>
       </c>
       <c r="P45">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R45">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S45">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T45">
         <v>2</v>
       </c>
       <c r="U45">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V45">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W45">
         <v>-1</v>
@@ -4518,19 +4518,19 @@
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="Z45">
         <v>-1</v>
       </c>
       <c r="AA45">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB45">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -6674,7 +6674,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>5350248</v>
+        <v>5350243</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6686,40 +6686,40 @@
         <v>44999.60416666666</v>
       </c>
       <c r="F70" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G70" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K70">
-        <v>1.8</v>
+        <v>1.363</v>
       </c>
       <c r="L70">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="M70">
-        <v>4.75</v>
+        <v>8.5</v>
       </c>
       <c r="N70">
-        <v>1.833</v>
+        <v>1.285</v>
       </c>
       <c r="O70">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P70">
-        <v>4.333</v>
+        <v>9</v>
       </c>
       <c r="Q70">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R70">
         <v>1.875</v>
@@ -6728,31 +6728,31 @@
         <v>1.925</v>
       </c>
       <c r="T70">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U70">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V70">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X70">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA70">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC70">
         <v>-1</v>
@@ -6763,7 +6763,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>5350243</v>
+        <v>5350248</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6775,40 +6775,40 @@
         <v>44999.60416666666</v>
       </c>
       <c r="F71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G71" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H71">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K71">
-        <v>1.363</v>
+        <v>1.8</v>
       </c>
       <c r="L71">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="M71">
-        <v>8.5</v>
+        <v>4.75</v>
       </c>
       <c r="N71">
-        <v>1.285</v>
+        <v>1.833</v>
       </c>
       <c r="O71">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P71">
-        <v>9</v>
+        <v>4.333</v>
       </c>
       <c r="Q71">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R71">
         <v>1.875</v>
@@ -6817,31 +6817,31 @@
         <v>1.925</v>
       </c>
       <c r="T71">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U71">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V71">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W71">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X71">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y71">
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB71">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC71">
         <v>-1</v>
@@ -6852,7 +6852,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5350244</v>
+        <v>5350242</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6864,76 +6864,76 @@
         <v>45002.60416666666</v>
       </c>
       <c r="F72" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G72" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K72">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L72">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="M72">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="N72">
-        <v>2.375</v>
+        <v>2.55</v>
       </c>
       <c r="O72">
+        <v>2.625</v>
+      </c>
+      <c r="P72">
         <v>2.8</v>
       </c>
-      <c r="P72">
-        <v>3.1</v>
-      </c>
       <c r="Q72">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R72">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S72">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T72">
         <v>2</v>
       </c>
       <c r="U72">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V72">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W72">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z72">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB72">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC72">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6941,7 +6941,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>5350242</v>
+        <v>5350244</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6953,76 +6953,76 @@
         <v>45002.60416666666</v>
       </c>
       <c r="F73" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G73" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K73">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L73">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="M73">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="N73">
-        <v>2.55</v>
+        <v>2.375</v>
       </c>
       <c r="O73">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="P73">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q73">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R73">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S73">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T73">
         <v>2</v>
       </c>
       <c r="U73">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V73">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA73">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC73">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -8543,7 +8543,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5350260</v>
+        <v>5350261</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8555,76 +8555,76 @@
         <v>45025.41666666666</v>
       </c>
       <c r="F91" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G91" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H91">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K91">
-        <v>2.55</v>
+        <v>6.5</v>
       </c>
       <c r="L91">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="M91">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="N91">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="O91">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="P91">
-        <v>2.8</v>
+        <v>1.666</v>
       </c>
       <c r="Q91">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R91">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S91">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T91">
         <v>2.25</v>
       </c>
       <c r="U91">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V91">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W91">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X91">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y91">
         <v>-1</v>
       </c>
       <c r="Z91">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA91">
+        <v>-1</v>
+      </c>
+      <c r="AB91">
+        <v>-1</v>
+      </c>
+      <c r="AC91">
         <v>0.8</v>
-      </c>
-      <c r="AA91">
-        <v>-1</v>
-      </c>
-      <c r="AB91">
-        <v>1.05</v>
-      </c>
-      <c r="AC91">
-        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8632,7 +8632,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>5350261</v>
+        <v>5350260</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8644,76 +8644,76 @@
         <v>45025.41666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G92" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K92">
-        <v>6.5</v>
+        <v>2.55</v>
       </c>
       <c r="L92">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="M92">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="N92">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="O92">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="P92">
-        <v>1.666</v>
+        <v>2.8</v>
       </c>
       <c r="Q92">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R92">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S92">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T92">
         <v>2.25</v>
       </c>
       <c r="U92">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V92">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W92">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X92">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA92">
         <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC92">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -9166,7 +9166,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>5350266</v>
+        <v>5349200</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9178,76 +9178,76 @@
         <v>45038.41666666666</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G98" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98">
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K98">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="L98">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="M98">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N98">
+        <v>1.833</v>
+      </c>
+      <c r="O98">
+        <v>3.3</v>
+      </c>
+      <c r="P98">
+        <v>3.8</v>
+      </c>
+      <c r="Q98">
+        <v>-0.5</v>
+      </c>
+      <c r="R98">
+        <v>1.9</v>
+      </c>
+      <c r="S98">
+        <v>1.9</v>
+      </c>
+      <c r="T98">
         <v>2.25</v>
       </c>
-      <c r="O98">
-        <v>2.8</v>
-      </c>
-      <c r="P98">
-        <v>3.2</v>
-      </c>
-      <c r="Q98">
-        <v>-0.25</v>
-      </c>
-      <c r="R98">
-        <v>1.95</v>
-      </c>
-      <c r="S98">
-        <v>1.85</v>
-      </c>
-      <c r="T98">
-        <v>2</v>
-      </c>
       <c r="U98">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V98">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X98">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA98">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC98">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9255,7 +9255,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>5349200</v>
+        <v>5350266</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9267,76 +9267,76 @@
         <v>45038.41666666666</v>
       </c>
       <c r="F99" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99">
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K99">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="L99">
+        <v>2.75</v>
+      </c>
+      <c r="M99">
         <v>3.2</v>
       </c>
-      <c r="M99">
-        <v>4</v>
-      </c>
       <c r="N99">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="O99">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="P99">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q99">
+        <v>-0.25</v>
+      </c>
+      <c r="R99">
+        <v>1.95</v>
+      </c>
+      <c r="S99">
+        <v>1.85</v>
+      </c>
+      <c r="T99">
+        <v>2</v>
+      </c>
+      <c r="U99">
+        <v>1.775</v>
+      </c>
+      <c r="V99">
+        <v>2.025</v>
+      </c>
+      <c r="W99">
+        <v>-1</v>
+      </c>
+      <c r="X99">
+        <v>1.8</v>
+      </c>
+      <c r="Y99">
+        <v>-1</v>
+      </c>
+      <c r="Z99">
         <v>-0.5</v>
       </c>
-      <c r="R99">
-        <v>1.9</v>
-      </c>
-      <c r="S99">
-        <v>1.9</v>
-      </c>
-      <c r="T99">
-        <v>2.25</v>
-      </c>
-      <c r="U99">
-        <v>1.975</v>
-      </c>
-      <c r="V99">
-        <v>1.825</v>
-      </c>
-      <c r="W99">
-        <v>0.833</v>
-      </c>
-      <c r="X99">
-        <v>-1</v>
-      </c>
-      <c r="Y99">
-        <v>-1</v>
-      </c>
-      <c r="Z99">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB99">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC99">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -11124,7 +11124,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>5350286</v>
+        <v>5349203</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11136,76 +11136,76 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F120" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G120" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K120">
+        <v>1.55</v>
+      </c>
+      <c r="L120">
+        <v>3.3</v>
+      </c>
+      <c r="M120">
+        <v>6</v>
+      </c>
+      <c r="N120">
+        <v>1.4</v>
+      </c>
+      <c r="O120">
+        <v>3.8</v>
+      </c>
+      <c r="P120">
+        <v>7.5</v>
+      </c>
+      <c r="Q120">
+        <v>-1.25</v>
+      </c>
+      <c r="R120">
+        <v>1.975</v>
+      </c>
+      <c r="S120">
+        <v>1.825</v>
+      </c>
+      <c r="T120">
+        <v>2</v>
+      </c>
+      <c r="U120">
         <v>1.75</v>
       </c>
-      <c r="L120">
-        <v>3.2</v>
-      </c>
-      <c r="M120">
-        <v>4.5</v>
-      </c>
-      <c r="N120">
-        <v>1.85</v>
-      </c>
-      <c r="O120">
-        <v>3.2</v>
-      </c>
-      <c r="P120">
-        <v>4</v>
-      </c>
-      <c r="Q120">
-        <v>-0.5</v>
-      </c>
-      <c r="R120">
-        <v>1.9</v>
-      </c>
-      <c r="S120">
-        <v>1.9</v>
-      </c>
-      <c r="T120">
-        <v>2.25</v>
-      </c>
-      <c r="U120">
-        <v>1.95</v>
-      </c>
       <c r="V120">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W120">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB120">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC120">
-        <v>0.425</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11213,7 +11213,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>5349203</v>
+        <v>5350284</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11225,76 +11225,76 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F121" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G121" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H121">
         <v>1</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K121">
-        <v>1.55</v>
+        <v>2.25</v>
       </c>
       <c r="L121">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="M121">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="N121">
-        <v>1.4</v>
+        <v>2.625</v>
       </c>
       <c r="O121">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="P121">
-        <v>7.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q121">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R121">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S121">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T121">
         <v>2</v>
       </c>
       <c r="U121">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V121">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W121">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X121">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA121">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC121">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11302,7 +11302,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>5350284</v>
+        <v>5350288</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11314,76 +11314,76 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F122" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G122" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
         <v>1</v>
       </c>
-      <c r="I122">
-        <v>0</v>
-      </c>
       <c r="J122" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K122">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L122">
         <v>2.9</v>
       </c>
       <c r="M122">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N122">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="O122">
         <v>2.75</v>
       </c>
       <c r="P122">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="Q122">
         <v>0</v>
       </c>
       <c r="R122">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S122">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T122">
         <v>2</v>
       </c>
       <c r="U122">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V122">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W122">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z122">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB122">
         <v>-1</v>
       </c>
       <c r="AC122">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11391,7 +11391,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>5350287</v>
+        <v>5350289</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11403,13 +11403,13 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F123" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G123" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I123">
         <v>0</v>
@@ -11418,43 +11418,43 @@
         <v>48</v>
       </c>
       <c r="K123">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="L123">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M123">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="N123">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="O123">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P123">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="Q123">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R123">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S123">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T123">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U123">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V123">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W123">
-        <v>1.25</v>
+        <v>0.909</v>
       </c>
       <c r="X123">
         <v>-1</v>
@@ -11463,16 +11463,16 @@
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AA123">
         <v>-1</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC123">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11480,7 +11480,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>5350288</v>
+        <v>5350286</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11492,76 +11492,76 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F124" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G124" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K124">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="L124">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M124">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="N124">
-        <v>2.6</v>
+        <v>1.85</v>
       </c>
       <c r="O124">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="P124">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="Q124">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R124">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S124">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T124">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U124">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V124">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA124">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC124">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11569,7 +11569,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>5350289</v>
+        <v>5350287</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11581,13 +11581,13 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F125" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G125" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H125">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I125">
         <v>0</v>
@@ -11596,43 +11596,43 @@
         <v>48</v>
       </c>
       <c r="K125">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="L125">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M125">
-        <v>3.75</v>
+        <v>2.55</v>
       </c>
       <c r="N125">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="O125">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P125">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="Q125">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R125">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S125">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T125">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U125">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V125">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W125">
-        <v>0.909</v>
+        <v>1.25</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11641,16 +11641,16 @@
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AA125">
         <v>-1</v>
       </c>
       <c r="AB125">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -13260,7 +13260,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7007757</v>
+        <v>7007756</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13272,76 +13272,76 @@
         <v>45147.41666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G144" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144">
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K144">
-        <v>1.65</v>
+        <v>2.625</v>
       </c>
       <c r="L144">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M144">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="N144">
-        <v>1.45</v>
+        <v>2.625</v>
       </c>
       <c r="O144">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="P144">
-        <v>6.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q144">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R144">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S144">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T144">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U144">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V144">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W144">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z144">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB144">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13349,7 +13349,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7007756</v>
+        <v>7007757</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13361,76 +13361,76 @@
         <v>45147.41666666666</v>
       </c>
       <c r="F145" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G145" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145">
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K145">
-        <v>2.625</v>
+        <v>1.65</v>
       </c>
       <c r="L145">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M145">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="N145">
-        <v>2.625</v>
+        <v>1.45</v>
       </c>
       <c r="O145">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="P145">
-        <v>2.625</v>
+        <v>6.5</v>
       </c>
       <c r="Q145">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R145">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S145">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T145">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U145">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V145">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W145">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA145">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC145">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13527,7 +13527,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7007760</v>
+        <v>7007761</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13539,76 +13539,76 @@
         <v>45147.60416666666</v>
       </c>
       <c r="F147" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G147" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H147">
         <v>0</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J147" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K147">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="L147">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M147">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="N147">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="O147">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="P147">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q147">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R147">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="S147">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="T147">
+        <v>2</v>
+      </c>
+      <c r="U147">
+        <v>2.025</v>
+      </c>
+      <c r="V147">
+        <v>1.775</v>
+      </c>
+      <c r="W147">
+        <v>-1</v>
+      </c>
+      <c r="X147">
+        <v>-1</v>
+      </c>
+      <c r="Y147">
         <v>1.75</v>
       </c>
-      <c r="U147">
-        <v>1.825</v>
-      </c>
-      <c r="V147">
-        <v>1.975</v>
-      </c>
-      <c r="W147">
-        <v>-1</v>
-      </c>
-      <c r="X147">
-        <v>1.8</v>
-      </c>
-      <c r="Y147">
-        <v>-1</v>
-      </c>
       <c r="Z147">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>0.3625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC147">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13616,7 +13616,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7007761</v>
+        <v>7007760</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13628,76 +13628,76 @@
         <v>45147.60416666666</v>
       </c>
       <c r="F148" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G148" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H148">
         <v>0</v>
       </c>
       <c r="I148">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K148">
+        <v>2.4</v>
+      </c>
+      <c r="L148">
+        <v>2.9</v>
+      </c>
+      <c r="M148">
         <v>3</v>
       </c>
-      <c r="L148">
+      <c r="N148">
+        <v>2.4</v>
+      </c>
+      <c r="O148">
+        <v>2.8</v>
+      </c>
+      <c r="P148">
         <v>3</v>
       </c>
-      <c r="M148">
-        <v>2.3</v>
-      </c>
-      <c r="N148">
-        <v>2.7</v>
-      </c>
-      <c r="O148">
-        <v>2.625</v>
-      </c>
-      <c r="P148">
-        <v>2.75</v>
-      </c>
       <c r="Q148">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R148">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="S148">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="T148">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U148">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V148">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W148">
         <v>-1</v>
       </c>
       <c r="X148">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y148">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA148">
-        <v>0.8999999999999999</v>
+        <v>0.3625</v>
       </c>
       <c r="AB148">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC148">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -16642,7 +16642,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7169685</v>
+        <v>7170833</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16654,76 +16654,76 @@
         <v>45189.60416666666</v>
       </c>
       <c r="F182" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G182" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H182">
+        <v>0</v>
+      </c>
+      <c r="I182">
         <v>1</v>
       </c>
-      <c r="I182">
-        <v>0</v>
-      </c>
       <c r="J182" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K182">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="L182">
+        <v>2.875</v>
+      </c>
+      <c r="M182">
+        <v>2.5</v>
+      </c>
+      <c r="N182">
+        <v>3.4</v>
+      </c>
+      <c r="O182">
         <v>2.9</v>
       </c>
-      <c r="M182">
-        <v>3.75</v>
-      </c>
-      <c r="N182">
-        <v>1.909</v>
-      </c>
-      <c r="O182">
-        <v>2.875</v>
-      </c>
       <c r="P182">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q182">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R182">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S182">
+        <v>1.875</v>
+      </c>
+      <c r="T182">
+        <v>2</v>
+      </c>
+      <c r="U182">
         <v>1.8</v>
       </c>
-      <c r="T182">
-        <v>1.75</v>
-      </c>
-      <c r="U182">
-        <v>1.75</v>
-      </c>
       <c r="V182">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W182">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X182">
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z182">
+        <v>-1</v>
+      </c>
+      <c r="AA182">
+        <v>0.875</v>
+      </c>
+      <c r="AB182">
+        <v>-1</v>
+      </c>
+      <c r="AC182">
         <v>1</v>
-      </c>
-      <c r="AA182">
-        <v>-1</v>
-      </c>
-      <c r="AB182">
-        <v>-1</v>
-      </c>
-      <c r="AC182">
-        <v>1.05</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16731,7 +16731,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7170833</v>
+        <v>7169685</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16743,76 +16743,76 @@
         <v>45189.60416666666</v>
       </c>
       <c r="F183" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G183" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183" t="s">
+        <v>48</v>
+      </c>
+      <c r="K183">
+        <v>2</v>
+      </c>
+      <c r="L183">
+        <v>2.9</v>
+      </c>
+      <c r="M183">
+        <v>3.75</v>
+      </c>
+      <c r="N183">
+        <v>1.909</v>
+      </c>
+      <c r="O183">
+        <v>2.875</v>
+      </c>
+      <c r="P183">
+        <v>4.2</v>
+      </c>
+      <c r="Q183">
+        <v>-0.5</v>
+      </c>
+      <c r="R183">
+        <v>2</v>
+      </c>
+      <c r="S183">
+        <v>1.8</v>
+      </c>
+      <c r="T183">
+        <v>1.75</v>
+      </c>
+      <c r="U183">
+        <v>1.75</v>
+      </c>
+      <c r="V183">
+        <v>2.05</v>
+      </c>
+      <c r="W183">
+        <v>0.909</v>
+      </c>
+      <c r="X183">
+        <v>-1</v>
+      </c>
+      <c r="Y183">
+        <v>-1</v>
+      </c>
+      <c r="Z183">
         <v>1</v>
       </c>
-      <c r="J183" t="s">
-        <v>47</v>
-      </c>
-      <c r="K183">
-        <v>2.75</v>
-      </c>
-      <c r="L183">
-        <v>2.875</v>
-      </c>
-      <c r="M183">
-        <v>2.5</v>
-      </c>
-      <c r="N183">
-        <v>3.4</v>
-      </c>
-      <c r="O183">
-        <v>2.9</v>
-      </c>
-      <c r="P183">
-        <v>2.1</v>
-      </c>
-      <c r="Q183">
-        <v>0.25</v>
-      </c>
-      <c r="R183">
-        <v>1.925</v>
-      </c>
-      <c r="S183">
-        <v>1.875</v>
-      </c>
-      <c r="T183">
-        <v>2</v>
-      </c>
-      <c r="U183">
-        <v>1.8</v>
-      </c>
-      <c r="V183">
-        <v>2</v>
-      </c>
-      <c r="W183">
-        <v>-1</v>
-      </c>
-      <c r="X183">
-        <v>-1</v>
-      </c>
-      <c r="Y183">
-        <v>1.1</v>
-      </c>
-      <c r="Z183">
-        <v>-1</v>
-      </c>
       <c r="AA183">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB183">
         <v>-1</v>
       </c>
       <c r="AC183">
-        <v>1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -17087,7 +17087,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7234871</v>
+        <v>7234870</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17099,13 +17099,13 @@
         <v>45196.60416666666</v>
       </c>
       <c r="F187" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G187" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I187">
         <v>1</v>
@@ -17114,43 +17114,43 @@
         <v>48</v>
       </c>
       <c r="K187">
+        <v>1.333</v>
+      </c>
+      <c r="L187">
+        <v>4.333</v>
+      </c>
+      <c r="M187">
+        <v>8.5</v>
+      </c>
+      <c r="N187">
+        <v>1.363</v>
+      </c>
+      <c r="O187">
+        <v>4.2</v>
+      </c>
+      <c r="P187">
+        <v>8.5</v>
+      </c>
+      <c r="Q187">
+        <v>-1.25</v>
+      </c>
+      <c r="R187">
         <v>1.85</v>
       </c>
-      <c r="L187">
-        <v>3.1</v>
-      </c>
-      <c r="M187">
-        <v>4.333</v>
-      </c>
-      <c r="N187">
-        <v>2.05</v>
-      </c>
-      <c r="O187">
-        <v>2.875</v>
-      </c>
-      <c r="P187">
-        <v>4</v>
-      </c>
-      <c r="Q187">
-        <v>-0.5</v>
-      </c>
-      <c r="R187">
-        <v>2</v>
-      </c>
       <c r="S187">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T187">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U187">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V187">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="W187">
-        <v>1.05</v>
+        <v>0.363</v>
       </c>
       <c r="X187">
         <v>-1</v>
@@ -17159,13 +17159,13 @@
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA187">
         <v>-1</v>
       </c>
       <c r="AB187">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AC187">
         <v>-1</v>
@@ -17176,7 +17176,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7234870</v>
+        <v>7234871</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17188,13 +17188,13 @@
         <v>45196.60416666666</v>
       </c>
       <c r="F188" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G188" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H188">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I188">
         <v>1</v>
@@ -17203,43 +17203,43 @@
         <v>48</v>
       </c>
       <c r="K188">
-        <v>1.333</v>
+        <v>1.85</v>
       </c>
       <c r="L188">
+        <v>3.1</v>
+      </c>
+      <c r="M188">
         <v>4.333</v>
       </c>
-      <c r="M188">
-        <v>8.5</v>
-      </c>
       <c r="N188">
-        <v>1.363</v>
+        <v>2.05</v>
       </c>
       <c r="O188">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="P188">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="Q188">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R188">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S188">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T188">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U188">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V188">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="W188">
-        <v>0.363</v>
+        <v>1.05</v>
       </c>
       <c r="X188">
         <v>-1</v>
@@ -17248,13 +17248,13 @@
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA188">
         <v>-1</v>
       </c>
       <c r="AB188">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AC188">
         <v>-1</v>
@@ -17799,7 +17799,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>7267512</v>
+        <v>7267513</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17811,55 +17811,55 @@
         <v>45203.60416666666</v>
       </c>
       <c r="F195" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G195" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H195">
+        <v>0</v>
+      </c>
+      <c r="I195">
         <v>1</v>
-      </c>
-      <c r="I195">
-        <v>2</v>
       </c>
       <c r="J195" t="s">
         <v>47</v>
       </c>
       <c r="K195">
-        <v>5</v>
+        <v>2.55</v>
       </c>
       <c r="L195">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="M195">
-        <v>1.7</v>
+        <v>2.875</v>
       </c>
       <c r="N195">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="O195">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="P195">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="Q195">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R195">
+        <v>1.925</v>
+      </c>
+      <c r="S195">
         <v>1.875</v>
       </c>
-      <c r="S195">
-        <v>1.925</v>
-      </c>
       <c r="T195">
         <v>2</v>
       </c>
       <c r="U195">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V195">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W195">
         <v>-1</v>
@@ -17868,19 +17868,19 @@
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="Z195">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA195">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AB195">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC195">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17888,7 +17888,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>7267513</v>
+        <v>7267510</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17900,76 +17900,76 @@
         <v>45203.60416666666</v>
       </c>
       <c r="F196" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G196" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K196">
-        <v>2.55</v>
+        <v>2.35</v>
       </c>
       <c r="L196">
         <v>2.875</v>
       </c>
       <c r="M196">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="N196">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O196">
         <v>2.875</v>
       </c>
       <c r="P196">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q196">
         <v>-0.25</v>
       </c>
       <c r="R196">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S196">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T196">
         <v>2</v>
       </c>
       <c r="U196">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V196">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W196">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z196">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA196">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB196">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC196">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17977,7 +17977,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>7267510</v>
+        <v>7267512</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17989,73 +17989,73 @@
         <v>45203.60416666666</v>
       </c>
       <c r="F197" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G197" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H197">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I197">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J197" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K197">
-        <v>2.35</v>
+        <v>5</v>
       </c>
       <c r="L197">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="M197">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="N197">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="O197">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="P197">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="Q197">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R197">
+        <v>1.875</v>
+      </c>
+      <c r="S197">
+        <v>1.925</v>
+      </c>
+      <c r="T197">
+        <v>2</v>
+      </c>
+      <c r="U197">
+        <v>1.825</v>
+      </c>
+      <c r="V197">
         <v>1.975</v>
       </c>
-      <c r="S197">
-        <v>1.825</v>
-      </c>
-      <c r="T197">
-        <v>2</v>
-      </c>
-      <c r="U197">
-        <v>1.85</v>
-      </c>
-      <c r="V197">
-        <v>1.95</v>
-      </c>
       <c r="W197">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X197">
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z197">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA197">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB197">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC197">
         <v>-1</v>
@@ -20914,7 +20914,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7512821</v>
+        <v>7448508</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20926,76 +20926,76 @@
         <v>45266.60416666666</v>
       </c>
       <c r="F230" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G230" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J230" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K230">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="L230">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="M230">
-        <v>3.2</v>
+        <v>1.65</v>
       </c>
       <c r="N230">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="O230">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="P230">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q230">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R230">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S230">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T230">
+        <v>2</v>
+      </c>
+      <c r="U230">
         <v>1.75</v>
       </c>
-      <c r="U230">
-        <v>1.9</v>
-      </c>
       <c r="V230">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W230">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X230">
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z230">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA230">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB230">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC230">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21003,7 +21003,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7448508</v>
+        <v>7512821</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21015,76 +21015,76 @@
         <v>45266.60416666666</v>
       </c>
       <c r="F231" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G231" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J231" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K231">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="L231">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="M231">
-        <v>1.65</v>
+        <v>3.2</v>
       </c>
       <c r="N231">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="O231">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="P231">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q231">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R231">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S231">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T231">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U231">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V231">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W231">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X231">
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z231">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA231">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB231">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC231">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21982,7 +21982,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>7479719</v>
+        <v>7478004</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -21994,76 +21994,76 @@
         <v>45283.4375</v>
       </c>
       <c r="F242" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G242" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I242">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J242" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K242">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L242">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M242">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N242">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="O242">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P242">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q242">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R242">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S242">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T242">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U242">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V242">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="W242">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X242">
         <v>-1</v>
       </c>
       <c r="Y242">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z242">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA242">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB242">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC242">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="243" spans="1:29">
@@ -22071,7 +22071,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>7478004</v>
+        <v>7479719</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22083,76 +22083,76 @@
         <v>45283.4375</v>
       </c>
       <c r="F243" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G243" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J243" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K243">
+        <v>1.909</v>
+      </c>
+      <c r="L243">
+        <v>3.2</v>
+      </c>
+      <c r="M243">
+        <v>4</v>
+      </c>
+      <c r="N243">
+        <v>2.7</v>
+      </c>
+      <c r="O243">
+        <v>2.875</v>
+      </c>
+      <c r="P243">
+        <v>2.6</v>
+      </c>
+      <c r="Q243">
+        <v>0</v>
+      </c>
+      <c r="R243">
+        <v>1.95</v>
+      </c>
+      <c r="S243">
+        <v>1.85</v>
+      </c>
+      <c r="T243">
+        <v>2</v>
+      </c>
+      <c r="U243">
+        <v>2</v>
+      </c>
+      <c r="V243">
         <v>1.8</v>
       </c>
-      <c r="L243">
-        <v>3</v>
-      </c>
-      <c r="M243">
-        <v>5</v>
-      </c>
-      <c r="N243">
-        <v>1.85</v>
-      </c>
-      <c r="O243">
-        <v>3</v>
-      </c>
-      <c r="P243">
-        <v>4.75</v>
-      </c>
-      <c r="Q243">
-        <v>-0.5</v>
-      </c>
-      <c r="R243">
-        <v>1.875</v>
-      </c>
-      <c r="S243">
-        <v>1.925</v>
-      </c>
-      <c r="T243">
-        <v>1.75</v>
-      </c>
-      <c r="U243">
-        <v>1.75</v>
-      </c>
-      <c r="V243">
-        <v>2.05</v>
-      </c>
       <c r="W243">
+        <v>-1</v>
+      </c>
+      <c r="X243">
+        <v>-1</v>
+      </c>
+      <c r="Y243">
+        <v>1.6</v>
+      </c>
+      <c r="Z243">
+        <v>-1</v>
+      </c>
+      <c r="AA243">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X243">
-        <v>-1</v>
-      </c>
-      <c r="Y243">
-        <v>-1</v>
-      </c>
-      <c r="Z243">
-        <v>0.875</v>
-      </c>
-      <c r="AA243">
-        <v>-1</v>
-      </c>
       <c r="AB243">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC243">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -23329,10 +23329,10 @@
         <v>2.45</v>
       </c>
       <c r="N257">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O257">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="P257">
         <v>2.3</v>
@@ -23341,19 +23341,19 @@
         <v>0.25</v>
       </c>
       <c r="R257">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S257">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T257">
         <v>2</v>
       </c>
       <c r="U257">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V257">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W257">
         <v>0</v>
@@ -23376,7 +23376,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>7577339</v>
+        <v>7577338</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23388,46 +23388,46 @@
         <v>45339.52083333334</v>
       </c>
       <c r="F258" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G258" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="K258">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="L258">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="M258">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="N258">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="O258">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="P258">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="Q258">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R258">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S258">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T258">
         <v>2</v>
       </c>
       <c r="U258">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V258">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W258">
         <v>0</v>
@@ -23450,7 +23450,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>7577338</v>
+        <v>7577339</v>
       </c>
       <c r="C259" t="s">
         <v>28</v>
@@ -23459,49 +23459,49 @@
         <v>28</v>
       </c>
       <c r="E259" s="2">
-        <v>45339.53125</v>
+        <v>45339.52083333334</v>
       </c>
       <c r="F259" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G259" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K259">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="L259">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="M259">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="N259">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="O259">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="P259">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="Q259">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R259">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="S259">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="T259">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U259">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V259">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W259">
         <v>0</v>
@@ -23551,31 +23551,31 @@
         <v>4.75</v>
       </c>
       <c r="N260">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="O260">
         <v>3.5</v>
       </c>
       <c r="P260">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q260">
         <v>-0.75</v>
       </c>
       <c r="R260">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S260">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T260">
         <v>2.25</v>
       </c>
       <c r="U260">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V260">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W260">
         <v>0</v>

--- a/South Africa Premier/South Africa Premier.xlsx
+++ b/South Africa Premier/South Africa Premier.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -151,10 +151,10 @@
     <t>Supersport United</t>
   </si>
   <si>
-    <t>Ajax Cape Town</t>
+    <t>Polokwane City</t>
   </si>
   <si>
-    <t>Polokwane City</t>
+    <t>Ajax Cape Town</t>
   </si>
   <si>
     <t>A</t>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC261"/>
+  <dimension ref="A1:AC256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2580,7 +2580,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5350195</v>
+        <v>5350192</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2592,10 +2592,10 @@
         <v>44946.60416666666</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2607,43 +2607,43 @@
         <v>48</v>
       </c>
       <c r="K24">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="L24">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="M24">
         <v>3.8</v>
       </c>
       <c r="N24">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O24">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="P24">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q24">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S24">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T24">
         <v>1.75</v>
       </c>
       <c r="U24">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V24">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W24">
-        <v>0.909</v>
+        <v>1.1</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -2652,7 +2652,7 @@
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA24">
         <v>-1</v>
@@ -2661,7 +2661,7 @@
         <v>-1</v>
       </c>
       <c r="AC24">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2669,7 +2669,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5350192</v>
+        <v>5350195</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2681,10 +2681,10 @@
         <v>44946.60416666666</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G25" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2696,43 +2696,43 @@
         <v>48</v>
       </c>
       <c r="K25">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="L25">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="M25">
         <v>3.8</v>
       </c>
       <c r="N25">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O25">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="P25">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q25">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R25">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S25">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T25">
         <v>1.75</v>
       </c>
       <c r="U25">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V25">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W25">
-        <v>1.1</v>
+        <v>0.909</v>
       </c>
       <c r="X25">
         <v>-1</v>
@@ -2741,7 +2741,7 @@
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA25">
         <v>-1</v>
@@ -2750,7 +2750,7 @@
         <v>-1</v>
       </c>
       <c r="AC25">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -4360,7 +4360,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5350215</v>
+        <v>5349193</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4372,55 +4372,55 @@
         <v>44961.4375</v>
       </c>
       <c r="F44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G44" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
         <v>1</v>
-      </c>
-      <c r="I44">
-        <v>2</v>
       </c>
       <c r="J44" t="s">
         <v>47</v>
       </c>
       <c r="K44">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="L44">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M44">
-        <v>3</v>
+        <v>1.615</v>
       </c>
       <c r="N44">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="O44">
         <v>3</v>
       </c>
       <c r="P44">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R44">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S44">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T44">
         <v>2</v>
       </c>
       <c r="U44">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V44">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W44">
         <v>-1</v>
@@ -4429,19 +4429,19 @@
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="Z44">
         <v>-1</v>
       </c>
       <c r="AA44">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB44">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4449,7 +4449,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5349193</v>
+        <v>5350215</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4461,55 +4461,55 @@
         <v>44961.4375</v>
       </c>
       <c r="F45" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G45" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J45" t="s">
         <v>47</v>
       </c>
       <c r="K45">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="L45">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="M45">
-        <v>1.615</v>
+        <v>3</v>
       </c>
       <c r="N45">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="O45">
         <v>3</v>
       </c>
       <c r="P45">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q45">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R45">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S45">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T45">
         <v>2</v>
       </c>
       <c r="U45">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V45">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W45">
         <v>-1</v>
@@ -4518,19 +4518,19 @@
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="Z45">
         <v>-1</v>
       </c>
       <c r="AA45">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC45">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -6674,7 +6674,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>5350243</v>
+        <v>5350248</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6686,40 +6686,40 @@
         <v>44999.60416666666</v>
       </c>
       <c r="F70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G70" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H70">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K70">
-        <v>1.363</v>
+        <v>1.8</v>
       </c>
       <c r="L70">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="M70">
-        <v>8.5</v>
+        <v>4.75</v>
       </c>
       <c r="N70">
-        <v>1.285</v>
+        <v>1.833</v>
       </c>
       <c r="O70">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P70">
-        <v>9</v>
+        <v>4.333</v>
       </c>
       <c r="Q70">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R70">
         <v>1.875</v>
@@ -6728,31 +6728,31 @@
         <v>1.925</v>
       </c>
       <c r="T70">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U70">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V70">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W70">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X70">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB70">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC70">
         <v>-1</v>
@@ -6763,7 +6763,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>5350248</v>
+        <v>5350243</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6775,40 +6775,40 @@
         <v>44999.60416666666</v>
       </c>
       <c r="F71" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G71" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K71">
-        <v>1.8</v>
+        <v>1.363</v>
       </c>
       <c r="L71">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="M71">
-        <v>4.75</v>
+        <v>8.5</v>
       </c>
       <c r="N71">
-        <v>1.833</v>
+        <v>1.285</v>
       </c>
       <c r="O71">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P71">
-        <v>4.333</v>
+        <v>9</v>
       </c>
       <c r="Q71">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R71">
         <v>1.875</v>
@@ -6817,31 +6817,31 @@
         <v>1.925</v>
       </c>
       <c r="T71">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U71">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V71">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W71">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X71">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y71">
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA71">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC71">
         <v>-1</v>
@@ -8543,7 +8543,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5350261</v>
+        <v>5350260</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8555,76 +8555,76 @@
         <v>45025.41666666666</v>
       </c>
       <c r="F91" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G91" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K91">
-        <v>6.5</v>
+        <v>2.55</v>
       </c>
       <c r="L91">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="M91">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="N91">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="O91">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="P91">
-        <v>1.666</v>
+        <v>2.8</v>
       </c>
       <c r="Q91">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R91">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S91">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T91">
         <v>2.25</v>
       </c>
       <c r="U91">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V91">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W91">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X91">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA91">
         <v>-1</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC91">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8632,7 +8632,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>5350260</v>
+        <v>5350261</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8644,76 +8644,76 @@
         <v>45025.41666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G92" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H92">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K92">
-        <v>2.55</v>
+        <v>6.5</v>
       </c>
       <c r="L92">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="M92">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="N92">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="O92">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="P92">
-        <v>2.8</v>
+        <v>1.666</v>
       </c>
       <c r="Q92">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R92">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S92">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T92">
         <v>2.25</v>
       </c>
       <c r="U92">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V92">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W92">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X92">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA92">
+        <v>-1</v>
+      </c>
+      <c r="AB92">
+        <v>-1</v>
+      </c>
+      <c r="AC92">
         <v>0.8</v>
-      </c>
-      <c r="AA92">
-        <v>-1</v>
-      </c>
-      <c r="AB92">
-        <v>1.05</v>
-      </c>
-      <c r="AC92">
-        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -9166,7 +9166,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>5349200</v>
+        <v>5350266</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9178,76 +9178,76 @@
         <v>45038.41666666666</v>
       </c>
       <c r="F98" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G98" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98">
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K98">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="L98">
+        <v>2.75</v>
+      </c>
+      <c r="M98">
         <v>3.2</v>
       </c>
-      <c r="M98">
-        <v>4</v>
-      </c>
       <c r="N98">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="O98">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="P98">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q98">
+        <v>-0.25</v>
+      </c>
+      <c r="R98">
+        <v>1.95</v>
+      </c>
+      <c r="S98">
+        <v>1.85</v>
+      </c>
+      <c r="T98">
+        <v>2</v>
+      </c>
+      <c r="U98">
+        <v>1.775</v>
+      </c>
+      <c r="V98">
+        <v>2.025</v>
+      </c>
+      <c r="W98">
+        <v>-1</v>
+      </c>
+      <c r="X98">
+        <v>1.8</v>
+      </c>
+      <c r="Y98">
+        <v>-1</v>
+      </c>
+      <c r="Z98">
         <v>-0.5</v>
       </c>
-      <c r="R98">
-        <v>1.9</v>
-      </c>
-      <c r="S98">
-        <v>1.9</v>
-      </c>
-      <c r="T98">
-        <v>2.25</v>
-      </c>
-      <c r="U98">
-        <v>1.975</v>
-      </c>
-      <c r="V98">
-        <v>1.825</v>
-      </c>
-      <c r="W98">
-        <v>0.833</v>
-      </c>
-      <c r="X98">
-        <v>-1</v>
-      </c>
-      <c r="Y98">
-        <v>-1</v>
-      </c>
-      <c r="Z98">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB98">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9255,7 +9255,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>5350266</v>
+        <v>5349200</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9267,76 +9267,76 @@
         <v>45038.41666666666</v>
       </c>
       <c r="F99" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G99" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I99">
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K99">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="L99">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="M99">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N99">
+        <v>1.833</v>
+      </c>
+      <c r="O99">
+        <v>3.3</v>
+      </c>
+      <c r="P99">
+        <v>3.8</v>
+      </c>
+      <c r="Q99">
+        <v>-0.5</v>
+      </c>
+      <c r="R99">
+        <v>1.9</v>
+      </c>
+      <c r="S99">
+        <v>1.9</v>
+      </c>
+      <c r="T99">
         <v>2.25</v>
       </c>
-      <c r="O99">
-        <v>2.8</v>
-      </c>
-      <c r="P99">
-        <v>3.2</v>
-      </c>
-      <c r="Q99">
-        <v>-0.25</v>
-      </c>
-      <c r="R99">
-        <v>1.95</v>
-      </c>
-      <c r="S99">
-        <v>1.85</v>
-      </c>
-      <c r="T99">
-        <v>2</v>
-      </c>
       <c r="U99">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V99">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X99">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA99">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC99">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -11213,7 +11213,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>5350284</v>
+        <v>5350286</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11225,13 +11225,13 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F121" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G121" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I121">
         <v>0</v>
@@ -11240,43 +11240,43 @@
         <v>48</v>
       </c>
       <c r="K121">
+        <v>1.75</v>
+      </c>
+      <c r="L121">
+        <v>3.2</v>
+      </c>
+      <c r="M121">
+        <v>4.5</v>
+      </c>
+      <c r="N121">
+        <v>1.85</v>
+      </c>
+      <c r="O121">
+        <v>3.2</v>
+      </c>
+      <c r="P121">
+        <v>4</v>
+      </c>
+      <c r="Q121">
+        <v>-0.5</v>
+      </c>
+      <c r="R121">
+        <v>1.9</v>
+      </c>
+      <c r="S121">
+        <v>1.9</v>
+      </c>
+      <c r="T121">
         <v>2.25</v>
       </c>
-      <c r="L121">
-        <v>2.9</v>
-      </c>
-      <c r="M121">
-        <v>3.2</v>
-      </c>
-      <c r="N121">
-        <v>2.625</v>
-      </c>
-      <c r="O121">
-        <v>2.75</v>
-      </c>
-      <c r="P121">
-        <v>2.8</v>
-      </c>
-      <c r="Q121">
-        <v>0</v>
-      </c>
-      <c r="R121">
-        <v>1.775</v>
-      </c>
-      <c r="S121">
-        <v>2.025</v>
-      </c>
-      <c r="T121">
-        <v>2</v>
-      </c>
       <c r="U121">
+        <v>1.95</v>
+      </c>
+      <c r="V121">
         <v>1.85</v>
       </c>
-      <c r="V121">
-        <v>1.95</v>
-      </c>
       <c r="W121">
-        <v>1.625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X121">
         <v>-1</v>
@@ -11285,16 +11285,16 @@
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA121">
         <v>-1</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC121">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11302,7 +11302,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>5350288</v>
+        <v>5350284</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11314,76 +11314,76 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F122" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G122" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K122">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L122">
         <v>2.9</v>
       </c>
       <c r="M122">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N122">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="O122">
         <v>2.75</v>
       </c>
       <c r="P122">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="Q122">
         <v>0</v>
       </c>
       <c r="R122">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S122">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T122">
         <v>2</v>
       </c>
       <c r="U122">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V122">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W122">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA122">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
         <v>-1</v>
       </c>
       <c r="AC122">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11391,7 +11391,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>5350289</v>
+        <v>5350288</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11403,76 +11403,76 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F123" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G123" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H123">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K123">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L123">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M123">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="N123">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="O123">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="P123">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="Q123">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R123">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S123">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T123">
         <v>2</v>
       </c>
       <c r="U123">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V123">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W123">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z123">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB123">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11480,7 +11480,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>5350286</v>
+        <v>5350289</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11492,13 +11492,13 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F124" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G124" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I124">
         <v>0</v>
@@ -11507,61 +11507,61 @@
         <v>48</v>
       </c>
       <c r="K124">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="L124">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M124">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="N124">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="O124">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P124">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q124">
         <v>-0.5</v>
       </c>
       <c r="R124">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S124">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T124">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U124">
+        <v>1.85</v>
+      </c>
+      <c r="V124">
         <v>1.95</v>
       </c>
-      <c r="V124">
-        <v>1.85</v>
-      </c>
       <c r="W124">
+        <v>0.909</v>
+      </c>
+      <c r="X124">
+        <v>-1</v>
+      </c>
+      <c r="Y124">
+        <v>-1</v>
+      </c>
+      <c r="Z124">
+        <v>0.95</v>
+      </c>
+      <c r="AA124">
+        <v>-1</v>
+      </c>
+      <c r="AB124">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X124">
-        <v>-1</v>
-      </c>
-      <c r="Y124">
-        <v>-1</v>
-      </c>
-      <c r="Z124">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA124">
-        <v>-1</v>
-      </c>
-      <c r="AB124">
-        <v>-0.5</v>
-      </c>
       <c r="AC124">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -12459,7 +12459,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6961777</v>
+        <v>6961780</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12471,73 +12471,73 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F135" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G135" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K135">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="L135">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M135">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="N135">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="O135">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="P135">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q135">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R135">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S135">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T135">
         <v>1.75</v>
       </c>
       <c r="U135">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V135">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W135">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X135">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA135">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB135">
-        <v>0.45</v>
+        <v>0.3875</v>
       </c>
       <c r="AC135">
         <v>-0.5</v>
@@ -12548,7 +12548,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6961780</v>
+        <v>6961777</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12560,73 +12560,73 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F136" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G136" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K136">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="L136">
+        <v>3</v>
+      </c>
+      <c r="M136">
+        <v>2.75</v>
+      </c>
+      <c r="N136">
+        <v>2.2</v>
+      </c>
+      <c r="O136">
+        <v>2.875</v>
+      </c>
+      <c r="P136">
         <v>3.2</v>
       </c>
-      <c r="M136">
-        <v>5.5</v>
-      </c>
-      <c r="N136">
-        <v>1.65</v>
-      </c>
-      <c r="O136">
-        <v>3.2</v>
-      </c>
-      <c r="P136">
-        <v>5.5</v>
-      </c>
       <c r="Q136">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R136">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S136">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T136">
         <v>1.75</v>
       </c>
       <c r="U136">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V136">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W136">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA136">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB136">
-        <v>0.3875</v>
+        <v>0.45</v>
       </c>
       <c r="AC136">
         <v>-0.5</v>
@@ -12919,7 +12919,7 @@
         <v>38</v>
       </c>
       <c r="G140" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H140">
         <v>1</v>
@@ -13008,7 +13008,7 @@
         <v>29</v>
       </c>
       <c r="G141" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -13527,7 +13527,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7007761</v>
+        <v>7007760</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13539,76 +13539,76 @@
         <v>45147.60416666666</v>
       </c>
       <c r="F147" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G147" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H147">
         <v>0</v>
       </c>
       <c r="I147">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K147">
+        <v>2.4</v>
+      </c>
+      <c r="L147">
+        <v>2.9</v>
+      </c>
+      <c r="M147">
         <v>3</v>
       </c>
-      <c r="L147">
+      <c r="N147">
+        <v>2.4</v>
+      </c>
+      <c r="O147">
+        <v>2.8</v>
+      </c>
+      <c r="P147">
         <v>3</v>
       </c>
-      <c r="M147">
-        <v>2.3</v>
-      </c>
-      <c r="N147">
-        <v>2.7</v>
-      </c>
-      <c r="O147">
-        <v>2.625</v>
-      </c>
-      <c r="P147">
-        <v>2.75</v>
-      </c>
       <c r="Q147">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R147">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="S147">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="T147">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U147">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V147">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W147">
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y147">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA147">
-        <v>0.8999999999999999</v>
+        <v>0.3625</v>
       </c>
       <c r="AB147">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13616,7 +13616,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7007760</v>
+        <v>7007759</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13628,76 +13628,76 @@
         <v>45147.60416666666</v>
       </c>
       <c r="F148" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G148" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148">
         <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K148">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="L148">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M148">
+        <v>2.25</v>
+      </c>
+      <c r="N148">
+        <v>2.875</v>
+      </c>
+      <c r="O148">
         <v>3</v>
       </c>
-      <c r="N148">
-        <v>2.4</v>
-      </c>
-      <c r="O148">
-        <v>2.8</v>
-      </c>
       <c r="P148">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="Q148">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R148">
+        <v>1.725</v>
+      </c>
+      <c r="S148">
         <v>2.075</v>
       </c>
-      <c r="S148">
-        <v>1.725</v>
-      </c>
       <c r="T148">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U148">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V148">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W148">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X148">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-0.5</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA148">
-        <v>0.3625</v>
+        <v>-1</v>
       </c>
       <c r="AB148">
         <v>-1</v>
       </c>
       <c r="AC148">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7007759</v>
+        <v>7007761</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13720,73 +13720,73 @@
         <v>46</v>
       </c>
       <c r="G149" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J149" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K149">
         <v>3</v>
       </c>
       <c r="L149">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M149">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="N149">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="O149">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="P149">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="Q149">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R149">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S149">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="T149">
         <v>2</v>
       </c>
       <c r="U149">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V149">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W149">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X149">
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z149">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA149">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB149">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC149">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -14251,10 +14251,10 @@
         <v>45157.41666666666</v>
       </c>
       <c r="F155" t="s">
+        <v>45</v>
+      </c>
+      <c r="G155" t="s">
         <v>46</v>
-      </c>
-      <c r="G155" t="s">
-        <v>45</v>
       </c>
       <c r="H155">
         <v>3</v>
@@ -14785,7 +14785,7 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F161" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G161" t="s">
         <v>42</v>
@@ -14877,7 +14877,7 @@
         <v>35</v>
       </c>
       <c r="G162" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H162">
         <v>3</v>
@@ -15408,7 +15408,7 @@
         <v>45168.5</v>
       </c>
       <c r="F168" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G168" t="s">
         <v>30</v>
@@ -15485,7 +15485,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>7078409</v>
+        <v>7078413</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15497,76 +15497,76 @@
         <v>45168.60416666666</v>
       </c>
       <c r="F169" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G169" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I169">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K169">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="L169">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="M169">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="N169">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="O169">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="P169">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q169">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R169">
-        <v>1.825</v>
+        <v>1.7</v>
       </c>
       <c r="S169">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="T169">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U169">
+        <v>1.775</v>
+      </c>
+      <c r="V169">
         <v>2.025</v>
       </c>
-      <c r="V169">
-        <v>1.775</v>
-      </c>
       <c r="W169">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X169">
         <v>-1</v>
       </c>
       <c r="Y169">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z169">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AA169">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB169">
+        <v>-1</v>
+      </c>
+      <c r="AC169">
         <v>1.025</v>
-      </c>
-      <c r="AC169">
-        <v>-1</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15574,7 +15574,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>7078412</v>
+        <v>7078409</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15586,73 +15586,73 @@
         <v>45168.60416666666</v>
       </c>
       <c r="F170" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G170" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H170">
+        <v>2</v>
+      </c>
+      <c r="I170">
         <v>3</v>
       </c>
-      <c r="I170">
-        <v>1</v>
-      </c>
       <c r="J170" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K170">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="L170">
+        <v>2.875</v>
+      </c>
+      <c r="M170">
         <v>3.25</v>
       </c>
-      <c r="M170">
-        <v>4.333</v>
-      </c>
       <c r="N170">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="O170">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P170">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q170">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R170">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S170">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T170">
         <v>2</v>
       </c>
       <c r="U170">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V170">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W170">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X170">
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z170">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA170">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB170">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC170">
         <v>-1</v>
@@ -15663,7 +15663,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>7078413</v>
+        <v>7078412</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15675,58 +15675,58 @@
         <v>45168.60416666666</v>
       </c>
       <c r="F171" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G171" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H171">
+        <v>3</v>
+      </c>
+      <c r="I171">
         <v>1</v>
-      </c>
-      <c r="I171">
-        <v>0</v>
       </c>
       <c r="J171" t="s">
         <v>48</v>
       </c>
       <c r="K171">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="L171">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="M171">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="N171">
+        <v>1.833</v>
+      </c>
+      <c r="O171">
         <v>3.1</v>
       </c>
-      <c r="O171">
-        <v>2.8</v>
-      </c>
       <c r="P171">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="Q171">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R171">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="S171">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="T171">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U171">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V171">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W171">
-        <v>2.1</v>
+        <v>0.833</v>
       </c>
       <c r="X171">
         <v>-1</v>
@@ -15735,16 +15735,16 @@
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>0.7</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA171">
         <v>-1</v>
       </c>
       <c r="AB171">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC171">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -16387,7 +16387,7 @@
         <v>45188.60416666666</v>
       </c>
       <c r="F179" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G179" t="s">
         <v>35</v>
@@ -16553,7 +16553,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7169684</v>
+        <v>7170833</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16565,10 +16565,10 @@
         <v>45189.60416666666</v>
       </c>
       <c r="F181" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G181" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H181">
         <v>0</v>
@@ -16580,25 +16580,25 @@
         <v>47</v>
       </c>
       <c r="K181">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="L181">
         <v>2.875</v>
       </c>
       <c r="M181">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="N181">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="O181">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="P181">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="Q181">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R181">
         <v>1.925</v>
@@ -16607,13 +16607,13 @@
         <v>1.875</v>
       </c>
       <c r="T181">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U181">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V181">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W181">
         <v>-1</v>
@@ -16622,7 +16622,7 @@
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>1.625</v>
+        <v>1.1</v>
       </c>
       <c r="Z181">
         <v>-1</v>
@@ -16634,7 +16634,7 @@
         <v>-1</v>
       </c>
       <c r="AC181">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16642,7 +16642,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7170833</v>
+        <v>7169684</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16654,10 +16654,10 @@
         <v>45189.60416666666</v>
       </c>
       <c r="F182" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G182" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H182">
         <v>0</v>
@@ -16669,25 +16669,25 @@
         <v>47</v>
       </c>
       <c r="K182">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="L182">
         <v>2.875</v>
       </c>
       <c r="M182">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="N182">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="O182">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="P182">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="Q182">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R182">
         <v>1.925</v>
@@ -16696,13 +16696,13 @@
         <v>1.875</v>
       </c>
       <c r="T182">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U182">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V182">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W182">
         <v>-1</v>
@@ -16711,7 +16711,7 @@
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>1.1</v>
+        <v>1.625</v>
       </c>
       <c r="Z182">
         <v>-1</v>
@@ -16723,7 +16723,7 @@
         <v>-1</v>
       </c>
       <c r="AC182">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16921,7 +16921,7 @@
         <v>45194.41666666666</v>
       </c>
       <c r="F185" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G185" t="s">
         <v>40</v>
@@ -17369,7 +17369,7 @@
         <v>29</v>
       </c>
       <c r="G190" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H190">
         <v>3</v>
@@ -17455,7 +17455,7 @@
         <v>45199.52083333334</v>
       </c>
       <c r="F191" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G191" t="s">
         <v>32</v>
@@ -17799,7 +17799,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>7267513</v>
+        <v>7267512</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17811,55 +17811,55 @@
         <v>45203.60416666666</v>
       </c>
       <c r="F195" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G195" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J195" t="s">
         <v>47</v>
       </c>
       <c r="K195">
-        <v>2.55</v>
+        <v>5</v>
       </c>
       <c r="L195">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="M195">
-        <v>2.875</v>
+        <v>1.7</v>
       </c>
       <c r="N195">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="O195">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="P195">
-        <v>3.6</v>
+        <v>1.7</v>
       </c>
       <c r="Q195">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R195">
+        <v>1.875</v>
+      </c>
+      <c r="S195">
         <v>1.925</v>
       </c>
-      <c r="S195">
-        <v>1.875</v>
-      </c>
       <c r="T195">
         <v>2</v>
       </c>
       <c r="U195">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V195">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W195">
         <v>-1</v>
@@ -17868,19 +17868,19 @@
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="Z195">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA195">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AB195">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC195">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17977,7 +17977,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>7267512</v>
+        <v>7267513</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17989,55 +17989,55 @@
         <v>45203.60416666666</v>
       </c>
       <c r="F197" t="s">
+        <v>34</v>
+      </c>
+      <c r="G197" t="s">
         <v>45</v>
       </c>
-      <c r="G197" t="s">
-        <v>44</v>
-      </c>
       <c r="H197">
+        <v>0</v>
+      </c>
+      <c r="I197">
         <v>1</v>
-      </c>
-      <c r="I197">
-        <v>2</v>
       </c>
       <c r="J197" t="s">
         <v>47</v>
       </c>
       <c r="K197">
-        <v>5</v>
+        <v>2.55</v>
       </c>
       <c r="L197">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="M197">
-        <v>1.7</v>
+        <v>2.875</v>
       </c>
       <c r="N197">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="O197">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="P197">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="Q197">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R197">
+        <v>1.925</v>
+      </c>
+      <c r="S197">
         <v>1.875</v>
       </c>
-      <c r="S197">
-        <v>1.925</v>
-      </c>
       <c r="T197">
         <v>2</v>
       </c>
       <c r="U197">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V197">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W197">
         <v>-1</v>
@@ -18046,19 +18046,19 @@
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="Z197">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA197">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AB197">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC197">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18170,7 +18170,7 @@
         <v>31</v>
       </c>
       <c r="G199" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H199">
         <v>0</v>
@@ -18437,7 +18437,7 @@
         <v>41</v>
       </c>
       <c r="G202" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H202">
         <v>1</v>
@@ -18790,7 +18790,7 @@
         <v>45231.60416666666</v>
       </c>
       <c r="F206" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G206" t="s">
         <v>41</v>
@@ -19045,7 +19045,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7404428</v>
+        <v>7404429</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19057,10 +19057,10 @@
         <v>45237.60416666666</v>
       </c>
       <c r="F209" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G209" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H209">
         <v>1</v>
@@ -19072,43 +19072,43 @@
         <v>48</v>
       </c>
       <c r="K209">
-        <v>3.4</v>
+        <v>1.65</v>
       </c>
       <c r="L209">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M209">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="N209">
-        <v>3</v>
+        <v>1.65</v>
       </c>
       <c r="O209">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P209">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="Q209">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R209">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S209">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T209">
         <v>2.25</v>
       </c>
       <c r="U209">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V209">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="W209">
-        <v>2</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X209">
         <v>-1</v>
@@ -19117,16 +19117,16 @@
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0.75</v>
+        <v>0.4375</v>
       </c>
       <c r="AA209">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB209">
         <v>-1</v>
       </c>
       <c r="AC209">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19134,7 +19134,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7404429</v>
+        <v>7404428</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19146,10 +19146,10 @@
         <v>45237.60416666666</v>
       </c>
       <c r="F210" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G210" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H210">
         <v>1</v>
@@ -19161,43 +19161,43 @@
         <v>48</v>
       </c>
       <c r="K210">
-        <v>1.65</v>
+        <v>3.4</v>
       </c>
       <c r="L210">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M210">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="N210">
-        <v>1.65</v>
+        <v>3</v>
       </c>
       <c r="O210">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P210">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="Q210">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R210">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S210">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T210">
         <v>2.25</v>
       </c>
       <c r="U210">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V210">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="W210">
-        <v>0.6499999999999999</v>
+        <v>2</v>
       </c>
       <c r="X210">
         <v>-1</v>
@@ -19206,16 +19206,16 @@
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0.4375</v>
+        <v>0.75</v>
       </c>
       <c r="AA210">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB210">
         <v>-1</v>
       </c>
       <c r="AC210">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19327,7 +19327,7 @@
         <v>37</v>
       </c>
       <c r="G212" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H212">
         <v>3</v>
@@ -19413,7 +19413,7 @@
         <v>45238.60416666666</v>
       </c>
       <c r="F213" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G213" t="s">
         <v>44</v>
@@ -19680,7 +19680,7 @@
         <v>45241.4375</v>
       </c>
       <c r="F216" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G216" t="s">
         <v>33</v>
@@ -19950,7 +19950,7 @@
         <v>34</v>
       </c>
       <c r="G219" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H219">
         <v>1</v>
@@ -20303,7 +20303,7 @@
         <v>45255.53125</v>
       </c>
       <c r="F223" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G223" t="s">
         <v>32</v>
@@ -20484,7 +20484,7 @@
         <v>38</v>
       </c>
       <c r="G225" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H225">
         <v>3</v>
@@ -20659,7 +20659,7 @@
         <v>45258.60416666666</v>
       </c>
       <c r="F227" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G227" t="s">
         <v>39</v>
@@ -21193,7 +21193,7 @@
         <v>45269.4375</v>
       </c>
       <c r="F233" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G233" t="s">
         <v>37</v>
@@ -21537,7 +21537,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>7476568</v>
+        <v>7464395</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21549,13 +21549,13 @@
         <v>45273.60416666666</v>
       </c>
       <c r="F237" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G237" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I237">
         <v>0</v>
@@ -21564,34 +21564,34 @@
         <v>48</v>
       </c>
       <c r="K237">
-        <v>2.2</v>
+        <v>1.181</v>
       </c>
       <c r="L237">
+        <v>6.5</v>
+      </c>
+      <c r="M237">
+        <v>13</v>
+      </c>
+      <c r="N237">
+        <v>1.2</v>
+      </c>
+      <c r="O237">
+        <v>6</v>
+      </c>
+      <c r="P237">
+        <v>12</v>
+      </c>
+      <c r="Q237">
+        <v>-1.75</v>
+      </c>
+      <c r="R237">
+        <v>1.775</v>
+      </c>
+      <c r="S237">
+        <v>2.025</v>
+      </c>
+      <c r="T237">
         <v>3</v>
-      </c>
-      <c r="M237">
-        <v>3.4</v>
-      </c>
-      <c r="N237">
-        <v>2.25</v>
-      </c>
-      <c r="O237">
-        <v>2.75</v>
-      </c>
-      <c r="P237">
-        <v>3.6</v>
-      </c>
-      <c r="Q237">
-        <v>-0.25</v>
-      </c>
-      <c r="R237">
-        <v>1.9</v>
-      </c>
-      <c r="S237">
-        <v>1.9</v>
-      </c>
-      <c r="T237">
-        <v>1.75</v>
       </c>
       <c r="U237">
         <v>1.975</v>
@@ -21600,7 +21600,7 @@
         <v>1.825</v>
       </c>
       <c r="W237">
-        <v>1.25</v>
+        <v>0.2</v>
       </c>
       <c r="X237">
         <v>-1</v>
@@ -21609,16 +21609,16 @@
         <v>-1</v>
       </c>
       <c r="Z237">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA237">
         <v>-1</v>
       </c>
       <c r="AB237">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC237">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21626,7 +21626,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7464395</v>
+        <v>7476568</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21638,13 +21638,13 @@
         <v>45273.60416666666</v>
       </c>
       <c r="F238" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G238" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H238">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I238">
         <v>0</v>
@@ -21653,34 +21653,34 @@
         <v>48</v>
       </c>
       <c r="K238">
-        <v>1.181</v>
+        <v>2.2</v>
       </c>
       <c r="L238">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="M238">
-        <v>13</v>
+        <v>3.4</v>
       </c>
       <c r="N238">
-        <v>1.2</v>
+        <v>2.25</v>
       </c>
       <c r="O238">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="P238">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="Q238">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R238">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S238">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T238">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="U238">
         <v>1.975</v>
@@ -21689,7 +21689,7 @@
         <v>1.825</v>
       </c>
       <c r="W238">
-        <v>0.2</v>
+        <v>1.25</v>
       </c>
       <c r="X238">
         <v>-1</v>
@@ -21698,16 +21698,16 @@
         <v>-1</v>
       </c>
       <c r="Z238">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA238">
         <v>-1</v>
       </c>
       <c r="AB238">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC238">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21908,7 +21908,7 @@
         <v>40</v>
       </c>
       <c r="G241" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H241">
         <v>1</v>
@@ -22175,7 +22175,7 @@
         <v>42</v>
       </c>
       <c r="G244" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H244">
         <v>1</v>
@@ -22887,7 +22887,7 @@
         <v>30</v>
       </c>
       <c r="G252" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H252">
         <v>0</v>
@@ -23062,7 +23062,7 @@
         <v>45291.4375</v>
       </c>
       <c r="F254" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G254" t="s">
         <v>29</v>
@@ -23228,7 +23228,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>7577336</v>
+        <v>7577341</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23237,50 +23237,50 @@
         <v>28</v>
       </c>
       <c r="E256" s="2">
-        <v>45339.4375</v>
+        <v>45340.4375</v>
       </c>
       <c r="F256" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G256" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K256">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="L256">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M256">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="N256">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="O256">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P256">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="Q256">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R256">
+        <v>2.025</v>
+      </c>
+      <c r="S256">
+        <v>1.775</v>
+      </c>
+      <c r="T256">
+        <v>2</v>
+      </c>
+      <c r="U256">
         <v>1.85</v>
       </c>
-      <c r="S256">
+      <c r="V256">
         <v>1.95</v>
       </c>
-      <c r="T256">
-        <v>2</v>
-      </c>
-      <c r="U256">
-        <v>1.725</v>
-      </c>
-      <c r="V256">
-        <v>2.075</v>
-      </c>
       <c r="W256">
         <v>0</v>
       </c>
@@ -23294,376 +23294,6 @@
         <v>0</v>
       </c>
       <c r="AA256">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:27">
-      <c r="A257" s="1">
-        <v>255</v>
-      </c>
-      <c r="B257">
-        <v>7577337</v>
-      </c>
-      <c r="C257" t="s">
-        <v>28</v>
-      </c>
-      <c r="D257" t="s">
-        <v>28</v>
-      </c>
-      <c r="E257" s="2">
-        <v>45339.4375</v>
-      </c>
-      <c r="F257" t="s">
-        <v>42</v>
-      </c>
-      <c r="G257" t="s">
-        <v>29</v>
-      </c>
-      <c r="K257">
-        <v>3.1</v>
-      </c>
-      <c r="L257">
-        <v>2.8</v>
-      </c>
-      <c r="M257">
-        <v>2.45</v>
-      </c>
-      <c r="N257">
-        <v>3.3</v>
-      </c>
-      <c r="O257">
-        <v>2.875</v>
-      </c>
-      <c r="P257">
-        <v>2.3</v>
-      </c>
-      <c r="Q257">
-        <v>0.25</v>
-      </c>
-      <c r="R257">
-        <v>1.775</v>
-      </c>
-      <c r="S257">
-        <v>2.025</v>
-      </c>
-      <c r="T257">
-        <v>2</v>
-      </c>
-      <c r="U257">
-        <v>2</v>
-      </c>
-      <c r="V257">
-        <v>1.8</v>
-      </c>
-      <c r="W257">
-        <v>0</v>
-      </c>
-      <c r="X257">
-        <v>0</v>
-      </c>
-      <c r="Y257">
-        <v>0</v>
-      </c>
-      <c r="Z257">
-        <v>0</v>
-      </c>
-      <c r="AA257">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:27">
-      <c r="A258" s="1">
-        <v>256</v>
-      </c>
-      <c r="B258">
-        <v>7577338</v>
-      </c>
-      <c r="C258" t="s">
-        <v>28</v>
-      </c>
-      <c r="D258" t="s">
-        <v>28</v>
-      </c>
-      <c r="E258" s="2">
-        <v>45339.52083333334</v>
-      </c>
-      <c r="F258" t="s">
-        <v>45</v>
-      </c>
-      <c r="G258" t="s">
-        <v>40</v>
-      </c>
-      <c r="K258">
-        <v>4.333</v>
-      </c>
-      <c r="L258">
-        <v>3.1</v>
-      </c>
-      <c r="M258">
-        <v>1.85</v>
-      </c>
-      <c r="N258">
-        <v>4.2</v>
-      </c>
-      <c r="O258">
-        <v>3.1</v>
-      </c>
-      <c r="P258">
-        <v>1.909</v>
-      </c>
-      <c r="Q258">
-        <v>0.5</v>
-      </c>
-      <c r="R258">
-        <v>1.8</v>
-      </c>
-      <c r="S258">
-        <v>2</v>
-      </c>
-      <c r="T258">
-        <v>2</v>
-      </c>
-      <c r="U258">
-        <v>1.9</v>
-      </c>
-      <c r="V258">
-        <v>1.9</v>
-      </c>
-      <c r="W258">
-        <v>0</v>
-      </c>
-      <c r="X258">
-        <v>0</v>
-      </c>
-      <c r="Y258">
-        <v>0</v>
-      </c>
-      <c r="Z258">
-        <v>0</v>
-      </c>
-      <c r="AA258">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:27">
-      <c r="A259" s="1">
-        <v>257</v>
-      </c>
-      <c r="B259">
-        <v>7577339</v>
-      </c>
-      <c r="C259" t="s">
-        <v>28</v>
-      </c>
-      <c r="D259" t="s">
-        <v>28</v>
-      </c>
-      <c r="E259" s="2">
-        <v>45339.52083333334</v>
-      </c>
-      <c r="F259" t="s">
-        <v>31</v>
-      </c>
-      <c r="G259" t="s">
-        <v>34</v>
-      </c>
-      <c r="K259">
-        <v>2.7</v>
-      </c>
-      <c r="L259">
-        <v>2.7</v>
-      </c>
-      <c r="M259">
-        <v>2.8</v>
-      </c>
-      <c r="N259">
-        <v>2.45</v>
-      </c>
-      <c r="O259">
-        <v>2.7</v>
-      </c>
-      <c r="P259">
-        <v>3.2</v>
-      </c>
-      <c r="Q259">
-        <v>-0.25</v>
-      </c>
-      <c r="R259">
-        <v>2.075</v>
-      </c>
-      <c r="S259">
-        <v>1.725</v>
-      </c>
-      <c r="T259">
-        <v>1.75</v>
-      </c>
-      <c r="U259">
-        <v>1.775</v>
-      </c>
-      <c r="V259">
-        <v>2.025</v>
-      </c>
-      <c r="W259">
-        <v>0</v>
-      </c>
-      <c r="X259">
-        <v>0</v>
-      </c>
-      <c r="Y259">
-        <v>0</v>
-      </c>
-      <c r="Z259">
-        <v>0</v>
-      </c>
-      <c r="AA259">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:27">
-      <c r="A260" s="1">
-        <v>258</v>
-      </c>
-      <c r="B260">
-        <v>7577340</v>
-      </c>
-      <c r="C260" t="s">
-        <v>28</v>
-      </c>
-      <c r="D260" t="s">
-        <v>28</v>
-      </c>
-      <c r="E260" s="2">
-        <v>45339.625</v>
-      </c>
-      <c r="F260" t="s">
-        <v>30</v>
-      </c>
-      <c r="G260" t="s">
-        <v>41</v>
-      </c>
-      <c r="K260">
-        <v>1.727</v>
-      </c>
-      <c r="L260">
-        <v>3.4</v>
-      </c>
-      <c r="M260">
-        <v>4.75</v>
-      </c>
-      <c r="N260">
-        <v>1.6</v>
-      </c>
-      <c r="O260">
-        <v>3.5</v>
-      </c>
-      <c r="P260">
-        <v>5.5</v>
-      </c>
-      <c r="Q260">
-        <v>-0.75</v>
-      </c>
-      <c r="R260">
-        <v>1.775</v>
-      </c>
-      <c r="S260">
-        <v>2.025</v>
-      </c>
-      <c r="T260">
-        <v>2.25</v>
-      </c>
-      <c r="U260">
-        <v>1.95</v>
-      </c>
-      <c r="V260">
-        <v>1.85</v>
-      </c>
-      <c r="W260">
-        <v>0</v>
-      </c>
-      <c r="X260">
-        <v>0</v>
-      </c>
-      <c r="Y260">
-        <v>0</v>
-      </c>
-      <c r="Z260">
-        <v>0</v>
-      </c>
-      <c r="AA260">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:27">
-      <c r="A261" s="1">
-        <v>259</v>
-      </c>
-      <c r="B261">
-        <v>7577341</v>
-      </c>
-      <c r="C261" t="s">
-        <v>28</v>
-      </c>
-      <c r="D261" t="s">
-        <v>28</v>
-      </c>
-      <c r="E261" s="2">
-        <v>45340.4375</v>
-      </c>
-      <c r="F261" t="s">
-        <v>32</v>
-      </c>
-      <c r="G261" t="s">
-        <v>37</v>
-      </c>
-      <c r="K261">
-        <v>4</v>
-      </c>
-      <c r="L261">
-        <v>3</v>
-      </c>
-      <c r="M261">
-        <v>1.95</v>
-      </c>
-      <c r="N261">
-        <v>3.75</v>
-      </c>
-      <c r="O261">
-        <v>3</v>
-      </c>
-      <c r="P261">
-        <v>2.05</v>
-      </c>
-      <c r="Q261">
-        <v>0.25</v>
-      </c>
-      <c r="R261">
-        <v>2.025</v>
-      </c>
-      <c r="S261">
-        <v>1.775</v>
-      </c>
-      <c r="T261">
-        <v>2</v>
-      </c>
-      <c r="U261">
-        <v>1.825</v>
-      </c>
-      <c r="V261">
-        <v>1.975</v>
-      </c>
-      <c r="W261">
-        <v>0</v>
-      </c>
-      <c r="X261">
-        <v>0</v>
-      </c>
-      <c r="Y261">
-        <v>0</v>
-      </c>
-      <c r="Z261">
-        <v>0</v>
-      </c>
-      <c r="AA261">
         <v>0</v>
       </c>
     </row>

--- a/South Africa Premier/South Africa Premier.xlsx
+++ b/South Africa Premier/South Africa Premier.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -109,22 +109,22 @@
     <t>Mamelodi Sundowns</t>
   </si>
   <si>
+    <t>Royal AM FC</t>
+  </si>
+  <si>
     <t>Sekhukhune United FC</t>
   </si>
   <si>
-    <t>Royal AM FC</t>
+    <t>Richards Bay FC</t>
   </si>
   <si>
     <t>Moroka Swallows</t>
   </si>
   <si>
-    <t>Richards Bay FC</t>
+    <t>Marumo Gallants</t>
   </si>
   <si>
     <t>Golden Arrows</t>
-  </si>
-  <si>
-    <t>Marumo Gallants</t>
   </si>
   <si>
     <t>Kaizer Chiefs</t>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC256"/>
+  <dimension ref="A1:AC262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -726,7 +726,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -800,7 +800,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5350152</v>
+        <v>5350153</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -815,73 +815,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K4">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L4">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="M4">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N4">
         <v>2.2</v>
       </c>
       <c r="O4">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="P4">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q4">
         <v>-0.25</v>
       </c>
       <c r="R4">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S4">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T4">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U4">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V4">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W4">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB4">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -889,7 +889,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5350153</v>
+        <v>5350152</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -904,73 +904,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K5">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L5">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="M5">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N5">
         <v>2.2</v>
       </c>
       <c r="O5">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="P5">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q5">
         <v>-0.25</v>
       </c>
       <c r="R5">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S5">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T5">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U5">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V5">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X5">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA5">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC5">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -978,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5350178</v>
+        <v>5350179</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -993,67 +993,67 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K6">
-        <v>2.05</v>
+        <v>6</v>
       </c>
       <c r="L6">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M6">
+        <v>1.5</v>
+      </c>
+      <c r="N6">
+        <v>6</v>
+      </c>
+      <c r="O6">
         <v>3.6</v>
       </c>
-      <c r="N6">
-        <v>2.15</v>
-      </c>
-      <c r="O6">
-        <v>3</v>
-      </c>
       <c r="P6">
-        <v>3.25</v>
+        <v>1.533</v>
       </c>
       <c r="Q6">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R6">
+        <v>2.1</v>
+      </c>
+      <c r="S6">
+        <v>1.7</v>
+      </c>
+      <c r="T6">
+        <v>2</v>
+      </c>
+      <c r="U6">
         <v>1.85</v>
       </c>
-      <c r="S6">
+      <c r="V6">
         <v>1.95</v>
       </c>
-      <c r="T6">
-        <v>2</v>
-      </c>
-      <c r="U6">
-        <v>1.95</v>
-      </c>
-      <c r="V6">
-        <v>1.85</v>
-      </c>
       <c r="W6">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z6">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AB6">
         <v>0</v>
@@ -1067,7 +1067,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5350179</v>
+        <v>5350178</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1082,67 +1082,67 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K7">
-        <v>6</v>
+        <v>2.05</v>
       </c>
       <c r="L7">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M7">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="N7">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="O7">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P7">
-        <v>1.533</v>
+        <v>3.25</v>
       </c>
       <c r="Q7">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R7">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="S7">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="T7">
         <v>2</v>
       </c>
       <c r="U7">
+        <v>1.95</v>
+      </c>
+      <c r="V7">
         <v>1.85</v>
       </c>
-      <c r="V7">
-        <v>1.95</v>
-      </c>
       <c r="W7">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA7">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5350180</v>
+        <v>5350181</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1171,73 +1171,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K8">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="L8">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="M8">
-        <v>2.4</v>
+        <v>2.875</v>
       </c>
       <c r="N8">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="O8">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="P8">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="Q8">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R8">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S8">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T8">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U8">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W8">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z8">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB8">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1245,7 +1245,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5350181</v>
+        <v>5350180</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1260,73 +1260,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K9">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="L9">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="M9">
-        <v>2.875</v>
+        <v>2.4</v>
       </c>
       <c r="N9">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="O9">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="P9">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q9">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R9">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S9">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T9">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U9">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V9">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA9">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC9">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1438,7 +1438,7 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1524,7 +1524,7 @@
         <v>44934.4375</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G12" t="s">
         <v>40</v>
@@ -1794,7 +1794,7 @@
         <v>39</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1957,7 +1957,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5350186</v>
+        <v>5349190</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1969,40 +1969,40 @@
         <v>44940.4375</v>
       </c>
       <c r="F17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" t="s">
         <v>36</v>
       </c>
-      <c r="G17" t="s">
-        <v>34</v>
-      </c>
       <c r="H17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K17">
-        <v>2.625</v>
+        <v>1.727</v>
       </c>
       <c r="L17">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M17">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="N17">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="O17">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="P17">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q17">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R17">
         <v>1.925</v>
@@ -2011,34 +2011,34 @@
         <v>1.875</v>
       </c>
       <c r="T17">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U17">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V17">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA17">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>0.45</v>
+        <v>1.025</v>
       </c>
       <c r="AC17">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2046,7 +2046,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5349190</v>
+        <v>5350186</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2058,40 +2058,40 @@
         <v>44940.4375</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K18">
-        <v>1.727</v>
+        <v>2.625</v>
       </c>
       <c r="L18">
+        <v>3.2</v>
+      </c>
+      <c r="M18">
+        <v>2.5</v>
+      </c>
+      <c r="N18">
+        <v>2.2</v>
+      </c>
+      <c r="O18">
+        <v>2.875</v>
+      </c>
+      <c r="P18">
         <v>3.25</v>
       </c>
-      <c r="M18">
-        <v>5</v>
-      </c>
-      <c r="N18">
-        <v>1.85</v>
-      </c>
-      <c r="O18">
-        <v>3.3</v>
-      </c>
-      <c r="P18">
-        <v>3.8</v>
-      </c>
       <c r="Q18">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R18">
         <v>1.925</v>
@@ -2100,34 +2100,34 @@
         <v>1.875</v>
       </c>
       <c r="T18">
+        <v>1.75</v>
+      </c>
+      <c r="U18">
+        <v>1.9</v>
+      </c>
+      <c r="V18">
+        <v>1.9</v>
+      </c>
+      <c r="W18">
+        <v>-1</v>
+      </c>
+      <c r="X18">
+        <v>-1</v>
+      </c>
+      <c r="Y18">
         <v>2.25</v>
       </c>
-      <c r="U18">
-        <v>2.025</v>
-      </c>
-      <c r="V18">
-        <v>1.775</v>
-      </c>
-      <c r="W18">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X18">
-        <v>-1</v>
-      </c>
-      <c r="Y18">
-        <v>-1</v>
-      </c>
       <c r="Z18">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB18">
-        <v>1.025</v>
+        <v>0.45</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2239,7 +2239,7 @@
         <v>39</v>
       </c>
       <c r="G20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2325,7 +2325,7 @@
         <v>44941.4375</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G21" t="s">
         <v>38</v>
@@ -2417,7 +2417,7 @@
         <v>43</v>
       </c>
       <c r="G22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H22">
         <v>3</v>
@@ -2592,10 +2592,10 @@
         <v>44946.60416666666</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2758,7 +2758,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5350193</v>
+        <v>5350194</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2770,76 +2770,76 @@
         <v>44947.4375</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K26">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L26">
+        <v>3.2</v>
+      </c>
+      <c r="M26">
         <v>3</v>
       </c>
-      <c r="M26">
+      <c r="N26">
+        <v>1.833</v>
+      </c>
+      <c r="O26">
         <v>3.1</v>
       </c>
-      <c r="N26">
+      <c r="P26">
+        <v>4</v>
+      </c>
+      <c r="Q26">
+        <v>-0.5</v>
+      </c>
+      <c r="R26">
+        <v>1.875</v>
+      </c>
+      <c r="S26">
+        <v>1.925</v>
+      </c>
+      <c r="T26">
+        <v>2</v>
+      </c>
+      <c r="U26">
+        <v>2.025</v>
+      </c>
+      <c r="V26">
+        <v>1.775</v>
+      </c>
+      <c r="W26">
+        <v>-1</v>
+      </c>
+      <c r="X26">
         <v>2.1</v>
       </c>
-      <c r="O26">
-        <v>2.9</v>
-      </c>
-      <c r="P26">
-        <v>3.4</v>
-      </c>
-      <c r="Q26">
-        <v>-0.25</v>
-      </c>
-      <c r="R26">
-        <v>1.825</v>
-      </c>
-      <c r="S26">
-        <v>1.975</v>
-      </c>
-      <c r="T26">
-        <v>1.75</v>
-      </c>
-      <c r="U26">
-        <v>1.75</v>
-      </c>
-      <c r="V26">
-        <v>2.05</v>
-      </c>
-      <c r="W26">
-        <v>-1</v>
-      </c>
-      <c r="X26">
-        <v>-1</v>
-      </c>
       <c r="Y26">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
         <v>-1</v>
       </c>
       <c r="AA26">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC26">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2847,7 +2847,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5350194</v>
+        <v>5350193</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2859,76 +2859,76 @@
         <v>44947.4375</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K27">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L27">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M27">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N27">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="O27">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P27">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Q27">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R27">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S27">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T27">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U27">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="V27">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z27">
         <v>-1</v>
       </c>
       <c r="AA27">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2936,7 +2936,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5350196</v>
+        <v>5350197</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2948,76 +2948,76 @@
         <v>44947.625</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="L28">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M28">
-        <v>3.6</v>
+        <v>1.75</v>
       </c>
       <c r="N28">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="O28">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="P28">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="Q28">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R28">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S28">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T28">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="U28">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V28">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z28">
         <v>-0.5</v>
       </c>
       <c r="AA28">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="AB28">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3025,7 +3025,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5350197</v>
+        <v>5350196</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3037,76 +3037,76 @@
         <v>44947.625</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G29" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K29">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="L29">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M29">
+        <v>3.6</v>
+      </c>
+      <c r="N29">
+        <v>2.375</v>
+      </c>
+      <c r="O29">
+        <v>2.8</v>
+      </c>
+      <c r="P29">
+        <v>3.1</v>
+      </c>
+      <c r="Q29">
+        <v>-0.25</v>
+      </c>
+      <c r="R29">
+        <v>2.05</v>
+      </c>
+      <c r="S29">
         <v>1.75</v>
       </c>
-      <c r="N29">
-        <v>4.75</v>
-      </c>
-      <c r="O29">
-        <v>3.2</v>
-      </c>
-      <c r="P29">
-        <v>1.7</v>
-      </c>
-      <c r="Q29">
-        <v>0.75</v>
-      </c>
-      <c r="R29">
+      <c r="T29">
+        <v>1.5</v>
+      </c>
+      <c r="U29">
+        <v>1.775</v>
+      </c>
+      <c r="V29">
+        <v>2.025</v>
+      </c>
+      <c r="W29">
+        <v>-1</v>
+      </c>
+      <c r="X29">
         <v>1.8</v>
       </c>
-      <c r="S29">
-        <v>2</v>
-      </c>
-      <c r="T29">
-        <v>2</v>
-      </c>
-      <c r="U29">
-        <v>1.85</v>
-      </c>
-      <c r="V29">
-        <v>1.95</v>
-      </c>
-      <c r="W29">
-        <v>-1</v>
-      </c>
-      <c r="X29">
-        <v>-1</v>
-      </c>
       <c r="Y29">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
         <v>-0.5</v>
       </c>
       <c r="AA29">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC29">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3218,7 +3218,7 @@
         <v>44</v>
       </c>
       <c r="G31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3393,10 +3393,10 @@
         <v>44951.60416666666</v>
       </c>
       <c r="F33" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" t="s">
         <v>35</v>
-      </c>
-      <c r="G33" t="s">
-        <v>36</v>
       </c>
       <c r="H33">
         <v>3</v>
@@ -3574,7 +3574,7 @@
         <v>30</v>
       </c>
       <c r="G35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H35">
         <v>2</v>
@@ -3660,7 +3660,7 @@
         <v>44954.52083333334</v>
       </c>
       <c r="F36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G36" t="s">
         <v>44</v>
@@ -3749,7 +3749,7 @@
         <v>44954.625</v>
       </c>
       <c r="F37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G37" t="s">
         <v>41</v>
@@ -3838,7 +3838,7 @@
         <v>44955.4375</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G38" t="s">
         <v>40</v>
@@ -4004,7 +4004,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5350212</v>
+        <v>5350213</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4016,13 +4016,13 @@
         <v>44955.52083333334</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G40" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -4031,43 +4031,43 @@
         <v>48</v>
       </c>
       <c r="K40">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="L40">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="M40">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="N40">
-        <v>1.833</v>
+        <v>2.5</v>
       </c>
       <c r="O40">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="P40">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="Q40">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R40">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="S40">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="T40">
         <v>2</v>
       </c>
       <c r="U40">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V40">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W40">
-        <v>0.833</v>
+        <v>1.5</v>
       </c>
       <c r="X40">
         <v>-1</v>
@@ -4076,16 +4076,16 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.95</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA40">
         <v>-1</v>
       </c>
       <c r="AB40">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC40">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4093,7 +4093,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5350213</v>
+        <v>5350212</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4105,13 +4105,13 @@
         <v>44955.52083333334</v>
       </c>
       <c r="F41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G41" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -4120,43 +4120,43 @@
         <v>48</v>
       </c>
       <c r="K41">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="L41">
+        <v>2.8</v>
+      </c>
+      <c r="M41">
+        <v>4.75</v>
+      </c>
+      <c r="N41">
+        <v>1.833</v>
+      </c>
+      <c r="O41">
         <v>2.9</v>
       </c>
-      <c r="M41">
-        <v>3.2</v>
-      </c>
-      <c r="N41">
-        <v>2.5</v>
-      </c>
-      <c r="O41">
-        <v>2.7</v>
-      </c>
       <c r="P41">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R41">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="S41">
-        <v>2.075</v>
+        <v>1.85</v>
       </c>
       <c r="T41">
         <v>2</v>
       </c>
       <c r="U41">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V41">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W41">
-        <v>1.5</v>
+        <v>0.833</v>
       </c>
       <c r="X41">
         <v>-1</v>
@@ -4165,16 +4165,16 @@
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.7250000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA41">
         <v>-1</v>
       </c>
       <c r="AB41">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4194,10 +4194,10 @@
         <v>44960.54166666666</v>
       </c>
       <c r="F42" t="s">
+        <v>34</v>
+      </c>
+      <c r="G42" t="s">
         <v>33</v>
-      </c>
-      <c r="G42" t="s">
-        <v>34</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -4449,7 +4449,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5350215</v>
+        <v>5350216</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4461,10 +4461,10 @@
         <v>44961.4375</v>
       </c>
       <c r="F45" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G45" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4476,40 +4476,40 @@
         <v>47</v>
       </c>
       <c r="K45">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="L45">
         <v>2.9</v>
       </c>
       <c r="M45">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="N45">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="O45">
         <v>3</v>
       </c>
       <c r="P45">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="Q45">
         <v>0</v>
       </c>
       <c r="R45">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S45">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T45">
         <v>2</v>
       </c>
       <c r="U45">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V45">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W45">
         <v>-1</v>
@@ -4518,16 +4518,16 @@
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="Z45">
         <v>-1</v>
       </c>
       <c r="AA45">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB45">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC45">
         <v>-1</v>
@@ -4538,7 +4538,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>5350216</v>
+        <v>5350215</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4550,10 +4550,10 @@
         <v>44961.4375</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G46" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -4565,40 +4565,40 @@
         <v>47</v>
       </c>
       <c r="K46">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="L46">
         <v>2.9</v>
       </c>
       <c r="M46">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="N46">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="O46">
         <v>3</v>
       </c>
       <c r="P46">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="Q46">
         <v>0</v>
       </c>
       <c r="R46">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S46">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T46">
         <v>2</v>
       </c>
       <c r="U46">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V46">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W46">
         <v>-1</v>
@@ -4607,16 +4607,16 @@
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="Z46">
         <v>-1</v>
       </c>
       <c r="AA46">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB46">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -4728,10 +4728,10 @@
         <v>44961.625</v>
       </c>
       <c r="F48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G48" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -4995,7 +4995,7 @@
         <v>44975.4375</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G51" t="s">
         <v>44</v>
@@ -5084,10 +5084,10 @@
         <v>44975.52083333334</v>
       </c>
       <c r="F52" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H52">
         <v>2</v>
@@ -5265,7 +5265,7 @@
         <v>37</v>
       </c>
       <c r="G54" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H54">
         <v>2</v>
@@ -5354,7 +5354,7 @@
         <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H55">
         <v>2</v>
@@ -5606,7 +5606,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6179860</v>
+        <v>5350229</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5618,31 +5618,31 @@
         <v>44982.52083333334</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G58" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J58" t="s">
         <v>47</v>
       </c>
       <c r="K58">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L58">
         <v>2.875</v>
       </c>
       <c r="M58">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N58">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="O58">
         <v>2.75</v>
@@ -5654,19 +5654,19 @@
         <v>0</v>
       </c>
       <c r="R58">
+        <v>1.725</v>
+      </c>
+      <c r="S58">
+        <v>2.075</v>
+      </c>
+      <c r="T58">
         <v>1.75</v>
       </c>
-      <c r="S58">
-        <v>2.05</v>
-      </c>
-      <c r="T58">
-        <v>2</v>
-      </c>
       <c r="U58">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V58">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W58">
         <v>-1</v>
@@ -5681,13 +5681,13 @@
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>1.05</v>
+        <v>1.075</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC58">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5695,7 +5695,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>5350229</v>
+        <v>6179860</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5707,31 +5707,31 @@
         <v>44982.52083333334</v>
       </c>
       <c r="F59" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G59" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
         <v>1</v>
-      </c>
-      <c r="I59">
-        <v>2</v>
       </c>
       <c r="J59" t="s">
         <v>47</v>
       </c>
       <c r="K59">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L59">
         <v>2.875</v>
       </c>
       <c r="M59">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N59">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="O59">
         <v>2.75</v>
@@ -5743,19 +5743,19 @@
         <v>0</v>
       </c>
       <c r="R59">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="S59">
-        <v>2.075</v>
+        <v>2.05</v>
       </c>
       <c r="T59">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U59">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V59">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W59">
         <v>-1</v>
@@ -5770,13 +5770,13 @@
         <v>-1</v>
       </c>
       <c r="AA59">
-        <v>1.075</v>
+        <v>1.05</v>
       </c>
       <c r="AB59">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC59">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5799,7 +5799,7 @@
         <v>40</v>
       </c>
       <c r="G60" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -5888,7 +5888,7 @@
         <v>42</v>
       </c>
       <c r="G61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -5974,7 +5974,7 @@
         <v>44988.60416666666</v>
       </c>
       <c r="F62" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G62" t="s">
         <v>41</v>
@@ -6063,7 +6063,7 @@
         <v>44989.4375</v>
       </c>
       <c r="F63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G63" t="s">
         <v>37</v>
@@ -6152,10 +6152,10 @@
         <v>44989.53125</v>
       </c>
       <c r="F64" t="s">
+        <v>31</v>
+      </c>
+      <c r="G64" t="s">
         <v>32</v>
-      </c>
-      <c r="G64" t="s">
-        <v>31</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -6407,7 +6407,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>5350240</v>
+        <v>6335027</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6419,46 +6419,46 @@
         <v>44990.4375</v>
       </c>
       <c r="F67" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G67" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H67">
         <v>0</v>
       </c>
       <c r="I67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K67">
-        <v>2.625</v>
+        <v>2.4</v>
       </c>
       <c r="L67">
+        <v>2.8</v>
+      </c>
+      <c r="M67">
+        <v>3.1</v>
+      </c>
+      <c r="N67">
+        <v>2.25</v>
+      </c>
+      <c r="O67">
         <v>2.9</v>
       </c>
-      <c r="M67">
-        <v>2.7</v>
-      </c>
-      <c r="N67">
-        <v>3</v>
-      </c>
-      <c r="O67">
-        <v>3</v>
-      </c>
       <c r="P67">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q67">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R67">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="S67">
-        <v>2.075</v>
+        <v>1.85</v>
       </c>
       <c r="T67">
         <v>2</v>
@@ -6473,22 +6473,22 @@
         <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y67">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA67">
-        <v>1.075</v>
+        <v>0.425</v>
       </c>
       <c r="AB67">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC67">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6496,7 +6496,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6335027</v>
+        <v>5350240</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6508,46 +6508,46 @@
         <v>44990.4375</v>
       </c>
       <c r="F68" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G68" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H68">
         <v>0</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K68">
-        <v>2.4</v>
+        <v>2.625</v>
       </c>
       <c r="L68">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="M68">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="N68">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="O68">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P68">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q68">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R68">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="S68">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="T68">
         <v>2</v>
@@ -6562,22 +6562,22 @@
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z68">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>0.425</v>
+        <v>1.075</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC68">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6600,7 +6600,7 @@
         <v>44</v>
       </c>
       <c r="G69" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H69">
         <v>2</v>
@@ -6689,7 +6689,7 @@
         <v>29</v>
       </c>
       <c r="G70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -6778,7 +6778,7 @@
         <v>30</v>
       </c>
       <c r="G71" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H71">
         <v>5</v>
@@ -6852,7 +6852,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5350242</v>
+        <v>5350244</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6864,76 +6864,76 @@
         <v>45002.60416666666</v>
       </c>
       <c r="F72" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G72" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K72">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L72">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="M72">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="N72">
-        <v>2.55</v>
+        <v>2.375</v>
       </c>
       <c r="O72">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="P72">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q72">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R72">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S72">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T72">
         <v>2</v>
       </c>
       <c r="U72">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V72">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W72">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA72">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC72">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6941,7 +6941,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>5350244</v>
+        <v>5350242</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6953,76 +6953,76 @@
         <v>45002.60416666666</v>
       </c>
       <c r="F73" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G73" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K73">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L73">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="M73">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="N73">
-        <v>2.375</v>
+        <v>2.55</v>
       </c>
       <c r="O73">
+        <v>2.625</v>
+      </c>
+      <c r="P73">
         <v>2.8</v>
       </c>
-      <c r="P73">
-        <v>3.1</v>
-      </c>
       <c r="Q73">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R73">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S73">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T73">
         <v>2</v>
       </c>
       <c r="U73">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V73">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W73">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z73">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB73">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7042,7 +7042,7 @@
         <v>45003.4375</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G74" t="s">
         <v>42</v>
@@ -7312,7 +7312,7 @@
         <v>38</v>
       </c>
       <c r="G77" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H77">
         <v>4</v>
@@ -7398,7 +7398,7 @@
         <v>45017.41666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G78" t="s">
         <v>41</v>
@@ -7475,7 +7475,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6461126</v>
+        <v>5350252</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7487,49 +7487,49 @@
         <v>45017.52083333334</v>
       </c>
       <c r="F79" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G79" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79">
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K79">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="L79">
         <v>3</v>
       </c>
       <c r="M79">
-        <v>1.909</v>
+        <v>4.2</v>
       </c>
       <c r="N79">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O79">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P79">
-        <v>1.85</v>
+        <v>3.5</v>
       </c>
       <c r="Q79">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R79">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S79">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T79">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U79">
         <v>1.925</v>
@@ -7538,25 +7538,25 @@
         <v>1.875</v>
       </c>
       <c r="W79">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X79">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y79">
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA79">
         <v>-1</v>
       </c>
       <c r="AB79">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC79">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7564,7 +7564,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>5350252</v>
+        <v>6461126</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7576,49 +7576,49 @@
         <v>45017.52083333334</v>
       </c>
       <c r="F80" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G80" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80">
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K80">
-        <v>1.85</v>
+        <v>4</v>
       </c>
       <c r="L80">
         <v>3</v>
       </c>
       <c r="M80">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="N80">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O80">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P80">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q80">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R80">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S80">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T80">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U80">
         <v>1.925</v>
@@ -7627,25 +7627,25 @@
         <v>1.875</v>
       </c>
       <c r="W80">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X80">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y80">
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA80">
         <v>-1</v>
       </c>
       <c r="AB80">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC80">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7668,7 +7668,7 @@
         <v>40</v>
       </c>
       <c r="G81" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -7754,10 +7754,10 @@
         <v>45018.41666666666</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G82" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -8021,10 +8021,10 @@
         <v>45021.60416666666</v>
       </c>
       <c r="F85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G85" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H85">
         <v>3</v>
@@ -8199,10 +8199,10 @@
         <v>45024.41666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G87" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -8377,7 +8377,7 @@
         <v>45024.52083333334</v>
       </c>
       <c r="F89" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G89" t="s">
         <v>43</v>
@@ -8469,7 +8469,7 @@
         <v>37</v>
       </c>
       <c r="G90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8555,7 +8555,7 @@
         <v>45025.41666666666</v>
       </c>
       <c r="F91" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G91" t="s">
         <v>39</v>
@@ -8644,7 +8644,7 @@
         <v>45025.41666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G92" t="s">
         <v>30</v>
@@ -8810,7 +8810,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>5350267</v>
+        <v>5350264</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8825,46 +8825,46 @@
         <v>36</v>
       </c>
       <c r="G94" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I94">
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K94">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="L94">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M94">
-        <v>2.45</v>
+        <v>1.6</v>
       </c>
       <c r="N94">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="O94">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P94">
-        <v>3.25</v>
+        <v>1.833</v>
       </c>
       <c r="Q94">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R94">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S94">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T94">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U94">
         <v>1.8</v>
@@ -8873,25 +8873,25 @@
         <v>2</v>
       </c>
       <c r="W94">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X94">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA94">
         <v>-1</v>
       </c>
       <c r="AB94">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8899,7 +8899,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>5350264</v>
+        <v>5350267</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8914,46 +8914,46 @@
         <v>35</v>
       </c>
       <c r="G95" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I95">
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K95">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="L95">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M95">
-        <v>1.6</v>
+        <v>2.45</v>
       </c>
       <c r="N95">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="O95">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P95">
-        <v>1.833</v>
+        <v>3.25</v>
       </c>
       <c r="Q95">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R95">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S95">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T95">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U95">
         <v>1.8</v>
@@ -8962,25 +8962,25 @@
         <v>2</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X95">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA95">
         <v>-1</v>
       </c>
       <c r="AB95">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC95">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9000,7 +9000,7 @@
         <v>45034.60416666666</v>
       </c>
       <c r="F96" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G96" t="s">
         <v>44</v>
@@ -9092,7 +9092,7 @@
         <v>43</v>
       </c>
       <c r="G97" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9181,7 +9181,7 @@
         <v>38</v>
       </c>
       <c r="G98" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9359,7 +9359,7 @@
         <v>39</v>
       </c>
       <c r="G100" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H100">
         <v>3</v>
@@ -9445,7 +9445,7 @@
         <v>45039.41666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G101" t="s">
         <v>37</v>
@@ -9626,7 +9626,7 @@
         <v>30</v>
       </c>
       <c r="G103" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9801,7 +9801,7 @@
         <v>45043.52083333334</v>
       </c>
       <c r="F105" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G105" t="s">
         <v>43</v>
@@ -9890,7 +9890,7 @@
         <v>45045.41666666666</v>
       </c>
       <c r="F106" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G106" t="s">
         <v>29</v>
@@ -9982,7 +9982,7 @@
         <v>39</v>
       </c>
       <c r="G107" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H107">
         <v>5</v>
@@ -10071,7 +10071,7 @@
         <v>40</v>
       </c>
       <c r="G108" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H108">
         <v>2</v>
@@ -10249,7 +10249,7 @@
         <v>37</v>
       </c>
       <c r="G110" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10427,7 +10427,7 @@
         <v>41</v>
       </c>
       <c r="G112" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -10513,7 +10513,7 @@
         <v>45049.51041666666</v>
       </c>
       <c r="F113" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G113" t="s">
         <v>38</v>
@@ -10590,7 +10590,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>5350280</v>
+        <v>5350279</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10602,76 +10602,76 @@
         <v>45049.60416666666</v>
       </c>
       <c r="F114" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G114" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J114" t="s">
         <v>49</v>
       </c>
       <c r="K114">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L114">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M114">
-        <v>1.666</v>
+        <v>3.5</v>
       </c>
       <c r="N114">
-        <v>4.75</v>
+        <v>1.833</v>
       </c>
       <c r="O114">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P114">
-        <v>1.65</v>
+        <v>4.333</v>
       </c>
       <c r="Q114">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R114">
+        <v>1.85</v>
+      </c>
+      <c r="S114">
         <v>1.95</v>
-      </c>
-      <c r="S114">
-        <v>1.85</v>
       </c>
       <c r="T114">
         <v>2.25</v>
       </c>
       <c r="U114">
+        <v>2</v>
+      </c>
+      <c r="V114">
         <v>1.8</v>
       </c>
-      <c r="V114">
-        <v>2</v>
-      </c>
       <c r="W114">
         <v>-1</v>
       </c>
       <c r="X114">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
+        <v>-1</v>
+      </c>
+      <c r="AA114">
         <v>0.95</v>
       </c>
-      <c r="AA114">
-        <v>-1</v>
-      </c>
       <c r="AB114">
+        <v>-1</v>
+      </c>
+      <c r="AC114">
         <v>0.8</v>
-      </c>
-      <c r="AC114">
-        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10679,7 +10679,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>5350283</v>
+        <v>5350280</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10691,73 +10691,73 @@
         <v>45049.60416666666</v>
       </c>
       <c r="F115" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G115" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H115">
         <v>2</v>
       </c>
       <c r="I115">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J115" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K115">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="L115">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M115">
-        <v>3.6</v>
+        <v>1.666</v>
       </c>
       <c r="N115">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="O115">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P115">
-        <v>3.6</v>
+        <v>1.65</v>
       </c>
       <c r="Q115">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R115">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S115">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T115">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U115">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V115">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W115">
         <v>-1</v>
       </c>
       <c r="X115">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y115">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA115">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC115">
         <v>-1</v>
@@ -10768,7 +10768,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6588907</v>
+        <v>5350283</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10780,73 +10780,73 @@
         <v>45049.60416666666</v>
       </c>
       <c r="F116" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G116" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H116">
         <v>2</v>
       </c>
       <c r="I116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J116" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K116">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="L116">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M116">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="N116">
+        <v>2.1</v>
+      </c>
+      <c r="O116">
         <v>3</v>
       </c>
-      <c r="O116">
-        <v>2.8</v>
-      </c>
       <c r="P116">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q116">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R116">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S116">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T116">
         <v>2</v>
       </c>
       <c r="U116">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V116">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z116">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB116">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC116">
         <v>-1</v>
@@ -10857,7 +10857,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>5350279</v>
+        <v>6588907</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10869,76 +10869,76 @@
         <v>45049.60416666666</v>
       </c>
       <c r="F117" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G117" t="s">
         <v>35</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J117" t="s">
         <v>49</v>
       </c>
       <c r="K117">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="L117">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="M117">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="N117">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="O117">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="P117">
-        <v>4.333</v>
+        <v>2.55</v>
       </c>
       <c r="Q117">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R117">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S117">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T117">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U117">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V117">
+        <v>1.825</v>
+      </c>
+      <c r="W117">
+        <v>-1</v>
+      </c>
+      <c r="X117">
         <v>1.8</v>
       </c>
-      <c r="W117">
-        <v>-1</v>
-      </c>
-      <c r="X117">
-        <v>2.25</v>
-      </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA117">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB117">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC117">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10958,7 +10958,7 @@
         <v>45052.58333333334</v>
       </c>
       <c r="F118" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G118" t="s">
         <v>30</v>
@@ -11124,7 +11124,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>5349203</v>
+        <v>5350288</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11136,76 +11136,76 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F120" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G120" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120">
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K120">
-        <v>1.55</v>
+        <v>2.2</v>
       </c>
       <c r="L120">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="M120">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="N120">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="O120">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="P120">
-        <v>7.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q120">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R120">
+        <v>1.825</v>
+      </c>
+      <c r="S120">
         <v>1.975</v>
       </c>
-      <c r="S120">
-        <v>1.825</v>
-      </c>
       <c r="T120">
         <v>2</v>
       </c>
       <c r="U120">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V120">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="W120">
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z120">
         <v>-1</v>
       </c>
       <c r="AA120">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB120">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11213,7 +11213,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>5350286</v>
+        <v>5350287</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11225,13 +11225,13 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F121" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G121" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121">
         <v>0</v>
@@ -11240,43 +11240,43 @@
         <v>48</v>
       </c>
       <c r="K121">
+        <v>2.625</v>
+      </c>
+      <c r="L121">
+        <v>2.9</v>
+      </c>
+      <c r="M121">
+        <v>2.55</v>
+      </c>
+      <c r="N121">
+        <v>2.25</v>
+      </c>
+      <c r="O121">
+        <v>3</v>
+      </c>
+      <c r="P121">
+        <v>2.9</v>
+      </c>
+      <c r="Q121">
+        <v>-0.25</v>
+      </c>
+      <c r="R121">
+        <v>2.05</v>
+      </c>
+      <c r="S121">
         <v>1.75</v>
-      </c>
-      <c r="L121">
-        <v>3.2</v>
-      </c>
-      <c r="M121">
-        <v>4.5</v>
-      </c>
-      <c r="N121">
-        <v>1.85</v>
-      </c>
-      <c r="O121">
-        <v>3.2</v>
-      </c>
-      <c r="P121">
-        <v>4</v>
-      </c>
-      <c r="Q121">
-        <v>-0.5</v>
-      </c>
-      <c r="R121">
-        <v>1.9</v>
-      </c>
-      <c r="S121">
-        <v>1.9</v>
       </c>
       <c r="T121">
         <v>2.25</v>
       </c>
       <c r="U121">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V121">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W121">
-        <v>0.8500000000000001</v>
+        <v>1.25</v>
       </c>
       <c r="X121">
         <v>-1</v>
@@ -11285,16 +11285,16 @@
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AA121">
         <v>-1</v>
       </c>
       <c r="AB121">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC121">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11302,7 +11302,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>5350284</v>
+        <v>5350286</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11314,13 +11314,13 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F122" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G122" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I122">
         <v>0</v>
@@ -11329,43 +11329,43 @@
         <v>48</v>
       </c>
       <c r="K122">
+        <v>1.75</v>
+      </c>
+      <c r="L122">
+        <v>3.2</v>
+      </c>
+      <c r="M122">
+        <v>4.5</v>
+      </c>
+      <c r="N122">
+        <v>1.85</v>
+      </c>
+      <c r="O122">
+        <v>3.2</v>
+      </c>
+      <c r="P122">
+        <v>4</v>
+      </c>
+      <c r="Q122">
+        <v>-0.5</v>
+      </c>
+      <c r="R122">
+        <v>1.9</v>
+      </c>
+      <c r="S122">
+        <v>1.9</v>
+      </c>
+      <c r="T122">
         <v>2.25</v>
       </c>
-      <c r="L122">
-        <v>2.9</v>
-      </c>
-      <c r="M122">
-        <v>3.2</v>
-      </c>
-      <c r="N122">
-        <v>2.625</v>
-      </c>
-      <c r="O122">
-        <v>2.75</v>
-      </c>
-      <c r="P122">
-        <v>2.8</v>
-      </c>
-      <c r="Q122">
-        <v>0</v>
-      </c>
-      <c r="R122">
-        <v>1.775</v>
-      </c>
-      <c r="S122">
-        <v>2.025</v>
-      </c>
-      <c r="T122">
-        <v>2</v>
-      </c>
       <c r="U122">
+        <v>1.95</v>
+      </c>
+      <c r="V122">
         <v>1.85</v>
       </c>
-      <c r="V122">
-        <v>1.95</v>
-      </c>
       <c r="W122">
-        <v>1.625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X122">
         <v>-1</v>
@@ -11374,16 +11374,16 @@
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA122">
         <v>-1</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC122">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11391,7 +11391,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>5350288</v>
+        <v>5350284</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11403,76 +11403,76 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F123" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G123" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K123">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L123">
         <v>2.9</v>
       </c>
       <c r="M123">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N123">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="O123">
         <v>2.75</v>
       </c>
       <c r="P123">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="Q123">
         <v>0</v>
       </c>
       <c r="R123">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S123">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T123">
         <v>2</v>
       </c>
       <c r="U123">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V123">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W123">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA123">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
         <v>-1</v>
       </c>
       <c r="AC123">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11480,7 +11480,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>5350289</v>
+        <v>5349203</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11492,76 +11492,76 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F124" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G124" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H124">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K124">
-        <v>1.909</v>
+        <v>1.55</v>
       </c>
       <c r="L124">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M124">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="N124">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="O124">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P124">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="Q124">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R124">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S124">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T124">
         <v>2</v>
       </c>
       <c r="U124">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V124">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W124">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB124">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11569,7 +11569,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>5350287</v>
+        <v>5350289</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11581,13 +11581,13 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F125" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G125" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I125">
         <v>0</v>
@@ -11596,43 +11596,43 @@
         <v>48</v>
       </c>
       <c r="K125">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="L125">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M125">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="N125">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="O125">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P125">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="Q125">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R125">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S125">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T125">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U125">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V125">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W125">
-        <v>1.25</v>
+        <v>0.909</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11641,16 +11641,16 @@
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AA125">
         <v>-1</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC125">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11747,7 +11747,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>5350291</v>
+        <v>5349204</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11759,76 +11759,76 @@
         <v>45066.41666666666</v>
       </c>
       <c r="F127" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G127" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H127">
         <v>0</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J127" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K127">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="L127">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M127">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="N127">
-        <v>1.95</v>
+        <v>6</v>
       </c>
       <c r="O127">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P127">
-        <v>3.8</v>
+        <v>1.571</v>
       </c>
       <c r="Q127">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R127">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S127">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T127">
         <v>2.25</v>
       </c>
       <c r="U127">
+        <v>1.85</v>
+      </c>
+      <c r="V127">
         <v>1.95</v>
       </c>
-      <c r="V127">
-        <v>1.85</v>
-      </c>
       <c r="W127">
         <v>-1</v>
       </c>
       <c r="X127">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y127">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z127">
         <v>-1</v>
       </c>
       <c r="AA127">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB127">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC127">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11836,7 +11836,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>5349204</v>
+        <v>5350300</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11848,40 +11848,40 @@
         <v>45066.41666666666</v>
       </c>
       <c r="F128" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G128" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K128">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="L128">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M128">
-        <v>1.833</v>
+        <v>3.5</v>
       </c>
       <c r="N128">
-        <v>6</v>
+        <v>2.05</v>
       </c>
       <c r="O128">
+        <v>3.2</v>
+      </c>
+      <c r="P128">
         <v>3.4</v>
       </c>
-      <c r="P128">
-        <v>1.571</v>
-      </c>
       <c r="Q128">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R128">
         <v>1.775</v>
@@ -11893,28 +11893,28 @@
         <v>2.25</v>
       </c>
       <c r="U128">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V128">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W128">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA128">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB128">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC128">
         <v>-1</v>
@@ -11937,10 +11937,10 @@
         <v>45066.41666666666</v>
       </c>
       <c r="F129" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G129" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -12103,7 +12103,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>5350298</v>
+        <v>5350297</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12115,13 +12115,13 @@
         <v>45066.41666666666</v>
       </c>
       <c r="F131" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G131" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131">
         <v>0</v>
@@ -12130,43 +12130,43 @@
         <v>48</v>
       </c>
       <c r="K131">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="L131">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M131">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="N131">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="O131">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P131">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="Q131">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R131">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S131">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T131">
         <v>2</v>
       </c>
       <c r="U131">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V131">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W131">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="X131">
         <v>-1</v>
@@ -12175,16 +12175,16 @@
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA131">
         <v>-1</v>
       </c>
       <c r="AB131">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>5350297</v>
+        <v>5350298</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,13 +12204,13 @@
         <v>45066.41666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G132" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I132">
         <v>0</v>
@@ -12219,43 +12219,43 @@
         <v>48</v>
       </c>
       <c r="K132">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="L132">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M132">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="N132">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="O132">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P132">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="Q132">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R132">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S132">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T132">
         <v>2</v>
       </c>
       <c r="U132">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V132">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W132">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="X132">
         <v>-1</v>
@@ -12264,16 +12264,16 @@
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA132">
         <v>-1</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC132">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>5350300</v>
+        <v>5350291</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,76 +12293,76 @@
         <v>45066.41666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G133" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K133">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="L133">
         <v>3</v>
       </c>
       <c r="M133">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N133">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O133">
         <v>3.2</v>
       </c>
       <c r="P133">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q133">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R133">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S133">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T133">
         <v>2.25</v>
       </c>
       <c r="U133">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V133">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W133">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X133">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB133">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12382,7 +12382,7 @@
         <v>45142.60416666666</v>
       </c>
       <c r="F134" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G134" t="s">
         <v>30</v>
@@ -12474,7 +12474,7 @@
         <v>44</v>
       </c>
       <c r="G135" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H135">
         <v>2</v>
@@ -12560,10 +12560,10 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F136" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G136" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H136">
         <v>1</v>
@@ -12649,7 +12649,7 @@
         <v>45143.52083333334</v>
       </c>
       <c r="F137" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G137" t="s">
         <v>40</v>
@@ -12815,7 +12815,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6961782</v>
+        <v>6961781</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12827,40 +12827,40 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F139" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G139" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139">
         <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K139">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="L139">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M139">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N139">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="O139">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P139">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q139">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R139">
         <v>1.85</v>
@@ -12872,31 +12872,31 @@
         <v>2</v>
       </c>
       <c r="U139">
+        <v>1.975</v>
+      </c>
+      <c r="V139">
         <v>1.825</v>
       </c>
-      <c r="V139">
-        <v>1.975</v>
-      </c>
       <c r="W139">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X139">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA139">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
         <v>-1</v>
       </c>
       <c r="AC139">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12904,7 +12904,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6961781</v>
+        <v>6961782</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12916,40 +12916,40 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G140" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140">
         <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K140">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="L140">
+        <v>3.3</v>
+      </c>
+      <c r="M140">
+        <v>7</v>
+      </c>
+      <c r="N140">
+        <v>1.65</v>
+      </c>
+      <c r="O140">
         <v>3.1</v>
       </c>
-      <c r="M140">
-        <v>4</v>
-      </c>
-      <c r="N140">
-        <v>2.05</v>
-      </c>
-      <c r="O140">
-        <v>2.8</v>
-      </c>
       <c r="P140">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q140">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R140">
         <v>1.85</v>
@@ -12961,31 +12961,31 @@
         <v>2</v>
       </c>
       <c r="U140">
+        <v>1.825</v>
+      </c>
+      <c r="V140">
         <v>1.975</v>
       </c>
-      <c r="V140">
-        <v>1.825</v>
-      </c>
       <c r="W140">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X140">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB140">
         <v>-1</v>
       </c>
       <c r="AC140">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13094,10 +13094,10 @@
         <v>45146.5</v>
       </c>
       <c r="F142" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G142" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13186,7 +13186,7 @@
         <v>41</v>
       </c>
       <c r="G143" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H143">
         <v>4</v>
@@ -13272,7 +13272,7 @@
         <v>45147.41666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G144" t="s">
         <v>29</v>
@@ -13527,7 +13527,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7007760</v>
+        <v>7007759</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13539,76 +13539,76 @@
         <v>45147.60416666666</v>
       </c>
       <c r="F147" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G147" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147">
         <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K147">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="L147">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M147">
+        <v>2.25</v>
+      </c>
+      <c r="N147">
+        <v>2.875</v>
+      </c>
+      <c r="O147">
         <v>3</v>
       </c>
-      <c r="N147">
-        <v>2.4</v>
-      </c>
-      <c r="O147">
-        <v>2.8</v>
-      </c>
       <c r="P147">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="Q147">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R147">
+        <v>1.725</v>
+      </c>
+      <c r="S147">
         <v>2.075</v>
       </c>
-      <c r="S147">
-        <v>1.725</v>
-      </c>
       <c r="T147">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U147">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V147">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W147">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X147">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-0.5</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA147">
-        <v>0.3625</v>
+        <v>-1</v>
       </c>
       <c r="AB147">
         <v>-1</v>
       </c>
       <c r="AC147">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13616,7 +13616,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7007759</v>
+        <v>7007760</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13628,76 +13628,76 @@
         <v>45147.60416666666</v>
       </c>
       <c r="F148" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G148" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148">
         <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K148">
+        <v>2.4</v>
+      </c>
+      <c r="L148">
+        <v>2.9</v>
+      </c>
+      <c r="M148">
         <v>3</v>
       </c>
-      <c r="L148">
-        <v>3.1</v>
-      </c>
-      <c r="M148">
-        <v>2.25</v>
-      </c>
       <c r="N148">
-        <v>2.875</v>
+        <v>2.4</v>
       </c>
       <c r="O148">
+        <v>2.8</v>
+      </c>
+      <c r="P148">
         <v>3</v>
       </c>
-      <c r="P148">
-        <v>2.45</v>
-      </c>
       <c r="Q148">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R148">
+        <v>2.075</v>
+      </c>
+      <c r="S148">
         <v>1.725</v>
       </c>
-      <c r="S148">
-        <v>2.075</v>
-      </c>
       <c r="T148">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U148">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V148">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W148">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X148">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.7250000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA148">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
       <c r="AB148">
         <v>-1</v>
       </c>
       <c r="AC148">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13720,7 +13720,7 @@
         <v>46</v>
       </c>
       <c r="G149" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -13809,7 +13809,7 @@
         <v>30</v>
       </c>
       <c r="G150" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H150">
         <v>4</v>
@@ -13984,10 +13984,10 @@
         <v>45154.60416666666</v>
       </c>
       <c r="F152" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G152" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -14061,7 +14061,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7068224</v>
+        <v>7007762</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14073,76 +14073,76 @@
         <v>45156.60416666666</v>
       </c>
       <c r="F153" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G153" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H153">
         <v>1</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J153" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K153">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="L153">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M153">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="N153">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="O153">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P153">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="Q153">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R153">
+        <v>1.8</v>
+      </c>
+      <c r="S153">
+        <v>2</v>
+      </c>
+      <c r="T153">
+        <v>2</v>
+      </c>
+      <c r="U153">
         <v>1.95</v>
       </c>
-      <c r="S153">
+      <c r="V153">
         <v>1.85</v>
       </c>
-      <c r="T153">
-        <v>2</v>
-      </c>
-      <c r="U153">
-        <v>2</v>
-      </c>
-      <c r="V153">
-        <v>1.8</v>
-      </c>
       <c r="W153">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z153">
+        <v>-1</v>
+      </c>
+      <c r="AA153">
+        <v>1</v>
+      </c>
+      <c r="AB153">
         <v>0.95</v>
       </c>
-      <c r="AA153">
-        <v>-1</v>
-      </c>
-      <c r="AB153">
-        <v>-1</v>
-      </c>
       <c r="AC153">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14150,7 +14150,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7007762</v>
+        <v>7068224</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14162,76 +14162,76 @@
         <v>45156.60416666666</v>
       </c>
       <c r="F154" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G154" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H154">
         <v>1</v>
       </c>
       <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154" t="s">
+        <v>48</v>
+      </c>
+      <c r="K154">
+        <v>1.909</v>
+      </c>
+      <c r="L154">
         <v>3</v>
       </c>
-      <c r="J154" t="s">
-        <v>47</v>
-      </c>
-      <c r="K154">
-        <v>2.6</v>
-      </c>
-      <c r="L154">
-        <v>2.875</v>
-      </c>
       <c r="M154">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="N154">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="O154">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P154">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="Q154">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R154">
+        <v>1.95</v>
+      </c>
+      <c r="S154">
+        <v>1.85</v>
+      </c>
+      <c r="T154">
+        <v>2</v>
+      </c>
+      <c r="U154">
+        <v>2</v>
+      </c>
+      <c r="V154">
         <v>1.8</v>
       </c>
-      <c r="S154">
-        <v>2</v>
-      </c>
-      <c r="T154">
-        <v>2</v>
-      </c>
-      <c r="U154">
-        <v>1.95</v>
-      </c>
-      <c r="V154">
-        <v>1.85</v>
-      </c>
       <c r="W154">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X154">
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z154">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA154">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB154">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC154">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14343,7 +14343,7 @@
         <v>40</v>
       </c>
       <c r="G156" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -14607,7 +14607,7 @@
         <v>45161.5</v>
       </c>
       <c r="F159" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G159" t="s">
         <v>30</v>
@@ -14699,7 +14699,7 @@
         <v>29</v>
       </c>
       <c r="G160" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -14874,7 +14874,7 @@
         <v>45164.41666666666</v>
       </c>
       <c r="F162" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G162" t="s">
         <v>45</v>
@@ -15141,7 +15141,7 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F165" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G165" t="s">
         <v>38</v>
@@ -15233,7 +15233,7 @@
         <v>44</v>
       </c>
       <c r="G166" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H166">
         <v>0</v>
@@ -15485,7 +15485,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>7078413</v>
+        <v>7078410</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15497,76 +15497,76 @@
         <v>45168.60416666666</v>
       </c>
       <c r="F169" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G169" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H169">
         <v>1</v>
       </c>
       <c r="I169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K169">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="L169">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="M169">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="N169">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O169">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="P169">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="Q169">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R169">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="S169">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="T169">
         <v>1.75</v>
       </c>
       <c r="U169">
+        <v>2.025</v>
+      </c>
+      <c r="V169">
         <v>1.775</v>
       </c>
-      <c r="V169">
-        <v>2.025</v>
-      </c>
       <c r="W169">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X169">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y169">
         <v>-1</v>
       </c>
       <c r="Z169">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="AA169">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB169">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AC169">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15574,7 +15574,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>7078409</v>
+        <v>7078412</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15586,73 +15586,73 @@
         <v>45168.60416666666</v>
       </c>
       <c r="F170" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G170" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I170">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J170" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K170">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="L170">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="M170">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="N170">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="O170">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P170">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q170">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R170">
+        <v>1.9</v>
+      </c>
+      <c r="S170">
+        <v>1.9</v>
+      </c>
+      <c r="T170">
+        <v>2</v>
+      </c>
+      <c r="U170">
+        <v>1.975</v>
+      </c>
+      <c r="V170">
         <v>1.825</v>
       </c>
-      <c r="S170">
-        <v>1.975</v>
-      </c>
-      <c r="T170">
-        <v>2</v>
-      </c>
-      <c r="U170">
-        <v>2.025</v>
-      </c>
-      <c r="V170">
-        <v>1.775</v>
-      </c>
       <c r="W170">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X170">
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z170">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA170">
+        <v>-1</v>
+      </c>
+      <c r="AB170">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB170">
-        <v>1.025</v>
       </c>
       <c r="AC170">
         <v>-1</v>
@@ -15663,7 +15663,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>7078412</v>
+        <v>7078413</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15675,58 +15675,58 @@
         <v>45168.60416666666</v>
       </c>
       <c r="F171" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G171" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H171">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J171" t="s">
         <v>48</v>
       </c>
       <c r="K171">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="L171">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="M171">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="N171">
-        <v>1.833</v>
+        <v>3.1</v>
       </c>
       <c r="O171">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P171">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q171">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R171">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="S171">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="T171">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U171">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V171">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W171">
-        <v>0.833</v>
+        <v>2.1</v>
       </c>
       <c r="X171">
         <v>-1</v>
@@ -15735,16 +15735,16 @@
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>0.8999999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="AA171">
         <v>-1</v>
       </c>
       <c r="AB171">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC171">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15752,7 +15752,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>7078410</v>
+        <v>7078409</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15764,49 +15764,49 @@
         <v>45168.60416666666</v>
       </c>
       <c r="F172" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G172" t="s">
         <v>31</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I172">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J172" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K172">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="L172">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M172">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="N172">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="O172">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="P172">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q172">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R172">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S172">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T172">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U172">
         <v>2.025</v>
@@ -15818,22 +15818,22 @@
         <v>-1</v>
       </c>
       <c r="X172">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y172">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z172">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA172">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB172">
-        <v>0.5125</v>
+        <v>1.025</v>
       </c>
       <c r="AC172">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15942,10 +15942,10 @@
         <v>45184.60416666666</v>
       </c>
       <c r="F174" t="s">
+        <v>34</v>
+      </c>
+      <c r="G174" t="s">
         <v>33</v>
-      </c>
-      <c r="G174" t="s">
-        <v>34</v>
       </c>
       <c r="H174">
         <v>0</v>
@@ -16031,7 +16031,7 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F175" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G175" t="s">
         <v>39</v>
@@ -16123,7 +16123,7 @@
         <v>37</v>
       </c>
       <c r="G176" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H176">
         <v>0</v>
@@ -16301,7 +16301,7 @@
         <v>39</v>
       </c>
       <c r="G178" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H178">
         <v>0</v>
@@ -16375,7 +16375,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>7169681</v>
+        <v>7169682</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16387,10 +16387,10 @@
         <v>45188.60416666666</v>
       </c>
       <c r="F179" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G179" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H179">
         <v>1</v>
@@ -16402,40 +16402,40 @@
         <v>47</v>
       </c>
       <c r="K179">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="L179">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M179">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="N179">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="O179">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="P179">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="Q179">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R179">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="S179">
-        <v>2.075</v>
+        <v>2.025</v>
       </c>
       <c r="T179">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U179">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V179">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W179">
         <v>-1</v>
@@ -16444,16 +16444,16 @@
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>1.375</v>
+        <v>2</v>
       </c>
       <c r="Z179">
         <v>-1</v>
       </c>
       <c r="AA179">
-        <v>1.075</v>
+        <v>1.025</v>
       </c>
       <c r="AB179">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AC179">
         <v>-1</v>
@@ -16464,7 +16464,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7169682</v>
+        <v>7169681</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16476,10 +16476,10 @@
         <v>45188.60416666666</v>
       </c>
       <c r="F180" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G180" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H180">
         <v>1</v>
@@ -16491,41 +16491,41 @@
         <v>47</v>
       </c>
       <c r="K180">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="L180">
+        <v>3.2</v>
+      </c>
+      <c r="M180">
+        <v>1.909</v>
+      </c>
+      <c r="N180">
+        <v>2.875</v>
+      </c>
+      <c r="O180">
         <v>2.9</v>
       </c>
-      <c r="M180">
-        <v>2.75</v>
-      </c>
-      <c r="N180">
-        <v>2.5</v>
-      </c>
-      <c r="O180">
-        <v>2.7</v>
-      </c>
       <c r="P180">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="Q180">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R180">
+        <v>1.725</v>
+      </c>
+      <c r="S180">
+        <v>2.075</v>
+      </c>
+      <c r="T180">
+        <v>2.25</v>
+      </c>
+      <c r="U180">
+        <v>2.025</v>
+      </c>
+      <c r="V180">
         <v>1.775</v>
       </c>
-      <c r="S180">
-        <v>2.025</v>
-      </c>
-      <c r="T180">
-        <v>1.75</v>
-      </c>
-      <c r="U180">
-        <v>1.925</v>
-      </c>
-      <c r="V180">
-        <v>1.875</v>
-      </c>
       <c r="W180">
         <v>-1</v>
       </c>
@@ -16533,16 +16533,16 @@
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>2</v>
+        <v>1.375</v>
       </c>
       <c r="Z180">
         <v>-1</v>
       </c>
       <c r="AA180">
+        <v>1.075</v>
+      </c>
+      <c r="AB180">
         <v>1.025</v>
-      </c>
-      <c r="AB180">
-        <v>0.925</v>
       </c>
       <c r="AC180">
         <v>-1</v>
@@ -16553,7 +16553,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7170833</v>
+        <v>7169684</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16565,10 +16565,10 @@
         <v>45189.60416666666</v>
       </c>
       <c r="F181" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G181" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H181">
         <v>0</v>
@@ -16580,25 +16580,25 @@
         <v>47</v>
       </c>
       <c r="K181">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="L181">
         <v>2.875</v>
       </c>
       <c r="M181">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="N181">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="O181">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="P181">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="Q181">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R181">
         <v>1.925</v>
@@ -16607,13 +16607,13 @@
         <v>1.875</v>
       </c>
       <c r="T181">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U181">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V181">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W181">
         <v>-1</v>
@@ -16622,7 +16622,7 @@
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>1.1</v>
+        <v>1.625</v>
       </c>
       <c r="Z181">
         <v>-1</v>
@@ -16634,7 +16634,7 @@
         <v>-1</v>
       </c>
       <c r="AC181">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16642,7 +16642,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7169684</v>
+        <v>7169685</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16654,76 +16654,76 @@
         <v>45189.60416666666</v>
       </c>
       <c r="F182" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G182" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K182">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="L182">
+        <v>2.9</v>
+      </c>
+      <c r="M182">
+        <v>3.75</v>
+      </c>
+      <c r="N182">
+        <v>1.909</v>
+      </c>
+      <c r="O182">
         <v>2.875</v>
       </c>
-      <c r="M182">
-        <v>2.875</v>
-      </c>
-      <c r="N182">
-        <v>2.7</v>
-      </c>
-      <c r="O182">
-        <v>2.7</v>
-      </c>
       <c r="P182">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="Q182">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R182">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S182">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T182">
         <v>1.75</v>
       </c>
       <c r="U182">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V182">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W182">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X182">
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z182">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA182">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB182">
         <v>-1</v>
       </c>
       <c r="AC182">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16731,7 +16731,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7169685</v>
+        <v>7170834</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16743,76 +16743,76 @@
         <v>45189.60416666666</v>
       </c>
       <c r="F183" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G183" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183">
         <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K183">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="L183">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="M183">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N183">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="O183">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="P183">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="Q183">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R183">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="S183">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="T183">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U183">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="V183">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="W183">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X183">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y183">
         <v>-1</v>
       </c>
       <c r="Z183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA183">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB183">
         <v>-1</v>
       </c>
       <c r="AC183">
-        <v>1.05</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16820,7 +16820,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7170834</v>
+        <v>7170833</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16832,76 +16832,76 @@
         <v>45189.60416666666</v>
       </c>
       <c r="F184" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G184" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H184">
         <v>0</v>
       </c>
       <c r="I184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K184">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="L184">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="M184">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N184">
-        <v>2.45</v>
+        <v>3.4</v>
       </c>
       <c r="O184">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="P184">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="Q184">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R184">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S184">
-        <v>2.075</v>
+        <v>1.875</v>
       </c>
       <c r="T184">
         <v>2</v>
       </c>
       <c r="U184">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V184">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W184">
         <v>-1</v>
       </c>
       <c r="X184">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y184">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z184">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA184">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB184">
         <v>-1</v>
       </c>
       <c r="AC184">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -17087,7 +17087,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7234870</v>
+        <v>7234871</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17099,13 +17099,13 @@
         <v>45196.60416666666</v>
       </c>
       <c r="F187" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G187" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H187">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I187">
         <v>1</v>
@@ -17114,43 +17114,43 @@
         <v>48</v>
       </c>
       <c r="K187">
-        <v>1.333</v>
+        <v>1.85</v>
       </c>
       <c r="L187">
+        <v>3.1</v>
+      </c>
+      <c r="M187">
         <v>4.333</v>
       </c>
-      <c r="M187">
-        <v>8.5</v>
-      </c>
       <c r="N187">
-        <v>1.363</v>
+        <v>2.05</v>
       </c>
       <c r="O187">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="P187">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="Q187">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R187">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S187">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T187">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U187">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V187">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="W187">
-        <v>0.363</v>
+        <v>1.05</v>
       </c>
       <c r="X187">
         <v>-1</v>
@@ -17159,13 +17159,13 @@
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA187">
         <v>-1</v>
       </c>
       <c r="AB187">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AC187">
         <v>-1</v>
@@ -17176,7 +17176,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7234871</v>
+        <v>7234870</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17188,13 +17188,13 @@
         <v>45196.60416666666</v>
       </c>
       <c r="F188" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G188" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I188">
         <v>1</v>
@@ -17203,43 +17203,43 @@
         <v>48</v>
       </c>
       <c r="K188">
+        <v>1.333</v>
+      </c>
+      <c r="L188">
+        <v>4.333</v>
+      </c>
+      <c r="M188">
+        <v>8.5</v>
+      </c>
+      <c r="N188">
+        <v>1.363</v>
+      </c>
+      <c r="O188">
+        <v>4.2</v>
+      </c>
+      <c r="P188">
+        <v>8.5</v>
+      </c>
+      <c r="Q188">
+        <v>-1.25</v>
+      </c>
+      <c r="R188">
         <v>1.85</v>
       </c>
-      <c r="L188">
-        <v>3.1</v>
-      </c>
-      <c r="M188">
-        <v>4.333</v>
-      </c>
-      <c r="N188">
-        <v>2.05</v>
-      </c>
-      <c r="O188">
-        <v>2.875</v>
-      </c>
-      <c r="P188">
-        <v>4</v>
-      </c>
-      <c r="Q188">
-        <v>-0.5</v>
-      </c>
-      <c r="R188">
-        <v>2</v>
-      </c>
       <c r="S188">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T188">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U188">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V188">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="W188">
-        <v>1.05</v>
+        <v>0.363</v>
       </c>
       <c r="X188">
         <v>-1</v>
@@ -17248,13 +17248,13 @@
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA188">
         <v>-1</v>
       </c>
       <c r="AB188">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AC188">
         <v>-1</v>
@@ -17277,7 +17277,7 @@
         <v>45198.60416666666</v>
       </c>
       <c r="F189" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G189" t="s">
         <v>40</v>
@@ -17458,7 +17458,7 @@
         <v>45</v>
       </c>
       <c r="G191" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H191">
         <v>1</v>
@@ -17547,7 +17547,7 @@
         <v>38</v>
       </c>
       <c r="G192" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H192">
         <v>1</v>
@@ -17722,7 +17722,7 @@
         <v>45203.5</v>
       </c>
       <c r="F194" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G194" t="s">
         <v>42</v>
@@ -17799,7 +17799,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>7267512</v>
+        <v>7267510</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17811,73 +17811,73 @@
         <v>45203.60416666666</v>
       </c>
       <c r="F195" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G195" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I195">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J195" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K195">
-        <v>5</v>
+        <v>2.35</v>
       </c>
       <c r="L195">
+        <v>2.875</v>
+      </c>
+      <c r="M195">
+        <v>3.2</v>
+      </c>
+      <c r="N195">
+        <v>2.3</v>
+      </c>
+      <c r="O195">
+        <v>2.875</v>
+      </c>
+      <c r="P195">
         <v>3.3</v>
       </c>
-      <c r="M195">
-        <v>1.7</v>
-      </c>
-      <c r="N195">
-        <v>5</v>
-      </c>
-      <c r="O195">
-        <v>3.3</v>
-      </c>
-      <c r="P195">
-        <v>1.7</v>
-      </c>
       <c r="Q195">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R195">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S195">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T195">
         <v>2</v>
       </c>
       <c r="U195">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V195">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W195">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X195">
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z195">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA195">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB195">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC195">
         <v>-1</v>
@@ -17888,7 +17888,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>7267510</v>
+        <v>7267512</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17900,73 +17900,73 @@
         <v>45203.60416666666</v>
       </c>
       <c r="F196" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G196" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H196">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I196">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J196" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K196">
-        <v>2.35</v>
+        <v>5</v>
       </c>
       <c r="L196">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="M196">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="N196">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="O196">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="P196">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="Q196">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R196">
+        <v>1.875</v>
+      </c>
+      <c r="S196">
+        <v>1.925</v>
+      </c>
+      <c r="T196">
+        <v>2</v>
+      </c>
+      <c r="U196">
+        <v>1.825</v>
+      </c>
+      <c r="V196">
         <v>1.975</v>
       </c>
-      <c r="S196">
-        <v>1.825</v>
-      </c>
-      <c r="T196">
-        <v>2</v>
-      </c>
-      <c r="U196">
-        <v>1.85</v>
-      </c>
-      <c r="V196">
-        <v>1.95</v>
-      </c>
       <c r="W196">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z196">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA196">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB196">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC196">
         <v>-1</v>
@@ -17989,7 +17989,7 @@
         <v>45203.60416666666</v>
       </c>
       <c r="F197" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G197" t="s">
         <v>45</v>
@@ -18078,10 +18078,10 @@
         <v>45204.60416666666</v>
       </c>
       <c r="F198" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G198" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H198">
         <v>0</v>
@@ -18167,7 +18167,7 @@
         <v>45207.4375</v>
       </c>
       <c r="F199" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G199" t="s">
         <v>45</v>
@@ -18348,7 +18348,7 @@
         <v>44</v>
       </c>
       <c r="G201" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H201">
         <v>3</v>
@@ -18523,7 +18523,7 @@
         <v>45227.4375</v>
       </c>
       <c r="F203" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G203" t="s">
         <v>37</v>
@@ -18701,7 +18701,7 @@
         <v>45228.4375</v>
       </c>
       <c r="F205" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G205" t="s">
         <v>29</v>
@@ -18867,7 +18867,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>7404431</v>
+        <v>7404428</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18879,58 +18879,58 @@
         <v>45237.60416666666</v>
       </c>
       <c r="F207" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G207" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J207" t="s">
         <v>48</v>
       </c>
       <c r="K207">
-        <v>2.05</v>
+        <v>3.4</v>
       </c>
       <c r="L207">
+        <v>3.1</v>
+      </c>
+      <c r="M207">
+        <v>2.1</v>
+      </c>
+      <c r="N207">
         <v>3</v>
-      </c>
-      <c r="M207">
-        <v>3.5</v>
-      </c>
-      <c r="N207">
-        <v>1.909</v>
       </c>
       <c r="O207">
         <v>3</v>
       </c>
       <c r="P207">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q207">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R207">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S207">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T207">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U207">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V207">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="W207">
-        <v>0.909</v>
+        <v>2</v>
       </c>
       <c r="X207">
         <v>-1</v>
@@ -18939,16 +18939,16 @@
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AA207">
         <v>-1</v>
       </c>
       <c r="AB207">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC207">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18956,7 +18956,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7404430</v>
+        <v>7404429</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18968,76 +18968,76 @@
         <v>45237.60416666666</v>
       </c>
       <c r="F208" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G208" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J208" t="s">
         <v>48</v>
       </c>
       <c r="K208">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="L208">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M208">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="N208">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="O208">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P208">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q208">
+        <v>-0.75</v>
+      </c>
+      <c r="R208">
+        <v>1.875</v>
+      </c>
+      <c r="S208">
+        <v>1.925</v>
+      </c>
+      <c r="T208">
+        <v>2.25</v>
+      </c>
+      <c r="U208">
+        <v>1.925</v>
+      </c>
+      <c r="V208">
+        <v>1.875</v>
+      </c>
+      <c r="W208">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X208">
+        <v>-1</v>
+      </c>
+      <c r="Y208">
+        <v>-1</v>
+      </c>
+      <c r="Z208">
+        <v>0.4375</v>
+      </c>
+      <c r="AA208">
         <v>-0.5</v>
       </c>
-      <c r="R208">
-        <v>1.8</v>
-      </c>
-      <c r="S208">
-        <v>2</v>
-      </c>
-      <c r="T208">
-        <v>2</v>
-      </c>
-      <c r="U208">
-        <v>1.9</v>
-      </c>
-      <c r="V208">
-        <v>1.9</v>
-      </c>
-      <c r="W208">
-        <v>0.8</v>
-      </c>
-      <c r="X208">
-        <v>-1</v>
-      </c>
-      <c r="Y208">
-        <v>-1</v>
-      </c>
-      <c r="Z208">
-        <v>0.8</v>
-      </c>
-      <c r="AA208">
-        <v>-1</v>
-      </c>
       <c r="AB208">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC208">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19045,7 +19045,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7404429</v>
+        <v>7404430</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19057,58 +19057,58 @@
         <v>45237.60416666666</v>
       </c>
       <c r="F209" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G209" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H209">
+        <v>2</v>
+      </c>
+      <c r="I209">
         <v>1</v>
-      </c>
-      <c r="I209">
-        <v>0</v>
       </c>
       <c r="J209" t="s">
         <v>48</v>
       </c>
       <c r="K209">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="L209">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M209">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="N209">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="O209">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P209">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q209">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R209">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S209">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T209">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U209">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V209">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W209">
-        <v>0.6499999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X209">
         <v>-1</v>
@@ -19117,16 +19117,16 @@
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
       <c r="AA209">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB209">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC209">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19134,7 +19134,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7404428</v>
+        <v>7404431</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19146,58 +19146,58 @@
         <v>45237.60416666666</v>
       </c>
       <c r="F210" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G210" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H210">
+        <v>2</v>
+      </c>
+      <c r="I210">
         <v>1</v>
-      </c>
-      <c r="I210">
-        <v>0</v>
       </c>
       <c r="J210" t="s">
         <v>48</v>
       </c>
       <c r="K210">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="L210">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M210">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="N210">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="O210">
         <v>3</v>
       </c>
       <c r="P210">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="Q210">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R210">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S210">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T210">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U210">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V210">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="W210">
-        <v>2</v>
+        <v>0.909</v>
       </c>
       <c r="X210">
         <v>-1</v>
@@ -19206,16 +19206,16 @@
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AA210">
         <v>-1</v>
       </c>
       <c r="AB210">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC210">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19235,7 +19235,7 @@
         <v>45238.60416666666</v>
       </c>
       <c r="F211" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G211" t="s">
         <v>38</v>
@@ -19312,7 +19312,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7404433</v>
+        <v>7404434</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19324,76 +19324,76 @@
         <v>45238.60416666666</v>
       </c>
       <c r="F212" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G212" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H212">
+        <v>1</v>
+      </c>
+      <c r="I212">
+        <v>1</v>
+      </c>
+      <c r="J212" t="s">
+        <v>49</v>
+      </c>
+      <c r="K212">
+        <v>2.6</v>
+      </c>
+      <c r="L212">
         <v>3</v>
       </c>
-      <c r="I212">
-        <v>2</v>
-      </c>
-      <c r="J212" t="s">
-        <v>48</v>
-      </c>
-      <c r="K212">
-        <v>1.533</v>
-      </c>
-      <c r="L212">
-        <v>3.8</v>
-      </c>
       <c r="M212">
-        <v>5.75</v>
+        <v>2.6</v>
       </c>
       <c r="N212">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="O212">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="P212">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="Q212">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R212">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S212">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T212">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U212">
+        <v>1.95</v>
+      </c>
+      <c r="V212">
         <v>1.85</v>
       </c>
-      <c r="V212">
-        <v>1.95</v>
-      </c>
       <c r="W212">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X212">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y212">
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AA212">
+        <v>-0.5</v>
+      </c>
+      <c r="AB212">
+        <v>0</v>
+      </c>
+      <c r="AC212">
         <v>-0</v>
-      </c>
-      <c r="AB212">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC212">
-        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19401,7 +19401,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7404434</v>
+        <v>7404433</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19413,76 +19413,76 @@
         <v>45238.60416666666</v>
       </c>
       <c r="F213" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G213" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J213" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K213">
-        <v>2.6</v>
+        <v>1.533</v>
       </c>
       <c r="L213">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="M213">
-        <v>2.6</v>
+        <v>5.75</v>
       </c>
       <c r="N213">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
       <c r="O213">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="P213">
+        <v>6</v>
+      </c>
+      <c r="Q213">
+        <v>-1</v>
+      </c>
+      <c r="R213">
+        <v>1.8</v>
+      </c>
+      <c r="S213">
+        <v>2</v>
+      </c>
+      <c r="T213">
         <v>2.25</v>
       </c>
-      <c r="Q213">
-        <v>0.25</v>
-      </c>
-      <c r="R213">
+      <c r="U213">
         <v>1.85</v>
       </c>
-      <c r="S213">
+      <c r="V213">
         <v>1.95</v>
       </c>
-      <c r="T213">
-        <v>2</v>
-      </c>
-      <c r="U213">
-        <v>1.95</v>
-      </c>
-      <c r="V213">
-        <v>1.85</v>
-      </c>
       <c r="W213">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X213">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y213">
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="AA213">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB213">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC213">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19505,7 +19505,7 @@
         <v>29</v>
       </c>
       <c r="G214" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H214">
         <v>2</v>
@@ -19683,7 +19683,7 @@
         <v>45</v>
       </c>
       <c r="G216" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H216">
         <v>0</v>
@@ -19846,7 +19846,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>7404440</v>
+        <v>7404441</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19858,76 +19858,76 @@
         <v>45242.4375</v>
       </c>
       <c r="F218" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G218" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H218">
         <v>1</v>
       </c>
       <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218" t="s">
+        <v>48</v>
+      </c>
+      <c r="K218">
+        <v>2.3</v>
+      </c>
+      <c r="L218">
+        <v>2.9</v>
+      </c>
+      <c r="M218">
         <v>3</v>
       </c>
-      <c r="J218" t="s">
-        <v>47</v>
-      </c>
-      <c r="K218">
-        <v>2.15</v>
-      </c>
-      <c r="L218">
-        <v>3</v>
-      </c>
-      <c r="M218">
-        <v>3.2</v>
-      </c>
       <c r="N218">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="O218">
         <v>3</v>
       </c>
       <c r="P218">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q218">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R218">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S218">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T218">
         <v>2</v>
       </c>
       <c r="U218">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V218">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W218">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X218">
         <v>-1</v>
       </c>
       <c r="Y218">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z218">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA218">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB218">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC218">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19935,7 +19935,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>7404441</v>
+        <v>7404440</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19947,76 +19947,76 @@
         <v>45242.4375</v>
       </c>
       <c r="F219" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G219" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H219">
         <v>1</v>
       </c>
       <c r="I219">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J219" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K219">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L219">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M219">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N219">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="O219">
         <v>3</v>
       </c>
       <c r="P219">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="Q219">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R219">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S219">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T219">
         <v>2</v>
       </c>
       <c r="U219">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V219">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W219">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X219">
         <v>-1</v>
       </c>
       <c r="Y219">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z219">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA219">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB219">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC219">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20036,7 +20036,7 @@
         <v>45242.53125</v>
       </c>
       <c r="F220" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G220" t="s">
         <v>44</v>
@@ -20125,7 +20125,7 @@
         <v>45255.4375</v>
       </c>
       <c r="F221" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G221" t="s">
         <v>41</v>
@@ -20306,7 +20306,7 @@
         <v>46</v>
       </c>
       <c r="G223" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H223">
         <v>1</v>
@@ -20392,7 +20392,7 @@
         <v>45256.4375</v>
       </c>
       <c r="F224" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G224" t="s">
         <v>37</v>
@@ -20570,7 +20570,7 @@
         <v>45256.53125</v>
       </c>
       <c r="F226" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G226" t="s">
         <v>29</v>
@@ -20840,7 +20840,7 @@
         <v>41</v>
       </c>
       <c r="G229" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H229">
         <v>2</v>
@@ -21015,7 +21015,7 @@
         <v>45266.60416666666</v>
       </c>
       <c r="F231" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G231" t="s">
         <v>42</v>
@@ -21285,7 +21285,7 @@
         <v>42</v>
       </c>
       <c r="G234" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H234">
         <v>2</v>
@@ -21460,10 +21460,10 @@
         <v>45270.4375</v>
       </c>
       <c r="F236" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G236" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H236">
         <v>3</v>
@@ -21537,7 +21537,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>7464395</v>
+        <v>7476568</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21549,13 +21549,13 @@
         <v>45273.60416666666</v>
       </c>
       <c r="F237" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G237" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H237">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I237">
         <v>0</v>
@@ -21564,34 +21564,34 @@
         <v>48</v>
       </c>
       <c r="K237">
-        <v>1.181</v>
+        <v>2.2</v>
       </c>
       <c r="L237">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="M237">
-        <v>13</v>
+        <v>3.4</v>
       </c>
       <c r="N237">
-        <v>1.2</v>
+        <v>2.25</v>
       </c>
       <c r="O237">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="P237">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="Q237">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R237">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S237">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T237">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="U237">
         <v>1.975</v>
@@ -21600,7 +21600,7 @@
         <v>1.825</v>
       </c>
       <c r="W237">
-        <v>0.2</v>
+        <v>1.25</v>
       </c>
       <c r="X237">
         <v>-1</v>
@@ -21609,16 +21609,16 @@
         <v>-1</v>
       </c>
       <c r="Z237">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA237">
         <v>-1</v>
       </c>
       <c r="AB237">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC237">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21626,7 +21626,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7476568</v>
+        <v>7464395</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21638,13 +21638,13 @@
         <v>45273.60416666666</v>
       </c>
       <c r="F238" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G238" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I238">
         <v>0</v>
@@ -21653,34 +21653,34 @@
         <v>48</v>
       </c>
       <c r="K238">
-        <v>2.2</v>
+        <v>1.181</v>
       </c>
       <c r="L238">
+        <v>6.5</v>
+      </c>
+      <c r="M238">
+        <v>13</v>
+      </c>
+      <c r="N238">
+        <v>1.2</v>
+      </c>
+      <c r="O238">
+        <v>6</v>
+      </c>
+      <c r="P238">
+        <v>12</v>
+      </c>
+      <c r="Q238">
+        <v>-1.75</v>
+      </c>
+      <c r="R238">
+        <v>1.775</v>
+      </c>
+      <c r="S238">
+        <v>2.025</v>
+      </c>
+      <c r="T238">
         <v>3</v>
-      </c>
-      <c r="M238">
-        <v>3.4</v>
-      </c>
-      <c r="N238">
-        <v>2.25</v>
-      </c>
-      <c r="O238">
-        <v>2.75</v>
-      </c>
-      <c r="P238">
-        <v>3.6</v>
-      </c>
-      <c r="Q238">
-        <v>-0.25</v>
-      </c>
-      <c r="R238">
-        <v>1.9</v>
-      </c>
-      <c r="S238">
-        <v>1.9</v>
-      </c>
-      <c r="T238">
-        <v>1.75</v>
       </c>
       <c r="U238">
         <v>1.975</v>
@@ -21689,7 +21689,7 @@
         <v>1.825</v>
       </c>
       <c r="W238">
-        <v>1.25</v>
+        <v>0.2</v>
       </c>
       <c r="X238">
         <v>-1</v>
@@ -21698,16 +21698,16 @@
         <v>-1</v>
       </c>
       <c r="Z238">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA238">
         <v>-1</v>
       </c>
       <c r="AB238">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC238">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21727,7 +21727,7 @@
         <v>45275.4375</v>
       </c>
       <c r="F239" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G239" t="s">
         <v>44</v>
@@ -21816,7 +21816,7 @@
         <v>45277.4375</v>
       </c>
       <c r="F240" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G240" t="s">
         <v>41</v>
@@ -21982,7 +21982,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>7478004</v>
+        <v>7477992</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -21994,46 +21994,46 @@
         <v>45283.4375</v>
       </c>
       <c r="F242" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G242" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H242">
         <v>1</v>
       </c>
       <c r="I242">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J242" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K242">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="L242">
         <v>3</v>
       </c>
       <c r="M242">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N242">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="O242">
+        <v>2.9</v>
+      </c>
+      <c r="P242">
         <v>3</v>
       </c>
-      <c r="P242">
-        <v>4.75</v>
-      </c>
       <c r="Q242">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R242">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S242">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T242">
         <v>1.75</v>
@@ -22045,25 +22045,25 @@
         <v>2.05</v>
       </c>
       <c r="W242">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X242">
         <v>-1</v>
       </c>
       <c r="Y242">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z242">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA242">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB242">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC242">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="243" spans="1:29">
@@ -22083,7 +22083,7 @@
         <v>45283.4375</v>
       </c>
       <c r="F243" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G243" t="s">
         <v>38</v>
@@ -22160,7 +22160,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>7477992</v>
+        <v>7477991</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22172,76 +22172,76 @@
         <v>45283.4375</v>
       </c>
       <c r="F244" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G244" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J244" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K244">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="L244">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M244">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="N244">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="O244">
         <v>2.9</v>
       </c>
       <c r="P244">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="Q244">
         <v>0</v>
       </c>
       <c r="R244">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S244">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T244">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U244">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V244">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W244">
         <v>-1</v>
       </c>
       <c r="X244">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y244">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z244">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA244">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB244">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC244">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="245" spans="1:29">
@@ -22249,7 +22249,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>7477991</v>
+        <v>7478004</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22261,76 +22261,76 @@
         <v>45283.4375</v>
       </c>
       <c r="F245" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G245" t="s">
         <v>33</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I245">
         <v>0</v>
       </c>
       <c r="J245" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K245">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="L245">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M245">
-        <v>2.625</v>
+        <v>5</v>
       </c>
       <c r="N245">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="O245">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P245">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="Q245">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R245">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S245">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T245">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U245">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V245">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W245">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X245">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y245">
         <v>-1</v>
       </c>
       <c r="Z245">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA245">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB245">
         <v>-1</v>
       </c>
       <c r="AC245">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -22531,7 +22531,7 @@
         <v>40</v>
       </c>
       <c r="G248" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H248">
         <v>3</v>
@@ -22706,7 +22706,7 @@
         <v>45290.4375</v>
       </c>
       <c r="F250" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G250" t="s">
         <v>44</v>
@@ -22973,7 +22973,7 @@
         <v>45290.625</v>
       </c>
       <c r="F253" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G253" t="s">
         <v>37</v>
@@ -23228,73 +23228,622 @@
         <v>254</v>
       </c>
       <c r="B256">
+        <v>7577336</v>
+      </c>
+      <c r="C256" t="s">
+        <v>28</v>
+      </c>
+      <c r="D256" t="s">
+        <v>28</v>
+      </c>
+      <c r="E256" s="2">
+        <v>45339.4375</v>
+      </c>
+      <c r="F256" t="s">
+        <v>34</v>
+      </c>
+      <c r="G256" t="s">
+        <v>45</v>
+      </c>
+      <c r="H256">
+        <v>0</v>
+      </c>
+      <c r="I256">
+        <v>1</v>
+      </c>
+      <c r="J256" t="s">
+        <v>47</v>
+      </c>
+      <c r="K256">
+        <v>3.1</v>
+      </c>
+      <c r="L256">
+        <v>3.3</v>
+      </c>
+      <c r="M256">
+        <v>2.15</v>
+      </c>
+      <c r="N256">
+        <v>4.333</v>
+      </c>
+      <c r="O256">
+        <v>3.6</v>
+      </c>
+      <c r="P256">
+        <v>1.7</v>
+      </c>
+      <c r="Q256">
+        <v>0.75</v>
+      </c>
+      <c r="R256">
+        <v>1.85</v>
+      </c>
+      <c r="S256">
+        <v>1.95</v>
+      </c>
+      <c r="T256">
+        <v>2.25</v>
+      </c>
+      <c r="U256">
+        <v>2.025</v>
+      </c>
+      <c r="V256">
+        <v>1.775</v>
+      </c>
+      <c r="W256">
+        <v>-1</v>
+      </c>
+      <c r="X256">
+        <v>-1</v>
+      </c>
+      <c r="Y256">
+        <v>0.7</v>
+      </c>
+      <c r="Z256">
+        <v>-0.5</v>
+      </c>
+      <c r="AA256">
+        <v>0.475</v>
+      </c>
+      <c r="AB256">
+        <v>-1</v>
+      </c>
+      <c r="AC256">
+        <v>0.7749999999999999</v>
+      </c>
+    </row>
+    <row r="257" spans="1:29">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257">
+        <v>7577337</v>
+      </c>
+      <c r="C257" t="s">
+        <v>28</v>
+      </c>
+      <c r="D257" t="s">
+        <v>28</v>
+      </c>
+      <c r="E257" s="2">
+        <v>45339.4375</v>
+      </c>
+      <c r="F257" t="s">
+        <v>42</v>
+      </c>
+      <c r="G257" t="s">
+        <v>29</v>
+      </c>
+      <c r="H257">
+        <v>1</v>
+      </c>
+      <c r="I257">
+        <v>1</v>
+      </c>
+      <c r="J257" t="s">
+        <v>49</v>
+      </c>
+      <c r="K257">
+        <v>3.1</v>
+      </c>
+      <c r="L257">
+        <v>2.8</v>
+      </c>
+      <c r="M257">
+        <v>2.45</v>
+      </c>
+      <c r="N257">
+        <v>3.3</v>
+      </c>
+      <c r="O257">
+        <v>2.875</v>
+      </c>
+      <c r="P257">
+        <v>2.3</v>
+      </c>
+      <c r="Q257">
+        <v>0.25</v>
+      </c>
+      <c r="R257">
+        <v>1.775</v>
+      </c>
+      <c r="S257">
+        <v>2.025</v>
+      </c>
+      <c r="T257">
+        <v>2</v>
+      </c>
+      <c r="U257">
+        <v>2</v>
+      </c>
+      <c r="V257">
+        <v>1.8</v>
+      </c>
+      <c r="W257">
+        <v>-1</v>
+      </c>
+      <c r="X257">
+        <v>1.875</v>
+      </c>
+      <c r="Y257">
+        <v>-1</v>
+      </c>
+      <c r="Z257">
+        <v>0.3875</v>
+      </c>
+      <c r="AA257">
+        <v>-0.5</v>
+      </c>
+      <c r="AB257">
+        <v>0</v>
+      </c>
+      <c r="AC257">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:29">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258">
+        <v>7577339</v>
+      </c>
+      <c r="C258" t="s">
+        <v>28</v>
+      </c>
+      <c r="D258" t="s">
+        <v>28</v>
+      </c>
+      <c r="E258" s="2">
+        <v>45339.52083333334</v>
+      </c>
+      <c r="F258" t="s">
+        <v>32</v>
+      </c>
+      <c r="G258" t="s">
+        <v>33</v>
+      </c>
+      <c r="H258">
+        <v>3</v>
+      </c>
+      <c r="I258">
+        <v>1</v>
+      </c>
+      <c r="J258" t="s">
+        <v>48</v>
+      </c>
+      <c r="K258">
+        <v>2.7</v>
+      </c>
+      <c r="L258">
+        <v>2.7</v>
+      </c>
+      <c r="M258">
+        <v>2.8</v>
+      </c>
+      <c r="N258">
+        <v>2.55</v>
+      </c>
+      <c r="O258">
+        <v>2.7</v>
+      </c>
+      <c r="P258">
+        <v>3</v>
+      </c>
+      <c r="Q258">
+        <v>0</v>
+      </c>
+      <c r="R258">
+        <v>1.75</v>
+      </c>
+      <c r="S258">
+        <v>2.05</v>
+      </c>
+      <c r="T258">
+        <v>1.75</v>
+      </c>
+      <c r="U258">
+        <v>1.8</v>
+      </c>
+      <c r="V258">
+        <v>2</v>
+      </c>
+      <c r="W258">
+        <v>1.55</v>
+      </c>
+      <c r="X258">
+        <v>-1</v>
+      </c>
+      <c r="Y258">
+        <v>-1</v>
+      </c>
+      <c r="Z258">
+        <v>0.75</v>
+      </c>
+      <c r="AA258">
+        <v>-1</v>
+      </c>
+      <c r="AB258">
+        <v>0.8</v>
+      </c>
+      <c r="AC258">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:29">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259">
+        <v>7577338</v>
+      </c>
+      <c r="C259" t="s">
+        <v>28</v>
+      </c>
+      <c r="D259" t="s">
+        <v>28</v>
+      </c>
+      <c r="E259" s="2">
+        <v>45339.53125</v>
+      </c>
+      <c r="F259" t="s">
+        <v>46</v>
+      </c>
+      <c r="G259" t="s">
+        <v>40</v>
+      </c>
+      <c r="H259">
+        <v>3</v>
+      </c>
+      <c r="I259">
+        <v>1</v>
+      </c>
+      <c r="J259" t="s">
+        <v>48</v>
+      </c>
+      <c r="K259">
+        <v>4.333</v>
+      </c>
+      <c r="L259">
+        <v>3.1</v>
+      </c>
+      <c r="M259">
+        <v>1.85</v>
+      </c>
+      <c r="N259">
+        <v>4.5</v>
+      </c>
+      <c r="O259">
+        <v>3.1</v>
+      </c>
+      <c r="P259">
+        <v>1.8</v>
+      </c>
+      <c r="Q259">
+        <v>0.5</v>
+      </c>
+      <c r="R259">
+        <v>1.95</v>
+      </c>
+      <c r="S259">
+        <v>1.85</v>
+      </c>
+      <c r="T259">
+        <v>2</v>
+      </c>
+      <c r="U259">
+        <v>1.875</v>
+      </c>
+      <c r="V259">
+        <v>1.925</v>
+      </c>
+      <c r="W259">
+        <v>3.5</v>
+      </c>
+      <c r="X259">
+        <v>-1</v>
+      </c>
+      <c r="Y259">
+        <v>-1</v>
+      </c>
+      <c r="Z259">
+        <v>0.95</v>
+      </c>
+      <c r="AA259">
+        <v>-1</v>
+      </c>
+      <c r="AB259">
+        <v>0.875</v>
+      </c>
+      <c r="AC259">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:29">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260">
+        <v>7577340</v>
+      </c>
+      <c r="C260" t="s">
+        <v>28</v>
+      </c>
+      <c r="D260" t="s">
+        <v>28</v>
+      </c>
+      <c r="E260" s="2">
+        <v>45339.625</v>
+      </c>
+      <c r="F260" t="s">
+        <v>30</v>
+      </c>
+      <c r="G260" t="s">
+        <v>41</v>
+      </c>
+      <c r="H260">
+        <v>1</v>
+      </c>
+      <c r="I260">
+        <v>1</v>
+      </c>
+      <c r="J260" t="s">
+        <v>49</v>
+      </c>
+      <c r="K260">
+        <v>1.727</v>
+      </c>
+      <c r="L260">
+        <v>3.4</v>
+      </c>
+      <c r="M260">
+        <v>4.75</v>
+      </c>
+      <c r="N260">
+        <v>1.65</v>
+      </c>
+      <c r="O260">
+        <v>3.4</v>
+      </c>
+      <c r="P260">
+        <v>5.25</v>
+      </c>
+      <c r="Q260">
+        <v>-0.75</v>
+      </c>
+      <c r="R260">
+        <v>1.975</v>
+      </c>
+      <c r="S260">
+        <v>1.825</v>
+      </c>
+      <c r="T260">
+        <v>2.25</v>
+      </c>
+      <c r="U260">
+        <v>2.025</v>
+      </c>
+      <c r="V260">
+        <v>1.775</v>
+      </c>
+      <c r="W260">
+        <v>-1</v>
+      </c>
+      <c r="X260">
+        <v>2.4</v>
+      </c>
+      <c r="Y260">
+        <v>-1</v>
+      </c>
+      <c r="Z260">
+        <v>-1</v>
+      </c>
+      <c r="AA260">
+        <v>0.825</v>
+      </c>
+      <c r="AB260">
+        <v>-0.5</v>
+      </c>
+      <c r="AC260">
+        <v>0.3875</v>
+      </c>
+    </row>
+    <row r="261" spans="1:29">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261">
         <v>7577341</v>
       </c>
-      <c r="C256" t="s">
-        <v>28</v>
-      </c>
-      <c r="D256" t="s">
-        <v>28</v>
-      </c>
-      <c r="E256" s="2">
+      <c r="C261" t="s">
+        <v>28</v>
+      </c>
+      <c r="D261" t="s">
+        <v>28</v>
+      </c>
+      <c r="E261" s="2">
         <v>45340.4375</v>
       </c>
-      <c r="F256" t="s">
-        <v>32</v>
-      </c>
-      <c r="G256" t="s">
+      <c r="F261" t="s">
+        <v>31</v>
+      </c>
+      <c r="G261" t="s">
         <v>37</v>
       </c>
-      <c r="K256">
+      <c r="H261">
+        <v>0</v>
+      </c>
+      <c r="I261">
+        <v>0</v>
+      </c>
+      <c r="J261" t="s">
+        <v>49</v>
+      </c>
+      <c r="K261">
         <v>4</v>
       </c>
-      <c r="L256">
+      <c r="L261">
         <v>3</v>
       </c>
-      <c r="M256">
+      <c r="M261">
         <v>1.95</v>
       </c>
-      <c r="N256">
-        <v>3.8</v>
-      </c>
-      <c r="O256">
+      <c r="N261">
+        <v>4</v>
+      </c>
+      <c r="O261">
+        <v>2.9</v>
+      </c>
+      <c r="P261">
+        <v>2</v>
+      </c>
+      <c r="Q261">
+        <v>0.5</v>
+      </c>
+      <c r="R261">
+        <v>1.825</v>
+      </c>
+      <c r="S261">
+        <v>1.975</v>
+      </c>
+      <c r="T261">
+        <v>2</v>
+      </c>
+      <c r="U261">
+        <v>1.975</v>
+      </c>
+      <c r="V261">
+        <v>1.825</v>
+      </c>
+      <c r="W261">
+        <v>-1</v>
+      </c>
+      <c r="X261">
+        <v>1.9</v>
+      </c>
+      <c r="Y261">
+        <v>-1</v>
+      </c>
+      <c r="Z261">
+        <v>0.825</v>
+      </c>
+      <c r="AA261">
+        <v>-1</v>
+      </c>
+      <c r="AB261">
+        <v>-1</v>
+      </c>
+      <c r="AC261">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="262" spans="1:29">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262">
+        <v>7577342</v>
+      </c>
+      <c r="C262" t="s">
+        <v>28</v>
+      </c>
+      <c r="D262" t="s">
+        <v>28</v>
+      </c>
+      <c r="E262" s="2">
+        <v>45340.53125</v>
+      </c>
+      <c r="F262" t="s">
+        <v>38</v>
+      </c>
+      <c r="G262" t="s">
+        <v>36</v>
+      </c>
+      <c r="H262">
         <v>3</v>
       </c>
-      <c r="P256">
-        <v>2</v>
-      </c>
-      <c r="Q256">
-        <v>0.25</v>
-      </c>
-      <c r="R256">
+      <c r="I262">
+        <v>1</v>
+      </c>
+      <c r="J262" t="s">
+        <v>48</v>
+      </c>
+      <c r="K262">
+        <v>2.3</v>
+      </c>
+      <c r="L262">
+        <v>3</v>
+      </c>
+      <c r="M262">
+        <v>3.4</v>
+      </c>
+      <c r="N262">
+        <v>2.375</v>
+      </c>
+      <c r="O262">
+        <v>2.9</v>
+      </c>
+      <c r="P262">
+        <v>3.4</v>
+      </c>
+      <c r="Q262">
+        <v>-0.25</v>
+      </c>
+      <c r="R262">
+        <v>1.975</v>
+      </c>
+      <c r="S262">
+        <v>1.825</v>
+      </c>
+      <c r="T262">
+        <v>1.75</v>
+      </c>
+      <c r="U262">
+        <v>1.775</v>
+      </c>
+      <c r="V262">
         <v>2.025</v>
       </c>
-      <c r="S256">
-        <v>1.775</v>
-      </c>
-      <c r="T256">
-        <v>2</v>
-      </c>
-      <c r="U256">
-        <v>1.85</v>
-      </c>
-      <c r="V256">
-        <v>1.95</v>
-      </c>
-      <c r="W256">
-        <v>0</v>
-      </c>
-      <c r="X256">
-        <v>0</v>
-      </c>
-      <c r="Y256">
-        <v>0</v>
-      </c>
-      <c r="Z256">
-        <v>0</v>
-      </c>
-      <c r="AA256">
-        <v>0</v>
+      <c r="W262">
+        <v>1.375</v>
+      </c>
+      <c r="X262">
+        <v>-1</v>
+      </c>
+      <c r="Y262">
+        <v>-1</v>
+      </c>
+      <c r="Z262">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA262">
+        <v>-1</v>
+      </c>
+      <c r="AB262">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AC262">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/South Africa Premier/South Africa Premier.xlsx
+++ b/South Africa Premier/South Africa Premier.xlsx
@@ -115,16 +115,16 @@
     <t>Sekhukhune United FC</t>
   </si>
   <si>
+    <t>Moroka Swallows</t>
+  </si>
+  <si>
     <t>Richards Bay FC</t>
   </si>
   <si>
-    <t>Moroka Swallows</t>
+    <t>Golden Arrows</t>
   </si>
   <si>
     <t>Marumo Gallants</t>
-  </si>
-  <si>
-    <t>Golden Arrows</t>
   </si>
   <si>
     <t>Kaizer Chiefs</t>
@@ -151,10 +151,10 @@
     <t>Supersport United</t>
   </si>
   <si>
-    <t>Polokwane City</t>
+    <t>Ajax Cape Town</t>
   </si>
   <si>
-    <t>Ajax Cape Town</t>
+    <t>Polokwane City</t>
   </si>
   <si>
     <t>A</t>
@@ -726,7 +726,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -904,7 +904,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -978,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5350179</v>
+        <v>5350178</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -993,67 +993,67 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K6">
-        <v>6</v>
+        <v>2.05</v>
       </c>
       <c r="L6">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M6">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="N6">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="O6">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P6">
-        <v>1.533</v>
+        <v>3.25</v>
       </c>
       <c r="Q6">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R6">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="S6">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="T6">
         <v>2</v>
       </c>
       <c r="U6">
+        <v>1.95</v>
+      </c>
+      <c r="V6">
         <v>1.85</v>
       </c>
-      <c r="V6">
-        <v>1.95</v>
-      </c>
       <c r="W6">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA6">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
         <v>0</v>
@@ -1067,7 +1067,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5350178</v>
+        <v>5350179</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1082,67 +1082,67 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K7">
-        <v>2.05</v>
+        <v>6</v>
       </c>
       <c r="L7">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M7">
+        <v>1.5</v>
+      </c>
+      <c r="N7">
+        <v>6</v>
+      </c>
+      <c r="O7">
         <v>3.6</v>
       </c>
-      <c r="N7">
-        <v>2.15</v>
-      </c>
-      <c r="O7">
-        <v>3</v>
-      </c>
       <c r="P7">
-        <v>3.25</v>
+        <v>1.533</v>
       </c>
       <c r="Q7">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R7">
+        <v>2.1</v>
+      </c>
+      <c r="S7">
+        <v>1.7</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="U7">
         <v>1.85</v>
       </c>
-      <c r="S7">
+      <c r="V7">
         <v>1.95</v>
       </c>
-      <c r="T7">
-        <v>2</v>
-      </c>
-      <c r="U7">
-        <v>1.95</v>
-      </c>
-      <c r="V7">
-        <v>1.85</v>
-      </c>
       <c r="W7">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z7">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AB7">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5350181</v>
+        <v>5350180</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1171,73 +1171,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K8">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="L8">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="M8">
-        <v>2.875</v>
+        <v>2.4</v>
       </c>
       <c r="N8">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="O8">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="P8">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q8">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R8">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S8">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T8">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U8">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V8">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA8">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC8">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1245,7 +1245,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5350180</v>
+        <v>5350181</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1260,73 +1260,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K9">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="L9">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="M9">
-        <v>2.4</v>
+        <v>2.875</v>
       </c>
       <c r="N9">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="O9">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="P9">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="Q9">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R9">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S9">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T9">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U9">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V9">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W9">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z9">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB9">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1794,7 +1794,7 @@
         <v>39</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1957,7 +1957,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5349190</v>
+        <v>5350186</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1969,40 +1969,40 @@
         <v>44940.4375</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K17">
-        <v>1.727</v>
+        <v>2.625</v>
       </c>
       <c r="L17">
+        <v>3.2</v>
+      </c>
+      <c r="M17">
+        <v>2.5</v>
+      </c>
+      <c r="N17">
+        <v>2.2</v>
+      </c>
+      <c r="O17">
+        <v>2.875</v>
+      </c>
+      <c r="P17">
         <v>3.25</v>
       </c>
-      <c r="M17">
-        <v>5</v>
-      </c>
-      <c r="N17">
-        <v>1.85</v>
-      </c>
-      <c r="O17">
-        <v>3.3</v>
-      </c>
-      <c r="P17">
-        <v>3.8</v>
-      </c>
       <c r="Q17">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R17">
         <v>1.925</v>
@@ -2011,34 +2011,34 @@
         <v>1.875</v>
       </c>
       <c r="T17">
+        <v>1.75</v>
+      </c>
+      <c r="U17">
+        <v>1.9</v>
+      </c>
+      <c r="V17">
+        <v>1.9</v>
+      </c>
+      <c r="W17">
+        <v>-1</v>
+      </c>
+      <c r="X17">
+        <v>-1</v>
+      </c>
+      <c r="Y17">
         <v>2.25</v>
       </c>
-      <c r="U17">
-        <v>2.025</v>
-      </c>
-      <c r="V17">
-        <v>1.775</v>
-      </c>
-      <c r="W17">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X17">
-        <v>-1</v>
-      </c>
-      <c r="Y17">
-        <v>-1</v>
-      </c>
       <c r="Z17">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB17">
-        <v>1.025</v>
+        <v>0.45</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2046,7 +2046,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5350186</v>
+        <v>5349190</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2058,40 +2058,40 @@
         <v>44940.4375</v>
       </c>
       <c r="F18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" t="s">
         <v>35</v>
       </c>
-      <c r="G18" t="s">
-        <v>33</v>
-      </c>
       <c r="H18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K18">
-        <v>2.625</v>
+        <v>1.727</v>
       </c>
       <c r="L18">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M18">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="N18">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="O18">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="P18">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q18">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R18">
         <v>1.925</v>
@@ -2100,34 +2100,34 @@
         <v>1.875</v>
       </c>
       <c r="T18">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U18">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V18">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA18">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
-        <v>0.45</v>
+        <v>1.025</v>
       </c>
       <c r="AC18">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2325,7 +2325,7 @@
         <v>44941.4375</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G21" t="s">
         <v>38</v>
@@ -2595,7 +2595,7 @@
         <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2859,7 +2859,7 @@
         <v>44947.4375</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s">
         <v>43</v>
@@ -2936,7 +2936,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5350197</v>
+        <v>5350196</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2948,76 +2948,76 @@
         <v>44947.625</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K28">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M28">
+        <v>3.6</v>
+      </c>
+      <c r="N28">
+        <v>2.375</v>
+      </c>
+      <c r="O28">
+        <v>2.8</v>
+      </c>
+      <c r="P28">
+        <v>3.1</v>
+      </c>
+      <c r="Q28">
+        <v>-0.25</v>
+      </c>
+      <c r="R28">
+        <v>2.05</v>
+      </c>
+      <c r="S28">
         <v>1.75</v>
       </c>
-      <c r="N28">
-        <v>4.75</v>
-      </c>
-      <c r="O28">
-        <v>3.2</v>
-      </c>
-      <c r="P28">
-        <v>1.7</v>
-      </c>
-      <c r="Q28">
-        <v>0.75</v>
-      </c>
-      <c r="R28">
+      <c r="T28">
+        <v>1.5</v>
+      </c>
+      <c r="U28">
+        <v>1.775</v>
+      </c>
+      <c r="V28">
+        <v>2.025</v>
+      </c>
+      <c r="W28">
+        <v>-1</v>
+      </c>
+      <c r="X28">
         <v>1.8</v>
       </c>
-      <c r="S28">
-        <v>2</v>
-      </c>
-      <c r="T28">
-        <v>2</v>
-      </c>
-      <c r="U28">
-        <v>1.85</v>
-      </c>
-      <c r="V28">
-        <v>1.95</v>
-      </c>
-      <c r="W28">
-        <v>-1</v>
-      </c>
-      <c r="X28">
-        <v>-1</v>
-      </c>
       <c r="Y28">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
         <v>-0.5</v>
       </c>
       <c r="AA28">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC28">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3025,7 +3025,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5350196</v>
+        <v>5350197</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3037,76 +3037,76 @@
         <v>44947.625</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K29">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="L29">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M29">
-        <v>3.6</v>
+        <v>1.75</v>
       </c>
       <c r="N29">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="O29">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="P29">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="Q29">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R29">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S29">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T29">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="U29">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V29">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W29">
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z29">
         <v>-0.5</v>
       </c>
       <c r="AA29">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="AB29">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3218,7 +3218,7 @@
         <v>44</v>
       </c>
       <c r="G31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3393,10 +3393,10 @@
         <v>44951.60416666666</v>
       </c>
       <c r="F33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" t="s">
         <v>36</v>
-      </c>
-      <c r="G33" t="s">
-        <v>35</v>
       </c>
       <c r="H33">
         <v>3</v>
@@ -3660,7 +3660,7 @@
         <v>44954.52083333334</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G36" t="s">
         <v>44</v>
@@ -3749,7 +3749,7 @@
         <v>44954.625</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G37" t="s">
         <v>41</v>
@@ -3826,7 +3826,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>5350210</v>
+        <v>5350211</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3838,76 +3838,76 @@
         <v>44955.4375</v>
       </c>
       <c r="F38" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K38">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="L38">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="M38">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N38">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="O38">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="P38">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="Q38">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R38">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S38">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T38">
         <v>1.75</v>
       </c>
       <c r="U38">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V38">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X38">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AA38">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3915,7 +3915,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5350211</v>
+        <v>5350210</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3927,76 +3927,76 @@
         <v>44955.4375</v>
       </c>
       <c r="F39" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G39" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K39">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="L39">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="M39">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="N39">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="O39">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="P39">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R39">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S39">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T39">
         <v>1.75</v>
       </c>
       <c r="U39">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V39">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W39">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC39">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4019,7 +4019,7 @@
         <v>38</v>
       </c>
       <c r="G40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H40">
         <v>4</v>
@@ -4194,10 +4194,10 @@
         <v>44960.54166666666</v>
       </c>
       <c r="F42" t="s">
+        <v>33</v>
+      </c>
+      <c r="G42" t="s">
         <v>34</v>
-      </c>
-      <c r="G42" t="s">
-        <v>33</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -4360,7 +4360,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5349193</v>
+        <v>5350216</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4372,56 +4372,56 @@
         <v>44961.4375</v>
       </c>
       <c r="F44" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G44" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J44" t="s">
         <v>47</v>
       </c>
       <c r="K44">
-        <v>5</v>
+        <v>2.55</v>
       </c>
       <c r="L44">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="M44">
-        <v>1.615</v>
+        <v>2.625</v>
       </c>
       <c r="N44">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="O44">
         <v>3</v>
       </c>
       <c r="P44">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="Q44">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R44">
+        <v>1.925</v>
+      </c>
+      <c r="S44">
+        <v>1.875</v>
+      </c>
+      <c r="T44">
+        <v>2</v>
+      </c>
+      <c r="U44">
         <v>1.85</v>
       </c>
-      <c r="S44">
+      <c r="V44">
         <v>1.95</v>
       </c>
-      <c r="T44">
-        <v>2</v>
-      </c>
-      <c r="U44">
-        <v>1.95</v>
-      </c>
-      <c r="V44">
-        <v>1.85</v>
-      </c>
       <c r="W44">
         <v>-1</v>
       </c>
@@ -4429,19 +4429,19 @@
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="Z44">
         <v>-1</v>
       </c>
       <c r="AA44">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC44">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4449,7 +4449,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5350216</v>
+        <v>5349193</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4461,56 +4461,56 @@
         <v>44961.4375</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
         <v>1</v>
-      </c>
-      <c r="I45">
-        <v>2</v>
       </c>
       <c r="J45" t="s">
         <v>47</v>
       </c>
       <c r="K45">
-        <v>2.55</v>
+        <v>5</v>
       </c>
       <c r="L45">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M45">
-        <v>2.625</v>
+        <v>1.615</v>
       </c>
       <c r="N45">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="O45">
         <v>3</v>
       </c>
       <c r="P45">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R45">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S45">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T45">
         <v>2</v>
       </c>
       <c r="U45">
+        <v>1.95</v>
+      </c>
+      <c r="V45">
         <v>1.85</v>
       </c>
-      <c r="V45">
-        <v>1.95</v>
-      </c>
       <c r="W45">
         <v>-1</v>
       </c>
@@ -4518,19 +4518,19 @@
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="Z45">
         <v>-1</v>
       </c>
       <c r="AA45">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB45">
+        <v>-1</v>
+      </c>
+      <c r="AC45">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC45">
-        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4728,7 +4728,7 @@
         <v>44961.625</v>
       </c>
       <c r="F48" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G48" t="s">
         <v>32</v>
@@ -5087,7 +5087,7 @@
         <v>32</v>
       </c>
       <c r="G52" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H52">
         <v>2</v>
@@ -5265,7 +5265,7 @@
         <v>37</v>
       </c>
       <c r="G54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H54">
         <v>2</v>
@@ -5354,7 +5354,7 @@
         <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H55">
         <v>2</v>
@@ -5606,7 +5606,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5350229</v>
+        <v>6179860</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5618,31 +5618,31 @@
         <v>44982.52083333334</v>
       </c>
       <c r="F58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G58" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
         <v>1</v>
-      </c>
-      <c r="I58">
-        <v>2</v>
       </c>
       <c r="J58" t="s">
         <v>47</v>
       </c>
       <c r="K58">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L58">
         <v>2.875</v>
       </c>
       <c r="M58">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N58">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="O58">
         <v>2.75</v>
@@ -5654,19 +5654,19 @@
         <v>0</v>
       </c>
       <c r="R58">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="S58">
-        <v>2.075</v>
+        <v>2.05</v>
       </c>
       <c r="T58">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U58">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V58">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W58">
         <v>-1</v>
@@ -5681,13 +5681,13 @@
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>1.075</v>
+        <v>1.05</v>
       </c>
       <c r="AB58">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5695,7 +5695,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6179860</v>
+        <v>5350229</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5707,31 +5707,31 @@
         <v>44982.52083333334</v>
       </c>
       <c r="F59" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G59" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J59" t="s">
         <v>47</v>
       </c>
       <c r="K59">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L59">
         <v>2.875</v>
       </c>
       <c r="M59">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N59">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="O59">
         <v>2.75</v>
@@ -5743,19 +5743,19 @@
         <v>0</v>
       </c>
       <c r="R59">
+        <v>1.725</v>
+      </c>
+      <c r="S59">
+        <v>2.075</v>
+      </c>
+      <c r="T59">
         <v>1.75</v>
       </c>
-      <c r="S59">
-        <v>2.05</v>
-      </c>
-      <c r="T59">
-        <v>2</v>
-      </c>
       <c r="U59">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V59">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W59">
         <v>-1</v>
@@ -5770,13 +5770,13 @@
         <v>-1</v>
       </c>
       <c r="AA59">
-        <v>1.05</v>
+        <v>1.075</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC59">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5888,7 +5888,7 @@
         <v>42</v>
       </c>
       <c r="G61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -5974,7 +5974,7 @@
         <v>44988.60416666666</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G62" t="s">
         <v>41</v>
@@ -6063,7 +6063,7 @@
         <v>44989.4375</v>
       </c>
       <c r="F63" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G63" t="s">
         <v>37</v>
@@ -6318,7 +6318,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6335029</v>
+        <v>6335027</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6330,76 +6330,76 @@
         <v>44990.4375</v>
       </c>
       <c r="F66" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G66" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="s">
         <v>49</v>
       </c>
       <c r="K66">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="L66">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="M66">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="N66">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="O66">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="P66">
-        <v>1.666</v>
+        <v>3.25</v>
       </c>
       <c r="Q66">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R66">
+        <v>1.95</v>
+      </c>
+      <c r="S66">
+        <v>1.85</v>
+      </c>
+      <c r="T66">
+        <v>2</v>
+      </c>
+      <c r="U66">
+        <v>1.925</v>
+      </c>
+      <c r="V66">
+        <v>1.875</v>
+      </c>
+      <c r="W66">
+        <v>-1</v>
+      </c>
+      <c r="X66">
         <v>1.9</v>
       </c>
-      <c r="S66">
-        <v>1.9</v>
-      </c>
-      <c r="T66">
-        <v>2.25</v>
-      </c>
-      <c r="U66">
-        <v>1.825</v>
-      </c>
-      <c r="V66">
-        <v>1.975</v>
-      </c>
-      <c r="W66">
-        <v>-1</v>
-      </c>
-      <c r="X66">
-        <v>2.6</v>
-      </c>
       <c r="Y66">
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA66">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB66">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC66">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6407,7 +6407,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6335027</v>
+        <v>5350240</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6419,46 +6419,46 @@
         <v>44990.4375</v>
       </c>
       <c r="F67" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G67" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H67">
         <v>0</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K67">
-        <v>2.4</v>
+        <v>2.625</v>
       </c>
       <c r="L67">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="M67">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="N67">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="O67">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P67">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q67">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R67">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="S67">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="T67">
         <v>2</v>
@@ -6473,22 +6473,22 @@
         <v>-1</v>
       </c>
       <c r="X67">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z67">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
-        <v>0.425</v>
+        <v>1.075</v>
       </c>
       <c r="AB67">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC67">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6496,7 +6496,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5350240</v>
+        <v>6335029</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6508,76 +6508,76 @@
         <v>44990.4375</v>
       </c>
       <c r="F68" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G68" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K68">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="L68">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M68">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="N68">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="O68">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P68">
-        <v>2.3</v>
+        <v>1.666</v>
       </c>
       <c r="Q68">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R68">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S68">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="T68">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U68">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V68">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W68">
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y68">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA68">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC68">
-        <v>-0</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6600,7 +6600,7 @@
         <v>44</v>
       </c>
       <c r="G69" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H69">
         <v>2</v>
@@ -6689,7 +6689,7 @@
         <v>29</v>
       </c>
       <c r="G70" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -6852,7 +6852,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5350244</v>
+        <v>5350242</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6864,76 +6864,76 @@
         <v>45002.60416666666</v>
       </c>
       <c r="F72" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G72" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K72">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L72">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="M72">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="N72">
-        <v>2.375</v>
+        <v>2.55</v>
       </c>
       <c r="O72">
+        <v>2.625</v>
+      </c>
+      <c r="P72">
         <v>2.8</v>
       </c>
-      <c r="P72">
-        <v>3.1</v>
-      </c>
       <c r="Q72">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R72">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S72">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T72">
         <v>2</v>
       </c>
       <c r="U72">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V72">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W72">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z72">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB72">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC72">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6941,7 +6941,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>5350242</v>
+        <v>5350244</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6953,76 +6953,76 @@
         <v>45002.60416666666</v>
       </c>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G73" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K73">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L73">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="M73">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="N73">
-        <v>2.55</v>
+        <v>2.375</v>
       </c>
       <c r="O73">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="P73">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q73">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R73">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S73">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T73">
         <v>2</v>
       </c>
       <c r="U73">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V73">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA73">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC73">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7312,7 +7312,7 @@
         <v>38</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H77">
         <v>4</v>
@@ -7398,7 +7398,7 @@
         <v>45017.41666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G78" t="s">
         <v>41</v>
@@ -7668,7 +7668,7 @@
         <v>40</v>
       </c>
       <c r="G81" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -7754,7 +7754,7 @@
         <v>45018.41666666666</v>
       </c>
       <c r="F82" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G82" t="s">
         <v>32</v>
@@ -8021,7 +8021,7 @@
         <v>45021.60416666666</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G85" t="s">
         <v>31</v>
@@ -8199,10 +8199,10 @@
         <v>45024.41666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G87" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -8469,7 +8469,7 @@
         <v>37</v>
       </c>
       <c r="G90" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8644,7 +8644,7 @@
         <v>45025.41666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G92" t="s">
         <v>30</v>
@@ -8810,7 +8810,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>5350264</v>
+        <v>5350267</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8825,46 +8825,46 @@
         <v>36</v>
       </c>
       <c r="G94" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I94">
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K94">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="L94">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M94">
-        <v>1.6</v>
+        <v>2.45</v>
       </c>
       <c r="N94">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="O94">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P94">
-        <v>1.833</v>
+        <v>3.25</v>
       </c>
       <c r="Q94">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R94">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S94">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T94">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U94">
         <v>1.8</v>
@@ -8873,25 +8873,25 @@
         <v>2</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X94">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA94">
         <v>-1</v>
       </c>
       <c r="AB94">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC94">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8899,7 +8899,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>5350267</v>
+        <v>5350264</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8914,46 +8914,46 @@
         <v>35</v>
       </c>
       <c r="G95" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I95">
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K95">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="L95">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M95">
-        <v>2.45</v>
+        <v>1.6</v>
       </c>
       <c r="N95">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="O95">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P95">
-        <v>3.25</v>
+        <v>1.833</v>
       </c>
       <c r="Q95">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R95">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S95">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T95">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U95">
         <v>1.8</v>
@@ -8962,25 +8962,25 @@
         <v>2</v>
       </c>
       <c r="W95">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA95">
         <v>-1</v>
       </c>
       <c r="AB95">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9000,7 +9000,7 @@
         <v>45034.60416666666</v>
       </c>
       <c r="F96" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G96" t="s">
         <v>44</v>
@@ -9092,7 +9092,7 @@
         <v>43</v>
       </c>
       <c r="G97" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9359,7 +9359,7 @@
         <v>39</v>
       </c>
       <c r="G100" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H100">
         <v>3</v>
@@ -9626,7 +9626,7 @@
         <v>30</v>
       </c>
       <c r="G103" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9801,7 +9801,7 @@
         <v>45043.52083333334</v>
       </c>
       <c r="F105" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G105" t="s">
         <v>43</v>
@@ -9982,7 +9982,7 @@
         <v>39</v>
       </c>
       <c r="G107" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H107">
         <v>5</v>
@@ -10249,7 +10249,7 @@
         <v>37</v>
       </c>
       <c r="G110" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10605,7 +10605,7 @@
         <v>29</v>
       </c>
       <c r="G114" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -10679,7 +10679,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>5350280</v>
+        <v>6588907</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10691,10 +10691,10 @@
         <v>45049.60416666666</v>
       </c>
       <c r="F115" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G115" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H115">
         <v>2</v>
@@ -10706,58 +10706,58 @@
         <v>49</v>
       </c>
       <c r="K115">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="L115">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="M115">
-        <v>1.666</v>
+        <v>2.9</v>
       </c>
       <c r="N115">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="O115">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="P115">
-        <v>1.65</v>
+        <v>2.55</v>
       </c>
       <c r="Q115">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R115">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S115">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T115">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U115">
+        <v>1.975</v>
+      </c>
+      <c r="V115">
+        <v>1.825</v>
+      </c>
+      <c r="W115">
+        <v>-1</v>
+      </c>
+      <c r="X115">
         <v>1.8</v>
       </c>
-      <c r="V115">
-        <v>2</v>
-      </c>
-      <c r="W115">
-        <v>-1</v>
-      </c>
-      <c r="X115">
-        <v>2.5</v>
-      </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB115">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC115">
         <v>-1</v>
@@ -10780,7 +10780,7 @@
         <v>45049.60416666666</v>
       </c>
       <c r="F116" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G116" t="s">
         <v>42</v>
@@ -10857,7 +10857,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6588907</v>
+        <v>5350280</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10869,10 +10869,10 @@
         <v>45049.60416666666</v>
       </c>
       <c r="F117" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G117" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H117">
         <v>2</v>
@@ -10884,58 +10884,58 @@
         <v>49</v>
       </c>
       <c r="K117">
-        <v>2.625</v>
+        <v>5</v>
       </c>
       <c r="L117">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="M117">
-        <v>2.9</v>
+        <v>1.666</v>
       </c>
       <c r="N117">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="O117">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="P117">
-        <v>2.55</v>
+        <v>1.65</v>
       </c>
       <c r="Q117">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R117">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S117">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T117">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U117">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V117">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA117">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC117">
         <v>-1</v>
@@ -10958,7 +10958,7 @@
         <v>45052.58333333334</v>
       </c>
       <c r="F118" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G118" t="s">
         <v>30</v>
@@ -11124,7 +11124,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>5350288</v>
+        <v>5350286</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11136,76 +11136,76 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F120" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G120" t="s">
         <v>34</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K120">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="L120">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M120">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="N120">
-        <v>2.6</v>
+        <v>1.85</v>
       </c>
       <c r="O120">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="P120">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="Q120">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R120">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S120">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T120">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U120">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V120">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA120">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC120">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11213,7 +11213,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>5350287</v>
+        <v>5349203</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11225,76 +11225,76 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F121" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G121" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H121">
         <v>1</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K121">
-        <v>2.625</v>
+        <v>1.55</v>
       </c>
       <c r="L121">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="M121">
-        <v>2.55</v>
+        <v>6</v>
       </c>
       <c r="N121">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="O121">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="P121">
-        <v>2.9</v>
+        <v>7.5</v>
       </c>
       <c r="Q121">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R121">
+        <v>1.975</v>
+      </c>
+      <c r="S121">
+        <v>1.825</v>
+      </c>
+      <c r="T121">
+        <v>2</v>
+      </c>
+      <c r="U121">
+        <v>1.75</v>
+      </c>
+      <c r="V121">
         <v>2.05</v>
       </c>
-      <c r="S121">
-        <v>1.75</v>
-      </c>
-      <c r="T121">
-        <v>2.25</v>
-      </c>
-      <c r="U121">
-        <v>2</v>
-      </c>
-      <c r="V121">
-        <v>1.8</v>
-      </c>
       <c r="W121">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X121">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC121">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11302,7 +11302,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>5350286</v>
+        <v>5350288</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11314,76 +11314,76 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F122" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G122" t="s">
         <v>33</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K122">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="L122">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M122">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="N122">
-        <v>1.85</v>
+        <v>2.6</v>
       </c>
       <c r="O122">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="P122">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q122">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R122">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S122">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T122">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U122">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V122">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W122">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z122">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB122">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC122">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11391,7 +11391,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>5350284</v>
+        <v>5350287</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11403,10 +11403,10 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F123" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G123" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H123">
         <v>1</v>
@@ -11418,43 +11418,43 @@
         <v>48</v>
       </c>
       <c r="K123">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="L123">
         <v>2.9</v>
       </c>
       <c r="M123">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="N123">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="O123">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="P123">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="Q123">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R123">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S123">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T123">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U123">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V123">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W123">
-        <v>1.625</v>
+        <v>1.25</v>
       </c>
       <c r="X123">
         <v>-1</v>
@@ -11463,7 +11463,7 @@
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.7749999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AA123">
         <v>-1</v>
@@ -11472,7 +11472,7 @@
         <v>-1</v>
       </c>
       <c r="AC123">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11480,7 +11480,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>5349203</v>
+        <v>5350284</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11492,76 +11492,76 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F124" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G124" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H124">
         <v>1</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K124">
-        <v>1.55</v>
+        <v>2.25</v>
       </c>
       <c r="L124">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="M124">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="N124">
-        <v>1.4</v>
+        <v>2.625</v>
       </c>
       <c r="O124">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="P124">
-        <v>7.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q124">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R124">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S124">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T124">
         <v>2</v>
       </c>
       <c r="U124">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V124">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X124">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA124">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11836,7 +11836,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>5350300</v>
+        <v>5350299</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11848,46 +11848,46 @@
         <v>45066.41666666666</v>
       </c>
       <c r="F128" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G128" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K128">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L128">
         <v>3</v>
       </c>
       <c r="M128">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="N128">
-        <v>2.05</v>
+        <v>1.615</v>
       </c>
       <c r="O128">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P128">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="Q128">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R128">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S128">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T128">
         <v>2.25</v>
@@ -11899,25 +11899,25 @@
         <v>1.8</v>
       </c>
       <c r="W128">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X128">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA128">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB128">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC128">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11925,7 +11925,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>5350299</v>
+        <v>5350300</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11937,46 +11937,46 @@
         <v>45066.41666666666</v>
       </c>
       <c r="F129" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G129" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K129">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L129">
         <v>3</v>
       </c>
       <c r="M129">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="N129">
-        <v>1.615</v>
+        <v>2.05</v>
       </c>
       <c r="O129">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P129">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q129">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R129">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S129">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T129">
         <v>2.25</v>
@@ -11988,25 +11988,25 @@
         <v>1.8</v>
       </c>
       <c r="W129">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X129">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA129">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB129">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC129">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12014,7 +12014,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>5350296</v>
+        <v>5350298</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12026,76 +12026,76 @@
         <v>45066.41666666666</v>
       </c>
       <c r="F130" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G130" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K130">
+        <v>2.875</v>
+      </c>
+      <c r="L130">
+        <v>2.875</v>
+      </c>
+      <c r="M130">
+        <v>2.5</v>
+      </c>
+      <c r="N130">
+        <v>3.25</v>
+      </c>
+      <c r="O130">
+        <v>2.9</v>
+      </c>
+      <c r="P130">
+        <v>2.25</v>
+      </c>
+      <c r="Q130">
+        <v>0.25</v>
+      </c>
+      <c r="R130">
+        <v>1.85</v>
+      </c>
+      <c r="S130">
         <v>1.95</v>
       </c>
-      <c r="L130">
-        <v>3.2</v>
-      </c>
-      <c r="M130">
-        <v>3.75</v>
-      </c>
-      <c r="N130">
-        <v>1.75</v>
-      </c>
-      <c r="O130">
-        <v>3.6</v>
-      </c>
-      <c r="P130">
-        <v>4.2</v>
-      </c>
-      <c r="Q130">
-        <v>-0.75</v>
-      </c>
-      <c r="R130">
-        <v>2</v>
-      </c>
-      <c r="S130">
-        <v>1.8</v>
-      </c>
       <c r="T130">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U130">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V130">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA130">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC130">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>5350298</v>
+        <v>5350296</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,76 +12204,76 @@
         <v>45066.41666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G132" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K132">
-        <v>2.875</v>
+        <v>1.95</v>
       </c>
       <c r="L132">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="M132">
+        <v>3.75</v>
+      </c>
+      <c r="N132">
+        <v>1.75</v>
+      </c>
+      <c r="O132">
+        <v>3.6</v>
+      </c>
+      <c r="P132">
+        <v>4.2</v>
+      </c>
+      <c r="Q132">
+        <v>-0.75</v>
+      </c>
+      <c r="R132">
+        <v>2</v>
+      </c>
+      <c r="S132">
+        <v>1.8</v>
+      </c>
+      <c r="T132">
         <v>2.5</v>
       </c>
-      <c r="N132">
-        <v>3.25</v>
-      </c>
-      <c r="O132">
-        <v>2.9</v>
-      </c>
-      <c r="P132">
-        <v>2.25</v>
-      </c>
-      <c r="Q132">
-        <v>0.25</v>
-      </c>
-      <c r="R132">
-        <v>1.85</v>
-      </c>
-      <c r="S132">
-        <v>1.95</v>
-      </c>
-      <c r="T132">
-        <v>2</v>
-      </c>
       <c r="U132">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V132">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W132">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z132">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB132">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12296,7 +12296,7 @@
         <v>42</v>
       </c>
       <c r="G133" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -12474,7 +12474,7 @@
         <v>44</v>
       </c>
       <c r="G135" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H135">
         <v>2</v>
@@ -12560,10 +12560,10 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F136" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G136" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H136">
         <v>1</v>
@@ -12830,7 +12830,7 @@
         <v>38</v>
       </c>
       <c r="G139" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -13008,7 +13008,7 @@
         <v>29</v>
       </c>
       <c r="G141" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -13094,10 +13094,10 @@
         <v>45146.5</v>
       </c>
       <c r="F142" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G142" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13260,7 +13260,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7007756</v>
+        <v>7007757</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13272,76 +13272,76 @@
         <v>45147.41666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G144" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144">
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K144">
-        <v>2.625</v>
+        <v>1.65</v>
       </c>
       <c r="L144">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M144">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="N144">
-        <v>2.625</v>
+        <v>1.45</v>
       </c>
       <c r="O144">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="P144">
-        <v>2.625</v>
+        <v>6.5</v>
       </c>
       <c r="Q144">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R144">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S144">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T144">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U144">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V144">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA144">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC144">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13349,7 +13349,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7007757</v>
+        <v>7007756</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13361,76 +13361,76 @@
         <v>45147.41666666666</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G145" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145">
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K145">
-        <v>1.65</v>
+        <v>2.625</v>
       </c>
       <c r="L145">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M145">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="N145">
-        <v>1.45</v>
+        <v>2.625</v>
       </c>
       <c r="O145">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="P145">
-        <v>6.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q145">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R145">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S145">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T145">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U145">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V145">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W145">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z145">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB145">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13527,7 +13527,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7007759</v>
+        <v>7007761</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13542,73 +13542,73 @@
         <v>45</v>
       </c>
       <c r="G147" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J147" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K147">
         <v>3</v>
       </c>
       <c r="L147">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M147">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="N147">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="O147">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="P147">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="Q147">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R147">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S147">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="T147">
         <v>2</v>
       </c>
       <c r="U147">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V147">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W147">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X147">
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z147">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC147">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7007761</v>
+        <v>7007759</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13720,73 +13720,73 @@
         <v>46</v>
       </c>
       <c r="G149" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I149">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K149">
         <v>3</v>
       </c>
       <c r="L149">
+        <v>3.1</v>
+      </c>
+      <c r="M149">
+        <v>2.25</v>
+      </c>
+      <c r="N149">
+        <v>2.875</v>
+      </c>
+      <c r="O149">
         <v>3</v>
       </c>
-      <c r="M149">
-        <v>2.3</v>
-      </c>
-      <c r="N149">
-        <v>2.7</v>
-      </c>
-      <c r="O149">
-        <v>2.625</v>
-      </c>
       <c r="P149">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q149">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R149">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="S149">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="T149">
         <v>2</v>
       </c>
       <c r="U149">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V149">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W149">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X149">
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z149">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA149">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC149">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13809,7 +13809,7 @@
         <v>30</v>
       </c>
       <c r="G150" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H150">
         <v>4</v>
@@ -13987,7 +13987,7 @@
         <v>32</v>
       </c>
       <c r="G152" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -14061,7 +14061,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7007762</v>
+        <v>7068224</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14073,76 +14073,76 @@
         <v>45156.60416666666</v>
       </c>
       <c r="F153" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G153" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H153">
         <v>1</v>
       </c>
       <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153" t="s">
+        <v>48</v>
+      </c>
+      <c r="K153">
+        <v>1.909</v>
+      </c>
+      <c r="L153">
         <v>3</v>
       </c>
-      <c r="J153" t="s">
-        <v>47</v>
-      </c>
-      <c r="K153">
-        <v>2.6</v>
-      </c>
-      <c r="L153">
-        <v>2.875</v>
-      </c>
       <c r="M153">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="N153">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="O153">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P153">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="Q153">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R153">
+        <v>1.95</v>
+      </c>
+      <c r="S153">
+        <v>1.85</v>
+      </c>
+      <c r="T153">
+        <v>2</v>
+      </c>
+      <c r="U153">
+        <v>2</v>
+      </c>
+      <c r="V153">
         <v>1.8</v>
       </c>
-      <c r="S153">
-        <v>2</v>
-      </c>
-      <c r="T153">
-        <v>2</v>
-      </c>
-      <c r="U153">
-        <v>1.95</v>
-      </c>
-      <c r="V153">
-        <v>1.85</v>
-      </c>
       <c r="W153">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA153">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB153">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC153">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14150,7 +14150,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7068224</v>
+        <v>7007762</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14162,76 +14162,76 @@
         <v>45156.60416666666</v>
       </c>
       <c r="F154" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G154" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H154">
         <v>1</v>
       </c>
       <c r="I154">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J154" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K154">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="L154">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M154">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="N154">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="O154">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P154">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="Q154">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R154">
+        <v>1.8</v>
+      </c>
+      <c r="S154">
+        <v>2</v>
+      </c>
+      <c r="T154">
+        <v>2</v>
+      </c>
+      <c r="U154">
         <v>1.95</v>
       </c>
-      <c r="S154">
+      <c r="V154">
         <v>1.85</v>
       </c>
-      <c r="T154">
-        <v>2</v>
-      </c>
-      <c r="U154">
-        <v>2</v>
-      </c>
-      <c r="V154">
-        <v>1.8</v>
-      </c>
       <c r="W154">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X154">
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z154">
+        <v>-1</v>
+      </c>
+      <c r="AA154">
+        <v>1</v>
+      </c>
+      <c r="AB154">
         <v>0.95</v>
       </c>
-      <c r="AA154">
-        <v>-1</v>
-      </c>
-      <c r="AB154">
-        <v>-1</v>
-      </c>
       <c r="AC154">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14251,10 +14251,10 @@
         <v>45157.41666666666</v>
       </c>
       <c r="F155" t="s">
+        <v>46</v>
+      </c>
+      <c r="G155" t="s">
         <v>45</v>
-      </c>
-      <c r="G155" t="s">
-        <v>46</v>
       </c>
       <c r="H155">
         <v>3</v>
@@ -14343,7 +14343,7 @@
         <v>40</v>
       </c>
       <c r="G156" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -14607,7 +14607,7 @@
         <v>45161.5</v>
       </c>
       <c r="F159" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G159" t="s">
         <v>30</v>
@@ -14785,7 +14785,7 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F161" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G161" t="s">
         <v>42</v>
@@ -14874,10 +14874,10 @@
         <v>45164.41666666666</v>
       </c>
       <c r="F162" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G162" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H162">
         <v>3</v>
@@ -15233,7 +15233,7 @@
         <v>44</v>
       </c>
       <c r="G166" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H166">
         <v>0</v>
@@ -15408,7 +15408,7 @@
         <v>45168.5</v>
       </c>
       <c r="F168" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G168" t="s">
         <v>30</v>
@@ -15485,7 +15485,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>7078410</v>
+        <v>7078409</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15497,49 +15497,49 @@
         <v>45168.60416666666</v>
       </c>
       <c r="F169" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G169" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I169">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J169" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K169">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="L169">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M169">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="N169">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="O169">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="P169">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q169">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R169">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S169">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T169">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U169">
         <v>2.025</v>
@@ -15551,22 +15551,22 @@
         <v>-1</v>
       </c>
       <c r="X169">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y169">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z169">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA169">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB169">
-        <v>0.5125</v>
+        <v>1.025</v>
       </c>
       <c r="AC169">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15574,7 +15574,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>7078412</v>
+        <v>7078410</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15589,73 +15589,73 @@
         <v>34</v>
       </c>
       <c r="G170" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H170">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I170">
         <v>1</v>
       </c>
       <c r="J170" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K170">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="L170">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M170">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="N170">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="O170">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P170">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="Q170">
+        <v>0</v>
+      </c>
+      <c r="R170">
+        <v>2.05</v>
+      </c>
+      <c r="S170">
+        <v>1.75</v>
+      </c>
+      <c r="T170">
+        <v>1.75</v>
+      </c>
+      <c r="U170">
+        <v>2.025</v>
+      </c>
+      <c r="V170">
+        <v>1.775</v>
+      </c>
+      <c r="W170">
+        <v>-1</v>
+      </c>
+      <c r="X170">
+        <v>1.875</v>
+      </c>
+      <c r="Y170">
+        <v>-1</v>
+      </c>
+      <c r="Z170">
+        <v>0</v>
+      </c>
+      <c r="AA170">
+        <v>-0</v>
+      </c>
+      <c r="AB170">
+        <v>0.5125</v>
+      </c>
+      <c r="AC170">
         <v>-0.5</v>
-      </c>
-      <c r="R170">
-        <v>1.9</v>
-      </c>
-      <c r="S170">
-        <v>1.9</v>
-      </c>
-      <c r="T170">
-        <v>2</v>
-      </c>
-      <c r="U170">
-        <v>1.975</v>
-      </c>
-      <c r="V170">
-        <v>1.825</v>
-      </c>
-      <c r="W170">
-        <v>0.833</v>
-      </c>
-      <c r="X170">
-        <v>-1</v>
-      </c>
-      <c r="Y170">
-        <v>-1</v>
-      </c>
-      <c r="Z170">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA170">
-        <v>-1</v>
-      </c>
-      <c r="AB170">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC170">
-        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15663,7 +15663,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>7078413</v>
+        <v>7078411</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15675,76 +15675,76 @@
         <v>45168.60416666666</v>
       </c>
       <c r="F171" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G171" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J171" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K171">
         <v>2.6</v>
       </c>
       <c r="L171">
+        <v>3.1</v>
+      </c>
+      <c r="M171">
+        <v>2.6</v>
+      </c>
+      <c r="N171">
+        <v>2.4</v>
+      </c>
+      <c r="O171">
         <v>2.75</v>
       </c>
-      <c r="M171">
-        <v>2.9</v>
-      </c>
-      <c r="N171">
-        <v>3.1</v>
-      </c>
-      <c r="O171">
-        <v>2.8</v>
-      </c>
       <c r="P171">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="Q171">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R171">
-        <v>1.7</v>
+        <v>2.075</v>
       </c>
       <c r="S171">
-        <v>2.1</v>
+        <v>1.725</v>
       </c>
       <c r="T171">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U171">
+        <v>2.025</v>
+      </c>
+      <c r="V171">
         <v>1.775</v>
       </c>
-      <c r="V171">
-        <v>2.025</v>
-      </c>
       <c r="W171">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X171">
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z171">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AA171">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB171">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC171">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15752,7 +15752,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>7078409</v>
+        <v>7078412</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15764,73 +15764,73 @@
         <v>45168.60416666666</v>
       </c>
       <c r="F172" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G172" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I172">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K172">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="L172">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="M172">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="N172">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="O172">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P172">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q172">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R172">
+        <v>1.9</v>
+      </c>
+      <c r="S172">
+        <v>1.9</v>
+      </c>
+      <c r="T172">
+        <v>2</v>
+      </c>
+      <c r="U172">
+        <v>1.975</v>
+      </c>
+      <c r="V172">
         <v>1.825</v>
       </c>
-      <c r="S172">
-        <v>1.975</v>
-      </c>
-      <c r="T172">
-        <v>2</v>
-      </c>
-      <c r="U172">
-        <v>2.025</v>
-      </c>
-      <c r="V172">
-        <v>1.775</v>
-      </c>
       <c r="W172">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X172">
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z172">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA172">
+        <v>-1</v>
+      </c>
+      <c r="AB172">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB172">
-        <v>1.025</v>
       </c>
       <c r="AC172">
         <v>-1</v>
@@ -15841,7 +15841,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7078411</v>
+        <v>7078413</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15853,76 +15853,76 @@
         <v>45168.60416666666</v>
       </c>
       <c r="F173" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G173" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I173">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J173" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K173">
         <v>2.6</v>
       </c>
       <c r="L173">
+        <v>2.75</v>
+      </c>
+      <c r="M173">
+        <v>2.9</v>
+      </c>
+      <c r="N173">
         <v>3.1</v>
       </c>
-      <c r="M173">
-        <v>2.6</v>
-      </c>
-      <c r="N173">
-        <v>2.4</v>
-      </c>
       <c r="O173">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="P173">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="Q173">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R173">
-        <v>2.075</v>
+        <v>1.7</v>
       </c>
       <c r="S173">
-        <v>1.725</v>
+        <v>2.1</v>
       </c>
       <c r="T173">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U173">
+        <v>1.775</v>
+      </c>
+      <c r="V173">
         <v>2.025</v>
       </c>
-      <c r="V173">
-        <v>1.775</v>
-      </c>
       <c r="W173">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X173">
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z173">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AA173">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB173">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC173">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15942,10 +15942,10 @@
         <v>45184.60416666666</v>
       </c>
       <c r="F174" t="s">
+        <v>33</v>
+      </c>
+      <c r="G174" t="s">
         <v>34</v>
-      </c>
-      <c r="G174" t="s">
-        <v>33</v>
       </c>
       <c r="H174">
         <v>0</v>
@@ -16031,7 +16031,7 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F175" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G175" t="s">
         <v>39</v>
@@ -16286,7 +16286,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7169683</v>
+        <v>7169681</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16298,13 +16298,13 @@
         <v>45188.60416666666</v>
       </c>
       <c r="F178" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G178" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I178">
         <v>2</v>
@@ -16313,34 +16313,34 @@
         <v>47</v>
       </c>
       <c r="K178">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="L178">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M178">
-        <v>2.9</v>
+        <v>1.909</v>
       </c>
       <c r="N178">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="O178">
         <v>2.9</v>
       </c>
       <c r="P178">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="Q178">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R178">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="S178">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="T178">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U178">
         <v>2.025</v>
@@ -16355,19 +16355,19 @@
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>2</v>
+        <v>1.375</v>
       </c>
       <c r="Z178">
         <v>-1</v>
       </c>
       <c r="AA178">
-        <v>0.8</v>
+        <v>1.075</v>
       </c>
       <c r="AB178">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC178">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16387,7 +16387,7 @@
         <v>45188.60416666666</v>
       </c>
       <c r="F179" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G179" t="s">
         <v>42</v>
@@ -16464,7 +16464,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7169681</v>
+        <v>7169683</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16476,13 +16476,13 @@
         <v>45188.60416666666</v>
       </c>
       <c r="F180" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G180" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180">
         <v>2</v>
@@ -16491,34 +16491,34 @@
         <v>47</v>
       </c>
       <c r="K180">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="L180">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M180">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="N180">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="O180">
         <v>2.9</v>
       </c>
       <c r="P180">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="Q180">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R180">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="S180">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="T180">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U180">
         <v>2.025</v>
@@ -16533,19 +16533,19 @@
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>1.375</v>
+        <v>2</v>
       </c>
       <c r="Z180">
         <v>-1</v>
       </c>
       <c r="AA180">
-        <v>1.075</v>
+        <v>0.8</v>
       </c>
       <c r="AB180">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC180">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16642,7 +16642,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7169685</v>
+        <v>7170833</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16654,76 +16654,76 @@
         <v>45189.60416666666</v>
       </c>
       <c r="F182" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G182" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H182">
+        <v>0</v>
+      </c>
+      <c r="I182">
         <v>1</v>
       </c>
-      <c r="I182">
-        <v>0</v>
-      </c>
       <c r="J182" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K182">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="L182">
+        <v>2.875</v>
+      </c>
+      <c r="M182">
+        <v>2.5</v>
+      </c>
+      <c r="N182">
+        <v>3.4</v>
+      </c>
+      <c r="O182">
         <v>2.9</v>
       </c>
-      <c r="M182">
-        <v>3.75</v>
-      </c>
-      <c r="N182">
-        <v>1.909</v>
-      </c>
-      <c r="O182">
-        <v>2.875</v>
-      </c>
       <c r="P182">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q182">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R182">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S182">
+        <v>1.875</v>
+      </c>
+      <c r="T182">
+        <v>2</v>
+      </c>
+      <c r="U182">
         <v>1.8</v>
       </c>
-      <c r="T182">
-        <v>1.75</v>
-      </c>
-      <c r="U182">
-        <v>1.75</v>
-      </c>
       <c r="V182">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W182">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X182">
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z182">
+        <v>-1</v>
+      </c>
+      <c r="AA182">
+        <v>0.875</v>
+      </c>
+      <c r="AB182">
+        <v>-1</v>
+      </c>
+      <c r="AC182">
         <v>1</v>
-      </c>
-      <c r="AA182">
-        <v>-1</v>
-      </c>
-      <c r="AB182">
-        <v>-1</v>
-      </c>
-      <c r="AC182">
-        <v>1.05</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16820,7 +16820,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7170833</v>
+        <v>7169685</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16832,76 +16832,76 @@
         <v>45189.60416666666</v>
       </c>
       <c r="F184" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G184" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184" t="s">
+        <v>48</v>
+      </c>
+      <c r="K184">
+        <v>2</v>
+      </c>
+      <c r="L184">
+        <v>2.9</v>
+      </c>
+      <c r="M184">
+        <v>3.75</v>
+      </c>
+      <c r="N184">
+        <v>1.909</v>
+      </c>
+      <c r="O184">
+        <v>2.875</v>
+      </c>
+      <c r="P184">
+        <v>4.2</v>
+      </c>
+      <c r="Q184">
+        <v>-0.5</v>
+      </c>
+      <c r="R184">
+        <v>2</v>
+      </c>
+      <c r="S184">
+        <v>1.8</v>
+      </c>
+      <c r="T184">
+        <v>1.75</v>
+      </c>
+      <c r="U184">
+        <v>1.75</v>
+      </c>
+      <c r="V184">
+        <v>2.05</v>
+      </c>
+      <c r="W184">
+        <v>0.909</v>
+      </c>
+      <c r="X184">
+        <v>-1</v>
+      </c>
+      <c r="Y184">
+        <v>-1</v>
+      </c>
+      <c r="Z184">
         <v>1</v>
       </c>
-      <c r="J184" t="s">
-        <v>47</v>
-      </c>
-      <c r="K184">
-        <v>2.75</v>
-      </c>
-      <c r="L184">
-        <v>2.875</v>
-      </c>
-      <c r="M184">
-        <v>2.5</v>
-      </c>
-      <c r="N184">
-        <v>3.4</v>
-      </c>
-      <c r="O184">
-        <v>2.9</v>
-      </c>
-      <c r="P184">
-        <v>2.1</v>
-      </c>
-      <c r="Q184">
-        <v>0.25</v>
-      </c>
-      <c r="R184">
-        <v>1.925</v>
-      </c>
-      <c r="S184">
-        <v>1.875</v>
-      </c>
-      <c r="T184">
-        <v>2</v>
-      </c>
-      <c r="U184">
-        <v>1.8</v>
-      </c>
-      <c r="V184">
-        <v>2</v>
-      </c>
-      <c r="W184">
-        <v>-1</v>
-      </c>
-      <c r="X184">
-        <v>-1</v>
-      </c>
-      <c r="Y184">
-        <v>1.1</v>
-      </c>
-      <c r="Z184">
-        <v>-1</v>
-      </c>
       <c r="AA184">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB184">
         <v>-1</v>
       </c>
       <c r="AC184">
-        <v>1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16921,7 +16921,7 @@
         <v>45194.41666666666</v>
       </c>
       <c r="F185" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G185" t="s">
         <v>40</v>
@@ -17087,7 +17087,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7234871</v>
+        <v>7234870</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17099,13 +17099,13 @@
         <v>45196.60416666666</v>
       </c>
       <c r="F187" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G187" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I187">
         <v>1</v>
@@ -17114,43 +17114,43 @@
         <v>48</v>
       </c>
       <c r="K187">
+        <v>1.333</v>
+      </c>
+      <c r="L187">
+        <v>4.333</v>
+      </c>
+      <c r="M187">
+        <v>8.5</v>
+      </c>
+      <c r="N187">
+        <v>1.363</v>
+      </c>
+      <c r="O187">
+        <v>4.2</v>
+      </c>
+      <c r="P187">
+        <v>8.5</v>
+      </c>
+      <c r="Q187">
+        <v>-1.25</v>
+      </c>
+      <c r="R187">
         <v>1.85</v>
       </c>
-      <c r="L187">
-        <v>3.1</v>
-      </c>
-      <c r="M187">
-        <v>4.333</v>
-      </c>
-      <c r="N187">
-        <v>2.05</v>
-      </c>
-      <c r="O187">
-        <v>2.875</v>
-      </c>
-      <c r="P187">
-        <v>4</v>
-      </c>
-      <c r="Q187">
-        <v>-0.5</v>
-      </c>
-      <c r="R187">
-        <v>2</v>
-      </c>
       <c r="S187">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T187">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U187">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V187">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="W187">
-        <v>1.05</v>
+        <v>0.363</v>
       </c>
       <c r="X187">
         <v>-1</v>
@@ -17159,13 +17159,13 @@
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA187">
         <v>-1</v>
       </c>
       <c r="AB187">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AC187">
         <v>-1</v>
@@ -17176,7 +17176,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7234870</v>
+        <v>7234871</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17188,13 +17188,13 @@
         <v>45196.60416666666</v>
       </c>
       <c r="F188" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G188" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H188">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I188">
         <v>1</v>
@@ -17203,43 +17203,43 @@
         <v>48</v>
       </c>
       <c r="K188">
-        <v>1.333</v>
+        <v>1.85</v>
       </c>
       <c r="L188">
+        <v>3.1</v>
+      </c>
+      <c r="M188">
         <v>4.333</v>
       </c>
-      <c r="M188">
-        <v>8.5</v>
-      </c>
       <c r="N188">
-        <v>1.363</v>
+        <v>2.05</v>
       </c>
       <c r="O188">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="P188">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="Q188">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R188">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S188">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T188">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U188">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V188">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="W188">
-        <v>0.363</v>
+        <v>1.05</v>
       </c>
       <c r="X188">
         <v>-1</v>
@@ -17248,13 +17248,13 @@
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA188">
         <v>-1</v>
       </c>
       <c r="AB188">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AC188">
         <v>-1</v>
@@ -17277,7 +17277,7 @@
         <v>45198.60416666666</v>
       </c>
       <c r="F189" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G189" t="s">
         <v>40</v>
@@ -17369,7 +17369,7 @@
         <v>29</v>
       </c>
       <c r="G190" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H190">
         <v>3</v>
@@ -17455,7 +17455,7 @@
         <v>45199.52083333334</v>
       </c>
       <c r="F191" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G191" t="s">
         <v>31</v>
@@ -17547,7 +17547,7 @@
         <v>38</v>
       </c>
       <c r="G192" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H192">
         <v>1</v>
@@ -17722,7 +17722,7 @@
         <v>45203.5</v>
       </c>
       <c r="F194" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G194" t="s">
         <v>42</v>
@@ -17888,7 +17888,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>7267512</v>
+        <v>7267513</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17900,55 +17900,55 @@
         <v>45203.60416666666</v>
       </c>
       <c r="F196" t="s">
+        <v>34</v>
+      </c>
+      <c r="G196" t="s">
         <v>46</v>
       </c>
-      <c r="G196" t="s">
-        <v>44</v>
-      </c>
       <c r="H196">
+        <v>0</v>
+      </c>
+      <c r="I196">
         <v>1</v>
-      </c>
-      <c r="I196">
-        <v>2</v>
       </c>
       <c r="J196" t="s">
         <v>47</v>
       </c>
       <c r="K196">
-        <v>5</v>
+        <v>2.55</v>
       </c>
       <c r="L196">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="M196">
-        <v>1.7</v>
+        <v>2.875</v>
       </c>
       <c r="N196">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="O196">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="P196">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="Q196">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R196">
+        <v>1.925</v>
+      </c>
+      <c r="S196">
         <v>1.875</v>
       </c>
-      <c r="S196">
-        <v>1.925</v>
-      </c>
       <c r="T196">
         <v>2</v>
       </c>
       <c r="U196">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V196">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W196">
         <v>-1</v>
@@ -17957,19 +17957,19 @@
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="Z196">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA196">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AB196">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC196">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17977,7 +17977,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>7267513</v>
+        <v>7267512</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17989,55 +17989,55 @@
         <v>45203.60416666666</v>
       </c>
       <c r="F197" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G197" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J197" t="s">
         <v>47</v>
       </c>
       <c r="K197">
-        <v>2.55</v>
+        <v>5</v>
       </c>
       <c r="L197">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="M197">
-        <v>2.875</v>
+        <v>1.7</v>
       </c>
       <c r="N197">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="O197">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="P197">
-        <v>3.6</v>
+        <v>1.7</v>
       </c>
       <c r="Q197">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R197">
+        <v>1.875</v>
+      </c>
+      <c r="S197">
         <v>1.925</v>
       </c>
-      <c r="S197">
-        <v>1.875</v>
-      </c>
       <c r="T197">
         <v>2</v>
       </c>
       <c r="U197">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V197">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W197">
         <v>-1</v>
@@ -18046,19 +18046,19 @@
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="Z197">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA197">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AB197">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC197">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18081,7 +18081,7 @@
         <v>32</v>
       </c>
       <c r="G198" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H198">
         <v>0</v>
@@ -18170,7 +18170,7 @@
         <v>32</v>
       </c>
       <c r="G199" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H199">
         <v>0</v>
@@ -18437,7 +18437,7 @@
         <v>41</v>
       </c>
       <c r="G202" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H202">
         <v>1</v>
@@ -18523,7 +18523,7 @@
         <v>45227.4375</v>
       </c>
       <c r="F203" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G203" t="s">
         <v>37</v>
@@ -18701,7 +18701,7 @@
         <v>45228.4375</v>
       </c>
       <c r="F205" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G205" t="s">
         <v>29</v>
@@ -18790,7 +18790,7 @@
         <v>45231.60416666666</v>
       </c>
       <c r="F206" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G206" t="s">
         <v>41</v>
@@ -18867,7 +18867,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>7404428</v>
+        <v>7404431</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18879,58 +18879,58 @@
         <v>45237.60416666666</v>
       </c>
       <c r="F207" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G207" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H207">
+        <v>2</v>
+      </c>
+      <c r="I207">
         <v>1</v>
-      </c>
-      <c r="I207">
-        <v>0</v>
       </c>
       <c r="J207" t="s">
         <v>48</v>
       </c>
       <c r="K207">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="L207">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M207">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="N207">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="O207">
         <v>3</v>
       </c>
       <c r="P207">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="Q207">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R207">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S207">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T207">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U207">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V207">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="W207">
-        <v>2</v>
+        <v>0.909</v>
       </c>
       <c r="X207">
         <v>-1</v>
@@ -18939,16 +18939,16 @@
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AA207">
         <v>-1</v>
       </c>
       <c r="AB207">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC207">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18956,7 +18956,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7404429</v>
+        <v>7404430</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18968,58 +18968,58 @@
         <v>45237.60416666666</v>
       </c>
       <c r="F208" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G208" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H208">
+        <v>2</v>
+      </c>
+      <c r="I208">
         <v>1</v>
-      </c>
-      <c r="I208">
-        <v>0</v>
       </c>
       <c r="J208" t="s">
         <v>48</v>
       </c>
       <c r="K208">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="L208">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M208">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="N208">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="O208">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P208">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q208">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R208">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S208">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T208">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U208">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V208">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W208">
-        <v>0.6499999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X208">
         <v>-1</v>
@@ -19028,16 +19028,16 @@
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
       <c r="AA208">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB208">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC208">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19045,7 +19045,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7404430</v>
+        <v>7404429</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19057,76 +19057,76 @@
         <v>45237.60416666666</v>
       </c>
       <c r="F209" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G209" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J209" t="s">
         <v>48</v>
       </c>
       <c r="K209">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="L209">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M209">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="N209">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="O209">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P209">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q209">
+        <v>-0.75</v>
+      </c>
+      <c r="R209">
+        <v>1.875</v>
+      </c>
+      <c r="S209">
+        <v>1.925</v>
+      </c>
+      <c r="T209">
+        <v>2.25</v>
+      </c>
+      <c r="U209">
+        <v>1.925</v>
+      </c>
+      <c r="V209">
+        <v>1.875</v>
+      </c>
+      <c r="W209">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X209">
+        <v>-1</v>
+      </c>
+      <c r="Y209">
+        <v>-1</v>
+      </c>
+      <c r="Z209">
+        <v>0.4375</v>
+      </c>
+      <c r="AA209">
         <v>-0.5</v>
       </c>
-      <c r="R209">
-        <v>1.8</v>
-      </c>
-      <c r="S209">
-        <v>2</v>
-      </c>
-      <c r="T209">
-        <v>2</v>
-      </c>
-      <c r="U209">
-        <v>1.9</v>
-      </c>
-      <c r="V209">
-        <v>1.9</v>
-      </c>
-      <c r="W209">
-        <v>0.8</v>
-      </c>
-      <c r="X209">
-        <v>-1</v>
-      </c>
-      <c r="Y209">
-        <v>-1</v>
-      </c>
-      <c r="Z209">
-        <v>0.8</v>
-      </c>
-      <c r="AA209">
-        <v>-1</v>
-      </c>
       <c r="AB209">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC209">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19134,7 +19134,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7404431</v>
+        <v>7404428</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19146,58 +19146,58 @@
         <v>45237.60416666666</v>
       </c>
       <c r="F210" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G210" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J210" t="s">
         <v>48</v>
       </c>
       <c r="K210">
-        <v>2.05</v>
+        <v>3.4</v>
       </c>
       <c r="L210">
+        <v>3.1</v>
+      </c>
+      <c r="M210">
+        <v>2.1</v>
+      </c>
+      <c r="N210">
         <v>3</v>
-      </c>
-      <c r="M210">
-        <v>3.5</v>
-      </c>
-      <c r="N210">
-        <v>1.909</v>
       </c>
       <c r="O210">
         <v>3</v>
       </c>
       <c r="P210">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q210">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R210">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S210">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T210">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U210">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V210">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="W210">
-        <v>0.909</v>
+        <v>2</v>
       </c>
       <c r="X210">
         <v>-1</v>
@@ -19206,16 +19206,16 @@
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AA210">
         <v>-1</v>
       </c>
       <c r="AB210">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC210">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19235,7 +19235,7 @@
         <v>45238.60416666666</v>
       </c>
       <c r="F211" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G211" t="s">
         <v>38</v>
@@ -19312,7 +19312,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7404434</v>
+        <v>7404433</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19324,76 +19324,76 @@
         <v>45238.60416666666</v>
       </c>
       <c r="F212" t="s">
+        <v>37</v>
+      </c>
+      <c r="G212" t="s">
         <v>45</v>
       </c>
-      <c r="G212" t="s">
-        <v>44</v>
-      </c>
       <c r="H212">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J212" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K212">
-        <v>2.6</v>
+        <v>1.533</v>
       </c>
       <c r="L212">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="M212">
-        <v>2.6</v>
+        <v>5.75</v>
       </c>
       <c r="N212">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
       <c r="O212">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="P212">
+        <v>6</v>
+      </c>
+      <c r="Q212">
+        <v>-1</v>
+      </c>
+      <c r="R212">
+        <v>1.8</v>
+      </c>
+      <c r="S212">
+        <v>2</v>
+      </c>
+      <c r="T212">
         <v>2.25</v>
       </c>
-      <c r="Q212">
-        <v>0.25</v>
-      </c>
-      <c r="R212">
+      <c r="U212">
         <v>1.85</v>
       </c>
-      <c r="S212">
+      <c r="V212">
         <v>1.95</v>
       </c>
-      <c r="T212">
-        <v>2</v>
-      </c>
-      <c r="U212">
-        <v>1.95</v>
-      </c>
-      <c r="V212">
-        <v>1.85</v>
-      </c>
       <c r="W212">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X212">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y212">
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="AA212">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB212">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC212">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19401,7 +19401,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7404433</v>
+        <v>7404434</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19413,76 +19413,76 @@
         <v>45238.60416666666</v>
       </c>
       <c r="F213" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G213" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H213">
+        <v>1</v>
+      </c>
+      <c r="I213">
+        <v>1</v>
+      </c>
+      <c r="J213" t="s">
+        <v>49</v>
+      </c>
+      <c r="K213">
+        <v>2.6</v>
+      </c>
+      <c r="L213">
         <v>3</v>
       </c>
-      <c r="I213">
-        <v>2</v>
-      </c>
-      <c r="J213" t="s">
-        <v>48</v>
-      </c>
-      <c r="K213">
-        <v>1.533</v>
-      </c>
-      <c r="L213">
-        <v>3.8</v>
-      </c>
       <c r="M213">
-        <v>5.75</v>
+        <v>2.6</v>
       </c>
       <c r="N213">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="O213">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="P213">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="Q213">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R213">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S213">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T213">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U213">
+        <v>1.95</v>
+      </c>
+      <c r="V213">
         <v>1.85</v>
       </c>
-      <c r="V213">
-        <v>1.95</v>
-      </c>
       <c r="W213">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X213">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y213">
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AA213">
+        <v>-0.5</v>
+      </c>
+      <c r="AB213">
+        <v>0</v>
+      </c>
+      <c r="AC213">
         <v>-0</v>
-      </c>
-      <c r="AB213">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC213">
-        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19579,7 +19579,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7404438</v>
+        <v>7404437</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19591,76 +19591,76 @@
         <v>45241.4375</v>
       </c>
       <c r="F215" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G215" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H215">
         <v>0</v>
       </c>
       <c r="I215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K215">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L215">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M215">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="N215">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O215">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="P215">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="Q215">
         <v>0</v>
       </c>
       <c r="R215">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S215">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T215">
         <v>2</v>
       </c>
       <c r="U215">
+        <v>1.85</v>
+      </c>
+      <c r="V215">
+        <v>1.95</v>
+      </c>
+      <c r="W215">
+        <v>-1</v>
+      </c>
+      <c r="X215">
         <v>1.875</v>
       </c>
-      <c r="V215">
-        <v>1.925</v>
-      </c>
-      <c r="W215">
-        <v>-1</v>
-      </c>
-      <c r="X215">
-        <v>-1</v>
-      </c>
       <c r="Y215">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z215">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA215">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB215">
         <v>-1</v>
       </c>
       <c r="AC215">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19668,7 +19668,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7404437</v>
+        <v>7404438</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19680,76 +19680,76 @@
         <v>45241.4375</v>
       </c>
       <c r="F216" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G216" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H216">
         <v>0</v>
       </c>
       <c r="I216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K216">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L216">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M216">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="N216">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O216">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="P216">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q216">
         <v>0</v>
       </c>
       <c r="R216">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S216">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T216">
         <v>2</v>
       </c>
       <c r="U216">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V216">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W216">
         <v>-1</v>
       </c>
       <c r="X216">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y216">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z216">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA216">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB216">
         <v>-1</v>
       </c>
       <c r="AC216">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19846,7 +19846,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>7404441</v>
+        <v>7404440</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19858,76 +19858,76 @@
         <v>45242.4375</v>
       </c>
       <c r="F218" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G218" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H218">
         <v>1</v>
       </c>
       <c r="I218">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J218" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K218">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L218">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M218">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N218">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="O218">
         <v>3</v>
       </c>
       <c r="P218">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="Q218">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R218">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S218">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T218">
         <v>2</v>
       </c>
       <c r="U218">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V218">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W218">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X218">
         <v>-1</v>
       </c>
       <c r="Y218">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z218">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA218">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB218">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC218">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19935,7 +19935,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>7404440</v>
+        <v>7404441</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19947,76 +19947,76 @@
         <v>45242.4375</v>
       </c>
       <c r="F219" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G219" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H219">
         <v>1</v>
       </c>
       <c r="I219">
+        <v>0</v>
+      </c>
+      <c r="J219" t="s">
+        <v>48</v>
+      </c>
+      <c r="K219">
+        <v>2.3</v>
+      </c>
+      <c r="L219">
+        <v>2.9</v>
+      </c>
+      <c r="M219">
         <v>3</v>
       </c>
-      <c r="J219" t="s">
-        <v>47</v>
-      </c>
-      <c r="K219">
-        <v>2.15</v>
-      </c>
-      <c r="L219">
-        <v>3</v>
-      </c>
-      <c r="M219">
-        <v>3.2</v>
-      </c>
       <c r="N219">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="O219">
         <v>3</v>
       </c>
       <c r="P219">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q219">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R219">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S219">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T219">
         <v>2</v>
       </c>
       <c r="U219">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V219">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W219">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X219">
         <v>-1</v>
       </c>
       <c r="Y219">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z219">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA219">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB219">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC219">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20113,7 +20113,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>7404445</v>
+        <v>7404444</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20125,76 +20125,76 @@
         <v>45255.4375</v>
       </c>
       <c r="F221" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G221" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H221">
         <v>0</v>
       </c>
       <c r="I221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J221" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K221">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="L221">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M221">
-        <v>1.65</v>
+        <v>3.25</v>
       </c>
       <c r="N221">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="O221">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="P221">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="Q221">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R221">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S221">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T221">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U221">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V221">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W221">
         <v>-1</v>
       </c>
       <c r="X221">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y221">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z221">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA221">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB221">
         <v>-1</v>
       </c>
       <c r="AC221">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20202,7 +20202,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>7404444</v>
+        <v>7404445</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20214,76 +20214,76 @@
         <v>45255.4375</v>
       </c>
       <c r="F222" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G222" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H222">
         <v>0</v>
       </c>
       <c r="I222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J222" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K222">
+        <v>5.25</v>
+      </c>
+      <c r="L222">
+        <v>3.4</v>
+      </c>
+      <c r="M222">
+        <v>1.65</v>
+      </c>
+      <c r="N222">
+        <v>4.2</v>
+      </c>
+      <c r="O222">
+        <v>3.2</v>
+      </c>
+      <c r="P222">
+        <v>1.85</v>
+      </c>
+      <c r="Q222">
+        <v>0.5</v>
+      </c>
+      <c r="R222">
+        <v>1.9</v>
+      </c>
+      <c r="S222">
+        <v>1.9</v>
+      </c>
+      <c r="T222">
+        <v>2</v>
+      </c>
+      <c r="U222">
+        <v>1.925</v>
+      </c>
+      <c r="V222">
+        <v>1.875</v>
+      </c>
+      <c r="W222">
+        <v>-1</v>
+      </c>
+      <c r="X222">
         <v>2.2</v>
       </c>
-      <c r="L222">
-        <v>3</v>
-      </c>
-      <c r="M222">
-        <v>3.25</v>
-      </c>
-      <c r="N222">
-        <v>2.7</v>
-      </c>
-      <c r="O222">
-        <v>2.8</v>
-      </c>
-      <c r="P222">
-        <v>2.75</v>
-      </c>
-      <c r="Q222">
-        <v>0</v>
-      </c>
-      <c r="R222">
-        <v>1.875</v>
-      </c>
-      <c r="S222">
-        <v>1.925</v>
-      </c>
-      <c r="T222">
-        <v>1.75</v>
-      </c>
-      <c r="U222">
-        <v>1.775</v>
-      </c>
-      <c r="V222">
-        <v>2.025</v>
-      </c>
-      <c r="W222">
-        <v>-1</v>
-      </c>
-      <c r="X222">
-        <v>-1</v>
-      </c>
       <c r="Y222">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z222">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA222">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB222">
         <v>-1</v>
       </c>
       <c r="AC222">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20303,7 +20303,7 @@
         <v>45255.53125</v>
       </c>
       <c r="F223" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G223" t="s">
         <v>31</v>
@@ -20392,7 +20392,7 @@
         <v>45256.4375</v>
       </c>
       <c r="F224" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G224" t="s">
         <v>37</v>
@@ -20484,7 +20484,7 @@
         <v>38</v>
       </c>
       <c r="G225" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H225">
         <v>3</v>
@@ -20570,7 +20570,7 @@
         <v>45256.53125</v>
       </c>
       <c r="F226" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G226" t="s">
         <v>29</v>
@@ -20659,7 +20659,7 @@
         <v>45258.60416666666</v>
       </c>
       <c r="F227" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G227" t="s">
         <v>39</v>
@@ -20840,7 +20840,7 @@
         <v>41</v>
       </c>
       <c r="G229" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H229">
         <v>2</v>
@@ -21193,7 +21193,7 @@
         <v>45269.4375</v>
       </c>
       <c r="F233" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G233" t="s">
         <v>37</v>
@@ -21285,7 +21285,7 @@
         <v>42</v>
       </c>
       <c r="G234" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H234">
         <v>2</v>
@@ -21463,7 +21463,7 @@
         <v>31</v>
       </c>
       <c r="G236" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H236">
         <v>3</v>
@@ -21641,7 +21641,7 @@
         <v>30</v>
       </c>
       <c r="G238" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H238">
         <v>3</v>
@@ -21727,7 +21727,7 @@
         <v>45275.4375</v>
       </c>
       <c r="F239" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G239" t="s">
         <v>44</v>
@@ -21816,7 +21816,7 @@
         <v>45277.4375</v>
       </c>
       <c r="F240" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G240" t="s">
         <v>41</v>
@@ -21908,7 +21908,7 @@
         <v>40</v>
       </c>
       <c r="G241" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H241">
         <v>1</v>
@@ -21982,7 +21982,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>7477992</v>
+        <v>7477991</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -21994,76 +21994,76 @@
         <v>45283.4375</v>
       </c>
       <c r="F242" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G242" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I242">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J242" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K242">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="L242">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M242">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="N242">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="O242">
         <v>2.9</v>
       </c>
       <c r="P242">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="Q242">
         <v>0</v>
       </c>
       <c r="R242">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S242">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T242">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U242">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V242">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W242">
         <v>-1</v>
       </c>
       <c r="X242">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y242">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z242">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA242">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB242">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC242">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="243" spans="1:29">
@@ -22071,7 +22071,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>7479719</v>
+        <v>7477992</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22083,13 +22083,13 @@
         <v>45283.4375</v>
       </c>
       <c r="F243" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G243" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I243">
         <v>2</v>
@@ -22098,40 +22098,40 @@
         <v>47</v>
       </c>
       <c r="K243">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="L243">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M243">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N243">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="O243">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="P243">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="Q243">
         <v>0</v>
       </c>
       <c r="R243">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S243">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T243">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U243">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V243">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="W243">
         <v>-1</v>
@@ -22140,19 +22140,19 @@
         <v>-1</v>
       </c>
       <c r="Y243">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="Z243">
         <v>-1</v>
       </c>
       <c r="AA243">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB243">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AC243">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -22160,7 +22160,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>7477991</v>
+        <v>7479719</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22172,76 +22172,76 @@
         <v>45283.4375</v>
       </c>
       <c r="F244" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G244" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H244">
         <v>0</v>
       </c>
       <c r="I244">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J244" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K244">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="L244">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M244">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="N244">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="O244">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="P244">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="Q244">
         <v>0</v>
       </c>
       <c r="R244">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S244">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T244">
         <v>2</v>
       </c>
       <c r="U244">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V244">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W244">
         <v>-1</v>
       </c>
       <c r="X244">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y244">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z244">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA244">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB244">
+        <v>0</v>
+      </c>
+      <c r="AC244">
         <v>-0</v>
-      </c>
-      <c r="AB244">
-        <v>-1</v>
-      </c>
-      <c r="AC244">
-        <v>0.825</v>
       </c>
     </row>
     <row r="245" spans="1:29">
@@ -22264,7 +22264,7 @@
         <v>37</v>
       </c>
       <c r="G245" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H245">
         <v>1</v>
@@ -22694,7 +22694,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>7477996</v>
+        <v>7477995</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22706,58 +22706,58 @@
         <v>45290.4375</v>
       </c>
       <c r="F250" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G250" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H250">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J250" t="s">
         <v>48</v>
       </c>
       <c r="K250">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="L250">
         <v>3</v>
       </c>
       <c r="M250">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="N250">
+        <v>2.1</v>
+      </c>
+      <c r="O250">
+        <v>3</v>
+      </c>
+      <c r="P250">
         <v>3.6</v>
       </c>
-      <c r="O250">
-        <v>2.9</v>
-      </c>
-      <c r="P250">
-        <v>2.1</v>
-      </c>
       <c r="Q250">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R250">
+        <v>1.825</v>
+      </c>
+      <c r="S250">
         <v>1.975</v>
       </c>
-      <c r="S250">
-        <v>1.825</v>
-      </c>
       <c r="T250">
         <v>2</v>
       </c>
       <c r="U250">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V250">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W250">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="X250">
         <v>-1</v>
@@ -22766,16 +22766,16 @@
         <v>-1</v>
       </c>
       <c r="Z250">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA250">
         <v>-1</v>
       </c>
       <c r="AB250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC250">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="251" spans="1:29">
@@ -22783,7 +22783,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>7477995</v>
+        <v>7477996</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22795,58 +22795,58 @@
         <v>45290.4375</v>
       </c>
       <c r="F251" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G251" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J251" t="s">
         <v>48</v>
       </c>
       <c r="K251">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="L251">
         <v>3</v>
       </c>
       <c r="M251">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="N251">
+        <v>3.6</v>
+      </c>
+      <c r="O251">
+        <v>2.9</v>
+      </c>
+      <c r="P251">
         <v>2.1</v>
       </c>
-      <c r="O251">
-        <v>3</v>
-      </c>
-      <c r="P251">
-        <v>3.6</v>
-      </c>
       <c r="Q251">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R251">
+        <v>1.975</v>
+      </c>
+      <c r="S251">
         <v>1.825</v>
       </c>
-      <c r="S251">
-        <v>1.975</v>
-      </c>
       <c r="T251">
         <v>2</v>
       </c>
       <c r="U251">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V251">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W251">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="X251">
         <v>-1</v>
@@ -22855,16 +22855,16 @@
         <v>-1</v>
       </c>
       <c r="Z251">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA251">
         <v>-1</v>
       </c>
       <c r="AB251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC251">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -22887,7 +22887,7 @@
         <v>30</v>
       </c>
       <c r="G252" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H252">
         <v>0</v>
@@ -23062,7 +23062,7 @@
         <v>45291.4375</v>
       </c>
       <c r="F254" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G254" t="s">
         <v>29</v>
@@ -23228,7 +23228,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>7577336</v>
+        <v>7577337</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23240,76 +23240,76 @@
         <v>45339.4375</v>
       </c>
       <c r="F256" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G256" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I256">
         <v>1</v>
       </c>
       <c r="J256" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K256">
         <v>3.1</v>
       </c>
       <c r="L256">
+        <v>2.8</v>
+      </c>
+      <c r="M256">
+        <v>2.45</v>
+      </c>
+      <c r="N256">
         <v>3.3</v>
       </c>
-      <c r="M256">
-        <v>2.15</v>
-      </c>
-      <c r="N256">
-        <v>4.333</v>
-      </c>
       <c r="O256">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="P256">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="Q256">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R256">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S256">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T256">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U256">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V256">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W256">
         <v>-1</v>
       </c>
       <c r="X256">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y256">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z256">
+        <v>0.3875</v>
+      </c>
+      <c r="AA256">
         <v>-0.5</v>
       </c>
-      <c r="AA256">
-        <v>0.475</v>
-      </c>
       <c r="AB256">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC256">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="257" spans="1:29">
@@ -23317,7 +23317,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>7577337</v>
+        <v>7577336</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23329,76 +23329,76 @@
         <v>45339.4375</v>
       </c>
       <c r="F257" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G257" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257">
         <v>1</v>
       </c>
       <c r="J257" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K257">
         <v>3.1</v>
       </c>
       <c r="L257">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="M257">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="N257">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="O257">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="P257">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="Q257">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R257">
+        <v>1.85</v>
+      </c>
+      <c r="S257">
+        <v>1.95</v>
+      </c>
+      <c r="T257">
+        <v>2.25</v>
+      </c>
+      <c r="U257">
+        <v>2.025</v>
+      </c>
+      <c r="V257">
         <v>1.775</v>
       </c>
-      <c r="S257">
-        <v>2.025</v>
-      </c>
-      <c r="T257">
-        <v>2</v>
-      </c>
-      <c r="U257">
-        <v>2</v>
-      </c>
-      <c r="V257">
-        <v>1.8</v>
-      </c>
       <c r="W257">
         <v>-1</v>
       </c>
       <c r="X257">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y257">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z257">
-        <v>0.3875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA257">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB257">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC257">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="258" spans="1:29">
@@ -23421,7 +23421,7 @@
         <v>32</v>
       </c>
       <c r="G258" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H258">
         <v>3</v>
@@ -23507,7 +23507,7 @@
         <v>45339.53125</v>
       </c>
       <c r="F259" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G259" t="s">
         <v>40</v>
@@ -23777,7 +23777,7 @@
         <v>38</v>
       </c>
       <c r="G262" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H262">
         <v>3</v>

--- a/South Africa Premier/South Africa Premier.xlsx
+++ b/South Africa Premier/South Africa Premier.xlsx
@@ -106,13 +106,13 @@
     <t>Cape Town City</t>
   </si>
   <si>
-    <t>Mamelodi Sundowns</t>
+    <t>Sekhukhune United FC</t>
   </si>
   <si>
     <t>Royal AM FC</t>
   </si>
   <si>
-    <t>Sekhukhune United FC</t>
+    <t>Mamelodi Sundowns</t>
   </si>
   <si>
     <t>Moroka Swallows</t>
@@ -121,10 +121,10 @@
     <t>Richards Bay FC</t>
   </si>
   <si>
-    <t>Golden Arrows</t>
+    <t>Marumo Gallants</t>
   </si>
   <si>
-    <t>Marumo Gallants</t>
+    <t>Golden Arrows</t>
   </si>
   <si>
     <t>Kaizer Chiefs</t>
@@ -151,10 +151,10 @@
     <t>Supersport United</t>
   </si>
   <si>
-    <t>Ajax Cape Town</t>
+    <t>Polokwane City</t>
   </si>
   <si>
-    <t>Polokwane City</t>
+    <t>Ajax Cape Town</t>
   </si>
   <si>
     <t>A</t>
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5350154</v>
+        <v>5350152</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -726,55 +726,55 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s">
         <v>48</v>
       </c>
       <c r="K3">
-        <v>1.333</v>
+        <v>2.3</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="M3">
-        <v>9</v>
+        <v>3.1</v>
       </c>
       <c r="N3">
-        <v>1.166</v>
+        <v>2.2</v>
       </c>
       <c r="O3">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="P3">
-        <v>15</v>
+        <v>3.5</v>
       </c>
       <c r="Q3">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R3">
+        <v>1.95</v>
+      </c>
+      <c r="S3">
         <v>1.85</v>
       </c>
-      <c r="S3">
+      <c r="T3">
+        <v>1.75</v>
+      </c>
+      <c r="U3">
         <v>1.95</v>
       </c>
-      <c r="T3">
-        <v>2.75</v>
-      </c>
-      <c r="U3">
-        <v>2</v>
-      </c>
       <c r="V3">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W3">
-        <v>0.1659999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -783,16 +783,16 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
       <c r="AA3">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC3">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -889,7 +889,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5350152</v>
+        <v>5350154</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -904,55 +904,55 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
         <v>48</v>
       </c>
       <c r="K5">
-        <v>2.3</v>
+        <v>1.333</v>
       </c>
       <c r="L5">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="M5">
-        <v>3.1</v>
+        <v>9</v>
       </c>
       <c r="N5">
-        <v>2.2</v>
+        <v>1.166</v>
       </c>
       <c r="O5">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="P5">
-        <v>3.5</v>
+        <v>15</v>
       </c>
       <c r="Q5">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R5">
+        <v>1.85</v>
+      </c>
+      <c r="S5">
         <v>1.95</v>
       </c>
-      <c r="S5">
-        <v>1.85</v>
-      </c>
       <c r="T5">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="U5">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V5">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W5">
-        <v>1.2</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -961,16 +961,16 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB5">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1082,7 +1082,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5350180</v>
+        <v>5350181</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1171,73 +1171,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K8">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="L8">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="M8">
-        <v>2.4</v>
+        <v>2.875</v>
       </c>
       <c r="N8">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="O8">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="P8">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="Q8">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R8">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S8">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T8">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U8">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W8">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z8">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB8">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1245,7 +1245,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5350181</v>
+        <v>5350180</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1260,73 +1260,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K9">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="L9">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="M9">
-        <v>2.875</v>
+        <v>2.4</v>
       </c>
       <c r="N9">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="O9">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="P9">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q9">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R9">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S9">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T9">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U9">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V9">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA9">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC9">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1438,7 +1438,7 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1702,7 +1702,7 @@
         <v>44936.60416666666</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
         <v>42</v>
@@ -1794,7 +1794,7 @@
         <v>39</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1957,7 +1957,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5350186</v>
+        <v>5349190</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1969,40 +1969,40 @@
         <v>44940.4375</v>
       </c>
       <c r="F17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" t="s">
         <v>36</v>
       </c>
-      <c r="G17" t="s">
-        <v>34</v>
-      </c>
       <c r="H17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K17">
-        <v>2.625</v>
+        <v>1.727</v>
       </c>
       <c r="L17">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M17">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="N17">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="O17">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="P17">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q17">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R17">
         <v>1.925</v>
@@ -2011,34 +2011,34 @@
         <v>1.875</v>
       </c>
       <c r="T17">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U17">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V17">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA17">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>0.45</v>
+        <v>1.025</v>
       </c>
       <c r="AC17">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2046,7 +2046,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5349190</v>
+        <v>5350186</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2058,40 +2058,40 @@
         <v>44940.4375</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K18">
-        <v>1.727</v>
+        <v>2.625</v>
       </c>
       <c r="L18">
+        <v>3.2</v>
+      </c>
+      <c r="M18">
+        <v>2.5</v>
+      </c>
+      <c r="N18">
+        <v>2.2</v>
+      </c>
+      <c r="O18">
+        <v>2.875</v>
+      </c>
+      <c r="P18">
         <v>3.25</v>
       </c>
-      <c r="M18">
-        <v>5</v>
-      </c>
-      <c r="N18">
-        <v>1.85</v>
-      </c>
-      <c r="O18">
-        <v>3.3</v>
-      </c>
-      <c r="P18">
-        <v>3.8</v>
-      </c>
       <c r="Q18">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R18">
         <v>1.925</v>
@@ -2100,34 +2100,34 @@
         <v>1.875</v>
       </c>
       <c r="T18">
+        <v>1.75</v>
+      </c>
+      <c r="U18">
+        <v>1.9</v>
+      </c>
+      <c r="V18">
+        <v>1.9</v>
+      </c>
+      <c r="W18">
+        <v>-1</v>
+      </c>
+      <c r="X18">
+        <v>-1</v>
+      </c>
+      <c r="Y18">
         <v>2.25</v>
       </c>
-      <c r="U18">
-        <v>2.025</v>
-      </c>
-      <c r="V18">
-        <v>1.775</v>
-      </c>
-      <c r="W18">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X18">
-        <v>-1</v>
-      </c>
-      <c r="Y18">
-        <v>-1</v>
-      </c>
       <c r="Z18">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB18">
-        <v>1.025</v>
+        <v>0.45</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2239,7 +2239,7 @@
         <v>39</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2503,7 +2503,7 @@
         <v>44942.54166666666</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G23" t="s">
         <v>44</v>
@@ -2580,7 +2580,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5350192</v>
+        <v>5350195</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2592,10 +2592,10 @@
         <v>44946.60416666666</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2607,43 +2607,43 @@
         <v>48</v>
       </c>
       <c r="K24">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="L24">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="M24">
         <v>3.8</v>
       </c>
       <c r="N24">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O24">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="P24">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q24">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R24">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S24">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T24">
         <v>1.75</v>
       </c>
       <c r="U24">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V24">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W24">
-        <v>1.1</v>
+        <v>0.909</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -2652,7 +2652,7 @@
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA24">
         <v>-1</v>
@@ -2661,7 +2661,7 @@
         <v>-1</v>
       </c>
       <c r="AC24">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2669,7 +2669,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5350195</v>
+        <v>5350192</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2681,10 +2681,10 @@
         <v>44946.60416666666</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2696,43 +2696,43 @@
         <v>48</v>
       </c>
       <c r="K25">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="L25">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="M25">
         <v>3.8</v>
       </c>
       <c r="N25">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O25">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="P25">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q25">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R25">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S25">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T25">
         <v>1.75</v>
       </c>
       <c r="U25">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V25">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W25">
-        <v>0.909</v>
+        <v>1.1</v>
       </c>
       <c r="X25">
         <v>-1</v>
@@ -2741,7 +2741,7 @@
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA25">
         <v>-1</v>
@@ -2750,7 +2750,7 @@
         <v>-1</v>
       </c>
       <c r="AC25">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2758,7 +2758,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5350194</v>
+        <v>5350193</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2770,76 +2770,76 @@
         <v>44947.4375</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K26">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L26">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M26">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N26">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="O26">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P26">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Q26">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R26">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S26">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T26">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U26">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="V26">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="W26">
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z26">
         <v>-1</v>
       </c>
       <c r="AA26">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2847,7 +2847,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5350193</v>
+        <v>5350194</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2859,76 +2859,76 @@
         <v>44947.4375</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K27">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L27">
+        <v>3.2</v>
+      </c>
+      <c r="M27">
         <v>3</v>
       </c>
-      <c r="M27">
+      <c r="N27">
+        <v>1.833</v>
+      </c>
+      <c r="O27">
         <v>3.1</v>
       </c>
-      <c r="N27">
+      <c r="P27">
+        <v>4</v>
+      </c>
+      <c r="Q27">
+        <v>-0.5</v>
+      </c>
+      <c r="R27">
+        <v>1.875</v>
+      </c>
+      <c r="S27">
+        <v>1.925</v>
+      </c>
+      <c r="T27">
+        <v>2</v>
+      </c>
+      <c r="U27">
+        <v>2.025</v>
+      </c>
+      <c r="V27">
+        <v>1.775</v>
+      </c>
+      <c r="W27">
+        <v>-1</v>
+      </c>
+      <c r="X27">
         <v>2.1</v>
       </c>
-      <c r="O27">
-        <v>2.9</v>
-      </c>
-      <c r="P27">
-        <v>3.4</v>
-      </c>
-      <c r="Q27">
-        <v>-0.25</v>
-      </c>
-      <c r="R27">
-        <v>1.825</v>
-      </c>
-      <c r="S27">
-        <v>1.975</v>
-      </c>
-      <c r="T27">
-        <v>1.75</v>
-      </c>
-      <c r="U27">
-        <v>1.75</v>
-      </c>
-      <c r="V27">
-        <v>2.05</v>
-      </c>
-      <c r="W27">
-        <v>-1</v>
-      </c>
-      <c r="X27">
-        <v>-1</v>
-      </c>
       <c r="Y27">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
         <v>-1</v>
       </c>
       <c r="AA27">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC27">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2936,7 +2936,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5350196</v>
+        <v>5350197</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2948,76 +2948,76 @@
         <v>44947.625</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="L28">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M28">
-        <v>3.6</v>
+        <v>1.75</v>
       </c>
       <c r="N28">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="O28">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="P28">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="Q28">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R28">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S28">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T28">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="U28">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V28">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z28">
         <v>-0.5</v>
       </c>
       <c r="AA28">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="AB28">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3025,7 +3025,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5350197</v>
+        <v>5350196</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3037,76 +3037,76 @@
         <v>44947.625</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G29" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K29">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="L29">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M29">
+        <v>3.6</v>
+      </c>
+      <c r="N29">
+        <v>2.375</v>
+      </c>
+      <c r="O29">
+        <v>2.8</v>
+      </c>
+      <c r="P29">
+        <v>3.1</v>
+      </c>
+      <c r="Q29">
+        <v>-0.25</v>
+      </c>
+      <c r="R29">
+        <v>2.05</v>
+      </c>
+      <c r="S29">
         <v>1.75</v>
       </c>
-      <c r="N29">
-        <v>4.75</v>
-      </c>
-      <c r="O29">
-        <v>3.2</v>
-      </c>
-      <c r="P29">
-        <v>1.7</v>
-      </c>
-      <c r="Q29">
-        <v>0.75</v>
-      </c>
-      <c r="R29">
+      <c r="T29">
+        <v>1.5</v>
+      </c>
+      <c r="U29">
+        <v>1.775</v>
+      </c>
+      <c r="V29">
+        <v>2.025</v>
+      </c>
+      <c r="W29">
+        <v>-1</v>
+      </c>
+      <c r="X29">
         <v>1.8</v>
       </c>
-      <c r="S29">
-        <v>2</v>
-      </c>
-      <c r="T29">
-        <v>2</v>
-      </c>
-      <c r="U29">
-        <v>1.85</v>
-      </c>
-      <c r="V29">
-        <v>1.95</v>
-      </c>
-      <c r="W29">
-        <v>-1</v>
-      </c>
-      <c r="X29">
-        <v>-1</v>
-      </c>
       <c r="Y29">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
         <v>-0.5</v>
       </c>
       <c r="AA29">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC29">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3307,7 +3307,7 @@
         <v>38</v>
       </c>
       <c r="G32" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3393,10 +3393,10 @@
         <v>44951.60416666666</v>
       </c>
       <c r="F33" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" t="s">
         <v>35</v>
-      </c>
-      <c r="G33" t="s">
-        <v>36</v>
       </c>
       <c r="H33">
         <v>3</v>
@@ -3571,10 +3571,10 @@
         <v>44954.4375</v>
       </c>
       <c r="F35" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" t="s">
         <v>30</v>
-      </c>
-      <c r="G35" t="s">
-        <v>32</v>
       </c>
       <c r="H35">
         <v>2</v>
@@ -3749,7 +3749,7 @@
         <v>44954.625</v>
       </c>
       <c r="F37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G37" t="s">
         <v>41</v>
@@ -4004,7 +4004,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5350213</v>
+        <v>5350212</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4016,13 +4016,13 @@
         <v>44955.52083333334</v>
       </c>
       <c r="F40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G40" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -4031,43 +4031,43 @@
         <v>48</v>
       </c>
       <c r="K40">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="L40">
+        <v>2.8</v>
+      </c>
+      <c r="M40">
+        <v>4.75</v>
+      </c>
+      <c r="N40">
+        <v>1.833</v>
+      </c>
+      <c r="O40">
         <v>2.9</v>
       </c>
-      <c r="M40">
-        <v>3.2</v>
-      </c>
-      <c r="N40">
-        <v>2.5</v>
-      </c>
-      <c r="O40">
-        <v>2.7</v>
-      </c>
       <c r="P40">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R40">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="S40">
-        <v>2.075</v>
+        <v>1.85</v>
       </c>
       <c r="T40">
         <v>2</v>
       </c>
       <c r="U40">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V40">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W40">
-        <v>1.5</v>
+        <v>0.833</v>
       </c>
       <c r="X40">
         <v>-1</v>
@@ -4076,16 +4076,16 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.7250000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA40">
         <v>-1</v>
       </c>
       <c r="AB40">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4093,7 +4093,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5350212</v>
+        <v>5350213</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4105,13 +4105,13 @@
         <v>44955.52083333334</v>
       </c>
       <c r="F41" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G41" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -4120,43 +4120,43 @@
         <v>48</v>
       </c>
       <c r="K41">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="L41">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="M41">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="N41">
-        <v>1.833</v>
+        <v>2.5</v>
       </c>
       <c r="O41">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="P41">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="Q41">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R41">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="S41">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="T41">
         <v>2</v>
       </c>
       <c r="U41">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V41">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W41">
-        <v>0.833</v>
+        <v>1.5</v>
       </c>
       <c r="X41">
         <v>-1</v>
@@ -4165,16 +4165,16 @@
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.95</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA41">
         <v>-1</v>
       </c>
       <c r="AB41">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC41">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4372,7 +4372,7 @@
         <v>44961.4375</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G44" t="s">
         <v>31</v>
@@ -4449,7 +4449,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5349193</v>
+        <v>5350215</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4461,55 +4461,55 @@
         <v>44961.4375</v>
       </c>
       <c r="F45" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G45" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J45" t="s">
         <v>47</v>
       </c>
       <c r="K45">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="L45">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="M45">
-        <v>1.615</v>
+        <v>3</v>
       </c>
       <c r="N45">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="O45">
         <v>3</v>
       </c>
       <c r="P45">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q45">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R45">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S45">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T45">
         <v>2</v>
       </c>
       <c r="U45">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V45">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W45">
         <v>-1</v>
@@ -4518,19 +4518,19 @@
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="Z45">
         <v>-1</v>
       </c>
       <c r="AA45">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC45">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4538,7 +4538,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>5350215</v>
+        <v>5349193</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4550,55 +4550,55 @@
         <v>44961.4375</v>
       </c>
       <c r="F46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G46" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
         <v>1</v>
-      </c>
-      <c r="I46">
-        <v>2</v>
       </c>
       <c r="J46" t="s">
         <v>47</v>
       </c>
       <c r="K46">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="L46">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M46">
-        <v>3</v>
+        <v>1.615</v>
       </c>
       <c r="N46">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="O46">
         <v>3</v>
       </c>
       <c r="P46">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R46">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S46">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T46">
         <v>2</v>
       </c>
       <c r="U46">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V46">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W46">
         <v>-1</v>
@@ -4607,19 +4607,19 @@
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="Z46">
         <v>-1</v>
       </c>
       <c r="AA46">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB46">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC46">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4728,10 +4728,10 @@
         <v>44961.625</v>
       </c>
       <c r="F48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G48" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -5084,7 +5084,7 @@
         <v>44975.52083333334</v>
       </c>
       <c r="F52" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G52" t="s">
         <v>34</v>
@@ -5265,7 +5265,7 @@
         <v>37</v>
       </c>
       <c r="G54" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H54">
         <v>2</v>
@@ -5618,7 +5618,7 @@
         <v>44982.52083333334</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G58" t="s">
         <v>29</v>
@@ -6155,7 +6155,7 @@
         <v>31</v>
       </c>
       <c r="G64" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -6318,7 +6318,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6335027</v>
+        <v>6335029</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6330,76 +6330,76 @@
         <v>44990.4375</v>
       </c>
       <c r="F66" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G66" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="s">
         <v>49</v>
       </c>
       <c r="K66">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="L66">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="M66">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="N66">
+        <v>4.5</v>
+      </c>
+      <c r="O66">
+        <v>3.6</v>
+      </c>
+      <c r="P66">
+        <v>1.666</v>
+      </c>
+      <c r="Q66">
+        <v>0.75</v>
+      </c>
+      <c r="R66">
+        <v>1.9</v>
+      </c>
+      <c r="S66">
+        <v>1.9</v>
+      </c>
+      <c r="T66">
         <v>2.25</v>
       </c>
-      <c r="O66">
-        <v>2.9</v>
-      </c>
-      <c r="P66">
-        <v>3.25</v>
-      </c>
-      <c r="Q66">
-        <v>-0.25</v>
-      </c>
-      <c r="R66">
-        <v>1.95</v>
-      </c>
-      <c r="S66">
-        <v>1.85</v>
-      </c>
-      <c r="T66">
-        <v>2</v>
-      </c>
       <c r="U66">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V66">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W66">
         <v>-1</v>
       </c>
       <c r="X66">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="Y66">
         <v>-1</v>
       </c>
       <c r="Z66">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA66">
+        <v>-1</v>
+      </c>
+      <c r="AB66">
         <v>-0.5</v>
       </c>
-      <c r="AA66">
-        <v>0.425</v>
-      </c>
-      <c r="AB66">
-        <v>-1</v>
-      </c>
       <c r="AC66">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6407,7 +6407,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>5350240</v>
+        <v>6335027</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6419,46 +6419,46 @@
         <v>44990.4375</v>
       </c>
       <c r="F67" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G67" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H67">
         <v>0</v>
       </c>
       <c r="I67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K67">
-        <v>2.625</v>
+        <v>2.4</v>
       </c>
       <c r="L67">
+        <v>2.8</v>
+      </c>
+      <c r="M67">
+        <v>3.1</v>
+      </c>
+      <c r="N67">
+        <v>2.25</v>
+      </c>
+      <c r="O67">
         <v>2.9</v>
       </c>
-      <c r="M67">
-        <v>2.7</v>
-      </c>
-      <c r="N67">
-        <v>3</v>
-      </c>
-      <c r="O67">
-        <v>3</v>
-      </c>
       <c r="P67">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q67">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R67">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="S67">
-        <v>2.075</v>
+        <v>1.85</v>
       </c>
       <c r="T67">
         <v>2</v>
@@ -6473,22 +6473,22 @@
         <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y67">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA67">
-        <v>1.075</v>
+        <v>0.425</v>
       </c>
       <c r="AB67">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC67">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6496,7 +6496,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6335029</v>
+        <v>5350240</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6508,76 +6508,76 @@
         <v>44990.4375</v>
       </c>
       <c r="F68" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G68" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K68">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="L68">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="M68">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="N68">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="O68">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P68">
-        <v>1.666</v>
+        <v>2.3</v>
       </c>
       <c r="Q68">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R68">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="S68">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="T68">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U68">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V68">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W68">
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z68">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AB68">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC68">
-        <v>0.4875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6600,7 +6600,7 @@
         <v>44</v>
       </c>
       <c r="G69" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H69">
         <v>2</v>
@@ -6689,7 +6689,7 @@
         <v>29</v>
       </c>
       <c r="G70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -6775,7 +6775,7 @@
         <v>44999.60416666666</v>
       </c>
       <c r="F71" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G71" t="s">
         <v>31</v>
@@ -6852,7 +6852,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5350242</v>
+        <v>5350244</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6864,76 +6864,76 @@
         <v>45002.60416666666</v>
       </c>
       <c r="F72" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G72" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K72">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L72">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="M72">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="N72">
-        <v>2.55</v>
+        <v>2.375</v>
       </c>
       <c r="O72">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="P72">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q72">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R72">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S72">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T72">
         <v>2</v>
       </c>
       <c r="U72">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V72">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W72">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA72">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC72">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6941,7 +6941,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>5350244</v>
+        <v>5350242</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6953,76 +6953,76 @@
         <v>45002.60416666666</v>
       </c>
       <c r="F73" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G73" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K73">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L73">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="M73">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="N73">
-        <v>2.375</v>
+        <v>2.55</v>
       </c>
       <c r="O73">
+        <v>2.625</v>
+      </c>
+      <c r="P73">
         <v>2.8</v>
       </c>
-      <c r="P73">
-        <v>3.1</v>
-      </c>
       <c r="Q73">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R73">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S73">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T73">
         <v>2</v>
       </c>
       <c r="U73">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V73">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W73">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z73">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB73">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7042,7 +7042,7 @@
         <v>45003.4375</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G74" t="s">
         <v>42</v>
@@ -7754,10 +7754,10 @@
         <v>45018.41666666666</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G82" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -7932,7 +7932,7 @@
         <v>45020.60416666666</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G84" t="s">
         <v>29</v>
@@ -8021,7 +8021,7 @@
         <v>45021.60416666666</v>
       </c>
       <c r="F85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G85" t="s">
         <v>31</v>
@@ -8202,7 +8202,7 @@
         <v>34</v>
       </c>
       <c r="G87" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -8377,7 +8377,7 @@
         <v>45024.52083333334</v>
       </c>
       <c r="F89" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G89" t="s">
         <v>43</v>
@@ -8469,7 +8469,7 @@
         <v>37</v>
       </c>
       <c r="G90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8543,7 +8543,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5350260</v>
+        <v>5350261</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8555,76 +8555,76 @@
         <v>45025.41666666666</v>
       </c>
       <c r="F91" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G91" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H91">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K91">
-        <v>2.55</v>
+        <v>6.5</v>
       </c>
       <c r="L91">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="M91">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="N91">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="O91">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="P91">
-        <v>2.8</v>
+        <v>1.666</v>
       </c>
       <c r="Q91">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R91">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S91">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T91">
         <v>2.25</v>
       </c>
       <c r="U91">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V91">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W91">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X91">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y91">
         <v>-1</v>
       </c>
       <c r="Z91">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA91">
+        <v>-1</v>
+      </c>
+      <c r="AB91">
+        <v>-1</v>
+      </c>
+      <c r="AC91">
         <v>0.8</v>
-      </c>
-      <c r="AA91">
-        <v>-1</v>
-      </c>
-      <c r="AB91">
-        <v>1.05</v>
-      </c>
-      <c r="AC91">
-        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8632,7 +8632,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>5350261</v>
+        <v>5350260</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8644,76 +8644,76 @@
         <v>45025.41666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G92" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K92">
-        <v>6.5</v>
+        <v>2.55</v>
       </c>
       <c r="L92">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="M92">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="N92">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="O92">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="P92">
-        <v>1.666</v>
+        <v>2.8</v>
       </c>
       <c r="Q92">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R92">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S92">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T92">
         <v>2.25</v>
       </c>
       <c r="U92">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V92">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W92">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X92">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA92">
         <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC92">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8810,7 +8810,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>5350267</v>
+        <v>5350264</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8825,46 +8825,46 @@
         <v>36</v>
       </c>
       <c r="G94" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I94">
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K94">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="L94">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M94">
-        <v>2.45</v>
+        <v>1.6</v>
       </c>
       <c r="N94">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="O94">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P94">
-        <v>3.25</v>
+        <v>1.833</v>
       </c>
       <c r="Q94">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R94">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S94">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T94">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U94">
         <v>1.8</v>
@@ -8873,25 +8873,25 @@
         <v>2</v>
       </c>
       <c r="W94">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X94">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA94">
         <v>-1</v>
       </c>
       <c r="AB94">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8899,7 +8899,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>5350264</v>
+        <v>5350267</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8914,46 +8914,46 @@
         <v>35</v>
       </c>
       <c r="G95" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I95">
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K95">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="L95">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M95">
-        <v>1.6</v>
+        <v>2.45</v>
       </c>
       <c r="N95">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="O95">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P95">
-        <v>1.833</v>
+        <v>3.25</v>
       </c>
       <c r="Q95">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R95">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S95">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T95">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U95">
         <v>1.8</v>
@@ -8962,25 +8962,25 @@
         <v>2</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X95">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA95">
         <v>-1</v>
       </c>
       <c r="AB95">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC95">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9000,7 +9000,7 @@
         <v>45034.60416666666</v>
       </c>
       <c r="F96" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G96" t="s">
         <v>44</v>
@@ -9166,7 +9166,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>5350266</v>
+        <v>5349200</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9178,76 +9178,76 @@
         <v>45038.41666666666</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G98" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98">
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K98">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="L98">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="M98">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N98">
+        <v>1.833</v>
+      </c>
+      <c r="O98">
+        <v>3.3</v>
+      </c>
+      <c r="P98">
+        <v>3.8</v>
+      </c>
+      <c r="Q98">
+        <v>-0.5</v>
+      </c>
+      <c r="R98">
+        <v>1.9</v>
+      </c>
+      <c r="S98">
+        <v>1.9</v>
+      </c>
+      <c r="T98">
         <v>2.25</v>
       </c>
-      <c r="O98">
-        <v>2.8</v>
-      </c>
-      <c r="P98">
-        <v>3.2</v>
-      </c>
-      <c r="Q98">
-        <v>-0.25</v>
-      </c>
-      <c r="R98">
-        <v>1.95</v>
-      </c>
-      <c r="S98">
-        <v>1.85</v>
-      </c>
-      <c r="T98">
-        <v>2</v>
-      </c>
       <c r="U98">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V98">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X98">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA98">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC98">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9255,7 +9255,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>5349200</v>
+        <v>5350266</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9267,76 +9267,76 @@
         <v>45038.41666666666</v>
       </c>
       <c r="F99" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99">
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K99">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="L99">
+        <v>2.75</v>
+      </c>
+      <c r="M99">
         <v>3.2</v>
       </c>
-      <c r="M99">
-        <v>4</v>
-      </c>
       <c r="N99">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="O99">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="P99">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q99">
+        <v>-0.25</v>
+      </c>
+      <c r="R99">
+        <v>1.95</v>
+      </c>
+      <c r="S99">
+        <v>1.85</v>
+      </c>
+      <c r="T99">
+        <v>2</v>
+      </c>
+      <c r="U99">
+        <v>1.775</v>
+      </c>
+      <c r="V99">
+        <v>2.025</v>
+      </c>
+      <c r="W99">
+        <v>-1</v>
+      </c>
+      <c r="X99">
+        <v>1.8</v>
+      </c>
+      <c r="Y99">
+        <v>-1</v>
+      </c>
+      <c r="Z99">
         <v>-0.5</v>
       </c>
-      <c r="R99">
-        <v>1.9</v>
-      </c>
-      <c r="S99">
-        <v>1.9</v>
-      </c>
-      <c r="T99">
-        <v>2.25</v>
-      </c>
-      <c r="U99">
-        <v>1.975</v>
-      </c>
-      <c r="V99">
-        <v>1.825</v>
-      </c>
-      <c r="W99">
-        <v>0.833</v>
-      </c>
-      <c r="X99">
-        <v>-1</v>
-      </c>
-      <c r="Y99">
-        <v>-1</v>
-      </c>
-      <c r="Z99">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB99">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC99">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9445,7 +9445,7 @@
         <v>45039.41666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G101" t="s">
         <v>37</v>
@@ -9623,7 +9623,7 @@
         <v>45041.41666666666</v>
       </c>
       <c r="F103" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
         <v>34</v>
@@ -9982,7 +9982,7 @@
         <v>39</v>
       </c>
       <c r="G107" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H107">
         <v>5</v>
@@ -10071,7 +10071,7 @@
         <v>40</v>
       </c>
       <c r="G108" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H108">
         <v>2</v>
@@ -10513,7 +10513,7 @@
         <v>45049.51041666666</v>
       </c>
       <c r="F113" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G113" t="s">
         <v>38</v>
@@ -10590,7 +10590,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>5350279</v>
+        <v>5350283</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10602,76 +10602,76 @@
         <v>45049.60416666666</v>
       </c>
       <c r="F114" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G114" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J114" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K114">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="L114">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M114">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N114">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="O114">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P114">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="Q114">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R114">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S114">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T114">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U114">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V114">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W114">
         <v>-1</v>
       </c>
       <c r="X114">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y114">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z114">
         <v>-1</v>
       </c>
       <c r="AA114">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC114">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10679,7 +10679,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6588907</v>
+        <v>5350279</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10691,76 +10691,76 @@
         <v>45049.60416666666</v>
       </c>
       <c r="F115" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G115" t="s">
         <v>36</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J115" t="s">
         <v>49</v>
       </c>
       <c r="K115">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="L115">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="M115">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="N115">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="O115">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="P115">
-        <v>2.55</v>
+        <v>4.333</v>
       </c>
       <c r="Q115">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R115">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S115">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T115">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U115">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V115">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W115">
         <v>-1</v>
       </c>
       <c r="X115">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB115">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10768,7 +10768,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>5350283</v>
+        <v>6588907</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10780,73 +10780,73 @@
         <v>45049.60416666666</v>
       </c>
       <c r="F116" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G116" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H116">
         <v>2</v>
       </c>
       <c r="I116">
+        <v>2</v>
+      </c>
+      <c r="J116" t="s">
+        <v>49</v>
+      </c>
+      <c r="K116">
+        <v>2.625</v>
+      </c>
+      <c r="L116">
+        <v>2.75</v>
+      </c>
+      <c r="M116">
+        <v>2.9</v>
+      </c>
+      <c r="N116">
         <v>3</v>
       </c>
-      <c r="J116" t="s">
-        <v>47</v>
-      </c>
-      <c r="K116">
-        <v>2.15</v>
-      </c>
-      <c r="L116">
-        <v>3</v>
-      </c>
-      <c r="M116">
-        <v>3.6</v>
-      </c>
-      <c r="N116">
-        <v>2.1</v>
-      </c>
       <c r="O116">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P116">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="Q116">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R116">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S116">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T116">
         <v>2</v>
       </c>
       <c r="U116">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V116">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y116">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA116">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB116">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC116">
         <v>-1</v>
@@ -10872,7 +10872,7 @@
         <v>40</v>
       </c>
       <c r="G117" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H117">
         <v>2</v>
@@ -10958,10 +10958,10 @@
         <v>45052.58333333334</v>
       </c>
       <c r="F118" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G118" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -11035,7 +11035,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>5350290</v>
+        <v>5349203</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11047,76 +11047,76 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F119" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G119" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H119">
         <v>1</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K119">
+        <v>1.55</v>
+      </c>
+      <c r="L119">
+        <v>3.3</v>
+      </c>
+      <c r="M119">
+        <v>6</v>
+      </c>
+      <c r="N119">
+        <v>1.4</v>
+      </c>
+      <c r="O119">
+        <v>3.8</v>
+      </c>
+      <c r="P119">
+        <v>7.5</v>
+      </c>
+      <c r="Q119">
+        <v>-1.25</v>
+      </c>
+      <c r="R119">
+        <v>1.975</v>
+      </c>
+      <c r="S119">
+        <v>1.825</v>
+      </c>
+      <c r="T119">
+        <v>2</v>
+      </c>
+      <c r="U119">
+        <v>1.75</v>
+      </c>
+      <c r="V119">
         <v>2.05</v>
       </c>
-      <c r="L119">
-        <v>3</v>
-      </c>
-      <c r="M119">
-        <v>3.5</v>
-      </c>
-      <c r="N119">
-        <v>2.4</v>
-      </c>
-      <c r="O119">
-        <v>2.875</v>
-      </c>
-      <c r="P119">
-        <v>2.9</v>
-      </c>
-      <c r="Q119">
-        <v>0</v>
-      </c>
-      <c r="R119">
-        <v>1.75</v>
-      </c>
-      <c r="S119">
-        <v>2.05</v>
-      </c>
-      <c r="T119">
-        <v>2</v>
-      </c>
-      <c r="U119">
-        <v>1.85</v>
-      </c>
-      <c r="V119">
-        <v>1.95</v>
-      </c>
       <c r="W119">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC119">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11124,7 +11124,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>5350286</v>
+        <v>5350284</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11136,13 +11136,13 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F120" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G120" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120">
         <v>0</v>
@@ -11151,43 +11151,43 @@
         <v>48</v>
       </c>
       <c r="K120">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="L120">
+        <v>2.9</v>
+      </c>
+      <c r="M120">
         <v>3.2</v>
       </c>
-      <c r="M120">
-        <v>4.5</v>
-      </c>
       <c r="N120">
+        <v>2.625</v>
+      </c>
+      <c r="O120">
+        <v>2.75</v>
+      </c>
+      <c r="P120">
+        <v>2.8</v>
+      </c>
+      <c r="Q120">
+        <v>0</v>
+      </c>
+      <c r="R120">
+        <v>1.775</v>
+      </c>
+      <c r="S120">
+        <v>2.025</v>
+      </c>
+      <c r="T120">
+        <v>2</v>
+      </c>
+      <c r="U120">
         <v>1.85</v>
       </c>
-      <c r="O120">
-        <v>3.2</v>
-      </c>
-      <c r="P120">
-        <v>4</v>
-      </c>
-      <c r="Q120">
-        <v>-0.5</v>
-      </c>
-      <c r="R120">
-        <v>1.9</v>
-      </c>
-      <c r="S120">
-        <v>1.9</v>
-      </c>
-      <c r="T120">
-        <v>2.25</v>
-      </c>
-      <c r="U120">
+      <c r="V120">
         <v>1.95</v>
       </c>
-      <c r="V120">
-        <v>1.85</v>
-      </c>
       <c r="W120">
-        <v>0.8500000000000001</v>
+        <v>1.625</v>
       </c>
       <c r="X120">
         <v>-1</v>
@@ -11196,16 +11196,16 @@
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA120">
         <v>-1</v>
       </c>
       <c r="AB120">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11213,7 +11213,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>5349203</v>
+        <v>5350286</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11225,76 +11225,76 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F121" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G121" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K121">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="L121">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M121">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="N121">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="O121">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P121">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="Q121">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R121">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S121">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T121">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U121">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V121">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W121">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X121">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA121">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC121">
-        <v>-0</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11302,7 +11302,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>5350288</v>
+        <v>5350287</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11314,49 +11314,49 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F122" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G122" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K122">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="L122">
         <v>2.9</v>
       </c>
       <c r="M122">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="N122">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="O122">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="P122">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="Q122">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R122">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S122">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T122">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U122">
         <v>2</v>
@@ -11365,19 +11365,19 @@
         <v>1.8</v>
       </c>
       <c r="W122">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA122">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
         <v>-1</v>
@@ -11391,7 +11391,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>5350287</v>
+        <v>5350288</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11403,49 +11403,49 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F123" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G123" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
         <v>1</v>
       </c>
-      <c r="I123">
-        <v>0</v>
-      </c>
       <c r="J123" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K123">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="L123">
         <v>2.9</v>
       </c>
       <c r="M123">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="N123">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="O123">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="P123">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="Q123">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R123">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S123">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T123">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U123">
         <v>2</v>
@@ -11454,19 +11454,19 @@
         <v>1.8</v>
       </c>
       <c r="W123">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z123">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB123">
         <v>-1</v>
@@ -11480,7 +11480,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>5350284</v>
+        <v>5350289</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11492,13 +11492,13 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F124" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G124" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I124">
         <v>0</v>
@@ -11507,31 +11507,31 @@
         <v>48</v>
       </c>
       <c r="K124">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L124">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M124">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N124">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="O124">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="P124">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="Q124">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R124">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S124">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T124">
         <v>2</v>
@@ -11543,7 +11543,7 @@
         <v>1.95</v>
       </c>
       <c r="W124">
-        <v>1.625</v>
+        <v>0.909</v>
       </c>
       <c r="X124">
         <v>-1</v>
@@ -11552,16 +11552,16 @@
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA124">
         <v>-1</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC124">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11569,7 +11569,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>5350289</v>
+        <v>5350290</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11581,13 +11581,13 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F125" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G125" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H125">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I125">
         <v>0</v>
@@ -11596,31 +11596,31 @@
         <v>48</v>
       </c>
       <c r="K125">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="L125">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M125">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N125">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="O125">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P125">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="Q125">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R125">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S125">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T125">
         <v>2</v>
@@ -11632,7 +11632,7 @@
         <v>1.95</v>
       </c>
       <c r="W125">
-        <v>0.909</v>
+        <v>1.4</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11641,16 +11641,16 @@
         <v>-1</v>
       </c>
       <c r="Z125">
+        <v>0.75</v>
+      </c>
+      <c r="AA125">
+        <v>-1</v>
+      </c>
+      <c r="AB125">
+        <v>-1</v>
+      </c>
+      <c r="AC125">
         <v>0.95</v>
-      </c>
-      <c r="AA125">
-        <v>-1</v>
-      </c>
-      <c r="AB125">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC125">
-        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11670,7 +11670,7 @@
         <v>45062.60416666666</v>
       </c>
       <c r="F126" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G126" t="s">
         <v>43</v>
@@ -11836,7 +11836,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>5350299</v>
+        <v>5350300</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11848,46 +11848,46 @@
         <v>45066.41666666666</v>
       </c>
       <c r="F128" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G128" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K128">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L128">
         <v>3</v>
       </c>
       <c r="M128">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="N128">
-        <v>1.615</v>
+        <v>2.05</v>
       </c>
       <c r="O128">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P128">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q128">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R128">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S128">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T128">
         <v>2.25</v>
@@ -11899,25 +11899,25 @@
         <v>1.8</v>
       </c>
       <c r="W128">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X128">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA128">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB128">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC128">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11925,7 +11925,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>5350300</v>
+        <v>5350298</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11937,59 +11937,59 @@
         <v>45066.41666666666</v>
       </c>
       <c r="F129" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G129" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H129">
         <v>2</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="s">
         <v>48</v>
       </c>
       <c r="K129">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="L129">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M129">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="N129">
-        <v>2.05</v>
+        <v>3.25</v>
       </c>
       <c r="O129">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P129">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="Q129">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R129">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S129">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T129">
+        <v>2</v>
+      </c>
+      <c r="U129">
+        <v>1.975</v>
+      </c>
+      <c r="V129">
+        <v>1.825</v>
+      </c>
+      <c r="W129">
         <v>2.25</v>
       </c>
-      <c r="U129">
-        <v>2</v>
-      </c>
-      <c r="V129">
-        <v>1.8</v>
-      </c>
-      <c r="W129">
-        <v>1.05</v>
-      </c>
       <c r="X129">
         <v>-1</v>
       </c>
@@ -11997,16 +11997,16 @@
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA129">
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC129">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12014,7 +12014,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>5350298</v>
+        <v>5350297</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12026,13 +12026,13 @@
         <v>45066.41666666666</v>
       </c>
       <c r="F130" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130">
         <v>0</v>
@@ -12041,43 +12041,43 @@
         <v>48</v>
       </c>
       <c r="K130">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="L130">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M130">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="N130">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="O130">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P130">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="Q130">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R130">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S130">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T130">
         <v>2</v>
       </c>
       <c r="U130">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V130">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W130">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="X130">
         <v>-1</v>
@@ -12086,16 +12086,16 @@
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA130">
         <v>-1</v>
       </c>
       <c r="AB130">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC130">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12103,7 +12103,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>5350297</v>
+        <v>5350296</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12115,49 +12115,49 @@
         <v>45066.41666666666</v>
       </c>
       <c r="F131" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G131" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
         <v>1</v>
       </c>
-      <c r="I131">
-        <v>0</v>
-      </c>
       <c r="J131" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K131">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="L131">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M131">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="N131">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="O131">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P131">
-        <v>1.727</v>
+        <v>4.2</v>
       </c>
       <c r="Q131">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R131">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S131">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T131">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U131">
         <v>1.925</v>
@@ -12166,19 +12166,19 @@
         <v>1.875</v>
       </c>
       <c r="W131">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z131">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB131">
         <v>-1</v>
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>5350296</v>
+        <v>5350291</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,40 +12204,40 @@
         <v>45066.41666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G132" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H132">
         <v>0</v>
       </c>
       <c r="I132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K132">
+        <v>2.375</v>
+      </c>
+      <c r="L132">
+        <v>3</v>
+      </c>
+      <c r="M132">
+        <v>3</v>
+      </c>
+      <c r="N132">
         <v>1.95</v>
       </c>
-      <c r="L132">
+      <c r="O132">
         <v>3.2</v>
       </c>
-      <c r="M132">
-        <v>3.75</v>
-      </c>
-      <c r="N132">
-        <v>1.75</v>
-      </c>
-      <c r="O132">
-        <v>3.6</v>
-      </c>
       <c r="P132">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q132">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R132">
         <v>2</v>
@@ -12246,22 +12246,22 @@
         <v>1.8</v>
       </c>
       <c r="T132">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U132">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V132">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y132">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
         <v>-1</v>
@@ -12273,7 +12273,7 @@
         <v>-1</v>
       </c>
       <c r="AC132">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>5350291</v>
+        <v>5350299</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,10 +12293,10 @@
         <v>45066.41666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G133" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -12308,46 +12308,46 @@
         <v>49</v>
       </c>
       <c r="K133">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="L133">
         <v>3</v>
       </c>
       <c r="M133">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N133">
+        <v>1.615</v>
+      </c>
+      <c r="O133">
+        <v>3.25</v>
+      </c>
+      <c r="P133">
+        <v>5.5</v>
+      </c>
+      <c r="Q133">
+        <v>-0.75</v>
+      </c>
+      <c r="R133">
+        <v>1.85</v>
+      </c>
+      <c r="S133">
         <v>1.95</v>
-      </c>
-      <c r="O133">
-        <v>3.2</v>
-      </c>
-      <c r="P133">
-        <v>3.8</v>
-      </c>
-      <c r="Q133">
-        <v>-0.5</v>
-      </c>
-      <c r="R133">
-        <v>2</v>
-      </c>
-      <c r="S133">
-        <v>1.8</v>
       </c>
       <c r="T133">
         <v>2.25</v>
       </c>
       <c r="U133">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V133">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y133">
         <v>-1</v>
@@ -12356,13 +12356,13 @@
         <v>-1</v>
       </c>
       <c r="AA133">
+        <v>0.95</v>
+      </c>
+      <c r="AB133">
+        <v>-1</v>
+      </c>
+      <c r="AC133">
         <v>0.8</v>
-      </c>
-      <c r="AB133">
-        <v>-1</v>
-      </c>
-      <c r="AC133">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12382,10 +12382,10 @@
         <v>45142.60416666666</v>
       </c>
       <c r="F134" t="s">
+        <v>30</v>
+      </c>
+      <c r="G134" t="s">
         <v>32</v>
-      </c>
-      <c r="G134" t="s">
-        <v>30</v>
       </c>
       <c r="H134">
         <v>1</v>
@@ -12459,7 +12459,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6961780</v>
+        <v>6961777</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12471,73 +12471,73 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F135" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G135" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K135">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="L135">
+        <v>3</v>
+      </c>
+      <c r="M135">
+        <v>2.75</v>
+      </c>
+      <c r="N135">
+        <v>2.2</v>
+      </c>
+      <c r="O135">
+        <v>2.875</v>
+      </c>
+      <c r="P135">
         <v>3.2</v>
       </c>
-      <c r="M135">
-        <v>5.5</v>
-      </c>
-      <c r="N135">
-        <v>1.65</v>
-      </c>
-      <c r="O135">
-        <v>3.2</v>
-      </c>
-      <c r="P135">
-        <v>5.5</v>
-      </c>
       <c r="Q135">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R135">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S135">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T135">
         <v>1.75</v>
       </c>
       <c r="U135">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V135">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W135">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA135">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB135">
-        <v>0.3875</v>
+        <v>0.45</v>
       </c>
       <c r="AC135">
         <v>-0.5</v>
@@ -12548,7 +12548,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6961777</v>
+        <v>6961780</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12560,73 +12560,73 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F136" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G136" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K136">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="L136">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M136">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="N136">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="O136">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="P136">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q136">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R136">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S136">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T136">
         <v>1.75</v>
       </c>
       <c r="U136">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V136">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X136">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA136">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
-        <v>0.45</v>
+        <v>0.3875</v>
       </c>
       <c r="AC136">
         <v>-0.5</v>
@@ -12830,7 +12830,7 @@
         <v>38</v>
       </c>
       <c r="G139" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -13008,7 +13008,7 @@
         <v>29</v>
       </c>
       <c r="G141" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -13097,7 +13097,7 @@
         <v>34</v>
       </c>
       <c r="G142" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13272,7 +13272,7 @@
         <v>45147.41666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G144" t="s">
         <v>37</v>
@@ -13527,7 +13527,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7007761</v>
+        <v>7007760</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13539,76 +13539,76 @@
         <v>45147.60416666666</v>
       </c>
       <c r="F147" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G147" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H147">
         <v>0</v>
       </c>
       <c r="I147">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K147">
+        <v>2.4</v>
+      </c>
+      <c r="L147">
+        <v>2.9</v>
+      </c>
+      <c r="M147">
         <v>3</v>
       </c>
-      <c r="L147">
+      <c r="N147">
+        <v>2.4</v>
+      </c>
+      <c r="O147">
+        <v>2.8</v>
+      </c>
+      <c r="P147">
         <v>3</v>
       </c>
-      <c r="M147">
-        <v>2.3</v>
-      </c>
-      <c r="N147">
-        <v>2.7</v>
-      </c>
-      <c r="O147">
-        <v>2.625</v>
-      </c>
-      <c r="P147">
-        <v>2.75</v>
-      </c>
       <c r="Q147">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R147">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="S147">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="T147">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U147">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V147">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W147">
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y147">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA147">
-        <v>0.8999999999999999</v>
+        <v>0.3625</v>
       </c>
       <c r="AB147">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13616,7 +13616,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7007760</v>
+        <v>7007759</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13628,76 +13628,76 @@
         <v>45147.60416666666</v>
       </c>
       <c r="F148" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G148" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148">
         <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K148">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="L148">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M148">
+        <v>2.25</v>
+      </c>
+      <c r="N148">
+        <v>2.875</v>
+      </c>
+      <c r="O148">
         <v>3</v>
       </c>
-      <c r="N148">
-        <v>2.4</v>
-      </c>
-      <c r="O148">
-        <v>2.8</v>
-      </c>
       <c r="P148">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="Q148">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R148">
+        <v>1.725</v>
+      </c>
+      <c r="S148">
         <v>2.075</v>
       </c>
-      <c r="S148">
-        <v>1.725</v>
-      </c>
       <c r="T148">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U148">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V148">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W148">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X148">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-0.5</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA148">
-        <v>0.3625</v>
+        <v>-1</v>
       </c>
       <c r="AB148">
         <v>-1</v>
       </c>
       <c r="AC148">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7007759</v>
+        <v>7007761</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13720,73 +13720,73 @@
         <v>46</v>
       </c>
       <c r="G149" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J149" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K149">
         <v>3</v>
       </c>
       <c r="L149">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M149">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="N149">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="O149">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="P149">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="Q149">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R149">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S149">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="T149">
         <v>2</v>
       </c>
       <c r="U149">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V149">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W149">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X149">
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z149">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA149">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB149">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC149">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13806,10 +13806,10 @@
         <v>45153.5</v>
       </c>
       <c r="F150" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G150" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H150">
         <v>4</v>
@@ -13984,7 +13984,7 @@
         <v>45154.60416666666</v>
       </c>
       <c r="F152" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G152" t="s">
         <v>33</v>
@@ -14061,7 +14061,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7068224</v>
+        <v>7007762</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14073,76 +14073,76 @@
         <v>45156.60416666666</v>
       </c>
       <c r="F153" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G153" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H153">
         <v>1</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J153" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K153">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="L153">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M153">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="N153">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="O153">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P153">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="Q153">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R153">
+        <v>1.8</v>
+      </c>
+      <c r="S153">
+        <v>2</v>
+      </c>
+      <c r="T153">
+        <v>2</v>
+      </c>
+      <c r="U153">
         <v>1.95</v>
       </c>
-      <c r="S153">
+      <c r="V153">
         <v>1.85</v>
       </c>
-      <c r="T153">
-        <v>2</v>
-      </c>
-      <c r="U153">
-        <v>2</v>
-      </c>
-      <c r="V153">
-        <v>1.8</v>
-      </c>
       <c r="W153">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z153">
+        <v>-1</v>
+      </c>
+      <c r="AA153">
+        <v>1</v>
+      </c>
+      <c r="AB153">
         <v>0.95</v>
       </c>
-      <c r="AA153">
-        <v>-1</v>
-      </c>
-      <c r="AB153">
-        <v>-1</v>
-      </c>
       <c r="AC153">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14150,7 +14150,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7007762</v>
+        <v>7068224</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14162,76 +14162,76 @@
         <v>45156.60416666666</v>
       </c>
       <c r="F154" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G154" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H154">
         <v>1</v>
       </c>
       <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154" t="s">
+        <v>48</v>
+      </c>
+      <c r="K154">
+        <v>1.909</v>
+      </c>
+      <c r="L154">
         <v>3</v>
       </c>
-      <c r="J154" t="s">
-        <v>47</v>
-      </c>
-      <c r="K154">
-        <v>2.6</v>
-      </c>
-      <c r="L154">
-        <v>2.875</v>
-      </c>
       <c r="M154">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="N154">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="O154">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P154">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="Q154">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R154">
+        <v>1.95</v>
+      </c>
+      <c r="S154">
+        <v>1.85</v>
+      </c>
+      <c r="T154">
+        <v>2</v>
+      </c>
+      <c r="U154">
+        <v>2</v>
+      </c>
+      <c r="V154">
         <v>1.8</v>
       </c>
-      <c r="S154">
-        <v>2</v>
-      </c>
-      <c r="T154">
-        <v>2</v>
-      </c>
-      <c r="U154">
-        <v>1.95</v>
-      </c>
-      <c r="V154">
-        <v>1.85</v>
-      </c>
       <c r="W154">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X154">
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z154">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA154">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB154">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC154">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14251,10 +14251,10 @@
         <v>45157.41666666666</v>
       </c>
       <c r="F155" t="s">
+        <v>45</v>
+      </c>
+      <c r="G155" t="s">
         <v>46</v>
-      </c>
-      <c r="G155" t="s">
-        <v>45</v>
       </c>
       <c r="H155">
         <v>3</v>
@@ -14432,7 +14432,7 @@
         <v>42</v>
       </c>
       <c r="G157" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -14610,7 +14610,7 @@
         <v>34</v>
       </c>
       <c r="G159" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H159">
         <v>0</v>
@@ -14699,7 +14699,7 @@
         <v>29</v>
       </c>
       <c r="G160" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -14785,7 +14785,7 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F161" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G161" t="s">
         <v>42</v>
@@ -14874,10 +14874,10 @@
         <v>45164.41666666666</v>
       </c>
       <c r="F162" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G162" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H162">
         <v>3</v>
@@ -15233,7 +15233,7 @@
         <v>44</v>
       </c>
       <c r="G166" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H166">
         <v>0</v>
@@ -15408,10 +15408,10 @@
         <v>45168.5</v>
       </c>
       <c r="F168" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G168" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H168">
         <v>0</v>
@@ -15485,7 +15485,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>7078409</v>
+        <v>7078411</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15497,46 +15497,46 @@
         <v>45168.60416666666</v>
       </c>
       <c r="F169" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G169" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J169" t="s">
         <v>47</v>
       </c>
       <c r="K169">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="L169">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M169">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="N169">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="O169">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="P169">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q169">
         <v>-0.25</v>
       </c>
       <c r="R169">
-        <v>1.825</v>
+        <v>2.075</v>
       </c>
       <c r="S169">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="T169">
         <v>2</v>
@@ -15554,19 +15554,19 @@
         <v>-1</v>
       </c>
       <c r="Y169">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="Z169">
         <v>-1</v>
       </c>
       <c r="AA169">
-        <v>0.9750000000000001</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB169">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC169">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15574,7 +15574,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>7078410</v>
+        <v>7078409</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15586,49 +15586,49 @@
         <v>45168.60416666666</v>
       </c>
       <c r="F170" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G170" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I170">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J170" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K170">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="L170">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M170">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="N170">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="O170">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="P170">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q170">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R170">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S170">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T170">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U170">
         <v>2.025</v>
@@ -15640,22 +15640,22 @@
         <v>-1</v>
       </c>
       <c r="X170">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y170">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z170">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA170">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB170">
-        <v>0.5125</v>
+        <v>1.025</v>
       </c>
       <c r="AC170">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15663,7 +15663,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>7078411</v>
+        <v>7078410</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15675,49 +15675,49 @@
         <v>45168.60416666666</v>
       </c>
       <c r="F171" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G171" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J171" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K171">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="L171">
         <v>3.1</v>
       </c>
       <c r="M171">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="N171">
+        <v>3</v>
+      </c>
+      <c r="O171">
+        <v>2.875</v>
+      </c>
+      <c r="P171">
         <v>2.4</v>
       </c>
-      <c r="O171">
-        <v>2.75</v>
-      </c>
-      <c r="P171">
-        <v>3</v>
-      </c>
       <c r="Q171">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R171">
-        <v>2.075</v>
+        <v>2.05</v>
       </c>
       <c r="S171">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="T171">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U171">
         <v>2.025</v>
@@ -15729,22 +15729,22 @@
         <v>-1</v>
       </c>
       <c r="X171">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y171">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z171">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA171">
-        <v>0.7250000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB171">
-        <v>0</v>
+        <v>0.5125</v>
       </c>
       <c r="AC171">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15767,7 +15767,7 @@
         <v>33</v>
       </c>
       <c r="G172" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H172">
         <v>3</v>
@@ -16031,7 +16031,7 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F175" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G175" t="s">
         <v>39</v>
@@ -16298,10 +16298,10 @@
         <v>45188.60416666666</v>
       </c>
       <c r="F178" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G178" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H178">
         <v>1</v>
@@ -16375,7 +16375,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>7169682</v>
+        <v>7169683</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16387,13 +16387,13 @@
         <v>45188.60416666666</v>
       </c>
       <c r="F179" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G179" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179">
         <v>2</v>
@@ -16402,41 +16402,41 @@
         <v>47</v>
       </c>
       <c r="K179">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L179">
         <v>2.9</v>
       </c>
       <c r="M179">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="N179">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="O179">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="P179">
         <v>3</v>
       </c>
       <c r="Q179">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R179">
+        <v>2</v>
+      </c>
+      <c r="S179">
+        <v>1.8</v>
+      </c>
+      <c r="T179">
+        <v>2</v>
+      </c>
+      <c r="U179">
+        <v>2.025</v>
+      </c>
+      <c r="V179">
         <v>1.775</v>
       </c>
-      <c r="S179">
-        <v>2.025</v>
-      </c>
-      <c r="T179">
-        <v>1.75</v>
-      </c>
-      <c r="U179">
-        <v>1.925</v>
-      </c>
-      <c r="V179">
-        <v>1.875</v>
-      </c>
       <c r="W179">
         <v>-1</v>
       </c>
@@ -16450,13 +16450,13 @@
         <v>-1</v>
       </c>
       <c r="AA179">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB179">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC179">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16464,7 +16464,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7169683</v>
+        <v>7169682</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16476,13 +16476,13 @@
         <v>45188.60416666666</v>
       </c>
       <c r="F180" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G180" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I180">
         <v>2</v>
@@ -16491,40 +16491,40 @@
         <v>47</v>
       </c>
       <c r="K180">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="L180">
         <v>2.9</v>
       </c>
       <c r="M180">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="N180">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="O180">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="P180">
         <v>3</v>
       </c>
       <c r="Q180">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R180">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S180">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T180">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U180">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V180">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W180">
         <v>-1</v>
@@ -16539,13 +16539,13 @@
         <v>-1</v>
       </c>
       <c r="AA180">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB180">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC180">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16568,7 +16568,7 @@
         <v>31</v>
       </c>
       <c r="G181" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H181">
         <v>0</v>
@@ -16642,7 +16642,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7170833</v>
+        <v>7170834</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16654,76 +16654,76 @@
         <v>45189.60416666666</v>
       </c>
       <c r="F182" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G182" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H182">
         <v>0</v>
       </c>
       <c r="I182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K182">
+        <v>2.375</v>
+      </c>
+      <c r="L182">
         <v>2.75</v>
       </c>
-      <c r="L182">
-        <v>2.875</v>
-      </c>
       <c r="M182">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="N182">
-        <v>3.4</v>
+        <v>2.45</v>
       </c>
       <c r="O182">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="P182">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="Q182">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R182">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="S182">
-        <v>1.875</v>
+        <v>2.075</v>
       </c>
       <c r="T182">
         <v>2</v>
       </c>
       <c r="U182">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V182">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W182">
         <v>-1</v>
       </c>
       <c r="X182">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y182">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z182">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA182">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB182">
         <v>-1</v>
       </c>
       <c r="AC182">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16731,7 +16731,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7170834</v>
+        <v>7170833</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16743,76 +16743,76 @@
         <v>45189.60416666666</v>
       </c>
       <c r="F183" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G183" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H183">
         <v>0</v>
       </c>
       <c r="I183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K183">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="L183">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="M183">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N183">
-        <v>2.45</v>
+        <v>3.4</v>
       </c>
       <c r="O183">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="P183">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="Q183">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R183">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S183">
-        <v>2.075</v>
+        <v>1.875</v>
       </c>
       <c r="T183">
         <v>2</v>
       </c>
       <c r="U183">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V183">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W183">
         <v>-1</v>
       </c>
       <c r="X183">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y183">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z183">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA183">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB183">
         <v>-1</v>
       </c>
       <c r="AC183">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16921,7 +16921,7 @@
         <v>45194.41666666666</v>
       </c>
       <c r="F185" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G185" t="s">
         <v>40</v>
@@ -17087,7 +17087,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7234870</v>
+        <v>7234871</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17099,13 +17099,13 @@
         <v>45196.60416666666</v>
       </c>
       <c r="F187" t="s">
+        <v>37</v>
+      </c>
+      <c r="G187" t="s">
         <v>30</v>
       </c>
-      <c r="G187" t="s">
-        <v>39</v>
-      </c>
       <c r="H187">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I187">
         <v>1</v>
@@ -17114,43 +17114,43 @@
         <v>48</v>
       </c>
       <c r="K187">
-        <v>1.333</v>
+        <v>1.85</v>
       </c>
       <c r="L187">
+        <v>3.1</v>
+      </c>
+      <c r="M187">
         <v>4.333</v>
       </c>
-      <c r="M187">
-        <v>8.5</v>
-      </c>
       <c r="N187">
-        <v>1.363</v>
+        <v>2.05</v>
       </c>
       <c r="O187">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="P187">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="Q187">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R187">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S187">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T187">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U187">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V187">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="W187">
-        <v>0.363</v>
+        <v>1.05</v>
       </c>
       <c r="X187">
         <v>-1</v>
@@ -17159,13 +17159,13 @@
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA187">
         <v>-1</v>
       </c>
       <c r="AB187">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AC187">
         <v>-1</v>
@@ -17176,7 +17176,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7234871</v>
+        <v>7234870</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17188,13 +17188,13 @@
         <v>45196.60416666666</v>
       </c>
       <c r="F188" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G188" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I188">
         <v>1</v>
@@ -17203,43 +17203,43 @@
         <v>48</v>
       </c>
       <c r="K188">
+        <v>1.333</v>
+      </c>
+      <c r="L188">
+        <v>4.333</v>
+      </c>
+      <c r="M188">
+        <v>8.5</v>
+      </c>
+      <c r="N188">
+        <v>1.363</v>
+      </c>
+      <c r="O188">
+        <v>4.2</v>
+      </c>
+      <c r="P188">
+        <v>8.5</v>
+      </c>
+      <c r="Q188">
+        <v>-1.25</v>
+      </c>
+      <c r="R188">
         <v>1.85</v>
       </c>
-      <c r="L188">
-        <v>3.1</v>
-      </c>
-      <c r="M188">
-        <v>4.333</v>
-      </c>
-      <c r="N188">
-        <v>2.05</v>
-      </c>
-      <c r="O188">
-        <v>2.875</v>
-      </c>
-      <c r="P188">
-        <v>4</v>
-      </c>
-      <c r="Q188">
-        <v>-0.5</v>
-      </c>
-      <c r="R188">
-        <v>2</v>
-      </c>
       <c r="S188">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T188">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U188">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V188">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="W188">
-        <v>1.05</v>
+        <v>0.363</v>
       </c>
       <c r="X188">
         <v>-1</v>
@@ -17248,13 +17248,13 @@
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA188">
         <v>-1</v>
       </c>
       <c r="AB188">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AC188">
         <v>-1</v>
@@ -17369,7 +17369,7 @@
         <v>29</v>
       </c>
       <c r="G190" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H190">
         <v>3</v>
@@ -17455,7 +17455,7 @@
         <v>45199.52083333334</v>
       </c>
       <c r="F191" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G191" t="s">
         <v>31</v>
@@ -17903,7 +17903,7 @@
         <v>34</v>
       </c>
       <c r="G196" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H196">
         <v>0</v>
@@ -17989,7 +17989,7 @@
         <v>45203.60416666666</v>
       </c>
       <c r="F197" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G197" t="s">
         <v>44</v>
@@ -18078,10 +18078,10 @@
         <v>45204.60416666666</v>
       </c>
       <c r="F198" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G198" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H198">
         <v>0</v>
@@ -18167,10 +18167,10 @@
         <v>45207.4375</v>
       </c>
       <c r="F199" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G199" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H199">
         <v>0</v>
@@ -18437,7 +18437,7 @@
         <v>41</v>
       </c>
       <c r="G202" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H202">
         <v>1</v>
@@ -18523,7 +18523,7 @@
         <v>45227.4375</v>
       </c>
       <c r="F203" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G203" t="s">
         <v>37</v>
@@ -18790,7 +18790,7 @@
         <v>45231.60416666666</v>
       </c>
       <c r="F206" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G206" t="s">
         <v>41</v>
@@ -18867,7 +18867,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>7404431</v>
+        <v>7404430</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18879,10 +18879,10 @@
         <v>45237.60416666666</v>
       </c>
       <c r="F207" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G207" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H207">
         <v>2</v>
@@ -18894,43 +18894,43 @@
         <v>48</v>
       </c>
       <c r="K207">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="L207">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M207">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="N207">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O207">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P207">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q207">
         <v>-0.5</v>
       </c>
       <c r="R207">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S207">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T207">
         <v>2</v>
       </c>
       <c r="U207">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V207">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W207">
-        <v>0.909</v>
+        <v>0.8</v>
       </c>
       <c r="X207">
         <v>-1</v>
@@ -18939,13 +18939,13 @@
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA207">
         <v>-1</v>
       </c>
       <c r="AB207">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC207">
         <v>-1</v>
@@ -18956,7 +18956,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7404430</v>
+        <v>7404429</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18968,76 +18968,76 @@
         <v>45237.60416666666</v>
       </c>
       <c r="F208" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G208" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J208" t="s">
         <v>48</v>
       </c>
       <c r="K208">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="L208">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M208">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="N208">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="O208">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P208">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q208">
+        <v>-0.75</v>
+      </c>
+      <c r="R208">
+        <v>1.875</v>
+      </c>
+      <c r="S208">
+        <v>1.925</v>
+      </c>
+      <c r="T208">
+        <v>2.25</v>
+      </c>
+      <c r="U208">
+        <v>1.925</v>
+      </c>
+      <c r="V208">
+        <v>1.875</v>
+      </c>
+      <c r="W208">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X208">
+        <v>-1</v>
+      </c>
+      <c r="Y208">
+        <v>-1</v>
+      </c>
+      <c r="Z208">
+        <v>0.4375</v>
+      </c>
+      <c r="AA208">
         <v>-0.5</v>
       </c>
-      <c r="R208">
-        <v>1.8</v>
-      </c>
-      <c r="S208">
-        <v>2</v>
-      </c>
-      <c r="T208">
-        <v>2</v>
-      </c>
-      <c r="U208">
-        <v>1.9</v>
-      </c>
-      <c r="V208">
-        <v>1.9</v>
-      </c>
-      <c r="W208">
-        <v>0.8</v>
-      </c>
-      <c r="X208">
-        <v>-1</v>
-      </c>
-      <c r="Y208">
-        <v>-1</v>
-      </c>
-      <c r="Z208">
-        <v>0.8</v>
-      </c>
-      <c r="AA208">
-        <v>-1</v>
-      </c>
       <c r="AB208">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC208">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19045,7 +19045,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7404429</v>
+        <v>7404428</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19057,10 +19057,10 @@
         <v>45237.60416666666</v>
       </c>
       <c r="F209" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G209" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H209">
         <v>1</v>
@@ -19072,43 +19072,43 @@
         <v>48</v>
       </c>
       <c r="K209">
-        <v>1.65</v>
+        <v>3.4</v>
       </c>
       <c r="L209">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M209">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="N209">
-        <v>1.65</v>
+        <v>3</v>
       </c>
       <c r="O209">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P209">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="Q209">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R209">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S209">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T209">
         <v>2.25</v>
       </c>
       <c r="U209">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V209">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="W209">
-        <v>0.6499999999999999</v>
+        <v>2</v>
       </c>
       <c r="X209">
         <v>-1</v>
@@ -19117,16 +19117,16 @@
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0.4375</v>
+        <v>0.75</v>
       </c>
       <c r="AA209">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB209">
         <v>-1</v>
       </c>
       <c r="AC209">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19134,7 +19134,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7404428</v>
+        <v>7404431</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19146,58 +19146,58 @@
         <v>45237.60416666666</v>
       </c>
       <c r="F210" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G210" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H210">
+        <v>2</v>
+      </c>
+      <c r="I210">
         <v>1</v>
-      </c>
-      <c r="I210">
-        <v>0</v>
       </c>
       <c r="J210" t="s">
         <v>48</v>
       </c>
       <c r="K210">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="L210">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M210">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="N210">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="O210">
         <v>3</v>
       </c>
       <c r="P210">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="Q210">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R210">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S210">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T210">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U210">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V210">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="W210">
-        <v>2</v>
+        <v>0.909</v>
       </c>
       <c r="X210">
         <v>-1</v>
@@ -19206,16 +19206,16 @@
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AA210">
         <v>-1</v>
       </c>
       <c r="AB210">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC210">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19327,7 +19327,7 @@
         <v>37</v>
       </c>
       <c r="G212" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H212">
         <v>3</v>
@@ -19413,7 +19413,7 @@
         <v>45238.60416666666</v>
       </c>
       <c r="F213" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G213" t="s">
         <v>44</v>
@@ -19579,7 +19579,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7404437</v>
+        <v>7404438</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19591,76 +19591,76 @@
         <v>45241.4375</v>
       </c>
       <c r="F215" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G215" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H215">
         <v>0</v>
       </c>
       <c r="I215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K215">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L215">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M215">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="N215">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O215">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="P215">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q215">
         <v>0</v>
       </c>
       <c r="R215">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S215">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T215">
         <v>2</v>
       </c>
       <c r="U215">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V215">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W215">
         <v>-1</v>
       </c>
       <c r="X215">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y215">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z215">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA215">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB215">
         <v>-1</v>
       </c>
       <c r="AC215">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19668,7 +19668,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7404438</v>
+        <v>7404437</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19680,76 +19680,76 @@
         <v>45241.4375</v>
       </c>
       <c r="F216" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G216" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H216">
         <v>0</v>
       </c>
       <c r="I216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K216">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L216">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M216">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="N216">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O216">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="P216">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="Q216">
         <v>0</v>
       </c>
       <c r="R216">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S216">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T216">
         <v>2</v>
       </c>
       <c r="U216">
+        <v>1.85</v>
+      </c>
+      <c r="V216">
+        <v>1.95</v>
+      </c>
+      <c r="W216">
+        <v>-1</v>
+      </c>
+      <c r="X216">
         <v>1.875</v>
       </c>
-      <c r="V216">
-        <v>1.925</v>
-      </c>
-      <c r="W216">
-        <v>-1</v>
-      </c>
-      <c r="X216">
-        <v>-1</v>
-      </c>
       <c r="Y216">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z216">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA216">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB216">
         <v>-1</v>
       </c>
       <c r="AC216">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19846,7 +19846,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>7404440</v>
+        <v>7404441</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19858,76 +19858,76 @@
         <v>45242.4375</v>
       </c>
       <c r="F218" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G218" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H218">
         <v>1</v>
       </c>
       <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218" t="s">
+        <v>48</v>
+      </c>
+      <c r="K218">
+        <v>2.3</v>
+      </c>
+      <c r="L218">
+        <v>2.9</v>
+      </c>
+      <c r="M218">
         <v>3</v>
       </c>
-      <c r="J218" t="s">
-        <v>47</v>
-      </c>
-      <c r="K218">
-        <v>2.15</v>
-      </c>
-      <c r="L218">
-        <v>3</v>
-      </c>
-      <c r="M218">
-        <v>3.2</v>
-      </c>
       <c r="N218">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="O218">
         <v>3</v>
       </c>
       <c r="P218">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q218">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R218">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S218">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T218">
         <v>2</v>
       </c>
       <c r="U218">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V218">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W218">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X218">
         <v>-1</v>
       </c>
       <c r="Y218">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z218">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA218">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB218">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC218">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19935,7 +19935,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>7404441</v>
+        <v>7404440</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19947,76 +19947,76 @@
         <v>45242.4375</v>
       </c>
       <c r="F219" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G219" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H219">
         <v>1</v>
       </c>
       <c r="I219">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J219" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K219">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L219">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M219">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N219">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="O219">
         <v>3</v>
       </c>
       <c r="P219">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="Q219">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R219">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S219">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T219">
         <v>2</v>
       </c>
       <c r="U219">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V219">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W219">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X219">
         <v>-1</v>
       </c>
       <c r="Y219">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z219">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA219">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB219">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC219">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20036,7 +20036,7 @@
         <v>45242.53125</v>
       </c>
       <c r="F220" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G220" t="s">
         <v>44</v>
@@ -20303,7 +20303,7 @@
         <v>45255.53125</v>
       </c>
       <c r="F223" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G223" t="s">
         <v>31</v>
@@ -20484,7 +20484,7 @@
         <v>38</v>
       </c>
       <c r="G225" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H225">
         <v>3</v>
@@ -20570,7 +20570,7 @@
         <v>45256.53125</v>
       </c>
       <c r="F226" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G226" t="s">
         <v>29</v>
@@ -20659,7 +20659,7 @@
         <v>45258.60416666666</v>
       </c>
       <c r="F227" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G227" t="s">
         <v>39</v>
@@ -20751,7 +20751,7 @@
         <v>44</v>
       </c>
       <c r="G228" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H228">
         <v>0</v>
@@ -20929,7 +20929,7 @@
         <v>40</v>
       </c>
       <c r="G230" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H230">
         <v>0</v>
@@ -21015,7 +21015,7 @@
         <v>45266.60416666666</v>
       </c>
       <c r="F231" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G231" t="s">
         <v>42</v>
@@ -21193,7 +21193,7 @@
         <v>45269.4375</v>
       </c>
       <c r="F233" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G233" t="s">
         <v>37</v>
@@ -21285,7 +21285,7 @@
         <v>42</v>
       </c>
       <c r="G234" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H234">
         <v>2</v>
@@ -21552,7 +21552,7 @@
         <v>40</v>
       </c>
       <c r="G237" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H237">
         <v>1</v>
@@ -21638,10 +21638,10 @@
         <v>45273.60416666666</v>
       </c>
       <c r="F238" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G238" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H238">
         <v>3</v>
@@ -21816,7 +21816,7 @@
         <v>45277.4375</v>
       </c>
       <c r="F240" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G240" t="s">
         <v>41</v>
@@ -21908,7 +21908,7 @@
         <v>40</v>
       </c>
       <c r="G241" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H241">
         <v>1</v>
@@ -21982,7 +21982,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>7477991</v>
+        <v>7479719</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -21994,76 +21994,76 @@
         <v>45283.4375</v>
       </c>
       <c r="F242" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G242" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H242">
         <v>0</v>
       </c>
       <c r="I242">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J242" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K242">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="L242">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M242">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="N242">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="O242">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="P242">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="Q242">
         <v>0</v>
       </c>
       <c r="R242">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S242">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T242">
         <v>2</v>
       </c>
       <c r="U242">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V242">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W242">
         <v>-1</v>
       </c>
       <c r="X242">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y242">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z242">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA242">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB242">
+        <v>0</v>
+      </c>
+      <c r="AC242">
         <v>-0</v>
-      </c>
-      <c r="AB242">
-        <v>-1</v>
-      </c>
-      <c r="AC242">
-        <v>0.825</v>
       </c>
     </row>
     <row r="243" spans="1:29">
@@ -22071,7 +22071,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>7477992</v>
+        <v>7477991</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22083,76 +22083,76 @@
         <v>45283.4375</v>
       </c>
       <c r="F243" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G243" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J243" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K243">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="L243">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M243">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="N243">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="O243">
         <v>2.9</v>
       </c>
       <c r="P243">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="Q243">
         <v>0</v>
       </c>
       <c r="R243">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S243">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T243">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U243">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V243">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W243">
         <v>-1</v>
       </c>
       <c r="X243">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y243">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z243">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA243">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB243">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC243">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -22160,7 +22160,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>7479719</v>
+        <v>7478004</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22172,76 +22172,76 @@
         <v>45283.4375</v>
       </c>
       <c r="F244" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G244" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I244">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J244" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K244">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L244">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M244">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N244">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="O244">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P244">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q244">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R244">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S244">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T244">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U244">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V244">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="W244">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X244">
         <v>-1</v>
       </c>
       <c r="Y244">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z244">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA244">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB244">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC244">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="245" spans="1:29">
@@ -22249,7 +22249,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>7478004</v>
+        <v>7477992</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22261,46 +22261,46 @@
         <v>45283.4375</v>
       </c>
       <c r="F245" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G245" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H245">
         <v>1</v>
       </c>
       <c r="I245">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J245" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K245">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="L245">
         <v>3</v>
       </c>
       <c r="M245">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N245">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="O245">
+        <v>2.9</v>
+      </c>
+      <c r="P245">
         <v>3</v>
       </c>
-      <c r="P245">
-        <v>4.75</v>
-      </c>
       <c r="Q245">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R245">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S245">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T245">
         <v>1.75</v>
@@ -22312,25 +22312,25 @@
         <v>2.05</v>
       </c>
       <c r="W245">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X245">
         <v>-1</v>
       </c>
       <c r="Y245">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z245">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA245">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB245">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC245">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -22442,7 +22442,7 @@
         <v>29</v>
       </c>
       <c r="G247" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H247">
         <v>0</v>
@@ -22884,10 +22884,10 @@
         <v>45290.53125</v>
       </c>
       <c r="F252" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G252" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H252">
         <v>0</v>
@@ -22973,7 +22973,7 @@
         <v>45290.625</v>
       </c>
       <c r="F253" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G253" t="s">
         <v>37</v>
@@ -23062,7 +23062,7 @@
         <v>45291.4375</v>
       </c>
       <c r="F254" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G254" t="s">
         <v>29</v>
@@ -23332,7 +23332,7 @@
         <v>33</v>
       </c>
       <c r="G257" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H257">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>45339.52083333334</v>
       </c>
       <c r="F258" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G258" t="s">
         <v>34</v>
@@ -23507,7 +23507,7 @@
         <v>45339.53125</v>
       </c>
       <c r="F259" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G259" t="s">
         <v>40</v>
@@ -23596,7 +23596,7 @@
         <v>45339.625</v>
       </c>
       <c r="F260" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G260" t="s">
         <v>41</v>
@@ -23777,7 +23777,7 @@
         <v>38</v>
       </c>
       <c r="G262" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H262">
         <v>3</v>

--- a/South Africa Premier/South Africa Premier.xlsx
+++ b/South Africa Premier/South Africa Premier.xlsx
@@ -109,16 +109,16 @@
     <t>Royal AM FC</t>
   </si>
   <si>
+    <t>Sekhukhune United FC</t>
+  </si>
+  <si>
     <t>Mamelodi Sundowns</t>
   </si>
   <si>
-    <t>Sekhukhune United FC</t>
+    <t>Richards Bay FC</t>
   </si>
   <si>
     <t>Moroka Swallows</t>
-  </si>
-  <si>
-    <t>Richards Bay FC</t>
   </si>
   <si>
     <t>Golden Arrows</t>
@@ -800,7 +800,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5350154</v>
+        <v>5350152</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -815,55 +815,55 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
         <v>49</v>
       </c>
       <c r="K4">
-        <v>1.333</v>
+        <v>2.3</v>
       </c>
       <c r="L4">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="M4">
-        <v>9</v>
+        <v>3.1</v>
       </c>
       <c r="N4">
-        <v>1.166</v>
+        <v>2.2</v>
       </c>
       <c r="O4">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="P4">
-        <v>15</v>
+        <v>3.5</v>
       </c>
       <c r="Q4">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R4">
+        <v>1.95</v>
+      </c>
+      <c r="S4">
         <v>1.85</v>
       </c>
-      <c r="S4">
+      <c r="T4">
+        <v>1.75</v>
+      </c>
+      <c r="U4">
         <v>1.95</v>
       </c>
-      <c r="T4">
-        <v>2.75</v>
-      </c>
-      <c r="U4">
-        <v>2</v>
-      </c>
       <c r="V4">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W4">
-        <v>0.1659999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="X4">
         <v>-1</v>
@@ -872,16 +872,16 @@
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
       <c r="AA4">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC4">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -889,7 +889,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5350152</v>
+        <v>5350154</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -904,55 +904,55 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
         <v>49</v>
       </c>
       <c r="K5">
-        <v>2.3</v>
+        <v>1.333</v>
       </c>
       <c r="L5">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="M5">
-        <v>3.1</v>
+        <v>9</v>
       </c>
       <c r="N5">
-        <v>2.2</v>
+        <v>1.166</v>
       </c>
       <c r="O5">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="P5">
-        <v>3.5</v>
+        <v>15</v>
       </c>
       <c r="Q5">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R5">
+        <v>1.85</v>
+      </c>
+      <c r="S5">
         <v>1.95</v>
       </c>
-      <c r="S5">
-        <v>1.85</v>
-      </c>
       <c r="T5">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="U5">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V5">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W5">
-        <v>1.2</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -961,16 +961,16 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB5">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -978,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5350178</v>
+        <v>5350179</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -993,67 +993,67 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K6">
-        <v>2.05</v>
+        <v>6</v>
       </c>
       <c r="L6">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M6">
+        <v>1.5</v>
+      </c>
+      <c r="N6">
+        <v>6</v>
+      </c>
+      <c r="O6">
         <v>3.6</v>
       </c>
-      <c r="N6">
-        <v>2.15</v>
-      </c>
-      <c r="O6">
-        <v>3</v>
-      </c>
       <c r="P6">
-        <v>3.25</v>
+        <v>1.533</v>
       </c>
       <c r="Q6">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R6">
+        <v>2.1</v>
+      </c>
+      <c r="S6">
+        <v>1.7</v>
+      </c>
+      <c r="T6">
+        <v>2</v>
+      </c>
+      <c r="U6">
         <v>1.85</v>
       </c>
-      <c r="S6">
+      <c r="V6">
         <v>1.95</v>
       </c>
-      <c r="T6">
-        <v>2</v>
-      </c>
-      <c r="U6">
-        <v>1.95</v>
-      </c>
-      <c r="V6">
-        <v>1.85</v>
-      </c>
       <c r="W6">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z6">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AB6">
         <v>0</v>
@@ -1067,7 +1067,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5350179</v>
+        <v>5350178</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1082,67 +1082,67 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K7">
-        <v>6</v>
+        <v>2.05</v>
       </c>
       <c r="L7">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M7">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="N7">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="O7">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P7">
-        <v>1.533</v>
+        <v>3.25</v>
       </c>
       <c r="Q7">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R7">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="S7">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="T7">
         <v>2</v>
       </c>
       <c r="U7">
+        <v>1.95</v>
+      </c>
+      <c r="V7">
         <v>1.85</v>
       </c>
-      <c r="V7">
-        <v>1.95</v>
-      </c>
       <c r="W7">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA7">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1702,7 +1702,7 @@
         <v>44936.60416666666</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
         <v>42</v>
@@ -2061,7 +2061,7 @@
         <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>39</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2325,7 +2325,7 @@
         <v>44941.4375</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G21" t="s">
         <v>38</v>
@@ -2503,7 +2503,7 @@
         <v>44942.54166666666</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G23" t="s">
         <v>44</v>
@@ -2681,10 +2681,10 @@
         <v>44946.60416666666</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -3040,7 +3040,7 @@
         <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3218,7 +3218,7 @@
         <v>44</v>
       </c>
       <c r="G31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3307,7 +3307,7 @@
         <v>38</v>
       </c>
       <c r="G32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3571,10 +3571,10 @@
         <v>44954.4375</v>
       </c>
       <c r="F35" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" t="s">
         <v>31</v>
-      </c>
-      <c r="G35" t="s">
-        <v>32</v>
       </c>
       <c r="H35">
         <v>2</v>
@@ -3660,7 +3660,7 @@
         <v>44954.52083333334</v>
       </c>
       <c r="F36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G36" t="s">
         <v>44</v>
@@ -3838,7 +3838,7 @@
         <v>44955.4375</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G38" t="s">
         <v>40</v>
@@ -4194,10 +4194,10 @@
         <v>44960.54166666666</v>
       </c>
       <c r="F42" t="s">
+        <v>34</v>
+      </c>
+      <c r="G42" t="s">
         <v>33</v>
-      </c>
-      <c r="G42" t="s">
-        <v>34</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -4360,7 +4360,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5349193</v>
+        <v>5350216</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4372,56 +4372,56 @@
         <v>44961.4375</v>
       </c>
       <c r="F44" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J44" t="s">
         <v>47</v>
       </c>
       <c r="K44">
-        <v>5</v>
+        <v>2.55</v>
       </c>
       <c r="L44">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="M44">
-        <v>1.615</v>
+        <v>2.625</v>
       </c>
       <c r="N44">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="O44">
         <v>3</v>
       </c>
       <c r="P44">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="Q44">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R44">
+        <v>1.925</v>
+      </c>
+      <c r="S44">
+        <v>1.875</v>
+      </c>
+      <c r="T44">
+        <v>2</v>
+      </c>
+      <c r="U44">
         <v>1.85</v>
       </c>
-      <c r="S44">
+      <c r="V44">
         <v>1.95</v>
       </c>
-      <c r="T44">
-        <v>2</v>
-      </c>
-      <c r="U44">
-        <v>1.95</v>
-      </c>
-      <c r="V44">
-        <v>1.85</v>
-      </c>
       <c r="W44">
         <v>-1</v>
       </c>
@@ -4429,19 +4429,19 @@
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="Z44">
         <v>-1</v>
       </c>
       <c r="AA44">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC44">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4449,7 +4449,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5350215</v>
+        <v>5349193</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4461,55 +4461,55 @@
         <v>44961.4375</v>
       </c>
       <c r="F45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G45" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
         <v>1</v>
-      </c>
-      <c r="I45">
-        <v>2</v>
       </c>
       <c r="J45" t="s">
         <v>47</v>
       </c>
       <c r="K45">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="L45">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M45">
-        <v>3</v>
+        <v>1.615</v>
       </c>
       <c r="N45">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="O45">
         <v>3</v>
       </c>
       <c r="P45">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R45">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S45">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T45">
         <v>2</v>
       </c>
       <c r="U45">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V45">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W45">
         <v>-1</v>
@@ -4518,19 +4518,19 @@
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="Z45">
         <v>-1</v>
       </c>
       <c r="AA45">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB45">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4538,7 +4538,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>5350216</v>
+        <v>5350215</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4550,10 +4550,10 @@
         <v>44961.4375</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G46" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -4565,40 +4565,40 @@
         <v>47</v>
       </c>
       <c r="K46">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="L46">
         <v>2.9</v>
       </c>
       <c r="M46">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="N46">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="O46">
         <v>3</v>
       </c>
       <c r="P46">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="Q46">
         <v>0</v>
       </c>
       <c r="R46">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S46">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T46">
         <v>2</v>
       </c>
       <c r="U46">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V46">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W46">
         <v>-1</v>
@@ -4607,16 +4607,16 @@
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="Z46">
         <v>-1</v>
       </c>
       <c r="AA46">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB46">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -4731,7 +4731,7 @@
         <v>36</v>
       </c>
       <c r="G48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -5084,10 +5084,10 @@
         <v>44975.52083333334</v>
       </c>
       <c r="F52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H52">
         <v>2</v>
@@ -5354,7 +5354,7 @@
         <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H55">
         <v>2</v>
@@ -5606,7 +5606,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6179860</v>
+        <v>5350229</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5618,31 +5618,31 @@
         <v>44982.52083333334</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G58" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J58" t="s">
         <v>47</v>
       </c>
       <c r="K58">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L58">
         <v>2.875</v>
       </c>
       <c r="M58">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N58">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="O58">
         <v>2.75</v>
@@ -5654,19 +5654,19 @@
         <v>0</v>
       </c>
       <c r="R58">
+        <v>1.725</v>
+      </c>
+      <c r="S58">
+        <v>2.075</v>
+      </c>
+      <c r="T58">
         <v>1.75</v>
       </c>
-      <c r="S58">
-        <v>2.05</v>
-      </c>
-      <c r="T58">
-        <v>2</v>
-      </c>
       <c r="U58">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V58">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W58">
         <v>-1</v>
@@ -5681,13 +5681,13 @@
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>1.05</v>
+        <v>1.075</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC58">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5695,7 +5695,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>5350229</v>
+        <v>6179860</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5707,31 +5707,31 @@
         <v>44982.52083333334</v>
       </c>
       <c r="F59" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G59" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
         <v>1</v>
-      </c>
-      <c r="I59">
-        <v>2</v>
       </c>
       <c r="J59" t="s">
         <v>47</v>
       </c>
       <c r="K59">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L59">
         <v>2.875</v>
       </c>
       <c r="M59">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N59">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="O59">
         <v>2.75</v>
@@ -5743,19 +5743,19 @@
         <v>0</v>
       </c>
       <c r="R59">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="S59">
-        <v>2.075</v>
+        <v>2.05</v>
       </c>
       <c r="T59">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U59">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V59">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W59">
         <v>-1</v>
@@ -5770,13 +5770,13 @@
         <v>-1</v>
       </c>
       <c r="AA59">
-        <v>1.075</v>
+        <v>1.05</v>
       </c>
       <c r="AB59">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC59">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5888,7 +5888,7 @@
         <v>42</v>
       </c>
       <c r="G61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -5974,7 +5974,7 @@
         <v>44988.60416666666</v>
       </c>
       <c r="F62" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G62" t="s">
         <v>41</v>
@@ -6063,7 +6063,7 @@
         <v>44989.4375</v>
       </c>
       <c r="F63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G63" t="s">
         <v>37</v>
@@ -6155,7 +6155,7 @@
         <v>30</v>
       </c>
       <c r="G64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -6318,7 +6318,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>5350240</v>
+        <v>6335029</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6330,76 +6330,76 @@
         <v>44990.4375</v>
       </c>
       <c r="F66" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G66" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K66">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="L66">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M66">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="N66">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="O66">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P66">
-        <v>2.3</v>
+        <v>1.666</v>
       </c>
       <c r="Q66">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R66">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S66">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="T66">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U66">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V66">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W66">
         <v>-1</v>
       </c>
       <c r="X66">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y66">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA66">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC66">
-        <v>-0</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6407,7 +6407,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6335029</v>
+        <v>6335027</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6419,76 +6419,76 @@
         <v>44990.4375</v>
       </c>
       <c r="F67" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G67" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="s">
         <v>48</v>
       </c>
       <c r="K67">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="L67">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="M67">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="N67">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="O67">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="P67">
-        <v>1.666</v>
+        <v>3.25</v>
       </c>
       <c r="Q67">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R67">
+        <v>1.95</v>
+      </c>
+      <c r="S67">
+        <v>1.85</v>
+      </c>
+      <c r="T67">
+        <v>2</v>
+      </c>
+      <c r="U67">
+        <v>1.925</v>
+      </c>
+      <c r="V67">
+        <v>1.875</v>
+      </c>
+      <c r="W67">
+        <v>-1</v>
+      </c>
+      <c r="X67">
         <v>1.9</v>
       </c>
-      <c r="S67">
-        <v>1.9</v>
-      </c>
-      <c r="T67">
-        <v>2.25</v>
-      </c>
-      <c r="U67">
-        <v>1.825</v>
-      </c>
-      <c r="V67">
-        <v>1.975</v>
-      </c>
-      <c r="W67">
-        <v>-1</v>
-      </c>
-      <c r="X67">
-        <v>2.6</v>
-      </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB67">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC67">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6496,7 +6496,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6335027</v>
+        <v>5350240</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6508,46 +6508,46 @@
         <v>44990.4375</v>
       </c>
       <c r="F68" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G68" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H68">
         <v>0</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K68">
-        <v>2.4</v>
+        <v>2.625</v>
       </c>
       <c r="L68">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="M68">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="N68">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="O68">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P68">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q68">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R68">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="S68">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="T68">
         <v>2</v>
@@ -6562,22 +6562,22 @@
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z68">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>0.425</v>
+        <v>1.075</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC68">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6686,7 +6686,7 @@
         <v>44999.60416666666</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G70" t="s">
         <v>30</v>
@@ -6953,7 +6953,7 @@
         <v>45002.60416666666</v>
       </c>
       <c r="F73" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G73" t="s">
         <v>35</v>
@@ -7042,7 +7042,7 @@
         <v>45003.4375</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G74" t="s">
         <v>42</v>
@@ -7312,7 +7312,7 @@
         <v>38</v>
       </c>
       <c r="G77" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H77">
         <v>4</v>
@@ -7398,7 +7398,7 @@
         <v>45017.41666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G78" t="s">
         <v>41</v>
@@ -7668,7 +7668,7 @@
         <v>40</v>
       </c>
       <c r="G81" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -7757,7 +7757,7 @@
         <v>35</v>
       </c>
       <c r="G82" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -7932,7 +7932,7 @@
         <v>45020.60416666666</v>
       </c>
       <c r="F84" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G84" t="s">
         <v>29</v>
@@ -8199,7 +8199,7 @@
         <v>45024.41666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G87" t="s">
         <v>35</v>
@@ -8276,7 +8276,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>5349199</v>
+        <v>5350258</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8288,76 +8288,76 @@
         <v>45024.52083333334</v>
       </c>
       <c r="F88" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G88" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K88">
+        <v>1.909</v>
+      </c>
+      <c r="L88">
+        <v>2.9</v>
+      </c>
+      <c r="M88">
         <v>4.333</v>
       </c>
-      <c r="L88">
-        <v>3</v>
-      </c>
-      <c r="M88">
-        <v>1.85</v>
-      </c>
       <c r="N88">
-        <v>5.5</v>
+        <v>1.909</v>
       </c>
       <c r="O88">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P88">
-        <v>1.65</v>
+        <v>4</v>
       </c>
       <c r="Q88">
+        <v>-0.5</v>
+      </c>
+      <c r="R88">
+        <v>2.025</v>
+      </c>
+      <c r="S88">
+        <v>1.775</v>
+      </c>
+      <c r="T88">
+        <v>2</v>
+      </c>
+      <c r="U88">
+        <v>2.05</v>
+      </c>
+      <c r="V88">
+        <v>1.75</v>
+      </c>
+      <c r="W88">
+        <v>0.909</v>
+      </c>
+      <c r="X88">
+        <v>-1</v>
+      </c>
+      <c r="Y88">
+        <v>-1</v>
+      </c>
+      <c r="Z88">
+        <v>1.025</v>
+      </c>
+      <c r="AA88">
+        <v>-1</v>
+      </c>
+      <c r="AB88">
+        <v>-1</v>
+      </c>
+      <c r="AC88">
         <v>0.75</v>
-      </c>
-      <c r="R88">
-        <v>1.95</v>
-      </c>
-      <c r="S88">
-        <v>1.85</v>
-      </c>
-      <c r="T88">
-        <v>2.25</v>
-      </c>
-      <c r="U88">
-        <v>2.075</v>
-      </c>
-      <c r="V88">
-        <v>1.725</v>
-      </c>
-      <c r="W88">
-        <v>-1</v>
-      </c>
-      <c r="X88">
-        <v>-1</v>
-      </c>
-      <c r="Y88">
-        <v>0.6499999999999999</v>
-      </c>
-      <c r="Z88">
-        <v>-1</v>
-      </c>
-      <c r="AA88">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB88">
-        <v>-0.5</v>
-      </c>
-      <c r="AC88">
-        <v>0.3625</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8365,7 +8365,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>5350258</v>
+        <v>5349199</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8377,76 +8377,76 @@
         <v>45024.52083333334</v>
       </c>
       <c r="F89" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G89" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K89">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="L89">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M89">
-        <v>4.333</v>
+        <v>1.85</v>
       </c>
       <c r="N89">
-        <v>1.909</v>
+        <v>5.5</v>
       </c>
       <c r="O89">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P89">
-        <v>4</v>
+        <v>1.65</v>
       </c>
       <c r="Q89">
+        <v>0.75</v>
+      </c>
+      <c r="R89">
+        <v>1.95</v>
+      </c>
+      <c r="S89">
+        <v>1.85</v>
+      </c>
+      <c r="T89">
+        <v>2.25</v>
+      </c>
+      <c r="U89">
+        <v>2.075</v>
+      </c>
+      <c r="V89">
+        <v>1.725</v>
+      </c>
+      <c r="W89">
+        <v>-1</v>
+      </c>
+      <c r="X89">
+        <v>-1</v>
+      </c>
+      <c r="Y89">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="Z89">
+        <v>-1</v>
+      </c>
+      <c r="AA89">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB89">
         <v>-0.5</v>
       </c>
-      <c r="R89">
-        <v>2.025</v>
-      </c>
-      <c r="S89">
-        <v>1.775</v>
-      </c>
-      <c r="T89">
-        <v>2</v>
-      </c>
-      <c r="U89">
-        <v>2.05</v>
-      </c>
-      <c r="V89">
-        <v>1.75</v>
-      </c>
-      <c r="W89">
-        <v>0.909</v>
-      </c>
-      <c r="X89">
-        <v>-1</v>
-      </c>
-      <c r="Y89">
-        <v>-1</v>
-      </c>
-      <c r="Z89">
-        <v>1.025</v>
-      </c>
-      <c r="AA89">
-        <v>-1</v>
-      </c>
-      <c r="AB89">
-        <v>-1</v>
-      </c>
       <c r="AC89">
-        <v>0.75</v>
+        <v>0.3625</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8543,7 +8543,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5350260</v>
+        <v>5350261</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8555,76 +8555,76 @@
         <v>45025.41666666666</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G91" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H91">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K91">
-        <v>2.55</v>
+        <v>6.5</v>
       </c>
       <c r="L91">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="M91">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="N91">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="O91">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="P91">
-        <v>2.8</v>
+        <v>1.666</v>
       </c>
       <c r="Q91">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R91">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S91">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T91">
         <v>2.25</v>
       </c>
       <c r="U91">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V91">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W91">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X91">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y91">
         <v>-1</v>
       </c>
       <c r="Z91">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA91">
+        <v>-1</v>
+      </c>
+      <c r="AB91">
+        <v>-1</v>
+      </c>
+      <c r="AC91">
         <v>0.8</v>
-      </c>
-      <c r="AA91">
-        <v>-1</v>
-      </c>
-      <c r="AB91">
-        <v>1.05</v>
-      </c>
-      <c r="AC91">
-        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8632,7 +8632,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>5350261</v>
+        <v>5350260</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8644,76 +8644,76 @@
         <v>45025.41666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G92" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K92">
-        <v>6.5</v>
+        <v>2.55</v>
       </c>
       <c r="L92">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="M92">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="N92">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="O92">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="P92">
-        <v>1.666</v>
+        <v>2.8</v>
       </c>
       <c r="Q92">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R92">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S92">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T92">
         <v>2.25</v>
       </c>
       <c r="U92">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V92">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W92">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X92">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA92">
         <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC92">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8914,7 +8914,7 @@
         <v>35</v>
       </c>
       <c r="G95" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -9092,7 +9092,7 @@
         <v>43</v>
       </c>
       <c r="G97" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9359,7 +9359,7 @@
         <v>39</v>
       </c>
       <c r="G100" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H100">
         <v>3</v>
@@ -9445,7 +9445,7 @@
         <v>45039.41666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G101" t="s">
         <v>37</v>
@@ -9623,10 +9623,10 @@
         <v>45041.41666666666</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9801,7 +9801,7 @@
         <v>45043.52083333334</v>
       </c>
       <c r="F105" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G105" t="s">
         <v>43</v>
@@ -10071,7 +10071,7 @@
         <v>40</v>
       </c>
       <c r="G108" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H108">
         <v>2</v>
@@ -10249,7 +10249,7 @@
         <v>37</v>
       </c>
       <c r="G110" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10513,7 +10513,7 @@
         <v>45049.51041666666</v>
       </c>
       <c r="F113" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G113" t="s">
         <v>38</v>
@@ -10590,7 +10590,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>5350279</v>
+        <v>5350283</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10602,76 +10602,76 @@
         <v>45049.60416666666</v>
       </c>
       <c r="F114" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G114" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J114" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K114">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="L114">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M114">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N114">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="O114">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P114">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="Q114">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R114">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S114">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T114">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U114">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V114">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W114">
         <v>-1</v>
       </c>
       <c r="X114">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y114">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z114">
         <v>-1</v>
       </c>
       <c r="AA114">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC114">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10679,7 +10679,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6588907</v>
+        <v>5350280</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10691,10 +10691,10 @@
         <v>45049.60416666666</v>
       </c>
       <c r="F115" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G115" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H115">
         <v>2</v>
@@ -10706,58 +10706,58 @@
         <v>48</v>
       </c>
       <c r="K115">
-        <v>2.625</v>
+        <v>5</v>
       </c>
       <c r="L115">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="M115">
-        <v>2.9</v>
+        <v>1.666</v>
       </c>
       <c r="N115">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="O115">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="P115">
-        <v>2.55</v>
+        <v>1.65</v>
       </c>
       <c r="Q115">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R115">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S115">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T115">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U115">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V115">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W115">
         <v>-1</v>
       </c>
       <c r="X115">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA115">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC115">
         <v>-1</v>
@@ -10768,7 +10768,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>5350280</v>
+        <v>6588907</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10780,10 +10780,10 @@
         <v>45049.60416666666</v>
       </c>
       <c r="F116" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G116" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H116">
         <v>2</v>
@@ -10795,58 +10795,58 @@
         <v>48</v>
       </c>
       <c r="K116">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="L116">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="M116">
-        <v>1.666</v>
+        <v>2.9</v>
       </c>
       <c r="N116">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="O116">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="P116">
-        <v>1.65</v>
+        <v>2.55</v>
       </c>
       <c r="Q116">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R116">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S116">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T116">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U116">
+        <v>1.975</v>
+      </c>
+      <c r="V116">
+        <v>1.825</v>
+      </c>
+      <c r="W116">
+        <v>-1</v>
+      </c>
+      <c r="X116">
         <v>1.8</v>
       </c>
-      <c r="V116">
-        <v>2</v>
-      </c>
-      <c r="W116">
-        <v>-1</v>
-      </c>
-      <c r="X116">
-        <v>2.5</v>
-      </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB116">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC116">
         <v>-1</v>
@@ -10857,7 +10857,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>5350283</v>
+        <v>5350279</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10869,76 +10869,76 @@
         <v>45049.60416666666</v>
       </c>
       <c r="F117" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G117" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K117">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="L117">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M117">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N117">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="O117">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P117">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q117">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R117">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S117">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T117">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U117">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V117">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y117">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
         <v>-1</v>
       </c>
       <c r="AA117">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB117">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC117">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10961,7 +10961,7 @@
         <v>36</v>
       </c>
       <c r="G118" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -11035,7 +11035,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>5350287</v>
+        <v>5350289</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11047,13 +11047,13 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F119" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G119" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I119">
         <v>0</v>
@@ -11062,43 +11062,43 @@
         <v>49</v>
       </c>
       <c r="K119">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="L119">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M119">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="N119">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="O119">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P119">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="Q119">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R119">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S119">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T119">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U119">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V119">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W119">
-        <v>1.25</v>
+        <v>0.909</v>
       </c>
       <c r="X119">
         <v>-1</v>
@@ -11107,16 +11107,16 @@
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AA119">
         <v>-1</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC119">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11124,7 +11124,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>5350288</v>
+        <v>5350286</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11136,76 +11136,76 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F120" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G120" t="s">
         <v>33</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K120">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="L120">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M120">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="N120">
-        <v>2.6</v>
+        <v>1.85</v>
       </c>
       <c r="O120">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="P120">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="Q120">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R120">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S120">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T120">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U120">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V120">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA120">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC120">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11213,7 +11213,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>5350286</v>
+        <v>5350284</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11225,13 +11225,13 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F121" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G121" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121">
         <v>0</v>
@@ -11240,43 +11240,43 @@
         <v>49</v>
       </c>
       <c r="K121">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="L121">
+        <v>2.9</v>
+      </c>
+      <c r="M121">
         <v>3.2</v>
       </c>
-      <c r="M121">
-        <v>4.5</v>
-      </c>
       <c r="N121">
+        <v>2.625</v>
+      </c>
+      <c r="O121">
+        <v>2.75</v>
+      </c>
+      <c r="P121">
+        <v>2.8</v>
+      </c>
+      <c r="Q121">
+        <v>0</v>
+      </c>
+      <c r="R121">
+        <v>1.775</v>
+      </c>
+      <c r="S121">
+        <v>2.025</v>
+      </c>
+      <c r="T121">
+        <v>2</v>
+      </c>
+      <c r="U121">
         <v>1.85</v>
       </c>
-      <c r="O121">
-        <v>3.2</v>
-      </c>
-      <c r="P121">
-        <v>4</v>
-      </c>
-      <c r="Q121">
-        <v>-0.5</v>
-      </c>
-      <c r="R121">
-        <v>1.9</v>
-      </c>
-      <c r="S121">
-        <v>1.9</v>
-      </c>
-      <c r="T121">
-        <v>2.25</v>
-      </c>
-      <c r="U121">
+      <c r="V121">
         <v>1.95</v>
       </c>
-      <c r="V121">
-        <v>1.85</v>
-      </c>
       <c r="W121">
-        <v>0.8500000000000001</v>
+        <v>1.625</v>
       </c>
       <c r="X121">
         <v>-1</v>
@@ -11285,16 +11285,16 @@
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA121">
         <v>-1</v>
       </c>
       <c r="AB121">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC121">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11302,7 +11302,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>5350284</v>
+        <v>5349203</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11314,76 +11314,76 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F122" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G122" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H122">
         <v>1</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K122">
-        <v>2.25</v>
+        <v>1.55</v>
       </c>
       <c r="L122">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="M122">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="N122">
-        <v>2.625</v>
+        <v>1.4</v>
       </c>
       <c r="O122">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="P122">
+        <v>7.5</v>
+      </c>
+      <c r="Q122">
+        <v>-1.25</v>
+      </c>
+      <c r="R122">
+        <v>1.975</v>
+      </c>
+      <c r="S122">
+        <v>1.825</v>
+      </c>
+      <c r="T122">
+        <v>2</v>
+      </c>
+      <c r="U122">
+        <v>1.75</v>
+      </c>
+      <c r="V122">
+        <v>2.05</v>
+      </c>
+      <c r="W122">
+        <v>-1</v>
+      </c>
+      <c r="X122">
         <v>2.8</v>
       </c>
-      <c r="Q122">
-        <v>0</v>
-      </c>
-      <c r="R122">
-        <v>1.775</v>
-      </c>
-      <c r="S122">
-        <v>2.025</v>
-      </c>
-      <c r="T122">
-        <v>2</v>
-      </c>
-      <c r="U122">
-        <v>1.85</v>
-      </c>
-      <c r="V122">
-        <v>1.95</v>
-      </c>
-      <c r="W122">
-        <v>1.625</v>
-      </c>
-      <c r="X122">
-        <v>-1</v>
-      </c>
       <c r="Y122">
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC122">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11391,7 +11391,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>5349203</v>
+        <v>5350288</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11403,76 +11403,76 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F123" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G123" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123">
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K123">
-        <v>1.55</v>
+        <v>2.2</v>
       </c>
       <c r="L123">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="M123">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="N123">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="O123">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="P123">
-        <v>7.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q123">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R123">
+        <v>1.825</v>
+      </c>
+      <c r="S123">
         <v>1.975</v>
       </c>
-      <c r="S123">
-        <v>1.825</v>
-      </c>
       <c r="T123">
         <v>2</v>
       </c>
       <c r="U123">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V123">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="W123">
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z123">
         <v>-1</v>
       </c>
       <c r="AA123">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB123">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC123">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11480,7 +11480,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>5350289</v>
+        <v>5350290</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11492,13 +11492,13 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F124" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G124" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H124">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I124">
         <v>0</v>
@@ -11507,31 +11507,31 @@
         <v>49</v>
       </c>
       <c r="K124">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="L124">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M124">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N124">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="O124">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P124">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="Q124">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R124">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S124">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T124">
         <v>2</v>
@@ -11543,7 +11543,7 @@
         <v>1.95</v>
       </c>
       <c r="W124">
-        <v>0.909</v>
+        <v>1.4</v>
       </c>
       <c r="X124">
         <v>-1</v>
@@ -11552,16 +11552,16 @@
         <v>-1</v>
       </c>
       <c r="Z124">
+        <v>0.75</v>
+      </c>
+      <c r="AA124">
+        <v>-1</v>
+      </c>
+      <c r="AB124">
+        <v>-1</v>
+      </c>
+      <c r="AC124">
         <v>0.95</v>
-      </c>
-      <c r="AA124">
-        <v>-1</v>
-      </c>
-      <c r="AB124">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC124">
-        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11569,7 +11569,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>5350290</v>
+        <v>5350287</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11581,10 +11581,10 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F125" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G125" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -11596,43 +11596,43 @@
         <v>49</v>
       </c>
       <c r="K125">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="L125">
+        <v>2.9</v>
+      </c>
+      <c r="M125">
+        <v>2.55</v>
+      </c>
+      <c r="N125">
+        <v>2.25</v>
+      </c>
+      <c r="O125">
         <v>3</v>
-      </c>
-      <c r="M125">
-        <v>3.5</v>
-      </c>
-      <c r="N125">
-        <v>2.4</v>
-      </c>
-      <c r="O125">
-        <v>2.875</v>
       </c>
       <c r="P125">
         <v>2.9</v>
       </c>
       <c r="Q125">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R125">
+        <v>2.05</v>
+      </c>
+      <c r="S125">
         <v>1.75</v>
       </c>
-      <c r="S125">
-        <v>2.05</v>
-      </c>
       <c r="T125">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U125">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V125">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W125">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11641,7 +11641,7 @@
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.75</v>
+        <v>1.05</v>
       </c>
       <c r="AA125">
         <v>-1</v>
@@ -11650,7 +11650,7 @@
         <v>-1</v>
       </c>
       <c r="AC125">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11670,7 +11670,7 @@
         <v>45062.60416666666</v>
       </c>
       <c r="F126" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G126" t="s">
         <v>43</v>
@@ -11836,7 +11836,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>5350298</v>
+        <v>5350291</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11848,76 +11848,76 @@
         <v>45066.41666666666</v>
       </c>
       <c r="F128" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G128" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128">
         <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K128">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="L128">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M128">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="N128">
-        <v>3.25</v>
+        <v>1.95</v>
       </c>
       <c r="O128">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P128">
+        <v>3.8</v>
+      </c>
+      <c r="Q128">
+        <v>-0.5</v>
+      </c>
+      <c r="R128">
+        <v>2</v>
+      </c>
+      <c r="S128">
+        <v>1.8</v>
+      </c>
+      <c r="T128">
         <v>2.25</v>
       </c>
-      <c r="Q128">
-        <v>0.25</v>
-      </c>
-      <c r="R128">
+      <c r="U128">
+        <v>1.95</v>
+      </c>
+      <c r="V128">
         <v>1.85</v>
       </c>
-      <c r="S128">
-        <v>1.95</v>
-      </c>
-      <c r="T128">
-        <v>2</v>
-      </c>
-      <c r="U128">
-        <v>1.975</v>
-      </c>
-      <c r="V128">
-        <v>1.825</v>
-      </c>
       <c r="W128">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X128">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
+        <v>-1</v>
+      </c>
+      <c r="AA128">
+        <v>0.8</v>
+      </c>
+      <c r="AB128">
+        <v>-1</v>
+      </c>
+      <c r="AC128">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA128">
-        <v>-1</v>
-      </c>
-      <c r="AB128">
-        <v>0</v>
-      </c>
-      <c r="AC128">
-        <v>-0</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -12014,7 +12014,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>5350299</v>
+        <v>5350296</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12026,76 +12026,76 @@
         <v>45066.41666666666</v>
       </c>
       <c r="F130" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G130" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H130">
         <v>0</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K130">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="L130">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M130">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="N130">
-        <v>1.615</v>
+        <v>1.75</v>
       </c>
       <c r="O130">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P130">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q130">
         <v>-0.75</v>
       </c>
       <c r="R130">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S130">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T130">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U130">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V130">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z130">
         <v>-1</v>
       </c>
       <c r="AA130">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB130">
         <v>-1</v>
       </c>
       <c r="AC130">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12115,7 +12115,7 @@
         <v>45066.41666666666</v>
       </c>
       <c r="F131" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G131" t="s">
         <v>44</v>
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>5350296</v>
+        <v>5350298</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,76 +12204,76 @@
         <v>45066.41666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G132" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K132">
+        <v>2.875</v>
+      </c>
+      <c r="L132">
+        <v>2.875</v>
+      </c>
+      <c r="M132">
+        <v>2.5</v>
+      </c>
+      <c r="N132">
+        <v>3.25</v>
+      </c>
+      <c r="O132">
+        <v>2.9</v>
+      </c>
+      <c r="P132">
+        <v>2.25</v>
+      </c>
+      <c r="Q132">
+        <v>0.25</v>
+      </c>
+      <c r="R132">
+        <v>1.85</v>
+      </c>
+      <c r="S132">
         <v>1.95</v>
       </c>
-      <c r="L132">
-        <v>3.2</v>
-      </c>
-      <c r="M132">
-        <v>3.75</v>
-      </c>
-      <c r="N132">
-        <v>1.75</v>
-      </c>
-      <c r="O132">
-        <v>3.6</v>
-      </c>
-      <c r="P132">
-        <v>4.2</v>
-      </c>
-      <c r="Q132">
-        <v>-0.75</v>
-      </c>
-      <c r="R132">
-        <v>2</v>
-      </c>
-      <c r="S132">
-        <v>1.8</v>
-      </c>
       <c r="T132">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U132">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V132">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W132">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA132">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC132">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>5350291</v>
+        <v>5350299</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,10 +12293,10 @@
         <v>45066.41666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G133" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -12308,46 +12308,46 @@
         <v>48</v>
       </c>
       <c r="K133">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="L133">
         <v>3</v>
       </c>
       <c r="M133">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N133">
+        <v>1.615</v>
+      </c>
+      <c r="O133">
+        <v>3.25</v>
+      </c>
+      <c r="P133">
+        <v>5.5</v>
+      </c>
+      <c r="Q133">
+        <v>-0.75</v>
+      </c>
+      <c r="R133">
+        <v>1.85</v>
+      </c>
+      <c r="S133">
         <v>1.95</v>
-      </c>
-      <c r="O133">
-        <v>3.2</v>
-      </c>
-      <c r="P133">
-        <v>3.8</v>
-      </c>
-      <c r="Q133">
-        <v>-0.5</v>
-      </c>
-      <c r="R133">
-        <v>2</v>
-      </c>
-      <c r="S133">
-        <v>1.8</v>
       </c>
       <c r="T133">
         <v>2.25</v>
       </c>
       <c r="U133">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V133">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y133">
         <v>-1</v>
@@ -12356,13 +12356,13 @@
         <v>-1</v>
       </c>
       <c r="AA133">
+        <v>0.95</v>
+      </c>
+      <c r="AB133">
+        <v>-1</v>
+      </c>
+      <c r="AC133">
         <v>0.8</v>
-      </c>
-      <c r="AB133">
-        <v>-1</v>
-      </c>
-      <c r="AC133">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12382,10 +12382,10 @@
         <v>45142.60416666666</v>
       </c>
       <c r="F134" t="s">
+        <v>31</v>
+      </c>
+      <c r="G134" t="s">
         <v>32</v>
-      </c>
-      <c r="G134" t="s">
-        <v>31</v>
       </c>
       <c r="H134">
         <v>1</v>
@@ -12474,7 +12474,7 @@
         <v>35</v>
       </c>
       <c r="G135" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -12563,7 +12563,7 @@
         <v>44</v>
       </c>
       <c r="G136" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H136">
         <v>2</v>
@@ -13094,7 +13094,7 @@
         <v>45146.5</v>
       </c>
       <c r="F142" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G142" t="s">
         <v>35</v>
@@ -13272,7 +13272,7 @@
         <v>45147.41666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G144" t="s">
         <v>29</v>
@@ -13361,7 +13361,7 @@
         <v>45147.41666666666</v>
       </c>
       <c r="F145" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G145" t="s">
         <v>37</v>
@@ -13527,7 +13527,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7007760</v>
+        <v>7007761</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13539,76 +13539,76 @@
         <v>45147.60416666666</v>
       </c>
       <c r="F147" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G147" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H147">
         <v>0</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J147" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K147">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="L147">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M147">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="N147">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="O147">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="P147">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q147">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R147">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="S147">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="T147">
+        <v>2</v>
+      </c>
+      <c r="U147">
+        <v>2.025</v>
+      </c>
+      <c r="V147">
+        <v>1.775</v>
+      </c>
+      <c r="W147">
+        <v>-1</v>
+      </c>
+      <c r="X147">
+        <v>-1</v>
+      </c>
+      <c r="Y147">
         <v>1.75</v>
       </c>
-      <c r="U147">
-        <v>1.825</v>
-      </c>
-      <c r="V147">
-        <v>1.975</v>
-      </c>
-      <c r="W147">
-        <v>-1</v>
-      </c>
-      <c r="X147">
-        <v>1.8</v>
-      </c>
-      <c r="Y147">
-        <v>-1</v>
-      </c>
       <c r="Z147">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>0.3625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC147">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13616,7 +13616,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7007761</v>
+        <v>7007760</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13628,76 +13628,76 @@
         <v>45147.60416666666</v>
       </c>
       <c r="F148" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G148" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H148">
         <v>0</v>
       </c>
       <c r="I148">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K148">
+        <v>2.4</v>
+      </c>
+      <c r="L148">
+        <v>2.9</v>
+      </c>
+      <c r="M148">
         <v>3</v>
       </c>
-      <c r="L148">
+      <c r="N148">
+        <v>2.4</v>
+      </c>
+      <c r="O148">
+        <v>2.8</v>
+      </c>
+      <c r="P148">
         <v>3</v>
       </c>
-      <c r="M148">
-        <v>2.3</v>
-      </c>
-      <c r="N148">
-        <v>2.7</v>
-      </c>
-      <c r="O148">
-        <v>2.625</v>
-      </c>
-      <c r="P148">
-        <v>2.75</v>
-      </c>
       <c r="Q148">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R148">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="S148">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="T148">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U148">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V148">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W148">
         <v>-1</v>
       </c>
       <c r="X148">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y148">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA148">
-        <v>0.8999999999999999</v>
+        <v>0.3625</v>
       </c>
       <c r="AB148">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC148">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13806,7 +13806,7 @@
         <v>45153.5</v>
       </c>
       <c r="F150" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G150" t="s">
         <v>35</v>
@@ -13984,10 +13984,10 @@
         <v>45154.60416666666</v>
       </c>
       <c r="F152" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G152" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -14061,7 +14061,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7007762</v>
+        <v>7068224</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14073,76 +14073,76 @@
         <v>45156.60416666666</v>
       </c>
       <c r="F153" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G153" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H153">
         <v>1</v>
       </c>
       <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153" t="s">
+        <v>49</v>
+      </c>
+      <c r="K153">
+        <v>1.909</v>
+      </c>
+      <c r="L153">
         <v>3</v>
       </c>
-      <c r="J153" t="s">
-        <v>47</v>
-      </c>
-      <c r="K153">
-        <v>2.6</v>
-      </c>
-      <c r="L153">
-        <v>2.875</v>
-      </c>
       <c r="M153">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="N153">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="O153">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P153">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="Q153">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R153">
+        <v>1.95</v>
+      </c>
+      <c r="S153">
+        <v>1.85</v>
+      </c>
+      <c r="T153">
+        <v>2</v>
+      </c>
+      <c r="U153">
+        <v>2</v>
+      </c>
+      <c r="V153">
         <v>1.8</v>
       </c>
-      <c r="S153">
-        <v>2</v>
-      </c>
-      <c r="T153">
-        <v>2</v>
-      </c>
-      <c r="U153">
-        <v>1.95</v>
-      </c>
-      <c r="V153">
-        <v>1.85</v>
-      </c>
       <c r="W153">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA153">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB153">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC153">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14150,7 +14150,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7068224</v>
+        <v>7007762</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14162,76 +14162,76 @@
         <v>45156.60416666666</v>
       </c>
       <c r="F154" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G154" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H154">
         <v>1</v>
       </c>
       <c r="I154">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J154" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K154">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="L154">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M154">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="N154">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="O154">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P154">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="Q154">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R154">
+        <v>1.8</v>
+      </c>
+      <c r="S154">
+        <v>2</v>
+      </c>
+      <c r="T154">
+        <v>2</v>
+      </c>
+      <c r="U154">
         <v>1.95</v>
       </c>
-      <c r="S154">
+      <c r="V154">
         <v>1.85</v>
       </c>
-      <c r="T154">
-        <v>2</v>
-      </c>
-      <c r="U154">
-        <v>2</v>
-      </c>
-      <c r="V154">
-        <v>1.8</v>
-      </c>
       <c r="W154">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X154">
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z154">
+        <v>-1</v>
+      </c>
+      <c r="AA154">
+        <v>1</v>
+      </c>
+      <c r="AB154">
         <v>0.95</v>
       </c>
-      <c r="AA154">
-        <v>-1</v>
-      </c>
-      <c r="AB154">
-        <v>-1</v>
-      </c>
       <c r="AC154">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14343,7 +14343,7 @@
         <v>40</v>
       </c>
       <c r="G156" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -14432,7 +14432,7 @@
         <v>42</v>
       </c>
       <c r="G157" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -14607,10 +14607,10 @@
         <v>45161.5</v>
       </c>
       <c r="F159" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G159" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H159">
         <v>0</v>
@@ -14699,7 +14699,7 @@
         <v>29</v>
       </c>
       <c r="G160" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -15411,7 +15411,7 @@
         <v>46</v>
       </c>
       <c r="G168" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H168">
         <v>0</v>
@@ -15485,7 +15485,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>7078413</v>
+        <v>7078411</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15497,76 +15497,76 @@
         <v>45168.60416666666</v>
       </c>
       <c r="F169" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G169" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J169" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K169">
         <v>2.6</v>
       </c>
       <c r="L169">
+        <v>3.1</v>
+      </c>
+      <c r="M169">
+        <v>2.6</v>
+      </c>
+      <c r="N169">
+        <v>2.4</v>
+      </c>
+      <c r="O169">
         <v>2.75</v>
       </c>
-      <c r="M169">
-        <v>2.9</v>
-      </c>
-      <c r="N169">
-        <v>3.1</v>
-      </c>
-      <c r="O169">
-        <v>2.8</v>
-      </c>
       <c r="P169">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="Q169">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R169">
-        <v>1.7</v>
+        <v>2.075</v>
       </c>
       <c r="S169">
-        <v>2.1</v>
+        <v>1.725</v>
       </c>
       <c r="T169">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U169">
+        <v>2.025</v>
+      </c>
+      <c r="V169">
         <v>1.775</v>
       </c>
-      <c r="V169">
-        <v>2.025</v>
-      </c>
       <c r="W169">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X169">
         <v>-1</v>
       </c>
       <c r="Y169">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z169">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AA169">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB169">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC169">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15574,7 +15574,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>7078411</v>
+        <v>7078413</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15586,76 +15586,76 @@
         <v>45168.60416666666</v>
       </c>
       <c r="F170" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G170" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I170">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J170" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K170">
         <v>2.6</v>
       </c>
       <c r="L170">
+        <v>2.75</v>
+      </c>
+      <c r="M170">
+        <v>2.9</v>
+      </c>
+      <c r="N170">
         <v>3.1</v>
       </c>
-      <c r="M170">
-        <v>2.6</v>
-      </c>
-      <c r="N170">
-        <v>2.4</v>
-      </c>
       <c r="O170">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="P170">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="Q170">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R170">
-        <v>2.075</v>
+        <v>1.7</v>
       </c>
       <c r="S170">
-        <v>1.725</v>
+        <v>2.1</v>
       </c>
       <c r="T170">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U170">
+        <v>1.775</v>
+      </c>
+      <c r="V170">
         <v>2.025</v>
       </c>
-      <c r="V170">
-        <v>1.775</v>
-      </c>
       <c r="W170">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X170">
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z170">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AA170">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB170">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC170">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15663,7 +15663,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>7078410</v>
+        <v>7078412</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15678,73 +15678,73 @@
         <v>34</v>
       </c>
       <c r="G171" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I171">
         <v>1</v>
       </c>
       <c r="J171" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K171">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="L171">
+        <v>3.25</v>
+      </c>
+      <c r="M171">
+        <v>4.333</v>
+      </c>
+      <c r="N171">
+        <v>1.833</v>
+      </c>
+      <c r="O171">
         <v>3.1</v>
       </c>
-      <c r="M171">
-        <v>2.5</v>
-      </c>
-      <c r="N171">
-        <v>3</v>
-      </c>
-      <c r="O171">
-        <v>2.875</v>
-      </c>
       <c r="P171">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q171">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R171">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S171">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T171">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U171">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V171">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W171">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X171">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y171">
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA171">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB171">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC171">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15841,7 +15841,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7078412</v>
+        <v>7078410</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15856,73 +15856,73 @@
         <v>33</v>
       </c>
       <c r="G173" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H173">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I173">
         <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K173">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="L173">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M173">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="N173">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="O173">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P173">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="Q173">
+        <v>0</v>
+      </c>
+      <c r="R173">
+        <v>2.05</v>
+      </c>
+      <c r="S173">
+        <v>1.75</v>
+      </c>
+      <c r="T173">
+        <v>1.75</v>
+      </c>
+      <c r="U173">
+        <v>2.025</v>
+      </c>
+      <c r="V173">
+        <v>1.775</v>
+      </c>
+      <c r="W173">
+        <v>-1</v>
+      </c>
+      <c r="X173">
+        <v>1.875</v>
+      </c>
+      <c r="Y173">
+        <v>-1</v>
+      </c>
+      <c r="Z173">
+        <v>0</v>
+      </c>
+      <c r="AA173">
+        <v>-0</v>
+      </c>
+      <c r="AB173">
+        <v>0.5125</v>
+      </c>
+      <c r="AC173">
         <v>-0.5</v>
-      </c>
-      <c r="R173">
-        <v>1.9</v>
-      </c>
-      <c r="S173">
-        <v>1.9</v>
-      </c>
-      <c r="T173">
-        <v>2</v>
-      </c>
-      <c r="U173">
-        <v>1.975</v>
-      </c>
-      <c r="V173">
-        <v>1.825</v>
-      </c>
-      <c r="W173">
-        <v>0.833</v>
-      </c>
-      <c r="X173">
-        <v>-1</v>
-      </c>
-      <c r="Y173">
-        <v>-1</v>
-      </c>
-      <c r="Z173">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA173">
-        <v>-1</v>
-      </c>
-      <c r="AB173">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC173">
-        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15942,10 +15942,10 @@
         <v>45184.60416666666</v>
       </c>
       <c r="F174" t="s">
+        <v>34</v>
+      </c>
+      <c r="G174" t="s">
         <v>33</v>
-      </c>
-      <c r="G174" t="s">
-        <v>34</v>
       </c>
       <c r="H174">
         <v>0</v>
@@ -16286,7 +16286,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7169682</v>
+        <v>7169683</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16298,13 +16298,13 @@
         <v>45188.60416666666</v>
       </c>
       <c r="F178" t="s">
+        <v>39</v>
+      </c>
+      <c r="G178" t="s">
         <v>34</v>
       </c>
-      <c r="G178" t="s">
-        <v>42</v>
-      </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178">
         <v>2</v>
@@ -16313,41 +16313,41 @@
         <v>47</v>
       </c>
       <c r="K178">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L178">
         <v>2.9</v>
       </c>
       <c r="M178">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="N178">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="O178">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="P178">
         <v>3</v>
       </c>
       <c r="Q178">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R178">
+        <v>2</v>
+      </c>
+      <c r="S178">
+        <v>1.8</v>
+      </c>
+      <c r="T178">
+        <v>2</v>
+      </c>
+      <c r="U178">
+        <v>2.025</v>
+      </c>
+      <c r="V178">
         <v>1.775</v>
       </c>
-      <c r="S178">
-        <v>2.025</v>
-      </c>
-      <c r="T178">
-        <v>1.75</v>
-      </c>
-      <c r="U178">
-        <v>1.925</v>
-      </c>
-      <c r="V178">
-        <v>1.875</v>
-      </c>
       <c r="W178">
         <v>-1</v>
       </c>
@@ -16361,13 +16361,13 @@
         <v>-1</v>
       </c>
       <c r="AA178">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB178">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC178">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16375,7 +16375,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>7169683</v>
+        <v>7169681</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16387,13 +16387,13 @@
         <v>45188.60416666666</v>
       </c>
       <c r="F179" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G179" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I179">
         <v>2</v>
@@ -16402,34 +16402,34 @@
         <v>47</v>
       </c>
       <c r="K179">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="L179">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M179">
-        <v>2.9</v>
+        <v>1.909</v>
       </c>
       <c r="N179">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="O179">
         <v>2.9</v>
       </c>
       <c r="P179">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="Q179">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R179">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="S179">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="T179">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U179">
         <v>2.025</v>
@@ -16444,19 +16444,19 @@
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>2</v>
+        <v>1.375</v>
       </c>
       <c r="Z179">
         <v>-1</v>
       </c>
       <c r="AA179">
-        <v>0.8</v>
+        <v>1.075</v>
       </c>
       <c r="AB179">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC179">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16464,7 +16464,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7169681</v>
+        <v>7169682</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16476,10 +16476,10 @@
         <v>45188.60416666666</v>
       </c>
       <c r="F180" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G180" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H180">
         <v>1</v>
@@ -16491,40 +16491,40 @@
         <v>47</v>
       </c>
       <c r="K180">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="L180">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M180">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="N180">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="O180">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="P180">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="Q180">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R180">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="S180">
-        <v>2.075</v>
+        <v>2.025</v>
       </c>
       <c r="T180">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U180">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V180">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W180">
         <v>-1</v>
@@ -16533,16 +16533,16 @@
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>1.375</v>
+        <v>2</v>
       </c>
       <c r="Z180">
         <v>-1</v>
       </c>
       <c r="AA180">
-        <v>1.075</v>
+        <v>1.025</v>
       </c>
       <c r="AB180">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AC180">
         <v>-1</v>
@@ -16553,7 +16553,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7169685</v>
+        <v>7170833</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16565,76 +16565,76 @@
         <v>45189.60416666666</v>
       </c>
       <c r="F181" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G181" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H181">
+        <v>0</v>
+      </c>
+      <c r="I181">
         <v>1</v>
       </c>
-      <c r="I181">
-        <v>0</v>
-      </c>
       <c r="J181" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K181">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="L181">
+        <v>2.875</v>
+      </c>
+      <c r="M181">
+        <v>2.5</v>
+      </c>
+      <c r="N181">
+        <v>3.4</v>
+      </c>
+      <c r="O181">
         <v>2.9</v>
       </c>
-      <c r="M181">
-        <v>3.75</v>
-      </c>
-      <c r="N181">
-        <v>1.909</v>
-      </c>
-      <c r="O181">
-        <v>2.875</v>
-      </c>
       <c r="P181">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q181">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R181">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S181">
+        <v>1.875</v>
+      </c>
+      <c r="T181">
+        <v>2</v>
+      </c>
+      <c r="U181">
         <v>1.8</v>
       </c>
-      <c r="T181">
-        <v>1.75</v>
-      </c>
-      <c r="U181">
-        <v>1.75</v>
-      </c>
       <c r="V181">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W181">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z181">
+        <v>-1</v>
+      </c>
+      <c r="AA181">
+        <v>0.875</v>
+      </c>
+      <c r="AB181">
+        <v>-1</v>
+      </c>
+      <c r="AC181">
         <v>1</v>
-      </c>
-      <c r="AA181">
-        <v>-1</v>
-      </c>
-      <c r="AB181">
-        <v>-1</v>
-      </c>
-      <c r="AC181">
-        <v>1.05</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16642,7 +16642,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7170833</v>
+        <v>7170834</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16654,76 +16654,76 @@
         <v>45189.60416666666</v>
       </c>
       <c r="F182" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G182" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H182">
         <v>0</v>
       </c>
       <c r="I182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K182">
+        <v>2.375</v>
+      </c>
+      <c r="L182">
         <v>2.75</v>
       </c>
-      <c r="L182">
-        <v>2.875</v>
-      </c>
       <c r="M182">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="N182">
-        <v>3.4</v>
+        <v>2.45</v>
       </c>
       <c r="O182">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="P182">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="Q182">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R182">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="S182">
-        <v>1.875</v>
+        <v>2.075</v>
       </c>
       <c r="T182">
         <v>2</v>
       </c>
       <c r="U182">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V182">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W182">
         <v>-1</v>
       </c>
       <c r="X182">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y182">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z182">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA182">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB182">
         <v>-1</v>
       </c>
       <c r="AC182">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16731,7 +16731,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7170834</v>
+        <v>7169684</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16743,76 +16743,76 @@
         <v>45189.60416666666</v>
       </c>
       <c r="F183" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G183" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H183">
         <v>0</v>
       </c>
       <c r="I183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K183">
         <v>2.375</v>
       </c>
       <c r="L183">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="M183">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="N183">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="O183">
         <v>2.7</v>
       </c>
       <c r="P183">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="Q183">
         <v>0</v>
       </c>
       <c r="R183">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S183">
-        <v>2.075</v>
+        <v>1.875</v>
       </c>
       <c r="T183">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U183">
+        <v>1.775</v>
+      </c>
+      <c r="V183">
         <v>2.025</v>
       </c>
-      <c r="V183">
-        <v>1.775</v>
-      </c>
       <c r="W183">
         <v>-1</v>
       </c>
       <c r="X183">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y183">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z183">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA183">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB183">
         <v>-1</v>
       </c>
       <c r="AC183">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16820,7 +16820,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7169684</v>
+        <v>7169685</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16832,76 +16832,76 @@
         <v>45189.60416666666</v>
       </c>
       <c r="F184" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G184" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J184" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K184">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="L184">
+        <v>2.9</v>
+      </c>
+      <c r="M184">
+        <v>3.75</v>
+      </c>
+      <c r="N184">
+        <v>1.909</v>
+      </c>
+      <c r="O184">
         <v>2.875</v>
       </c>
-      <c r="M184">
-        <v>2.875</v>
-      </c>
-      <c r="N184">
-        <v>2.7</v>
-      </c>
-      <c r="O184">
-        <v>2.7</v>
-      </c>
       <c r="P184">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="Q184">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R184">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S184">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T184">
         <v>1.75</v>
       </c>
       <c r="U184">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V184">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W184">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X184">
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z184">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA184">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB184">
         <v>-1</v>
       </c>
       <c r="AC184">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -17087,7 +17087,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7234870</v>
+        <v>7234871</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17099,13 +17099,13 @@
         <v>45196.60416666666</v>
       </c>
       <c r="F187" t="s">
+        <v>37</v>
+      </c>
+      <c r="G187" t="s">
         <v>31</v>
       </c>
-      <c r="G187" t="s">
-        <v>39</v>
-      </c>
       <c r="H187">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I187">
         <v>1</v>
@@ -17114,43 +17114,43 @@
         <v>49</v>
       </c>
       <c r="K187">
-        <v>1.333</v>
+        <v>1.85</v>
       </c>
       <c r="L187">
+        <v>3.1</v>
+      </c>
+      <c r="M187">
         <v>4.333</v>
       </c>
-      <c r="M187">
-        <v>8.5</v>
-      </c>
       <c r="N187">
-        <v>1.363</v>
+        <v>2.05</v>
       </c>
       <c r="O187">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="P187">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="Q187">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R187">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S187">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T187">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U187">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V187">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="W187">
-        <v>0.363</v>
+        <v>1.05</v>
       </c>
       <c r="X187">
         <v>-1</v>
@@ -17159,13 +17159,13 @@
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA187">
         <v>-1</v>
       </c>
       <c r="AB187">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AC187">
         <v>-1</v>
@@ -17176,7 +17176,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7234871</v>
+        <v>7234870</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17188,13 +17188,13 @@
         <v>45196.60416666666</v>
       </c>
       <c r="F188" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G188" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I188">
         <v>1</v>
@@ -17203,43 +17203,43 @@
         <v>49</v>
       </c>
       <c r="K188">
+        <v>1.333</v>
+      </c>
+      <c r="L188">
+        <v>4.333</v>
+      </c>
+      <c r="M188">
+        <v>8.5</v>
+      </c>
+      <c r="N188">
+        <v>1.363</v>
+      </c>
+      <c r="O188">
+        <v>4.2</v>
+      </c>
+      <c r="P188">
+        <v>8.5</v>
+      </c>
+      <c r="Q188">
+        <v>-1.25</v>
+      </c>
+      <c r="R188">
         <v>1.85</v>
       </c>
-      <c r="L188">
-        <v>3.1</v>
-      </c>
-      <c r="M188">
-        <v>4.333</v>
-      </c>
-      <c r="N188">
-        <v>2.05</v>
-      </c>
-      <c r="O188">
-        <v>2.875</v>
-      </c>
-      <c r="P188">
-        <v>4</v>
-      </c>
-      <c r="Q188">
-        <v>-0.5</v>
-      </c>
-      <c r="R188">
-        <v>2</v>
-      </c>
       <c r="S188">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T188">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U188">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V188">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="W188">
-        <v>1.05</v>
+        <v>0.363</v>
       </c>
       <c r="X188">
         <v>-1</v>
@@ -17248,13 +17248,13 @@
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA188">
         <v>-1</v>
       </c>
       <c r="AB188">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AC188">
         <v>-1</v>
@@ -17277,7 +17277,7 @@
         <v>45198.60416666666</v>
       </c>
       <c r="F189" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G189" t="s">
         <v>40</v>
@@ -17547,7 +17547,7 @@
         <v>38</v>
       </c>
       <c r="G192" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H192">
         <v>1</v>
@@ -17722,7 +17722,7 @@
         <v>45203.5</v>
       </c>
       <c r="F194" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G194" t="s">
         <v>42</v>
@@ -17888,7 +17888,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>7267512</v>
+        <v>7267513</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17900,55 +17900,55 @@
         <v>45203.60416666666</v>
       </c>
       <c r="F196" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G196" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H196">
+        <v>0</v>
+      </c>
+      <c r="I196">
         <v>1</v>
-      </c>
-      <c r="I196">
-        <v>2</v>
       </c>
       <c r="J196" t="s">
         <v>47</v>
       </c>
       <c r="K196">
-        <v>5</v>
+        <v>2.55</v>
       </c>
       <c r="L196">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="M196">
-        <v>1.7</v>
+        <v>2.875</v>
       </c>
       <c r="N196">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="O196">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="P196">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="Q196">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R196">
+        <v>1.925</v>
+      </c>
+      <c r="S196">
         <v>1.875</v>
       </c>
-      <c r="S196">
-        <v>1.925</v>
-      </c>
       <c r="T196">
         <v>2</v>
       </c>
       <c r="U196">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V196">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W196">
         <v>-1</v>
@@ -17957,19 +17957,19 @@
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="Z196">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA196">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AB196">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC196">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17977,7 +17977,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>7267513</v>
+        <v>7267512</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17989,55 +17989,55 @@
         <v>45203.60416666666</v>
       </c>
       <c r="F197" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G197" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J197" t="s">
         <v>47</v>
       </c>
       <c r="K197">
-        <v>2.55</v>
+        <v>5</v>
       </c>
       <c r="L197">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="M197">
-        <v>2.875</v>
+        <v>1.7</v>
       </c>
       <c r="N197">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="O197">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="P197">
-        <v>3.6</v>
+        <v>1.7</v>
       </c>
       <c r="Q197">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R197">
+        <v>1.875</v>
+      </c>
+      <c r="S197">
         <v>1.925</v>
       </c>
-      <c r="S197">
-        <v>1.875</v>
-      </c>
       <c r="T197">
         <v>2</v>
       </c>
       <c r="U197">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V197">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W197">
         <v>-1</v>
@@ -18046,19 +18046,19 @@
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="Z197">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA197">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AB197">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC197">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18078,7 +18078,7 @@
         <v>45204.60416666666</v>
       </c>
       <c r="F198" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G198" t="s">
         <v>35</v>
@@ -18167,7 +18167,7 @@
         <v>45207.4375</v>
       </c>
       <c r="F199" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G199" t="s">
         <v>46</v>
@@ -18701,7 +18701,7 @@
         <v>45228.4375</v>
       </c>
       <c r="F205" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G205" t="s">
         <v>29</v>
@@ -18867,7 +18867,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>7404428</v>
+        <v>7404431</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18879,58 +18879,58 @@
         <v>45237.60416666666</v>
       </c>
       <c r="F207" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G207" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H207">
+        <v>2</v>
+      </c>
+      <c r="I207">
         <v>1</v>
-      </c>
-      <c r="I207">
-        <v>0</v>
       </c>
       <c r="J207" t="s">
         <v>49</v>
       </c>
       <c r="K207">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="L207">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M207">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="N207">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="O207">
         <v>3</v>
       </c>
       <c r="P207">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="Q207">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R207">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S207">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T207">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U207">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V207">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="W207">
-        <v>2</v>
+        <v>0.909</v>
       </c>
       <c r="X207">
         <v>-1</v>
@@ -18939,16 +18939,16 @@
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AA207">
         <v>-1</v>
       </c>
       <c r="AB207">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC207">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18956,7 +18956,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7404430</v>
+        <v>7404428</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18968,58 +18968,58 @@
         <v>45237.60416666666</v>
       </c>
       <c r="F208" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G208" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J208" t="s">
         <v>49</v>
       </c>
       <c r="K208">
+        <v>3.4</v>
+      </c>
+      <c r="L208">
+        <v>3.1</v>
+      </c>
+      <c r="M208">
+        <v>2.1</v>
+      </c>
+      <c r="N208">
+        <v>3</v>
+      </c>
+      <c r="O208">
+        <v>3</v>
+      </c>
+      <c r="P208">
+        <v>2.3</v>
+      </c>
+      <c r="Q208">
+        <v>0.25</v>
+      </c>
+      <c r="R208">
         <v>1.75</v>
       </c>
-      <c r="L208">
-        <v>3.25</v>
-      </c>
-      <c r="M208">
-        <v>4.5</v>
-      </c>
-      <c r="N208">
-        <v>1.8</v>
-      </c>
-      <c r="O208">
-        <v>3.1</v>
-      </c>
-      <c r="P208">
-        <v>4.5</v>
-      </c>
-      <c r="Q208">
-        <v>-0.5</v>
-      </c>
-      <c r="R208">
-        <v>1.8</v>
-      </c>
       <c r="S208">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T208">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U208">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V208">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W208">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="X208">
         <v>-1</v>
@@ -19028,16 +19028,16 @@
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AA208">
         <v>-1</v>
       </c>
       <c r="AB208">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC208">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19045,7 +19045,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7404431</v>
+        <v>7404429</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19057,49 +19057,49 @@
         <v>45237.60416666666</v>
       </c>
       <c r="F209" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G209" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J209" t="s">
         <v>49</v>
       </c>
       <c r="K209">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="L209">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M209">
+        <v>4.75</v>
+      </c>
+      <c r="N209">
+        <v>1.65</v>
+      </c>
+      <c r="O209">
         <v>3.5</v>
       </c>
-      <c r="N209">
-        <v>1.909</v>
-      </c>
-      <c r="O209">
-        <v>3</v>
-      </c>
       <c r="P209">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q209">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R209">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S209">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T209">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U209">
         <v>1.925</v>
@@ -19108,7 +19108,7 @@
         <v>1.875</v>
       </c>
       <c r="W209">
-        <v>0.909</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X209">
         <v>-1</v>
@@ -19117,16 +19117,16 @@
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA209">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB209">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC209">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19134,7 +19134,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7404429</v>
+        <v>7404430</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19146,58 +19146,58 @@
         <v>45237.60416666666</v>
       </c>
       <c r="F210" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G210" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H210">
+        <v>2</v>
+      </c>
+      <c r="I210">
         <v>1</v>
-      </c>
-      <c r="I210">
-        <v>0</v>
       </c>
       <c r="J210" t="s">
         <v>49</v>
       </c>
       <c r="K210">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="L210">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M210">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="N210">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="O210">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P210">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q210">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R210">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S210">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T210">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U210">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V210">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W210">
-        <v>0.6499999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X210">
         <v>-1</v>
@@ -19206,16 +19206,16 @@
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
       <c r="AA210">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB210">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC210">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19324,7 +19324,7 @@
         <v>45238.60416666666</v>
       </c>
       <c r="F212" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G212" t="s">
         <v>38</v>
@@ -19579,7 +19579,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7404437</v>
+        <v>7404438</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19591,76 +19591,76 @@
         <v>45241.4375</v>
       </c>
       <c r="F215" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G215" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H215">
         <v>0</v>
       </c>
       <c r="I215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K215">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L215">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M215">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="N215">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O215">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="P215">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q215">
         <v>0</v>
       </c>
       <c r="R215">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S215">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T215">
         <v>2</v>
       </c>
       <c r="U215">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V215">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W215">
         <v>-1</v>
       </c>
       <c r="X215">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y215">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z215">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA215">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB215">
         <v>-1</v>
       </c>
       <c r="AC215">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19668,7 +19668,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7404438</v>
+        <v>7404437</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19680,76 +19680,76 @@
         <v>45241.4375</v>
       </c>
       <c r="F216" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G216" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H216">
         <v>0</v>
       </c>
       <c r="I216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K216">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L216">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M216">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="N216">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O216">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="P216">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="Q216">
         <v>0</v>
       </c>
       <c r="R216">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S216">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T216">
         <v>2</v>
       </c>
       <c r="U216">
+        <v>1.85</v>
+      </c>
+      <c r="V216">
+        <v>1.95</v>
+      </c>
+      <c r="W216">
+        <v>-1</v>
+      </c>
+      <c r="X216">
         <v>1.875</v>
       </c>
-      <c r="V216">
-        <v>1.925</v>
-      </c>
-      <c r="W216">
-        <v>-1</v>
-      </c>
-      <c r="X216">
-        <v>-1</v>
-      </c>
       <c r="Y216">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z216">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA216">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB216">
         <v>-1</v>
       </c>
       <c r="AC216">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19858,7 +19858,7 @@
         <v>45242.4375</v>
       </c>
       <c r="F218" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G218" t="s">
         <v>45</v>
@@ -20036,7 +20036,7 @@
         <v>45242.53125</v>
       </c>
       <c r="F220" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G220" t="s">
         <v>44</v>
@@ -20113,7 +20113,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>7404444</v>
+        <v>7404445</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20125,76 +20125,76 @@
         <v>45255.4375</v>
       </c>
       <c r="F221" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G221" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H221">
         <v>0</v>
       </c>
       <c r="I221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J221" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K221">
+        <v>5.25</v>
+      </c>
+      <c r="L221">
+        <v>3.4</v>
+      </c>
+      <c r="M221">
+        <v>1.65</v>
+      </c>
+      <c r="N221">
+        <v>4.2</v>
+      </c>
+      <c r="O221">
+        <v>3.2</v>
+      </c>
+      <c r="P221">
+        <v>1.85</v>
+      </c>
+      <c r="Q221">
+        <v>0.5</v>
+      </c>
+      <c r="R221">
+        <v>1.9</v>
+      </c>
+      <c r="S221">
+        <v>1.9</v>
+      </c>
+      <c r="T221">
+        <v>2</v>
+      </c>
+      <c r="U221">
+        <v>1.925</v>
+      </c>
+      <c r="V221">
+        <v>1.875</v>
+      </c>
+      <c r="W221">
+        <v>-1</v>
+      </c>
+      <c r="X221">
         <v>2.2</v>
       </c>
-      <c r="L221">
-        <v>3</v>
-      </c>
-      <c r="M221">
-        <v>3.25</v>
-      </c>
-      <c r="N221">
-        <v>2.7</v>
-      </c>
-      <c r="O221">
-        <v>2.8</v>
-      </c>
-      <c r="P221">
-        <v>2.75</v>
-      </c>
-      <c r="Q221">
-        <v>0</v>
-      </c>
-      <c r="R221">
-        <v>1.875</v>
-      </c>
-      <c r="S221">
-        <v>1.925</v>
-      </c>
-      <c r="T221">
-        <v>1.75</v>
-      </c>
-      <c r="U221">
-        <v>1.775</v>
-      </c>
-      <c r="V221">
-        <v>2.025</v>
-      </c>
-      <c r="W221">
-        <v>-1</v>
-      </c>
-      <c r="X221">
-        <v>-1</v>
-      </c>
       <c r="Y221">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z221">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA221">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB221">
         <v>-1</v>
       </c>
       <c r="AC221">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20202,7 +20202,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>7404445</v>
+        <v>7404444</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20214,76 +20214,76 @@
         <v>45255.4375</v>
       </c>
       <c r="F222" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G222" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H222">
         <v>0</v>
       </c>
       <c r="I222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J222" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K222">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="L222">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M222">
-        <v>1.65</v>
+        <v>3.25</v>
       </c>
       <c r="N222">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="O222">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="P222">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="Q222">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R222">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S222">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T222">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U222">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V222">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W222">
         <v>-1</v>
       </c>
       <c r="X222">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y222">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z222">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA222">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB222">
         <v>-1</v>
       </c>
       <c r="AC222">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20380,7 +20380,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>7404450</v>
+        <v>7404449</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20392,76 +20392,76 @@
         <v>45256.4375</v>
       </c>
       <c r="F224" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G224" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H224">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K224">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="L224">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M224">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="N224">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="O224">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="P224">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="Q224">
         <v>0</v>
       </c>
       <c r="R224">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="S224">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T224">
+        <v>2</v>
+      </c>
+      <c r="U224">
+        <v>2.05</v>
+      </c>
+      <c r="V224">
         <v>1.75</v>
       </c>
-      <c r="U224">
-        <v>1.75</v>
-      </c>
-      <c r="V224">
-        <v>2.05</v>
-      </c>
       <c r="W224">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X224">
         <v>-1</v>
       </c>
       <c r="Y224">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z224">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AA224">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB224">
+        <v>-1</v>
+      </c>
+      <c r="AC224">
         <v>0.75</v>
-      </c>
-      <c r="AC224">
-        <v>-1</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20469,7 +20469,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>7404449</v>
+        <v>7404450</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20481,76 +20481,76 @@
         <v>45256.4375</v>
       </c>
       <c r="F225" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G225" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J225" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K225">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="L225">
+        <v>2.875</v>
+      </c>
+      <c r="M225">
+        <v>2.4</v>
+      </c>
+      <c r="N225">
+        <v>2.5</v>
+      </c>
+      <c r="O225">
+        <v>2.75</v>
+      </c>
+      <c r="P225">
         <v>2.9</v>
       </c>
-      <c r="M225">
-        <v>2.9</v>
-      </c>
-      <c r="N225">
-        <v>2.75</v>
-      </c>
-      <c r="O225">
-        <v>2.7</v>
-      </c>
-      <c r="P225">
-        <v>2.8</v>
-      </c>
       <c r="Q225">
         <v>0</v>
       </c>
       <c r="R225">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="S225">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T225">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U225">
+        <v>1.75</v>
+      </c>
+      <c r="V225">
         <v>2.05</v>
       </c>
-      <c r="V225">
-        <v>1.75</v>
-      </c>
       <c r="W225">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X225">
         <v>-1</v>
       </c>
       <c r="Y225">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z225">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AA225">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB225">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC225">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20751,7 +20751,7 @@
         <v>44</v>
       </c>
       <c r="G228" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H228">
         <v>0</v>
@@ -20840,7 +20840,7 @@
         <v>41</v>
       </c>
       <c r="G229" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H229">
         <v>2</v>
@@ -20929,7 +20929,7 @@
         <v>40</v>
       </c>
       <c r="G230" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H230">
         <v>0</v>
@@ -21015,7 +21015,7 @@
         <v>45266.60416666666</v>
       </c>
       <c r="F231" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G231" t="s">
         <v>42</v>
@@ -21463,7 +21463,7 @@
         <v>30</v>
       </c>
       <c r="G236" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H236">
         <v>3</v>
@@ -21549,7 +21549,7 @@
         <v>45273.60416666666</v>
       </c>
       <c r="F237" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G237" t="s">
         <v>45</v>
@@ -21641,7 +21641,7 @@
         <v>40</v>
       </c>
       <c r="G238" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H238">
         <v>1</v>
@@ -21727,7 +21727,7 @@
         <v>45275.4375</v>
       </c>
       <c r="F239" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G239" t="s">
         <v>44</v>
@@ -21982,7 +21982,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>7477991</v>
+        <v>7479719</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -21994,76 +21994,76 @@
         <v>45283.4375</v>
       </c>
       <c r="F242" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G242" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H242">
         <v>0</v>
       </c>
       <c r="I242">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J242" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K242">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="L242">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M242">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="N242">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="O242">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="P242">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="Q242">
         <v>0</v>
       </c>
       <c r="R242">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S242">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T242">
         <v>2</v>
       </c>
       <c r="U242">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V242">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W242">
         <v>-1</v>
       </c>
       <c r="X242">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y242">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z242">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA242">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB242">
+        <v>0</v>
+      </c>
+      <c r="AC242">
         <v>-0</v>
-      </c>
-      <c r="AB242">
-        <v>-1</v>
-      </c>
-      <c r="AC242">
-        <v>0.825</v>
       </c>
     </row>
     <row r="243" spans="1:29">
@@ -22086,7 +22086,7 @@
         <v>37</v>
       </c>
       <c r="G243" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H243">
         <v>1</v>
@@ -22249,7 +22249,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>7479719</v>
+        <v>7477991</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22261,76 +22261,76 @@
         <v>45283.4375</v>
       </c>
       <c r="F245" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G245" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H245">
         <v>0</v>
       </c>
       <c r="I245">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J245" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K245">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="L245">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M245">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="N245">
+        <v>2.625</v>
+      </c>
+      <c r="O245">
+        <v>2.9</v>
+      </c>
+      <c r="P245">
         <v>2.7</v>
       </c>
-      <c r="O245">
-        <v>2.875</v>
-      </c>
-      <c r="P245">
-        <v>2.6</v>
-      </c>
       <c r="Q245">
         <v>0</v>
       </c>
       <c r="R245">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S245">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T245">
         <v>2</v>
       </c>
       <c r="U245">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V245">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W245">
         <v>-1</v>
       </c>
       <c r="X245">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y245">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z245">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA245">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB245">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC245">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -22442,7 +22442,7 @@
         <v>29</v>
       </c>
       <c r="G247" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H247">
         <v>0</v>
@@ -22795,7 +22795,7 @@
         <v>45290.4375</v>
       </c>
       <c r="F251" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G251" t="s">
         <v>44</v>
@@ -22884,7 +22884,7 @@
         <v>45290.53125</v>
       </c>
       <c r="F252" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G252" t="s">
         <v>46</v>
@@ -22973,7 +22973,7 @@
         <v>45290.625</v>
       </c>
       <c r="F253" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G253" t="s">
         <v>37</v>
@@ -23228,7 +23228,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>7577336</v>
+        <v>7577337</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23240,76 +23240,76 @@
         <v>45339.4375</v>
       </c>
       <c r="F256" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G256" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I256">
         <v>1</v>
       </c>
       <c r="J256" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K256">
         <v>3.1</v>
       </c>
       <c r="L256">
+        <v>2.8</v>
+      </c>
+      <c r="M256">
+        <v>2.45</v>
+      </c>
+      <c r="N256">
         <v>3.3</v>
       </c>
-      <c r="M256">
-        <v>2.15</v>
-      </c>
-      <c r="N256">
-        <v>4.333</v>
-      </c>
       <c r="O256">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="P256">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="Q256">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R256">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S256">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T256">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U256">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V256">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W256">
         <v>-1</v>
       </c>
       <c r="X256">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y256">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z256">
+        <v>0.3875</v>
+      </c>
+      <c r="AA256">
         <v>-0.5</v>
       </c>
-      <c r="AA256">
-        <v>0.475</v>
-      </c>
       <c r="AB256">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC256">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="257" spans="1:29">
@@ -23317,7 +23317,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>7577337</v>
+        <v>7577336</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23329,76 +23329,76 @@
         <v>45339.4375</v>
       </c>
       <c r="F257" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G257" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257">
         <v>1</v>
       </c>
       <c r="J257" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K257">
         <v>3.1</v>
       </c>
       <c r="L257">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="M257">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="N257">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="O257">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="P257">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="Q257">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R257">
+        <v>1.85</v>
+      </c>
+      <c r="S257">
+        <v>1.95</v>
+      </c>
+      <c r="T257">
+        <v>2.25</v>
+      </c>
+      <c r="U257">
+        <v>2.025</v>
+      </c>
+      <c r="V257">
         <v>1.775</v>
       </c>
-      <c r="S257">
-        <v>2.025</v>
-      </c>
-      <c r="T257">
-        <v>2</v>
-      </c>
-      <c r="U257">
-        <v>2</v>
-      </c>
-      <c r="V257">
-        <v>1.8</v>
-      </c>
       <c r="W257">
         <v>-1</v>
       </c>
       <c r="X257">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y257">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z257">
-        <v>0.3875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA257">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB257">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC257">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="258" spans="1:29">
@@ -23418,10 +23418,10 @@
         <v>45339.52083333334</v>
       </c>
       <c r="F258" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G258" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H258">
         <v>3</v>
@@ -23596,7 +23596,7 @@
         <v>45339.625</v>
       </c>
       <c r="F260" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G260" t="s">
         <v>41</v>
@@ -23863,7 +23863,7 @@
         <v>45349.60416666666</v>
       </c>
       <c r="F263" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G263" t="s">
         <v>40</v>
@@ -23952,31 +23952,31 @@
         <v>3.5</v>
       </c>
       <c r="N264">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O264">
         <v>2.875</v>
       </c>
       <c r="P264">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="Q264">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R264">
-        <v>2.075</v>
+        <v>1.775</v>
       </c>
       <c r="S264">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="T264">
         <v>2</v>
       </c>
       <c r="U264">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V264">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W264">
         <v>0</v>

--- a/South Africa Premier/South Africa Premier.xlsx
+++ b/South Africa Premier/South Africa Premier.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -121,10 +121,10 @@
     <t>Moroka Swallows</t>
   </si>
   <si>
-    <t>Golden Arrows</t>
+    <t>Marumo Gallants</t>
   </si>
   <si>
-    <t>Marumo Gallants</t>
+    <t>Golden Arrows</t>
   </si>
   <si>
     <t>Kaizer Chiefs</t>
@@ -151,10 +151,10 @@
     <t>Supersport United</t>
   </si>
   <si>
-    <t>Ajax Cape Town</t>
+    <t>Polokwane City</t>
   </si>
   <si>
-    <t>Polokwane City</t>
+    <t>Ajax Cape Town</t>
   </si>
   <si>
     <t>A</t>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC264"/>
+  <dimension ref="A1:AC265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -815,7 +815,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -1156,7 +1156,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5350180</v>
+        <v>5350181</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1171,73 +1171,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K8">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="L8">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="M8">
-        <v>2.4</v>
+        <v>2.875</v>
       </c>
       <c r="N8">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="O8">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="P8">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="Q8">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R8">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S8">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T8">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U8">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W8">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z8">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB8">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1245,7 +1245,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5350181</v>
+        <v>5350180</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1260,73 +1260,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K9">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="L9">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="M9">
-        <v>2.875</v>
+        <v>2.4</v>
       </c>
       <c r="N9">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="O9">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="P9">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q9">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R9">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S9">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T9">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U9">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V9">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA9">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC9">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1794,7 +1794,7 @@
         <v>39</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1957,7 +1957,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5349190</v>
+        <v>5350186</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1969,40 +1969,40 @@
         <v>44940.4375</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K17">
-        <v>1.727</v>
+        <v>2.625</v>
       </c>
       <c r="L17">
+        <v>3.2</v>
+      </c>
+      <c r="M17">
+        <v>2.5</v>
+      </c>
+      <c r="N17">
+        <v>2.2</v>
+      </c>
+      <c r="O17">
+        <v>2.875</v>
+      </c>
+      <c r="P17">
         <v>3.25</v>
       </c>
-      <c r="M17">
-        <v>5</v>
-      </c>
-      <c r="N17">
-        <v>1.85</v>
-      </c>
-      <c r="O17">
-        <v>3.3</v>
-      </c>
-      <c r="P17">
-        <v>3.8</v>
-      </c>
       <c r="Q17">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R17">
         <v>1.925</v>
@@ -2011,34 +2011,34 @@
         <v>1.875</v>
       </c>
       <c r="T17">
+        <v>1.75</v>
+      </c>
+      <c r="U17">
+        <v>1.9</v>
+      </c>
+      <c r="V17">
+        <v>1.9</v>
+      </c>
+      <c r="W17">
+        <v>-1</v>
+      </c>
+      <c r="X17">
+        <v>-1</v>
+      </c>
+      <c r="Y17">
         <v>2.25</v>
       </c>
-      <c r="U17">
-        <v>2.025</v>
-      </c>
-      <c r="V17">
-        <v>1.775</v>
-      </c>
-      <c r="W17">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X17">
-        <v>-1</v>
-      </c>
-      <c r="Y17">
-        <v>-1</v>
-      </c>
       <c r="Z17">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB17">
-        <v>1.025</v>
+        <v>0.45</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2046,7 +2046,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5350186</v>
+        <v>5349190</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2058,40 +2058,40 @@
         <v>44940.4375</v>
       </c>
       <c r="F18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" t="s">
         <v>36</v>
       </c>
-      <c r="G18" t="s">
-        <v>33</v>
-      </c>
       <c r="H18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K18">
-        <v>2.625</v>
+        <v>1.727</v>
       </c>
       <c r="L18">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M18">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="N18">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="O18">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="P18">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q18">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R18">
         <v>1.925</v>
@@ -2100,34 +2100,34 @@
         <v>1.875</v>
       </c>
       <c r="T18">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U18">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V18">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA18">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
-        <v>0.45</v>
+        <v>1.025</v>
       </c>
       <c r="AC18">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2135,7 +2135,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5350187</v>
+        <v>5350188</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2147,76 +2147,76 @@
         <v>44940.52083333334</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K19">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M19">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="N19">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="O19">
+        <v>2.8</v>
+      </c>
+      <c r="P19">
         <v>3.1</v>
       </c>
-      <c r="P19">
-        <v>2.15</v>
-      </c>
       <c r="Q19">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R19">
+        <v>2.05</v>
+      </c>
+      <c r="S19">
+        <v>1.75</v>
+      </c>
+      <c r="T19">
+        <v>1.75</v>
+      </c>
+      <c r="U19">
+        <v>1.825</v>
+      </c>
+      <c r="V19">
         <v>1.975</v>
       </c>
-      <c r="S19">
-        <v>1.825</v>
-      </c>
-      <c r="T19">
-        <v>2</v>
-      </c>
-      <c r="U19">
-        <v>1.85</v>
-      </c>
-      <c r="V19">
-        <v>1.95</v>
-      </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
+        <v>-1</v>
+      </c>
+      <c r="Y19">
         <v>2.1</v>
       </c>
-      <c r="Y19">
-        <v>-1</v>
-      </c>
       <c r="Z19">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2224,7 +2224,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5350188</v>
+        <v>5350187</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2236,76 +2236,76 @@
         <v>44940.52083333334</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="L20">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M20">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="N20">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="O20">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P20">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q20">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R20">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S20">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T20">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U20">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V20">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y20">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA20">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC20">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2580,7 +2580,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5350195</v>
+        <v>5350192</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2592,10 +2592,10 @@
         <v>44946.60416666666</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2607,43 +2607,43 @@
         <v>49</v>
       </c>
       <c r="K24">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="L24">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="M24">
         <v>3.8</v>
       </c>
       <c r="N24">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O24">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="P24">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q24">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S24">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T24">
         <v>1.75</v>
       </c>
       <c r="U24">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V24">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W24">
-        <v>0.909</v>
+        <v>1.1</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -2652,7 +2652,7 @@
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA24">
         <v>-1</v>
@@ -2661,7 +2661,7 @@
         <v>-1</v>
       </c>
       <c r="AC24">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2669,7 +2669,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5350192</v>
+        <v>5350195</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2681,10 +2681,10 @@
         <v>44946.60416666666</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G25" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2696,43 +2696,43 @@
         <v>49</v>
       </c>
       <c r="K25">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="L25">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="M25">
         <v>3.8</v>
       </c>
       <c r="N25">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O25">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="P25">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q25">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R25">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S25">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T25">
         <v>1.75</v>
       </c>
       <c r="U25">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V25">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W25">
-        <v>1.1</v>
+        <v>0.909</v>
       </c>
       <c r="X25">
         <v>-1</v>
@@ -2741,7 +2741,7 @@
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA25">
         <v>-1</v>
@@ -2750,7 +2750,7 @@
         <v>-1</v>
       </c>
       <c r="AC25">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2758,7 +2758,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5350194</v>
+        <v>5350193</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2770,76 +2770,76 @@
         <v>44947.4375</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K26">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L26">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M26">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N26">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="O26">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P26">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Q26">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R26">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S26">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T26">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U26">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="V26">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="W26">
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z26">
         <v>-1</v>
       </c>
       <c r="AA26">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2847,7 +2847,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5350193</v>
+        <v>5350194</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2859,76 +2859,76 @@
         <v>44947.4375</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K27">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L27">
+        <v>3.2</v>
+      </c>
+      <c r="M27">
         <v>3</v>
       </c>
-      <c r="M27">
+      <c r="N27">
+        <v>1.833</v>
+      </c>
+      <c r="O27">
         <v>3.1</v>
       </c>
-      <c r="N27">
+      <c r="P27">
+        <v>4</v>
+      </c>
+      <c r="Q27">
+        <v>-0.5</v>
+      </c>
+      <c r="R27">
+        <v>1.875</v>
+      </c>
+      <c r="S27">
+        <v>1.925</v>
+      </c>
+      <c r="T27">
+        <v>2</v>
+      </c>
+      <c r="U27">
+        <v>2.025</v>
+      </c>
+      <c r="V27">
+        <v>1.775</v>
+      </c>
+      <c r="W27">
+        <v>-1</v>
+      </c>
+      <c r="X27">
         <v>2.1</v>
       </c>
-      <c r="O27">
-        <v>2.9</v>
-      </c>
-      <c r="P27">
-        <v>3.4</v>
-      </c>
-      <c r="Q27">
-        <v>-0.25</v>
-      </c>
-      <c r="R27">
-        <v>1.825</v>
-      </c>
-      <c r="S27">
-        <v>1.975</v>
-      </c>
-      <c r="T27">
-        <v>1.75</v>
-      </c>
-      <c r="U27">
-        <v>1.75</v>
-      </c>
-      <c r="V27">
-        <v>2.05</v>
-      </c>
-      <c r="W27">
-        <v>-1</v>
-      </c>
-      <c r="X27">
-        <v>-1</v>
-      </c>
       <c r="Y27">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
         <v>-1</v>
       </c>
       <c r="AA27">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC27">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2951,7 +2951,7 @@
         <v>40</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -3393,10 +3393,10 @@
         <v>44951.60416666666</v>
       </c>
       <c r="F33" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" t="s">
         <v>35</v>
-      </c>
-      <c r="G33" t="s">
-        <v>36</v>
       </c>
       <c r="H33">
         <v>3</v>
@@ -3749,7 +3749,7 @@
         <v>44954.625</v>
       </c>
       <c r="F37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G37" t="s">
         <v>41</v>
@@ -4004,7 +4004,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5350213</v>
+        <v>5350212</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4016,13 +4016,13 @@
         <v>44955.52083333334</v>
       </c>
       <c r="F40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G40" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -4031,43 +4031,43 @@
         <v>49</v>
       </c>
       <c r="K40">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="L40">
+        <v>2.8</v>
+      </c>
+      <c r="M40">
+        <v>4.75</v>
+      </c>
+      <c r="N40">
+        <v>1.833</v>
+      </c>
+      <c r="O40">
         <v>2.9</v>
       </c>
-      <c r="M40">
-        <v>3.2</v>
-      </c>
-      <c r="N40">
-        <v>2.5</v>
-      </c>
-      <c r="O40">
-        <v>2.7</v>
-      </c>
       <c r="P40">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R40">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="S40">
-        <v>2.075</v>
+        <v>1.85</v>
       </c>
       <c r="T40">
         <v>2</v>
       </c>
       <c r="U40">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V40">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W40">
-        <v>1.5</v>
+        <v>0.833</v>
       </c>
       <c r="X40">
         <v>-1</v>
@@ -4076,16 +4076,16 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.7250000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA40">
         <v>-1</v>
       </c>
       <c r="AB40">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4093,7 +4093,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5350212</v>
+        <v>5350213</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4105,13 +4105,13 @@
         <v>44955.52083333334</v>
       </c>
       <c r="F41" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G41" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -4120,43 +4120,43 @@
         <v>49</v>
       </c>
       <c r="K41">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="L41">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="M41">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="N41">
-        <v>1.833</v>
+        <v>2.5</v>
       </c>
       <c r="O41">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="P41">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="Q41">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R41">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="S41">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="T41">
         <v>2</v>
       </c>
       <c r="U41">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V41">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W41">
-        <v>0.833</v>
+        <v>1.5</v>
       </c>
       <c r="X41">
         <v>-1</v>
@@ -4165,16 +4165,16 @@
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.95</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA41">
         <v>-1</v>
       </c>
       <c r="AB41">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC41">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4360,7 +4360,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5350216</v>
+        <v>5349193</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4372,56 +4372,56 @@
         <v>44961.4375</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G44" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
         <v>1</v>
-      </c>
-      <c r="I44">
-        <v>2</v>
       </c>
       <c r="J44" t="s">
         <v>47</v>
       </c>
       <c r="K44">
-        <v>2.55</v>
+        <v>5</v>
       </c>
       <c r="L44">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M44">
-        <v>2.625</v>
+        <v>1.615</v>
       </c>
       <c r="N44">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="O44">
         <v>3</v>
       </c>
       <c r="P44">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R44">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S44">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T44">
         <v>2</v>
       </c>
       <c r="U44">
+        <v>1.95</v>
+      </c>
+      <c r="V44">
         <v>1.85</v>
       </c>
-      <c r="V44">
-        <v>1.95</v>
-      </c>
       <c r="W44">
         <v>-1</v>
       </c>
@@ -4429,19 +4429,19 @@
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="Z44">
         <v>-1</v>
       </c>
       <c r="AA44">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB44">
+        <v>-1</v>
+      </c>
+      <c r="AC44">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC44">
-        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4449,7 +4449,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5349193</v>
+        <v>5350215</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4461,55 +4461,55 @@
         <v>44961.4375</v>
       </c>
       <c r="F45" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G45" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J45" t="s">
         <v>47</v>
       </c>
       <c r="K45">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="L45">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="M45">
-        <v>1.615</v>
+        <v>3</v>
       </c>
       <c r="N45">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="O45">
         <v>3</v>
       </c>
       <c r="P45">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q45">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R45">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S45">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T45">
         <v>2</v>
       </c>
       <c r="U45">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V45">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W45">
         <v>-1</v>
@@ -4518,19 +4518,19 @@
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="Z45">
         <v>-1</v>
       </c>
       <c r="AA45">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC45">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4538,7 +4538,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>5350215</v>
+        <v>5350216</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4550,10 +4550,10 @@
         <v>44961.4375</v>
       </c>
       <c r="F46" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -4565,40 +4565,40 @@
         <v>47</v>
       </c>
       <c r="K46">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="L46">
         <v>2.9</v>
       </c>
       <c r="M46">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="N46">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="O46">
         <v>3</v>
       </c>
       <c r="P46">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="Q46">
         <v>0</v>
       </c>
       <c r="R46">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S46">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T46">
         <v>2</v>
       </c>
       <c r="U46">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V46">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W46">
         <v>-1</v>
@@ -4607,16 +4607,16 @@
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="Z46">
         <v>-1</v>
       </c>
       <c r="AA46">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB46">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -4728,7 +4728,7 @@
         <v>44961.625</v>
       </c>
       <c r="F48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G48" t="s">
         <v>31</v>
@@ -5265,7 +5265,7 @@
         <v>37</v>
       </c>
       <c r="G54" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H54">
         <v>2</v>
@@ -5606,7 +5606,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5350229</v>
+        <v>6179860</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5618,31 +5618,31 @@
         <v>44982.52083333334</v>
       </c>
       <c r="F58" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G58" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
         <v>1</v>
-      </c>
-      <c r="I58">
-        <v>2</v>
       </c>
       <c r="J58" t="s">
         <v>47</v>
       </c>
       <c r="K58">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L58">
         <v>2.875</v>
       </c>
       <c r="M58">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N58">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="O58">
         <v>2.75</v>
@@ -5654,19 +5654,19 @@
         <v>0</v>
       </c>
       <c r="R58">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="S58">
-        <v>2.075</v>
+        <v>2.05</v>
       </c>
       <c r="T58">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U58">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V58">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W58">
         <v>-1</v>
@@ -5681,13 +5681,13 @@
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>1.075</v>
+        <v>1.05</v>
       </c>
       <c r="AB58">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5695,7 +5695,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6179860</v>
+        <v>5350229</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5707,31 +5707,31 @@
         <v>44982.52083333334</v>
       </c>
       <c r="F59" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G59" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J59" t="s">
         <v>47</v>
       </c>
       <c r="K59">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L59">
         <v>2.875</v>
       </c>
       <c r="M59">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N59">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="O59">
         <v>2.75</v>
@@ -5743,19 +5743,19 @@
         <v>0</v>
       </c>
       <c r="R59">
+        <v>1.725</v>
+      </c>
+      <c r="S59">
+        <v>2.075</v>
+      </c>
+      <c r="T59">
         <v>1.75</v>
       </c>
-      <c r="S59">
-        <v>2.05</v>
-      </c>
-      <c r="T59">
-        <v>2</v>
-      </c>
       <c r="U59">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V59">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W59">
         <v>-1</v>
@@ -5770,13 +5770,13 @@
         <v>-1</v>
       </c>
       <c r="AA59">
-        <v>1.05</v>
+        <v>1.075</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC59">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -6318,7 +6318,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6335029</v>
+        <v>5350240</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6330,76 +6330,76 @@
         <v>44990.4375</v>
       </c>
       <c r="F66" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G66" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K66">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="L66">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="M66">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="N66">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="O66">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P66">
-        <v>1.666</v>
+        <v>2.3</v>
       </c>
       <c r="Q66">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R66">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="S66">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="T66">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U66">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V66">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W66">
         <v>-1</v>
       </c>
       <c r="X66">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y66">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z66">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA66">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AB66">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC66">
-        <v>0.4875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6419,7 +6419,7 @@
         <v>44990.4375</v>
       </c>
       <c r="F67" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G67" t="s">
         <v>38</v>
@@ -6496,7 +6496,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5350240</v>
+        <v>6335029</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6508,76 +6508,76 @@
         <v>44990.4375</v>
       </c>
       <c r="F68" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G68" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K68">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="L68">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M68">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="N68">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="O68">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P68">
-        <v>2.3</v>
+        <v>1.666</v>
       </c>
       <c r="Q68">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R68">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S68">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="T68">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U68">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V68">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W68">
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y68">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA68">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC68">
-        <v>-0</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6600,7 +6600,7 @@
         <v>44</v>
       </c>
       <c r="G69" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H69">
         <v>2</v>
@@ -6674,7 +6674,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>5350243</v>
+        <v>5350248</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6686,40 +6686,40 @@
         <v>44999.60416666666</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G70" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H70">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K70">
-        <v>1.363</v>
+        <v>1.8</v>
       </c>
       <c r="L70">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="M70">
-        <v>8.5</v>
+        <v>4.75</v>
       </c>
       <c r="N70">
-        <v>1.285</v>
+        <v>1.833</v>
       </c>
       <c r="O70">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P70">
-        <v>9</v>
+        <v>4.333</v>
       </c>
       <c r="Q70">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R70">
         <v>1.875</v>
@@ -6728,31 +6728,31 @@
         <v>1.925</v>
       </c>
       <c r="T70">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U70">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V70">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W70">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X70">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB70">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC70">
         <v>-1</v>
@@ -6763,7 +6763,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>5350248</v>
+        <v>5350243</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6775,40 +6775,40 @@
         <v>44999.60416666666</v>
       </c>
       <c r="F71" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G71" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K71">
-        <v>1.8</v>
+        <v>1.363</v>
       </c>
       <c r="L71">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="M71">
-        <v>4.75</v>
+        <v>8.5</v>
       </c>
       <c r="N71">
-        <v>1.833</v>
+        <v>1.285</v>
       </c>
       <c r="O71">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P71">
-        <v>4.333</v>
+        <v>9</v>
       </c>
       <c r="Q71">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R71">
         <v>1.875</v>
@@ -6817,31 +6817,31 @@
         <v>1.925</v>
       </c>
       <c r="T71">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U71">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V71">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W71">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X71">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y71">
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA71">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC71">
         <v>-1</v>
@@ -6956,7 +6956,7 @@
         <v>34</v>
       </c>
       <c r="G73" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7475,7 +7475,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>5350252</v>
+        <v>6461126</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7487,49 +7487,49 @@
         <v>45017.52083333334</v>
       </c>
       <c r="F79" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G79" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79">
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K79">
-        <v>1.85</v>
+        <v>4</v>
       </c>
       <c r="L79">
         <v>3</v>
       </c>
       <c r="M79">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="N79">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O79">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P79">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q79">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R79">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S79">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T79">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U79">
         <v>1.925</v>
@@ -7538,25 +7538,25 @@
         <v>1.875</v>
       </c>
       <c r="W79">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X79">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y79">
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA79">
         <v>-1</v>
       </c>
       <c r="AB79">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7564,7 +7564,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6461126</v>
+        <v>5350252</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7576,49 +7576,49 @@
         <v>45017.52083333334</v>
       </c>
       <c r="F80" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80">
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K80">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="L80">
         <v>3</v>
       </c>
       <c r="M80">
-        <v>1.909</v>
+        <v>4.2</v>
       </c>
       <c r="N80">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O80">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P80">
-        <v>1.85</v>
+        <v>3.5</v>
       </c>
       <c r="Q80">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R80">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S80">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T80">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U80">
         <v>1.925</v>
@@ -7627,25 +7627,25 @@
         <v>1.875</v>
       </c>
       <c r="W80">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X80">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y80">
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA80">
         <v>-1</v>
       </c>
       <c r="AB80">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC80">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7754,7 +7754,7 @@
         <v>45018.41666666666</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G82" t="s">
         <v>31</v>
@@ -8021,7 +8021,7 @@
         <v>45021.60416666666</v>
       </c>
       <c r="F85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G85" t="s">
         <v>30</v>
@@ -8202,7 +8202,7 @@
         <v>33</v>
       </c>
       <c r="G87" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -8276,7 +8276,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>5350258</v>
+        <v>5349199</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8288,76 +8288,76 @@
         <v>45024.52083333334</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G88" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K88">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="L88">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M88">
-        <v>4.333</v>
+        <v>1.85</v>
       </c>
       <c r="N88">
-        <v>1.909</v>
+        <v>5.5</v>
       </c>
       <c r="O88">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P88">
-        <v>4</v>
+        <v>1.65</v>
       </c>
       <c r="Q88">
+        <v>0.75</v>
+      </c>
+      <c r="R88">
+        <v>1.95</v>
+      </c>
+      <c r="S88">
+        <v>1.85</v>
+      </c>
+      <c r="T88">
+        <v>2.25</v>
+      </c>
+      <c r="U88">
+        <v>2.075</v>
+      </c>
+      <c r="V88">
+        <v>1.725</v>
+      </c>
+      <c r="W88">
+        <v>-1</v>
+      </c>
+      <c r="X88">
+        <v>-1</v>
+      </c>
+      <c r="Y88">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="Z88">
+        <v>-1</v>
+      </c>
+      <c r="AA88">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB88">
         <v>-0.5</v>
       </c>
-      <c r="R88">
-        <v>2.025</v>
-      </c>
-      <c r="S88">
-        <v>1.775</v>
-      </c>
-      <c r="T88">
-        <v>2</v>
-      </c>
-      <c r="U88">
-        <v>2.05</v>
-      </c>
-      <c r="V88">
-        <v>1.75</v>
-      </c>
-      <c r="W88">
-        <v>0.909</v>
-      </c>
-      <c r="X88">
-        <v>-1</v>
-      </c>
-      <c r="Y88">
-        <v>-1</v>
-      </c>
-      <c r="Z88">
-        <v>1.025</v>
-      </c>
-      <c r="AA88">
-        <v>-1</v>
-      </c>
-      <c r="AB88">
-        <v>-1</v>
-      </c>
       <c r="AC88">
-        <v>0.75</v>
+        <v>0.3625</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8365,7 +8365,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>5349199</v>
+        <v>5350258</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8377,76 +8377,76 @@
         <v>45024.52083333334</v>
       </c>
       <c r="F89" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G89" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K89">
+        <v>1.909</v>
+      </c>
+      <c r="L89">
+        <v>2.9</v>
+      </c>
+      <c r="M89">
         <v>4.333</v>
       </c>
-      <c r="L89">
-        <v>3</v>
-      </c>
-      <c r="M89">
-        <v>1.85</v>
-      </c>
       <c r="N89">
-        <v>5.5</v>
+        <v>1.909</v>
       </c>
       <c r="O89">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P89">
-        <v>1.65</v>
+        <v>4</v>
       </c>
       <c r="Q89">
+        <v>-0.5</v>
+      </c>
+      <c r="R89">
+        <v>2.025</v>
+      </c>
+      <c r="S89">
+        <v>1.775</v>
+      </c>
+      <c r="T89">
+        <v>2</v>
+      </c>
+      <c r="U89">
+        <v>2.05</v>
+      </c>
+      <c r="V89">
+        <v>1.75</v>
+      </c>
+      <c r="W89">
+        <v>0.909</v>
+      </c>
+      <c r="X89">
+        <v>-1</v>
+      </c>
+      <c r="Y89">
+        <v>-1</v>
+      </c>
+      <c r="Z89">
+        <v>1.025</v>
+      </c>
+      <c r="AA89">
+        <v>-1</v>
+      </c>
+      <c r="AB89">
+        <v>-1</v>
+      </c>
+      <c r="AC89">
         <v>0.75</v>
-      </c>
-      <c r="R89">
-        <v>1.95</v>
-      </c>
-      <c r="S89">
-        <v>1.85</v>
-      </c>
-      <c r="T89">
-        <v>2.25</v>
-      </c>
-      <c r="U89">
-        <v>2.075</v>
-      </c>
-      <c r="V89">
-        <v>1.725</v>
-      </c>
-      <c r="W89">
-        <v>-1</v>
-      </c>
-      <c r="X89">
-        <v>-1</v>
-      </c>
-      <c r="Y89">
-        <v>0.6499999999999999</v>
-      </c>
-      <c r="Z89">
-        <v>-1</v>
-      </c>
-      <c r="AA89">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB89">
-        <v>-0.5</v>
-      </c>
-      <c r="AC89">
-        <v>0.3625</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8469,7 +8469,7 @@
         <v>37</v>
       </c>
       <c r="G90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8822,7 +8822,7 @@
         <v>45028.60416666666</v>
       </c>
       <c r="F94" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G94" t="s">
         <v>42</v>
@@ -8911,7 +8911,7 @@
         <v>45028.60416666666</v>
       </c>
       <c r="F95" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G95" t="s">
         <v>32</v>
@@ -9000,7 +9000,7 @@
         <v>45034.60416666666</v>
       </c>
       <c r="F96" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G96" t="s">
         <v>44</v>
@@ -9166,7 +9166,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>5350266</v>
+        <v>5349200</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9178,76 +9178,76 @@
         <v>45038.41666666666</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G98" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98">
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K98">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="L98">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="M98">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N98">
+        <v>1.833</v>
+      </c>
+      <c r="O98">
+        <v>3.3</v>
+      </c>
+      <c r="P98">
+        <v>3.8</v>
+      </c>
+      <c r="Q98">
+        <v>-0.5</v>
+      </c>
+      <c r="R98">
+        <v>1.9</v>
+      </c>
+      <c r="S98">
+        <v>1.9</v>
+      </c>
+      <c r="T98">
         <v>2.25</v>
       </c>
-      <c r="O98">
-        <v>2.8</v>
-      </c>
-      <c r="P98">
-        <v>3.2</v>
-      </c>
-      <c r="Q98">
-        <v>-0.25</v>
-      </c>
-      <c r="R98">
-        <v>1.95</v>
-      </c>
-      <c r="S98">
-        <v>1.85</v>
-      </c>
-      <c r="T98">
-        <v>2</v>
-      </c>
       <c r="U98">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V98">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X98">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA98">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC98">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9255,7 +9255,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>5349200</v>
+        <v>5350266</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9267,76 +9267,76 @@
         <v>45038.41666666666</v>
       </c>
       <c r="F99" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99">
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K99">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="L99">
+        <v>2.75</v>
+      </c>
+      <c r="M99">
         <v>3.2</v>
       </c>
-      <c r="M99">
-        <v>4</v>
-      </c>
       <c r="N99">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="O99">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="P99">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q99">
+        <v>-0.25</v>
+      </c>
+      <c r="R99">
+        <v>1.95</v>
+      </c>
+      <c r="S99">
+        <v>1.85</v>
+      </c>
+      <c r="T99">
+        <v>2</v>
+      </c>
+      <c r="U99">
+        <v>1.775</v>
+      </c>
+      <c r="V99">
+        <v>2.025</v>
+      </c>
+      <c r="W99">
+        <v>-1</v>
+      </c>
+      <c r="X99">
+        <v>1.8</v>
+      </c>
+      <c r="Y99">
+        <v>-1</v>
+      </c>
+      <c r="Z99">
         <v>-0.5</v>
       </c>
-      <c r="R99">
-        <v>1.9</v>
-      </c>
-      <c r="S99">
-        <v>1.9</v>
-      </c>
-      <c r="T99">
-        <v>2.25</v>
-      </c>
-      <c r="U99">
-        <v>1.975</v>
-      </c>
-      <c r="V99">
-        <v>1.825</v>
-      </c>
-      <c r="W99">
-        <v>0.833</v>
-      </c>
-      <c r="X99">
-        <v>-1</v>
-      </c>
-      <c r="Y99">
-        <v>-1</v>
-      </c>
-      <c r="Z99">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB99">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC99">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9982,7 +9982,7 @@
         <v>39</v>
       </c>
       <c r="G107" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H107">
         <v>5</v>
@@ -10679,7 +10679,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>5350280</v>
+        <v>5350279</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10691,76 +10691,76 @@
         <v>45049.60416666666</v>
       </c>
       <c r="F115" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G115" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J115" t="s">
         <v>48</v>
       </c>
       <c r="K115">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L115">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M115">
-        <v>1.666</v>
+        <v>3.5</v>
       </c>
       <c r="N115">
-        <v>4.75</v>
+        <v>1.833</v>
       </c>
       <c r="O115">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P115">
-        <v>1.65</v>
+        <v>4.333</v>
       </c>
       <c r="Q115">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R115">
+        <v>1.85</v>
+      </c>
+      <c r="S115">
         <v>1.95</v>
-      </c>
-      <c r="S115">
-        <v>1.85</v>
       </c>
       <c r="T115">
         <v>2.25</v>
       </c>
       <c r="U115">
+        <v>2</v>
+      </c>
+      <c r="V115">
         <v>1.8</v>
       </c>
-      <c r="V115">
-        <v>2</v>
-      </c>
       <c r="W115">
         <v>-1</v>
       </c>
       <c r="X115">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
+        <v>-1</v>
+      </c>
+      <c r="AA115">
         <v>0.95</v>
       </c>
-      <c r="AA115">
-        <v>-1</v>
-      </c>
       <c r="AB115">
+        <v>-1</v>
+      </c>
+      <c r="AC115">
         <v>0.8</v>
-      </c>
-      <c r="AC115">
-        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10768,7 +10768,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6588907</v>
+        <v>5350280</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10780,10 +10780,10 @@
         <v>45049.60416666666</v>
       </c>
       <c r="F116" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G116" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H116">
         <v>2</v>
@@ -10795,58 +10795,58 @@
         <v>48</v>
       </c>
       <c r="K116">
-        <v>2.625</v>
+        <v>5</v>
       </c>
       <c r="L116">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="M116">
-        <v>2.9</v>
+        <v>1.666</v>
       </c>
       <c r="N116">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="O116">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="P116">
-        <v>2.55</v>
+        <v>1.65</v>
       </c>
       <c r="Q116">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R116">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S116">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T116">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U116">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V116">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA116">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC116">
         <v>-1</v>
@@ -10857,7 +10857,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>5350279</v>
+        <v>6588907</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10869,76 +10869,76 @@
         <v>45049.60416666666</v>
       </c>
       <c r="F117" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G117" t="s">
         <v>35</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J117" t="s">
         <v>48</v>
       </c>
       <c r="K117">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="L117">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="M117">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="N117">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="O117">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="P117">
-        <v>4.333</v>
+        <v>2.55</v>
       </c>
       <c r="Q117">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R117">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S117">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T117">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U117">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V117">
+        <v>1.825</v>
+      </c>
+      <c r="W117">
+        <v>-1</v>
+      </c>
+      <c r="X117">
         <v>1.8</v>
       </c>
-      <c r="W117">
-        <v>-1</v>
-      </c>
-      <c r="X117">
-        <v>2.25</v>
-      </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA117">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB117">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC117">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10958,7 +10958,7 @@
         <v>45052.58333333334</v>
       </c>
       <c r="F118" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G118" t="s">
         <v>32</v>
@@ -11035,7 +11035,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>5350289</v>
+        <v>5350287</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11047,13 +11047,13 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F119" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G119" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H119">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I119">
         <v>0</v>
@@ -11062,43 +11062,43 @@
         <v>49</v>
       </c>
       <c r="K119">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="L119">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M119">
-        <v>3.75</v>
+        <v>2.55</v>
       </c>
       <c r="N119">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="O119">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P119">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="Q119">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R119">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S119">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T119">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U119">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V119">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W119">
-        <v>0.909</v>
+        <v>1.25</v>
       </c>
       <c r="X119">
         <v>-1</v>
@@ -11107,16 +11107,16 @@
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AA119">
         <v>-1</v>
       </c>
       <c r="AB119">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11124,7 +11124,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>5350286</v>
+        <v>5350289</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11136,13 +11136,13 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F120" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G120" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I120">
         <v>0</v>
@@ -11151,61 +11151,61 @@
         <v>49</v>
       </c>
       <c r="K120">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="L120">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M120">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="N120">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="O120">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P120">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q120">
         <v>-0.5</v>
       </c>
       <c r="R120">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S120">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T120">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U120">
+        <v>1.85</v>
+      </c>
+      <c r="V120">
         <v>1.95</v>
       </c>
-      <c r="V120">
-        <v>1.85</v>
-      </c>
       <c r="W120">
+        <v>0.909</v>
+      </c>
+      <c r="X120">
+        <v>-1</v>
+      </c>
+      <c r="Y120">
+        <v>-1</v>
+      </c>
+      <c r="Z120">
+        <v>0.95</v>
+      </c>
+      <c r="AA120">
+        <v>-1</v>
+      </c>
+      <c r="AB120">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X120">
-        <v>-1</v>
-      </c>
-      <c r="Y120">
-        <v>-1</v>
-      </c>
-      <c r="Z120">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA120">
-        <v>-1</v>
-      </c>
-      <c r="AB120">
-        <v>-0.5</v>
-      </c>
       <c r="AC120">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11213,7 +11213,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>5350284</v>
+        <v>5350288</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11225,76 +11225,76 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F121" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G121" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
         <v>1</v>
       </c>
-      <c r="I121">
-        <v>0</v>
-      </c>
       <c r="J121" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K121">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L121">
         <v>2.9</v>
       </c>
       <c r="M121">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N121">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="O121">
         <v>2.75</v>
       </c>
       <c r="P121">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="Q121">
         <v>0</v>
       </c>
       <c r="R121">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S121">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T121">
         <v>2</v>
       </c>
       <c r="U121">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V121">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W121">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z121">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB121">
         <v>-1</v>
       </c>
       <c r="AC121">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11302,7 +11302,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>5349203</v>
+        <v>5350290</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11314,76 +11314,76 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F122" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G122" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H122">
         <v>1</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K122">
-        <v>1.55</v>
+        <v>2.05</v>
       </c>
       <c r="L122">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M122">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="N122">
+        <v>2.4</v>
+      </c>
+      <c r="O122">
+        <v>2.875</v>
+      </c>
+      <c r="P122">
+        <v>2.9</v>
+      </c>
+      <c r="Q122">
+        <v>0</v>
+      </c>
+      <c r="R122">
+        <v>1.75</v>
+      </c>
+      <c r="S122">
+        <v>2.05</v>
+      </c>
+      <c r="T122">
+        <v>2</v>
+      </c>
+      <c r="U122">
+        <v>1.85</v>
+      </c>
+      <c r="V122">
+        <v>1.95</v>
+      </c>
+      <c r="W122">
         <v>1.4</v>
       </c>
-      <c r="O122">
-        <v>3.8</v>
-      </c>
-      <c r="P122">
-        <v>7.5</v>
-      </c>
-      <c r="Q122">
-        <v>-1.25</v>
-      </c>
-      <c r="R122">
-        <v>1.975</v>
-      </c>
-      <c r="S122">
-        <v>1.825</v>
-      </c>
-      <c r="T122">
-        <v>2</v>
-      </c>
-      <c r="U122">
-        <v>1.75</v>
-      </c>
-      <c r="V122">
-        <v>2.05</v>
-      </c>
-      <c r="W122">
-        <v>-1</v>
-      </c>
       <c r="X122">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA122">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC122">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11391,7 +11391,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>5350288</v>
+        <v>5350286</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11403,76 +11403,76 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F123" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G123" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K123">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="L123">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M123">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="N123">
-        <v>2.6</v>
+        <v>1.85</v>
       </c>
       <c r="O123">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="P123">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="Q123">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R123">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S123">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T123">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U123">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V123">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W123">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA123">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC123">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11480,7 +11480,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>5350290</v>
+        <v>5350284</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11492,10 +11492,10 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F124" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G124" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -11507,31 +11507,31 @@
         <v>49</v>
       </c>
       <c r="K124">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="L124">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M124">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="N124">
-        <v>2.4</v>
+        <v>2.625</v>
       </c>
       <c r="O124">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="P124">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="Q124">
         <v>0</v>
       </c>
       <c r="R124">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S124">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T124">
         <v>2</v>
@@ -11543,7 +11543,7 @@
         <v>1.95</v>
       </c>
       <c r="W124">
-        <v>1.4</v>
+        <v>1.625</v>
       </c>
       <c r="X124">
         <v>-1</v>
@@ -11552,7 +11552,7 @@
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.75</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA124">
         <v>-1</v>
@@ -11569,7 +11569,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>5350287</v>
+        <v>5349203</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11581,76 +11581,76 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F125" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G125" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H125">
         <v>1</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K125">
-        <v>2.625</v>
+        <v>1.55</v>
       </c>
       <c r="L125">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="M125">
-        <v>2.55</v>
+        <v>6</v>
       </c>
       <c r="N125">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="O125">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="P125">
-        <v>2.9</v>
+        <v>7.5</v>
       </c>
       <c r="Q125">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R125">
+        <v>1.975</v>
+      </c>
+      <c r="S125">
+        <v>1.825</v>
+      </c>
+      <c r="T125">
+        <v>2</v>
+      </c>
+      <c r="U125">
+        <v>1.75</v>
+      </c>
+      <c r="V125">
         <v>2.05</v>
       </c>
-      <c r="S125">
-        <v>1.75</v>
-      </c>
-      <c r="T125">
-        <v>2.25</v>
-      </c>
-      <c r="U125">
-        <v>2</v>
-      </c>
-      <c r="V125">
-        <v>1.8</v>
-      </c>
       <c r="W125">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC125">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11747,7 +11747,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>5349204</v>
+        <v>5350291</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11759,76 +11759,76 @@
         <v>45066.41666666666</v>
       </c>
       <c r="F127" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G127" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H127">
         <v>0</v>
       </c>
       <c r="I127">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K127">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="L127">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M127">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="N127">
-        <v>6</v>
+        <v>1.95</v>
       </c>
       <c r="O127">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P127">
-        <v>1.571</v>
+        <v>3.8</v>
       </c>
       <c r="Q127">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R127">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S127">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T127">
         <v>2.25</v>
       </c>
       <c r="U127">
+        <v>1.95</v>
+      </c>
+      <c r="V127">
         <v>1.85</v>
       </c>
-      <c r="V127">
-        <v>1.95</v>
-      </c>
       <c r="W127">
         <v>-1</v>
       </c>
       <c r="X127">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y127">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z127">
         <v>-1</v>
       </c>
       <c r="AA127">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB127">
+        <v>-1</v>
+      </c>
+      <c r="AC127">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC127">
-        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11836,7 +11836,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>5350291</v>
+        <v>5349204</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11848,76 +11848,76 @@
         <v>45066.41666666666</v>
       </c>
       <c r="F128" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G128" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H128">
         <v>0</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J128" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K128">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="L128">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M128">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="N128">
-        <v>1.95</v>
+        <v>6</v>
       </c>
       <c r="O128">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P128">
-        <v>3.8</v>
+        <v>1.571</v>
       </c>
       <c r="Q128">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R128">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S128">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T128">
         <v>2.25</v>
       </c>
       <c r="U128">
+        <v>1.85</v>
+      </c>
+      <c r="V128">
         <v>1.95</v>
       </c>
-      <c r="V128">
-        <v>1.85</v>
-      </c>
       <c r="W128">
         <v>-1</v>
       </c>
       <c r="X128">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z128">
         <v>-1</v>
       </c>
       <c r="AA128">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB128">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC128">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11925,7 +11925,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>5350300</v>
+        <v>5350296</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11937,76 +11937,76 @@
         <v>45066.41666666666</v>
       </c>
       <c r="F129" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G129" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129">
         <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K129">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="L129">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M129">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N129">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="O129">
+        <v>3.6</v>
+      </c>
+      <c r="P129">
+        <v>4.2</v>
+      </c>
+      <c r="Q129">
+        <v>-0.75</v>
+      </c>
+      <c r="R129">
+        <v>2</v>
+      </c>
+      <c r="S129">
+        <v>1.8</v>
+      </c>
+      <c r="T129">
+        <v>2.5</v>
+      </c>
+      <c r="U129">
+        <v>1.925</v>
+      </c>
+      <c r="V129">
+        <v>1.875</v>
+      </c>
+      <c r="W129">
+        <v>-1</v>
+      </c>
+      <c r="X129">
+        <v>-1</v>
+      </c>
+      <c r="Y129">
         <v>3.2</v>
       </c>
-      <c r="P129">
-        <v>3.4</v>
-      </c>
-      <c r="Q129">
-        <v>-0.25</v>
-      </c>
-      <c r="R129">
-        <v>1.775</v>
-      </c>
-      <c r="S129">
-        <v>2.025</v>
-      </c>
-      <c r="T129">
-        <v>2.25</v>
-      </c>
-      <c r="U129">
-        <v>2</v>
-      </c>
-      <c r="V129">
-        <v>1.8</v>
-      </c>
-      <c r="W129">
-        <v>1.05</v>
-      </c>
-      <c r="X129">
-        <v>-1</v>
-      </c>
-      <c r="Y129">
-        <v>-1</v>
-      </c>
       <c r="Z129">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA129">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB129">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC129">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12014,7 +12014,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>5350296</v>
+        <v>5350298</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12026,76 +12026,76 @@
         <v>45066.41666666666</v>
       </c>
       <c r="F130" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G130" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K130">
+        <v>2.875</v>
+      </c>
+      <c r="L130">
+        <v>2.875</v>
+      </c>
+      <c r="M130">
+        <v>2.5</v>
+      </c>
+      <c r="N130">
+        <v>3.25</v>
+      </c>
+      <c r="O130">
+        <v>2.9</v>
+      </c>
+      <c r="P130">
+        <v>2.25</v>
+      </c>
+      <c r="Q130">
+        <v>0.25</v>
+      </c>
+      <c r="R130">
+        <v>1.85</v>
+      </c>
+      <c r="S130">
         <v>1.95</v>
       </c>
-      <c r="L130">
-        <v>3.2</v>
-      </c>
-      <c r="M130">
-        <v>3.75</v>
-      </c>
-      <c r="N130">
-        <v>1.75</v>
-      </c>
-      <c r="O130">
-        <v>3.6</v>
-      </c>
-      <c r="P130">
-        <v>4.2</v>
-      </c>
-      <c r="Q130">
-        <v>-0.75</v>
-      </c>
-      <c r="R130">
-        <v>2</v>
-      </c>
-      <c r="S130">
-        <v>1.8</v>
-      </c>
       <c r="T130">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U130">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V130">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA130">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC130">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>5350298</v>
+        <v>5350299</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,40 +12204,40 @@
         <v>45066.41666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G132" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132">
         <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K132">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="L132">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M132">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="N132">
+        <v>1.615</v>
+      </c>
+      <c r="O132">
         <v>3.25</v>
       </c>
-      <c r="O132">
-        <v>2.9</v>
-      </c>
       <c r="P132">
-        <v>2.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q132">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R132">
         <v>1.85</v>
@@ -12246,34 +12246,34 @@
         <v>1.95</v>
       </c>
       <c r="T132">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U132">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V132">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W132">
+        <v>-1</v>
+      </c>
+      <c r="X132">
         <v>2.25</v>
       </c>
-      <c r="X132">
-        <v>-1</v>
-      </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB132">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>5350299</v>
+        <v>5350300</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,46 +12293,46 @@
         <v>45066.41666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G133" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K133">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L133">
         <v>3</v>
       </c>
       <c r="M133">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="N133">
-        <v>1.615</v>
+        <v>2.05</v>
       </c>
       <c r="O133">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P133">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q133">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R133">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S133">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T133">
         <v>2.25</v>
@@ -12344,25 +12344,25 @@
         <v>1.8</v>
       </c>
       <c r="W133">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X133">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA133">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC133">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12471,7 +12471,7 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F135" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G135" t="s">
         <v>34</v>
@@ -12815,7 +12815,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6961782</v>
+        <v>6961781</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12827,40 +12827,40 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F139" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G139" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139">
         <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K139">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="L139">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M139">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N139">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="O139">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P139">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q139">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R139">
         <v>1.85</v>
@@ -12872,31 +12872,31 @@
         <v>2</v>
       </c>
       <c r="U139">
+        <v>1.975</v>
+      </c>
+      <c r="V139">
         <v>1.825</v>
       </c>
-      <c r="V139">
-        <v>1.975</v>
-      </c>
       <c r="W139">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X139">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA139">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
         <v>-1</v>
       </c>
       <c r="AC139">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12904,7 +12904,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6961781</v>
+        <v>6961782</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12916,40 +12916,40 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G140" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140">
         <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K140">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="L140">
+        <v>3.3</v>
+      </c>
+      <c r="M140">
+        <v>7</v>
+      </c>
+      <c r="N140">
+        <v>1.65</v>
+      </c>
+      <c r="O140">
         <v>3.1</v>
       </c>
-      <c r="M140">
-        <v>4</v>
-      </c>
-      <c r="N140">
-        <v>2.05</v>
-      </c>
-      <c r="O140">
-        <v>2.8</v>
-      </c>
       <c r="P140">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q140">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R140">
         <v>1.85</v>
@@ -12961,31 +12961,31 @@
         <v>2</v>
       </c>
       <c r="U140">
+        <v>1.825</v>
+      </c>
+      <c r="V140">
         <v>1.975</v>
       </c>
-      <c r="V140">
-        <v>1.825</v>
-      </c>
       <c r="W140">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X140">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB140">
         <v>-1</v>
       </c>
       <c r="AC140">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13008,7 +13008,7 @@
         <v>29</v>
       </c>
       <c r="G141" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -13097,7 +13097,7 @@
         <v>33</v>
       </c>
       <c r="G142" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13527,7 +13527,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7007761</v>
+        <v>7007759</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13542,73 +13542,73 @@
         <v>45</v>
       </c>
       <c r="G147" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K147">
         <v>3</v>
       </c>
       <c r="L147">
+        <v>3.1</v>
+      </c>
+      <c r="M147">
+        <v>2.25</v>
+      </c>
+      <c r="N147">
+        <v>2.875</v>
+      </c>
+      <c r="O147">
         <v>3</v>
       </c>
-      <c r="M147">
-        <v>2.3</v>
-      </c>
-      <c r="N147">
-        <v>2.7</v>
-      </c>
-      <c r="O147">
-        <v>2.625</v>
-      </c>
       <c r="P147">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q147">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R147">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="S147">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="T147">
         <v>2</v>
       </c>
       <c r="U147">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V147">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W147">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X147">
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA147">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB147">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13616,7 +13616,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7007760</v>
+        <v>7007761</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13628,76 +13628,76 @@
         <v>45147.60416666666</v>
       </c>
       <c r="F148" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G148" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H148">
         <v>0</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J148" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K148">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="L148">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M148">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="N148">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="O148">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="P148">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q148">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R148">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="S148">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="T148">
+        <v>2</v>
+      </c>
+      <c r="U148">
+        <v>2.025</v>
+      </c>
+      <c r="V148">
+        <v>1.775</v>
+      </c>
+      <c r="W148">
+        <v>-1</v>
+      </c>
+      <c r="X148">
+        <v>-1</v>
+      </c>
+      <c r="Y148">
         <v>1.75</v>
       </c>
-      <c r="U148">
-        <v>1.825</v>
-      </c>
-      <c r="V148">
-        <v>1.975</v>
-      </c>
-      <c r="W148">
-        <v>-1</v>
-      </c>
-      <c r="X148">
-        <v>1.8</v>
-      </c>
-      <c r="Y148">
-        <v>-1</v>
-      </c>
       <c r="Z148">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA148">
-        <v>0.3625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC148">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7007759</v>
+        <v>7007760</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13717,76 +13717,76 @@
         <v>45147.60416666666</v>
       </c>
       <c r="F149" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G149" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149">
         <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K149">
+        <v>2.4</v>
+      </c>
+      <c r="L149">
+        <v>2.9</v>
+      </c>
+      <c r="M149">
         <v>3</v>
       </c>
-      <c r="L149">
-        <v>3.1</v>
-      </c>
-      <c r="M149">
-        <v>2.25</v>
-      </c>
       <c r="N149">
-        <v>2.875</v>
+        <v>2.4</v>
       </c>
       <c r="O149">
+        <v>2.8</v>
+      </c>
+      <c r="P149">
         <v>3</v>
       </c>
-      <c r="P149">
-        <v>2.45</v>
-      </c>
       <c r="Q149">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R149">
+        <v>2.075</v>
+      </c>
+      <c r="S149">
         <v>1.725</v>
       </c>
-      <c r="S149">
-        <v>2.075</v>
-      </c>
       <c r="T149">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U149">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V149">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W149">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X149">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y149">
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.7250000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA149">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
       <c r="AB149">
         <v>-1</v>
       </c>
       <c r="AC149">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13809,7 +13809,7 @@
         <v>32</v>
       </c>
       <c r="G150" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H150">
         <v>4</v>
@@ -14251,10 +14251,10 @@
         <v>45157.41666666666</v>
       </c>
       <c r="F155" t="s">
+        <v>45</v>
+      </c>
+      <c r="G155" t="s">
         <v>46</v>
-      </c>
-      <c r="G155" t="s">
-        <v>45</v>
       </c>
       <c r="H155">
         <v>3</v>
@@ -14785,7 +14785,7 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F161" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G161" t="s">
         <v>42</v>
@@ -14874,10 +14874,10 @@
         <v>45164.41666666666</v>
       </c>
       <c r="F162" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G162" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H162">
         <v>3</v>
@@ -15233,7 +15233,7 @@
         <v>44</v>
       </c>
       <c r="G166" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H166">
         <v>0</v>
@@ -15408,7 +15408,7 @@
         <v>45168.5</v>
       </c>
       <c r="F168" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G168" t="s">
         <v>32</v>
@@ -15485,7 +15485,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>7078411</v>
+        <v>7078413</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15497,76 +15497,76 @@
         <v>45168.60416666666</v>
       </c>
       <c r="F169" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G169" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I169">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K169">
         <v>2.6</v>
       </c>
       <c r="L169">
+        <v>2.75</v>
+      </c>
+      <c r="M169">
+        <v>2.9</v>
+      </c>
+      <c r="N169">
         <v>3.1</v>
       </c>
-      <c r="M169">
-        <v>2.6</v>
-      </c>
-      <c r="N169">
-        <v>2.4</v>
-      </c>
       <c r="O169">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="P169">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="Q169">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R169">
-        <v>2.075</v>
+        <v>1.7</v>
       </c>
       <c r="S169">
-        <v>1.725</v>
+        <v>2.1</v>
       </c>
       <c r="T169">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U169">
+        <v>1.775</v>
+      </c>
+      <c r="V169">
         <v>2.025</v>
       </c>
-      <c r="V169">
-        <v>1.775</v>
-      </c>
       <c r="W169">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X169">
         <v>-1</v>
       </c>
       <c r="Y169">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z169">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AA169">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB169">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC169">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15574,7 +15574,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>7078413</v>
+        <v>7078409</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15586,76 +15586,76 @@
         <v>45168.60416666666</v>
       </c>
       <c r="F170" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G170" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I170">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J170" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K170">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="L170">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="M170">
+        <v>3.25</v>
+      </c>
+      <c r="N170">
+        <v>2.15</v>
+      </c>
+      <c r="O170">
         <v>2.9</v>
       </c>
-      <c r="N170">
-        <v>3.1</v>
-      </c>
-      <c r="O170">
-        <v>2.8</v>
-      </c>
       <c r="P170">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q170">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R170">
-        <v>1.7</v>
+        <v>1.825</v>
       </c>
       <c r="S170">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="T170">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U170">
+        <v>2.025</v>
+      </c>
+      <c r="V170">
         <v>1.775</v>
       </c>
-      <c r="V170">
-        <v>2.025</v>
-      </c>
       <c r="W170">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X170">
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z170">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AA170">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB170">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC170">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15678,7 +15678,7 @@
         <v>34</v>
       </c>
       <c r="G171" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H171">
         <v>3</v>
@@ -15752,7 +15752,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>7078409</v>
+        <v>7078410</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15764,49 +15764,49 @@
         <v>45168.60416666666</v>
       </c>
       <c r="F172" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G172" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I172">
+        <v>1</v>
+      </c>
+      <c r="J172" t="s">
+        <v>48</v>
+      </c>
+      <c r="K172">
+        <v>2.7</v>
+      </c>
+      <c r="L172">
+        <v>3.1</v>
+      </c>
+      <c r="M172">
+        <v>2.5</v>
+      </c>
+      <c r="N172">
         <v>3</v>
       </c>
-      <c r="J172" t="s">
-        <v>47</v>
-      </c>
-      <c r="K172">
-        <v>2.3</v>
-      </c>
-      <c r="L172">
+      <c r="O172">
         <v>2.875</v>
       </c>
-      <c r="M172">
-        <v>3.25</v>
-      </c>
-      <c r="N172">
-        <v>2.15</v>
-      </c>
-      <c r="O172">
-        <v>2.9</v>
-      </c>
       <c r="P172">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q172">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R172">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S172">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T172">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U172">
         <v>2.025</v>
@@ -15818,22 +15818,22 @@
         <v>-1</v>
       </c>
       <c r="X172">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y172">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z172">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA172">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB172">
-        <v>1.025</v>
+        <v>0.5125</v>
       </c>
       <c r="AC172">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15841,7 +15841,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7078410</v>
+        <v>7078411</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15853,49 +15853,49 @@
         <v>45168.60416666666</v>
       </c>
       <c r="F173" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G173" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J173" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K173">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="L173">
         <v>3.1</v>
       </c>
       <c r="M173">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="N173">
+        <v>2.4</v>
+      </c>
+      <c r="O173">
+        <v>2.75</v>
+      </c>
+      <c r="P173">
         <v>3</v>
       </c>
-      <c r="O173">
-        <v>2.875</v>
-      </c>
-      <c r="P173">
-        <v>2.4</v>
-      </c>
       <c r="Q173">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R173">
-        <v>2.05</v>
+        <v>2.075</v>
       </c>
       <c r="S173">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="T173">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U173">
         <v>2.025</v>
@@ -15907,22 +15907,22 @@
         <v>-1</v>
       </c>
       <c r="X173">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y173">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z173">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA173">
+        <v>0.7250000000000001</v>
+      </c>
+      <c r="AB173">
+        <v>0</v>
+      </c>
+      <c r="AC173">
         <v>-0</v>
-      </c>
-      <c r="AB173">
-        <v>0.5125</v>
-      </c>
-      <c r="AC173">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -16031,7 +16031,7 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F175" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G175" t="s">
         <v>39</v>
@@ -16286,7 +16286,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7169683</v>
+        <v>7169682</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16298,13 +16298,13 @@
         <v>45188.60416666666</v>
       </c>
       <c r="F178" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G178" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I178">
         <v>2</v>
@@ -16313,40 +16313,40 @@
         <v>47</v>
       </c>
       <c r="K178">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="L178">
         <v>2.9</v>
       </c>
       <c r="M178">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="N178">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="O178">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="P178">
         <v>3</v>
       </c>
       <c r="Q178">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R178">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S178">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T178">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U178">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V178">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W178">
         <v>-1</v>
@@ -16361,13 +16361,13 @@
         <v>-1</v>
       </c>
       <c r="AA178">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB178">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC178">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16375,7 +16375,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>7169681</v>
+        <v>7169683</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16387,13 +16387,13 @@
         <v>45188.60416666666</v>
       </c>
       <c r="F179" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G179" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179">
         <v>2</v>
@@ -16402,34 +16402,34 @@
         <v>47</v>
       </c>
       <c r="K179">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="L179">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M179">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="N179">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="O179">
         <v>2.9</v>
       </c>
       <c r="P179">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="Q179">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R179">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="S179">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="T179">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U179">
         <v>2.025</v>
@@ -16444,19 +16444,19 @@
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>1.375</v>
+        <v>2</v>
       </c>
       <c r="Z179">
         <v>-1</v>
       </c>
       <c r="AA179">
-        <v>1.075</v>
+        <v>0.8</v>
       </c>
       <c r="AB179">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC179">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16464,7 +16464,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7169682</v>
+        <v>7169681</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16476,10 +16476,10 @@
         <v>45188.60416666666</v>
       </c>
       <c r="F180" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G180" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H180">
         <v>1</v>
@@ -16491,41 +16491,41 @@
         <v>47</v>
       </c>
       <c r="K180">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="L180">
+        <v>3.2</v>
+      </c>
+      <c r="M180">
+        <v>1.909</v>
+      </c>
+      <c r="N180">
+        <v>2.875</v>
+      </c>
+      <c r="O180">
         <v>2.9</v>
       </c>
-      <c r="M180">
-        <v>2.75</v>
-      </c>
-      <c r="N180">
-        <v>2.5</v>
-      </c>
-      <c r="O180">
-        <v>2.7</v>
-      </c>
       <c r="P180">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="Q180">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R180">
+        <v>1.725</v>
+      </c>
+      <c r="S180">
+        <v>2.075</v>
+      </c>
+      <c r="T180">
+        <v>2.25</v>
+      </c>
+      <c r="U180">
+        <v>2.025</v>
+      </c>
+      <c r="V180">
         <v>1.775</v>
       </c>
-      <c r="S180">
-        <v>2.025</v>
-      </c>
-      <c r="T180">
-        <v>1.75</v>
-      </c>
-      <c r="U180">
-        <v>1.925</v>
-      </c>
-      <c r="V180">
-        <v>1.875</v>
-      </c>
       <c r="W180">
         <v>-1</v>
       </c>
@@ -16533,16 +16533,16 @@
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>2</v>
+        <v>1.375</v>
       </c>
       <c r="Z180">
         <v>-1</v>
       </c>
       <c r="AA180">
+        <v>1.075</v>
+      </c>
+      <c r="AB180">
         <v>1.025</v>
-      </c>
-      <c r="AB180">
-        <v>0.925</v>
       </c>
       <c r="AC180">
         <v>-1</v>
@@ -16731,7 +16731,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7169684</v>
+        <v>7169685</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16743,76 +16743,76 @@
         <v>45189.60416666666</v>
       </c>
       <c r="F183" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G183" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K183">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="L183">
+        <v>2.9</v>
+      </c>
+      <c r="M183">
+        <v>3.75</v>
+      </c>
+      <c r="N183">
+        <v>1.909</v>
+      </c>
+      <c r="O183">
         <v>2.875</v>
       </c>
-      <c r="M183">
-        <v>2.875</v>
-      </c>
-      <c r="N183">
-        <v>2.7</v>
-      </c>
-      <c r="O183">
-        <v>2.7</v>
-      </c>
       <c r="P183">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="Q183">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R183">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S183">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T183">
         <v>1.75</v>
       </c>
       <c r="U183">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V183">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W183">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X183">
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z183">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA183">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB183">
         <v>-1</v>
       </c>
       <c r="AC183">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16820,7 +16820,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7169685</v>
+        <v>7169684</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16832,76 +16832,76 @@
         <v>45189.60416666666</v>
       </c>
       <c r="F184" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G184" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H184">
+        <v>0</v>
+      </c>
+      <c r="I184">
         <v>1</v>
       </c>
-      <c r="I184">
-        <v>0</v>
-      </c>
       <c r="J184" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K184">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="L184">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M184">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="N184">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="O184">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="P184">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="Q184">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R184">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S184">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T184">
         <v>1.75</v>
       </c>
       <c r="U184">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V184">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W184">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X184">
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z184">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA184">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB184">
         <v>-1</v>
       </c>
       <c r="AC184">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16921,7 +16921,7 @@
         <v>45194.41666666666</v>
       </c>
       <c r="F185" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G185" t="s">
         <v>40</v>
@@ -17087,7 +17087,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7234871</v>
+        <v>7234870</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17099,13 +17099,13 @@
         <v>45196.60416666666</v>
       </c>
       <c r="F187" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G187" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I187">
         <v>1</v>
@@ -17114,43 +17114,43 @@
         <v>49</v>
       </c>
       <c r="K187">
+        <v>1.333</v>
+      </c>
+      <c r="L187">
+        <v>4.333</v>
+      </c>
+      <c r="M187">
+        <v>8.5</v>
+      </c>
+      <c r="N187">
+        <v>1.363</v>
+      </c>
+      <c r="O187">
+        <v>4.2</v>
+      </c>
+      <c r="P187">
+        <v>8.5</v>
+      </c>
+      <c r="Q187">
+        <v>-1.25</v>
+      </c>
+      <c r="R187">
         <v>1.85</v>
       </c>
-      <c r="L187">
-        <v>3.1</v>
-      </c>
-      <c r="M187">
-        <v>4.333</v>
-      </c>
-      <c r="N187">
-        <v>2.05</v>
-      </c>
-      <c r="O187">
-        <v>2.875</v>
-      </c>
-      <c r="P187">
-        <v>4</v>
-      </c>
-      <c r="Q187">
-        <v>-0.5</v>
-      </c>
-      <c r="R187">
-        <v>2</v>
-      </c>
       <c r="S187">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T187">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U187">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V187">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="W187">
-        <v>1.05</v>
+        <v>0.363</v>
       </c>
       <c r="X187">
         <v>-1</v>
@@ -17159,13 +17159,13 @@
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA187">
         <v>-1</v>
       </c>
       <c r="AB187">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AC187">
         <v>-1</v>
@@ -17176,7 +17176,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7234870</v>
+        <v>7234871</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17188,13 +17188,13 @@
         <v>45196.60416666666</v>
       </c>
       <c r="F188" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G188" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H188">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I188">
         <v>1</v>
@@ -17203,43 +17203,43 @@
         <v>49</v>
       </c>
       <c r="K188">
-        <v>1.333</v>
+        <v>1.85</v>
       </c>
       <c r="L188">
+        <v>3.1</v>
+      </c>
+      <c r="M188">
         <v>4.333</v>
       </c>
-      <c r="M188">
-        <v>8.5</v>
-      </c>
       <c r="N188">
-        <v>1.363</v>
+        <v>2.05</v>
       </c>
       <c r="O188">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="P188">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="Q188">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R188">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S188">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T188">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U188">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V188">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="W188">
-        <v>0.363</v>
+        <v>1.05</v>
       </c>
       <c r="X188">
         <v>-1</v>
@@ -17248,13 +17248,13 @@
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA188">
         <v>-1</v>
       </c>
       <c r="AB188">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AC188">
         <v>-1</v>
@@ -17369,7 +17369,7 @@
         <v>29</v>
       </c>
       <c r="G190" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H190">
         <v>3</v>
@@ -17455,7 +17455,7 @@
         <v>45199.52083333334</v>
       </c>
       <c r="F191" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G191" t="s">
         <v>30</v>
@@ -17799,7 +17799,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>7267510</v>
+        <v>7267512</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17811,73 +17811,73 @@
         <v>45203.60416666666</v>
       </c>
       <c r="F195" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G195" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H195">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I195">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J195" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K195">
-        <v>2.35</v>
+        <v>5</v>
       </c>
       <c r="L195">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="M195">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="N195">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="O195">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="P195">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="Q195">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R195">
+        <v>1.875</v>
+      </c>
+      <c r="S195">
+        <v>1.925</v>
+      </c>
+      <c r="T195">
+        <v>2</v>
+      </c>
+      <c r="U195">
+        <v>1.825</v>
+      </c>
+      <c r="V195">
         <v>1.975</v>
       </c>
-      <c r="S195">
-        <v>1.825</v>
-      </c>
-      <c r="T195">
-        <v>2</v>
-      </c>
-      <c r="U195">
-        <v>1.85</v>
-      </c>
-      <c r="V195">
-        <v>1.95</v>
-      </c>
       <c r="W195">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X195">
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z195">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA195">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB195">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC195">
         <v>-1</v>
@@ -17888,7 +17888,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>7267513</v>
+        <v>7267510</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17900,76 +17900,76 @@
         <v>45203.60416666666</v>
       </c>
       <c r="F196" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G196" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K196">
-        <v>2.55</v>
+        <v>2.35</v>
       </c>
       <c r="L196">
         <v>2.875</v>
       </c>
       <c r="M196">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="N196">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O196">
         <v>2.875</v>
       </c>
       <c r="P196">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q196">
         <v>-0.25</v>
       </c>
       <c r="R196">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S196">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T196">
         <v>2</v>
       </c>
       <c r="U196">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V196">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W196">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z196">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA196">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB196">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC196">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17977,7 +17977,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>7267512</v>
+        <v>7267513</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17989,55 +17989,55 @@
         <v>45203.60416666666</v>
       </c>
       <c r="F197" t="s">
+        <v>33</v>
+      </c>
+      <c r="G197" t="s">
         <v>45</v>
       </c>
-      <c r="G197" t="s">
-        <v>44</v>
-      </c>
       <c r="H197">
+        <v>0</v>
+      </c>
+      <c r="I197">
         <v>1</v>
-      </c>
-      <c r="I197">
-        <v>2</v>
       </c>
       <c r="J197" t="s">
         <v>47</v>
       </c>
       <c r="K197">
-        <v>5</v>
+        <v>2.55</v>
       </c>
       <c r="L197">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="M197">
-        <v>1.7</v>
+        <v>2.875</v>
       </c>
       <c r="N197">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="O197">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="P197">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="Q197">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R197">
+        <v>1.925</v>
+      </c>
+      <c r="S197">
         <v>1.875</v>
       </c>
-      <c r="S197">
-        <v>1.925</v>
-      </c>
       <c r="T197">
         <v>2</v>
       </c>
       <c r="U197">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V197">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W197">
         <v>-1</v>
@@ -18046,19 +18046,19 @@
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="Z197">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA197">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AB197">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC197">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18081,7 +18081,7 @@
         <v>31</v>
       </c>
       <c r="G198" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H198">
         <v>0</v>
@@ -18170,7 +18170,7 @@
         <v>31</v>
       </c>
       <c r="G199" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H199">
         <v>0</v>
@@ -18437,7 +18437,7 @@
         <v>41</v>
       </c>
       <c r="G202" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H202">
         <v>1</v>
@@ -18523,7 +18523,7 @@
         <v>45227.4375</v>
       </c>
       <c r="F203" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G203" t="s">
         <v>37</v>
@@ -18790,7 +18790,7 @@
         <v>45231.60416666666</v>
       </c>
       <c r="F206" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G206" t="s">
         <v>41</v>
@@ -18867,7 +18867,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>7404431</v>
+        <v>7404428</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18879,58 +18879,58 @@
         <v>45237.60416666666</v>
       </c>
       <c r="F207" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G207" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J207" t="s">
         <v>49</v>
       </c>
       <c r="K207">
-        <v>2.05</v>
+        <v>3.4</v>
       </c>
       <c r="L207">
+        <v>3.1</v>
+      </c>
+      <c r="M207">
+        <v>2.1</v>
+      </c>
+      <c r="N207">
         <v>3</v>
-      </c>
-      <c r="M207">
-        <v>3.5</v>
-      </c>
-      <c r="N207">
-        <v>1.909</v>
       </c>
       <c r="O207">
         <v>3</v>
       </c>
       <c r="P207">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q207">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R207">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S207">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T207">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U207">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V207">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="W207">
-        <v>0.909</v>
+        <v>2</v>
       </c>
       <c r="X207">
         <v>-1</v>
@@ -18939,16 +18939,16 @@
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AA207">
         <v>-1</v>
       </c>
       <c r="AB207">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC207">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18956,7 +18956,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7404428</v>
+        <v>7404431</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18968,58 +18968,58 @@
         <v>45237.60416666666</v>
       </c>
       <c r="F208" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G208" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H208">
+        <v>2</v>
+      </c>
+      <c r="I208">
         <v>1</v>
-      </c>
-      <c r="I208">
-        <v>0</v>
       </c>
       <c r="J208" t="s">
         <v>49</v>
       </c>
       <c r="K208">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="L208">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M208">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="N208">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="O208">
         <v>3</v>
       </c>
       <c r="P208">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="Q208">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R208">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S208">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T208">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U208">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V208">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="W208">
-        <v>2</v>
+        <v>0.909</v>
       </c>
       <c r="X208">
         <v>-1</v>
@@ -19028,16 +19028,16 @@
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AA208">
         <v>-1</v>
       </c>
       <c r="AB208">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC208">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19045,7 +19045,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7404429</v>
+        <v>7404430</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19057,58 +19057,58 @@
         <v>45237.60416666666</v>
       </c>
       <c r="F209" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G209" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H209">
+        <v>2</v>
+      </c>
+      <c r="I209">
         <v>1</v>
-      </c>
-      <c r="I209">
-        <v>0</v>
       </c>
       <c r="J209" t="s">
         <v>49</v>
       </c>
       <c r="K209">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="L209">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M209">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="N209">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="O209">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P209">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q209">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R209">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S209">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T209">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U209">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V209">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W209">
-        <v>0.6499999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X209">
         <v>-1</v>
@@ -19117,16 +19117,16 @@
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
       <c r="AA209">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB209">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC209">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19134,7 +19134,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7404430</v>
+        <v>7404429</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19146,76 +19146,76 @@
         <v>45237.60416666666</v>
       </c>
       <c r="F210" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G210" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J210" t="s">
         <v>49</v>
       </c>
       <c r="K210">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="L210">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M210">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="N210">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="O210">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P210">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q210">
+        <v>-0.75</v>
+      </c>
+      <c r="R210">
+        <v>1.875</v>
+      </c>
+      <c r="S210">
+        <v>1.925</v>
+      </c>
+      <c r="T210">
+        <v>2.25</v>
+      </c>
+      <c r="U210">
+        <v>1.925</v>
+      </c>
+      <c r="V210">
+        <v>1.875</v>
+      </c>
+      <c r="W210">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X210">
+        <v>-1</v>
+      </c>
+      <c r="Y210">
+        <v>-1</v>
+      </c>
+      <c r="Z210">
+        <v>0.4375</v>
+      </c>
+      <c r="AA210">
         <v>-0.5</v>
       </c>
-      <c r="R210">
-        <v>1.8</v>
-      </c>
-      <c r="S210">
-        <v>2</v>
-      </c>
-      <c r="T210">
-        <v>2</v>
-      </c>
-      <c r="U210">
-        <v>1.9</v>
-      </c>
-      <c r="V210">
-        <v>1.9</v>
-      </c>
-      <c r="W210">
-        <v>0.8</v>
-      </c>
-      <c r="X210">
-        <v>-1</v>
-      </c>
-      <c r="Y210">
-        <v>-1</v>
-      </c>
-      <c r="Z210">
-        <v>0.8</v>
-      </c>
-      <c r="AA210">
-        <v>-1</v>
-      </c>
       <c r="AB210">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC210">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19235,7 +19235,7 @@
         <v>45238.60416666666</v>
       </c>
       <c r="F211" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G211" t="s">
         <v>44</v>
@@ -19416,7 +19416,7 @@
         <v>37</v>
       </c>
       <c r="G213" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H213">
         <v>3</v>
@@ -19680,7 +19680,7 @@
         <v>45241.4375</v>
       </c>
       <c r="F216" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G216" t="s">
         <v>34</v>
@@ -19846,7 +19846,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>7404441</v>
+        <v>7404440</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19858,76 +19858,76 @@
         <v>45242.4375</v>
       </c>
       <c r="F218" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G218" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H218">
         <v>1</v>
       </c>
       <c r="I218">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J218" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K218">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L218">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M218">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N218">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="O218">
         <v>3</v>
       </c>
       <c r="P218">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="Q218">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R218">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S218">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T218">
         <v>2</v>
       </c>
       <c r="U218">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V218">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W218">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X218">
         <v>-1</v>
       </c>
       <c r="Y218">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z218">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA218">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB218">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC218">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19935,7 +19935,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>7404440</v>
+        <v>7404441</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19947,76 +19947,76 @@
         <v>45242.4375</v>
       </c>
       <c r="F219" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G219" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H219">
         <v>1</v>
       </c>
       <c r="I219">
+        <v>0</v>
+      </c>
+      <c r="J219" t="s">
+        <v>49</v>
+      </c>
+      <c r="K219">
+        <v>2.3</v>
+      </c>
+      <c r="L219">
+        <v>2.9</v>
+      </c>
+      <c r="M219">
         <v>3</v>
       </c>
-      <c r="J219" t="s">
-        <v>47</v>
-      </c>
-      <c r="K219">
-        <v>2.15</v>
-      </c>
-      <c r="L219">
-        <v>3</v>
-      </c>
-      <c r="M219">
-        <v>3.2</v>
-      </c>
       <c r="N219">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="O219">
         <v>3</v>
       </c>
       <c r="P219">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q219">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R219">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S219">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T219">
         <v>2</v>
       </c>
       <c r="U219">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V219">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W219">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X219">
         <v>-1</v>
       </c>
       <c r="Y219">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z219">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA219">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB219">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC219">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20113,7 +20113,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>7404445</v>
+        <v>7404444</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20125,76 +20125,76 @@
         <v>45255.4375</v>
       </c>
       <c r="F221" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G221" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H221">
         <v>0</v>
       </c>
       <c r="I221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J221" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K221">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="L221">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M221">
-        <v>1.65</v>
+        <v>3.25</v>
       </c>
       <c r="N221">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="O221">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="P221">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="Q221">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R221">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S221">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T221">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U221">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V221">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W221">
         <v>-1</v>
       </c>
       <c r="X221">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y221">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z221">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA221">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB221">
         <v>-1</v>
       </c>
       <c r="AC221">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20202,7 +20202,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>7404444</v>
+        <v>7404445</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20214,76 +20214,76 @@
         <v>45255.4375</v>
       </c>
       <c r="F222" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G222" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H222">
         <v>0</v>
       </c>
       <c r="I222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J222" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K222">
+        <v>5.25</v>
+      </c>
+      <c r="L222">
+        <v>3.4</v>
+      </c>
+      <c r="M222">
+        <v>1.65</v>
+      </c>
+      <c r="N222">
+        <v>4.2</v>
+      </c>
+      <c r="O222">
+        <v>3.2</v>
+      </c>
+      <c r="P222">
+        <v>1.85</v>
+      </c>
+      <c r="Q222">
+        <v>0.5</v>
+      </c>
+      <c r="R222">
+        <v>1.9</v>
+      </c>
+      <c r="S222">
+        <v>1.9</v>
+      </c>
+      <c r="T222">
+        <v>2</v>
+      </c>
+      <c r="U222">
+        <v>1.925</v>
+      </c>
+      <c r="V222">
+        <v>1.875</v>
+      </c>
+      <c r="W222">
+        <v>-1</v>
+      </c>
+      <c r="X222">
         <v>2.2</v>
       </c>
-      <c r="L222">
-        <v>3</v>
-      </c>
-      <c r="M222">
-        <v>3.25</v>
-      </c>
-      <c r="N222">
-        <v>2.7</v>
-      </c>
-      <c r="O222">
-        <v>2.8</v>
-      </c>
-      <c r="P222">
-        <v>2.75</v>
-      </c>
-      <c r="Q222">
-        <v>0</v>
-      </c>
-      <c r="R222">
-        <v>1.875</v>
-      </c>
-      <c r="S222">
-        <v>1.925</v>
-      </c>
-      <c r="T222">
-        <v>1.75</v>
-      </c>
-      <c r="U222">
-        <v>1.775</v>
-      </c>
-      <c r="V222">
-        <v>2.025</v>
-      </c>
-      <c r="W222">
-        <v>-1</v>
-      </c>
-      <c r="X222">
-        <v>-1</v>
-      </c>
       <c r="Y222">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z222">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA222">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB222">
         <v>-1</v>
       </c>
       <c r="AC222">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20303,7 +20303,7 @@
         <v>45255.53125</v>
       </c>
       <c r="F223" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G223" t="s">
         <v>30</v>
@@ -20484,7 +20484,7 @@
         <v>38</v>
       </c>
       <c r="G225" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H225">
         <v>3</v>
@@ -20570,7 +20570,7 @@
         <v>45256.53125</v>
       </c>
       <c r="F226" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G226" t="s">
         <v>29</v>
@@ -20659,7 +20659,7 @@
         <v>45258.60416666666</v>
       </c>
       <c r="F227" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G227" t="s">
         <v>39</v>
@@ -21193,7 +21193,7 @@
         <v>45269.4375</v>
       </c>
       <c r="F233" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G233" t="s">
         <v>37</v>
@@ -21285,7 +21285,7 @@
         <v>42</v>
       </c>
       <c r="G234" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H234">
         <v>2</v>
@@ -21537,7 +21537,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>7464395</v>
+        <v>7476568</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21549,13 +21549,13 @@
         <v>45273.60416666666</v>
       </c>
       <c r="F237" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G237" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H237">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I237">
         <v>0</v>
@@ -21564,34 +21564,34 @@
         <v>49</v>
       </c>
       <c r="K237">
-        <v>1.181</v>
+        <v>2.2</v>
       </c>
       <c r="L237">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="M237">
-        <v>13</v>
+        <v>3.4</v>
       </c>
       <c r="N237">
-        <v>1.2</v>
+        <v>2.25</v>
       </c>
       <c r="O237">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="P237">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="Q237">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R237">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S237">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T237">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="U237">
         <v>1.975</v>
@@ -21600,7 +21600,7 @@
         <v>1.825</v>
       </c>
       <c r="W237">
-        <v>0.2</v>
+        <v>1.25</v>
       </c>
       <c r="X237">
         <v>-1</v>
@@ -21609,16 +21609,16 @@
         <v>-1</v>
       </c>
       <c r="Z237">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA237">
         <v>-1</v>
       </c>
       <c r="AB237">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC237">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21626,7 +21626,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7476568</v>
+        <v>7464395</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21638,13 +21638,13 @@
         <v>45273.60416666666</v>
       </c>
       <c r="F238" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G238" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I238">
         <v>0</v>
@@ -21653,34 +21653,34 @@
         <v>49</v>
       </c>
       <c r="K238">
-        <v>2.2</v>
+        <v>1.181</v>
       </c>
       <c r="L238">
+        <v>6.5</v>
+      </c>
+      <c r="M238">
+        <v>13</v>
+      </c>
+      <c r="N238">
+        <v>1.2</v>
+      </c>
+      <c r="O238">
+        <v>6</v>
+      </c>
+      <c r="P238">
+        <v>12</v>
+      </c>
+      <c r="Q238">
+        <v>-1.75</v>
+      </c>
+      <c r="R238">
+        <v>1.775</v>
+      </c>
+      <c r="S238">
+        <v>2.025</v>
+      </c>
+      <c r="T238">
         <v>3</v>
-      </c>
-      <c r="M238">
-        <v>3.4</v>
-      </c>
-      <c r="N238">
-        <v>2.25</v>
-      </c>
-      <c r="O238">
-        <v>2.75</v>
-      </c>
-      <c r="P238">
-        <v>3.6</v>
-      </c>
-      <c r="Q238">
-        <v>-0.25</v>
-      </c>
-      <c r="R238">
-        <v>1.9</v>
-      </c>
-      <c r="S238">
-        <v>1.9</v>
-      </c>
-      <c r="T238">
-        <v>1.75</v>
       </c>
       <c r="U238">
         <v>1.975</v>
@@ -21689,7 +21689,7 @@
         <v>1.825</v>
       </c>
       <c r="W238">
-        <v>1.25</v>
+        <v>0.2</v>
       </c>
       <c r="X238">
         <v>-1</v>
@@ -21698,16 +21698,16 @@
         <v>-1</v>
       </c>
       <c r="Z238">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA238">
         <v>-1</v>
       </c>
       <c r="AB238">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC238">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21816,7 +21816,7 @@
         <v>45277.4375</v>
       </c>
       <c r="F240" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G240" t="s">
         <v>41</v>
@@ -21908,7 +21908,7 @@
         <v>40</v>
       </c>
       <c r="G241" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H241">
         <v>1</v>
@@ -21982,7 +21982,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>7479719</v>
+        <v>7477992</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -21994,13 +21994,13 @@
         <v>45283.4375</v>
       </c>
       <c r="F242" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G242" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I242">
         <v>2</v>
@@ -22009,40 +22009,40 @@
         <v>47</v>
       </c>
       <c r="K242">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="L242">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M242">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N242">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="O242">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="P242">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="Q242">
         <v>0</v>
       </c>
       <c r="R242">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S242">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T242">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U242">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V242">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="W242">
         <v>-1</v>
@@ -22051,19 +22051,19 @@
         <v>-1</v>
       </c>
       <c r="Y242">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="Z242">
         <v>-1</v>
       </c>
       <c r="AA242">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB242">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AC242">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="243" spans="1:29">
@@ -22160,7 +22160,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>7477992</v>
+        <v>7479719</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22172,13 +22172,13 @@
         <v>45283.4375</v>
       </c>
       <c r="F244" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G244" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244">
         <v>2</v>
@@ -22187,40 +22187,40 @@
         <v>47</v>
       </c>
       <c r="K244">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="L244">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M244">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N244">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="O244">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="P244">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Q244">
         <v>0</v>
       </c>
       <c r="R244">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S244">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T244">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U244">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V244">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="W244">
         <v>-1</v>
@@ -22229,19 +22229,19 @@
         <v>-1</v>
       </c>
       <c r="Y244">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="Z244">
         <v>-1</v>
       </c>
       <c r="AA244">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB244">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AC244">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="245" spans="1:29">
@@ -22887,7 +22887,7 @@
         <v>32</v>
       </c>
       <c r="G252" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H252">
         <v>0</v>
@@ -23062,7 +23062,7 @@
         <v>45291.4375</v>
       </c>
       <c r="F254" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G254" t="s">
         <v>29</v>
@@ -23332,7 +23332,7 @@
         <v>34</v>
       </c>
       <c r="G257" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H257">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>45339.53125</v>
       </c>
       <c r="F259" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G259" t="s">
         <v>40</v>
@@ -23777,7 +23777,7 @@
         <v>38</v>
       </c>
       <c r="G262" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H262">
         <v>3</v>
@@ -23991,6 +23991,80 @@
         <v>0</v>
       </c>
       <c r="AA264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:29">
+      <c r="A265" s="1">
+        <v>263</v>
+      </c>
+      <c r="B265">
+        <v>7628830</v>
+      </c>
+      <c r="C265" t="s">
+        <v>28</v>
+      </c>
+      <c r="D265" t="s">
+        <v>28</v>
+      </c>
+      <c r="E265" s="2">
+        <v>45350.60416666666</v>
+      </c>
+      <c r="F265" t="s">
+        <v>36</v>
+      </c>
+      <c r="G265" t="s">
+        <v>31</v>
+      </c>
+      <c r="K265">
+        <v>2.375</v>
+      </c>
+      <c r="L265">
+        <v>2.9</v>
+      </c>
+      <c r="M265">
+        <v>3</v>
+      </c>
+      <c r="N265">
+        <v>2.625</v>
+      </c>
+      <c r="O265">
+        <v>2.9</v>
+      </c>
+      <c r="P265">
+        <v>2.625</v>
+      </c>
+      <c r="Q265">
+        <v>0</v>
+      </c>
+      <c r="R265">
+        <v>1.9</v>
+      </c>
+      <c r="S265">
+        <v>1.9</v>
+      </c>
+      <c r="T265">
+        <v>2</v>
+      </c>
+      <c r="U265">
+        <v>1.975</v>
+      </c>
+      <c r="V265">
+        <v>1.825</v>
+      </c>
+      <c r="W265">
+        <v>0</v>
+      </c>
+      <c r="X265">
+        <v>0</v>
+      </c>
+      <c r="Y265">
+        <v>0</v>
+      </c>
+      <c r="Z265">
+        <v>0</v>
+      </c>
+      <c r="AA265">
         <v>0</v>
       </c>
     </row>

--- a/South Africa Premier/South Africa Premier.xlsx
+++ b/South Africa Premier/South Africa Premier.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC265"/>
+  <dimension ref="A1:AC268"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2580,7 +2580,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5350192</v>
+        <v>5350195</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2592,10 +2592,10 @@
         <v>44946.60416666666</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2607,43 +2607,43 @@
         <v>49</v>
       </c>
       <c r="K24">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="L24">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="M24">
         <v>3.8</v>
       </c>
       <c r="N24">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O24">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="P24">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q24">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R24">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S24">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T24">
         <v>1.75</v>
       </c>
       <c r="U24">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V24">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W24">
-        <v>1.1</v>
+        <v>0.909</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -2652,7 +2652,7 @@
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA24">
         <v>-1</v>
@@ -2661,7 +2661,7 @@
         <v>-1</v>
       </c>
       <c r="AC24">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2669,7 +2669,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5350195</v>
+        <v>5350192</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2681,10 +2681,10 @@
         <v>44946.60416666666</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2696,43 +2696,43 @@
         <v>49</v>
       </c>
       <c r="K25">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="L25">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="M25">
         <v>3.8</v>
       </c>
       <c r="N25">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O25">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="P25">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q25">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R25">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S25">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T25">
         <v>1.75</v>
       </c>
       <c r="U25">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V25">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W25">
-        <v>0.909</v>
+        <v>1.1</v>
       </c>
       <c r="X25">
         <v>-1</v>
@@ -2741,7 +2741,7 @@
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA25">
         <v>-1</v>
@@ -2750,7 +2750,7 @@
         <v>-1</v>
       </c>
       <c r="AC25">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2936,7 +2936,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5350196</v>
+        <v>5350197</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2948,76 +2948,76 @@
         <v>44947.625</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="L28">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M28">
-        <v>3.6</v>
+        <v>1.75</v>
       </c>
       <c r="N28">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="O28">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="P28">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="Q28">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R28">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S28">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T28">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="U28">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V28">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z28">
         <v>-0.5</v>
       </c>
       <c r="AA28">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="AB28">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3025,7 +3025,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5350197</v>
+        <v>5350196</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3037,76 +3037,76 @@
         <v>44947.625</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G29" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K29">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="L29">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M29">
+        <v>3.6</v>
+      </c>
+      <c r="N29">
+        <v>2.375</v>
+      </c>
+      <c r="O29">
+        <v>2.8</v>
+      </c>
+      <c r="P29">
+        <v>3.1</v>
+      </c>
+      <c r="Q29">
+        <v>-0.25</v>
+      </c>
+      <c r="R29">
+        <v>2.05</v>
+      </c>
+      <c r="S29">
         <v>1.75</v>
       </c>
-      <c r="N29">
-        <v>4.75</v>
-      </c>
-      <c r="O29">
-        <v>3.2</v>
-      </c>
-      <c r="P29">
-        <v>1.7</v>
-      </c>
-      <c r="Q29">
-        <v>0.75</v>
-      </c>
-      <c r="R29">
+      <c r="T29">
+        <v>1.5</v>
+      </c>
+      <c r="U29">
+        <v>1.775</v>
+      </c>
+      <c r="V29">
+        <v>2.025</v>
+      </c>
+      <c r="W29">
+        <v>-1</v>
+      </c>
+      <c r="X29">
         <v>1.8</v>
       </c>
-      <c r="S29">
-        <v>2</v>
-      </c>
-      <c r="T29">
-        <v>2</v>
-      </c>
-      <c r="U29">
-        <v>1.85</v>
-      </c>
-      <c r="V29">
-        <v>1.95</v>
-      </c>
-      <c r="W29">
-        <v>-1</v>
-      </c>
-      <c r="X29">
-        <v>-1</v>
-      </c>
       <c r="Y29">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
         <v>-0.5</v>
       </c>
       <c r="AA29">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC29">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -6407,7 +6407,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6335027</v>
+        <v>6335029</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6419,76 +6419,76 @@
         <v>44990.4375</v>
       </c>
       <c r="F67" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G67" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="s">
         <v>48</v>
       </c>
       <c r="K67">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="L67">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="M67">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="N67">
+        <v>4.5</v>
+      </c>
+      <c r="O67">
+        <v>3.6</v>
+      </c>
+      <c r="P67">
+        <v>1.666</v>
+      </c>
+      <c r="Q67">
+        <v>0.75</v>
+      </c>
+      <c r="R67">
+        <v>1.9</v>
+      </c>
+      <c r="S67">
+        <v>1.9</v>
+      </c>
+      <c r="T67">
         <v>2.25</v>
       </c>
-      <c r="O67">
-        <v>2.9</v>
-      </c>
-      <c r="P67">
-        <v>3.25</v>
-      </c>
-      <c r="Q67">
-        <v>-0.25</v>
-      </c>
-      <c r="R67">
-        <v>1.95</v>
-      </c>
-      <c r="S67">
-        <v>1.85</v>
-      </c>
-      <c r="T67">
-        <v>2</v>
-      </c>
       <c r="U67">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V67">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W67">
         <v>-1</v>
       </c>
       <c r="X67">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA67">
+        <v>-1</v>
+      </c>
+      <c r="AB67">
         <v>-0.5</v>
       </c>
-      <c r="AA67">
-        <v>0.425</v>
-      </c>
-      <c r="AB67">
-        <v>-1</v>
-      </c>
       <c r="AC67">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6496,7 +6496,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6335029</v>
+        <v>6335027</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6508,76 +6508,76 @@
         <v>44990.4375</v>
       </c>
       <c r="F68" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G68" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
         <v>48</v>
       </c>
       <c r="K68">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="L68">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="M68">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="N68">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="O68">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="P68">
-        <v>1.666</v>
+        <v>3.25</v>
       </c>
       <c r="Q68">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R68">
+        <v>1.95</v>
+      </c>
+      <c r="S68">
+        <v>1.85</v>
+      </c>
+      <c r="T68">
+        <v>2</v>
+      </c>
+      <c r="U68">
+        <v>1.925</v>
+      </c>
+      <c r="V68">
+        <v>1.875</v>
+      </c>
+      <c r="W68">
+        <v>-1</v>
+      </c>
+      <c r="X68">
         <v>1.9</v>
       </c>
-      <c r="S68">
-        <v>1.9</v>
-      </c>
-      <c r="T68">
-        <v>2.25</v>
-      </c>
-      <c r="U68">
-        <v>1.825</v>
-      </c>
-      <c r="V68">
-        <v>1.975</v>
-      </c>
-      <c r="W68">
-        <v>-1</v>
-      </c>
-      <c r="X68">
-        <v>2.6</v>
-      </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB68">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -10590,7 +10590,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>5350283</v>
+        <v>5350279</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10602,76 +10602,76 @@
         <v>45049.60416666666</v>
       </c>
       <c r="F114" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G114" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K114">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="L114">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M114">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N114">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="O114">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P114">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q114">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R114">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S114">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T114">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U114">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V114">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W114">
         <v>-1</v>
       </c>
       <c r="X114">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y114">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z114">
         <v>-1</v>
       </c>
       <c r="AA114">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB114">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC114">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10679,7 +10679,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>5350279</v>
+        <v>5350280</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10691,76 +10691,76 @@
         <v>45049.60416666666</v>
       </c>
       <c r="F115" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G115" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J115" t="s">
         <v>48</v>
       </c>
       <c r="K115">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L115">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M115">
+        <v>1.666</v>
+      </c>
+      <c r="N115">
+        <v>4.75</v>
+      </c>
+      <c r="O115">
         <v>3.5</v>
       </c>
-      <c r="N115">
-        <v>1.833</v>
-      </c>
-      <c r="O115">
-        <v>3.25</v>
-      </c>
       <c r="P115">
-        <v>4.333</v>
+        <v>1.65</v>
       </c>
       <c r="Q115">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R115">
+        <v>1.95</v>
+      </c>
+      <c r="S115">
         <v>1.85</v>
-      </c>
-      <c r="S115">
-        <v>1.95</v>
       </c>
       <c r="T115">
         <v>2.25</v>
       </c>
       <c r="U115">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V115">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W115">
         <v>-1</v>
       </c>
       <c r="X115">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA115">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC115">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10768,7 +10768,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>5350280</v>
+        <v>5350283</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10780,73 +10780,73 @@
         <v>45049.60416666666</v>
       </c>
       <c r="F116" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G116" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H116">
         <v>2</v>
       </c>
       <c r="I116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J116" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K116">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="L116">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M116">
-        <v>1.666</v>
+        <v>3.6</v>
       </c>
       <c r="N116">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="O116">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P116">
-        <v>1.65</v>
+        <v>3.6</v>
       </c>
       <c r="Q116">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R116">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S116">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T116">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U116">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V116">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z116">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB116">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC116">
         <v>-1</v>
@@ -11124,7 +11124,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>5350289</v>
+        <v>5350288</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11136,76 +11136,76 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F120" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G120" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H120">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K120">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L120">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M120">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="N120">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="O120">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="P120">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="Q120">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R120">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S120">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T120">
         <v>2</v>
       </c>
       <c r="U120">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V120">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W120">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z120">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB120">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11213,7 +11213,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>5350288</v>
+        <v>5350289</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11225,76 +11225,76 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F121" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G121" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K121">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L121">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M121">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="N121">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="O121">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="P121">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="Q121">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R121">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S121">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T121">
         <v>2</v>
       </c>
       <c r="U121">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V121">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W121">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA121">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC121">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11302,7 +11302,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>5350290</v>
+        <v>5350286</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11314,13 +11314,13 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F122" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G122" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I122">
         <v>0</v>
@@ -11329,43 +11329,43 @@
         <v>49</v>
       </c>
       <c r="K122">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="L122">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M122">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="N122">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="O122">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="P122">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="Q122">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R122">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S122">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T122">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U122">
+        <v>1.95</v>
+      </c>
+      <c r="V122">
         <v>1.85</v>
       </c>
-      <c r="V122">
-        <v>1.95</v>
-      </c>
       <c r="W122">
-        <v>1.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X122">
         <v>-1</v>
@@ -11374,16 +11374,16 @@
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA122">
         <v>-1</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC122">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11391,7 +11391,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>5350286</v>
+        <v>5350284</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11403,13 +11403,13 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F123" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G123" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123">
         <v>0</v>
@@ -11418,43 +11418,43 @@
         <v>49</v>
       </c>
       <c r="K123">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="L123">
+        <v>2.9</v>
+      </c>
+      <c r="M123">
         <v>3.2</v>
       </c>
-      <c r="M123">
-        <v>4.5</v>
-      </c>
       <c r="N123">
+        <v>2.625</v>
+      </c>
+      <c r="O123">
+        <v>2.75</v>
+      </c>
+      <c r="P123">
+        <v>2.8</v>
+      </c>
+      <c r="Q123">
+        <v>0</v>
+      </c>
+      <c r="R123">
+        <v>1.775</v>
+      </c>
+      <c r="S123">
+        <v>2.025</v>
+      </c>
+      <c r="T123">
+        <v>2</v>
+      </c>
+      <c r="U123">
         <v>1.85</v>
       </c>
-      <c r="O123">
-        <v>3.2</v>
-      </c>
-      <c r="P123">
-        <v>4</v>
-      </c>
-      <c r="Q123">
-        <v>-0.5</v>
-      </c>
-      <c r="R123">
-        <v>1.9</v>
-      </c>
-      <c r="S123">
-        <v>1.9</v>
-      </c>
-      <c r="T123">
-        <v>2.25</v>
-      </c>
-      <c r="U123">
+      <c r="V123">
         <v>1.95</v>
       </c>
-      <c r="V123">
-        <v>1.85</v>
-      </c>
       <c r="W123">
-        <v>0.8500000000000001</v>
+        <v>1.625</v>
       </c>
       <c r="X123">
         <v>-1</v>
@@ -11463,16 +11463,16 @@
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA123">
         <v>-1</v>
       </c>
       <c r="AB123">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC123">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11480,7 +11480,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>5350284</v>
+        <v>5349203</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11492,76 +11492,76 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F124" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G124" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H124">
         <v>1</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K124">
-        <v>2.25</v>
+        <v>1.55</v>
       </c>
       <c r="L124">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="M124">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="N124">
-        <v>2.625</v>
+        <v>1.4</v>
       </c>
       <c r="O124">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="P124">
+        <v>7.5</v>
+      </c>
+      <c r="Q124">
+        <v>-1.25</v>
+      </c>
+      <c r="R124">
+        <v>1.975</v>
+      </c>
+      <c r="S124">
+        <v>1.825</v>
+      </c>
+      <c r="T124">
+        <v>2</v>
+      </c>
+      <c r="U124">
+        <v>1.75</v>
+      </c>
+      <c r="V124">
+        <v>2.05</v>
+      </c>
+      <c r="W124">
+        <v>-1</v>
+      </c>
+      <c r="X124">
         <v>2.8</v>
       </c>
-      <c r="Q124">
-        <v>0</v>
-      </c>
-      <c r="R124">
-        <v>1.775</v>
-      </c>
-      <c r="S124">
-        <v>2.025</v>
-      </c>
-      <c r="T124">
-        <v>2</v>
-      </c>
-      <c r="U124">
-        <v>1.85</v>
-      </c>
-      <c r="V124">
-        <v>1.95</v>
-      </c>
-      <c r="W124">
-        <v>1.625</v>
-      </c>
-      <c r="X124">
-        <v>-1</v>
-      </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC124">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11569,7 +11569,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>5349203</v>
+        <v>5350290</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11581,76 +11581,76 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F125" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G125" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H125">
         <v>1</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K125">
-        <v>1.55</v>
+        <v>2.05</v>
       </c>
       <c r="L125">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M125">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="N125">
+        <v>2.4</v>
+      </c>
+      <c r="O125">
+        <v>2.875</v>
+      </c>
+      <c r="P125">
+        <v>2.9</v>
+      </c>
+      <c r="Q125">
+        <v>0</v>
+      </c>
+      <c r="R125">
+        <v>1.75</v>
+      </c>
+      <c r="S125">
+        <v>2.05</v>
+      </c>
+      <c r="T125">
+        <v>2</v>
+      </c>
+      <c r="U125">
+        <v>1.85</v>
+      </c>
+      <c r="V125">
+        <v>1.95</v>
+      </c>
+      <c r="W125">
         <v>1.4</v>
       </c>
-      <c r="O125">
-        <v>3.8</v>
-      </c>
-      <c r="P125">
-        <v>7.5</v>
-      </c>
-      <c r="Q125">
-        <v>-1.25</v>
-      </c>
-      <c r="R125">
-        <v>1.975</v>
-      </c>
-      <c r="S125">
-        <v>1.825</v>
-      </c>
-      <c r="T125">
-        <v>2</v>
-      </c>
-      <c r="U125">
-        <v>1.75</v>
-      </c>
-      <c r="V125">
-        <v>2.05</v>
-      </c>
-      <c r="W125">
-        <v>-1</v>
-      </c>
       <c r="X125">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA125">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -12014,7 +12014,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>5350298</v>
+        <v>5350299</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12026,40 +12026,40 @@
         <v>45066.41666666666</v>
       </c>
       <c r="F130" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G130" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130">
         <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K130">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="L130">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M130">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="N130">
+        <v>1.615</v>
+      </c>
+      <c r="O130">
         <v>3.25</v>
       </c>
-      <c r="O130">
-        <v>2.9</v>
-      </c>
       <c r="P130">
-        <v>2.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q130">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R130">
         <v>1.85</v>
@@ -12068,34 +12068,34 @@
         <v>1.95</v>
       </c>
       <c r="T130">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U130">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V130">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W130">
+        <v>-1</v>
+      </c>
+      <c r="X130">
         <v>2.25</v>
       </c>
-      <c r="X130">
-        <v>-1</v>
-      </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB130">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC130">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12103,7 +12103,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>5350297</v>
+        <v>5350298</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12115,13 +12115,13 @@
         <v>45066.41666666666</v>
       </c>
       <c r="F131" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G131" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I131">
         <v>0</v>
@@ -12130,43 +12130,43 @@
         <v>49</v>
       </c>
       <c r="K131">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="L131">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M131">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="N131">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="O131">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P131">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="Q131">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R131">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S131">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T131">
         <v>2</v>
       </c>
       <c r="U131">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V131">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W131">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="X131">
         <v>-1</v>
@@ -12175,16 +12175,16 @@
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA131">
         <v>-1</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC131">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>5350299</v>
+        <v>5350297</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,76 +12204,76 @@
         <v>45066.41666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G132" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132">
         <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K132">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="L132">
         <v>3</v>
       </c>
       <c r="M132">
+        <v>2.3</v>
+      </c>
+      <c r="N132">
+        <v>4.5</v>
+      </c>
+      <c r="O132">
         <v>3.1</v>
       </c>
-      <c r="N132">
-        <v>1.615</v>
-      </c>
-      <c r="O132">
-        <v>3.25</v>
-      </c>
       <c r="P132">
-        <v>5.5</v>
+        <v>1.727</v>
       </c>
       <c r="Q132">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R132">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S132">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T132">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U132">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V132">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W132">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X132">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA132">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB132">
         <v>-1</v>
       </c>
       <c r="AC132">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12459,7 +12459,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6961777</v>
+        <v>6961780</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12471,73 +12471,73 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F135" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G135" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K135">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="L135">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M135">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="N135">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="O135">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="P135">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q135">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R135">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S135">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T135">
         <v>1.75</v>
       </c>
       <c r="U135">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V135">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W135">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X135">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA135">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB135">
-        <v>0.45</v>
+        <v>0.3875</v>
       </c>
       <c r="AC135">
         <v>-0.5</v>
@@ -12548,7 +12548,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6961780</v>
+        <v>6961777</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12560,73 +12560,73 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F136" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G136" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K136">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="L136">
+        <v>3</v>
+      </c>
+      <c r="M136">
+        <v>2.75</v>
+      </c>
+      <c r="N136">
+        <v>2.2</v>
+      </c>
+      <c r="O136">
+        <v>2.875</v>
+      </c>
+      <c r="P136">
         <v>3.2</v>
       </c>
-      <c r="M136">
-        <v>5.5</v>
-      </c>
-      <c r="N136">
-        <v>1.65</v>
-      </c>
-      <c r="O136">
-        <v>3.2</v>
-      </c>
-      <c r="P136">
-        <v>5.5</v>
-      </c>
       <c r="Q136">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R136">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S136">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T136">
         <v>1.75</v>
       </c>
       <c r="U136">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V136">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W136">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA136">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB136">
-        <v>0.3875</v>
+        <v>0.45</v>
       </c>
       <c r="AC136">
         <v>-0.5</v>
@@ -12815,7 +12815,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6961781</v>
+        <v>6961782</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12827,40 +12827,40 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F139" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G139" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139">
         <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K139">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="L139">
+        <v>3.3</v>
+      </c>
+      <c r="M139">
+        <v>7</v>
+      </c>
+      <c r="N139">
+        <v>1.65</v>
+      </c>
+      <c r="O139">
         <v>3.1</v>
       </c>
-      <c r="M139">
-        <v>4</v>
-      </c>
-      <c r="N139">
-        <v>2.05</v>
-      </c>
-      <c r="O139">
-        <v>2.8</v>
-      </c>
       <c r="P139">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q139">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R139">
         <v>1.85</v>
@@ -12872,31 +12872,31 @@
         <v>2</v>
       </c>
       <c r="U139">
+        <v>1.825</v>
+      </c>
+      <c r="V139">
         <v>1.975</v>
       </c>
-      <c r="V139">
-        <v>1.825</v>
-      </c>
       <c r="W139">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X139">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB139">
         <v>-1</v>
       </c>
       <c r="AC139">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12904,7 +12904,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6961782</v>
+        <v>6961781</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12916,40 +12916,40 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G140" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140">
         <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K140">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="L140">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M140">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N140">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="O140">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P140">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q140">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R140">
         <v>1.85</v>
@@ -12961,31 +12961,31 @@
         <v>2</v>
       </c>
       <c r="U140">
+        <v>1.975</v>
+      </c>
+      <c r="V140">
         <v>1.825</v>
       </c>
-      <c r="V140">
-        <v>1.975</v>
-      </c>
       <c r="W140">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X140">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA140">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
         <v>-1</v>
       </c>
       <c r="AC140">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -15752,7 +15752,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>7078410</v>
+        <v>7078411</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15764,49 +15764,49 @@
         <v>45168.60416666666</v>
       </c>
       <c r="F172" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G172" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J172" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K172">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="L172">
         <v>3.1</v>
       </c>
       <c r="M172">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="N172">
+        <v>2.4</v>
+      </c>
+      <c r="O172">
+        <v>2.75</v>
+      </c>
+      <c r="P172">
         <v>3</v>
       </c>
-      <c r="O172">
-        <v>2.875</v>
-      </c>
-      <c r="P172">
-        <v>2.4</v>
-      </c>
       <c r="Q172">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R172">
-        <v>2.05</v>
+        <v>2.075</v>
       </c>
       <c r="S172">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="T172">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U172">
         <v>2.025</v>
@@ -15818,22 +15818,22 @@
         <v>-1</v>
       </c>
       <c r="X172">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y172">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z172">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA172">
+        <v>0.7250000000000001</v>
+      </c>
+      <c r="AB172">
+        <v>0</v>
+      </c>
+      <c r="AC172">
         <v>-0</v>
-      </c>
-      <c r="AB172">
-        <v>0.5125</v>
-      </c>
-      <c r="AC172">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15841,7 +15841,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7078411</v>
+        <v>7078410</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15853,49 +15853,49 @@
         <v>45168.60416666666</v>
       </c>
       <c r="F173" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G173" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K173">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="L173">
         <v>3.1</v>
       </c>
       <c r="M173">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="N173">
+        <v>3</v>
+      </c>
+      <c r="O173">
+        <v>2.875</v>
+      </c>
+      <c r="P173">
         <v>2.4</v>
       </c>
-      <c r="O173">
-        <v>2.75</v>
-      </c>
-      <c r="P173">
-        <v>3</v>
-      </c>
       <c r="Q173">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R173">
-        <v>2.075</v>
+        <v>2.05</v>
       </c>
       <c r="S173">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="T173">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U173">
         <v>2.025</v>
@@ -15907,22 +15907,22 @@
         <v>-1</v>
       </c>
       <c r="X173">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y173">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z173">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA173">
-        <v>0.7250000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB173">
-        <v>0</v>
+        <v>0.5125</v>
       </c>
       <c r="AC173">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -16553,7 +16553,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7170833</v>
+        <v>7170834</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16565,76 +16565,76 @@
         <v>45189.60416666666</v>
       </c>
       <c r="F181" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G181" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H181">
         <v>0</v>
       </c>
       <c r="I181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J181" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K181">
+        <v>2.375</v>
+      </c>
+      <c r="L181">
         <v>2.75</v>
       </c>
-      <c r="L181">
-        <v>2.875</v>
-      </c>
       <c r="M181">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="N181">
-        <v>3.4</v>
+        <v>2.45</v>
       </c>
       <c r="O181">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="P181">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="Q181">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R181">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="S181">
-        <v>1.875</v>
+        <v>2.075</v>
       </c>
       <c r="T181">
         <v>2</v>
       </c>
       <c r="U181">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V181">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W181">
         <v>-1</v>
       </c>
       <c r="X181">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y181">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z181">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA181">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB181">
         <v>-1</v>
       </c>
       <c r="AC181">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16642,7 +16642,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7170834</v>
+        <v>7169685</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16654,76 +16654,76 @@
         <v>45189.60416666666</v>
       </c>
       <c r="F182" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G182" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I182">
         <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K182">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="L182">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="M182">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="N182">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="O182">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="P182">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="Q182">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R182">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="S182">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="T182">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U182">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="V182">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="W182">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X182">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y182">
         <v>-1</v>
       </c>
       <c r="Z182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA182">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB182">
         <v>-1</v>
       </c>
       <c r="AC182">
-        <v>0.7749999999999999</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16731,7 +16731,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7169685</v>
+        <v>7170833</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16743,76 +16743,76 @@
         <v>45189.60416666666</v>
       </c>
       <c r="F183" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G183" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H183">
+        <v>0</v>
+      </c>
+      <c r="I183">
         <v>1</v>
       </c>
-      <c r="I183">
-        <v>0</v>
-      </c>
       <c r="J183" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K183">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="L183">
+        <v>2.875</v>
+      </c>
+      <c r="M183">
+        <v>2.5</v>
+      </c>
+      <c r="N183">
+        <v>3.4</v>
+      </c>
+      <c r="O183">
         <v>2.9</v>
       </c>
-      <c r="M183">
-        <v>3.75</v>
-      </c>
-      <c r="N183">
-        <v>1.909</v>
-      </c>
-      <c r="O183">
-        <v>2.875</v>
-      </c>
       <c r="P183">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q183">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R183">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S183">
+        <v>1.875</v>
+      </c>
+      <c r="T183">
+        <v>2</v>
+      </c>
+      <c r="U183">
         <v>1.8</v>
       </c>
-      <c r="T183">
-        <v>1.75</v>
-      </c>
-      <c r="U183">
-        <v>1.75</v>
-      </c>
       <c r="V183">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W183">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X183">
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z183">
+        <v>-1</v>
+      </c>
+      <c r="AA183">
+        <v>0.875</v>
+      </c>
+      <c r="AB183">
+        <v>-1</v>
+      </c>
+      <c r="AC183">
         <v>1</v>
-      </c>
-      <c r="AA183">
-        <v>-1</v>
-      </c>
-      <c r="AB183">
-        <v>-1</v>
-      </c>
-      <c r="AC183">
-        <v>1.05</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -18867,7 +18867,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>7404428</v>
+        <v>7404430</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18879,58 +18879,58 @@
         <v>45237.60416666666</v>
       </c>
       <c r="F207" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G207" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H207">
+        <v>2</v>
+      </c>
+      <c r="I207">
         <v>1</v>
-      </c>
-      <c r="I207">
-        <v>0</v>
       </c>
       <c r="J207" t="s">
         <v>49</v>
       </c>
       <c r="K207">
-        <v>3.4</v>
+        <v>1.75</v>
       </c>
       <c r="L207">
+        <v>3.25</v>
+      </c>
+      <c r="M207">
+        <v>4.5</v>
+      </c>
+      <c r="N207">
+        <v>1.8</v>
+      </c>
+      <c r="O207">
         <v>3.1</v>
       </c>
-      <c r="M207">
-        <v>2.1</v>
-      </c>
-      <c r="N207">
-        <v>3</v>
-      </c>
-      <c r="O207">
-        <v>3</v>
-      </c>
       <c r="P207">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q207">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R207">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S207">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T207">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U207">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V207">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W207">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="X207">
         <v>-1</v>
@@ -18939,16 +18939,16 @@
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AA207">
         <v>-1</v>
       </c>
       <c r="AB207">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC207">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -19045,7 +19045,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7404430</v>
+        <v>7404429</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19057,76 +19057,76 @@
         <v>45237.60416666666</v>
       </c>
       <c r="F209" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G209" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J209" t="s">
         <v>49</v>
       </c>
       <c r="K209">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="L209">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M209">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="N209">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="O209">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P209">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q209">
+        <v>-0.75</v>
+      </c>
+      <c r="R209">
+        <v>1.875</v>
+      </c>
+      <c r="S209">
+        <v>1.925</v>
+      </c>
+      <c r="T209">
+        <v>2.25</v>
+      </c>
+      <c r="U209">
+        <v>1.925</v>
+      </c>
+      <c r="V209">
+        <v>1.875</v>
+      </c>
+      <c r="W209">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X209">
+        <v>-1</v>
+      </c>
+      <c r="Y209">
+        <v>-1</v>
+      </c>
+      <c r="Z209">
+        <v>0.4375</v>
+      </c>
+      <c r="AA209">
         <v>-0.5</v>
       </c>
-      <c r="R209">
-        <v>1.8</v>
-      </c>
-      <c r="S209">
-        <v>2</v>
-      </c>
-      <c r="T209">
-        <v>2</v>
-      </c>
-      <c r="U209">
-        <v>1.9</v>
-      </c>
-      <c r="V209">
-        <v>1.9</v>
-      </c>
-      <c r="W209">
-        <v>0.8</v>
-      </c>
-      <c r="X209">
-        <v>-1</v>
-      </c>
-      <c r="Y209">
-        <v>-1</v>
-      </c>
-      <c r="Z209">
-        <v>0.8</v>
-      </c>
-      <c r="AA209">
-        <v>-1</v>
-      </c>
       <c r="AB209">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC209">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19134,7 +19134,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7404429</v>
+        <v>7404428</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19146,10 +19146,10 @@
         <v>45237.60416666666</v>
       </c>
       <c r="F210" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G210" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H210">
         <v>1</v>
@@ -19161,43 +19161,43 @@
         <v>49</v>
       </c>
       <c r="K210">
-        <v>1.65</v>
+        <v>3.4</v>
       </c>
       <c r="L210">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M210">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="N210">
-        <v>1.65</v>
+        <v>3</v>
       </c>
       <c r="O210">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P210">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="Q210">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R210">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S210">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T210">
         <v>2.25</v>
       </c>
       <c r="U210">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V210">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="W210">
-        <v>0.6499999999999999</v>
+        <v>2</v>
       </c>
       <c r="X210">
         <v>-1</v>
@@ -19206,16 +19206,16 @@
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0.4375</v>
+        <v>0.75</v>
       </c>
       <c r="AA210">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB210">
         <v>-1</v>
       </c>
       <c r="AC210">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -21537,7 +21537,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>7476568</v>
+        <v>7464395</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21549,13 +21549,13 @@
         <v>45273.60416666666</v>
       </c>
       <c r="F237" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G237" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I237">
         <v>0</v>
@@ -21564,34 +21564,34 @@
         <v>49</v>
       </c>
       <c r="K237">
-        <v>2.2</v>
+        <v>1.181</v>
       </c>
       <c r="L237">
+        <v>6.5</v>
+      </c>
+      <c r="M237">
+        <v>13</v>
+      </c>
+      <c r="N237">
+        <v>1.2</v>
+      </c>
+      <c r="O237">
+        <v>6</v>
+      </c>
+      <c r="P237">
+        <v>12</v>
+      </c>
+      <c r="Q237">
+        <v>-1.75</v>
+      </c>
+      <c r="R237">
+        <v>1.775</v>
+      </c>
+      <c r="S237">
+        <v>2.025</v>
+      </c>
+      <c r="T237">
         <v>3</v>
-      </c>
-      <c r="M237">
-        <v>3.4</v>
-      </c>
-      <c r="N237">
-        <v>2.25</v>
-      </c>
-      <c r="O237">
-        <v>2.75</v>
-      </c>
-      <c r="P237">
-        <v>3.6</v>
-      </c>
-      <c r="Q237">
-        <v>-0.25</v>
-      </c>
-      <c r="R237">
-        <v>1.9</v>
-      </c>
-      <c r="S237">
-        <v>1.9</v>
-      </c>
-      <c r="T237">
-        <v>1.75</v>
       </c>
       <c r="U237">
         <v>1.975</v>
@@ -21600,7 +21600,7 @@
         <v>1.825</v>
       </c>
       <c r="W237">
-        <v>1.25</v>
+        <v>0.2</v>
       </c>
       <c r="X237">
         <v>-1</v>
@@ -21609,16 +21609,16 @@
         <v>-1</v>
       </c>
       <c r="Z237">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA237">
         <v>-1</v>
       </c>
       <c r="AB237">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC237">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21626,7 +21626,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7464395</v>
+        <v>7476568</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21638,13 +21638,13 @@
         <v>45273.60416666666</v>
       </c>
       <c r="F238" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G238" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H238">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I238">
         <v>0</v>
@@ -21653,34 +21653,34 @@
         <v>49</v>
       </c>
       <c r="K238">
-        <v>1.181</v>
+        <v>2.2</v>
       </c>
       <c r="L238">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="M238">
-        <v>13</v>
+        <v>3.4</v>
       </c>
       <c r="N238">
-        <v>1.2</v>
+        <v>2.25</v>
       </c>
       <c r="O238">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="P238">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="Q238">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R238">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S238">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T238">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="U238">
         <v>1.975</v>
@@ -21689,7 +21689,7 @@
         <v>1.825</v>
       </c>
       <c r="W238">
-        <v>0.2</v>
+        <v>1.25</v>
       </c>
       <c r="X238">
         <v>-1</v>
@@ -21698,16 +21698,16 @@
         <v>-1</v>
       </c>
       <c r="Z238">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA238">
         <v>-1</v>
       </c>
       <c r="AB238">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC238">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -22071,7 +22071,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>7478004</v>
+        <v>7477991</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22083,76 +22083,76 @@
         <v>45283.4375</v>
       </c>
       <c r="F243" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G243" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243">
         <v>0</v>
       </c>
       <c r="J243" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K243">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="L243">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M243">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="N243">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="O243">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P243">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q243">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R243">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S243">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T243">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U243">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V243">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W243">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X243">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y243">
         <v>-1</v>
       </c>
       <c r="Z243">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA243">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB243">
         <v>-1</v>
       </c>
       <c r="AC243">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -22249,7 +22249,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>7477991</v>
+        <v>7478004</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22261,76 +22261,76 @@
         <v>45283.4375</v>
       </c>
       <c r="F245" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G245" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I245">
         <v>0</v>
       </c>
       <c r="J245" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K245">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="L245">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M245">
-        <v>2.625</v>
+        <v>5</v>
       </c>
       <c r="N245">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="O245">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P245">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="Q245">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R245">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S245">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T245">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U245">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V245">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W245">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X245">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y245">
         <v>-1</v>
       </c>
       <c r="Z245">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA245">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB245">
         <v>-1</v>
       </c>
       <c r="AC245">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -23878,7 +23878,7 @@
         <v>9</v>
       </c>
       <c r="N263">
-        <v>1.45</v>
+        <v>1.444</v>
       </c>
       <c r="O263">
         <v>4</v>
@@ -23887,13 +23887,13 @@
         <v>6.5</v>
       </c>
       <c r="Q263">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R263">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S263">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T263">
         <v>2.25</v>
@@ -24047,24 +24047,246 @@
         <v>2</v>
       </c>
       <c r="U265">
+        <v>1.95</v>
+      </c>
+      <c r="V265">
+        <v>1.85</v>
+      </c>
+      <c r="W265">
+        <v>0</v>
+      </c>
+      <c r="X265">
+        <v>0</v>
+      </c>
+      <c r="Y265">
+        <v>0</v>
+      </c>
+      <c r="Z265">
+        <v>0</v>
+      </c>
+      <c r="AA265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:29">
+      <c r="A266" s="1">
+        <v>264</v>
+      </c>
+      <c r="B266">
+        <v>7628923</v>
+      </c>
+      <c r="C266" t="s">
+        <v>28</v>
+      </c>
+      <c r="D266" t="s">
+        <v>28</v>
+      </c>
+      <c r="E266" s="2">
+        <v>45352.58333333334</v>
+      </c>
+      <c r="F266" t="s">
+        <v>39</v>
+      </c>
+      <c r="G266" t="s">
+        <v>42</v>
+      </c>
+      <c r="K266">
+        <v>1.8</v>
+      </c>
+      <c r="L266">
+        <v>3.1</v>
+      </c>
+      <c r="M266">
+        <v>4.6</v>
+      </c>
+      <c r="N266">
+        <v>1.85</v>
+      </c>
+      <c r="O266">
+        <v>3</v>
+      </c>
+      <c r="P266">
+        <v>4</v>
+      </c>
+      <c r="Q266">
+        <v>-0.5</v>
+      </c>
+      <c r="R266">
+        <v>1.925</v>
+      </c>
+      <c r="S266">
+        <v>1.875</v>
+      </c>
+      <c r="T266">
+        <v>2.25</v>
+      </c>
+      <c r="U266">
+        <v>2.025</v>
+      </c>
+      <c r="V266">
+        <v>1.775</v>
+      </c>
+      <c r="W266">
+        <v>0</v>
+      </c>
+      <c r="X266">
+        <v>0</v>
+      </c>
+      <c r="Y266">
+        <v>0</v>
+      </c>
+      <c r="Z266">
+        <v>0</v>
+      </c>
+      <c r="AA266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:29">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="B267">
+        <v>7628924</v>
+      </c>
+      <c r="C267" t="s">
+        <v>28</v>
+      </c>
+      <c r="D267" t="s">
+        <v>28</v>
+      </c>
+      <c r="E267" s="2">
+        <v>45353.4375</v>
+      </c>
+      <c r="F267" t="s">
+        <v>45</v>
+      </c>
+      <c r="G267" t="s">
+        <v>41</v>
+      </c>
+      <c r="K267">
+        <v>2.8</v>
+      </c>
+      <c r="L267">
+        <v>2.875</v>
+      </c>
+      <c r="M267">
+        <v>2.55</v>
+      </c>
+      <c r="N267">
+        <v>4.5</v>
+      </c>
+      <c r="O267">
+        <v>3</v>
+      </c>
+      <c r="P267">
+        <v>1.85</v>
+      </c>
+      <c r="Q267">
+        <v>0.5</v>
+      </c>
+      <c r="R267">
+        <v>1.9</v>
+      </c>
+      <c r="S267">
+        <v>1.9</v>
+      </c>
+      <c r="T267">
+        <v>2</v>
+      </c>
+      <c r="U267">
+        <v>1.825</v>
+      </c>
+      <c r="V267">
         <v>1.975</v>
       </c>
-      <c r="V265">
-        <v>1.825</v>
-      </c>
-      <c r="W265">
-        <v>0</v>
-      </c>
-      <c r="X265">
-        <v>0</v>
-      </c>
-      <c r="Y265">
-        <v>0</v>
-      </c>
-      <c r="Z265">
-        <v>0</v>
-      </c>
-      <c r="AA265">
+      <c r="W267">
+        <v>0</v>
+      </c>
+      <c r="X267">
+        <v>0</v>
+      </c>
+      <c r="Y267">
+        <v>0</v>
+      </c>
+      <c r="Z267">
+        <v>0</v>
+      </c>
+      <c r="AA267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:29">
+      <c r="A268" s="1">
+        <v>266</v>
+      </c>
+      <c r="B268">
+        <v>7628925</v>
+      </c>
+      <c r="C268" t="s">
+        <v>28</v>
+      </c>
+      <c r="D268" t="s">
+        <v>28</v>
+      </c>
+      <c r="E268" s="2">
+        <v>45353.52083333334</v>
+      </c>
+      <c r="F268" t="s">
+        <v>37</v>
+      </c>
+      <c r="G268" t="s">
+        <v>34</v>
+      </c>
+      <c r="K268">
+        <v>1.833</v>
+      </c>
+      <c r="L268">
+        <v>3.05</v>
+      </c>
+      <c r="M268">
+        <v>4.5</v>
+      </c>
+      <c r="N268">
+        <v>1.363</v>
+      </c>
+      <c r="O268">
+        <v>3.8</v>
+      </c>
+      <c r="P268">
+        <v>10</v>
+      </c>
+      <c r="Q268">
+        <v>-1.25</v>
+      </c>
+      <c r="R268">
+        <v>1.925</v>
+      </c>
+      <c r="S268">
+        <v>1.875</v>
+      </c>
+      <c r="T268">
+        <v>2.25</v>
+      </c>
+      <c r="U268">
+        <v>2</v>
+      </c>
+      <c r="V268">
+        <v>1.8</v>
+      </c>
+      <c r="W268">
+        <v>0</v>
+      </c>
+      <c r="X268">
+        <v>0</v>
+      </c>
+      <c r="Y268">
+        <v>0</v>
+      </c>
+      <c r="Z268">
+        <v>0</v>
+      </c>
+      <c r="AA268">
         <v>0</v>
       </c>
     </row>

--- a/South Africa Premier/South Africa Premier.xlsx
+++ b/South Africa Premier/South Africa Premier.xlsx
@@ -106,13 +106,13 @@
     <t>Cape Town City</t>
   </si>
   <si>
+    <t>Mamelodi Sundowns</t>
+  </si>
+  <si>
     <t>Royal AM FC</t>
   </si>
   <si>
     <t>Sekhukhune United FC</t>
-  </si>
-  <si>
-    <t>Mamelodi Sundowns</t>
   </si>
   <si>
     <t>Richards Bay FC</t>
@@ -151,19 +151,19 @@
     <t>Supersport United</t>
   </si>
   <si>
-    <t>Polokwane City</t>
+    <t>Ajax Cape Town</t>
   </si>
   <si>
-    <t>Ajax Cape Town</t>
+    <t>Polokwane City</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>D</t>
+    <t>H</t>
   </si>
   <si>
-    <t>H</t>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5350153</v>
+        <v>5350154</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -726,10 +726,10 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -738,61 +738,61 @@
         <v>48</v>
       </c>
       <c r="K3">
-        <v>1.909</v>
+        <v>1.333</v>
       </c>
       <c r="L3">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M3">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="N3">
-        <v>2.2</v>
+        <v>1.166</v>
       </c>
       <c r="O3">
-        <v>2.875</v>
+        <v>5.5</v>
       </c>
       <c r="P3">
-        <v>3.3</v>
+        <v>15</v>
       </c>
       <c r="Q3">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R3">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S3">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T3">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U3">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V3">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X3">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
+        <v>0.425</v>
+      </c>
+      <c r="AA3">
         <v>-0.5</v>
       </c>
-      <c r="AA3">
-        <v>0.4375</v>
-      </c>
       <c r="AB3">
         <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -800,7 +800,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5350152</v>
+        <v>5350153</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -815,73 +815,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
         <v>49</v>
       </c>
       <c r="K4">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L4">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="M4">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N4">
         <v>2.2</v>
       </c>
       <c r="O4">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="P4">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q4">
         <v>-0.25</v>
       </c>
       <c r="R4">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S4">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T4">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U4">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V4">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W4">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB4">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -889,7 +889,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5350154</v>
+        <v>5350152</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -904,55 +904,55 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K5">
-        <v>1.333</v>
+        <v>2.3</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="M5">
-        <v>9</v>
+        <v>3.1</v>
       </c>
       <c r="N5">
-        <v>1.166</v>
+        <v>2.2</v>
       </c>
       <c r="O5">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="P5">
-        <v>15</v>
+        <v>3.5</v>
       </c>
       <c r="Q5">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R5">
+        <v>1.95</v>
+      </c>
+      <c r="S5">
         <v>1.85</v>
       </c>
-      <c r="S5">
+      <c r="T5">
+        <v>1.75</v>
+      </c>
+      <c r="U5">
         <v>1.95</v>
       </c>
-      <c r="T5">
-        <v>2.75</v>
-      </c>
-      <c r="U5">
-        <v>2</v>
-      </c>
       <c r="V5">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W5">
-        <v>0.1659999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -961,16 +961,16 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
       <c r="AA5">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC5">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -993,7 +993,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K7">
         <v>2.05</v>
@@ -1269,7 +1269,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K9">
         <v>2.8</v>
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K10">
         <v>2.3</v>
@@ -1438,7 +1438,7 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1524,7 +1524,7 @@
         <v>44934.4375</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G12" t="s">
         <v>40</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K12">
         <v>2.375</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K13">
         <v>2.4</v>
@@ -1702,7 +1702,7 @@
         <v>44936.60416666666</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
         <v>42</v>
@@ -1714,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K14">
         <v>1.444</v>
@@ -1803,7 +1803,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K16">
         <v>2.6</v>
@@ -2070,7 +2070,7 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K18">
         <v>1.727</v>
@@ -2150,7 +2150,7 @@
         <v>39</v>
       </c>
       <c r="G19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K20">
         <v>2.55</v>
@@ -2337,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K21">
         <v>2.5</v>
@@ -2417,7 +2417,7 @@
         <v>43</v>
       </c>
       <c r="G22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H22">
         <v>3</v>
@@ -2426,7 +2426,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K22">
         <v>2.45</v>
@@ -2503,7 +2503,7 @@
         <v>44942.54166666666</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G23" t="s">
         <v>44</v>
@@ -2515,7 +2515,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K23">
         <v>1.615</v>
@@ -2604,7 +2604,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K24">
         <v>1.909</v>
@@ -2681,7 +2681,7 @@
         <v>44946.60416666666</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G25" t="s">
         <v>34</v>
@@ -2693,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K25">
         <v>2.05</v>
@@ -2859,7 +2859,7 @@
         <v>44947.4375</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
         <v>42</v>
@@ -2871,7 +2871,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K27">
         <v>2.15</v>
@@ -2951,7 +2951,7 @@
         <v>37</v>
       </c>
       <c r="G28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -3138,7 +3138,7 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K30">
         <v>2.2</v>
@@ -3227,7 +3227,7 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K31">
         <v>2.4</v>
@@ -3307,7 +3307,7 @@
         <v>38</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3405,7 +3405,7 @@
         <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K33">
         <v>2.3</v>
@@ -3494,7 +3494,7 @@
         <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K34">
         <v>2.5</v>
@@ -3571,11 +3571,11 @@
         <v>44954.4375</v>
       </c>
       <c r="F35" t="s">
+        <v>30</v>
+      </c>
+      <c r="G35" t="s">
         <v>32</v>
       </c>
-      <c r="G35" t="s">
-        <v>31</v>
-      </c>
       <c r="H35">
         <v>2</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K35">
         <v>1.363</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K38">
         <v>2</v>
@@ -3939,7 +3939,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K39">
         <v>2.375</v>
@@ -4004,7 +4004,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5350212</v>
+        <v>5350213</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4016,58 +4016,58 @@
         <v>44955.52083333334</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G40" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K40">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="L40">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="M40">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="N40">
-        <v>1.833</v>
+        <v>2.5</v>
       </c>
       <c r="O40">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="P40">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="Q40">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R40">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="S40">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="T40">
         <v>2</v>
       </c>
       <c r="U40">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V40">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W40">
-        <v>0.833</v>
+        <v>1.5</v>
       </c>
       <c r="X40">
         <v>-1</v>
@@ -4076,16 +4076,16 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.95</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA40">
         <v>-1</v>
       </c>
       <c r="AB40">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC40">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4093,7 +4093,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5350213</v>
+        <v>5350212</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4105,58 +4105,58 @@
         <v>44955.52083333334</v>
       </c>
       <c r="F41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G41" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K41">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="L41">
+        <v>2.8</v>
+      </c>
+      <c r="M41">
+        <v>4.75</v>
+      </c>
+      <c r="N41">
+        <v>1.833</v>
+      </c>
+      <c r="O41">
         <v>2.9</v>
       </c>
-      <c r="M41">
-        <v>3.2</v>
-      </c>
-      <c r="N41">
-        <v>2.5</v>
-      </c>
-      <c r="O41">
-        <v>2.7</v>
-      </c>
       <c r="P41">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R41">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="S41">
-        <v>2.075</v>
+        <v>1.85</v>
       </c>
       <c r="T41">
         <v>2</v>
       </c>
       <c r="U41">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V41">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W41">
-        <v>1.5</v>
+        <v>0.833</v>
       </c>
       <c r="X41">
         <v>-1</v>
@@ -4165,16 +4165,16 @@
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.7250000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA41">
         <v>-1</v>
       </c>
       <c r="AB41">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K42">
         <v>2.9</v>
@@ -4295,7 +4295,7 @@
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K43">
         <v>2.6</v>
@@ -4360,7 +4360,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5349193</v>
+        <v>5350216</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4372,56 +4372,56 @@
         <v>44961.4375</v>
       </c>
       <c r="F44" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J44" t="s">
         <v>47</v>
       </c>
       <c r="K44">
-        <v>5</v>
+        <v>2.55</v>
       </c>
       <c r="L44">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="M44">
-        <v>1.615</v>
+        <v>2.625</v>
       </c>
       <c r="N44">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="O44">
         <v>3</v>
       </c>
       <c r="P44">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="Q44">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R44">
+        <v>1.925</v>
+      </c>
+      <c r="S44">
+        <v>1.875</v>
+      </c>
+      <c r="T44">
+        <v>2</v>
+      </c>
+      <c r="U44">
         <v>1.85</v>
       </c>
-      <c r="S44">
+      <c r="V44">
         <v>1.95</v>
       </c>
-      <c r="T44">
-        <v>2</v>
-      </c>
-      <c r="U44">
-        <v>1.95</v>
-      </c>
-      <c r="V44">
-        <v>1.85</v>
-      </c>
       <c r="W44">
         <v>-1</v>
       </c>
@@ -4429,19 +4429,19 @@
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="Z44">
         <v>-1</v>
       </c>
       <c r="AA44">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC44">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4449,7 +4449,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5350215</v>
+        <v>5349193</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4461,55 +4461,55 @@
         <v>44961.4375</v>
       </c>
       <c r="F45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G45" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
         <v>1</v>
-      </c>
-      <c r="I45">
-        <v>2</v>
       </c>
       <c r="J45" t="s">
         <v>47</v>
       </c>
       <c r="K45">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="L45">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M45">
-        <v>3</v>
+        <v>1.615</v>
       </c>
       <c r="N45">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="O45">
         <v>3</v>
       </c>
       <c r="P45">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R45">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S45">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T45">
         <v>2</v>
       </c>
       <c r="U45">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V45">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W45">
         <v>-1</v>
@@ -4518,19 +4518,19 @@
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="Z45">
         <v>-1</v>
       </c>
       <c r="AA45">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB45">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4538,7 +4538,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>5350216</v>
+        <v>5350215</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4550,10 +4550,10 @@
         <v>44961.4375</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G46" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -4565,40 +4565,40 @@
         <v>47</v>
       </c>
       <c r="K46">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="L46">
         <v>2.9</v>
       </c>
       <c r="M46">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="N46">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="O46">
         <v>3</v>
       </c>
       <c r="P46">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="Q46">
         <v>0</v>
       </c>
       <c r="R46">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S46">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T46">
         <v>2</v>
       </c>
       <c r="U46">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V46">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W46">
         <v>-1</v>
@@ -4607,16 +4607,16 @@
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="Z46">
         <v>-1</v>
       </c>
       <c r="AA46">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB46">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -4651,7 +4651,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K47">
         <v>1.8</v>
@@ -4731,7 +4731,7 @@
         <v>35</v>
       </c>
       <c r="G48" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -4740,7 +4740,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K48">
         <v>2.55</v>
@@ -4829,7 +4829,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K49">
         <v>2.625</v>
@@ -4918,7 +4918,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K50">
         <v>1.75</v>
@@ -4995,7 +4995,7 @@
         <v>44975.4375</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G51" t="s">
         <v>44</v>
@@ -5007,7 +5007,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K51">
         <v>2.7</v>
@@ -5084,7 +5084,7 @@
         <v>44975.52083333334</v>
       </c>
       <c r="F52" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G52" t="s">
         <v>33</v>
@@ -5096,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K52">
         <v>2.7</v>
@@ -5363,7 +5363,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K55">
         <v>2.05</v>
@@ -5452,7 +5452,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K56">
         <v>1.75</v>
@@ -5541,7 +5541,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K57">
         <v>2.5</v>
@@ -5606,7 +5606,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6179860</v>
+        <v>5350229</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5618,31 +5618,31 @@
         <v>44982.52083333334</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G58" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J58" t="s">
         <v>47</v>
       </c>
       <c r="K58">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L58">
         <v>2.875</v>
       </c>
       <c r="M58">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N58">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="O58">
         <v>2.75</v>
@@ -5654,19 +5654,19 @@
         <v>0</v>
       </c>
       <c r="R58">
+        <v>1.725</v>
+      </c>
+      <c r="S58">
+        <v>2.075</v>
+      </c>
+      <c r="T58">
         <v>1.75</v>
       </c>
-      <c r="S58">
-        <v>2.05</v>
-      </c>
-      <c r="T58">
-        <v>2</v>
-      </c>
       <c r="U58">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V58">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W58">
         <v>-1</v>
@@ -5681,13 +5681,13 @@
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>1.05</v>
+        <v>1.075</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC58">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5695,7 +5695,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>5350229</v>
+        <v>6179860</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5707,31 +5707,31 @@
         <v>44982.52083333334</v>
       </c>
       <c r="F59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G59" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
         <v>1</v>
-      </c>
-      <c r="I59">
-        <v>2</v>
       </c>
       <c r="J59" t="s">
         <v>47</v>
       </c>
       <c r="K59">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L59">
         <v>2.875</v>
       </c>
       <c r="M59">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N59">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="O59">
         <v>2.75</v>
@@ -5743,19 +5743,19 @@
         <v>0</v>
       </c>
       <c r="R59">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="S59">
-        <v>2.075</v>
+        <v>2.05</v>
       </c>
       <c r="T59">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U59">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V59">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W59">
         <v>-1</v>
@@ -5770,13 +5770,13 @@
         <v>-1</v>
       </c>
       <c r="AA59">
-        <v>1.075</v>
+        <v>1.05</v>
       </c>
       <c r="AB59">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC59">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5799,7 +5799,7 @@
         <v>40</v>
       </c>
       <c r="G60" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -5808,7 +5808,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K60">
         <v>2.2</v>
@@ -6152,10 +6152,10 @@
         <v>44989.53125</v>
       </c>
       <c r="F64" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G64" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -6164,7 +6164,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K64">
         <v>2.6</v>
@@ -6318,7 +6318,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>5350240</v>
+        <v>6335029</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6330,76 +6330,76 @@
         <v>44990.4375</v>
       </c>
       <c r="F66" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G66" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K66">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="L66">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M66">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="N66">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="O66">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P66">
-        <v>2.3</v>
+        <v>1.666</v>
       </c>
       <c r="Q66">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R66">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S66">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="T66">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U66">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V66">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W66">
         <v>-1</v>
       </c>
       <c r="X66">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y66">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA66">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC66">
-        <v>-0</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6407,7 +6407,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6335029</v>
+        <v>5350240</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6419,76 +6419,76 @@
         <v>44990.4375</v>
       </c>
       <c r="F67" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G67" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K67">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="L67">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="M67">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="N67">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="O67">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P67">
-        <v>1.666</v>
+        <v>2.3</v>
       </c>
       <c r="Q67">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R67">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="S67">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="T67">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U67">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V67">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W67">
         <v>-1</v>
       </c>
       <c r="X67">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z67">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AB67">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC67">
-        <v>0.4875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6520,7 +6520,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K68">
         <v>2.4</v>
@@ -6609,7 +6609,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K69">
         <v>1.8</v>
@@ -6698,7 +6698,7 @@
         <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K70">
         <v>1.8</v>
@@ -6775,10 +6775,10 @@
         <v>44999.60416666666</v>
       </c>
       <c r="F71" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G71" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H71">
         <v>5</v>
@@ -6787,7 +6787,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K71">
         <v>1.363</v>
@@ -6852,7 +6852,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5350244</v>
+        <v>5350242</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6864,76 +6864,76 @@
         <v>45002.60416666666</v>
       </c>
       <c r="F72" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G72" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K72">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L72">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="M72">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="N72">
-        <v>2.375</v>
+        <v>2.55</v>
       </c>
       <c r="O72">
+        <v>2.625</v>
+      </c>
+      <c r="P72">
         <v>2.8</v>
       </c>
-      <c r="P72">
-        <v>3.1</v>
-      </c>
       <c r="Q72">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R72">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S72">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T72">
         <v>2</v>
       </c>
       <c r="U72">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V72">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W72">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z72">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB72">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC72">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6941,7 +6941,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>5350242</v>
+        <v>5350244</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6953,76 +6953,76 @@
         <v>45002.60416666666</v>
       </c>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G73" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K73">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L73">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="M73">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="N73">
-        <v>2.55</v>
+        <v>2.375</v>
       </c>
       <c r="O73">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="P73">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q73">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R73">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S73">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T73">
         <v>2</v>
       </c>
       <c r="U73">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V73">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA73">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC73">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7042,7 +7042,7 @@
         <v>45003.4375</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G74" t="s">
         <v>42</v>
@@ -7054,7 +7054,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K74">
         <v>1.85</v>
@@ -7143,7 +7143,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K75">
         <v>2.15</v>
@@ -7321,7 +7321,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K77">
         <v>2.55</v>
@@ -7475,7 +7475,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6461126</v>
+        <v>5350252</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7487,13 +7487,13 @@
         <v>45017.52083333334</v>
       </c>
       <c r="F79" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G79" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79">
         <v>1</v>
@@ -7502,34 +7502,34 @@
         <v>48</v>
       </c>
       <c r="K79">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="L79">
         <v>3</v>
       </c>
       <c r="M79">
-        <v>1.909</v>
+        <v>4.2</v>
       </c>
       <c r="N79">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O79">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P79">
-        <v>1.85</v>
+        <v>3.5</v>
       </c>
       <c r="Q79">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R79">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S79">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T79">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U79">
         <v>1.925</v>
@@ -7538,25 +7538,25 @@
         <v>1.875</v>
       </c>
       <c r="W79">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X79">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y79">
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA79">
         <v>-1</v>
       </c>
       <c r="AB79">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC79">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7564,7 +7564,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>5350252</v>
+        <v>6461126</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7576,13 +7576,13 @@
         <v>45017.52083333334</v>
       </c>
       <c r="F80" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G80" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80">
         <v>1</v>
@@ -7591,34 +7591,34 @@
         <v>49</v>
       </c>
       <c r="K80">
-        <v>1.85</v>
+        <v>4</v>
       </c>
       <c r="L80">
         <v>3</v>
       </c>
       <c r="M80">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="N80">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O80">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P80">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q80">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R80">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S80">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T80">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U80">
         <v>1.925</v>
@@ -7627,25 +7627,25 @@
         <v>1.875</v>
       </c>
       <c r="W80">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X80">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y80">
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA80">
         <v>-1</v>
       </c>
       <c r="AB80">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC80">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7757,7 +7757,7 @@
         <v>36</v>
       </c>
       <c r="G82" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -7766,7 +7766,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K82">
         <v>2.2</v>
@@ -7932,7 +7932,7 @@
         <v>45020.60416666666</v>
       </c>
       <c r="F84" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G84" t="s">
         <v>29</v>
@@ -7944,7 +7944,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K84">
         <v>1.363</v>
@@ -8024,7 +8024,7 @@
         <v>35</v>
       </c>
       <c r="G85" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H85">
         <v>3</v>
@@ -8033,7 +8033,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K85">
         <v>2.6</v>
@@ -8122,7 +8122,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K86">
         <v>1.7</v>
@@ -8276,7 +8276,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>5349199</v>
+        <v>5350258</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8288,76 +8288,76 @@
         <v>45024.52083333334</v>
       </c>
       <c r="F88" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G88" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K88">
+        <v>1.909</v>
+      </c>
+      <c r="L88">
+        <v>2.9</v>
+      </c>
+      <c r="M88">
         <v>4.333</v>
       </c>
-      <c r="L88">
-        <v>3</v>
-      </c>
-      <c r="M88">
-        <v>1.85</v>
-      </c>
       <c r="N88">
-        <v>5.5</v>
+        <v>1.909</v>
       </c>
       <c r="O88">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P88">
-        <v>1.65</v>
+        <v>4</v>
       </c>
       <c r="Q88">
+        <v>-0.5</v>
+      </c>
+      <c r="R88">
+        <v>2.025</v>
+      </c>
+      <c r="S88">
+        <v>1.775</v>
+      </c>
+      <c r="T88">
+        <v>2</v>
+      </c>
+      <c r="U88">
+        <v>2.05</v>
+      </c>
+      <c r="V88">
+        <v>1.75</v>
+      </c>
+      <c r="W88">
+        <v>0.909</v>
+      </c>
+      <c r="X88">
+        <v>-1</v>
+      </c>
+      <c r="Y88">
+        <v>-1</v>
+      </c>
+      <c r="Z88">
+        <v>1.025</v>
+      </c>
+      <c r="AA88">
+        <v>-1</v>
+      </c>
+      <c r="AB88">
+        <v>-1</v>
+      </c>
+      <c r="AC88">
         <v>0.75</v>
-      </c>
-      <c r="R88">
-        <v>1.95</v>
-      </c>
-      <c r="S88">
-        <v>1.85</v>
-      </c>
-      <c r="T88">
-        <v>2.25</v>
-      </c>
-      <c r="U88">
-        <v>2.075</v>
-      </c>
-      <c r="V88">
-        <v>1.725</v>
-      </c>
-      <c r="W88">
-        <v>-1</v>
-      </c>
-      <c r="X88">
-        <v>-1</v>
-      </c>
-      <c r="Y88">
-        <v>0.6499999999999999</v>
-      </c>
-      <c r="Z88">
-        <v>-1</v>
-      </c>
-      <c r="AA88">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB88">
-        <v>-0.5</v>
-      </c>
-      <c r="AC88">
-        <v>0.3625</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8365,7 +8365,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>5350258</v>
+        <v>5349199</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8377,76 +8377,76 @@
         <v>45024.52083333334</v>
       </c>
       <c r="F89" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G89" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K89">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="L89">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M89">
-        <v>4.333</v>
+        <v>1.85</v>
       </c>
       <c r="N89">
-        <v>1.909</v>
+        <v>5.5</v>
       </c>
       <c r="O89">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P89">
-        <v>4</v>
+        <v>1.65</v>
       </c>
       <c r="Q89">
+        <v>0.75</v>
+      </c>
+      <c r="R89">
+        <v>1.95</v>
+      </c>
+      <c r="S89">
+        <v>1.85</v>
+      </c>
+      <c r="T89">
+        <v>2.25</v>
+      </c>
+      <c r="U89">
+        <v>2.075</v>
+      </c>
+      <c r="V89">
+        <v>1.725</v>
+      </c>
+      <c r="W89">
+        <v>-1</v>
+      </c>
+      <c r="X89">
+        <v>-1</v>
+      </c>
+      <c r="Y89">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="Z89">
+        <v>-1</v>
+      </c>
+      <c r="AA89">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB89">
         <v>-0.5</v>
       </c>
-      <c r="R89">
-        <v>2.025</v>
-      </c>
-      <c r="S89">
-        <v>1.775</v>
-      </c>
-      <c r="T89">
-        <v>2</v>
-      </c>
-      <c r="U89">
-        <v>2.05</v>
-      </c>
-      <c r="V89">
-        <v>1.75</v>
-      </c>
-      <c r="W89">
-        <v>0.909</v>
-      </c>
-      <c r="X89">
-        <v>-1</v>
-      </c>
-      <c r="Y89">
-        <v>-1</v>
-      </c>
-      <c r="Z89">
-        <v>1.025</v>
-      </c>
-      <c r="AA89">
-        <v>-1</v>
-      </c>
-      <c r="AB89">
-        <v>-1</v>
-      </c>
       <c r="AC89">
-        <v>0.75</v>
+        <v>0.3625</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8478,7 +8478,7 @@
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K90">
         <v>1.8</v>
@@ -8543,7 +8543,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5350261</v>
+        <v>5350260</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8555,76 +8555,76 @@
         <v>45025.41666666666</v>
       </c>
       <c r="F91" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G91" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="s">
         <v>48</v>
       </c>
       <c r="K91">
-        <v>6.5</v>
+        <v>2.55</v>
       </c>
       <c r="L91">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="M91">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="N91">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="O91">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="P91">
-        <v>1.666</v>
+        <v>2.8</v>
       </c>
       <c r="Q91">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R91">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S91">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T91">
         <v>2.25</v>
       </c>
       <c r="U91">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V91">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W91">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X91">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA91">
         <v>-1</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC91">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8632,7 +8632,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>5350260</v>
+        <v>5350261</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8644,76 +8644,76 @@
         <v>45025.41666666666</v>
       </c>
       <c r="F92" t="s">
+        <v>34</v>
+      </c>
+      <c r="G92" t="s">
         <v>30</v>
       </c>
-      <c r="G92" t="s">
-        <v>39</v>
-      </c>
       <c r="H92">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="s">
         <v>49</v>
       </c>
       <c r="K92">
-        <v>2.55</v>
+        <v>6.5</v>
       </c>
       <c r="L92">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="M92">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="N92">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="O92">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="P92">
-        <v>2.8</v>
+        <v>1.666</v>
       </c>
       <c r="Q92">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R92">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S92">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T92">
         <v>2.25</v>
       </c>
       <c r="U92">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V92">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W92">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X92">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA92">
+        <v>-1</v>
+      </c>
+      <c r="AB92">
+        <v>-1</v>
+      </c>
+      <c r="AC92">
         <v>0.8</v>
-      </c>
-      <c r="AA92">
-        <v>-1</v>
-      </c>
-      <c r="AB92">
-        <v>1.05</v>
-      </c>
-      <c r="AC92">
-        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8745,7 +8745,7 @@
         <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K93">
         <v>2</v>
@@ -8834,7 +8834,7 @@
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K94">
         <v>2.7</v>
@@ -8914,7 +8914,7 @@
         <v>36</v>
       </c>
       <c r="G95" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -8923,7 +8923,7 @@
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K95">
         <v>5</v>
@@ -9012,7 +9012,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K96">
         <v>2.9</v>
@@ -9101,7 +9101,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K97">
         <v>2.55</v>
@@ -9190,7 +9190,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K98">
         <v>1.833</v>
@@ -9270,7 +9270,7 @@
         <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -9279,7 +9279,7 @@
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K99">
         <v>2.3</v>
@@ -9368,7 +9368,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K100">
         <v>2.1</v>
@@ -9445,7 +9445,7 @@
         <v>45039.41666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G101" t="s">
         <v>37</v>
@@ -9457,7 +9457,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K101">
         <v>2.875</v>
@@ -9546,7 +9546,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K102">
         <v>1.85</v>
@@ -9623,7 +9623,7 @@
         <v>45041.41666666666</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G103" t="s">
         <v>33</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K103">
         <v>1.333</v>
@@ -9813,7 +9813,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K105">
         <v>2.1</v>
@@ -9890,7 +9890,7 @@
         <v>45045.41666666666</v>
       </c>
       <c r="F106" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G106" t="s">
         <v>29</v>
@@ -9991,7 +9991,7 @@
         <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K107">
         <v>2.25</v>
@@ -10071,7 +10071,7 @@
         <v>40</v>
       </c>
       <c r="G108" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H108">
         <v>2</v>
@@ -10080,7 +10080,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K108">
         <v>2.45</v>
@@ -10347,7 +10347,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K111">
         <v>1.909</v>
@@ -10427,7 +10427,7 @@
         <v>41</v>
       </c>
       <c r="G112" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -10436,7 +10436,7 @@
         <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K112">
         <v>1.8</v>
@@ -10513,7 +10513,7 @@
         <v>45049.51041666666</v>
       </c>
       <c r="F113" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G113" t="s">
         <v>38</v>
@@ -10525,7 +10525,7 @@
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K113">
         <v>2.1</v>
@@ -10590,7 +10590,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>5350279</v>
+        <v>5350283</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10602,76 +10602,76 @@
         <v>45049.60416666666</v>
       </c>
       <c r="F114" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G114" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J114" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K114">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="L114">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M114">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N114">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="O114">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P114">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="Q114">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R114">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S114">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T114">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U114">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V114">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W114">
         <v>-1</v>
       </c>
       <c r="X114">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y114">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z114">
         <v>-1</v>
       </c>
       <c r="AA114">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC114">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10679,7 +10679,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>5350280</v>
+        <v>6588907</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10691,10 +10691,10 @@
         <v>45049.60416666666</v>
       </c>
       <c r="F115" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G115" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H115">
         <v>2</v>
@@ -10703,61 +10703,61 @@
         <v>2</v>
       </c>
       <c r="J115" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K115">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="L115">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="M115">
-        <v>1.666</v>
+        <v>2.9</v>
       </c>
       <c r="N115">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="O115">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="P115">
-        <v>1.65</v>
+        <v>2.55</v>
       </c>
       <c r="Q115">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R115">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S115">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T115">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U115">
+        <v>1.975</v>
+      </c>
+      <c r="V115">
+        <v>1.825</v>
+      </c>
+      <c r="W115">
+        <v>-1</v>
+      </c>
+      <c r="X115">
         <v>1.8</v>
       </c>
-      <c r="V115">
-        <v>2</v>
-      </c>
-      <c r="W115">
-        <v>-1</v>
-      </c>
-      <c r="X115">
-        <v>2.5</v>
-      </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB115">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC115">
         <v>-1</v>
@@ -10768,7 +10768,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>5350283</v>
+        <v>5350280</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10780,73 +10780,73 @@
         <v>45049.60416666666</v>
       </c>
       <c r="F116" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G116" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H116">
         <v>2</v>
       </c>
       <c r="I116">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J116" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K116">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="L116">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M116">
-        <v>3.6</v>
+        <v>1.666</v>
       </c>
       <c r="N116">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="O116">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P116">
-        <v>3.6</v>
+        <v>1.65</v>
       </c>
       <c r="Q116">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R116">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S116">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T116">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U116">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V116">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y116">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA116">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC116">
         <v>-1</v>
@@ -10857,7 +10857,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6588907</v>
+        <v>5350279</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10869,76 +10869,76 @@
         <v>45049.60416666666</v>
       </c>
       <c r="F117" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G117" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K117">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="L117">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="M117">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="N117">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="O117">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="P117">
-        <v>2.55</v>
+        <v>4.333</v>
       </c>
       <c r="Q117">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R117">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S117">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T117">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U117">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V117">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA117">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB117">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC117">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10961,7 +10961,7 @@
         <v>35</v>
       </c>
       <c r="G118" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -11035,7 +11035,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>5350287</v>
+        <v>5350289</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11047,58 +11047,58 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F119" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G119" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I119">
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K119">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="L119">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M119">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="N119">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="O119">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P119">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="Q119">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R119">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S119">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T119">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U119">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V119">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W119">
-        <v>1.25</v>
+        <v>0.909</v>
       </c>
       <c r="X119">
         <v>-1</v>
@@ -11107,16 +11107,16 @@
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AA119">
         <v>-1</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC119">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11124,7 +11124,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>5350288</v>
+        <v>5350286</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11136,76 +11136,76 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F120" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G120" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K120">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="L120">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M120">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="N120">
-        <v>2.6</v>
+        <v>1.85</v>
       </c>
       <c r="O120">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="P120">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="Q120">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R120">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S120">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T120">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U120">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V120">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA120">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC120">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11213,7 +11213,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>5350289</v>
+        <v>5350288</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11225,76 +11225,76 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F121" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G121" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H121">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K121">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L121">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M121">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="N121">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="O121">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="P121">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="Q121">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R121">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S121">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T121">
         <v>2</v>
       </c>
       <c r="U121">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V121">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W121">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z121">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB121">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC121">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11302,7 +11302,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>5350286</v>
+        <v>5350290</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11314,58 +11314,58 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F122" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G122" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122">
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K122">
+        <v>2.05</v>
+      </c>
+      <c r="L122">
+        <v>3</v>
+      </c>
+      <c r="M122">
+        <v>3.5</v>
+      </c>
+      <c r="N122">
+        <v>2.4</v>
+      </c>
+      <c r="O122">
+        <v>2.875</v>
+      </c>
+      <c r="P122">
+        <v>2.9</v>
+      </c>
+      <c r="Q122">
+        <v>0</v>
+      </c>
+      <c r="R122">
         <v>1.75</v>
       </c>
-      <c r="L122">
-        <v>3.2</v>
-      </c>
-      <c r="M122">
-        <v>4.5</v>
-      </c>
-      <c r="N122">
+      <c r="S122">
+        <v>2.05</v>
+      </c>
+      <c r="T122">
+        <v>2</v>
+      </c>
+      <c r="U122">
         <v>1.85</v>
       </c>
-      <c r="O122">
-        <v>3.2</v>
-      </c>
-      <c r="P122">
-        <v>4</v>
-      </c>
-      <c r="Q122">
-        <v>-0.5</v>
-      </c>
-      <c r="R122">
-        <v>1.9</v>
-      </c>
-      <c r="S122">
-        <v>1.9</v>
-      </c>
-      <c r="T122">
-        <v>2.25</v>
-      </c>
-      <c r="U122">
+      <c r="V122">
         <v>1.95</v>
       </c>
-      <c r="V122">
-        <v>1.85</v>
-      </c>
       <c r="W122">
-        <v>0.8500000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="X122">
         <v>-1</v>
@@ -11374,16 +11374,16 @@
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AA122">
         <v>-1</v>
       </c>
       <c r="AB122">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC122">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11391,7 +11391,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>5350284</v>
+        <v>5349203</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11403,76 +11403,76 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F123" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G123" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H123">
         <v>1</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="s">
         <v>49</v>
       </c>
       <c r="K123">
-        <v>2.25</v>
+        <v>1.55</v>
       </c>
       <c r="L123">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="M123">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="N123">
-        <v>2.625</v>
+        <v>1.4</v>
       </c>
       <c r="O123">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="P123">
+        <v>7.5</v>
+      </c>
+      <c r="Q123">
+        <v>-1.25</v>
+      </c>
+      <c r="R123">
+        <v>1.975</v>
+      </c>
+      <c r="S123">
+        <v>1.825</v>
+      </c>
+      <c r="T123">
+        <v>2</v>
+      </c>
+      <c r="U123">
+        <v>1.75</v>
+      </c>
+      <c r="V123">
+        <v>2.05</v>
+      </c>
+      <c r="W123">
+        <v>-1</v>
+      </c>
+      <c r="X123">
         <v>2.8</v>
       </c>
-      <c r="Q123">
-        <v>0</v>
-      </c>
-      <c r="R123">
-        <v>1.775</v>
-      </c>
-      <c r="S123">
-        <v>2.025</v>
-      </c>
-      <c r="T123">
-        <v>2</v>
-      </c>
-      <c r="U123">
-        <v>1.85</v>
-      </c>
-      <c r="V123">
-        <v>1.95</v>
-      </c>
-      <c r="W123">
-        <v>1.625</v>
-      </c>
-      <c r="X123">
-        <v>-1</v>
-      </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC123">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11480,7 +11480,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>5349203</v>
+        <v>5350284</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11492,76 +11492,76 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F124" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G124" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H124">
         <v>1</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="s">
         <v>48</v>
       </c>
       <c r="K124">
-        <v>1.55</v>
+        <v>2.25</v>
       </c>
       <c r="L124">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="M124">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="N124">
-        <v>1.4</v>
+        <v>2.625</v>
       </c>
       <c r="O124">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="P124">
-        <v>7.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q124">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R124">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S124">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T124">
         <v>2</v>
       </c>
       <c r="U124">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V124">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X124">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA124">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11569,7 +11569,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>5350290</v>
+        <v>5350287</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11581,10 +11581,10 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F125" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G125" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -11593,46 +11593,46 @@
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K125">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="L125">
+        <v>2.9</v>
+      </c>
+      <c r="M125">
+        <v>2.55</v>
+      </c>
+      <c r="N125">
+        <v>2.25</v>
+      </c>
+      <c r="O125">
         <v>3</v>
-      </c>
-      <c r="M125">
-        <v>3.5</v>
-      </c>
-      <c r="N125">
-        <v>2.4</v>
-      </c>
-      <c r="O125">
-        <v>2.875</v>
       </c>
       <c r="P125">
         <v>2.9</v>
       </c>
       <c r="Q125">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R125">
+        <v>2.05</v>
+      </c>
+      <c r="S125">
         <v>1.75</v>
       </c>
-      <c r="S125">
-        <v>2.05</v>
-      </c>
       <c r="T125">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U125">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V125">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W125">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11641,7 +11641,7 @@
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.75</v>
+        <v>1.05</v>
       </c>
       <c r="AA125">
         <v>-1</v>
@@ -11650,7 +11650,7 @@
         <v>-1</v>
       </c>
       <c r="AC125">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11670,7 +11670,7 @@
         <v>45062.60416666666</v>
       </c>
       <c r="F126" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G126" t="s">
         <v>43</v>
@@ -11682,7 +11682,7 @@
         <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K126">
         <v>1.363</v>
@@ -11747,7 +11747,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>5350291</v>
+        <v>5349204</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11759,76 +11759,76 @@
         <v>45066.41666666666</v>
       </c>
       <c r="F127" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G127" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H127">
         <v>0</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J127" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K127">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="L127">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M127">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="N127">
-        <v>1.95</v>
+        <v>6</v>
       </c>
       <c r="O127">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P127">
-        <v>3.8</v>
+        <v>1.571</v>
       </c>
       <c r="Q127">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R127">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S127">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T127">
         <v>2.25</v>
       </c>
       <c r="U127">
+        <v>1.85</v>
+      </c>
+      <c r="V127">
         <v>1.95</v>
       </c>
-      <c r="V127">
-        <v>1.85</v>
-      </c>
       <c r="W127">
         <v>-1</v>
       </c>
       <c r="X127">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y127">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z127">
         <v>-1</v>
       </c>
       <c r="AA127">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB127">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC127">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11836,7 +11836,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>5349204</v>
+        <v>5350291</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11848,76 +11848,76 @@
         <v>45066.41666666666</v>
       </c>
       <c r="F128" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G128" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H128">
         <v>0</v>
       </c>
       <c r="I128">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K128">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="L128">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M128">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="N128">
-        <v>6</v>
+        <v>1.95</v>
       </c>
       <c r="O128">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P128">
-        <v>1.571</v>
+        <v>3.8</v>
       </c>
       <c r="Q128">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R128">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S128">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T128">
         <v>2.25</v>
       </c>
       <c r="U128">
+        <v>1.95</v>
+      </c>
+      <c r="V128">
         <v>1.85</v>
       </c>
-      <c r="V128">
-        <v>1.95</v>
-      </c>
       <c r="W128">
         <v>-1</v>
       </c>
       <c r="X128">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y128">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z128">
         <v>-1</v>
       </c>
       <c r="AA128">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB128">
+        <v>-1</v>
+      </c>
+      <c r="AC128">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC128">
-        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11925,7 +11925,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>5350296</v>
+        <v>5350298</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11937,76 +11937,76 @@
         <v>45066.41666666666</v>
       </c>
       <c r="F129" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G129" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K129">
+        <v>2.875</v>
+      </c>
+      <c r="L129">
+        <v>2.875</v>
+      </c>
+      <c r="M129">
+        <v>2.5</v>
+      </c>
+      <c r="N129">
+        <v>3.25</v>
+      </c>
+      <c r="O129">
+        <v>2.9</v>
+      </c>
+      <c r="P129">
+        <v>2.25</v>
+      </c>
+      <c r="Q129">
+        <v>0.25</v>
+      </c>
+      <c r="R129">
+        <v>1.85</v>
+      </c>
+      <c r="S129">
         <v>1.95</v>
       </c>
-      <c r="L129">
-        <v>3.2</v>
-      </c>
-      <c r="M129">
-        <v>3.75</v>
-      </c>
-      <c r="N129">
-        <v>1.75</v>
-      </c>
-      <c r="O129">
-        <v>3.6</v>
-      </c>
-      <c r="P129">
-        <v>4.2</v>
-      </c>
-      <c r="Q129">
-        <v>-0.75</v>
-      </c>
-      <c r="R129">
-        <v>2</v>
-      </c>
-      <c r="S129">
-        <v>1.8</v>
-      </c>
       <c r="T129">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U129">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V129">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W129">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA129">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB129">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC129">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12014,7 +12014,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>5350299</v>
+        <v>5350296</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12026,76 +12026,76 @@
         <v>45066.41666666666</v>
       </c>
       <c r="F130" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G130" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H130">
         <v>0</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K130">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="L130">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M130">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="N130">
-        <v>1.615</v>
+        <v>1.75</v>
       </c>
       <c r="O130">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P130">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q130">
         <v>-0.75</v>
       </c>
       <c r="R130">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S130">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T130">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U130">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V130">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z130">
         <v>-1</v>
       </c>
       <c r="AA130">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB130">
         <v>-1</v>
       </c>
       <c r="AC130">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12103,7 +12103,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>5350298</v>
+        <v>5350297</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12115,58 +12115,58 @@
         <v>45066.41666666666</v>
       </c>
       <c r="F131" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G131" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131">
         <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K131">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="L131">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M131">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="N131">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="O131">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P131">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="Q131">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R131">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S131">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T131">
         <v>2</v>
       </c>
       <c r="U131">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V131">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W131">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="X131">
         <v>-1</v>
@@ -12175,16 +12175,16 @@
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA131">
         <v>-1</v>
       </c>
       <c r="AB131">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>5350297</v>
+        <v>5350299</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,13 +12204,13 @@
         <v>45066.41666666666</v>
       </c>
       <c r="F132" t="s">
+        <v>33</v>
+      </c>
+      <c r="G132" t="s">
         <v>31</v>
       </c>
-      <c r="G132" t="s">
-        <v>44</v>
-      </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132">
         <v>0</v>
@@ -12219,61 +12219,61 @@
         <v>49</v>
       </c>
       <c r="K132">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="L132">
         <v>3</v>
       </c>
       <c r="M132">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N132">
-        <v>4.5</v>
+        <v>1.615</v>
       </c>
       <c r="O132">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P132">
-        <v>1.727</v>
+        <v>5.5</v>
       </c>
       <c r="Q132">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R132">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S132">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T132">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U132">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V132">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W132">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X132">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB132">
         <v>-1</v>
       </c>
       <c r="AC132">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12305,7 +12305,7 @@
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K133">
         <v>2.1</v>
@@ -12382,10 +12382,10 @@
         <v>45142.60416666666</v>
       </c>
       <c r="F134" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G134" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H134">
         <v>1</v>
@@ -12459,7 +12459,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6961780</v>
+        <v>6961777</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12471,73 +12471,73 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F135" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G135" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="s">
         <v>49</v>
       </c>
       <c r="K135">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="L135">
+        <v>3</v>
+      </c>
+      <c r="M135">
+        <v>2.75</v>
+      </c>
+      <c r="N135">
+        <v>2.2</v>
+      </c>
+      <c r="O135">
+        <v>2.875</v>
+      </c>
+      <c r="P135">
         <v>3.2</v>
       </c>
-      <c r="M135">
-        <v>5.5</v>
-      </c>
-      <c r="N135">
-        <v>1.65</v>
-      </c>
-      <c r="O135">
-        <v>3.2</v>
-      </c>
-      <c r="P135">
-        <v>5.5</v>
-      </c>
       <c r="Q135">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R135">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S135">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T135">
         <v>1.75</v>
       </c>
       <c r="U135">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V135">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W135">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA135">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB135">
-        <v>0.3875</v>
+        <v>0.45</v>
       </c>
       <c r="AC135">
         <v>-0.5</v>
@@ -12548,7 +12548,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6961777</v>
+        <v>6961780</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12560,73 +12560,73 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F136" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G136" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="s">
         <v>48</v>
       </c>
       <c r="K136">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="L136">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M136">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="N136">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="O136">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="P136">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q136">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R136">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S136">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T136">
         <v>1.75</v>
       </c>
       <c r="U136">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V136">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X136">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA136">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
-        <v>0.45</v>
+        <v>0.3875</v>
       </c>
       <c r="AC136">
         <v>-0.5</v>
@@ -12649,7 +12649,7 @@
         <v>45143.52083333334</v>
       </c>
       <c r="F137" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G137" t="s">
         <v>40</v>
@@ -12661,7 +12661,7 @@
         <v>0</v>
       </c>
       <c r="J137" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K137">
         <v>2.4</v>
@@ -12750,7 +12750,7 @@
         <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K138">
         <v>2.75</v>
@@ -12815,7 +12815,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6961782</v>
+        <v>6961781</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12827,13 +12827,13 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F139" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G139" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139">
         <v>0</v>
@@ -12842,25 +12842,25 @@
         <v>48</v>
       </c>
       <c r="K139">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="L139">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M139">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N139">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="O139">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P139">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q139">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R139">
         <v>1.85</v>
@@ -12872,31 +12872,31 @@
         <v>2</v>
       </c>
       <c r="U139">
+        <v>1.975</v>
+      </c>
+      <c r="V139">
         <v>1.825</v>
       </c>
-      <c r="V139">
-        <v>1.975</v>
-      </c>
       <c r="W139">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X139">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA139">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
         <v>-1</v>
       </c>
       <c r="AC139">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12904,7 +12904,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6961781</v>
+        <v>6961782</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12916,13 +12916,13 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G140" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140">
         <v>0</v>
@@ -12931,25 +12931,25 @@
         <v>49</v>
       </c>
       <c r="K140">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="L140">
+        <v>3.3</v>
+      </c>
+      <c r="M140">
+        <v>7</v>
+      </c>
+      <c r="N140">
+        <v>1.65</v>
+      </c>
+      <c r="O140">
         <v>3.1</v>
       </c>
-      <c r="M140">
-        <v>4</v>
-      </c>
-      <c r="N140">
-        <v>2.05</v>
-      </c>
-      <c r="O140">
-        <v>2.8</v>
-      </c>
       <c r="P140">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q140">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R140">
         <v>1.85</v>
@@ -12961,31 +12961,31 @@
         <v>2</v>
       </c>
       <c r="U140">
+        <v>1.825</v>
+      </c>
+      <c r="V140">
         <v>1.975</v>
       </c>
-      <c r="V140">
-        <v>1.825</v>
-      </c>
       <c r="W140">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X140">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB140">
         <v>-1</v>
       </c>
       <c r="AC140">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13008,7 +13008,7 @@
         <v>29</v>
       </c>
       <c r="G141" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -13017,7 +13017,7 @@
         <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K141">
         <v>1.5</v>
@@ -13186,7 +13186,7 @@
         <v>41</v>
       </c>
       <c r="G143" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H143">
         <v>4</v>
@@ -13195,7 +13195,7 @@
         <v>2</v>
       </c>
       <c r="J143" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K143">
         <v>1.4</v>
@@ -13260,7 +13260,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7007756</v>
+        <v>7007757</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13272,76 +13272,76 @@
         <v>45147.41666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G144" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144">
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K144">
-        <v>2.625</v>
+        <v>1.65</v>
       </c>
       <c r="L144">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M144">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="N144">
-        <v>2.625</v>
+        <v>1.45</v>
       </c>
       <c r="O144">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="P144">
-        <v>2.625</v>
+        <v>6.5</v>
       </c>
       <c r="Q144">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R144">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S144">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T144">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U144">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V144">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA144">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC144">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13349,7 +13349,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7007757</v>
+        <v>7007756</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13361,76 +13361,76 @@
         <v>45147.41666666666</v>
       </c>
       <c r="F145" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G145" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145">
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K145">
-        <v>1.65</v>
+        <v>2.625</v>
       </c>
       <c r="L145">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M145">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="N145">
-        <v>1.45</v>
+        <v>2.625</v>
       </c>
       <c r="O145">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="P145">
-        <v>6.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q145">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R145">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S145">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T145">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U145">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V145">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W145">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z145">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB145">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13462,7 +13462,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K146">
         <v>3.4</v>
@@ -13527,7 +13527,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7007759</v>
+        <v>7007761</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13542,73 +13542,73 @@
         <v>45</v>
       </c>
       <c r="G147" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J147" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K147">
         <v>3</v>
       </c>
       <c r="L147">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M147">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="N147">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="O147">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="P147">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="Q147">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R147">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S147">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="T147">
         <v>2</v>
       </c>
       <c r="U147">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V147">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W147">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X147">
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z147">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC147">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13616,7 +13616,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7007761</v>
+        <v>7007760</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13628,76 +13628,76 @@
         <v>45147.60416666666</v>
       </c>
       <c r="F148" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G148" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H148">
         <v>0</v>
       </c>
       <c r="I148">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K148">
+        <v>2.4</v>
+      </c>
+      <c r="L148">
+        <v>2.9</v>
+      </c>
+      <c r="M148">
         <v>3</v>
       </c>
-      <c r="L148">
+      <c r="N148">
+        <v>2.4</v>
+      </c>
+      <c r="O148">
+        <v>2.8</v>
+      </c>
+      <c r="P148">
         <v>3</v>
       </c>
-      <c r="M148">
-        <v>2.3</v>
-      </c>
-      <c r="N148">
-        <v>2.7</v>
-      </c>
-      <c r="O148">
-        <v>2.625</v>
-      </c>
-      <c r="P148">
-        <v>2.75</v>
-      </c>
       <c r="Q148">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R148">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="S148">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="T148">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U148">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V148">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W148">
         <v>-1</v>
       </c>
       <c r="X148">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y148">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA148">
-        <v>0.8999999999999999</v>
+        <v>0.3625</v>
       </c>
       <c r="AB148">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC148">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7007760</v>
+        <v>7007759</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13717,13 +13717,13 @@
         <v>45147.60416666666</v>
       </c>
       <c r="F149" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G149" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I149">
         <v>0</v>
@@ -13732,61 +13732,61 @@
         <v>48</v>
       </c>
       <c r="K149">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="L149">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M149">
+        <v>2.25</v>
+      </c>
+      <c r="N149">
+        <v>2.875</v>
+      </c>
+      <c r="O149">
         <v>3</v>
       </c>
-      <c r="N149">
-        <v>2.4</v>
-      </c>
-      <c r="O149">
-        <v>2.8</v>
-      </c>
       <c r="P149">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="Q149">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R149">
+        <v>1.725</v>
+      </c>
+      <c r="S149">
         <v>2.075</v>
       </c>
-      <c r="S149">
-        <v>1.725</v>
-      </c>
       <c r="T149">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U149">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V149">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W149">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X149">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y149">
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>-0.5</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA149">
-        <v>0.3625</v>
+        <v>-1</v>
       </c>
       <c r="AB149">
         <v>-1</v>
       </c>
       <c r="AC149">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13806,7 +13806,7 @@
         <v>45153.5</v>
       </c>
       <c r="F150" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G150" t="s">
         <v>36</v>
@@ -13818,7 +13818,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K150">
         <v>1.4</v>
@@ -13907,7 +13907,7 @@
         <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K151">
         <v>4.5</v>
@@ -13984,7 +13984,7 @@
         <v>45154.60416666666</v>
       </c>
       <c r="F152" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G152" t="s">
         <v>34</v>
@@ -14085,7 +14085,7 @@
         <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K153">
         <v>1.909</v>
@@ -14162,7 +14162,7 @@
         <v>45156.60416666666</v>
       </c>
       <c r="F154" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G154" t="s">
         <v>39</v>
@@ -14251,10 +14251,10 @@
         <v>45157.41666666666</v>
       </c>
       <c r="F155" t="s">
+        <v>46</v>
+      </c>
+      <c r="G155" t="s">
         <v>45</v>
-      </c>
-      <c r="G155" t="s">
-        <v>46</v>
       </c>
       <c r="H155">
         <v>3</v>
@@ -14263,7 +14263,7 @@
         <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K155">
         <v>2.15</v>
@@ -14352,7 +14352,7 @@
         <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K156">
         <v>2.2</v>
@@ -14432,7 +14432,7 @@
         <v>42</v>
       </c>
       <c r="G157" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -14530,7 +14530,7 @@
         <v>0</v>
       </c>
       <c r="J158" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K158">
         <v>2.875</v>
@@ -14610,7 +14610,7 @@
         <v>33</v>
       </c>
       <c r="G159" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H159">
         <v>0</v>
@@ -14699,7 +14699,7 @@
         <v>29</v>
       </c>
       <c r="G160" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -14785,7 +14785,7 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F161" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G161" t="s">
         <v>42</v>
@@ -14877,7 +14877,7 @@
         <v>36</v>
       </c>
       <c r="G162" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H162">
         <v>3</v>
@@ -14886,7 +14886,7 @@
         <v>2</v>
       </c>
       <c r="J162" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K162">
         <v>2.1</v>
@@ -14975,7 +14975,7 @@
         <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K163">
         <v>2</v>
@@ -15141,7 +15141,7 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F165" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G165" t="s">
         <v>38</v>
@@ -15153,7 +15153,7 @@
         <v>0</v>
       </c>
       <c r="J165" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K165">
         <v>2.4</v>
@@ -15331,7 +15331,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K167">
         <v>2</v>
@@ -15408,10 +15408,10 @@
         <v>45168.5</v>
       </c>
       <c r="F168" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G168" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H168">
         <v>0</v>
@@ -15485,7 +15485,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>7078413</v>
+        <v>7078409</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15497,76 +15497,76 @@
         <v>45168.60416666666</v>
       </c>
       <c r="F169" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G169" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I169">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J169" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K169">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="L169">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="M169">
+        <v>3.25</v>
+      </c>
+      <c r="N169">
+        <v>2.15</v>
+      </c>
+      <c r="O169">
         <v>2.9</v>
       </c>
-      <c r="N169">
-        <v>3.1</v>
-      </c>
-      <c r="O169">
-        <v>2.8</v>
-      </c>
       <c r="P169">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q169">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R169">
-        <v>1.7</v>
+        <v>1.825</v>
       </c>
       <c r="S169">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="T169">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U169">
+        <v>2.025</v>
+      </c>
+      <c r="V169">
         <v>1.775</v>
       </c>
-      <c r="V169">
-        <v>2.025</v>
-      </c>
       <c r="W169">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X169">
         <v>-1</v>
       </c>
       <c r="Y169">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z169">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AA169">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB169">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC169">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15574,7 +15574,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>7078409</v>
+        <v>7078413</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15586,76 +15586,76 @@
         <v>45168.60416666666</v>
       </c>
       <c r="F170" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G170" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I170">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J170" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K170">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="L170">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="M170">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="N170">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="O170">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="P170">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q170">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R170">
-        <v>1.825</v>
+        <v>1.7</v>
       </c>
       <c r="S170">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="T170">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U170">
+        <v>1.775</v>
+      </c>
+      <c r="V170">
         <v>2.025</v>
       </c>
-      <c r="V170">
-        <v>1.775</v>
-      </c>
       <c r="W170">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X170">
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z170">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AA170">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB170">
+        <v>-1</v>
+      </c>
+      <c r="AC170">
         <v>1.025</v>
-      </c>
-      <c r="AC170">
-        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15678,7 +15678,7 @@
         <v>34</v>
       </c>
       <c r="G171" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H171">
         <v>3</v>
@@ -15687,7 +15687,7 @@
         <v>1</v>
       </c>
       <c r="J171" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K171">
         <v>1.8</v>
@@ -15856,7 +15856,7 @@
         <v>33</v>
       </c>
       <c r="G173" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H173">
         <v>1</v>
@@ -15865,7 +15865,7 @@
         <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K173">
         <v>2.7</v>
@@ -16043,7 +16043,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K175">
         <v>1.95</v>
@@ -16123,7 +16123,7 @@
         <v>37</v>
       </c>
       <c r="G176" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H176">
         <v>0</v>
@@ -16132,7 +16132,7 @@
         <v>0</v>
       </c>
       <c r="J176" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K176">
         <v>1.833</v>
@@ -16221,7 +16221,7 @@
         <v>2</v>
       </c>
       <c r="J177" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K177">
         <v>2.625</v>
@@ -16286,7 +16286,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7169682</v>
+        <v>7169683</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16298,13 +16298,13 @@
         <v>45188.60416666666</v>
       </c>
       <c r="F178" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G178" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178">
         <v>2</v>
@@ -16313,41 +16313,41 @@
         <v>47</v>
       </c>
       <c r="K178">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L178">
         <v>2.9</v>
       </c>
       <c r="M178">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="N178">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="O178">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="P178">
         <v>3</v>
       </c>
       <c r="Q178">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R178">
+        <v>2</v>
+      </c>
+      <c r="S178">
+        <v>1.8</v>
+      </c>
+      <c r="T178">
+        <v>2</v>
+      </c>
+      <c r="U178">
+        <v>2.025</v>
+      </c>
+      <c r="V178">
         <v>1.775</v>
       </c>
-      <c r="S178">
-        <v>2.025</v>
-      </c>
-      <c r="T178">
-        <v>1.75</v>
-      </c>
-      <c r="U178">
-        <v>1.925</v>
-      </c>
-      <c r="V178">
-        <v>1.875</v>
-      </c>
       <c r="W178">
         <v>-1</v>
       </c>
@@ -16361,13 +16361,13 @@
         <v>-1</v>
       </c>
       <c r="AA178">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB178">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC178">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16375,7 +16375,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>7169683</v>
+        <v>7169682</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16387,13 +16387,13 @@
         <v>45188.60416666666</v>
       </c>
       <c r="F179" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G179" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I179">
         <v>2</v>
@@ -16402,40 +16402,40 @@
         <v>47</v>
       </c>
       <c r="K179">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="L179">
         <v>2.9</v>
       </c>
       <c r="M179">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="N179">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="O179">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="P179">
         <v>3</v>
       </c>
       <c r="Q179">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R179">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S179">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T179">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U179">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V179">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W179">
         <v>-1</v>
@@ -16450,13 +16450,13 @@
         <v>-1</v>
       </c>
       <c r="AA179">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB179">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC179">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16476,7 +16476,7 @@
         <v>45188.60416666666</v>
       </c>
       <c r="F180" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G180" t="s">
         <v>36</v>
@@ -16577,7 +16577,7 @@
         <v>0</v>
       </c>
       <c r="J181" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K181">
         <v>2.375</v>
@@ -16642,7 +16642,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7169685</v>
+        <v>7170833</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16654,76 +16654,76 @@
         <v>45189.60416666666</v>
       </c>
       <c r="F182" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G182" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H182">
+        <v>0</v>
+      </c>
+      <c r="I182">
         <v>1</v>
       </c>
-      <c r="I182">
-        <v>0</v>
-      </c>
       <c r="J182" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K182">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="L182">
+        <v>2.875</v>
+      </c>
+      <c r="M182">
+        <v>2.5</v>
+      </c>
+      <c r="N182">
+        <v>3.4</v>
+      </c>
+      <c r="O182">
         <v>2.9</v>
       </c>
-      <c r="M182">
-        <v>3.75</v>
-      </c>
-      <c r="N182">
-        <v>1.909</v>
-      </c>
-      <c r="O182">
-        <v>2.875</v>
-      </c>
       <c r="P182">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q182">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R182">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S182">
+        <v>1.875</v>
+      </c>
+      <c r="T182">
+        <v>2</v>
+      </c>
+      <c r="U182">
         <v>1.8</v>
       </c>
-      <c r="T182">
-        <v>1.75</v>
-      </c>
-      <c r="U182">
-        <v>1.75</v>
-      </c>
       <c r="V182">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W182">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X182">
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z182">
+        <v>-1</v>
+      </c>
+      <c r="AA182">
+        <v>0.875</v>
+      </c>
+      <c r="AB182">
+        <v>-1</v>
+      </c>
+      <c r="AC182">
         <v>1</v>
-      </c>
-      <c r="AA182">
-        <v>-1</v>
-      </c>
-      <c r="AB182">
-        <v>-1</v>
-      </c>
-      <c r="AC182">
-        <v>1.05</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16731,7 +16731,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7170833</v>
+        <v>7169685</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16743,76 +16743,76 @@
         <v>45189.60416666666</v>
       </c>
       <c r="F183" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G183" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183" t="s">
+        <v>48</v>
+      </c>
+      <c r="K183">
+        <v>2</v>
+      </c>
+      <c r="L183">
+        <v>2.9</v>
+      </c>
+      <c r="M183">
+        <v>3.75</v>
+      </c>
+      <c r="N183">
+        <v>1.909</v>
+      </c>
+      <c r="O183">
+        <v>2.875</v>
+      </c>
+      <c r="P183">
+        <v>4.2</v>
+      </c>
+      <c r="Q183">
+        <v>-0.5</v>
+      </c>
+      <c r="R183">
+        <v>2</v>
+      </c>
+      <c r="S183">
+        <v>1.8</v>
+      </c>
+      <c r="T183">
+        <v>1.75</v>
+      </c>
+      <c r="U183">
+        <v>1.75</v>
+      </c>
+      <c r="V183">
+        <v>2.05</v>
+      </c>
+      <c r="W183">
+        <v>0.909</v>
+      </c>
+      <c r="X183">
+        <v>-1</v>
+      </c>
+      <c r="Y183">
+        <v>-1</v>
+      </c>
+      <c r="Z183">
         <v>1</v>
       </c>
-      <c r="J183" t="s">
-        <v>47</v>
-      </c>
-      <c r="K183">
-        <v>2.75</v>
-      </c>
-      <c r="L183">
-        <v>2.875</v>
-      </c>
-      <c r="M183">
-        <v>2.5</v>
-      </c>
-      <c r="N183">
-        <v>3.4</v>
-      </c>
-      <c r="O183">
-        <v>2.9</v>
-      </c>
-      <c r="P183">
-        <v>2.1</v>
-      </c>
-      <c r="Q183">
-        <v>0.25</v>
-      </c>
-      <c r="R183">
-        <v>1.925</v>
-      </c>
-      <c r="S183">
-        <v>1.875</v>
-      </c>
-      <c r="T183">
-        <v>2</v>
-      </c>
-      <c r="U183">
-        <v>1.8</v>
-      </c>
-      <c r="V183">
-        <v>2</v>
-      </c>
-      <c r="W183">
-        <v>-1</v>
-      </c>
-      <c r="X183">
-        <v>-1</v>
-      </c>
-      <c r="Y183">
-        <v>1.1</v>
-      </c>
-      <c r="Z183">
-        <v>-1</v>
-      </c>
       <c r="AA183">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB183">
         <v>-1</v>
       </c>
       <c r="AC183">
-        <v>1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16832,10 +16832,10 @@
         <v>45189.60416666666</v>
       </c>
       <c r="F184" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G184" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H184">
         <v>0</v>
@@ -16921,7 +16921,7 @@
         <v>45194.41666666666</v>
       </c>
       <c r="F185" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G185" t="s">
         <v>40</v>
@@ -16933,7 +16933,7 @@
         <v>0</v>
       </c>
       <c r="J185" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K185">
         <v>2.5</v>
@@ -17022,7 +17022,7 @@
         <v>0</v>
       </c>
       <c r="J186" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K186">
         <v>3.3</v>
@@ -17099,7 +17099,7 @@
         <v>45196.60416666666</v>
       </c>
       <c r="F187" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G187" t="s">
         <v>39</v>
@@ -17111,7 +17111,7 @@
         <v>1</v>
       </c>
       <c r="J187" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K187">
         <v>1.333</v>
@@ -17191,7 +17191,7 @@
         <v>37</v>
       </c>
       <c r="G188" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H188">
         <v>2</v>
@@ -17200,7 +17200,7 @@
         <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K188">
         <v>1.85</v>
@@ -17289,7 +17289,7 @@
         <v>1</v>
       </c>
       <c r="J189" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K189">
         <v>2.25</v>
@@ -17369,7 +17369,7 @@
         <v>29</v>
       </c>
       <c r="G190" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H190">
         <v>3</v>
@@ -17378,7 +17378,7 @@
         <v>1</v>
       </c>
       <c r="J190" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K190">
         <v>1.8</v>
@@ -17455,10 +17455,10 @@
         <v>45199.52083333334</v>
       </c>
       <c r="F191" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G191" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H191">
         <v>1</v>
@@ -17467,7 +17467,7 @@
         <v>0</v>
       </c>
       <c r="J191" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K191">
         <v>2.25</v>
@@ -17556,7 +17556,7 @@
         <v>1</v>
       </c>
       <c r="J192" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K192">
         <v>2.25</v>
@@ -17734,7 +17734,7 @@
         <v>0</v>
       </c>
       <c r="J194" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K194">
         <v>2.25</v>
@@ -17799,7 +17799,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>7267512</v>
+        <v>7267513</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17811,55 +17811,55 @@
         <v>45203.60416666666</v>
       </c>
       <c r="F195" t="s">
+        <v>33</v>
+      </c>
+      <c r="G195" t="s">
         <v>46</v>
       </c>
-      <c r="G195" t="s">
-        <v>44</v>
-      </c>
       <c r="H195">
+        <v>0</v>
+      </c>
+      <c r="I195">
         <v>1</v>
-      </c>
-      <c r="I195">
-        <v>2</v>
       </c>
       <c r="J195" t="s">
         <v>47</v>
       </c>
       <c r="K195">
-        <v>5</v>
+        <v>2.55</v>
       </c>
       <c r="L195">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="M195">
-        <v>1.7</v>
+        <v>2.875</v>
       </c>
       <c r="N195">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="O195">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="P195">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="Q195">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R195">
+        <v>1.925</v>
+      </c>
+      <c r="S195">
         <v>1.875</v>
       </c>
-      <c r="S195">
-        <v>1.925</v>
-      </c>
       <c r="T195">
         <v>2</v>
       </c>
       <c r="U195">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V195">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W195">
         <v>-1</v>
@@ -17868,19 +17868,19 @@
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="Z195">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA195">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AB195">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC195">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17888,7 +17888,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>7267510</v>
+        <v>7267512</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17900,73 +17900,73 @@
         <v>45203.60416666666</v>
       </c>
       <c r="F196" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G196" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H196">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I196">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J196" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K196">
-        <v>2.35</v>
+        <v>5</v>
       </c>
       <c r="L196">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="M196">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="N196">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="O196">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="P196">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="Q196">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R196">
+        <v>1.875</v>
+      </c>
+      <c r="S196">
+        <v>1.925</v>
+      </c>
+      <c r="T196">
+        <v>2</v>
+      </c>
+      <c r="U196">
+        <v>1.825</v>
+      </c>
+      <c r="V196">
         <v>1.975</v>
       </c>
-      <c r="S196">
-        <v>1.825</v>
-      </c>
-      <c r="T196">
-        <v>2</v>
-      </c>
-      <c r="U196">
-        <v>1.85</v>
-      </c>
-      <c r="V196">
-        <v>1.95</v>
-      </c>
       <c r="W196">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z196">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA196">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB196">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC196">
         <v>-1</v>
@@ -17977,7 +17977,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>7267513</v>
+        <v>7267510</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17989,76 +17989,76 @@
         <v>45203.60416666666</v>
       </c>
       <c r="F197" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G197" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J197" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K197">
-        <v>2.55</v>
+        <v>2.35</v>
       </c>
       <c r="L197">
         <v>2.875</v>
       </c>
       <c r="M197">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="N197">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O197">
         <v>2.875</v>
       </c>
       <c r="P197">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q197">
         <v>-0.25</v>
       </c>
       <c r="R197">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S197">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T197">
         <v>2</v>
       </c>
       <c r="U197">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V197">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W197">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X197">
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z197">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA197">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB197">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC197">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18078,7 +18078,7 @@
         <v>45204.60416666666</v>
       </c>
       <c r="F198" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G198" t="s">
         <v>36</v>
@@ -18167,10 +18167,10 @@
         <v>45207.4375</v>
       </c>
       <c r="F199" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G199" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H199">
         <v>0</v>
@@ -18179,7 +18179,7 @@
         <v>0</v>
       </c>
       <c r="J199" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K199">
         <v>2.4</v>
@@ -18268,7 +18268,7 @@
         <v>0</v>
       </c>
       <c r="J200" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K200">
         <v>2.2</v>
@@ -18348,7 +18348,7 @@
         <v>44</v>
       </c>
       <c r="G201" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H201">
         <v>3</v>
@@ -18357,7 +18357,7 @@
         <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K201">
         <v>1.65</v>
@@ -18437,7 +18437,7 @@
         <v>41</v>
       </c>
       <c r="G202" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H202">
         <v>1</v>
@@ -18446,7 +18446,7 @@
         <v>1</v>
       </c>
       <c r="J202" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K202">
         <v>1.8</v>
@@ -18535,7 +18535,7 @@
         <v>1</v>
       </c>
       <c r="J203" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K203">
         <v>2.4</v>
@@ -18624,7 +18624,7 @@
         <v>1</v>
       </c>
       <c r="J204" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K204">
         <v>2.2</v>
@@ -18790,7 +18790,7 @@
         <v>45231.60416666666</v>
       </c>
       <c r="F206" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G206" t="s">
         <v>41</v>
@@ -18802,7 +18802,7 @@
         <v>1</v>
       </c>
       <c r="J206" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K206">
         <v>6</v>
@@ -18867,7 +18867,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>7404430</v>
+        <v>7404428</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18879,58 +18879,58 @@
         <v>45237.60416666666</v>
       </c>
       <c r="F207" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G207" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J207" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K207">
+        <v>3.4</v>
+      </c>
+      <c r="L207">
+        <v>3.1</v>
+      </c>
+      <c r="M207">
+        <v>2.1</v>
+      </c>
+      <c r="N207">
+        <v>3</v>
+      </c>
+      <c r="O207">
+        <v>3</v>
+      </c>
+      <c r="P207">
+        <v>2.3</v>
+      </c>
+      <c r="Q207">
+        <v>0.25</v>
+      </c>
+      <c r="R207">
         <v>1.75</v>
       </c>
-      <c r="L207">
-        <v>3.25</v>
-      </c>
-      <c r="M207">
-        <v>4.5</v>
-      </c>
-      <c r="N207">
-        <v>1.8</v>
-      </c>
-      <c r="O207">
-        <v>3.1</v>
-      </c>
-      <c r="P207">
-        <v>4.5</v>
-      </c>
-      <c r="Q207">
-        <v>-0.5</v>
-      </c>
-      <c r="R207">
-        <v>1.8</v>
-      </c>
       <c r="S207">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T207">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U207">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V207">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W207">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="X207">
         <v>-1</v>
@@ -18939,16 +18939,16 @@
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AA207">
         <v>-1</v>
       </c>
       <c r="AB207">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC207">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18956,7 +18956,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7404431</v>
+        <v>7404429</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18968,49 +18968,49 @@
         <v>45237.60416666666</v>
       </c>
       <c r="F208" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G208" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J208" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K208">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="L208">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M208">
+        <v>4.75</v>
+      </c>
+      <c r="N208">
+        <v>1.65</v>
+      </c>
+      <c r="O208">
         <v>3.5</v>
       </c>
-      <c r="N208">
-        <v>1.909</v>
-      </c>
-      <c r="O208">
-        <v>3</v>
-      </c>
       <c r="P208">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q208">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R208">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S208">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T208">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U208">
         <v>1.925</v>
@@ -19019,7 +19019,7 @@
         <v>1.875</v>
       </c>
       <c r="W208">
-        <v>0.909</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X208">
         <v>-1</v>
@@ -19028,16 +19028,16 @@
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA208">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB208">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC208">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19045,7 +19045,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7404429</v>
+        <v>7404430</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19057,58 +19057,58 @@
         <v>45237.60416666666</v>
       </c>
       <c r="F209" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G209" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H209">
+        <v>2</v>
+      </c>
+      <c r="I209">
         <v>1</v>
       </c>
-      <c r="I209">
-        <v>0</v>
-      </c>
       <c r="J209" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K209">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="L209">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M209">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="N209">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="O209">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P209">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q209">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R209">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S209">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T209">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U209">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V209">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W209">
-        <v>0.6499999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X209">
         <v>-1</v>
@@ -19117,16 +19117,16 @@
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
       <c r="AA209">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB209">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC209">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19134,7 +19134,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7404428</v>
+        <v>7404431</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19146,58 +19146,58 @@
         <v>45237.60416666666</v>
       </c>
       <c r="F210" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G210" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H210">
+        <v>2</v>
+      </c>
+      <c r="I210">
         <v>1</v>
       </c>
-      <c r="I210">
-        <v>0</v>
-      </c>
       <c r="J210" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K210">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="L210">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M210">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="N210">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="O210">
         <v>3</v>
       </c>
       <c r="P210">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="Q210">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R210">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S210">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T210">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U210">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V210">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="W210">
-        <v>2</v>
+        <v>0.909</v>
       </c>
       <c r="X210">
         <v>-1</v>
@@ -19206,16 +19206,16 @@
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AA210">
         <v>-1</v>
       </c>
       <c r="AB210">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC210">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19223,7 +19223,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7404434</v>
+        <v>7404435</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19235,76 +19235,76 @@
         <v>45238.60416666666</v>
       </c>
       <c r="F211" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G211" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H211">
         <v>1</v>
       </c>
       <c r="I211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J211" t="s">
         <v>48</v>
       </c>
       <c r="K211">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="L211">
         <v>3</v>
       </c>
       <c r="M211">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="N211">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="O211">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P211">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q211">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R211">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S211">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T211">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U211">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V211">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W211">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X211">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y211">
         <v>-1</v>
       </c>
       <c r="Z211">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA211">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB211">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC211">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19312,7 +19312,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7404435</v>
+        <v>7404434</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19324,76 +19324,76 @@
         <v>45238.60416666666</v>
       </c>
       <c r="F212" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G212" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H212">
         <v>1</v>
       </c>
       <c r="I212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212" t="s">
         <v>49</v>
       </c>
       <c r="K212">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="L212">
         <v>3</v>
       </c>
       <c r="M212">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="N212">
+        <v>3.25</v>
+      </c>
+      <c r="O212">
+        <v>2.875</v>
+      </c>
+      <c r="P212">
         <v>2.25</v>
       </c>
-      <c r="O212">
-        <v>3</v>
-      </c>
-      <c r="P212">
-        <v>3.2</v>
-      </c>
       <c r="Q212">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R212">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S212">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T212">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U212">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V212">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W212">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X212">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y212">
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AA212">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB212">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC212">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19416,7 +19416,7 @@
         <v>37</v>
       </c>
       <c r="G213" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H213">
         <v>3</v>
@@ -19425,7 +19425,7 @@
         <v>2</v>
       </c>
       <c r="J213" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K213">
         <v>1.533</v>
@@ -19505,7 +19505,7 @@
         <v>29</v>
       </c>
       <c r="G214" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H214">
         <v>2</v>
@@ -19514,7 +19514,7 @@
         <v>0</v>
       </c>
       <c r="J214" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K214">
         <v>1.666</v>
@@ -19680,7 +19680,7 @@
         <v>45241.4375</v>
       </c>
       <c r="F216" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G216" t="s">
         <v>34</v>
@@ -19692,7 +19692,7 @@
         <v>0</v>
       </c>
       <c r="J216" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K216">
         <v>2.5</v>
@@ -19781,7 +19781,7 @@
         <v>0</v>
       </c>
       <c r="J217" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K217">
         <v>2.4</v>
@@ -19846,7 +19846,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>7404440</v>
+        <v>7404441</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19858,76 +19858,76 @@
         <v>45242.4375</v>
       </c>
       <c r="F218" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G218" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H218">
         <v>1</v>
       </c>
       <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218" t="s">
+        <v>48</v>
+      </c>
+      <c r="K218">
+        <v>2.3</v>
+      </c>
+      <c r="L218">
+        <v>2.9</v>
+      </c>
+      <c r="M218">
         <v>3</v>
       </c>
-      <c r="J218" t="s">
-        <v>47</v>
-      </c>
-      <c r="K218">
-        <v>2.15</v>
-      </c>
-      <c r="L218">
-        <v>3</v>
-      </c>
-      <c r="M218">
-        <v>3.2</v>
-      </c>
       <c r="N218">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="O218">
         <v>3</v>
       </c>
       <c r="P218">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q218">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R218">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S218">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T218">
         <v>2</v>
       </c>
       <c r="U218">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V218">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W218">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X218">
         <v>-1</v>
       </c>
       <c r="Y218">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z218">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA218">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB218">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC218">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19935,7 +19935,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>7404441</v>
+        <v>7404440</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19947,76 +19947,76 @@
         <v>45242.4375</v>
       </c>
       <c r="F219" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G219" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H219">
         <v>1</v>
       </c>
       <c r="I219">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J219" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K219">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L219">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M219">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N219">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="O219">
         <v>3</v>
       </c>
       <c r="P219">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="Q219">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R219">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S219">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T219">
         <v>2</v>
       </c>
       <c r="U219">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V219">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W219">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X219">
         <v>-1</v>
       </c>
       <c r="Y219">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z219">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA219">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB219">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC219">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20036,7 +20036,7 @@
         <v>45242.53125</v>
       </c>
       <c r="F220" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G220" t="s">
         <v>44</v>
@@ -20048,7 +20048,7 @@
         <v>1</v>
       </c>
       <c r="J220" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K220">
         <v>3.1</v>
@@ -20113,7 +20113,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>7404444</v>
+        <v>7404445</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20125,76 +20125,76 @@
         <v>45255.4375</v>
       </c>
       <c r="F221" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G221" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H221">
         <v>0</v>
       </c>
       <c r="I221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J221" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K221">
+        <v>5.25</v>
+      </c>
+      <c r="L221">
+        <v>3.4</v>
+      </c>
+      <c r="M221">
+        <v>1.65</v>
+      </c>
+      <c r="N221">
+        <v>4.2</v>
+      </c>
+      <c r="O221">
+        <v>3.2</v>
+      </c>
+      <c r="P221">
+        <v>1.85</v>
+      </c>
+      <c r="Q221">
+        <v>0.5</v>
+      </c>
+      <c r="R221">
+        <v>1.9</v>
+      </c>
+      <c r="S221">
+        <v>1.9</v>
+      </c>
+      <c r="T221">
+        <v>2</v>
+      </c>
+      <c r="U221">
+        <v>1.925</v>
+      </c>
+      <c r="V221">
+        <v>1.875</v>
+      </c>
+      <c r="W221">
+        <v>-1</v>
+      </c>
+      <c r="X221">
         <v>2.2</v>
       </c>
-      <c r="L221">
-        <v>3</v>
-      </c>
-      <c r="M221">
-        <v>3.25</v>
-      </c>
-      <c r="N221">
-        <v>2.7</v>
-      </c>
-      <c r="O221">
-        <v>2.8</v>
-      </c>
-      <c r="P221">
-        <v>2.75</v>
-      </c>
-      <c r="Q221">
-        <v>0</v>
-      </c>
-      <c r="R221">
-        <v>1.875</v>
-      </c>
-      <c r="S221">
-        <v>1.925</v>
-      </c>
-      <c r="T221">
-        <v>1.75</v>
-      </c>
-      <c r="U221">
-        <v>1.775</v>
-      </c>
-      <c r="V221">
-        <v>2.025</v>
-      </c>
-      <c r="W221">
-        <v>-1</v>
-      </c>
-      <c r="X221">
-        <v>-1</v>
-      </c>
       <c r="Y221">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z221">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA221">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB221">
         <v>-1</v>
       </c>
       <c r="AC221">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20202,7 +20202,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>7404445</v>
+        <v>7404444</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20214,76 +20214,76 @@
         <v>45255.4375</v>
       </c>
       <c r="F222" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G222" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H222">
         <v>0</v>
       </c>
       <c r="I222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J222" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K222">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="L222">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M222">
-        <v>1.65</v>
+        <v>3.25</v>
       </c>
       <c r="N222">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="O222">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="P222">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="Q222">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R222">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S222">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T222">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U222">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V222">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W222">
         <v>-1</v>
       </c>
       <c r="X222">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y222">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z222">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA222">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB222">
         <v>-1</v>
       </c>
       <c r="AC222">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20303,10 +20303,10 @@
         <v>45255.53125</v>
       </c>
       <c r="F223" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G223" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H223">
         <v>1</v>
@@ -20484,7 +20484,7 @@
         <v>38</v>
       </c>
       <c r="G225" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H225">
         <v>3</v>
@@ -20493,7 +20493,7 @@
         <v>0</v>
       </c>
       <c r="J225" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K225">
         <v>3</v>
@@ -20659,7 +20659,7 @@
         <v>45258.60416666666</v>
       </c>
       <c r="F227" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G227" t="s">
         <v>39</v>
@@ -20751,7 +20751,7 @@
         <v>44</v>
       </c>
       <c r="G228" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H228">
         <v>0</v>
@@ -20849,7 +20849,7 @@
         <v>0</v>
       </c>
       <c r="J229" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K229">
         <v>2.05</v>
@@ -20929,7 +20929,7 @@
         <v>40</v>
       </c>
       <c r="G230" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H230">
         <v>0</v>
@@ -21015,7 +21015,7 @@
         <v>45266.60416666666</v>
       </c>
       <c r="F231" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G231" t="s">
         <v>42</v>
@@ -21027,7 +21027,7 @@
         <v>0</v>
       </c>
       <c r="J231" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K231">
         <v>2.3</v>
@@ -21116,7 +21116,7 @@
         <v>0</v>
       </c>
       <c r="J232" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K232">
         <v>2.75</v>
@@ -21193,7 +21193,7 @@
         <v>45269.4375</v>
       </c>
       <c r="F233" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G233" t="s">
         <v>37</v>
@@ -21294,7 +21294,7 @@
         <v>0</v>
       </c>
       <c r="J234" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K234">
         <v>2.75</v>
@@ -21383,7 +21383,7 @@
         <v>0</v>
       </c>
       <c r="J235" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K235">
         <v>1.8</v>
@@ -21460,7 +21460,7 @@
         <v>45270.4375</v>
       </c>
       <c r="F236" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G236" t="s">
         <v>33</v>
@@ -21472,7 +21472,7 @@
         <v>2</v>
       </c>
       <c r="J236" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K236">
         <v>2.25</v>
@@ -21537,7 +21537,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>7464395</v>
+        <v>7476568</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21549,49 +21549,49 @@
         <v>45273.60416666666</v>
       </c>
       <c r="F237" t="s">
+        <v>40</v>
+      </c>
+      <c r="G237" t="s">
         <v>32</v>
       </c>
-      <c r="G237" t="s">
-        <v>46</v>
-      </c>
       <c r="H237">
+        <v>1</v>
+      </c>
+      <c r="I237">
+        <v>0</v>
+      </c>
+      <c r="J237" t="s">
+        <v>48</v>
+      </c>
+      <c r="K237">
+        <v>2.2</v>
+      </c>
+      <c r="L237">
         <v>3</v>
       </c>
-      <c r="I237">
-        <v>0</v>
-      </c>
-      <c r="J237" t="s">
-        <v>49</v>
-      </c>
-      <c r="K237">
-        <v>1.181</v>
-      </c>
-      <c r="L237">
-        <v>6.5</v>
-      </c>
       <c r="M237">
-        <v>13</v>
+        <v>3.4</v>
       </c>
       <c r="N237">
-        <v>1.2</v>
+        <v>2.25</v>
       </c>
       <c r="O237">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="P237">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="Q237">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R237">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S237">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T237">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="U237">
         <v>1.975</v>
@@ -21600,7 +21600,7 @@
         <v>1.825</v>
       </c>
       <c r="W237">
-        <v>0.2</v>
+        <v>1.25</v>
       </c>
       <c r="X237">
         <v>-1</v>
@@ -21609,16 +21609,16 @@
         <v>-1</v>
       </c>
       <c r="Z237">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA237">
         <v>-1</v>
       </c>
       <c r="AB237">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC237">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21626,7 +21626,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7476568</v>
+        <v>7464395</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21638,49 +21638,49 @@
         <v>45273.60416666666</v>
       </c>
       <c r="F238" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G238" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I238">
         <v>0</v>
       </c>
       <c r="J238" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K238">
-        <v>2.2</v>
+        <v>1.181</v>
       </c>
       <c r="L238">
+        <v>6.5</v>
+      </c>
+      <c r="M238">
+        <v>13</v>
+      </c>
+      <c r="N238">
+        <v>1.2</v>
+      </c>
+      <c r="O238">
+        <v>6</v>
+      </c>
+      <c r="P238">
+        <v>12</v>
+      </c>
+      <c r="Q238">
+        <v>-1.75</v>
+      </c>
+      <c r="R238">
+        <v>1.775</v>
+      </c>
+      <c r="S238">
+        <v>2.025</v>
+      </c>
+      <c r="T238">
         <v>3</v>
-      </c>
-      <c r="M238">
-        <v>3.4</v>
-      </c>
-      <c r="N238">
-        <v>2.25</v>
-      </c>
-      <c r="O238">
-        <v>2.75</v>
-      </c>
-      <c r="P238">
-        <v>3.6</v>
-      </c>
-      <c r="Q238">
-        <v>-0.25</v>
-      </c>
-      <c r="R238">
-        <v>1.9</v>
-      </c>
-      <c r="S238">
-        <v>1.9</v>
-      </c>
-      <c r="T238">
-        <v>1.75</v>
       </c>
       <c r="U238">
         <v>1.975</v>
@@ -21689,7 +21689,7 @@
         <v>1.825</v>
       </c>
       <c r="W238">
-        <v>1.25</v>
+        <v>0.2</v>
       </c>
       <c r="X238">
         <v>-1</v>
@@ -21698,16 +21698,16 @@
         <v>-1</v>
       </c>
       <c r="Z238">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA238">
         <v>-1</v>
       </c>
       <c r="AB238">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC238">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21908,7 +21908,7 @@
         <v>40</v>
       </c>
       <c r="G241" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H241">
         <v>1</v>
@@ -21917,7 +21917,7 @@
         <v>1</v>
       </c>
       <c r="J241" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K241">
         <v>1.727</v>
@@ -21982,7 +21982,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>7477992</v>
+        <v>7478004</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -21994,46 +21994,46 @@
         <v>45283.4375</v>
       </c>
       <c r="F242" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G242" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H242">
         <v>1</v>
       </c>
       <c r="I242">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J242" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K242">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="L242">
         <v>3</v>
       </c>
       <c r="M242">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="N242">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="O242">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P242">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Q242">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R242">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S242">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T242">
         <v>1.75</v>
@@ -22045,25 +22045,25 @@
         <v>2.05</v>
       </c>
       <c r="W242">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X242">
         <v>-1</v>
       </c>
       <c r="Y242">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z242">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA242">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB242">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC242">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="243" spans="1:29">
@@ -22071,7 +22071,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>7477991</v>
+        <v>7477992</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22083,76 +22083,76 @@
         <v>45283.4375</v>
       </c>
       <c r="F243" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G243" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I243">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J243" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K243">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="L243">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M243">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="N243">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="O243">
         <v>2.9</v>
       </c>
       <c r="P243">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="Q243">
         <v>0</v>
       </c>
       <c r="R243">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S243">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T243">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U243">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V243">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W243">
         <v>-1</v>
       </c>
       <c r="X243">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y243">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z243">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA243">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB243">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC243">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -22249,7 +22249,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>7478004</v>
+        <v>7477991</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22261,13 +22261,13 @@
         <v>45283.4375</v>
       </c>
       <c r="F245" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G245" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245">
         <v>0</v>
@@ -22276,61 +22276,61 @@
         <v>49</v>
       </c>
       <c r="K245">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="L245">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M245">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="N245">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="O245">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P245">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q245">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R245">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S245">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T245">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U245">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V245">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W245">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X245">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y245">
         <v>-1</v>
       </c>
       <c r="Z245">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA245">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB245">
         <v>-1</v>
       </c>
       <c r="AC245">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -22362,7 +22362,7 @@
         <v>1</v>
       </c>
       <c r="J246" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K246">
         <v>2.3</v>
@@ -22442,7 +22442,7 @@
         <v>29</v>
       </c>
       <c r="G247" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H247">
         <v>0</v>
@@ -22451,7 +22451,7 @@
         <v>0</v>
       </c>
       <c r="J247" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K247">
         <v>4.75</v>
@@ -22531,7 +22531,7 @@
         <v>40</v>
       </c>
       <c r="G248" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H248">
         <v>3</v>
@@ -22540,7 +22540,7 @@
         <v>0</v>
       </c>
       <c r="J248" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K248">
         <v>2.05</v>
@@ -22718,7 +22718,7 @@
         <v>0</v>
       </c>
       <c r="J250" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K250">
         <v>2.3</v>
@@ -22807,7 +22807,7 @@
         <v>1</v>
       </c>
       <c r="J251" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K251">
         <v>4</v>
@@ -22884,10 +22884,10 @@
         <v>45290.53125</v>
       </c>
       <c r="F252" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G252" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H252">
         <v>0</v>
@@ -22896,7 +22896,7 @@
         <v>0</v>
       </c>
       <c r="J252" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K252">
         <v>1.3</v>
@@ -22973,7 +22973,7 @@
         <v>45290.625</v>
       </c>
       <c r="F253" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G253" t="s">
         <v>37</v>
@@ -22985,7 +22985,7 @@
         <v>1</v>
       </c>
       <c r="J253" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K253">
         <v>3</v>
@@ -23062,7 +23062,7 @@
         <v>45291.4375</v>
       </c>
       <c r="F254" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G254" t="s">
         <v>29</v>
@@ -23163,7 +23163,7 @@
         <v>1</v>
       </c>
       <c r="J255" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K255">
         <v>1.666</v>
@@ -23228,7 +23228,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>7577337</v>
+        <v>7577336</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23240,76 +23240,76 @@
         <v>45339.4375</v>
       </c>
       <c r="F256" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G256" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I256">
         <v>1</v>
       </c>
       <c r="J256" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K256">
         <v>3.1</v>
       </c>
       <c r="L256">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="M256">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="N256">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="O256">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="P256">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="Q256">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R256">
+        <v>1.85</v>
+      </c>
+      <c r="S256">
+        <v>1.95</v>
+      </c>
+      <c r="T256">
+        <v>2.25</v>
+      </c>
+      <c r="U256">
+        <v>2.025</v>
+      </c>
+      <c r="V256">
         <v>1.775</v>
       </c>
-      <c r="S256">
-        <v>2.025</v>
-      </c>
-      <c r="T256">
-        <v>2</v>
-      </c>
-      <c r="U256">
-        <v>2</v>
-      </c>
-      <c r="V256">
-        <v>1.8</v>
-      </c>
       <c r="W256">
         <v>-1</v>
       </c>
       <c r="X256">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y256">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z256">
-        <v>0.3875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA256">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB256">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC256">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="257" spans="1:29">
@@ -23317,7 +23317,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>7577336</v>
+        <v>7577337</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23329,76 +23329,76 @@
         <v>45339.4375</v>
       </c>
       <c r="F257" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G257" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I257">
         <v>1</v>
       </c>
       <c r="J257" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K257">
         <v>3.1</v>
       </c>
       <c r="L257">
+        <v>2.8</v>
+      </c>
+      <c r="M257">
+        <v>2.45</v>
+      </c>
+      <c r="N257">
         <v>3.3</v>
       </c>
-      <c r="M257">
-        <v>2.15</v>
-      </c>
-      <c r="N257">
-        <v>4.333</v>
-      </c>
       <c r="O257">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="P257">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="Q257">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R257">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S257">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T257">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U257">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V257">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W257">
         <v>-1</v>
       </c>
       <c r="X257">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y257">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z257">
+        <v>0.3875</v>
+      </c>
+      <c r="AA257">
         <v>-0.5</v>
       </c>
-      <c r="AA257">
-        <v>0.475</v>
-      </c>
       <c r="AB257">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC257">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="258" spans="1:29">
@@ -23418,7 +23418,7 @@
         <v>45339.52083333334</v>
       </c>
       <c r="F258" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G258" t="s">
         <v>33</v>
@@ -23430,7 +23430,7 @@
         <v>1</v>
       </c>
       <c r="J258" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K258">
         <v>2.7</v>
@@ -23507,7 +23507,7 @@
         <v>45339.53125</v>
       </c>
       <c r="F259" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G259" t="s">
         <v>40</v>
@@ -23519,7 +23519,7 @@
         <v>1</v>
       </c>
       <c r="J259" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K259">
         <v>4.333</v>
@@ -23596,7 +23596,7 @@
         <v>45339.625</v>
       </c>
       <c r="F260" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G260" t="s">
         <v>41</v>
@@ -23608,7 +23608,7 @@
         <v>1</v>
       </c>
       <c r="J260" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K260">
         <v>1.727</v>
@@ -23685,7 +23685,7 @@
         <v>45340.4375</v>
       </c>
       <c r="F261" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G261" t="s">
         <v>37</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="J261" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K261">
         <v>4</v>
@@ -23786,7 +23786,7 @@
         <v>1</v>
       </c>
       <c r="J262" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K262">
         <v>2.3</v>
@@ -23863,7 +23863,7 @@
         <v>45349.60416666666</v>
       </c>
       <c r="F263" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G263" t="s">
         <v>40</v>
@@ -24014,7 +24014,7 @@
         <v>36</v>
       </c>
       <c r="G265" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K265">
         <v>2.375</v>
@@ -24159,7 +24159,7 @@
         <v>45353.4375</v>
       </c>
       <c r="F267" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G267" t="s">
         <v>41</v>
@@ -24248,31 +24248,31 @@
         <v>4.5</v>
       </c>
       <c r="N268">
-        <v>1.363</v>
+        <v>1.3</v>
       </c>
       <c r="O268">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P268">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q268">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R268">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S268">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T268">
         <v>2.25</v>
       </c>
       <c r="U268">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V268">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W268">
         <v>0</v>

--- a/South Africa Premier/South Africa Premier.xlsx
+++ b/South Africa Premier/South Africa Premier.xlsx
@@ -21537,7 +21537,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>7476568</v>
+        <v>7464395</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21549,13 +21549,13 @@
         <v>45273.60416666666</v>
       </c>
       <c r="F237" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G237" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I237">
         <v>0</v>
@@ -21564,34 +21564,34 @@
         <v>48</v>
       </c>
       <c r="K237">
-        <v>2.2</v>
+        <v>1.181</v>
       </c>
       <c r="L237">
+        <v>6.5</v>
+      </c>
+      <c r="M237">
+        <v>13</v>
+      </c>
+      <c r="N237">
+        <v>1.2</v>
+      </c>
+      <c r="O237">
+        <v>6</v>
+      </c>
+      <c r="P237">
+        <v>12</v>
+      </c>
+      <c r="Q237">
+        <v>-1.75</v>
+      </c>
+      <c r="R237">
+        <v>1.775</v>
+      </c>
+      <c r="S237">
+        <v>2.025</v>
+      </c>
+      <c r="T237">
         <v>3</v>
-      </c>
-      <c r="M237">
-        <v>3.4</v>
-      </c>
-      <c r="N237">
-        <v>2.25</v>
-      </c>
-      <c r="O237">
-        <v>2.75</v>
-      </c>
-      <c r="P237">
-        <v>3.6</v>
-      </c>
-      <c r="Q237">
-        <v>-0.25</v>
-      </c>
-      <c r="R237">
-        <v>1.9</v>
-      </c>
-      <c r="S237">
-        <v>1.9</v>
-      </c>
-      <c r="T237">
-        <v>1.75</v>
       </c>
       <c r="U237">
         <v>1.975</v>
@@ -21600,7 +21600,7 @@
         <v>1.825</v>
       </c>
       <c r="W237">
-        <v>1.25</v>
+        <v>0.2</v>
       </c>
       <c r="X237">
         <v>-1</v>
@@ -21609,16 +21609,16 @@
         <v>-1</v>
       </c>
       <c r="Z237">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA237">
         <v>-1</v>
       </c>
       <c r="AB237">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC237">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21626,7 +21626,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7464395</v>
+        <v>7476568</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21638,13 +21638,13 @@
         <v>45273.60416666666</v>
       </c>
       <c r="F238" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G238" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H238">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I238">
         <v>0</v>
@@ -21653,34 +21653,34 @@
         <v>48</v>
       </c>
       <c r="K238">
-        <v>1.181</v>
+        <v>2.2</v>
       </c>
       <c r="L238">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="M238">
-        <v>13</v>
+        <v>3.4</v>
       </c>
       <c r="N238">
-        <v>1.2</v>
+        <v>2.25</v>
       </c>
       <c r="O238">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="P238">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="Q238">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R238">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S238">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T238">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="U238">
         <v>1.975</v>
@@ -21689,7 +21689,7 @@
         <v>1.825</v>
       </c>
       <c r="W238">
-        <v>0.2</v>
+        <v>1.25</v>
       </c>
       <c r="X238">
         <v>-1</v>
@@ -21698,16 +21698,16 @@
         <v>-1</v>
       </c>
       <c r="Z238">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA238">
         <v>-1</v>
       </c>
       <c r="AB238">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC238">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -24174,31 +24174,31 @@
         <v>2.55</v>
       </c>
       <c r="N267">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="O267">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P267">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="Q267">
         <v>0.5</v>
       </c>
       <c r="R267">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S267">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T267">
         <v>2</v>
       </c>
       <c r="U267">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V267">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W267">
         <v>0</v>

--- a/South Africa Premier/South Africa Premier.xlsx
+++ b/South Africa Premier/South Africa Premier.xlsx
@@ -142,13 +142,13 @@
     <t>Amazulu</t>
   </si>
   <si>
-    <t>Ajax Cape Town</t>
+    <t>Polokwane City</t>
   </si>
   <si>
     <t>Chippa United</t>
   </si>
   <si>
-    <t>Polokwane City</t>
+    <t>Ajax Cape Town</t>
   </si>
   <si>
     <t>A</t>
@@ -1165,7 +1165,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1254,7 +1254,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7007761</v>
+        <v>7007759</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1788,73 +1788,73 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K15">
         <v>3</v>
       </c>
       <c r="L15">
+        <v>3.1</v>
+      </c>
+      <c r="M15">
+        <v>2.25</v>
+      </c>
+      <c r="N15">
+        <v>2.875</v>
+      </c>
+      <c r="O15">
         <v>3</v>
       </c>
-      <c r="M15">
-        <v>2.3</v>
-      </c>
-      <c r="N15">
-        <v>2.7</v>
-      </c>
-      <c r="O15">
-        <v>2.625</v>
-      </c>
       <c r="P15">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R15">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="S15">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="T15">
         <v>2</v>
       </c>
       <c r="U15">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V15">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA15">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1951,7 +1951,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7007759</v>
+        <v>7007761</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1966,73 +1966,73 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K17">
         <v>3</v>
       </c>
       <c r="L17">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M17">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="N17">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="O17">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="P17">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="Q17">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S17">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="T17">
         <v>2</v>
       </c>
       <c r="U17">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V17">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W17">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z17">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC17">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2307,7 +2307,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7007762</v>
+        <v>7068224</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2319,76 +2319,76 @@
         <v>45156.60416666666</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21">
+        <v>1.909</v>
+      </c>
+      <c r="L21">
         <v>3</v>
       </c>
-      <c r="J21" t="s">
-        <v>45</v>
-      </c>
-      <c r="K21">
-        <v>2.6</v>
-      </c>
-      <c r="L21">
-        <v>2.875</v>
-      </c>
       <c r="M21">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="N21">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="O21">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P21">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R21">
+        <v>1.95</v>
+      </c>
+      <c r="S21">
+        <v>1.85</v>
+      </c>
+      <c r="T21">
+        <v>2</v>
+      </c>
+      <c r="U21">
+        <v>2</v>
+      </c>
+      <c r="V21">
         <v>1.8</v>
       </c>
-      <c r="S21">
-        <v>2</v>
-      </c>
-      <c r="T21">
-        <v>2</v>
-      </c>
-      <c r="U21">
-        <v>1.95</v>
-      </c>
-      <c r="V21">
-        <v>1.85</v>
-      </c>
       <c r="W21">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA21">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2396,7 +2396,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7068224</v>
+        <v>7007762</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2408,76 +2408,76 @@
         <v>45156.60416666666</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K22">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="L22">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M22">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="N22">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="O22">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P22">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="Q22">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R22">
+        <v>1.8</v>
+      </c>
+      <c r="S22">
+        <v>2</v>
+      </c>
+      <c r="T22">
+        <v>2</v>
+      </c>
+      <c r="U22">
         <v>1.95</v>
       </c>
-      <c r="S22">
+      <c r="V22">
         <v>1.85</v>
       </c>
-      <c r="T22">
-        <v>2</v>
-      </c>
-      <c r="U22">
-        <v>2</v>
-      </c>
-      <c r="V22">
-        <v>1.8</v>
-      </c>
       <c r="W22">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z22">
+        <v>-1</v>
+      </c>
+      <c r="AA22">
+        <v>1</v>
+      </c>
+      <c r="AB22">
         <v>0.95</v>
       </c>
-      <c r="AA22">
-        <v>-1</v>
-      </c>
-      <c r="AB22">
-        <v>-1</v>
-      </c>
       <c r="AC22">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2497,10 +2497,10 @@
         <v>45157.41666666666</v>
       </c>
       <c r="F23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" t="s">
         <v>44</v>
-      </c>
-      <c r="G23" t="s">
-        <v>42</v>
       </c>
       <c r="H23">
         <v>3</v>
@@ -3031,7 +3031,7 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G29" t="s">
         <v>43</v>
@@ -3123,7 +3123,7 @@
         <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H30">
         <v>3</v>
@@ -3654,7 +3654,7 @@
         <v>45168.5</v>
       </c>
       <c r="F36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G36" t="s">
         <v>39</v>
@@ -3731,7 +3731,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>7078409</v>
+        <v>7078410</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3743,49 +3743,49 @@
         <v>45168.60416666666</v>
       </c>
       <c r="F37" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G37" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37" t="s">
+        <v>47</v>
+      </c>
+      <c r="K37">
+        <v>2.7</v>
+      </c>
+      <c r="L37">
+        <v>3.1</v>
+      </c>
+      <c r="M37">
+        <v>2.5</v>
+      </c>
+      <c r="N37">
         <v>3</v>
       </c>
-      <c r="J37" t="s">
-        <v>45</v>
-      </c>
-      <c r="K37">
-        <v>2.3</v>
-      </c>
-      <c r="L37">
+      <c r="O37">
         <v>2.875</v>
       </c>
-      <c r="M37">
-        <v>3.25</v>
-      </c>
-      <c r="N37">
-        <v>2.15</v>
-      </c>
-      <c r="O37">
-        <v>2.9</v>
-      </c>
       <c r="P37">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q37">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R37">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S37">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T37">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U37">
         <v>2.025</v>
@@ -3797,22 +3797,22 @@
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y37">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA37">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB37">
-        <v>1.025</v>
+        <v>0.5125</v>
       </c>
       <c r="AC37">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3924,7 +3924,7 @@
         <v>40</v>
       </c>
       <c r="G39" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H39">
         <v>3</v>
@@ -4087,7 +4087,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7078410</v>
+        <v>7078409</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4099,49 +4099,49 @@
         <v>45168.60416666666</v>
       </c>
       <c r="F41" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G41" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J41" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K41">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="L41">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M41">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="N41">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="O41">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="P41">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R41">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S41">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T41">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U41">
         <v>2.025</v>
@@ -4153,22 +4153,22 @@
         <v>-1</v>
       </c>
       <c r="X41">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z41">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB41">
-        <v>0.5125</v>
+        <v>1.025</v>
       </c>
       <c r="AC41">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4532,7 +4532,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7169682</v>
+        <v>7169681</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4544,10 +4544,10 @@
         <v>45188.60416666666</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G46" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -4559,41 +4559,41 @@
         <v>45</v>
       </c>
       <c r="K46">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="L46">
+        <v>3.2</v>
+      </c>
+      <c r="M46">
+        <v>1.909</v>
+      </c>
+      <c r="N46">
+        <v>2.875</v>
+      </c>
+      <c r="O46">
         <v>2.9</v>
       </c>
-      <c r="M46">
-        <v>2.75</v>
-      </c>
-      <c r="N46">
-        <v>2.5</v>
-      </c>
-      <c r="O46">
-        <v>2.7</v>
-      </c>
       <c r="P46">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R46">
+        <v>1.725</v>
+      </c>
+      <c r="S46">
+        <v>2.075</v>
+      </c>
+      <c r="T46">
+        <v>2.25</v>
+      </c>
+      <c r="U46">
+        <v>2.025</v>
+      </c>
+      <c r="V46">
         <v>1.775</v>
       </c>
-      <c r="S46">
-        <v>2.025</v>
-      </c>
-      <c r="T46">
-        <v>1.75</v>
-      </c>
-      <c r="U46">
-        <v>1.925</v>
-      </c>
-      <c r="V46">
-        <v>1.875</v>
-      </c>
       <c r="W46">
         <v>-1</v>
       </c>
@@ -4601,16 +4601,16 @@
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>2</v>
+        <v>1.375</v>
       </c>
       <c r="Z46">
         <v>-1</v>
       </c>
       <c r="AA46">
+        <v>1.075</v>
+      </c>
+      <c r="AB46">
         <v>1.025</v>
-      </c>
-      <c r="AB46">
-        <v>0.925</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -4621,7 +4621,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7169681</v>
+        <v>7169682</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4633,10 +4633,10 @@
         <v>45188.60416666666</v>
       </c>
       <c r="F47" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G47" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4648,40 +4648,40 @@
         <v>45</v>
       </c>
       <c r="K47">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="L47">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M47">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="N47">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="O47">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="P47">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="Q47">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R47">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="S47">
-        <v>2.075</v>
+        <v>2.025</v>
       </c>
       <c r="T47">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U47">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V47">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W47">
         <v>-1</v>
@@ -4690,16 +4690,16 @@
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>1.375</v>
+        <v>2</v>
       </c>
       <c r="Z47">
         <v>-1</v>
       </c>
       <c r="AA47">
-        <v>1.075</v>
+        <v>1.025</v>
       </c>
       <c r="AB47">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AC47">
         <v>-1</v>
@@ -4799,7 +4799,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>7169685</v>
+        <v>7170833</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4811,76 +4811,76 @@
         <v>45189.60416666666</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G49" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
         <v>1</v>
       </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
       <c r="J49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K49">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="L49">
+        <v>2.875</v>
+      </c>
+      <c r="M49">
+        <v>2.5</v>
+      </c>
+      <c r="N49">
+        <v>3.4</v>
+      </c>
+      <c r="O49">
         <v>2.9</v>
       </c>
-      <c r="M49">
-        <v>3.75</v>
-      </c>
-      <c r="N49">
-        <v>1.909</v>
-      </c>
-      <c r="O49">
-        <v>2.875</v>
-      </c>
       <c r="P49">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q49">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R49">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S49">
+        <v>1.875</v>
+      </c>
+      <c r="T49">
+        <v>2</v>
+      </c>
+      <c r="U49">
         <v>1.8</v>
       </c>
-      <c r="T49">
-        <v>1.75</v>
-      </c>
-      <c r="U49">
-        <v>1.75</v>
-      </c>
       <c r="V49">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W49">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z49">
+        <v>-1</v>
+      </c>
+      <c r="AA49">
+        <v>0.875</v>
+      </c>
+      <c r="AB49">
+        <v>-1</v>
+      </c>
+      <c r="AC49">
         <v>1</v>
-      </c>
-      <c r="AA49">
-        <v>-1</v>
-      </c>
-      <c r="AB49">
-        <v>-1</v>
-      </c>
-      <c r="AC49">
-        <v>1.05</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4888,7 +4888,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7170834</v>
+        <v>7169685</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4900,76 +4900,76 @@
         <v>45189.60416666666</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G50" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K50">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="L50">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="M50">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="N50">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="O50">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="P50">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="Q50">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R50">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="S50">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="T50">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U50">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="V50">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X50">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA50">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
         <v>-1</v>
       </c>
       <c r="AC50">
-        <v>0.7749999999999999</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4977,7 +4977,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>7170833</v>
+        <v>7169684</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4989,10 +4989,10 @@
         <v>45189.60416666666</v>
       </c>
       <c r="F51" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G51" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -5004,25 +5004,25 @@
         <v>45</v>
       </c>
       <c r="K51">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="L51">
         <v>2.875</v>
       </c>
       <c r="M51">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="N51">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="O51">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="P51">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="Q51">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R51">
         <v>1.925</v>
@@ -5031,13 +5031,13 @@
         <v>1.875</v>
       </c>
       <c r="T51">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U51">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V51">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W51">
         <v>-1</v>
@@ -5046,7 +5046,7 @@
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>1.1</v>
+        <v>1.625</v>
       </c>
       <c r="Z51">
         <v>-1</v>
@@ -5058,7 +5058,7 @@
         <v>-1</v>
       </c>
       <c r="AC51">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5066,7 +5066,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>7169684</v>
+        <v>7170834</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5078,76 +5078,76 @@
         <v>45189.60416666666</v>
       </c>
       <c r="F52" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G52" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H52">
         <v>0</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K52">
         <v>2.375</v>
       </c>
       <c r="L52">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="M52">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="N52">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="O52">
         <v>2.7</v>
       </c>
       <c r="P52">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="Q52">
         <v>0</v>
       </c>
       <c r="R52">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="S52">
-        <v>1.875</v>
+        <v>2.075</v>
       </c>
       <c r="T52">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U52">
+        <v>2.025</v>
+      </c>
+      <c r="V52">
         <v>1.775</v>
       </c>
-      <c r="V52">
-        <v>2.025</v>
-      </c>
       <c r="W52">
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y52">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA52">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB52">
         <v>-1</v>
       </c>
       <c r="AC52">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5167,7 +5167,7 @@
         <v>45194.41666666666</v>
       </c>
       <c r="F53" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G53" t="s">
         <v>41</v>
@@ -5333,7 +5333,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7234871</v>
+        <v>7234870</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5345,13 +5345,13 @@
         <v>45196.60416666666</v>
       </c>
       <c r="F55" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G55" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I55">
         <v>1</v>
@@ -5360,43 +5360,43 @@
         <v>46</v>
       </c>
       <c r="K55">
+        <v>1.333</v>
+      </c>
+      <c r="L55">
+        <v>4.333</v>
+      </c>
+      <c r="M55">
+        <v>8.5</v>
+      </c>
+      <c r="N55">
+        <v>1.363</v>
+      </c>
+      <c r="O55">
+        <v>4.2</v>
+      </c>
+      <c r="P55">
+        <v>8.5</v>
+      </c>
+      <c r="Q55">
+        <v>-1.25</v>
+      </c>
+      <c r="R55">
         <v>1.85</v>
       </c>
-      <c r="L55">
-        <v>3.1</v>
-      </c>
-      <c r="M55">
-        <v>4.333</v>
-      </c>
-      <c r="N55">
-        <v>2.05</v>
-      </c>
-      <c r="O55">
-        <v>2.875</v>
-      </c>
-      <c r="P55">
-        <v>4</v>
-      </c>
-      <c r="Q55">
-        <v>-0.5</v>
-      </c>
-      <c r="R55">
-        <v>2</v>
-      </c>
       <c r="S55">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T55">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U55">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V55">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="W55">
-        <v>1.05</v>
+        <v>0.363</v>
       </c>
       <c r="X55">
         <v>-1</v>
@@ -5405,13 +5405,13 @@
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA55">
         <v>-1</v>
       </c>
       <c r="AB55">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AC55">
         <v>-1</v>
@@ -5422,7 +5422,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7234870</v>
+        <v>7234871</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5434,13 +5434,13 @@
         <v>45196.60416666666</v>
       </c>
       <c r="F56" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G56" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I56">
         <v>1</v>
@@ -5449,43 +5449,43 @@
         <v>46</v>
       </c>
       <c r="K56">
-        <v>1.333</v>
+        <v>1.85</v>
       </c>
       <c r="L56">
+        <v>3.1</v>
+      </c>
+      <c r="M56">
         <v>4.333</v>
       </c>
-      <c r="M56">
-        <v>8.5</v>
-      </c>
       <c r="N56">
-        <v>1.363</v>
+        <v>2.05</v>
       </c>
       <c r="O56">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="P56">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="Q56">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R56">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S56">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T56">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U56">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V56">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="W56">
-        <v>0.363</v>
+        <v>1.05</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5494,13 +5494,13 @@
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA56">
         <v>-1</v>
       </c>
       <c r="AB56">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AC56">
         <v>-1</v>
@@ -5615,7 +5615,7 @@
         <v>36</v>
       </c>
       <c r="G58" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H58">
         <v>3</v>
@@ -5701,7 +5701,7 @@
         <v>45199.52083333334</v>
       </c>
       <c r="F59" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G59" t="s">
         <v>32</v>
@@ -6134,7 +6134,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7267512</v>
+        <v>7267513</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6146,55 +6146,55 @@
         <v>45203.60416666666</v>
       </c>
       <c r="F64" t="s">
+        <v>37</v>
+      </c>
+      <c r="G64" t="s">
         <v>42</v>
       </c>
-      <c r="G64" t="s">
-        <v>30</v>
-      </c>
       <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
         <v>1</v>
-      </c>
-      <c r="I64">
-        <v>2</v>
       </c>
       <c r="J64" t="s">
         <v>45</v>
       </c>
       <c r="K64">
-        <v>5</v>
+        <v>2.55</v>
       </c>
       <c r="L64">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="M64">
-        <v>1.7</v>
+        <v>2.875</v>
       </c>
       <c r="N64">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="O64">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="P64">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="Q64">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R64">
+        <v>1.925</v>
+      </c>
+      <c r="S64">
         <v>1.875</v>
       </c>
-      <c r="S64">
-        <v>1.925</v>
-      </c>
       <c r="T64">
         <v>2</v>
       </c>
       <c r="U64">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V64">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W64">
         <v>-1</v>
@@ -6203,19 +6203,19 @@
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="Z64">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AB64">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC64">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6223,7 +6223,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7267513</v>
+        <v>7267512</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6235,55 +6235,55 @@
         <v>45203.60416666666</v>
       </c>
       <c r="F65" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G65" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J65" t="s">
         <v>45</v>
       </c>
       <c r="K65">
-        <v>2.55</v>
+        <v>5</v>
       </c>
       <c r="L65">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="M65">
-        <v>2.875</v>
+        <v>1.7</v>
       </c>
       <c r="N65">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="O65">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="P65">
-        <v>3.6</v>
+        <v>1.7</v>
       </c>
       <c r="Q65">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R65">
+        <v>1.875</v>
+      </c>
+      <c r="S65">
         <v>1.925</v>
       </c>
-      <c r="S65">
-        <v>1.875</v>
-      </c>
       <c r="T65">
         <v>2</v>
       </c>
       <c r="U65">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V65">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W65">
         <v>-1</v>
@@ -6292,19 +6292,19 @@
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA65">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AB65">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC65">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6416,7 +6416,7 @@
         <v>29</v>
       </c>
       <c r="G67" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6683,7 +6683,7 @@
         <v>38</v>
       </c>
       <c r="G70" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -7036,7 +7036,7 @@
         <v>45231.60416666666</v>
       </c>
       <c r="F74" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G74" t="s">
         <v>38</v>
@@ -7469,7 +7469,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7404433</v>
+        <v>7404435</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7481,58 +7481,58 @@
         <v>45238.60416666666</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G79" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J79" t="s">
         <v>46</v>
       </c>
       <c r="K79">
-        <v>1.533</v>
+        <v>2.45</v>
       </c>
       <c r="L79">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="M79">
-        <v>5.75</v>
+        <v>2.8</v>
       </c>
       <c r="N79">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="O79">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P79">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="Q79">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R79">
+        <v>1.975</v>
+      </c>
+      <c r="S79">
+        <v>1.825</v>
+      </c>
+      <c r="T79">
+        <v>1.75</v>
+      </c>
+      <c r="U79">
         <v>1.8</v>
       </c>
-      <c r="S79">
-        <v>2</v>
-      </c>
-      <c r="T79">
-        <v>2.25</v>
-      </c>
-      <c r="U79">
-        <v>1.85</v>
-      </c>
       <c r="V79">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W79">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7541,16 +7541,16 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA79">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB79">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7558,7 +7558,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>7404434</v>
+        <v>7404433</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7570,76 +7570,76 @@
         <v>45238.60416666666</v>
       </c>
       <c r="F80" t="s">
+        <v>34</v>
+      </c>
+      <c r="G80" t="s">
         <v>44</v>
       </c>
-      <c r="G80" t="s">
-        <v>30</v>
-      </c>
       <c r="H80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K80">
-        <v>2.6</v>
+        <v>1.533</v>
       </c>
       <c r="L80">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="M80">
-        <v>2.6</v>
+        <v>5.75</v>
       </c>
       <c r="N80">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
       <c r="O80">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="P80">
+        <v>6</v>
+      </c>
+      <c r="Q80">
+        <v>-1</v>
+      </c>
+      <c r="R80">
+        <v>1.8</v>
+      </c>
+      <c r="S80">
+        <v>2</v>
+      </c>
+      <c r="T80">
         <v>2.25</v>
       </c>
-      <c r="Q80">
-        <v>0.25</v>
-      </c>
-      <c r="R80">
+      <c r="U80">
         <v>1.85</v>
       </c>
-      <c r="S80">
+      <c r="V80">
         <v>1.95</v>
       </c>
-      <c r="T80">
-        <v>2</v>
-      </c>
-      <c r="U80">
-        <v>1.95</v>
-      </c>
-      <c r="V80">
-        <v>1.85</v>
-      </c>
       <c r="W80">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X80">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y80">
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="AA80">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB80">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC80">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7647,7 +7647,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>7404435</v>
+        <v>7404434</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7659,76 +7659,76 @@
         <v>45238.60416666666</v>
       </c>
       <c r="F81" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G81" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H81">
         <v>1</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K81">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="L81">
         <v>3</v>
       </c>
       <c r="M81">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="N81">
+        <v>3.25</v>
+      </c>
+      <c r="O81">
+        <v>2.875</v>
+      </c>
+      <c r="P81">
         <v>2.25</v>
       </c>
-      <c r="O81">
-        <v>3</v>
-      </c>
-      <c r="P81">
-        <v>3.2</v>
-      </c>
       <c r="Q81">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R81">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S81">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T81">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U81">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V81">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W81">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X81">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB81">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC81">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7825,7 +7825,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7404438</v>
+        <v>7404437</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7837,76 +7837,76 @@
         <v>45241.4375</v>
       </c>
       <c r="F83" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G83" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H83">
         <v>0</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K83">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L83">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M83">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="N83">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O83">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="P83">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="Q83">
         <v>0</v>
       </c>
       <c r="R83">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S83">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T83">
         <v>2</v>
       </c>
       <c r="U83">
+        <v>1.85</v>
+      </c>
+      <c r="V83">
+        <v>1.95</v>
+      </c>
+      <c r="W83">
+        <v>-1</v>
+      </c>
+      <c r="X83">
         <v>1.875</v>
       </c>
-      <c r="V83">
-        <v>1.925</v>
-      </c>
-      <c r="W83">
-        <v>-1</v>
-      </c>
-      <c r="X83">
-        <v>-1</v>
-      </c>
       <c r="Y83">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA83">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB83">
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7914,7 +7914,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>7404437</v>
+        <v>7404438</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7926,76 +7926,76 @@
         <v>45241.4375</v>
       </c>
       <c r="F84" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G84" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H84">
         <v>0</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K84">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L84">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M84">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="N84">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O84">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="P84">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q84">
         <v>0</v>
       </c>
       <c r="R84">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S84">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T84">
         <v>2</v>
       </c>
       <c r="U84">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V84">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z84">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB84">
         <v>-1</v>
       </c>
       <c r="AC84">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7404441</v>
+        <v>7404440</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,76 +8104,76 @@
         <v>45242.4375</v>
       </c>
       <c r="F86" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G86" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H86">
         <v>1</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J86" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K86">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L86">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M86">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N86">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="O86">
         <v>3</v>
       </c>
       <c r="P86">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="Q86">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R86">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S86">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T86">
         <v>2</v>
       </c>
       <c r="U86">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V86">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W86">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z86">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC86">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7404440</v>
+        <v>7404441</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8193,76 +8193,76 @@
         <v>45242.4375</v>
       </c>
       <c r="F87" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G87" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H87">
         <v>1</v>
       </c>
       <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87" t="s">
+        <v>46</v>
+      </c>
+      <c r="K87">
+        <v>2.3</v>
+      </c>
+      <c r="L87">
+        <v>2.9</v>
+      </c>
+      <c r="M87">
         <v>3</v>
       </c>
-      <c r="J87" t="s">
-        <v>45</v>
-      </c>
-      <c r="K87">
-        <v>2.15</v>
-      </c>
-      <c r="L87">
-        <v>3</v>
-      </c>
-      <c r="M87">
-        <v>3.2</v>
-      </c>
       <c r="N87">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="O87">
         <v>3</v>
       </c>
       <c r="P87">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q87">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R87">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S87">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T87">
         <v>2</v>
       </c>
       <c r="U87">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V87">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA87">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8359,7 +8359,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7404444</v>
+        <v>7404445</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8371,76 +8371,76 @@
         <v>45255.4375</v>
       </c>
       <c r="F89" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G89" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H89">
         <v>0</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K89">
+        <v>5.25</v>
+      </c>
+      <c r="L89">
+        <v>3.4</v>
+      </c>
+      <c r="M89">
+        <v>1.65</v>
+      </c>
+      <c r="N89">
+        <v>4.2</v>
+      </c>
+      <c r="O89">
+        <v>3.2</v>
+      </c>
+      <c r="P89">
+        <v>1.85</v>
+      </c>
+      <c r="Q89">
+        <v>0.5</v>
+      </c>
+      <c r="R89">
+        <v>1.9</v>
+      </c>
+      <c r="S89">
+        <v>1.9</v>
+      </c>
+      <c r="T89">
+        <v>2</v>
+      </c>
+      <c r="U89">
+        <v>1.925</v>
+      </c>
+      <c r="V89">
+        <v>1.875</v>
+      </c>
+      <c r="W89">
+        <v>-1</v>
+      </c>
+      <c r="X89">
         <v>2.2</v>
       </c>
-      <c r="L89">
-        <v>3</v>
-      </c>
-      <c r="M89">
-        <v>3.25</v>
-      </c>
-      <c r="N89">
-        <v>2.7</v>
-      </c>
-      <c r="O89">
-        <v>2.8</v>
-      </c>
-      <c r="P89">
-        <v>2.75</v>
-      </c>
-      <c r="Q89">
-        <v>0</v>
-      </c>
-      <c r="R89">
-        <v>1.875</v>
-      </c>
-      <c r="S89">
-        <v>1.925</v>
-      </c>
-      <c r="T89">
-        <v>1.75</v>
-      </c>
-      <c r="U89">
-        <v>1.775</v>
-      </c>
-      <c r="V89">
-        <v>2.025</v>
-      </c>
-      <c r="W89">
-        <v>-1</v>
-      </c>
-      <c r="X89">
-        <v>-1</v>
-      </c>
       <c r="Y89">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA89">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8448,7 +8448,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7404445</v>
+        <v>7404444</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8460,76 +8460,76 @@
         <v>45255.4375</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G90" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H90">
         <v>0</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K90">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="L90">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M90">
-        <v>1.65</v>
+        <v>3.25</v>
       </c>
       <c r="N90">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="O90">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="P90">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="Q90">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R90">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S90">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T90">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U90">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V90">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z90">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB90">
         <v>-1</v>
       </c>
       <c r="AC90">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8549,7 +8549,7 @@
         <v>45255.53125</v>
       </c>
       <c r="F91" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G91" t="s">
         <v>32</v>
@@ -8626,7 +8626,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7404450</v>
+        <v>7404449</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8638,76 +8638,76 @@
         <v>45256.4375</v>
       </c>
       <c r="F92" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G92" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H92">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K92">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="L92">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M92">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="N92">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="O92">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="P92">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="Q92">
         <v>0</v>
       </c>
       <c r="R92">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="S92">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T92">
+        <v>2</v>
+      </c>
+      <c r="U92">
+        <v>2.05</v>
+      </c>
+      <c r="V92">
         <v>1.75</v>
       </c>
-      <c r="U92">
-        <v>1.75</v>
-      </c>
-      <c r="V92">
-        <v>2.05</v>
-      </c>
       <c r="W92">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z92">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB92">
+        <v>-1</v>
+      </c>
+      <c r="AC92">
         <v>0.75</v>
-      </c>
-      <c r="AC92">
-        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8715,7 +8715,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>7404449</v>
+        <v>7404450</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8727,76 +8727,76 @@
         <v>45256.4375</v>
       </c>
       <c r="F93" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G93" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K93">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="L93">
+        <v>2.875</v>
+      </c>
+      <c r="M93">
+        <v>2.4</v>
+      </c>
+      <c r="N93">
+        <v>2.5</v>
+      </c>
+      <c r="O93">
+        <v>2.75</v>
+      </c>
+      <c r="P93">
         <v>2.9</v>
       </c>
-      <c r="M93">
-        <v>2.9</v>
-      </c>
-      <c r="N93">
-        <v>2.75</v>
-      </c>
-      <c r="O93">
-        <v>2.7</v>
-      </c>
-      <c r="P93">
-        <v>2.8</v>
-      </c>
       <c r="Q93">
         <v>0</v>
       </c>
       <c r="R93">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="S93">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T93">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U93">
+        <v>1.75</v>
+      </c>
+      <c r="V93">
         <v>2.05</v>
       </c>
-      <c r="V93">
-        <v>1.75</v>
-      </c>
       <c r="W93">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AA93">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC93">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8905,7 +8905,7 @@
         <v>45258.60416666666</v>
       </c>
       <c r="F95" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G95" t="s">
         <v>33</v>
@@ -9439,7 +9439,7 @@
         <v>45269.4375</v>
       </c>
       <c r="F101" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G101" t="s">
         <v>34</v>
@@ -9783,7 +9783,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7476568</v>
+        <v>7464395</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9795,13 +9795,13 @@
         <v>45273.60416666666</v>
       </c>
       <c r="F105" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G105" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -9810,34 +9810,34 @@
         <v>46</v>
       </c>
       <c r="K105">
-        <v>2.2</v>
+        <v>1.181</v>
       </c>
       <c r="L105">
+        <v>6.5</v>
+      </c>
+      <c r="M105">
+        <v>13</v>
+      </c>
+      <c r="N105">
+        <v>1.2</v>
+      </c>
+      <c r="O105">
+        <v>6</v>
+      </c>
+      <c r="P105">
+        <v>12</v>
+      </c>
+      <c r="Q105">
+        <v>-1.75</v>
+      </c>
+      <c r="R105">
+        <v>1.775</v>
+      </c>
+      <c r="S105">
+        <v>2.025</v>
+      </c>
+      <c r="T105">
         <v>3</v>
-      </c>
-      <c r="M105">
-        <v>3.4</v>
-      </c>
-      <c r="N105">
-        <v>2.25</v>
-      </c>
-      <c r="O105">
-        <v>2.75</v>
-      </c>
-      <c r="P105">
-        <v>3.6</v>
-      </c>
-      <c r="Q105">
-        <v>-0.25</v>
-      </c>
-      <c r="R105">
-        <v>1.9</v>
-      </c>
-      <c r="S105">
-        <v>1.9</v>
-      </c>
-      <c r="T105">
-        <v>1.75</v>
       </c>
       <c r="U105">
         <v>1.975</v>
@@ -9846,7 +9846,7 @@
         <v>1.825</v>
       </c>
       <c r="W105">
-        <v>1.25</v>
+        <v>0.2</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9855,16 +9855,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA105">
         <v>-1</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC105">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9872,7 +9872,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7464395</v>
+        <v>7476568</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9884,13 +9884,13 @@
         <v>45273.60416666666</v>
       </c>
       <c r="F106" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G106" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H106">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -9899,34 +9899,34 @@
         <v>46</v>
       </c>
       <c r="K106">
-        <v>1.181</v>
+        <v>2.2</v>
       </c>
       <c r="L106">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="M106">
-        <v>13</v>
+        <v>3.4</v>
       </c>
       <c r="N106">
-        <v>1.2</v>
+        <v>2.25</v>
       </c>
       <c r="O106">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="P106">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="Q106">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R106">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S106">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T106">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="U106">
         <v>1.975</v>
@@ -9935,7 +9935,7 @@
         <v>1.825</v>
       </c>
       <c r="W106">
-        <v>0.2</v>
+        <v>1.25</v>
       </c>
       <c r="X106">
         <v>-1</v>
@@ -9944,16 +9944,16 @@
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA106">
         <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10154,7 +10154,7 @@
         <v>41</v>
       </c>
       <c r="G109" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10228,7 +10228,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7479719</v>
+        <v>7478004</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10240,76 +10240,76 @@
         <v>45283.4375</v>
       </c>
       <c r="F110" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G110" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K110">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L110">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M110">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N110">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="O110">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P110">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q110">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R110">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S110">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T110">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U110">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V110">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="W110">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA110">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC110">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10317,7 +10317,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7477992</v>
+        <v>7477991</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10329,76 +10329,76 @@
         <v>45283.4375</v>
       </c>
       <c r="F111" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G111" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K111">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="L111">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M111">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="N111">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="O111">
         <v>2.9</v>
       </c>
       <c r="P111">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="Q111">
         <v>0</v>
       </c>
       <c r="R111">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S111">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T111">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U111">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V111">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W111">
         <v>-1</v>
       </c>
       <c r="X111">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y111">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA111">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB111">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC111">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10406,7 +10406,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7478004</v>
+        <v>7477992</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10418,46 +10418,46 @@
         <v>45283.4375</v>
       </c>
       <c r="F112" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G112" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H112">
         <v>1</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K112">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="L112">
         <v>3</v>
       </c>
       <c r="M112">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N112">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="O112">
+        <v>2.9</v>
+      </c>
+      <c r="P112">
         <v>3</v>
       </c>
-      <c r="P112">
-        <v>4.75</v>
-      </c>
       <c r="Q112">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R112">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S112">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T112">
         <v>1.75</v>
@@ -10469,25 +10469,25 @@
         <v>2.05</v>
       </c>
       <c r="W112">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z112">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA112">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB112">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC112">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10495,7 +10495,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7477991</v>
+        <v>7479719</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10507,76 +10507,76 @@
         <v>45283.4375</v>
       </c>
       <c r="F113" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G113" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H113">
         <v>0</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K113">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="L113">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M113">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="N113">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="O113">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="P113">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="Q113">
         <v>0</v>
       </c>
       <c r="R113">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S113">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T113">
         <v>2</v>
       </c>
       <c r="U113">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V113">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W113">
         <v>-1</v>
       </c>
       <c r="X113">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z113">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA113">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB113">
+        <v>0</v>
+      </c>
+      <c r="AC113">
         <v>-0</v>
-      </c>
-      <c r="AB113">
-        <v>-1</v>
-      </c>
-      <c r="AC113">
-        <v>0.825</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10940,7 +10940,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7477996</v>
+        <v>7477995</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10952,58 +10952,58 @@
         <v>45290.4375</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G118" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H118">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="s">
         <v>46</v>
       </c>
       <c r="K118">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="L118">
         <v>3</v>
       </c>
       <c r="M118">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="N118">
+        <v>2.1</v>
+      </c>
+      <c r="O118">
+        <v>3</v>
+      </c>
+      <c r="P118">
         <v>3.6</v>
       </c>
-      <c r="O118">
-        <v>2.9</v>
-      </c>
-      <c r="P118">
-        <v>2.1</v>
-      </c>
       <c r="Q118">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R118">
+        <v>1.825</v>
+      </c>
+      <c r="S118">
         <v>1.975</v>
       </c>
-      <c r="S118">
-        <v>1.825</v>
-      </c>
       <c r="T118">
         <v>2</v>
       </c>
       <c r="U118">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V118">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W118">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="X118">
         <v>-1</v>
@@ -11012,16 +11012,16 @@
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA118">
         <v>-1</v>
       </c>
       <c r="AB118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11029,7 +11029,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7477995</v>
+        <v>7477996</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11041,58 +11041,58 @@
         <v>45290.4375</v>
       </c>
       <c r="F119" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G119" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="s">
         <v>46</v>
       </c>
       <c r="K119">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="L119">
         <v>3</v>
       </c>
       <c r="M119">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="N119">
+        <v>3.6</v>
+      </c>
+      <c r="O119">
+        <v>2.9</v>
+      </c>
+      <c r="P119">
         <v>2.1</v>
       </c>
-      <c r="O119">
-        <v>3</v>
-      </c>
-      <c r="P119">
-        <v>3.6</v>
-      </c>
       <c r="Q119">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R119">
+        <v>1.975</v>
+      </c>
+      <c r="S119">
         <v>1.825</v>
       </c>
-      <c r="S119">
-        <v>1.975</v>
-      </c>
       <c r="T119">
         <v>2</v>
       </c>
       <c r="U119">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V119">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W119">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="X119">
         <v>-1</v>
@@ -11101,16 +11101,16 @@
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA119">
         <v>-1</v>
       </c>
       <c r="AB119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC119">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11133,7 +11133,7 @@
         <v>39</v>
       </c>
       <c r="G120" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -11308,7 +11308,7 @@
         <v>45291.4375</v>
       </c>
       <c r="F122" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G122" t="s">
         <v>36</v>
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7577336</v>
+        <v>7577337</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,76 +11486,76 @@
         <v>45339.4375</v>
       </c>
       <c r="F124" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G124" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124">
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K124">
         <v>3.1</v>
       </c>
       <c r="L124">
+        <v>2.8</v>
+      </c>
+      <c r="M124">
+        <v>2.45</v>
+      </c>
+      <c r="N124">
         <v>3.3</v>
       </c>
-      <c r="M124">
-        <v>2.15</v>
-      </c>
-      <c r="N124">
-        <v>4.333</v>
-      </c>
       <c r="O124">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="P124">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="Q124">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R124">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S124">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T124">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U124">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V124">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y124">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
+        <v>0.3875</v>
+      </c>
+      <c r="AA124">
         <v>-0.5</v>
       </c>
-      <c r="AA124">
-        <v>0.475</v>
-      </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC124">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11563,7 +11563,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7577337</v>
+        <v>7577336</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11575,76 +11575,76 @@
         <v>45339.4375</v>
       </c>
       <c r="F125" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G125" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125">
         <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K125">
         <v>3.1</v>
       </c>
       <c r="L125">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="M125">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="N125">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="O125">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="P125">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="Q125">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R125">
+        <v>1.85</v>
+      </c>
+      <c r="S125">
+        <v>1.95</v>
+      </c>
+      <c r="T125">
+        <v>2.25</v>
+      </c>
+      <c r="U125">
+        <v>2.025</v>
+      </c>
+      <c r="V125">
         <v>1.775</v>
       </c>
-      <c r="S125">
-        <v>2.025</v>
-      </c>
-      <c r="T125">
-        <v>2</v>
-      </c>
-      <c r="U125">
-        <v>2</v>
-      </c>
-      <c r="V125">
-        <v>1.8</v>
-      </c>
       <c r="W125">
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z125">
-        <v>0.3875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA125">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB125">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11753,7 +11753,7 @@
         <v>45339.53125</v>
       </c>
       <c r="F127" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G127" t="s">
         <v>41</v>
@@ -12136,19 +12136,19 @@
         <v>-1.25</v>
       </c>
       <c r="R131">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S131">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="T131">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U131">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V131">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W131">
         <v>0</v>
@@ -12171,7 +12171,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7628608</v>
+        <v>7628830</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12183,46 +12183,46 @@
         <v>45350.60416666666</v>
       </c>
       <c r="F132" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G132" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K132">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="L132">
+        <v>2.9</v>
+      </c>
+      <c r="M132">
         <v>3</v>
       </c>
-      <c r="M132">
-        <v>3.5</v>
-      </c>
       <c r="N132">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="O132">
         <v>3</v>
       </c>
       <c r="P132">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="Q132">
         <v>0</v>
       </c>
       <c r="R132">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S132">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T132">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U132">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V132">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W132">
         <v>0</v>
@@ -12245,7 +12245,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7628830</v>
+        <v>7628608</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12257,46 +12257,46 @@
         <v>45350.60416666666</v>
       </c>
       <c r="F133" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G133" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K133">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L133">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M133">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N133">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="O133">
         <v>3</v>
       </c>
       <c r="P133">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="Q133">
         <v>0</v>
       </c>
       <c r="R133">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="S133">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="T133">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U133">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="V133">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="W133">
         <v>0</v>
@@ -12405,7 +12405,7 @@
         <v>45353.4375</v>
       </c>
       <c r="F135" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G135" t="s">
         <v>38</v>

--- a/South Africa Premier/South Africa Premier.xlsx
+++ b/South Africa Premier/South Africa Premier.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -106,10 +106,10 @@
     <t>Sekhukhune United FC</t>
   </si>
   <si>
-    <t>Supersport United</t>
+    <t>Golden Arrows</t>
   </si>
   <si>
-    <t>Golden Arrows</t>
+    <t>Supersport United</t>
   </si>
   <si>
     <t>Royal AM FC</t>
@@ -133,10 +133,10 @@
     <t>Orlando Pirates</t>
   </si>
   <si>
-    <t>Mamelodi Sundowns</t>
+    <t>Moroka Swallows</t>
   </si>
   <si>
-    <t>Moroka Swallows</t>
+    <t>Mamelodi Sundowns</t>
   </si>
   <si>
     <t>Amazulu</t>
@@ -154,10 +154,10 @@
     <t>A</t>
   </si>
   <si>
-    <t>H</t>
+    <t>D</t>
   </si>
   <si>
-    <t>D</t>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC136"/>
+  <dimension ref="A1:AC137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,7 +631,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6961780</v>
+        <v>6961777</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -720,70 +720,70 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>46</v>
       </c>
       <c r="K3">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>2.75</v>
+      </c>
+      <c r="N3">
+        <v>2.2</v>
+      </c>
+      <c r="O3">
+        <v>2.875</v>
+      </c>
+      <c r="P3">
         <v>3.2</v>
       </c>
-      <c r="M3">
-        <v>5.5</v>
-      </c>
-      <c r="N3">
-        <v>1.65</v>
-      </c>
-      <c r="O3">
-        <v>3.2</v>
-      </c>
-      <c r="P3">
-        <v>5.5</v>
-      </c>
       <c r="Q3">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R3">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S3">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T3">
         <v>1.75</v>
       </c>
       <c r="U3">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V3">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W3">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB3">
-        <v>0.3875</v>
+        <v>0.45</v>
       </c>
       <c r="AC3">
         <v>-0.5</v>
@@ -794,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6961777</v>
+        <v>6961780</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -809,70 +809,70 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
         <v>47</v>
       </c>
       <c r="K4">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="L4">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M4">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="N4">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="O4">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="P4">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q4">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R4">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S4">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T4">
         <v>1.75</v>
       </c>
       <c r="U4">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V4">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X4">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA4">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.45</v>
+        <v>0.3875</v>
       </c>
       <c r="AC4">
         <v>-0.5</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K5">
         <v>2.4</v>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K6">
         <v>2.75</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K7">
         <v>1.5</v>
@@ -1174,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K8">
         <v>1.833</v>
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K9">
         <v>1.5</v>
@@ -1343,7 +1343,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1441,7 +1441,7 @@
         <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K11">
         <v>1.4</v>
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7007757</v>
+        <v>7007756</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1521,73 +1521,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K12">
-        <v>1.65</v>
+        <v>2.625</v>
       </c>
       <c r="L12">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M12">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="N12">
-        <v>1.45</v>
+        <v>2.625</v>
       </c>
       <c r="O12">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="P12">
-        <v>6.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S12">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T12">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U12">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V12">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W12">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB12">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1595,7 +1595,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7007756</v>
+        <v>7007757</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1610,73 +1610,73 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K13">
-        <v>2.625</v>
+        <v>1.65</v>
       </c>
       <c r="L13">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M13">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="N13">
-        <v>2.625</v>
+        <v>1.45</v>
       </c>
       <c r="O13">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="P13">
-        <v>2.625</v>
+        <v>6.5</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R13">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S13">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T13">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U13">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V13">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA13">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC13">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1699,7 +1699,7 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1708,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K14">
         <v>3.4</v>
@@ -1797,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K16">
         <v>2.4</v>
@@ -2052,10 +2052,10 @@
         <v>45153.5</v>
       </c>
       <c r="F18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H18">
         <v>4</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K18">
         <v>1.4</v>
@@ -2153,7 +2153,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K19">
         <v>4.5</v>
@@ -2233,7 +2233,7 @@
         <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2307,7 +2307,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7068224</v>
+        <v>7007762</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2319,76 +2319,76 @@
         <v>45156.60416666666</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K21">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="L21">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M21">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="N21">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="O21">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P21">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="Q21">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R21">
+        <v>1.8</v>
+      </c>
+      <c r="S21">
+        <v>2</v>
+      </c>
+      <c r="T21">
+        <v>2</v>
+      </c>
+      <c r="U21">
         <v>1.95</v>
       </c>
-      <c r="S21">
+      <c r="V21">
         <v>1.85</v>
       </c>
-      <c r="T21">
-        <v>2</v>
-      </c>
-      <c r="U21">
-        <v>2</v>
-      </c>
-      <c r="V21">
-        <v>1.8</v>
-      </c>
       <c r="W21">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z21">
+        <v>-1</v>
+      </c>
+      <c r="AA21">
+        <v>1</v>
+      </c>
+      <c r="AB21">
         <v>0.95</v>
       </c>
-      <c r="AA21">
-        <v>-1</v>
-      </c>
-      <c r="AB21">
-        <v>-1</v>
-      </c>
       <c r="AC21">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2396,7 +2396,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7007762</v>
+        <v>7068224</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2408,76 +2408,76 @@
         <v>45156.60416666666</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G22" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22" t="s">
+        <v>47</v>
+      </c>
+      <c r="K22">
+        <v>1.909</v>
+      </c>
+      <c r="L22">
         <v>3</v>
       </c>
-      <c r="J22" t="s">
-        <v>45</v>
-      </c>
-      <c r="K22">
-        <v>2.6</v>
-      </c>
-      <c r="L22">
-        <v>2.875</v>
-      </c>
       <c r="M22">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="N22">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="O22">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P22">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R22">
+        <v>1.95</v>
+      </c>
+      <c r="S22">
+        <v>1.85</v>
+      </c>
+      <c r="T22">
+        <v>2</v>
+      </c>
+      <c r="U22">
+        <v>2</v>
+      </c>
+      <c r="V22">
         <v>1.8</v>
       </c>
-      <c r="S22">
-        <v>2</v>
-      </c>
-      <c r="T22">
-        <v>2</v>
-      </c>
-      <c r="U22">
-        <v>1.95</v>
-      </c>
-      <c r="V22">
-        <v>1.85</v>
-      </c>
       <c r="W22">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA22">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2509,7 +2509,7 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K23">
         <v>2.15</v>
@@ -2598,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K24">
         <v>2.2</v>
@@ -2678,7 +2678,7 @@
         <v>43</v>
       </c>
       <c r="G25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K26">
         <v>2.875</v>
@@ -2856,7 +2856,7 @@
         <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -3120,7 +3120,7 @@
         <v>45164.41666666666</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G30" t="s">
         <v>42</v>
@@ -3132,7 +3132,7 @@
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K30">
         <v>2.1</v>
@@ -3221,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -3301,7 +3301,7 @@
         <v>33</v>
       </c>
       <c r="G32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3399,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K33">
         <v>2.4</v>
@@ -3476,10 +3476,10 @@
         <v>45167.5</v>
       </c>
       <c r="F34" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" t="s">
         <v>30</v>
-      </c>
-      <c r="G34" t="s">
-        <v>31</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -3577,7 +3577,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -3657,7 +3657,7 @@
         <v>42</v>
       </c>
       <c r="G36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3731,7 +3731,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>7078410</v>
+        <v>7078413</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3743,76 +3743,76 @@
         <v>45168.60416666666</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G37" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
         <v>47</v>
       </c>
       <c r="K37">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="L37">
+        <v>2.75</v>
+      </c>
+      <c r="M37">
+        <v>2.9</v>
+      </c>
+      <c r="N37">
         <v>3.1</v>
       </c>
-      <c r="M37">
-        <v>2.5</v>
-      </c>
-      <c r="N37">
-        <v>3</v>
-      </c>
       <c r="O37">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="P37">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R37">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="S37">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="T37">
         <v>1.75</v>
       </c>
       <c r="U37">
+        <v>1.775</v>
+      </c>
+      <c r="V37">
         <v>2.025</v>
       </c>
-      <c r="V37">
-        <v>1.775</v>
-      </c>
       <c r="W37">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X37">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="AA37">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3820,7 +3820,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>7078413</v>
+        <v>7078412</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3832,58 +3832,58 @@
         <v>45168.60416666666</v>
       </c>
       <c r="F38" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G38" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H38">
+        <v>3</v>
+      </c>
+      <c r="I38">
         <v>1</v>
       </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
       <c r="J38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K38">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="L38">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="M38">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="N38">
+        <v>1.833</v>
+      </c>
+      <c r="O38">
         <v>3.1</v>
       </c>
-      <c r="O38">
-        <v>2.8</v>
-      </c>
       <c r="P38">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="Q38">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R38">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="S38">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="T38">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U38">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V38">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W38">
-        <v>2.1</v>
+        <v>0.833</v>
       </c>
       <c r="X38">
         <v>-1</v>
@@ -3892,16 +3892,16 @@
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.7</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA38">
         <v>-1</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC38">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3909,7 +3909,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>7078412</v>
+        <v>7078411</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3921,76 +3921,76 @@
         <v>45168.60416666666</v>
       </c>
       <c r="F39" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G39" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="J39" t="s">
+        <v>45</v>
+      </c>
+      <c r="K39">
+        <v>2.6</v>
+      </c>
+      <c r="L39">
+        <v>3.1</v>
+      </c>
+      <c r="M39">
+        <v>2.6</v>
+      </c>
+      <c r="N39">
+        <v>2.4</v>
+      </c>
+      <c r="O39">
+        <v>2.75</v>
+      </c>
+      <c r="P39">
         <v>3</v>
       </c>
-      <c r="I39">
-        <v>1</v>
-      </c>
-      <c r="J39" t="s">
-        <v>46</v>
-      </c>
-      <c r="K39">
-        <v>1.8</v>
-      </c>
-      <c r="L39">
-        <v>3.25</v>
-      </c>
-      <c r="M39">
-        <v>4.333</v>
-      </c>
-      <c r="N39">
-        <v>1.833</v>
-      </c>
-      <c r="O39">
-        <v>3.1</v>
-      </c>
-      <c r="P39">
-        <v>4.2</v>
-      </c>
       <c r="Q39">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R39">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="S39">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="T39">
         <v>2</v>
       </c>
       <c r="U39">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V39">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W39">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z39">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB39">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3998,7 +3998,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7078411</v>
+        <v>7078409</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4010,46 +4010,46 @@
         <v>45168.60416666666</v>
       </c>
       <c r="F40" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G40" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J40" t="s">
         <v>45</v>
       </c>
       <c r="K40">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="L40">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M40">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="N40">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="O40">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="P40">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q40">
         <v>-0.25</v>
       </c>
       <c r="R40">
-        <v>2.075</v>
+        <v>1.825</v>
       </c>
       <c r="S40">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="T40">
         <v>2</v>
@@ -4067,19 +4067,19 @@
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="Z40">
         <v>-1</v>
       </c>
       <c r="AA40">
-        <v>0.7250000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB40">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC40">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4087,7 +4087,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7078409</v>
+        <v>7078410</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4099,49 +4099,49 @@
         <v>45168.60416666666</v>
       </c>
       <c r="F41" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G41" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41" t="s">
+        <v>46</v>
+      </c>
+      <c r="K41">
+        <v>2.7</v>
+      </c>
+      <c r="L41">
+        <v>3.1</v>
+      </c>
+      <c r="M41">
+        <v>2.5</v>
+      </c>
+      <c r="N41">
         <v>3</v>
       </c>
-      <c r="J41" t="s">
-        <v>45</v>
-      </c>
-      <c r="K41">
-        <v>2.3</v>
-      </c>
-      <c r="L41">
+      <c r="O41">
         <v>2.875</v>
       </c>
-      <c r="M41">
-        <v>3.25</v>
-      </c>
-      <c r="N41">
-        <v>2.15</v>
-      </c>
-      <c r="O41">
-        <v>2.9</v>
-      </c>
       <c r="P41">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q41">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R41">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S41">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T41">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U41">
         <v>2.025</v>
@@ -4153,22 +4153,22 @@
         <v>-1</v>
       </c>
       <c r="X41">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y41">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA41">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB41">
-        <v>1.025</v>
+        <v>0.5125</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4188,7 +4188,7 @@
         <v>45184.60416666666</v>
       </c>
       <c r="F42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G42" t="s">
         <v>37</v>
@@ -4277,7 +4277,7 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G43" t="s">
         <v>33</v>
@@ -4289,7 +4289,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K43">
         <v>1.95</v>
@@ -4378,7 +4378,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K44">
         <v>1.833</v>
@@ -4467,7 +4467,7 @@
         <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K45">
         <v>2.625</v>
@@ -4532,7 +4532,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7169681</v>
+        <v>7169682</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4544,10 +4544,10 @@
         <v>45188.60416666666</v>
       </c>
       <c r="F46" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -4559,40 +4559,40 @@
         <v>45</v>
       </c>
       <c r="K46">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="L46">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M46">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="N46">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="O46">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="P46">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="Q46">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R46">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="S46">
-        <v>2.075</v>
+        <v>2.025</v>
       </c>
       <c r="T46">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U46">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V46">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W46">
         <v>-1</v>
@@ -4601,16 +4601,16 @@
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>1.375</v>
+        <v>2</v>
       </c>
       <c r="Z46">
         <v>-1</v>
       </c>
       <c r="AA46">
-        <v>1.075</v>
+        <v>1.025</v>
       </c>
       <c r="AB46">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -4621,7 +4621,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7169682</v>
+        <v>7169683</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4633,13 +4633,13 @@
         <v>45188.60416666666</v>
       </c>
       <c r="F47" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G47" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47">
         <v>2</v>
@@ -4648,41 +4648,41 @@
         <v>45</v>
       </c>
       <c r="K47">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L47">
         <v>2.9</v>
       </c>
       <c r="M47">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="N47">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="O47">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="P47">
         <v>3</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R47">
+        <v>2</v>
+      </c>
+      <c r="S47">
+        <v>1.8</v>
+      </c>
+      <c r="T47">
+        <v>2</v>
+      </c>
+      <c r="U47">
+        <v>2.025</v>
+      </c>
+      <c r="V47">
         <v>1.775</v>
       </c>
-      <c r="S47">
-        <v>2.025</v>
-      </c>
-      <c r="T47">
-        <v>1.75</v>
-      </c>
-      <c r="U47">
-        <v>1.925</v>
-      </c>
-      <c r="V47">
-        <v>1.875</v>
-      </c>
       <c r="W47">
         <v>-1</v>
       </c>
@@ -4696,13 +4696,13 @@
         <v>-1</v>
       </c>
       <c r="AA47">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB47">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4710,7 +4710,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>7169683</v>
+        <v>7169681</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4722,13 +4722,13 @@
         <v>45188.60416666666</v>
       </c>
       <c r="F48" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G48" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48">
         <v>2</v>
@@ -4737,34 +4737,34 @@
         <v>45</v>
       </c>
       <c r="K48">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="L48">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M48">
-        <v>2.9</v>
+        <v>1.909</v>
       </c>
       <c r="N48">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="O48">
         <v>2.9</v>
       </c>
       <c r="P48">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="Q48">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R48">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="S48">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="T48">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U48">
         <v>2.025</v>
@@ -4779,19 +4779,19 @@
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>2</v>
+        <v>1.375</v>
       </c>
       <c r="Z48">
         <v>-1</v>
       </c>
       <c r="AA48">
-        <v>0.8</v>
+        <v>1.075</v>
       </c>
       <c r="AB48">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC48">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4814,7 +4814,7 @@
         <v>38</v>
       </c>
       <c r="G49" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -4900,7 +4900,7 @@
         <v>45189.60416666666</v>
       </c>
       <c r="F50" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G50" t="s">
         <v>34</v>
@@ -4912,7 +4912,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K50">
         <v>2</v>
@@ -4977,7 +4977,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>7169684</v>
+        <v>7170834</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4989,76 +4989,76 @@
         <v>45189.60416666666</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G51" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H51">
         <v>0</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K51">
         <v>2.375</v>
       </c>
       <c r="L51">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="M51">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="N51">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="O51">
         <v>2.7</v>
       </c>
       <c r="P51">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="Q51">
         <v>0</v>
       </c>
       <c r="R51">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="S51">
-        <v>1.875</v>
+        <v>2.075</v>
       </c>
       <c r="T51">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U51">
+        <v>2.025</v>
+      </c>
+      <c r="V51">
         <v>1.775</v>
       </c>
-      <c r="V51">
-        <v>2.025</v>
-      </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y51">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA51">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB51">
         <v>-1</v>
       </c>
       <c r="AC51">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5066,7 +5066,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>7170834</v>
+        <v>7169684</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5078,76 +5078,76 @@
         <v>45189.60416666666</v>
       </c>
       <c r="F52" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G52" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H52">
         <v>0</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K52">
         <v>2.375</v>
       </c>
       <c r="L52">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="M52">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="N52">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="O52">
         <v>2.7</v>
       </c>
       <c r="P52">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="Q52">
         <v>0</v>
       </c>
       <c r="R52">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S52">
-        <v>2.075</v>
+        <v>1.875</v>
       </c>
       <c r="T52">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U52">
+        <v>1.775</v>
+      </c>
+      <c r="V52">
         <v>2.025</v>
       </c>
-      <c r="V52">
-        <v>1.775</v>
-      </c>
       <c r="W52">
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z52">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB52">
         <v>-1</v>
       </c>
       <c r="AC52">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5179,7 +5179,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K53">
         <v>2.5</v>
@@ -5259,7 +5259,7 @@
         <v>43</v>
       </c>
       <c r="G54" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -5268,7 +5268,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K54">
         <v>3.3</v>
@@ -5345,7 +5345,7 @@
         <v>45196.60416666666</v>
       </c>
       <c r="F55" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G55" t="s">
         <v>33</v>
@@ -5357,7 +5357,7 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K55">
         <v>1.333</v>
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K56">
         <v>1.85</v>
@@ -5523,7 +5523,7 @@
         <v>45198.60416666666</v>
       </c>
       <c r="F57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G57" t="s">
         <v>41</v>
@@ -5535,7 +5535,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K57">
         <v>2.25</v>
@@ -5624,7 +5624,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K58">
         <v>1.8</v>
@@ -5713,7 +5713,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K59">
         <v>2.25</v>
@@ -5802,7 +5802,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K60">
         <v>2.25</v>
@@ -5968,7 +5968,7 @@
         <v>45203.5</v>
       </c>
       <c r="F62" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G62" t="s">
         <v>43</v>
@@ -5980,7 +5980,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K62">
         <v>2.25</v>
@@ -6045,7 +6045,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7267510</v>
+        <v>7267512</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6057,73 +6057,73 @@
         <v>45203.60416666666</v>
       </c>
       <c r="F63" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G63" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K63">
-        <v>2.35</v>
+        <v>5</v>
       </c>
       <c r="L63">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="M63">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="N63">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="O63">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="P63">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="Q63">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R63">
+        <v>1.875</v>
+      </c>
+      <c r="S63">
+        <v>1.925</v>
+      </c>
+      <c r="T63">
+        <v>2</v>
+      </c>
+      <c r="U63">
+        <v>1.825</v>
+      </c>
+      <c r="V63">
         <v>1.975</v>
       </c>
-      <c r="S63">
-        <v>1.825</v>
-      </c>
-      <c r="T63">
-        <v>2</v>
-      </c>
-      <c r="U63">
-        <v>1.85</v>
-      </c>
-      <c r="V63">
-        <v>1.95</v>
-      </c>
       <c r="W63">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z63">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB63">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC63">
         <v>-1</v>
@@ -6134,7 +6134,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7267513</v>
+        <v>7267510</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6146,76 +6146,76 @@
         <v>45203.60416666666</v>
       </c>
       <c r="F64" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G64" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K64">
-        <v>2.55</v>
+        <v>2.35</v>
       </c>
       <c r="L64">
         <v>2.875</v>
       </c>
       <c r="M64">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="N64">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O64">
         <v>2.875</v>
       </c>
       <c r="P64">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q64">
         <v>-0.25</v>
       </c>
       <c r="R64">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S64">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T64">
         <v>2</v>
       </c>
       <c r="U64">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V64">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W64">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA64">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC64">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6223,7 +6223,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7267512</v>
+        <v>7267513</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6235,55 +6235,55 @@
         <v>45203.60416666666</v>
       </c>
       <c r="F65" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G65" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
         <v>1</v>
-      </c>
-      <c r="I65">
-        <v>2</v>
       </c>
       <c r="J65" t="s">
         <v>45</v>
       </c>
       <c r="K65">
-        <v>5</v>
+        <v>2.55</v>
       </c>
       <c r="L65">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="M65">
-        <v>1.7</v>
+        <v>2.875</v>
       </c>
       <c r="N65">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="O65">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="P65">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="Q65">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R65">
+        <v>1.925</v>
+      </c>
+      <c r="S65">
         <v>1.875</v>
       </c>
-      <c r="S65">
-        <v>1.925</v>
-      </c>
       <c r="T65">
         <v>2</v>
       </c>
       <c r="U65">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V65">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W65">
         <v>-1</v>
@@ -6292,19 +6292,19 @@
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="Z65">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AB65">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC65">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6327,7 +6327,7 @@
         <v>29</v>
       </c>
       <c r="G66" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6425,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K67">
         <v>2.4</v>
@@ -6514,7 +6514,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K68">
         <v>2.2</v>
@@ -6591,7 +6591,7 @@
         <v>45225.60416666666</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G69" t="s">
         <v>32</v>
@@ -6603,7 +6603,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K69">
         <v>1.65</v>
@@ -6692,7 +6692,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K70">
         <v>1.8</v>
@@ -6769,7 +6769,7 @@
         <v>45227.4375</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G71" t="s">
         <v>34</v>
@@ -6781,7 +6781,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K71">
         <v>2.4</v>
@@ -6870,7 +6870,7 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K72">
         <v>2.2</v>
@@ -7048,7 +7048,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K74">
         <v>6</v>
@@ -7113,7 +7113,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>7404428</v>
+        <v>7404429</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7125,10 +7125,10 @@
         <v>45237.60416666666</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G75" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7137,46 +7137,46 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K75">
-        <v>3.4</v>
+        <v>1.65</v>
       </c>
       <c r="L75">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M75">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="N75">
-        <v>3</v>
+        <v>1.65</v>
       </c>
       <c r="O75">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P75">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="Q75">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R75">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S75">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T75">
         <v>2.25</v>
       </c>
       <c r="U75">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V75">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="W75">
-        <v>2</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X75">
         <v>-1</v>
@@ -7185,16 +7185,16 @@
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.75</v>
+        <v>0.4375</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB75">
         <v>-1</v>
       </c>
       <c r="AC75">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7202,7 +7202,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>7404431</v>
+        <v>7404428</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7214,58 +7214,58 @@
         <v>45237.60416666666</v>
       </c>
       <c r="F76" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G76" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K76">
-        <v>2.05</v>
+        <v>3.4</v>
       </c>
       <c r="L76">
+        <v>3.1</v>
+      </c>
+      <c r="M76">
+        <v>2.1</v>
+      </c>
+      <c r="N76">
         <v>3</v>
-      </c>
-      <c r="M76">
-        <v>3.5</v>
-      </c>
-      <c r="N76">
-        <v>1.909</v>
       </c>
       <c r="O76">
         <v>3</v>
       </c>
       <c r="P76">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q76">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R76">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S76">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T76">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U76">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V76">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="W76">
-        <v>0.909</v>
+        <v>2</v>
       </c>
       <c r="X76">
         <v>-1</v>
@@ -7274,16 +7274,16 @@
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AA76">
         <v>-1</v>
       </c>
       <c r="AB76">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7315,7 +7315,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K77">
         <v>1.75</v>
@@ -7380,7 +7380,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7404429</v>
+        <v>7404431</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7392,49 +7392,49 @@
         <v>45237.60416666666</v>
       </c>
       <c r="F78" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G78" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H78">
+        <v>2</v>
+      </c>
+      <c r="I78">
         <v>1</v>
       </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
       <c r="J78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K78">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="L78">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M78">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="N78">
-        <v>1.65</v>
+        <v>1.909</v>
       </c>
       <c r="O78">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P78">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q78">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R78">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S78">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T78">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U78">
         <v>1.925</v>
@@ -7443,7 +7443,7 @@
         <v>1.875</v>
       </c>
       <c r="W78">
-        <v>0.6499999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="X78">
         <v>-1</v>
@@ -7452,16 +7452,16 @@
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
       <c r="AA78">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC78">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7469,7 +7469,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7404435</v>
+        <v>7404434</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7481,76 +7481,76 @@
         <v>45238.60416666666</v>
       </c>
       <c r="F79" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G79" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H79">
         <v>1</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="s">
         <v>46</v>
       </c>
       <c r="K79">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="L79">
         <v>3</v>
       </c>
       <c r="M79">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="N79">
+        <v>3.25</v>
+      </c>
+      <c r="O79">
+        <v>2.875</v>
+      </c>
+      <c r="P79">
         <v>2.25</v>
       </c>
-      <c r="O79">
-        <v>3</v>
-      </c>
-      <c r="P79">
-        <v>3.2</v>
-      </c>
       <c r="Q79">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R79">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S79">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T79">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U79">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V79">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W79">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X79">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y79">
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AA79">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC79">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7582,7 +7582,7 @@
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K80">
         <v>1.533</v>
@@ -7647,7 +7647,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>7404434</v>
+        <v>7404435</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7659,76 +7659,76 @@
         <v>45238.60416666666</v>
       </c>
       <c r="F81" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G81" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H81">
         <v>1</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="s">
         <v>47</v>
       </c>
       <c r="K81">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="L81">
         <v>3</v>
       </c>
       <c r="M81">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="N81">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="O81">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P81">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q81">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R81">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S81">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T81">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U81">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V81">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W81">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X81">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA81">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB81">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC81">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7760,7 +7760,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K82">
         <v>1.666</v>
@@ -7840,7 +7840,7 @@
         <v>42</v>
       </c>
       <c r="G83" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -7849,7 +7849,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K83">
         <v>2.5</v>
@@ -8027,7 +8027,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K85">
         <v>2.4</v>
@@ -8104,7 +8104,7 @@
         <v>45242.4375</v>
       </c>
       <c r="F86" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G86" t="s">
         <v>41</v>
@@ -8205,7 +8205,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K87">
         <v>2.3</v>
@@ -8285,7 +8285,7 @@
         <v>29</v>
       </c>
       <c r="G88" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H88">
         <v>2</v>
@@ -8294,7 +8294,7 @@
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K88">
         <v>3.1</v>
@@ -8359,7 +8359,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7404445</v>
+        <v>7404444</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8371,76 +8371,76 @@
         <v>45255.4375</v>
       </c>
       <c r="F89" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G89" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H89">
         <v>0</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K89">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="L89">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M89">
-        <v>1.65</v>
+        <v>3.25</v>
       </c>
       <c r="N89">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="O89">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="P89">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="Q89">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R89">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S89">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T89">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U89">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V89">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W89">
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z89">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8448,7 +8448,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7404444</v>
+        <v>7404445</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8460,76 +8460,76 @@
         <v>45255.4375</v>
       </c>
       <c r="F90" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G90" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H90">
         <v>0</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K90">
+        <v>5.25</v>
+      </c>
+      <c r="L90">
+        <v>3.4</v>
+      </c>
+      <c r="M90">
+        <v>1.65</v>
+      </c>
+      <c r="N90">
+        <v>4.2</v>
+      </c>
+      <c r="O90">
+        <v>3.2</v>
+      </c>
+      <c r="P90">
+        <v>1.85</v>
+      </c>
+      <c r="Q90">
+        <v>0.5</v>
+      </c>
+      <c r="R90">
+        <v>1.9</v>
+      </c>
+      <c r="S90">
+        <v>1.9</v>
+      </c>
+      <c r="T90">
+        <v>2</v>
+      </c>
+      <c r="U90">
+        <v>1.925</v>
+      </c>
+      <c r="V90">
+        <v>1.875</v>
+      </c>
+      <c r="W90">
+        <v>-1</v>
+      </c>
+      <c r="X90">
         <v>2.2</v>
       </c>
-      <c r="L90">
-        <v>3</v>
-      </c>
-      <c r="M90">
-        <v>3.25</v>
-      </c>
-      <c r="N90">
-        <v>2.7</v>
-      </c>
-      <c r="O90">
-        <v>2.8</v>
-      </c>
-      <c r="P90">
-        <v>2.75</v>
-      </c>
-      <c r="Q90">
-        <v>0</v>
-      </c>
-      <c r="R90">
-        <v>1.875</v>
-      </c>
-      <c r="S90">
-        <v>1.925</v>
-      </c>
-      <c r="T90">
-        <v>1.75</v>
-      </c>
-      <c r="U90">
-        <v>1.775</v>
-      </c>
-      <c r="V90">
-        <v>2.025</v>
-      </c>
-      <c r="W90">
-        <v>-1</v>
-      </c>
-      <c r="X90">
-        <v>-1</v>
-      </c>
       <c r="Y90">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA90">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
         <v>-1</v>
       </c>
       <c r="AC90">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8626,7 +8626,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7404449</v>
+        <v>7404450</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8638,76 +8638,76 @@
         <v>45256.4375</v>
       </c>
       <c r="F92" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G92" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K92">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="L92">
+        <v>2.875</v>
+      </c>
+      <c r="M92">
+        <v>2.4</v>
+      </c>
+      <c r="N92">
+        <v>2.5</v>
+      </c>
+      <c r="O92">
+        <v>2.75</v>
+      </c>
+      <c r="P92">
         <v>2.9</v>
       </c>
-      <c r="M92">
-        <v>2.9</v>
-      </c>
-      <c r="N92">
-        <v>2.75</v>
-      </c>
-      <c r="O92">
-        <v>2.7</v>
-      </c>
-      <c r="P92">
-        <v>2.8</v>
-      </c>
       <c r="Q92">
         <v>0</v>
       </c>
       <c r="R92">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="S92">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T92">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U92">
+        <v>1.75</v>
+      </c>
+      <c r="V92">
         <v>2.05</v>
       </c>
-      <c r="V92">
-        <v>1.75</v>
-      </c>
       <c r="W92">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AA92">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC92">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8715,7 +8715,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>7404450</v>
+        <v>7404449</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8727,76 +8727,76 @@
         <v>45256.4375</v>
       </c>
       <c r="F93" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G93" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K93">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="L93">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M93">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="N93">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="O93">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="P93">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="Q93">
         <v>0</v>
       </c>
       <c r="R93">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="S93">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T93">
+        <v>2</v>
+      </c>
+      <c r="U93">
+        <v>2.05</v>
+      </c>
+      <c r="V93">
         <v>1.75</v>
       </c>
-      <c r="U93">
-        <v>1.75</v>
-      </c>
-      <c r="V93">
-        <v>2.05</v>
-      </c>
       <c r="W93">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z93">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB93">
+        <v>-1</v>
+      </c>
+      <c r="AC93">
         <v>0.75</v>
-      </c>
-      <c r="AC93">
-        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8816,7 +8816,7 @@
         <v>45256.53125</v>
       </c>
       <c r="F94" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G94" t="s">
         <v>36</v>
@@ -8994,10 +8994,10 @@
         <v>45259.60416666666</v>
       </c>
       <c r="F96" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G96" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>38</v>
       </c>
       <c r="G97" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H97">
         <v>2</v>
@@ -9095,7 +9095,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K97">
         <v>2.05</v>
@@ -9184,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K98">
         <v>2.3</v>
@@ -9264,7 +9264,7 @@
         <v>41</v>
       </c>
       <c r="G99" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9362,7 +9362,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K100">
         <v>2.75</v>
@@ -9531,7 +9531,7 @@
         <v>43</v>
       </c>
       <c r="G102" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H102">
         <v>2</v>
@@ -9540,7 +9540,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K102">
         <v>2.75</v>
@@ -9629,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K103">
         <v>1.8</v>
@@ -9718,7 +9718,7 @@
         <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K104">
         <v>2.25</v>
@@ -9783,7 +9783,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7464395</v>
+        <v>7476568</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9795,49 +9795,49 @@
         <v>45273.60416666666</v>
       </c>
       <c r="F105" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G105" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H105">
+        <v>1</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105" t="s">
+        <v>47</v>
+      </c>
+      <c r="K105">
+        <v>2.2</v>
+      </c>
+      <c r="L105">
         <v>3</v>
       </c>
-      <c r="I105">
-        <v>0</v>
-      </c>
-      <c r="J105" t="s">
-        <v>46</v>
-      </c>
-      <c r="K105">
-        <v>1.181</v>
-      </c>
-      <c r="L105">
-        <v>6.5</v>
-      </c>
       <c r="M105">
-        <v>13</v>
+        <v>3.4</v>
       </c>
       <c r="N105">
-        <v>1.2</v>
+        <v>2.25</v>
       </c>
       <c r="O105">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="P105">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="Q105">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R105">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S105">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T105">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="U105">
         <v>1.975</v>
@@ -9846,7 +9846,7 @@
         <v>1.825</v>
       </c>
       <c r="W105">
-        <v>0.2</v>
+        <v>1.25</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9855,16 +9855,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA105">
         <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9872,7 +9872,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7476568</v>
+        <v>7464395</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9884,49 +9884,49 @@
         <v>45273.60416666666</v>
       </c>
       <c r="F106" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G106" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I106">
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K106">
-        <v>2.2</v>
+        <v>1.181</v>
       </c>
       <c r="L106">
+        <v>6.5</v>
+      </c>
+      <c r="M106">
+        <v>13</v>
+      </c>
+      <c r="N106">
+        <v>1.2</v>
+      </c>
+      <c r="O106">
+        <v>6</v>
+      </c>
+      <c r="P106">
+        <v>12</v>
+      </c>
+      <c r="Q106">
+        <v>-1.75</v>
+      </c>
+      <c r="R106">
+        <v>1.775</v>
+      </c>
+      <c r="S106">
+        <v>2.025</v>
+      </c>
+      <c r="T106">
         <v>3</v>
-      </c>
-      <c r="M106">
-        <v>3.4</v>
-      </c>
-      <c r="N106">
-        <v>2.25</v>
-      </c>
-      <c r="O106">
-        <v>2.75</v>
-      </c>
-      <c r="P106">
-        <v>3.6</v>
-      </c>
-      <c r="Q106">
-        <v>-0.25</v>
-      </c>
-      <c r="R106">
-        <v>1.9</v>
-      </c>
-      <c r="S106">
-        <v>1.9</v>
-      </c>
-      <c r="T106">
-        <v>1.75</v>
       </c>
       <c r="U106">
         <v>1.975</v>
@@ -9935,7 +9935,7 @@
         <v>1.825</v>
       </c>
       <c r="W106">
-        <v>1.25</v>
+        <v>0.2</v>
       </c>
       <c r="X106">
         <v>-1</v>
@@ -9944,16 +9944,16 @@
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA106">
         <v>-1</v>
       </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC106">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9973,10 +9973,10 @@
         <v>45275.4375</v>
       </c>
       <c r="F107" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G107" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -10062,7 +10062,7 @@
         <v>45277.4375</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G108" t="s">
         <v>38</v>
@@ -10163,7 +10163,7 @@
         <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K109">
         <v>1.727</v>
@@ -10228,7 +10228,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7478004</v>
+        <v>7479719</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10240,76 +10240,76 @@
         <v>45283.4375</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G110" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J110" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K110">
+        <v>1.909</v>
+      </c>
+      <c r="L110">
+        <v>3.2</v>
+      </c>
+      <c r="M110">
+        <v>4</v>
+      </c>
+      <c r="N110">
+        <v>2.7</v>
+      </c>
+      <c r="O110">
+        <v>2.875</v>
+      </c>
+      <c r="P110">
+        <v>2.6</v>
+      </c>
+      <c r="Q110">
+        <v>0</v>
+      </c>
+      <c r="R110">
+        <v>1.95</v>
+      </c>
+      <c r="S110">
+        <v>1.85</v>
+      </c>
+      <c r="T110">
+        <v>2</v>
+      </c>
+      <c r="U110">
+        <v>2</v>
+      </c>
+      <c r="V110">
         <v>1.8</v>
       </c>
-      <c r="L110">
-        <v>3</v>
-      </c>
-      <c r="M110">
-        <v>5</v>
-      </c>
-      <c r="N110">
-        <v>1.85</v>
-      </c>
-      <c r="O110">
-        <v>3</v>
-      </c>
-      <c r="P110">
-        <v>4.75</v>
-      </c>
-      <c r="Q110">
-        <v>-0.5</v>
-      </c>
-      <c r="R110">
-        <v>1.875</v>
-      </c>
-      <c r="S110">
-        <v>1.925</v>
-      </c>
-      <c r="T110">
-        <v>1.75</v>
-      </c>
-      <c r="U110">
-        <v>1.75</v>
-      </c>
-      <c r="V110">
-        <v>2.05</v>
-      </c>
       <c r="W110">
+        <v>-1</v>
+      </c>
+      <c r="X110">
+        <v>-1</v>
+      </c>
+      <c r="Y110">
+        <v>1.6</v>
+      </c>
+      <c r="Z110">
+        <v>-1</v>
+      </c>
+      <c r="AA110">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X110">
-        <v>-1</v>
-      </c>
-      <c r="Y110">
-        <v>-1</v>
-      </c>
-      <c r="Z110">
-        <v>0.875</v>
-      </c>
-      <c r="AA110">
-        <v>-1</v>
-      </c>
       <c r="AB110">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC110">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10317,7 +10317,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7477991</v>
+        <v>7477992</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10329,76 +10329,76 @@
         <v>45283.4375</v>
       </c>
       <c r="F111" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G111" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J111" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K111">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="L111">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M111">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="N111">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="O111">
         <v>2.9</v>
       </c>
       <c r="P111">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="Q111">
         <v>0</v>
       </c>
       <c r="R111">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S111">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T111">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U111">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V111">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W111">
         <v>-1</v>
       </c>
       <c r="X111">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z111">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB111">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC111">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10406,7 +10406,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7477992</v>
+        <v>7478004</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10418,46 +10418,46 @@
         <v>45283.4375</v>
       </c>
       <c r="F112" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G112" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H112">
         <v>1</v>
       </c>
       <c r="I112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K112">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="L112">
         <v>3</v>
       </c>
       <c r="M112">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="N112">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="O112">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P112">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Q112">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R112">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S112">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T112">
         <v>1.75</v>
@@ -10469,25 +10469,25 @@
         <v>2.05</v>
       </c>
       <c r="W112">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA112">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10495,7 +10495,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7479719</v>
+        <v>7477991</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10507,76 +10507,76 @@
         <v>45283.4375</v>
       </c>
       <c r="F113" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G113" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H113">
         <v>0</v>
       </c>
       <c r="I113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K113">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="L113">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M113">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="N113">
+        <v>2.625</v>
+      </c>
+      <c r="O113">
+        <v>2.9</v>
+      </c>
+      <c r="P113">
         <v>2.7</v>
       </c>
-      <c r="O113">
-        <v>2.875</v>
-      </c>
-      <c r="P113">
-        <v>2.6</v>
-      </c>
       <c r="Q113">
         <v>0</v>
       </c>
       <c r="R113">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S113">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T113">
         <v>2</v>
       </c>
       <c r="U113">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V113">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W113">
         <v>-1</v>
       </c>
       <c r="X113">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y113">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA113">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB113">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC113">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10596,7 +10596,7 @@
         <v>45283.53125</v>
       </c>
       <c r="F114" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G114" t="s">
         <v>38</v>
@@ -10608,7 +10608,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K114">
         <v>2.3</v>
@@ -10688,7 +10688,7 @@
         <v>36</v>
       </c>
       <c r="G115" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -10697,7 +10697,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K115">
         <v>4.75</v>
@@ -10786,7 +10786,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K116">
         <v>2.05</v>
@@ -10940,7 +10940,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7477995</v>
+        <v>7477996</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10952,58 +10952,58 @@
         <v>45290.4375</v>
       </c>
       <c r="F118" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G118" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K118">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="L118">
         <v>3</v>
       </c>
       <c r="M118">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="N118">
+        <v>3.6</v>
+      </c>
+      <c r="O118">
+        <v>2.9</v>
+      </c>
+      <c r="P118">
         <v>2.1</v>
       </c>
-      <c r="O118">
-        <v>3</v>
-      </c>
-      <c r="P118">
-        <v>3.6</v>
-      </c>
       <c r="Q118">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R118">
+        <v>1.975</v>
+      </c>
+      <c r="S118">
         <v>1.825</v>
       </c>
-      <c r="S118">
-        <v>1.975</v>
-      </c>
       <c r="T118">
         <v>2</v>
       </c>
       <c r="U118">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V118">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W118">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="X118">
         <v>-1</v>
@@ -11012,16 +11012,16 @@
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA118">
         <v>-1</v>
       </c>
       <c r="AB118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC118">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11029,7 +11029,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7477996</v>
+        <v>7477995</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11041,58 +11041,58 @@
         <v>45290.4375</v>
       </c>
       <c r="F119" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G119" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H119">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K119">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="L119">
         <v>3</v>
       </c>
       <c r="M119">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="N119">
+        <v>2.1</v>
+      </c>
+      <c r="O119">
+        <v>3</v>
+      </c>
+      <c r="P119">
         <v>3.6</v>
       </c>
-      <c r="O119">
-        <v>2.9</v>
-      </c>
-      <c r="P119">
-        <v>2.1</v>
-      </c>
       <c r="Q119">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R119">
+        <v>1.825</v>
+      </c>
+      <c r="S119">
         <v>1.975</v>
       </c>
-      <c r="S119">
-        <v>1.825</v>
-      </c>
       <c r="T119">
         <v>2</v>
       </c>
       <c r="U119">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V119">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W119">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="X119">
         <v>-1</v>
@@ -11101,16 +11101,16 @@
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA119">
         <v>-1</v>
       </c>
       <c r="AB119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11130,7 +11130,7 @@
         <v>45290.53125</v>
       </c>
       <c r="F120" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G120" t="s">
         <v>42</v>
@@ -11142,7 +11142,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K120">
         <v>1.3</v>
@@ -11231,7 +11231,7 @@
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K121">
         <v>3</v>
@@ -11397,7 +11397,7 @@
         <v>45338.60416666666</v>
       </c>
       <c r="F123" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G123" t="s">
         <v>33</v>
@@ -11409,7 +11409,7 @@
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K123">
         <v>1.666</v>
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7577337</v>
+        <v>7577336</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,76 +11486,76 @@
         <v>45339.4375</v>
       </c>
       <c r="F124" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G124" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124">
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K124">
         <v>3.1</v>
       </c>
       <c r="L124">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="M124">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="N124">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="O124">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="P124">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="Q124">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R124">
+        <v>1.85</v>
+      </c>
+      <c r="S124">
+        <v>1.95</v>
+      </c>
+      <c r="T124">
+        <v>2.25</v>
+      </c>
+      <c r="U124">
+        <v>2.025</v>
+      </c>
+      <c r="V124">
         <v>1.775</v>
       </c>
-      <c r="S124">
-        <v>2.025</v>
-      </c>
-      <c r="T124">
-        <v>2</v>
-      </c>
-      <c r="U124">
-        <v>2</v>
-      </c>
-      <c r="V124">
-        <v>1.8</v>
-      </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z124">
-        <v>0.3875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA124">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB124">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11563,7 +11563,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7577336</v>
+        <v>7577337</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11575,76 +11575,76 @@
         <v>45339.4375</v>
       </c>
       <c r="F125" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G125" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125">
         <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K125">
         <v>3.1</v>
       </c>
       <c r="L125">
+        <v>2.8</v>
+      </c>
+      <c r="M125">
+        <v>2.45</v>
+      </c>
+      <c r="N125">
         <v>3.3</v>
       </c>
-      <c r="M125">
-        <v>2.15</v>
-      </c>
-      <c r="N125">
-        <v>4.333</v>
-      </c>
       <c r="O125">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="P125">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="Q125">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R125">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S125">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T125">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U125">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V125">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W125">
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y125">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
+        <v>0.3875</v>
+      </c>
+      <c r="AA125">
         <v>-0.5</v>
       </c>
-      <c r="AA125">
-        <v>0.475</v>
-      </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC125">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11676,7 +11676,7 @@
         <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K126">
         <v>2.7</v>
@@ -11765,7 +11765,7 @@
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K127">
         <v>4.333</v>
@@ -11842,7 +11842,7 @@
         <v>45339.625</v>
       </c>
       <c r="F128" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G128" t="s">
         <v>38</v>
@@ -11854,7 +11854,7 @@
         <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K128">
         <v>1.727</v>
@@ -11943,7 +11943,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K129">
         <v>4</v>
@@ -12023,7 +12023,7 @@
         <v>35</v>
       </c>
       <c r="G130" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H130">
         <v>3</v>
@@ -12032,7 +12032,7 @@
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K130">
         <v>2.3</v>
@@ -12109,11 +12109,20 @@
         <v>45349.60416666666</v>
       </c>
       <c r="F131" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G131" t="s">
         <v>41</v>
       </c>
+      <c r="H131">
+        <v>3</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131" t="s">
+        <v>47</v>
+      </c>
       <c r="K131">
         <v>1.3</v>
       </c>
@@ -12124,22 +12133,22 @@
         <v>9</v>
       </c>
       <c r="N131">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="O131">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P131">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q131">
         <v>-1.25</v>
       </c>
       <c r="R131">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S131">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T131">
         <v>2.5</v>
@@ -12151,19 +12160,25 @@
         <v>1.8</v>
       </c>
       <c r="W131">
-        <v>0</v>
+        <v>0.363</v>
       </c>
       <c r="X131">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA131">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB131">
+        <v>1</v>
+      </c>
+      <c r="AC131">
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12171,7 +12186,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7628830</v>
+        <v>7628608</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12183,61 +12198,76 @@
         <v>45350.60416666666</v>
       </c>
       <c r="F132" t="s">
+        <v>36</v>
+      </c>
+      <c r="G132" t="s">
         <v>31</v>
       </c>
-      <c r="G132" t="s">
-        <v>29</v>
+      <c r="H132">
+        <v>1</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132" t="s">
+        <v>46</v>
       </c>
       <c r="K132">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L132">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M132">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N132">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O132">
         <v>3</v>
       </c>
       <c r="P132">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="Q132">
         <v>0</v>
       </c>
       <c r="R132">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S132">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T132">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U132">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V132">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W132">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y132">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
         <v>0</v>
       </c>
       <c r="AA132">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB132">
+        <v>-0.5</v>
+      </c>
+      <c r="AC132">
+        <v>0.4125</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12245,7 +12275,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7628608</v>
+        <v>7628830</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12257,61 +12287,76 @@
         <v>45350.60416666666</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G133" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>1</v>
+      </c>
+      <c r="J133" t="s">
+        <v>45</v>
       </c>
       <c r="K133">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="L133">
+        <v>2.9</v>
+      </c>
+      <c r="M133">
         <v>3</v>
       </c>
-      <c r="M133">
-        <v>3.5</v>
-      </c>
       <c r="N133">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="O133">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P133">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="Q133">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R133">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="S133">
-        <v>2.075</v>
+        <v>2.05</v>
       </c>
       <c r="T133">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U133">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V133">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="W133">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X133">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
-        <v>0</v>
+        <v>1.375</v>
       </c>
       <c r="Z133">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>0</v>
+        <v>1.05</v>
+      </c>
+      <c r="AB133">
+        <v>-1</v>
+      </c>
+      <c r="AC133">
+        <v>0.925</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12328,7 +12373,7 @@
         <v>28</v>
       </c>
       <c r="E134" s="2">
-        <v>45352.58333333334</v>
+        <v>45352.60416666666</v>
       </c>
       <c r="F134" t="s">
         <v>33</v>
@@ -12358,19 +12403,19 @@
         <v>-0.5</v>
       </c>
       <c r="R134">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S134">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T134">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U134">
+        <v>1.775</v>
+      </c>
+      <c r="V134">
         <v>2.025</v>
-      </c>
-      <c r="V134">
-        <v>1.775</v>
       </c>
       <c r="W134">
         <v>0</v>
@@ -12432,19 +12477,19 @@
         <v>0.5</v>
       </c>
       <c r="R135">
+        <v>1.85</v>
+      </c>
+      <c r="S135">
+        <v>1.95</v>
+      </c>
+      <c r="T135">
+        <v>2</v>
+      </c>
+      <c r="U135">
         <v>1.825</v>
       </c>
-      <c r="S135">
+      <c r="V135">
         <v>1.975</v>
-      </c>
-      <c r="T135">
-        <v>2</v>
-      </c>
-      <c r="U135">
-        <v>1.85</v>
-      </c>
-      <c r="V135">
-        <v>1.95</v>
       </c>
       <c r="W135">
         <v>0</v>
@@ -12476,13 +12521,13 @@
         <v>28</v>
       </c>
       <c r="E136" s="2">
-        <v>45353.52083333334</v>
+        <v>45353.53125</v>
       </c>
       <c r="F136" t="s">
         <v>34</v>
       </c>
       <c r="G136" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K136">
         <v>1.833</v>
@@ -12497,7 +12542,7 @@
         <v>1.3</v>
       </c>
       <c r="O136">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P136">
         <v>11</v>
@@ -12506,19 +12551,19 @@
         <v>-1.5</v>
       </c>
       <c r="R136">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S136">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T136">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U136">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V136">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W136">
         <v>0</v>
@@ -12533,6 +12578,80 @@
         <v>0</v>
       </c>
       <c r="AA136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:29">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>7628928</v>
+      </c>
+      <c r="C137" t="s">
+        <v>28</v>
+      </c>
+      <c r="D137" t="s">
+        <v>28</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45353.625</v>
+      </c>
+      <c r="F137" t="s">
+        <v>37</v>
+      </c>
+      <c r="G137" t="s">
+        <v>32</v>
+      </c>
+      <c r="K137">
+        <v>2.3</v>
+      </c>
+      <c r="L137">
+        <v>2.95</v>
+      </c>
+      <c r="M137">
+        <v>3.1</v>
+      </c>
+      <c r="N137">
+        <v>2.05</v>
+      </c>
+      <c r="O137">
+        <v>3</v>
+      </c>
+      <c r="P137">
+        <v>3.6</v>
+      </c>
+      <c r="Q137">
+        <v>-0.25</v>
+      </c>
+      <c r="R137">
+        <v>1.775</v>
+      </c>
+      <c r="S137">
+        <v>2.025</v>
+      </c>
+      <c r="T137">
+        <v>2</v>
+      </c>
+      <c r="U137">
+        <v>1.875</v>
+      </c>
+      <c r="V137">
+        <v>1.925</v>
+      </c>
+      <c r="W137">
+        <v>0</v>
+      </c>
+      <c r="X137">
+        <v>0</v>
+      </c>
+      <c r="Y137">
+        <v>0</v>
+      </c>
+      <c r="Z137">
+        <v>0</v>
+      </c>
+      <c r="AA137">
         <v>0</v>
       </c>
     </row>

--- a/South Africa Premier/South Africa Premier.xlsx
+++ b/South Africa Premier/South Africa Premier.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -142,13 +142,13 @@
     <t>Amazulu</t>
   </si>
   <si>
-    <t>Polokwane City</t>
+    <t>Ajax Cape Town</t>
   </si>
   <si>
     <t>Chippa United</t>
   </si>
   <si>
-    <t>Ajax Cape Town</t>
+    <t>Polokwane City</t>
   </si>
   <si>
     <t>A</t>
@@ -1165,7 +1165,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1254,7 +1254,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7007759</v>
+        <v>7007761</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1788,73 +1788,73 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K15">
         <v>3</v>
       </c>
       <c r="L15">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M15">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="N15">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="O15">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="P15">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="Q15">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S15">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="T15">
         <v>2</v>
       </c>
       <c r="U15">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V15">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W15">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z15">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC15">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1951,7 +1951,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7007761</v>
+        <v>7007759</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1966,73 +1966,73 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K17">
         <v>3</v>
       </c>
       <c r="L17">
+        <v>3.1</v>
+      </c>
+      <c r="M17">
+        <v>2.25</v>
+      </c>
+      <c r="N17">
+        <v>2.875</v>
+      </c>
+      <c r="O17">
         <v>3</v>
       </c>
-      <c r="M17">
-        <v>2.3</v>
-      </c>
-      <c r="N17">
-        <v>2.7</v>
-      </c>
-      <c r="O17">
-        <v>2.625</v>
-      </c>
       <c r="P17">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R17">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="S17">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="T17">
         <v>2</v>
       </c>
       <c r="U17">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V17">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA17">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2307,7 +2307,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7007762</v>
+        <v>7068224</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2319,76 +2319,76 @@
         <v>45156.60416666666</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>47</v>
+      </c>
+      <c r="K21">
+        <v>1.909</v>
+      </c>
+      <c r="L21">
         <v>3</v>
       </c>
-      <c r="J21" t="s">
-        <v>45</v>
-      </c>
-      <c r="K21">
-        <v>2.6</v>
-      </c>
-      <c r="L21">
-        <v>2.875</v>
-      </c>
       <c r="M21">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="N21">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="O21">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P21">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R21">
+        <v>1.95</v>
+      </c>
+      <c r="S21">
+        <v>1.85</v>
+      </c>
+      <c r="T21">
+        <v>2</v>
+      </c>
+      <c r="U21">
+        <v>2</v>
+      </c>
+      <c r="V21">
         <v>1.8</v>
       </c>
-      <c r="S21">
-        <v>2</v>
-      </c>
-      <c r="T21">
-        <v>2</v>
-      </c>
-      <c r="U21">
-        <v>1.95</v>
-      </c>
-      <c r="V21">
-        <v>1.85</v>
-      </c>
       <c r="W21">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA21">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2396,7 +2396,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7068224</v>
+        <v>7007762</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2408,76 +2408,76 @@
         <v>45156.60416666666</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K22">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="L22">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M22">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="N22">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="O22">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P22">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="Q22">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R22">
+        <v>1.8</v>
+      </c>
+      <c r="S22">
+        <v>2</v>
+      </c>
+      <c r="T22">
+        <v>2</v>
+      </c>
+      <c r="U22">
         <v>1.95</v>
       </c>
-      <c r="S22">
+      <c r="V22">
         <v>1.85</v>
       </c>
-      <c r="T22">
-        <v>2</v>
-      </c>
-      <c r="U22">
-        <v>2</v>
-      </c>
-      <c r="V22">
-        <v>1.8</v>
-      </c>
       <c r="W22">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z22">
+        <v>-1</v>
+      </c>
+      <c r="AA22">
+        <v>1</v>
+      </c>
+      <c r="AB22">
         <v>0.95</v>
       </c>
-      <c r="AA22">
-        <v>-1</v>
-      </c>
-      <c r="AB22">
-        <v>-1</v>
-      </c>
       <c r="AC22">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2497,10 +2497,10 @@
         <v>45157.41666666666</v>
       </c>
       <c r="F23" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" t="s">
         <v>42</v>
-      </c>
-      <c r="G23" t="s">
-        <v>44</v>
       </c>
       <c r="H23">
         <v>3</v>
@@ -3031,7 +3031,7 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G29" t="s">
         <v>43</v>
@@ -3123,7 +3123,7 @@
         <v>30</v>
       </c>
       <c r="G30" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H30">
         <v>3</v>
@@ -3654,7 +3654,7 @@
         <v>45168.5</v>
       </c>
       <c r="F36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G36" t="s">
         <v>40</v>
@@ -3731,7 +3731,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>7078413</v>
+        <v>7078409</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3743,76 +3743,76 @@
         <v>45168.60416666666</v>
       </c>
       <c r="F37" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G37" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J37" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K37">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="L37">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="M37">
+        <v>3.25</v>
+      </c>
+      <c r="N37">
+        <v>2.15</v>
+      </c>
+      <c r="O37">
         <v>2.9</v>
       </c>
-      <c r="N37">
-        <v>3.1</v>
-      </c>
-      <c r="O37">
-        <v>2.8</v>
-      </c>
       <c r="P37">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q37">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R37">
-        <v>1.7</v>
+        <v>1.825</v>
       </c>
       <c r="S37">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="T37">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U37">
+        <v>2.025</v>
+      </c>
+      <c r="V37">
         <v>1.775</v>
       </c>
-      <c r="V37">
-        <v>2.025</v>
-      </c>
       <c r="W37">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z37">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC37">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3820,7 +3820,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>7078412</v>
+        <v>7078413</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3832,58 +3832,58 @@
         <v>45168.60416666666</v>
       </c>
       <c r="F38" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G38" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
         <v>47</v>
       </c>
       <c r="K38">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="L38">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="M38">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="N38">
-        <v>1.833</v>
+        <v>3.1</v>
       </c>
       <c r="O38">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P38">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q38">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R38">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="S38">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="T38">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U38">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V38">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W38">
-        <v>0.833</v>
+        <v>2.1</v>
       </c>
       <c r="X38">
         <v>-1</v>
@@ -3892,16 +3892,16 @@
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.8999999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="AA38">
         <v>-1</v>
       </c>
       <c r="AB38">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3909,7 +3909,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>7078411</v>
+        <v>7078410</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3921,49 +3921,49 @@
         <v>45168.60416666666</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G39" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K39">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="L39">
         <v>3.1</v>
       </c>
       <c r="M39">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="N39">
+        <v>3</v>
+      </c>
+      <c r="O39">
+        <v>2.875</v>
+      </c>
+      <c r="P39">
         <v>2.4</v>
       </c>
-      <c r="O39">
-        <v>2.75</v>
-      </c>
-      <c r="P39">
-        <v>3</v>
-      </c>
       <c r="Q39">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R39">
-        <v>2.075</v>
+        <v>2.05</v>
       </c>
       <c r="S39">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="T39">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U39">
         <v>2.025</v>
@@ -3975,22 +3975,22 @@
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y39">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA39">
-        <v>0.7250000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB39">
-        <v>0</v>
+        <v>0.5125</v>
       </c>
       <c r="AC39">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3998,7 +3998,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7078409</v>
+        <v>7078411</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4010,46 +4010,46 @@
         <v>45168.60416666666</v>
       </c>
       <c r="F40" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G40" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J40" t="s">
         <v>45</v>
       </c>
       <c r="K40">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="L40">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M40">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="N40">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="O40">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="P40">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q40">
         <v>-0.25</v>
       </c>
       <c r="R40">
-        <v>1.825</v>
+        <v>2.075</v>
       </c>
       <c r="S40">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="T40">
         <v>2</v>
@@ -4067,19 +4067,19 @@
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="Z40">
         <v>-1</v>
       </c>
       <c r="AA40">
-        <v>0.9750000000000001</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB40">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4087,7 +4087,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7078410</v>
+        <v>7078412</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4099,76 +4099,76 @@
         <v>45168.60416666666</v>
       </c>
       <c r="F41" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G41" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K41">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="L41">
+        <v>3.25</v>
+      </c>
+      <c r="M41">
+        <v>4.333</v>
+      </c>
+      <c r="N41">
+        <v>1.833</v>
+      </c>
+      <c r="O41">
         <v>3.1</v>
       </c>
-      <c r="M41">
-        <v>2.5</v>
-      </c>
-      <c r="N41">
-        <v>3</v>
-      </c>
-      <c r="O41">
-        <v>2.875</v>
-      </c>
       <c r="P41">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R41">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S41">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T41">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U41">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V41">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W41">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X41">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA41">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC41">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4532,7 +4532,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7169682</v>
+        <v>7169683</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4544,13 +4544,13 @@
         <v>45188.60416666666</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G46" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46">
         <v>2</v>
@@ -4559,41 +4559,41 @@
         <v>45</v>
       </c>
       <c r="K46">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L46">
         <v>2.9</v>
       </c>
       <c r="M46">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="N46">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="O46">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="P46">
         <v>3</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R46">
+        <v>2</v>
+      </c>
+      <c r="S46">
+        <v>1.8</v>
+      </c>
+      <c r="T46">
+        <v>2</v>
+      </c>
+      <c r="U46">
+        <v>2.025</v>
+      </c>
+      <c r="V46">
         <v>1.775</v>
       </c>
-      <c r="S46">
-        <v>2.025</v>
-      </c>
-      <c r="T46">
-        <v>1.75</v>
-      </c>
-      <c r="U46">
-        <v>1.925</v>
-      </c>
-      <c r="V46">
-        <v>1.875</v>
-      </c>
       <c r="W46">
         <v>-1</v>
       </c>
@@ -4607,13 +4607,13 @@
         <v>-1</v>
       </c>
       <c r="AA46">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB46">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC46">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4621,7 +4621,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7169683</v>
+        <v>7169682</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4633,13 +4633,13 @@
         <v>45188.60416666666</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G47" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47">
         <v>2</v>
@@ -4648,40 +4648,40 @@
         <v>45</v>
       </c>
       <c r="K47">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="L47">
         <v>2.9</v>
       </c>
       <c r="M47">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="N47">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="O47">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="P47">
         <v>3</v>
       </c>
       <c r="Q47">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R47">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S47">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T47">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U47">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V47">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W47">
         <v>-1</v>
@@ -4696,13 +4696,13 @@
         <v>-1</v>
       </c>
       <c r="AA47">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB47">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC47">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4722,7 +4722,7 @@
         <v>45188.60416666666</v>
       </c>
       <c r="F48" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G48" t="s">
         <v>30</v>
@@ -4799,7 +4799,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>7170833</v>
+        <v>7169684</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4811,10 +4811,10 @@
         <v>45189.60416666666</v>
       </c>
       <c r="F49" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G49" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -4826,25 +4826,25 @@
         <v>45</v>
       </c>
       <c r="K49">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="L49">
         <v>2.875</v>
       </c>
       <c r="M49">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="N49">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="O49">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="P49">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="Q49">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R49">
         <v>1.925</v>
@@ -4853,13 +4853,13 @@
         <v>1.875</v>
       </c>
       <c r="T49">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U49">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V49">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W49">
         <v>-1</v>
@@ -4868,7 +4868,7 @@
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>1.1</v>
+        <v>1.625</v>
       </c>
       <c r="Z49">
         <v>-1</v>
@@ -4880,7 +4880,7 @@
         <v>-1</v>
       </c>
       <c r="AC49">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4977,7 +4977,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>7170834</v>
+        <v>7170833</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4989,76 +4989,76 @@
         <v>45189.60416666666</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G51" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H51">
         <v>0</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K51">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="L51">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="M51">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N51">
-        <v>2.45</v>
+        <v>3.4</v>
       </c>
       <c r="O51">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="P51">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R51">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S51">
-        <v>2.075</v>
+        <v>1.875</v>
       </c>
       <c r="T51">
         <v>2</v>
       </c>
       <c r="U51">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V51">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z51">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB51">
         <v>-1</v>
       </c>
       <c r="AC51">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5066,7 +5066,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>7169684</v>
+        <v>7170834</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5078,76 +5078,76 @@
         <v>45189.60416666666</v>
       </c>
       <c r="F52" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G52" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H52">
         <v>0</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K52">
         <v>2.375</v>
       </c>
       <c r="L52">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="M52">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="N52">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="O52">
         <v>2.7</v>
       </c>
       <c r="P52">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="Q52">
         <v>0</v>
       </c>
       <c r="R52">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="S52">
-        <v>1.875</v>
+        <v>2.075</v>
       </c>
       <c r="T52">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U52">
+        <v>2.025</v>
+      </c>
+      <c r="V52">
         <v>1.775</v>
       </c>
-      <c r="V52">
-        <v>2.025</v>
-      </c>
       <c r="W52">
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y52">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA52">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB52">
         <v>-1</v>
       </c>
       <c r="AC52">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5167,7 +5167,7 @@
         <v>45194.41666666666</v>
       </c>
       <c r="F53" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G53" t="s">
         <v>41</v>
@@ -5333,7 +5333,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7234870</v>
+        <v>7234871</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5345,13 +5345,13 @@
         <v>45196.60416666666</v>
       </c>
       <c r="F55" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G55" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I55">
         <v>1</v>
@@ -5360,43 +5360,43 @@
         <v>47</v>
       </c>
       <c r="K55">
-        <v>1.333</v>
+        <v>1.85</v>
       </c>
       <c r="L55">
+        <v>3.1</v>
+      </c>
+      <c r="M55">
         <v>4.333</v>
       </c>
-      <c r="M55">
-        <v>8.5</v>
-      </c>
       <c r="N55">
-        <v>1.363</v>
+        <v>2.05</v>
       </c>
       <c r="O55">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="P55">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="Q55">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R55">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S55">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T55">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U55">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V55">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="W55">
-        <v>0.363</v>
+        <v>1.05</v>
       </c>
       <c r="X55">
         <v>-1</v>
@@ -5405,13 +5405,13 @@
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA55">
         <v>-1</v>
       </c>
       <c r="AB55">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AC55">
         <v>-1</v>
@@ -5422,7 +5422,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7234871</v>
+        <v>7234870</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5434,13 +5434,13 @@
         <v>45196.60416666666</v>
       </c>
       <c r="F56" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G56" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I56">
         <v>1</v>
@@ -5449,43 +5449,43 @@
         <v>47</v>
       </c>
       <c r="K56">
+        <v>1.333</v>
+      </c>
+      <c r="L56">
+        <v>4.333</v>
+      </c>
+      <c r="M56">
+        <v>8.5</v>
+      </c>
+      <c r="N56">
+        <v>1.363</v>
+      </c>
+      <c r="O56">
+        <v>4.2</v>
+      </c>
+      <c r="P56">
+        <v>8.5</v>
+      </c>
+      <c r="Q56">
+        <v>-1.25</v>
+      </c>
+      <c r="R56">
         <v>1.85</v>
       </c>
-      <c r="L56">
-        <v>3.1</v>
-      </c>
-      <c r="M56">
-        <v>4.333</v>
-      </c>
-      <c r="N56">
-        <v>2.05</v>
-      </c>
-      <c r="O56">
-        <v>2.875</v>
-      </c>
-      <c r="P56">
-        <v>4</v>
-      </c>
-      <c r="Q56">
-        <v>-0.5</v>
-      </c>
-      <c r="R56">
-        <v>2</v>
-      </c>
       <c r="S56">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T56">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U56">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V56">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="W56">
-        <v>1.05</v>
+        <v>0.363</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5494,13 +5494,13 @@
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA56">
         <v>-1</v>
       </c>
       <c r="AB56">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AC56">
         <v>-1</v>
@@ -5615,7 +5615,7 @@
         <v>36</v>
       </c>
       <c r="G58" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H58">
         <v>3</v>
@@ -5701,7 +5701,7 @@
         <v>45199.52083333334</v>
       </c>
       <c r="F59" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G59" t="s">
         <v>32</v>
@@ -6057,7 +6057,7 @@
         <v>45203.60416666666</v>
       </c>
       <c r="F63" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G63" t="s">
         <v>31</v>
@@ -6238,7 +6238,7 @@
         <v>37</v>
       </c>
       <c r="G65" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -6416,7 +6416,7 @@
         <v>29</v>
       </c>
       <c r="G67" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6683,7 +6683,7 @@
         <v>38</v>
       </c>
       <c r="G70" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -7036,7 +7036,7 @@
         <v>45231.60416666666</v>
       </c>
       <c r="F74" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G74" t="s">
         <v>38</v>
@@ -7113,7 +7113,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>7404429</v>
+        <v>7404430</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7125,58 +7125,58 @@
         <v>45237.60416666666</v>
       </c>
       <c r="F75" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G75" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H75">
+        <v>2</v>
+      </c>
+      <c r="I75">
         <v>1</v>
-      </c>
-      <c r="I75">
-        <v>0</v>
       </c>
       <c r="J75" t="s">
         <v>47</v>
       </c>
       <c r="K75">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="L75">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M75">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="N75">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="O75">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P75">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q75">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R75">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S75">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T75">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U75">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V75">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W75">
-        <v>0.6499999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X75">
         <v>-1</v>
@@ -7185,16 +7185,16 @@
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
       <c r="AA75">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC75">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7202,7 +7202,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>7404428</v>
+        <v>7404429</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7214,10 +7214,10 @@
         <v>45237.60416666666</v>
       </c>
       <c r="F76" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G76" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7229,43 +7229,43 @@
         <v>47</v>
       </c>
       <c r="K76">
-        <v>3.4</v>
+        <v>1.65</v>
       </c>
       <c r="L76">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M76">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="N76">
-        <v>3</v>
+        <v>1.65</v>
       </c>
       <c r="O76">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P76">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="Q76">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R76">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S76">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T76">
         <v>2.25</v>
       </c>
       <c r="U76">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V76">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="W76">
-        <v>2</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X76">
         <v>-1</v>
@@ -7274,16 +7274,16 @@
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.75</v>
+        <v>0.4375</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB76">
         <v>-1</v>
       </c>
       <c r="AC76">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7291,7 +7291,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>7404430</v>
+        <v>7404428</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7303,58 +7303,58 @@
         <v>45237.60416666666</v>
       </c>
       <c r="F77" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G77" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="s">
         <v>47</v>
       </c>
       <c r="K77">
+        <v>3.4</v>
+      </c>
+      <c r="L77">
+        <v>3.1</v>
+      </c>
+      <c r="M77">
+        <v>2.1</v>
+      </c>
+      <c r="N77">
+        <v>3</v>
+      </c>
+      <c r="O77">
+        <v>3</v>
+      </c>
+      <c r="P77">
+        <v>2.3</v>
+      </c>
+      <c r="Q77">
+        <v>0.25</v>
+      </c>
+      <c r="R77">
         <v>1.75</v>
       </c>
-      <c r="L77">
-        <v>3.25</v>
-      </c>
-      <c r="M77">
-        <v>4.5</v>
-      </c>
-      <c r="N77">
-        <v>1.8</v>
-      </c>
-      <c r="O77">
-        <v>3.1</v>
-      </c>
-      <c r="P77">
-        <v>4.5</v>
-      </c>
-      <c r="Q77">
-        <v>-0.5</v>
-      </c>
-      <c r="R77">
-        <v>1.8</v>
-      </c>
       <c r="S77">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T77">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U77">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V77">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W77">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="X77">
         <v>-1</v>
@@ -7363,16 +7363,16 @@
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AA77">
         <v>-1</v>
       </c>
       <c r="AB77">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7481,7 +7481,7 @@
         <v>45238.60416666666</v>
       </c>
       <c r="F79" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G79" t="s">
         <v>31</v>
@@ -7558,7 +7558,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>7404433</v>
+        <v>7404435</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7570,58 +7570,58 @@
         <v>45238.60416666666</v>
       </c>
       <c r="F80" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G80" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J80" t="s">
         <v>47</v>
       </c>
       <c r="K80">
-        <v>1.533</v>
+        <v>2.45</v>
       </c>
       <c r="L80">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="M80">
-        <v>5.75</v>
+        <v>2.8</v>
       </c>
       <c r="N80">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="O80">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P80">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="Q80">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R80">
+        <v>1.975</v>
+      </c>
+      <c r="S80">
+        <v>1.825</v>
+      </c>
+      <c r="T80">
+        <v>1.75</v>
+      </c>
+      <c r="U80">
         <v>1.8</v>
       </c>
-      <c r="S80">
-        <v>2</v>
-      </c>
-      <c r="T80">
-        <v>2.25</v>
-      </c>
-      <c r="U80">
-        <v>1.85</v>
-      </c>
       <c r="V80">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W80">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7630,16 +7630,16 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA80">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB80">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC80">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7647,7 +7647,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>7404435</v>
+        <v>7404433</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7659,58 +7659,58 @@
         <v>45238.60416666666</v>
       </c>
       <c r="F81" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G81" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J81" t="s">
         <v>47</v>
       </c>
       <c r="K81">
-        <v>2.45</v>
+        <v>1.533</v>
       </c>
       <c r="L81">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="M81">
-        <v>2.8</v>
+        <v>5.75</v>
       </c>
       <c r="N81">
+        <v>1.5</v>
+      </c>
+      <c r="O81">
+        <v>3.8</v>
+      </c>
+      <c r="P81">
+        <v>6</v>
+      </c>
+      <c r="Q81">
+        <v>-1</v>
+      </c>
+      <c r="R81">
+        <v>1.8</v>
+      </c>
+      <c r="S81">
+        <v>2</v>
+      </c>
+      <c r="T81">
         <v>2.25</v>
       </c>
-      <c r="O81">
-        <v>3</v>
-      </c>
-      <c r="P81">
-        <v>3.2</v>
-      </c>
-      <c r="Q81">
-        <v>-0.25</v>
-      </c>
-      <c r="R81">
-        <v>1.975</v>
-      </c>
-      <c r="S81">
-        <v>1.825</v>
-      </c>
-      <c r="T81">
-        <v>1.75</v>
-      </c>
       <c r="U81">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V81">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W81">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="X81">
         <v>-1</v>
@@ -7719,16 +7719,16 @@
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB81">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC81">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7825,7 +7825,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7404437</v>
+        <v>7404438</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7837,76 +7837,76 @@
         <v>45241.4375</v>
       </c>
       <c r="F83" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G83" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H83">
         <v>0</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K83">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L83">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M83">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="N83">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O83">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="P83">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q83">
         <v>0</v>
       </c>
       <c r="R83">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S83">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T83">
         <v>2</v>
       </c>
       <c r="U83">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V83">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z83">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB83">
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7914,7 +7914,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>7404438</v>
+        <v>7404437</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7926,76 +7926,76 @@
         <v>45241.4375</v>
       </c>
       <c r="F84" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G84" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H84">
         <v>0</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K84">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L84">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M84">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="N84">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O84">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="P84">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="Q84">
         <v>0</v>
       </c>
       <c r="R84">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S84">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T84">
         <v>2</v>
       </c>
       <c r="U84">
+        <v>1.85</v>
+      </c>
+      <c r="V84">
+        <v>1.95</v>
+      </c>
+      <c r="W84">
+        <v>-1</v>
+      </c>
+      <c r="X84">
         <v>1.875</v>
       </c>
-      <c r="V84">
-        <v>1.925</v>
-      </c>
-      <c r="W84">
-        <v>-1</v>
-      </c>
-      <c r="X84">
-        <v>-1</v>
-      </c>
       <c r="Y84">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA84">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB84">
         <v>-1</v>
       </c>
       <c r="AC84">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8196,7 +8196,7 @@
         <v>37</v>
       </c>
       <c r="G87" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -8359,7 +8359,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7404444</v>
+        <v>7404445</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8371,76 +8371,76 @@
         <v>45255.4375</v>
       </c>
       <c r="F89" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G89" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H89">
         <v>0</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K89">
+        <v>5.25</v>
+      </c>
+      <c r="L89">
+        <v>3.4</v>
+      </c>
+      <c r="M89">
+        <v>1.65</v>
+      </c>
+      <c r="N89">
+        <v>4.2</v>
+      </c>
+      <c r="O89">
+        <v>3.2</v>
+      </c>
+      <c r="P89">
+        <v>1.85</v>
+      </c>
+      <c r="Q89">
+        <v>0.5</v>
+      </c>
+      <c r="R89">
+        <v>1.9</v>
+      </c>
+      <c r="S89">
+        <v>1.9</v>
+      </c>
+      <c r="T89">
+        <v>2</v>
+      </c>
+      <c r="U89">
+        <v>1.925</v>
+      </c>
+      <c r="V89">
+        <v>1.875</v>
+      </c>
+      <c r="W89">
+        <v>-1</v>
+      </c>
+      <c r="X89">
         <v>2.2</v>
       </c>
-      <c r="L89">
-        <v>3</v>
-      </c>
-      <c r="M89">
-        <v>3.25</v>
-      </c>
-      <c r="N89">
-        <v>2.7</v>
-      </c>
-      <c r="O89">
-        <v>2.8</v>
-      </c>
-      <c r="P89">
-        <v>2.75</v>
-      </c>
-      <c r="Q89">
-        <v>0</v>
-      </c>
-      <c r="R89">
-        <v>1.875</v>
-      </c>
-      <c r="S89">
-        <v>1.925</v>
-      </c>
-      <c r="T89">
-        <v>1.75</v>
-      </c>
-      <c r="U89">
-        <v>1.775</v>
-      </c>
-      <c r="V89">
-        <v>2.025</v>
-      </c>
-      <c r="W89">
-        <v>-1</v>
-      </c>
-      <c r="X89">
-        <v>-1</v>
-      </c>
       <c r="Y89">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA89">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8448,7 +8448,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7404445</v>
+        <v>7404444</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8460,76 +8460,76 @@
         <v>45255.4375</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G90" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H90">
         <v>0</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K90">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="L90">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M90">
-        <v>1.65</v>
+        <v>3.25</v>
       </c>
       <c r="N90">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="O90">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="P90">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="Q90">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R90">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S90">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T90">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U90">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V90">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z90">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB90">
         <v>-1</v>
       </c>
       <c r="AC90">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8549,7 +8549,7 @@
         <v>45255.53125</v>
       </c>
       <c r="F91" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G91" t="s">
         <v>32</v>
@@ -8641,7 +8641,7 @@
         <v>35</v>
       </c>
       <c r="G92" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H92">
         <v>3</v>
@@ -8905,7 +8905,7 @@
         <v>45258.60416666666</v>
       </c>
       <c r="F95" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G95" t="s">
         <v>33</v>
@@ -9439,7 +9439,7 @@
         <v>45269.4375</v>
       </c>
       <c r="F101" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G101" t="s">
         <v>34</v>
@@ -9783,7 +9783,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7476568</v>
+        <v>7464395</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9795,13 +9795,13 @@
         <v>45273.60416666666</v>
       </c>
       <c r="F105" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G105" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -9810,34 +9810,34 @@
         <v>47</v>
       </c>
       <c r="K105">
-        <v>2.2</v>
+        <v>1.181</v>
       </c>
       <c r="L105">
+        <v>6.5</v>
+      </c>
+      <c r="M105">
+        <v>13</v>
+      </c>
+      <c r="N105">
+        <v>1.2</v>
+      </c>
+      <c r="O105">
+        <v>6</v>
+      </c>
+      <c r="P105">
+        <v>12</v>
+      </c>
+      <c r="Q105">
+        <v>-1.75</v>
+      </c>
+      <c r="R105">
+        <v>1.775</v>
+      </c>
+      <c r="S105">
+        <v>2.025</v>
+      </c>
+      <c r="T105">
         <v>3</v>
-      </c>
-      <c r="M105">
-        <v>3.4</v>
-      </c>
-      <c r="N105">
-        <v>2.25</v>
-      </c>
-      <c r="O105">
-        <v>2.75</v>
-      </c>
-      <c r="P105">
-        <v>3.6</v>
-      </c>
-      <c r="Q105">
-        <v>-0.25</v>
-      </c>
-      <c r="R105">
-        <v>1.9</v>
-      </c>
-      <c r="S105">
-        <v>1.9</v>
-      </c>
-      <c r="T105">
-        <v>1.75</v>
       </c>
       <c r="U105">
         <v>1.975</v>
@@ -9846,7 +9846,7 @@
         <v>1.825</v>
       </c>
       <c r="W105">
-        <v>1.25</v>
+        <v>0.2</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9855,16 +9855,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA105">
         <v>-1</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC105">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9872,7 +9872,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7464395</v>
+        <v>7476568</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9884,13 +9884,13 @@
         <v>45273.60416666666</v>
       </c>
       <c r="F106" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G106" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H106">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -9899,34 +9899,34 @@
         <v>47</v>
       </c>
       <c r="K106">
-        <v>1.181</v>
+        <v>2.2</v>
       </c>
       <c r="L106">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="M106">
-        <v>13</v>
+        <v>3.4</v>
       </c>
       <c r="N106">
-        <v>1.2</v>
+        <v>2.25</v>
       </c>
       <c r="O106">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="P106">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="Q106">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R106">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S106">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T106">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="U106">
         <v>1.975</v>
@@ -9935,7 +9935,7 @@
         <v>1.825</v>
       </c>
       <c r="W106">
-        <v>0.2</v>
+        <v>1.25</v>
       </c>
       <c r="X106">
         <v>-1</v>
@@ -9944,16 +9944,16 @@
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA106">
         <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10154,7 +10154,7 @@
         <v>41</v>
       </c>
       <c r="G109" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10332,7 +10332,7 @@
         <v>43</v>
       </c>
       <c r="G111" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -11133,7 +11133,7 @@
         <v>40</v>
       </c>
       <c r="G120" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -11308,7 +11308,7 @@
         <v>45291.4375</v>
       </c>
       <c r="F122" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G122" t="s">
         <v>36</v>
@@ -11489,7 +11489,7 @@
         <v>39</v>
       </c>
       <c r="G124" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -11753,7 +11753,7 @@
         <v>45339.53125</v>
       </c>
       <c r="F127" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G127" t="s">
         <v>41</v>
@@ -12186,7 +12186,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7628608</v>
+        <v>7628830</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12198,76 +12198,76 @@
         <v>45350.60416666666</v>
       </c>
       <c r="F132" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G132" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132">
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K132">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="L132">
+        <v>2.9</v>
+      </c>
+      <c r="M132">
         <v>3</v>
       </c>
-      <c r="M132">
-        <v>3.5</v>
-      </c>
       <c r="N132">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="O132">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P132">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q132">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R132">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S132">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T132">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U132">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V132">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z132">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB132">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12275,7 +12275,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7628830</v>
+        <v>7628608</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12287,76 +12287,76 @@
         <v>45350.60416666666</v>
       </c>
       <c r="F133" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G133" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133">
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K133">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L133">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M133">
+        <v>3.5</v>
+      </c>
+      <c r="N133">
+        <v>2.5</v>
+      </c>
+      <c r="O133">
         <v>3</v>
       </c>
-      <c r="N133">
-        <v>3</v>
-      </c>
-      <c r="O133">
-        <v>2.9</v>
-      </c>
       <c r="P133">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="Q133">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R133">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S133">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T133">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U133">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V133">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y133">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA133">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC133">
-        <v>0.925</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12381,6 +12381,15 @@
       <c r="G134" t="s">
         <v>43</v>
       </c>
+      <c r="H134">
+        <v>1</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
+      </c>
+      <c r="J134" t="s">
+        <v>46</v>
+      </c>
       <c r="K134">
         <v>1.8</v>
       </c>
@@ -12391,46 +12400,52 @@
         <v>4.6</v>
       </c>
       <c r="N134">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="O134">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P134">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q134">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R134">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S134">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T134">
         <v>2</v>
       </c>
       <c r="U134">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V134">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W134">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X134">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="Y134">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
-        <v>0</v>
+        <v>0.8</v>
+      </c>
+      <c r="AB134">
+        <v>0</v>
+      </c>
+      <c r="AC134">
+        <v>-0</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12450,7 +12465,7 @@
         <v>45353.4375</v>
       </c>
       <c r="F135" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G135" t="s">
         <v>38</v>
@@ -12465,22 +12480,22 @@
         <v>2.55</v>
       </c>
       <c r="N135">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="O135">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P135">
-        <v>1.95</v>
+        <v>1.727</v>
       </c>
       <c r="Q135">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R135">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S135">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T135">
         <v>2</v>
@@ -12539,31 +12554,31 @@
         <v>4.5</v>
       </c>
       <c r="N136">
-        <v>1.3</v>
+        <v>1.333</v>
       </c>
       <c r="O136">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P136">
         <v>11</v>
       </c>
       <c r="Q136">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R136">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S136">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T136">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U136">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V136">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W136">
         <v>0</v>
@@ -12613,31 +12628,31 @@
         <v>3.1</v>
       </c>
       <c r="N137">
-        <v>2.05</v>
+        <v>1.833</v>
       </c>
       <c r="O137">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P137">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q137">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R137">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S137">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T137">
         <v>2</v>
       </c>
       <c r="U137">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V137">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W137">
         <v>0</v>

--- a/South Africa Premier/South Africa Premier.xlsx
+++ b/South Africa Premier/South Africa Premier.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -106,10 +106,10 @@
     <t>Sekhukhune United FC</t>
   </si>
   <si>
-    <t>Golden Arrows</t>
+    <t>Supersport United</t>
   </si>
   <si>
-    <t>Supersport United</t>
+    <t>Golden Arrows</t>
   </si>
   <si>
     <t>Royal AM FC</t>
@@ -133,16 +133,13 @@
     <t>Orlando Pirates</t>
   </si>
   <si>
+    <t>Mamelodi Sundowns</t>
+  </si>
+  <si>
     <t>Moroka Swallows</t>
   </si>
   <si>
-    <t>Mamelodi Sundowns</t>
-  </si>
-  <si>
     <t>Amazulu</t>
-  </si>
-  <si>
-    <t>Ajax Cape Town</t>
   </si>
   <si>
     <t>Chippa United</t>
@@ -151,13 +148,16 @@
     <t>Polokwane City</t>
   </si>
   <si>
+    <t>Ajax Cape Town</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
-    <t>D</t>
+    <t>H</t>
   </si>
   <si>
-    <t>H</t>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -631,7 +631,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6961777</v>
+        <v>6961780</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -720,70 +720,70 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>46</v>
       </c>
       <c r="K3">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="L3">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M3">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="N3">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="O3">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="P3">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q3">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R3">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S3">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T3">
         <v>1.75</v>
       </c>
       <c r="U3">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V3">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X3">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA3">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0.45</v>
+        <v>0.3875</v>
       </c>
       <c r="AC3">
         <v>-0.5</v>
@@ -794,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6961780</v>
+        <v>6961777</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -809,70 +809,70 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
         <v>47</v>
       </c>
       <c r="K4">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>2.75</v>
+      </c>
+      <c r="N4">
+        <v>2.2</v>
+      </c>
+      <c r="O4">
+        <v>2.875</v>
+      </c>
+      <c r="P4">
         <v>3.2</v>
       </c>
-      <c r="M4">
-        <v>5.5</v>
-      </c>
-      <c r="N4">
-        <v>1.65</v>
-      </c>
-      <c r="O4">
-        <v>3.2</v>
-      </c>
-      <c r="P4">
-        <v>5.5</v>
-      </c>
       <c r="Q4">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R4">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S4">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T4">
         <v>1.75</v>
       </c>
       <c r="U4">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V4">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W4">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB4">
-        <v>0.3875</v>
+        <v>0.45</v>
       </c>
       <c r="AC4">
         <v>-0.5</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K5">
         <v>2.4</v>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K6">
         <v>2.75</v>
@@ -1076,7 +1076,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K7">
         <v>1.5</v>
@@ -1165,7 +1165,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1174,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K8">
         <v>1.833</v>
@@ -1254,7 +1254,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K9">
         <v>1.5</v>
@@ -1343,7 +1343,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1441,7 +1441,7 @@
         <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K11">
         <v>1.4</v>
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7007756</v>
+        <v>7007757</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1521,73 +1521,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K12">
-        <v>2.625</v>
+        <v>1.65</v>
       </c>
       <c r="L12">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M12">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="N12">
-        <v>2.625</v>
+        <v>1.45</v>
       </c>
       <c r="O12">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="P12">
-        <v>2.625</v>
+        <v>6.5</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R12">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S12">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T12">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U12">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V12">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC12">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1595,7 +1595,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7007757</v>
+        <v>7007756</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1610,73 +1610,73 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K13">
-        <v>1.65</v>
+        <v>2.625</v>
       </c>
       <c r="L13">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M13">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="N13">
-        <v>1.45</v>
+        <v>2.625</v>
       </c>
       <c r="O13">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="P13">
-        <v>6.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S13">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T13">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U13">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V13">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W13">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB13">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1699,7 +1699,7 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1708,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K14">
         <v>3.4</v>
@@ -1773,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7007761</v>
+        <v>7007760</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1788,73 +1788,73 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K15">
+        <v>2.4</v>
+      </c>
+      <c r="L15">
+        <v>2.9</v>
+      </c>
+      <c r="M15">
         <v>3</v>
       </c>
-      <c r="L15">
+      <c r="N15">
+        <v>2.4</v>
+      </c>
+      <c r="O15">
+        <v>2.8</v>
+      </c>
+      <c r="P15">
         <v>3</v>
       </c>
-      <c r="M15">
-        <v>2.3</v>
-      </c>
-      <c r="N15">
-        <v>2.7</v>
-      </c>
-      <c r="O15">
-        <v>2.625</v>
-      </c>
-      <c r="P15">
-        <v>2.75</v>
-      </c>
       <c r="Q15">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R15">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="S15">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="T15">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U15">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V15">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y15">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA15">
-        <v>0.8999999999999999</v>
+        <v>0.3625</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1862,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7007760</v>
+        <v>7007759</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1877,10 +1877,10 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1889,61 +1889,61 @@
         <v>46</v>
       </c>
       <c r="K16">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M16">
+        <v>2.25</v>
+      </c>
+      <c r="N16">
+        <v>2.875</v>
+      </c>
+      <c r="O16">
         <v>3</v>
       </c>
-      <c r="N16">
-        <v>2.4</v>
-      </c>
-      <c r="O16">
-        <v>2.8</v>
-      </c>
       <c r="P16">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="Q16">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R16">
+        <v>1.725</v>
+      </c>
+      <c r="S16">
         <v>2.075</v>
       </c>
-      <c r="S16">
-        <v>1.725</v>
-      </c>
       <c r="T16">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U16">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V16">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X16">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-0.5</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA16">
-        <v>0.3625</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
         <v>-1</v>
       </c>
       <c r="AC16">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1951,7 +1951,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7007759</v>
+        <v>7007761</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1966,73 +1966,73 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K17">
         <v>3</v>
       </c>
       <c r="L17">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M17">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="N17">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="O17">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="P17">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="Q17">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S17">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="T17">
         <v>2</v>
       </c>
       <c r="U17">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V17">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W17">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z17">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC17">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2052,10 +2052,10 @@
         <v>45153.5</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H18">
         <v>4</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K18">
         <v>1.4</v>
@@ -2141,7 +2141,7 @@
         <v>45153.60416666666</v>
       </c>
       <c r="F19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G19" t="s">
         <v>38</v>
@@ -2153,7 +2153,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K19">
         <v>4.5</v>
@@ -2233,7 +2233,7 @@
         <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2319,7 +2319,7 @@
         <v>45156.60416666666</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
         <v>36</v>
@@ -2331,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K21">
         <v>1.909</v>
@@ -2497,10 +2497,10 @@
         <v>45157.41666666666</v>
       </c>
       <c r="F23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" t="s">
         <v>44</v>
-      </c>
-      <c r="G23" t="s">
-        <v>42</v>
       </c>
       <c r="H23">
         <v>3</v>
@@ -2509,7 +2509,7 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K23">
         <v>2.15</v>
@@ -2598,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K24">
         <v>2.2</v>
@@ -2675,10 +2675,10 @@
         <v>45157.625</v>
       </c>
       <c r="F25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K26">
         <v>2.875</v>
@@ -2856,7 +2856,7 @@
         <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -3031,10 +3031,10 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F29" t="s">
+        <v>44</v>
+      </c>
+      <c r="G29" t="s">
         <v>42</v>
-      </c>
-      <c r="G29" t="s">
-        <v>43</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3120,10 +3120,10 @@
         <v>45164.41666666666</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H30">
         <v>3</v>
@@ -3132,7 +3132,7 @@
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K30">
         <v>2.1</v>
@@ -3221,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -3301,7 +3301,7 @@
         <v>33</v>
       </c>
       <c r="G32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3399,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K33">
         <v>2.4</v>
@@ -3476,10 +3476,10 @@
         <v>45167.5</v>
       </c>
       <c r="F34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34" t="s">
         <v>31</v>
-      </c>
-      <c r="G34" t="s">
-        <v>30</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -3577,7 +3577,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -3654,10 +3654,10 @@
         <v>45168.5</v>
       </c>
       <c r="F36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3731,7 +3731,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>7078409</v>
+        <v>7078410</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3743,49 +3743,49 @@
         <v>45168.60416666666</v>
       </c>
       <c r="F37" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G37" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37" t="s">
+        <v>47</v>
+      </c>
+      <c r="K37">
+        <v>2.7</v>
+      </c>
+      <c r="L37">
+        <v>3.1</v>
+      </c>
+      <c r="M37">
+        <v>2.5</v>
+      </c>
+      <c r="N37">
         <v>3</v>
       </c>
-      <c r="J37" t="s">
-        <v>45</v>
-      </c>
-      <c r="K37">
-        <v>2.3</v>
-      </c>
-      <c r="L37">
+      <c r="O37">
         <v>2.875</v>
       </c>
-      <c r="M37">
-        <v>3.25</v>
-      </c>
-      <c r="N37">
-        <v>2.15</v>
-      </c>
-      <c r="O37">
-        <v>2.9</v>
-      </c>
       <c r="P37">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q37">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R37">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S37">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T37">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U37">
         <v>2.025</v>
@@ -3797,22 +3797,22 @@
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y37">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA37">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB37">
-        <v>1.025</v>
+        <v>0.5125</v>
       </c>
       <c r="AC37">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3844,7 +3844,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K38">
         <v>2.6</v>
@@ -3909,7 +3909,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>7078410</v>
+        <v>7078412</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3921,13 +3921,13 @@
         <v>45168.60416666666</v>
       </c>
       <c r="F39" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G39" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I39">
         <v>1</v>
@@ -3936,61 +3936,61 @@
         <v>46</v>
       </c>
       <c r="K39">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="L39">
+        <v>3.25</v>
+      </c>
+      <c r="M39">
+        <v>4.333</v>
+      </c>
+      <c r="N39">
+        <v>1.833</v>
+      </c>
+      <c r="O39">
         <v>3.1</v>
       </c>
-      <c r="M39">
-        <v>2.5</v>
-      </c>
-      <c r="N39">
-        <v>3</v>
-      </c>
-      <c r="O39">
-        <v>2.875</v>
-      </c>
       <c r="P39">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R39">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S39">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T39">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U39">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V39">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X39">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA39">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC39">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4087,7 +4087,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7078412</v>
+        <v>7078409</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4099,73 +4099,73 @@
         <v>45168.60416666666</v>
       </c>
       <c r="F41" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G41" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="I41">
         <v>3</v>
       </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
       <c r="J41" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K41">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="L41">
+        <v>2.875</v>
+      </c>
+      <c r="M41">
         <v>3.25</v>
       </c>
-      <c r="M41">
-        <v>4.333</v>
-      </c>
       <c r="N41">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="O41">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P41">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q41">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R41">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S41">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T41">
         <v>2</v>
       </c>
       <c r="U41">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V41">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W41">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z41">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB41">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC41">
         <v>-1</v>
@@ -4188,7 +4188,7 @@
         <v>45184.60416666666</v>
       </c>
       <c r="F42" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G42" t="s">
         <v>37</v>
@@ -4277,7 +4277,7 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G43" t="s">
         <v>33</v>
@@ -4289,7 +4289,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K43">
         <v>1.95</v>
@@ -4378,7 +4378,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K44">
         <v>1.833</v>
@@ -4467,7 +4467,7 @@
         <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K45">
         <v>2.625</v>
@@ -4532,7 +4532,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7169683</v>
+        <v>7169681</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4544,13 +4544,13 @@
         <v>45188.60416666666</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G46" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46">
         <v>2</v>
@@ -4559,34 +4559,34 @@
         <v>45</v>
       </c>
       <c r="K46">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="L46">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M46">
-        <v>2.9</v>
+        <v>1.909</v>
       </c>
       <c r="N46">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="O46">
         <v>2.9</v>
       </c>
       <c r="P46">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="Q46">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R46">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="S46">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="T46">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U46">
         <v>2.025</v>
@@ -4601,19 +4601,19 @@
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>2</v>
+        <v>1.375</v>
       </c>
       <c r="Z46">
         <v>-1</v>
       </c>
       <c r="AA46">
-        <v>0.8</v>
+        <v>1.075</v>
       </c>
       <c r="AB46">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC46">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4636,7 +4636,7 @@
         <v>37</v>
       </c>
       <c r="G47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4710,7 +4710,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>7169681</v>
+        <v>7169683</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4722,13 +4722,13 @@
         <v>45188.60416666666</v>
       </c>
       <c r="F48" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G48" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48">
         <v>2</v>
@@ -4737,34 +4737,34 @@
         <v>45</v>
       </c>
       <c r="K48">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="L48">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M48">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="N48">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="O48">
         <v>2.9</v>
       </c>
       <c r="P48">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="Q48">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R48">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="S48">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="T48">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U48">
         <v>2.025</v>
@@ -4779,19 +4779,19 @@
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>1.375</v>
+        <v>2</v>
       </c>
       <c r="Z48">
         <v>-1</v>
       </c>
       <c r="AA48">
-        <v>1.075</v>
+        <v>0.8</v>
       </c>
       <c r="AB48">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4888,7 +4888,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7169685</v>
+        <v>7170834</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4900,13 +4900,13 @@
         <v>45189.60416666666</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G50" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -4915,61 +4915,61 @@
         <v>47</v>
       </c>
       <c r="K50">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="L50">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="M50">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N50">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="O50">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="P50">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="Q50">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R50">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="S50">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="T50">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U50">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="V50">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="W50">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB50">
         <v>-1</v>
       </c>
       <c r="AC50">
-        <v>1.05</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4992,7 +4992,7 @@
         <v>38</v>
       </c>
       <c r="G51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -5066,7 +5066,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>7170834</v>
+        <v>7169685</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5078,13 +5078,13 @@
         <v>45189.60416666666</v>
       </c>
       <c r="F52" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G52" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -5093,61 +5093,61 @@
         <v>46</v>
       </c>
       <c r="K52">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="L52">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="M52">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="N52">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="O52">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="P52">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R52">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="S52">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="T52">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U52">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="V52">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="W52">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X52">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA52">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
         <v>-1</v>
       </c>
       <c r="AC52">
-        <v>0.7749999999999999</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5167,7 +5167,7 @@
         <v>45194.41666666666</v>
       </c>
       <c r="F53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G53" t="s">
         <v>41</v>
@@ -5179,7 +5179,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K53">
         <v>2.5</v>
@@ -5256,10 +5256,10 @@
         <v>45195.60416666666</v>
       </c>
       <c r="F54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -5268,7 +5268,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K54">
         <v>3.3</v>
@@ -5357,7 +5357,7 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K55">
         <v>1.85</v>
@@ -5434,7 +5434,7 @@
         <v>45196.60416666666</v>
       </c>
       <c r="F56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G56" t="s">
         <v>33</v>
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K56">
         <v>1.333</v>
@@ -5523,7 +5523,7 @@
         <v>45198.60416666666</v>
       </c>
       <c r="F57" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G57" t="s">
         <v>41</v>
@@ -5535,7 +5535,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K57">
         <v>2.25</v>
@@ -5615,7 +5615,7 @@
         <v>36</v>
       </c>
       <c r="G58" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H58">
         <v>3</v>
@@ -5624,7 +5624,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K58">
         <v>1.8</v>
@@ -5701,7 +5701,7 @@
         <v>45199.52083333334</v>
       </c>
       <c r="F59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G59" t="s">
         <v>32</v>
@@ -5713,7 +5713,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K59">
         <v>2.25</v>
@@ -5802,7 +5802,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K60">
         <v>2.25</v>
@@ -5968,10 +5968,10 @@
         <v>45203.5</v>
       </c>
       <c r="F62" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -5980,7 +5980,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K62">
         <v>2.25</v>
@@ -6057,10 +6057,10 @@
         <v>45203.60416666666</v>
       </c>
       <c r="F63" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6134,7 +6134,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7267510</v>
+        <v>7267513</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6146,76 +6146,76 @@
         <v>45203.60416666666</v>
       </c>
       <c r="F64" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G64" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H64">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K64">
-        <v>2.35</v>
+        <v>2.55</v>
       </c>
       <c r="L64">
         <v>2.875</v>
       </c>
       <c r="M64">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="N64">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O64">
         <v>2.875</v>
       </c>
       <c r="P64">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q64">
         <v>-0.25</v>
       </c>
       <c r="R64">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S64">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T64">
         <v>2</v>
       </c>
       <c r="U64">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V64">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W64">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z64">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB64">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC64">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6223,7 +6223,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7267513</v>
+        <v>7267510</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6235,76 +6235,76 @@
         <v>45203.60416666666</v>
       </c>
       <c r="F65" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G65" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K65">
-        <v>2.55</v>
+        <v>2.35</v>
       </c>
       <c r="L65">
         <v>2.875</v>
       </c>
       <c r="M65">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="N65">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O65">
         <v>2.875</v>
       </c>
       <c r="P65">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q65">
         <v>-0.25</v>
       </c>
       <c r="R65">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S65">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T65">
         <v>2</v>
       </c>
       <c r="U65">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V65">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA65">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC65">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6327,7 +6327,7 @@
         <v>29</v>
       </c>
       <c r="G66" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6416,7 +6416,7 @@
         <v>29</v>
       </c>
       <c r="G67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6425,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K67">
         <v>2.4</v>
@@ -6514,7 +6514,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K68">
         <v>2.2</v>
@@ -6591,7 +6591,7 @@
         <v>45225.60416666666</v>
       </c>
       <c r="F69" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G69" t="s">
         <v>32</v>
@@ -6603,7 +6603,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K69">
         <v>1.65</v>
@@ -6683,7 +6683,7 @@
         <v>38</v>
       </c>
       <c r="G70" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -6692,7 +6692,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K70">
         <v>1.8</v>
@@ -6769,7 +6769,7 @@
         <v>45227.4375</v>
       </c>
       <c r="F71" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G71" t="s">
         <v>34</v>
@@ -6781,7 +6781,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K71">
         <v>2.4</v>
@@ -6858,7 +6858,7 @@
         <v>45227.53125</v>
       </c>
       <c r="F72" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G72" t="s">
         <v>41</v>
@@ -6870,7 +6870,7 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K72">
         <v>2.2</v>
@@ -7036,7 +7036,7 @@
         <v>45231.60416666666</v>
       </c>
       <c r="F74" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G74" t="s">
         <v>38</v>
@@ -7048,7 +7048,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K74">
         <v>6</v>
@@ -7128,7 +7128,7 @@
         <v>36</v>
       </c>
       <c r="G75" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H75">
         <v>2</v>
@@ -7137,7 +7137,7 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K75">
         <v>1.75</v>
@@ -7226,7 +7226,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K76">
         <v>1.65</v>
@@ -7291,7 +7291,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>7404428</v>
+        <v>7404431</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7303,58 +7303,58 @@
         <v>45237.60416666666</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G77" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H77">
+        <v>2</v>
+      </c>
+      <c r="I77">
         <v>1</v>
       </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
       <c r="J77" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K77">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="L77">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M77">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="N77">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="O77">
         <v>3</v>
       </c>
       <c r="P77">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="Q77">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R77">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S77">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T77">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U77">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V77">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="W77">
-        <v>2</v>
+        <v>0.909</v>
       </c>
       <c r="X77">
         <v>-1</v>
@@ -7363,16 +7363,16 @@
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AA77">
         <v>-1</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC77">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7380,7 +7380,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7404431</v>
+        <v>7404428</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7392,58 +7392,58 @@
         <v>45237.60416666666</v>
       </c>
       <c r="F78" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G78" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K78">
-        <v>2.05</v>
+        <v>3.4</v>
       </c>
       <c r="L78">
+        <v>3.1</v>
+      </c>
+      <c r="M78">
+        <v>2.1</v>
+      </c>
+      <c r="N78">
         <v>3</v>
-      </c>
-      <c r="M78">
-        <v>3.5</v>
-      </c>
-      <c r="N78">
-        <v>1.909</v>
       </c>
       <c r="O78">
         <v>3</v>
       </c>
       <c r="P78">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q78">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R78">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S78">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T78">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U78">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V78">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="W78">
-        <v>0.909</v>
+        <v>2</v>
       </c>
       <c r="X78">
         <v>-1</v>
@@ -7452,16 +7452,16 @@
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AA78">
         <v>-1</v>
       </c>
       <c r="AB78">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7469,7 +7469,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7404434</v>
+        <v>7404435</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7481,76 +7481,76 @@
         <v>45238.60416666666</v>
       </c>
       <c r="F79" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G79" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H79">
         <v>1</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="s">
         <v>46</v>
       </c>
       <c r="K79">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="L79">
         <v>3</v>
       </c>
       <c r="M79">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="N79">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="O79">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P79">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q79">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R79">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S79">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T79">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U79">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V79">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W79">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X79">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y79">
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA79">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB79">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC79">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7558,7 +7558,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>7404435</v>
+        <v>7404433</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7570,58 +7570,58 @@
         <v>45238.60416666666</v>
       </c>
       <c r="F80" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G80" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K80">
-        <v>2.45</v>
+        <v>1.533</v>
       </c>
       <c r="L80">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="M80">
-        <v>2.8</v>
+        <v>5.75</v>
       </c>
       <c r="N80">
+        <v>1.5</v>
+      </c>
+      <c r="O80">
+        <v>3.8</v>
+      </c>
+      <c r="P80">
+        <v>6</v>
+      </c>
+      <c r="Q80">
+        <v>-1</v>
+      </c>
+      <c r="R80">
+        <v>1.8</v>
+      </c>
+      <c r="S80">
+        <v>2</v>
+      </c>
+      <c r="T80">
         <v>2.25</v>
       </c>
-      <c r="O80">
-        <v>3</v>
-      </c>
-      <c r="P80">
-        <v>3.2</v>
-      </c>
-      <c r="Q80">
-        <v>-0.25</v>
-      </c>
-      <c r="R80">
-        <v>1.975</v>
-      </c>
-      <c r="S80">
-        <v>1.825</v>
-      </c>
-      <c r="T80">
-        <v>1.75</v>
-      </c>
       <c r="U80">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V80">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W80">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7630,16 +7630,16 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA80">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC80">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7647,7 +7647,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>7404433</v>
+        <v>7404434</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7659,76 +7659,76 @@
         <v>45238.60416666666</v>
       </c>
       <c r="F81" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G81" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J81" t="s">
         <v>47</v>
       </c>
       <c r="K81">
-        <v>1.533</v>
+        <v>2.6</v>
       </c>
       <c r="L81">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="M81">
-        <v>5.75</v>
+        <v>2.6</v>
       </c>
       <c r="N81">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="O81">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="P81">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="Q81">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R81">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S81">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T81">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U81">
+        <v>1.95</v>
+      </c>
+      <c r="V81">
         <v>1.85</v>
       </c>
-      <c r="V81">
-        <v>1.95</v>
-      </c>
       <c r="W81">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X81">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AA81">
+        <v>-0.5</v>
+      </c>
+      <c r="AB81">
+        <v>0</v>
+      </c>
+      <c r="AC81">
         <v>-0</v>
-      </c>
-      <c r="AB81">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC81">
-        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7760,7 +7760,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K82">
         <v>1.666</v>
@@ -7926,10 +7926,10 @@
         <v>45241.4375</v>
       </c>
       <c r="F84" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G84" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -7938,7 +7938,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K84">
         <v>2.5</v>
@@ -8015,7 +8015,7 @@
         <v>45241.625</v>
       </c>
       <c r="F85" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G85" t="s">
         <v>33</v>
@@ -8027,7 +8027,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K85">
         <v>2.4</v>
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7404440</v>
+        <v>7404441</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,76 +8104,76 @@
         <v>45242.4375</v>
       </c>
       <c r="F86" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G86" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H86">
         <v>1</v>
       </c>
       <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86" t="s">
+        <v>46</v>
+      </c>
+      <c r="K86">
+        <v>2.3</v>
+      </c>
+      <c r="L86">
+        <v>2.9</v>
+      </c>
+      <c r="M86">
         <v>3</v>
       </c>
-      <c r="J86" t="s">
-        <v>45</v>
-      </c>
-      <c r="K86">
-        <v>2.15</v>
-      </c>
-      <c r="L86">
-        <v>3</v>
-      </c>
-      <c r="M86">
-        <v>3.2</v>
-      </c>
       <c r="N86">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="O86">
         <v>3</v>
       </c>
       <c r="P86">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q86">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R86">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S86">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T86">
         <v>2</v>
       </c>
       <c r="U86">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V86">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA86">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7404441</v>
+        <v>7404440</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8193,76 +8193,76 @@
         <v>45242.4375</v>
       </c>
       <c r="F87" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G87" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H87">
         <v>1</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J87" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K87">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L87">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M87">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N87">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="O87">
         <v>3</v>
       </c>
       <c r="P87">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="Q87">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R87">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S87">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T87">
         <v>2</v>
       </c>
       <c r="U87">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V87">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W87">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z87">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC87">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8285,7 +8285,7 @@
         <v>29</v>
       </c>
       <c r="G88" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H88">
         <v>2</v>
@@ -8294,7 +8294,7 @@
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K88">
         <v>3.1</v>
@@ -8359,7 +8359,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7404445</v>
+        <v>7404444</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8371,76 +8371,76 @@
         <v>45255.4375</v>
       </c>
       <c r="F89" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G89" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H89">
         <v>0</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K89">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="L89">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M89">
-        <v>1.65</v>
+        <v>3.25</v>
       </c>
       <c r="N89">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="O89">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="P89">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="Q89">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R89">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S89">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T89">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U89">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V89">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W89">
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z89">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8448,7 +8448,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7404444</v>
+        <v>7404445</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8460,76 +8460,76 @@
         <v>45255.4375</v>
       </c>
       <c r="F90" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G90" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H90">
         <v>0</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K90">
+        <v>5.25</v>
+      </c>
+      <c r="L90">
+        <v>3.4</v>
+      </c>
+      <c r="M90">
+        <v>1.65</v>
+      </c>
+      <c r="N90">
+        <v>4.2</v>
+      </c>
+      <c r="O90">
+        <v>3.2</v>
+      </c>
+      <c r="P90">
+        <v>1.85</v>
+      </c>
+      <c r="Q90">
+        <v>0.5</v>
+      </c>
+      <c r="R90">
+        <v>1.9</v>
+      </c>
+      <c r="S90">
+        <v>1.9</v>
+      </c>
+      <c r="T90">
+        <v>2</v>
+      </c>
+      <c r="U90">
+        <v>1.925</v>
+      </c>
+      <c r="V90">
+        <v>1.875</v>
+      </c>
+      <c r="W90">
+        <v>-1</v>
+      </c>
+      <c r="X90">
         <v>2.2</v>
       </c>
-      <c r="L90">
-        <v>3</v>
-      </c>
-      <c r="M90">
-        <v>3.25</v>
-      </c>
-      <c r="N90">
-        <v>2.7</v>
-      </c>
-      <c r="O90">
-        <v>2.8</v>
-      </c>
-      <c r="P90">
-        <v>2.75</v>
-      </c>
-      <c r="Q90">
-        <v>0</v>
-      </c>
-      <c r="R90">
-        <v>1.875</v>
-      </c>
-      <c r="S90">
-        <v>1.925</v>
-      </c>
-      <c r="T90">
-        <v>1.75</v>
-      </c>
-      <c r="U90">
-        <v>1.775</v>
-      </c>
-      <c r="V90">
-        <v>2.025</v>
-      </c>
-      <c r="W90">
-        <v>-1</v>
-      </c>
-      <c r="X90">
-        <v>-1</v>
-      </c>
       <c r="Y90">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA90">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
         <v>-1</v>
       </c>
       <c r="AC90">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8549,7 +8549,7 @@
         <v>45255.53125</v>
       </c>
       <c r="F91" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G91" t="s">
         <v>32</v>
@@ -8641,7 +8641,7 @@
         <v>35</v>
       </c>
       <c r="G92" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H92">
         <v>3</v>
@@ -8650,7 +8650,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K92">
         <v>3</v>
@@ -8727,7 +8727,7 @@
         <v>45256.4375</v>
       </c>
       <c r="F93" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G93" t="s">
         <v>34</v>
@@ -8816,7 +8816,7 @@
         <v>45256.53125</v>
       </c>
       <c r="F94" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G94" t="s">
         <v>36</v>
@@ -8905,7 +8905,7 @@
         <v>45258.60416666666</v>
       </c>
       <c r="F95" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G95" t="s">
         <v>33</v>
@@ -8994,10 +8994,10 @@
         <v>45259.60416666666</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G96" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>38</v>
       </c>
       <c r="G97" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H97">
         <v>2</v>
@@ -9095,7 +9095,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K97">
         <v>2.05</v>
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7512821</v>
+        <v>7448508</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,76 +9172,76 @@
         <v>45266.60416666666</v>
       </c>
       <c r="F98" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G98" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K98">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="L98">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="M98">
-        <v>3.2</v>
+        <v>1.65</v>
       </c>
       <c r="N98">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="O98">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="P98">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q98">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R98">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S98">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T98">
+        <v>2</v>
+      </c>
+      <c r="U98">
         <v>1.75</v>
       </c>
-      <c r="U98">
-        <v>1.9</v>
-      </c>
       <c r="V98">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W98">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z98">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB98">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9249,7 +9249,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7448508</v>
+        <v>7512821</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9261,76 +9261,76 @@
         <v>45266.60416666666</v>
       </c>
       <c r="F99" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G99" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K99">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="L99">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="M99">
-        <v>1.65</v>
+        <v>3.2</v>
       </c>
       <c r="N99">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="O99">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="P99">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q99">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R99">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S99">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T99">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U99">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V99">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA99">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC99">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9362,7 +9362,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K100">
         <v>2.75</v>
@@ -9439,7 +9439,7 @@
         <v>45269.4375</v>
       </c>
       <c r="F101" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G101" t="s">
         <v>34</v>
@@ -9528,10 +9528,10 @@
         <v>45269.53125</v>
       </c>
       <c r="F102" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G102" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H102">
         <v>2</v>
@@ -9540,7 +9540,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K102">
         <v>2.75</v>
@@ -9629,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K103">
         <v>1.8</v>
@@ -9718,7 +9718,7 @@
         <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K104">
         <v>2.25</v>
@@ -9795,10 +9795,10 @@
         <v>45273.60416666666</v>
       </c>
       <c r="F105" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G105" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H105">
         <v>3</v>
@@ -9807,7 +9807,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K105">
         <v>1.181</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K106">
         <v>2.2</v>
@@ -9973,10 +9973,10 @@
         <v>45275.4375</v>
       </c>
       <c r="F107" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G107" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -10062,7 +10062,7 @@
         <v>45277.4375</v>
       </c>
       <c r="F108" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G108" t="s">
         <v>38</v>
@@ -10154,7 +10154,7 @@
         <v>41</v>
       </c>
       <c r="G109" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10163,7 +10163,7 @@
         <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K109">
         <v>1.727</v>
@@ -10228,7 +10228,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7479719</v>
+        <v>7477991</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10240,76 +10240,76 @@
         <v>45283.4375</v>
       </c>
       <c r="F110" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G110" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H110">
         <v>0</v>
       </c>
       <c r="I110">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K110">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="L110">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M110">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="N110">
+        <v>2.625</v>
+      </c>
+      <c r="O110">
+        <v>2.9</v>
+      </c>
+      <c r="P110">
         <v>2.7</v>
       </c>
-      <c r="O110">
-        <v>2.875</v>
-      </c>
-      <c r="P110">
-        <v>2.6</v>
-      </c>
       <c r="Q110">
         <v>0</v>
       </c>
       <c r="R110">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S110">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T110">
         <v>2</v>
       </c>
       <c r="U110">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V110">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W110">
         <v>-1</v>
       </c>
       <c r="X110">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y110">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA110">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB110">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC110">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10317,7 +10317,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7477992</v>
+        <v>7478004</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10329,46 +10329,46 @@
         <v>45283.4375</v>
       </c>
       <c r="F111" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G111" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H111">
         <v>1</v>
       </c>
       <c r="I111">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K111">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="L111">
         <v>3</v>
       </c>
       <c r="M111">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="N111">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="O111">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P111">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Q111">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R111">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S111">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T111">
         <v>1.75</v>
@@ -10380,25 +10380,25 @@
         <v>2.05</v>
       </c>
       <c r="W111">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA111">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB111">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC111">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10406,7 +10406,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7478004</v>
+        <v>7479719</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10418,76 +10418,76 @@
         <v>45283.4375</v>
       </c>
       <c r="F112" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G112" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K112">
+        <v>1.909</v>
+      </c>
+      <c r="L112">
+        <v>3.2</v>
+      </c>
+      <c r="M112">
+        <v>4</v>
+      </c>
+      <c r="N112">
+        <v>2.7</v>
+      </c>
+      <c r="O112">
+        <v>2.875</v>
+      </c>
+      <c r="P112">
+        <v>2.6</v>
+      </c>
+      <c r="Q112">
+        <v>0</v>
+      </c>
+      <c r="R112">
+        <v>1.95</v>
+      </c>
+      <c r="S112">
+        <v>1.85</v>
+      </c>
+      <c r="T112">
+        <v>2</v>
+      </c>
+      <c r="U112">
+        <v>2</v>
+      </c>
+      <c r="V112">
         <v>1.8</v>
       </c>
-      <c r="L112">
-        <v>3</v>
-      </c>
-      <c r="M112">
-        <v>5</v>
-      </c>
-      <c r="N112">
-        <v>1.85</v>
-      </c>
-      <c r="O112">
-        <v>3</v>
-      </c>
-      <c r="P112">
-        <v>4.75</v>
-      </c>
-      <c r="Q112">
-        <v>-0.5</v>
-      </c>
-      <c r="R112">
-        <v>1.875</v>
-      </c>
-      <c r="S112">
-        <v>1.925</v>
-      </c>
-      <c r="T112">
-        <v>1.75</v>
-      </c>
-      <c r="U112">
-        <v>1.75</v>
-      </c>
-      <c r="V112">
-        <v>2.05</v>
-      </c>
       <c r="W112">
+        <v>-1</v>
+      </c>
+      <c r="X112">
+        <v>-1</v>
+      </c>
+      <c r="Y112">
+        <v>1.6</v>
+      </c>
+      <c r="Z112">
+        <v>-1</v>
+      </c>
+      <c r="AA112">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X112">
-        <v>-1</v>
-      </c>
-      <c r="Y112">
-        <v>-1</v>
-      </c>
-      <c r="Z112">
-        <v>0.875</v>
-      </c>
-      <c r="AA112">
-        <v>-1</v>
-      </c>
       <c r="AB112">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC112">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10495,7 +10495,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7477991</v>
+        <v>7477992</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10507,76 +10507,76 @@
         <v>45283.4375</v>
       </c>
       <c r="F113" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G113" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K113">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="L113">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M113">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="N113">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="O113">
         <v>2.9</v>
       </c>
       <c r="P113">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="Q113">
         <v>0</v>
       </c>
       <c r="R113">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S113">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T113">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U113">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V113">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W113">
         <v>-1</v>
       </c>
       <c r="X113">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z113">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA113">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC113">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10596,7 +10596,7 @@
         <v>45283.53125</v>
       </c>
       <c r="F114" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G114" t="s">
         <v>38</v>
@@ -10608,7 +10608,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K114">
         <v>2.3</v>
@@ -10688,7 +10688,7 @@
         <v>36</v>
       </c>
       <c r="G115" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -10697,7 +10697,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K115">
         <v>4.75</v>
@@ -10786,7 +10786,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K116">
         <v>2.05</v>
@@ -10940,7 +10940,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7477996</v>
+        <v>7477995</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10952,58 +10952,58 @@
         <v>45290.4375</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G118" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H118">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K118">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="L118">
         <v>3</v>
       </c>
       <c r="M118">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="N118">
+        <v>2.1</v>
+      </c>
+      <c r="O118">
+        <v>3</v>
+      </c>
+      <c r="P118">
         <v>3.6</v>
       </c>
-      <c r="O118">
-        <v>2.9</v>
-      </c>
-      <c r="P118">
-        <v>2.1</v>
-      </c>
       <c r="Q118">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R118">
+        <v>1.825</v>
+      </c>
+      <c r="S118">
         <v>1.975</v>
       </c>
-      <c r="S118">
-        <v>1.825</v>
-      </c>
       <c r="T118">
         <v>2</v>
       </c>
       <c r="U118">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V118">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W118">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="X118">
         <v>-1</v>
@@ -11012,16 +11012,16 @@
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA118">
         <v>-1</v>
       </c>
       <c r="AB118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11029,7 +11029,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7477995</v>
+        <v>7477996</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11041,58 +11041,58 @@
         <v>45290.4375</v>
       </c>
       <c r="F119" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G119" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K119">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="L119">
         <v>3</v>
       </c>
       <c r="M119">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="N119">
+        <v>3.6</v>
+      </c>
+      <c r="O119">
+        <v>2.9</v>
+      </c>
+      <c r="P119">
         <v>2.1</v>
       </c>
-      <c r="O119">
-        <v>3</v>
-      </c>
-      <c r="P119">
-        <v>3.6</v>
-      </c>
       <c r="Q119">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R119">
+        <v>1.975</v>
+      </c>
+      <c r="S119">
         <v>1.825</v>
       </c>
-      <c r="S119">
-        <v>1.975</v>
-      </c>
       <c r="T119">
         <v>2</v>
       </c>
       <c r="U119">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V119">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W119">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="X119">
         <v>-1</v>
@@ -11101,16 +11101,16 @@
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA119">
         <v>-1</v>
       </c>
       <c r="AB119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC119">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11130,10 +11130,10 @@
         <v>45290.53125</v>
       </c>
       <c r="F120" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G120" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -11142,7 +11142,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K120">
         <v>1.3</v>
@@ -11231,7 +11231,7 @@
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K121">
         <v>3</v>
@@ -11308,7 +11308,7 @@
         <v>45291.4375</v>
       </c>
       <c r="F122" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G122" t="s">
         <v>36</v>
@@ -11397,7 +11397,7 @@
         <v>45338.60416666666</v>
       </c>
       <c r="F123" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G123" t="s">
         <v>33</v>
@@ -11409,7 +11409,7 @@
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K123">
         <v>1.666</v>
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7577336</v>
+        <v>7577337</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,76 +11486,76 @@
         <v>45339.4375</v>
       </c>
       <c r="F124" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G124" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124">
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K124">
         <v>3.1</v>
       </c>
       <c r="L124">
+        <v>2.8</v>
+      </c>
+      <c r="M124">
+        <v>2.45</v>
+      </c>
+      <c r="N124">
         <v>3.3</v>
       </c>
-      <c r="M124">
-        <v>2.15</v>
-      </c>
-      <c r="N124">
-        <v>4.333</v>
-      </c>
       <c r="O124">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="P124">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="Q124">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R124">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S124">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T124">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U124">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V124">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y124">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
+        <v>0.3875</v>
+      </c>
+      <c r="AA124">
         <v>-0.5</v>
       </c>
-      <c r="AA124">
-        <v>0.475</v>
-      </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC124">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11563,7 +11563,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7577337</v>
+        <v>7577336</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11575,76 +11575,76 @@
         <v>45339.4375</v>
       </c>
       <c r="F125" t="s">
+        <v>40</v>
+      </c>
+      <c r="G125" t="s">
         <v>43</v>
       </c>
-      <c r="G125" t="s">
-        <v>36</v>
-      </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125">
         <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K125">
         <v>3.1</v>
       </c>
       <c r="L125">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="M125">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="N125">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="O125">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="P125">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="Q125">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R125">
+        <v>1.85</v>
+      </c>
+      <c r="S125">
+        <v>1.95</v>
+      </c>
+      <c r="T125">
+        <v>2.25</v>
+      </c>
+      <c r="U125">
+        <v>2.025</v>
+      </c>
+      <c r="V125">
         <v>1.775</v>
       </c>
-      <c r="S125">
-        <v>2.025</v>
-      </c>
-      <c r="T125">
-        <v>2</v>
-      </c>
-      <c r="U125">
-        <v>2</v>
-      </c>
-      <c r="V125">
-        <v>1.8</v>
-      </c>
       <c r="W125">
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z125">
-        <v>0.3875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA125">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB125">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11676,7 +11676,7 @@
         <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K126">
         <v>2.7</v>
@@ -11753,7 +11753,7 @@
         <v>45339.53125</v>
       </c>
       <c r="F127" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G127" t="s">
         <v>41</v>
@@ -11765,7 +11765,7 @@
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K127">
         <v>4.333</v>
@@ -11842,7 +11842,7 @@
         <v>45339.625</v>
       </c>
       <c r="F128" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G128" t="s">
         <v>38</v>
@@ -11854,7 +11854,7 @@
         <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K128">
         <v>1.727</v>
@@ -11943,7 +11943,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K129">
         <v>4</v>
@@ -12023,7 +12023,7 @@
         <v>35</v>
       </c>
       <c r="G130" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H130">
         <v>3</v>
@@ -12032,7 +12032,7 @@
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K130">
         <v>2.3</v>
@@ -12109,7 +12109,7 @@
         <v>45349.60416666666</v>
       </c>
       <c r="F131" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G131" t="s">
         <v>41</v>
@@ -12121,7 +12121,7 @@
         <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K131">
         <v>1.3</v>
@@ -12198,7 +12198,7 @@
         <v>45350.60416666666</v>
       </c>
       <c r="F132" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G132" t="s">
         <v>29</v>
@@ -12290,7 +12290,7 @@
         <v>36</v>
       </c>
       <c r="G133" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H133">
         <v>1</v>
@@ -12299,7 +12299,7 @@
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K133">
         <v>2.1</v>
@@ -12379,7 +12379,7 @@
         <v>33</v>
       </c>
       <c r="G134" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H134">
         <v>1</v>
@@ -12388,7 +12388,7 @@
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K134">
         <v>1.8</v>
@@ -12465,11 +12465,20 @@
         <v>45353.4375</v>
       </c>
       <c r="F135" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G135" t="s">
         <v>38</v>
       </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135" t="s">
+        <v>45</v>
+      </c>
       <c r="K135">
         <v>2.8</v>
       </c>
@@ -12480,22 +12489,22 @@
         <v>2.55</v>
       </c>
       <c r="N135">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="O135">
         <v>3.1</v>
       </c>
       <c r="P135">
-        <v>1.727</v>
+        <v>1.75</v>
       </c>
       <c r="Q135">
         <v>0.75</v>
       </c>
       <c r="R135">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S135">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T135">
         <v>2</v>
@@ -12507,19 +12516,25 @@
         <v>1.975</v>
       </c>
       <c r="W135">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X135">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Z135">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA135">
-        <v>0</v>
+        <v>0.5125</v>
+      </c>
+      <c r="AB135">
+        <v>-1</v>
+      </c>
+      <c r="AC135">
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12542,7 +12557,16 @@
         <v>34</v>
       </c>
       <c r="G136" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136" t="s">
+        <v>47</v>
       </c>
       <c r="K136">
         <v>1.833</v>
@@ -12554,46 +12578,52 @@
         <v>4.5</v>
       </c>
       <c r="N136">
-        <v>1.333</v>
+        <v>1.4</v>
       </c>
       <c r="O136">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P136">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q136">
         <v>-1.25</v>
       </c>
       <c r="R136">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S136">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T136">
         <v>2</v>
       </c>
       <c r="U136">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V136">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W136">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X136">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Y136">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>0</v>
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB136">
+        <v>-1</v>
+      </c>
+      <c r="AC136">
+        <v>0.925</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12618,6 +12648,15 @@
       <c r="G137" t="s">
         <v>32</v>
       </c>
+      <c r="H137">
+        <v>1</v>
+      </c>
+      <c r="I137">
+        <v>2</v>
+      </c>
+      <c r="J137" t="s">
+        <v>45</v>
+      </c>
       <c r="K137">
         <v>2.3</v>
       </c>
@@ -12628,7 +12667,7 @@
         <v>3.1</v>
       </c>
       <c r="N137">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="O137">
         <v>3.2</v>
@@ -12640,10 +12679,10 @@
         <v>-0.5</v>
       </c>
       <c r="R137">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S137">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T137">
         <v>2</v>
@@ -12655,19 +12694,25 @@
         <v>2</v>
       </c>
       <c r="W137">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X137">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y137">
-        <v>0</v>
+        <v>3.333</v>
       </c>
       <c r="Z137">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>0</v>
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB137">
+        <v>0.8</v>
+      </c>
+      <c r="AC137">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/South Africa Premier/South Africa Premier.xlsx
+++ b/South Africa Premier/South Africa Premier.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -118,10 +118,10 @@
     <t>Stellenbosch FC</t>
   </si>
   <si>
-    <t>Kaizer Chiefs</t>
+    <t>TS Galaxy</t>
   </si>
   <si>
-    <t>TS Galaxy</t>
+    <t>Kaizer Chiefs</t>
   </si>
   <si>
     <t>Cape Town City</t>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC137"/>
+  <dimension ref="A1:AC152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1061,7 +1061,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6961782</v>
+        <v>6961781</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1076,37 +1076,37 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K7">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="L7">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N7">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="O7">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P7">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q7">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R7">
         <v>1.85</v>
@@ -1118,31 +1118,31 @@
         <v>2</v>
       </c>
       <c r="U7">
+        <v>1.975</v>
+      </c>
+      <c r="V7">
         <v>1.825</v>
       </c>
-      <c r="V7">
-        <v>1.975</v>
-      </c>
       <c r="W7">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X7">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA7">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
         <v>-1</v>
       </c>
       <c r="AC7">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1150,7 +1150,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6961781</v>
+        <v>6961782</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1165,37 +1165,37 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K8">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="L8">
+        <v>3.3</v>
+      </c>
+      <c r="M8">
+        <v>7</v>
+      </c>
+      <c r="N8">
+        <v>1.65</v>
+      </c>
+      <c r="O8">
         <v>3.1</v>
       </c>
-      <c r="M8">
-        <v>4</v>
-      </c>
-      <c r="N8">
-        <v>2.05</v>
-      </c>
-      <c r="O8">
-        <v>2.8</v>
-      </c>
       <c r="P8">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q8">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R8">
         <v>1.85</v>
@@ -1207,31 +1207,31 @@
         <v>2</v>
       </c>
       <c r="U8">
+        <v>1.825</v>
+      </c>
+      <c r="V8">
         <v>1.975</v>
       </c>
-      <c r="V8">
-        <v>1.825</v>
-      </c>
       <c r="W8">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB8">
         <v>-1</v>
       </c>
       <c r="AC8">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1521,7 +1521,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1788,7 +1788,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -2764,10 +2764,10 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" t="s">
         <v>35</v>
-      </c>
-      <c r="G26" t="s">
-        <v>34</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -3209,7 +3209,7 @@
         <v>45164.52083333334</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G31" t="s">
         <v>41</v>
@@ -3390,7 +3390,7 @@
         <v>32</v>
       </c>
       <c r="G33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -3731,7 +3731,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>7078410</v>
+        <v>7078409</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3743,49 +3743,49 @@
         <v>45168.60416666666</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G37" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J37" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K37">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="L37">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M37">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="N37">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="O37">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="P37">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R37">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S37">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T37">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U37">
         <v>2.025</v>
@@ -3797,22 +3797,22 @@
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB37">
-        <v>0.5125</v>
+        <v>1.025</v>
       </c>
       <c r="AC37">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3835,7 +3835,7 @@
         <v>41</v>
       </c>
       <c r="G38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -3998,7 +3998,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7078411</v>
+        <v>7078410</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4010,49 +4010,49 @@
         <v>45168.60416666666</v>
       </c>
       <c r="F40" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G40" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K40">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="L40">
         <v>3.1</v>
       </c>
       <c r="M40">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="N40">
+        <v>3</v>
+      </c>
+      <c r="O40">
+        <v>2.875</v>
+      </c>
+      <c r="P40">
         <v>2.4</v>
       </c>
-      <c r="O40">
-        <v>2.75</v>
-      </c>
-      <c r="P40">
-        <v>3</v>
-      </c>
       <c r="Q40">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R40">
-        <v>2.075</v>
+        <v>2.05</v>
       </c>
       <c r="S40">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="T40">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U40">
         <v>2.025</v>
@@ -4064,22 +4064,22 @@
         <v>-1</v>
       </c>
       <c r="X40">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y40">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA40">
-        <v>0.7250000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB40">
-        <v>0</v>
+        <v>0.5125</v>
       </c>
       <c r="AC40">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4087,7 +4087,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7078409</v>
+        <v>7078411</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4099,46 +4099,46 @@
         <v>45168.60416666666</v>
       </c>
       <c r="F41" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G41" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J41" t="s">
         <v>45</v>
       </c>
       <c r="K41">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="L41">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M41">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="N41">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="O41">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="P41">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q41">
         <v>-0.25</v>
       </c>
       <c r="R41">
-        <v>1.825</v>
+        <v>2.075</v>
       </c>
       <c r="S41">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="T41">
         <v>2</v>
@@ -4156,19 +4156,19 @@
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="Z41">
         <v>-1</v>
       </c>
       <c r="AA41">
-        <v>0.9750000000000001</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB41">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4366,7 +4366,7 @@
         <v>45185.52083333334</v>
       </c>
       <c r="F44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G44" t="s">
         <v>32</v>
@@ -4532,7 +4532,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7169681</v>
+        <v>7169683</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4544,13 +4544,13 @@
         <v>45188.60416666666</v>
       </c>
       <c r="F46" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46">
         <v>2</v>
@@ -4559,34 +4559,34 @@
         <v>45</v>
       </c>
       <c r="K46">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="L46">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M46">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="N46">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="O46">
         <v>2.9</v>
       </c>
       <c r="P46">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="Q46">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R46">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="S46">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="T46">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U46">
         <v>2.025</v>
@@ -4601,19 +4601,19 @@
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>1.375</v>
+        <v>2</v>
       </c>
       <c r="Z46">
         <v>-1</v>
       </c>
       <c r="AA46">
-        <v>1.075</v>
+        <v>0.8</v>
       </c>
       <c r="AB46">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC46">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4710,7 +4710,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>7169683</v>
+        <v>7169681</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4722,13 +4722,13 @@
         <v>45188.60416666666</v>
       </c>
       <c r="F48" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G48" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48">
         <v>2</v>
@@ -4737,34 +4737,34 @@
         <v>45</v>
       </c>
       <c r="K48">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="L48">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M48">
-        <v>2.9</v>
+        <v>1.909</v>
       </c>
       <c r="N48">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="O48">
         <v>2.9</v>
       </c>
       <c r="P48">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="Q48">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R48">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="S48">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="T48">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U48">
         <v>2.025</v>
@@ -4779,19 +4779,19 @@
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>2</v>
+        <v>1.375</v>
       </c>
       <c r="Z48">
         <v>-1</v>
       </c>
       <c r="AA48">
-        <v>0.8</v>
+        <v>1.075</v>
       </c>
       <c r="AB48">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC48">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4799,7 +4799,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>7169684</v>
+        <v>7170834</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4811,76 +4811,76 @@
         <v>45189.60416666666</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G49" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H49">
         <v>0</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K49">
         <v>2.375</v>
       </c>
       <c r="L49">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="M49">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="N49">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="O49">
         <v>2.7</v>
       </c>
       <c r="P49">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="Q49">
         <v>0</v>
       </c>
       <c r="R49">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="S49">
-        <v>1.875</v>
+        <v>2.075</v>
       </c>
       <c r="T49">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U49">
+        <v>2.025</v>
+      </c>
+      <c r="V49">
         <v>1.775</v>
       </c>
-      <c r="V49">
-        <v>2.025</v>
-      </c>
       <c r="W49">
         <v>-1</v>
       </c>
       <c r="X49">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y49">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA49">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB49">
         <v>-1</v>
       </c>
       <c r="AC49">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4888,7 +4888,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7170834</v>
+        <v>7170833</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4900,76 +4900,76 @@
         <v>45189.60416666666</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G50" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H50">
         <v>0</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K50">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="L50">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="M50">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N50">
-        <v>2.45</v>
+        <v>3.4</v>
       </c>
       <c r="O50">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="P50">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="Q50">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R50">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S50">
-        <v>2.075</v>
+        <v>1.875</v>
       </c>
       <c r="T50">
         <v>2</v>
       </c>
       <c r="U50">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V50">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z50">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB50">
         <v>-1</v>
       </c>
       <c r="AC50">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4977,7 +4977,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>7170833</v>
+        <v>7169685</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4989,76 +4989,76 @@
         <v>45189.60416666666</v>
       </c>
       <c r="F51" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G51" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51" t="s">
+        <v>46</v>
+      </c>
+      <c r="K51">
+        <v>2</v>
+      </c>
+      <c r="L51">
+        <v>2.9</v>
+      </c>
+      <c r="M51">
+        <v>3.75</v>
+      </c>
+      <c r="N51">
+        <v>1.909</v>
+      </c>
+      <c r="O51">
+        <v>2.875</v>
+      </c>
+      <c r="P51">
+        <v>4.2</v>
+      </c>
+      <c r="Q51">
+        <v>-0.5</v>
+      </c>
+      <c r="R51">
+        <v>2</v>
+      </c>
+      <c r="S51">
+        <v>1.8</v>
+      </c>
+      <c r="T51">
+        <v>1.75</v>
+      </c>
+      <c r="U51">
+        <v>1.75</v>
+      </c>
+      <c r="V51">
+        <v>2.05</v>
+      </c>
+      <c r="W51">
+        <v>0.909</v>
+      </c>
+      <c r="X51">
+        <v>-1</v>
+      </c>
+      <c r="Y51">
+        <v>-1</v>
+      </c>
+      <c r="Z51">
         <v>1</v>
       </c>
-      <c r="J51" t="s">
-        <v>45</v>
-      </c>
-      <c r="K51">
-        <v>2.75</v>
-      </c>
-      <c r="L51">
-        <v>2.875</v>
-      </c>
-      <c r="M51">
-        <v>2.5</v>
-      </c>
-      <c r="N51">
-        <v>3.4</v>
-      </c>
-      <c r="O51">
-        <v>2.9</v>
-      </c>
-      <c r="P51">
-        <v>2.1</v>
-      </c>
-      <c r="Q51">
-        <v>0.25</v>
-      </c>
-      <c r="R51">
-        <v>1.925</v>
-      </c>
-      <c r="S51">
-        <v>1.875</v>
-      </c>
-      <c r="T51">
-        <v>2</v>
-      </c>
-      <c r="U51">
-        <v>1.8</v>
-      </c>
-      <c r="V51">
-        <v>2</v>
-      </c>
-      <c r="W51">
-        <v>-1</v>
-      </c>
-      <c r="X51">
-        <v>-1</v>
-      </c>
-      <c r="Y51">
-        <v>1.1</v>
-      </c>
-      <c r="Z51">
-        <v>-1</v>
-      </c>
       <c r="AA51">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
         <v>-1</v>
       </c>
       <c r="AC51">
-        <v>1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5066,7 +5066,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>7169685</v>
+        <v>7169684</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5078,76 +5078,76 @@
         <v>45189.60416666666</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G52" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
         <v>1</v>
       </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
       <c r="J52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K52">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="L52">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M52">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="N52">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="O52">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="P52">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="Q52">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R52">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S52">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T52">
         <v>1.75</v>
       </c>
       <c r="U52">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V52">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W52">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z52">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB52">
         <v>-1</v>
       </c>
       <c r="AC52">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5333,7 +5333,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7234871</v>
+        <v>7234870</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5345,13 +5345,13 @@
         <v>45196.60416666666</v>
       </c>
       <c r="F55" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G55" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I55">
         <v>1</v>
@@ -5360,43 +5360,43 @@
         <v>46</v>
       </c>
       <c r="K55">
+        <v>1.333</v>
+      </c>
+      <c r="L55">
+        <v>4.333</v>
+      </c>
+      <c r="M55">
+        <v>8.5</v>
+      </c>
+      <c r="N55">
+        <v>1.363</v>
+      </c>
+      <c r="O55">
+        <v>4.2</v>
+      </c>
+      <c r="P55">
+        <v>8.5</v>
+      </c>
+      <c r="Q55">
+        <v>-1.25</v>
+      </c>
+      <c r="R55">
         <v>1.85</v>
       </c>
-      <c r="L55">
-        <v>3.1</v>
-      </c>
-      <c r="M55">
-        <v>4.333</v>
-      </c>
-      <c r="N55">
-        <v>2.05</v>
-      </c>
-      <c r="O55">
-        <v>2.875</v>
-      </c>
-      <c r="P55">
-        <v>4</v>
-      </c>
-      <c r="Q55">
-        <v>-0.5</v>
-      </c>
-      <c r="R55">
-        <v>2</v>
-      </c>
       <c r="S55">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T55">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U55">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V55">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="W55">
-        <v>1.05</v>
+        <v>0.363</v>
       </c>
       <c r="X55">
         <v>-1</v>
@@ -5405,13 +5405,13 @@
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA55">
         <v>-1</v>
       </c>
       <c r="AB55">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AC55">
         <v>-1</v>
@@ -5422,7 +5422,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7234870</v>
+        <v>7234871</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5434,13 +5434,13 @@
         <v>45196.60416666666</v>
       </c>
       <c r="F56" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G56" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I56">
         <v>1</v>
@@ -5449,43 +5449,43 @@
         <v>46</v>
       </c>
       <c r="K56">
-        <v>1.333</v>
+        <v>1.85</v>
       </c>
       <c r="L56">
+        <v>3.1</v>
+      </c>
+      <c r="M56">
         <v>4.333</v>
       </c>
-      <c r="M56">
-        <v>8.5</v>
-      </c>
       <c r="N56">
-        <v>1.363</v>
+        <v>2.05</v>
       </c>
       <c r="O56">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="P56">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="Q56">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R56">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S56">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T56">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U56">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V56">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="W56">
-        <v>0.363</v>
+        <v>1.05</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5494,13 +5494,13 @@
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA56">
         <v>-1</v>
       </c>
       <c r="AB56">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AC56">
         <v>-1</v>
@@ -5790,7 +5790,7 @@
         <v>45200.4375</v>
       </c>
       <c r="F60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G60" t="s">
         <v>37</v>
@@ -5879,7 +5879,7 @@
         <v>45202.60416666666</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G61" t="s">
         <v>36</v>
@@ -6045,7 +6045,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7267512</v>
+        <v>7267513</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6057,55 +6057,55 @@
         <v>45203.60416666666</v>
       </c>
       <c r="F63" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G63" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
         <v>1</v>
-      </c>
-      <c r="I63">
-        <v>2</v>
       </c>
       <c r="J63" t="s">
         <v>45</v>
       </c>
       <c r="K63">
-        <v>5</v>
+        <v>2.55</v>
       </c>
       <c r="L63">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="M63">
-        <v>1.7</v>
+        <v>2.875</v>
       </c>
       <c r="N63">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="O63">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="P63">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="Q63">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R63">
+        <v>1.925</v>
+      </c>
+      <c r="S63">
         <v>1.875</v>
       </c>
-      <c r="S63">
-        <v>1.925</v>
-      </c>
       <c r="T63">
         <v>2</v>
       </c>
       <c r="U63">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V63">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W63">
         <v>-1</v>
@@ -6114,19 +6114,19 @@
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="Z63">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AB63">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6134,7 +6134,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7267513</v>
+        <v>7267510</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6146,76 +6146,76 @@
         <v>45203.60416666666</v>
       </c>
       <c r="F64" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G64" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K64">
-        <v>2.55</v>
+        <v>2.35</v>
       </c>
       <c r="L64">
         <v>2.875</v>
       </c>
       <c r="M64">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="N64">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O64">
         <v>2.875</v>
       </c>
       <c r="P64">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q64">
         <v>-0.25</v>
       </c>
       <c r="R64">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S64">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T64">
         <v>2</v>
       </c>
       <c r="U64">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V64">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W64">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA64">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC64">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6223,7 +6223,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7267510</v>
+        <v>7267512</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6235,73 +6235,73 @@
         <v>45203.60416666666</v>
       </c>
       <c r="F65" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G65" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K65">
-        <v>2.35</v>
+        <v>5</v>
       </c>
       <c r="L65">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="M65">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="N65">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="O65">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="P65">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="Q65">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R65">
+        <v>1.875</v>
+      </c>
+      <c r="S65">
+        <v>1.925</v>
+      </c>
+      <c r="T65">
+        <v>2</v>
+      </c>
+      <c r="U65">
+        <v>1.825</v>
+      </c>
+      <c r="V65">
         <v>1.975</v>
       </c>
-      <c r="S65">
-        <v>1.825</v>
-      </c>
-      <c r="T65">
-        <v>2</v>
-      </c>
-      <c r="U65">
-        <v>1.85</v>
-      </c>
-      <c r="V65">
-        <v>1.95</v>
-      </c>
       <c r="W65">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z65">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB65">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC65">
         <v>-1</v>
@@ -6772,7 +6772,7 @@
         <v>31</v>
       </c>
       <c r="G71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H71">
         <v>2</v>
@@ -7113,7 +7113,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>7404430</v>
+        <v>7404428</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7125,58 +7125,58 @@
         <v>45237.60416666666</v>
       </c>
       <c r="F75" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G75" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="s">
         <v>46</v>
       </c>
       <c r="K75">
+        <v>3.4</v>
+      </c>
+      <c r="L75">
+        <v>3.1</v>
+      </c>
+      <c r="M75">
+        <v>2.1</v>
+      </c>
+      <c r="N75">
+        <v>3</v>
+      </c>
+      <c r="O75">
+        <v>3</v>
+      </c>
+      <c r="P75">
+        <v>2.3</v>
+      </c>
+      <c r="Q75">
+        <v>0.25</v>
+      </c>
+      <c r="R75">
         <v>1.75</v>
       </c>
-      <c r="L75">
-        <v>3.25</v>
-      </c>
-      <c r="M75">
-        <v>4.5</v>
-      </c>
-      <c r="N75">
-        <v>1.8</v>
-      </c>
-      <c r="O75">
-        <v>3.1</v>
-      </c>
-      <c r="P75">
-        <v>4.5</v>
-      </c>
-      <c r="Q75">
-        <v>-0.5</v>
-      </c>
-      <c r="R75">
-        <v>1.8</v>
-      </c>
       <c r="S75">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T75">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U75">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V75">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W75">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="X75">
         <v>-1</v>
@@ -7185,16 +7185,16 @@
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AA75">
         <v>-1</v>
       </c>
       <c r="AB75">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7380,7 +7380,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7404428</v>
+        <v>7404430</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7392,58 +7392,58 @@
         <v>45237.60416666666</v>
       </c>
       <c r="F78" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G78" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H78">
+        <v>2</v>
+      </c>
+      <c r="I78">
         <v>1</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
       </c>
       <c r="J78" t="s">
         <v>46</v>
       </c>
       <c r="K78">
-        <v>3.4</v>
+        <v>1.75</v>
       </c>
       <c r="L78">
+        <v>3.25</v>
+      </c>
+      <c r="M78">
+        <v>4.5</v>
+      </c>
+      <c r="N78">
+        <v>1.8</v>
+      </c>
+      <c r="O78">
         <v>3.1</v>
       </c>
-      <c r="M78">
-        <v>2.1</v>
-      </c>
-      <c r="N78">
-        <v>3</v>
-      </c>
-      <c r="O78">
-        <v>3</v>
-      </c>
       <c r="P78">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q78">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R78">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S78">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T78">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U78">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V78">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W78">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="X78">
         <v>-1</v>
@@ -7452,16 +7452,16 @@
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AA78">
         <v>-1</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC78">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7484,7 +7484,7 @@
         <v>40</v>
       </c>
       <c r="G79" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -7558,7 +7558,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>7404433</v>
+        <v>7404434</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7570,76 +7570,76 @@
         <v>45238.60416666666</v>
       </c>
       <c r="F80" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G80" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80" t="s">
+        <v>47</v>
+      </c>
+      <c r="K80">
+        <v>2.6</v>
+      </c>
+      <c r="L80">
         <v>3</v>
       </c>
-      <c r="I80">
-        <v>2</v>
-      </c>
-      <c r="J80" t="s">
-        <v>46</v>
-      </c>
-      <c r="K80">
-        <v>1.533</v>
-      </c>
-      <c r="L80">
-        <v>3.8</v>
-      </c>
       <c r="M80">
-        <v>5.75</v>
+        <v>2.6</v>
       </c>
       <c r="N80">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="O80">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="P80">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="Q80">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R80">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S80">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T80">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U80">
+        <v>1.95</v>
+      </c>
+      <c r="V80">
         <v>1.85</v>
       </c>
-      <c r="V80">
-        <v>1.95</v>
-      </c>
       <c r="W80">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X80">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y80">
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AA80">
+        <v>-0.5</v>
+      </c>
+      <c r="AB80">
+        <v>0</v>
+      </c>
+      <c r="AC80">
         <v>-0</v>
-      </c>
-      <c r="AB80">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC80">
-        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7647,7 +7647,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>7404434</v>
+        <v>7404433</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7659,76 +7659,76 @@
         <v>45238.60416666666</v>
       </c>
       <c r="F81" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G81" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K81">
-        <v>2.6</v>
+        <v>1.533</v>
       </c>
       <c r="L81">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="M81">
-        <v>2.6</v>
+        <v>5.75</v>
       </c>
       <c r="N81">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
       <c r="O81">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="P81">
+        <v>6</v>
+      </c>
+      <c r="Q81">
+        <v>-1</v>
+      </c>
+      <c r="R81">
+        <v>1.8</v>
+      </c>
+      <c r="S81">
+        <v>2</v>
+      </c>
+      <c r="T81">
         <v>2.25</v>
       </c>
-      <c r="Q81">
-        <v>0.25</v>
-      </c>
-      <c r="R81">
+      <c r="U81">
         <v>1.85</v>
       </c>
-      <c r="S81">
+      <c r="V81">
         <v>1.95</v>
       </c>
-      <c r="T81">
-        <v>2</v>
-      </c>
-      <c r="U81">
-        <v>1.95</v>
-      </c>
-      <c r="V81">
-        <v>1.85</v>
-      </c>
       <c r="W81">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X81">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="AA81">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB81">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC81">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7825,7 +7825,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7404438</v>
+        <v>7404437</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7837,76 +7837,76 @@
         <v>45241.4375</v>
       </c>
       <c r="F83" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G83" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H83">
         <v>0</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K83">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L83">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M83">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="N83">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O83">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="P83">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="Q83">
         <v>0</v>
       </c>
       <c r="R83">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S83">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T83">
         <v>2</v>
       </c>
       <c r="U83">
+        <v>1.85</v>
+      </c>
+      <c r="V83">
+        <v>1.95</v>
+      </c>
+      <c r="W83">
+        <v>-1</v>
+      </c>
+      <c r="X83">
         <v>1.875</v>
       </c>
-      <c r="V83">
-        <v>1.925</v>
-      </c>
-      <c r="W83">
-        <v>-1</v>
-      </c>
-      <c r="X83">
-        <v>-1</v>
-      </c>
       <c r="Y83">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA83">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB83">
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7914,7 +7914,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>7404437</v>
+        <v>7404438</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7926,76 +7926,76 @@
         <v>45241.4375</v>
       </c>
       <c r="F84" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G84" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H84">
         <v>0</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K84">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L84">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M84">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="N84">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O84">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="P84">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q84">
         <v>0</v>
       </c>
       <c r="R84">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S84">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T84">
         <v>2</v>
       </c>
       <c r="U84">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V84">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z84">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB84">
         <v>-1</v>
       </c>
       <c r="AC84">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7404441</v>
+        <v>7404440</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,76 +8104,76 @@
         <v>45242.4375</v>
       </c>
       <c r="F86" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G86" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H86">
         <v>1</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J86" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K86">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L86">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M86">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N86">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="O86">
         <v>3</v>
       </c>
       <c r="P86">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="Q86">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R86">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S86">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T86">
         <v>2</v>
       </c>
       <c r="U86">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V86">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W86">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z86">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC86">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7404440</v>
+        <v>7404441</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8193,76 +8193,76 @@
         <v>45242.4375</v>
       </c>
       <c r="F87" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G87" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H87">
         <v>1</v>
       </c>
       <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87" t="s">
+        <v>46</v>
+      </c>
+      <c r="K87">
+        <v>2.3</v>
+      </c>
+      <c r="L87">
+        <v>2.9</v>
+      </c>
+      <c r="M87">
         <v>3</v>
       </c>
-      <c r="J87" t="s">
-        <v>45</v>
-      </c>
-      <c r="K87">
-        <v>2.15</v>
-      </c>
-      <c r="L87">
-        <v>3</v>
-      </c>
-      <c r="M87">
-        <v>3.2</v>
-      </c>
       <c r="N87">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="O87">
         <v>3</v>
       </c>
       <c r="P87">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q87">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R87">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S87">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T87">
         <v>2</v>
       </c>
       <c r="U87">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V87">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA87">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8359,7 +8359,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7404444</v>
+        <v>7404445</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8371,76 +8371,76 @@
         <v>45255.4375</v>
       </c>
       <c r="F89" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G89" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H89">
         <v>0</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K89">
+        <v>5.25</v>
+      </c>
+      <c r="L89">
+        <v>3.4</v>
+      </c>
+      <c r="M89">
+        <v>1.65</v>
+      </c>
+      <c r="N89">
+        <v>4.2</v>
+      </c>
+      <c r="O89">
+        <v>3.2</v>
+      </c>
+      <c r="P89">
+        <v>1.85</v>
+      </c>
+      <c r="Q89">
+        <v>0.5</v>
+      </c>
+      <c r="R89">
+        <v>1.9</v>
+      </c>
+      <c r="S89">
+        <v>1.9</v>
+      </c>
+      <c r="T89">
+        <v>2</v>
+      </c>
+      <c r="U89">
+        <v>1.925</v>
+      </c>
+      <c r="V89">
+        <v>1.875</v>
+      </c>
+      <c r="W89">
+        <v>-1</v>
+      </c>
+      <c r="X89">
         <v>2.2</v>
       </c>
-      <c r="L89">
-        <v>3</v>
-      </c>
-      <c r="M89">
-        <v>3.25</v>
-      </c>
-      <c r="N89">
-        <v>2.7</v>
-      </c>
-      <c r="O89">
-        <v>2.8</v>
-      </c>
-      <c r="P89">
-        <v>2.75</v>
-      </c>
-      <c r="Q89">
-        <v>0</v>
-      </c>
-      <c r="R89">
-        <v>1.875</v>
-      </c>
-      <c r="S89">
-        <v>1.925</v>
-      </c>
-      <c r="T89">
-        <v>1.75</v>
-      </c>
-      <c r="U89">
-        <v>1.775</v>
-      </c>
-      <c r="V89">
-        <v>2.025</v>
-      </c>
-      <c r="W89">
-        <v>-1</v>
-      </c>
-      <c r="X89">
-        <v>-1</v>
-      </c>
       <c r="Y89">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA89">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8448,7 +8448,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7404445</v>
+        <v>7404444</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8460,76 +8460,76 @@
         <v>45255.4375</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G90" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H90">
         <v>0</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K90">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="L90">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M90">
-        <v>1.65</v>
+        <v>3.25</v>
       </c>
       <c r="N90">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="O90">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="P90">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="Q90">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R90">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S90">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T90">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U90">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V90">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z90">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB90">
         <v>-1</v>
       </c>
       <c r="AC90">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8626,7 +8626,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7404450</v>
+        <v>7404449</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8638,76 +8638,76 @@
         <v>45256.4375</v>
       </c>
       <c r="F92" t="s">
+        <v>40</v>
+      </c>
+      <c r="G92" t="s">
         <v>35</v>
       </c>
-      <c r="G92" t="s">
-        <v>43</v>
-      </c>
       <c r="H92">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K92">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="L92">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M92">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="N92">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="O92">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="P92">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="Q92">
         <v>0</v>
       </c>
       <c r="R92">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="S92">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T92">
+        <v>2</v>
+      </c>
+      <c r="U92">
+        <v>2.05</v>
+      </c>
+      <c r="V92">
         <v>1.75</v>
       </c>
-      <c r="U92">
-        <v>1.75</v>
-      </c>
-      <c r="V92">
-        <v>2.05</v>
-      </c>
       <c r="W92">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z92">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB92">
+        <v>-1</v>
+      </c>
+      <c r="AC92">
         <v>0.75</v>
-      </c>
-      <c r="AC92">
-        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8715,7 +8715,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>7404449</v>
+        <v>7404450</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8727,76 +8727,76 @@
         <v>45256.4375</v>
       </c>
       <c r="F93" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G93" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K93">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="L93">
+        <v>2.875</v>
+      </c>
+      <c r="M93">
+        <v>2.4</v>
+      </c>
+      <c r="N93">
+        <v>2.5</v>
+      </c>
+      <c r="O93">
+        <v>2.75</v>
+      </c>
+      <c r="P93">
         <v>2.9</v>
       </c>
-      <c r="M93">
-        <v>2.9</v>
-      </c>
-      <c r="N93">
-        <v>2.75</v>
-      </c>
-      <c r="O93">
-        <v>2.7</v>
-      </c>
-      <c r="P93">
-        <v>2.8</v>
-      </c>
       <c r="Q93">
         <v>0</v>
       </c>
       <c r="R93">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="S93">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T93">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U93">
+        <v>1.75</v>
+      </c>
+      <c r="V93">
         <v>2.05</v>
       </c>
-      <c r="V93">
-        <v>1.75</v>
-      </c>
       <c r="W93">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AA93">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC93">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7448508</v>
+        <v>7512821</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,76 +9172,76 @@
         <v>45266.60416666666</v>
       </c>
       <c r="F98" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G98" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K98">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="L98">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="M98">
-        <v>1.65</v>
+        <v>3.2</v>
       </c>
       <c r="N98">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="O98">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="P98">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q98">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R98">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S98">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T98">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U98">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V98">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA98">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC98">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9249,7 +9249,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7512821</v>
+        <v>7448508</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9261,76 +9261,76 @@
         <v>45266.60416666666</v>
       </c>
       <c r="F99" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G99" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K99">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="L99">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="M99">
-        <v>3.2</v>
+        <v>1.65</v>
       </c>
       <c r="N99">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="O99">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="P99">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q99">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R99">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S99">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T99">
+        <v>2</v>
+      </c>
+      <c r="U99">
         <v>1.75</v>
       </c>
-      <c r="U99">
-        <v>1.9</v>
-      </c>
       <c r="V99">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W99">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z99">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB99">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9442,7 +9442,7 @@
         <v>43</v>
       </c>
       <c r="G101" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -9620,7 +9620,7 @@
         <v>38</v>
       </c>
       <c r="G103" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9783,7 +9783,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7464395</v>
+        <v>7476568</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9795,13 +9795,13 @@
         <v>45273.60416666666</v>
       </c>
       <c r="F105" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G105" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -9810,34 +9810,34 @@
         <v>46</v>
       </c>
       <c r="K105">
-        <v>1.181</v>
+        <v>2.2</v>
       </c>
       <c r="L105">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="M105">
-        <v>13</v>
+        <v>3.4</v>
       </c>
       <c r="N105">
-        <v>1.2</v>
+        <v>2.25</v>
       </c>
       <c r="O105">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="P105">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="Q105">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R105">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S105">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T105">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="U105">
         <v>1.975</v>
@@ -9846,7 +9846,7 @@
         <v>1.825</v>
       </c>
       <c r="W105">
-        <v>0.2</v>
+        <v>1.25</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9855,16 +9855,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA105">
         <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9872,7 +9872,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7476568</v>
+        <v>7464395</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9884,13 +9884,13 @@
         <v>45273.60416666666</v>
       </c>
       <c r="F106" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G106" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -9899,34 +9899,34 @@
         <v>46</v>
       </c>
       <c r="K106">
-        <v>2.2</v>
+        <v>1.181</v>
       </c>
       <c r="L106">
+        <v>6.5</v>
+      </c>
+      <c r="M106">
+        <v>13</v>
+      </c>
+      <c r="N106">
+        <v>1.2</v>
+      </c>
+      <c r="O106">
+        <v>6</v>
+      </c>
+      <c r="P106">
+        <v>12</v>
+      </c>
+      <c r="Q106">
+        <v>-1.75</v>
+      </c>
+      <c r="R106">
+        <v>1.775</v>
+      </c>
+      <c r="S106">
+        <v>2.025</v>
+      </c>
+      <c r="T106">
         <v>3</v>
-      </c>
-      <c r="M106">
-        <v>3.4</v>
-      </c>
-      <c r="N106">
-        <v>2.25</v>
-      </c>
-      <c r="O106">
-        <v>2.75</v>
-      </c>
-      <c r="P106">
-        <v>3.6</v>
-      </c>
-      <c r="Q106">
-        <v>-0.25</v>
-      </c>
-      <c r="R106">
-        <v>1.9</v>
-      </c>
-      <c r="S106">
-        <v>1.9</v>
-      </c>
-      <c r="T106">
-        <v>1.75</v>
       </c>
       <c r="U106">
         <v>1.975</v>
@@ -9935,7 +9935,7 @@
         <v>1.825</v>
       </c>
       <c r="W106">
-        <v>1.25</v>
+        <v>0.2</v>
       </c>
       <c r="X106">
         <v>-1</v>
@@ -9944,16 +9944,16 @@
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA106">
         <v>-1</v>
       </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC106">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10228,7 +10228,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7477991</v>
+        <v>7477992</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10240,76 +10240,76 @@
         <v>45283.4375</v>
       </c>
       <c r="F110" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G110" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J110" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K110">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="L110">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M110">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="N110">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="O110">
         <v>2.9</v>
       </c>
       <c r="P110">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="Q110">
         <v>0</v>
       </c>
       <c r="R110">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S110">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T110">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U110">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V110">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W110">
         <v>-1</v>
       </c>
       <c r="X110">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z110">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB110">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC110">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10329,7 +10329,7 @@
         <v>45283.4375</v>
       </c>
       <c r="F111" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G111" t="s">
         <v>37</v>
@@ -10421,7 +10421,7 @@
         <v>31</v>
       </c>
       <c r="G112" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -10495,7 +10495,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7477992</v>
+        <v>7477991</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10507,76 +10507,76 @@
         <v>45283.4375</v>
       </c>
       <c r="F113" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G113" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K113">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="L113">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M113">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="N113">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="O113">
         <v>2.9</v>
       </c>
       <c r="P113">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="Q113">
         <v>0</v>
       </c>
       <c r="R113">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S113">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T113">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U113">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V113">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W113">
         <v>-1</v>
       </c>
       <c r="X113">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y113">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA113">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB113">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC113">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10952,7 +10952,7 @@
         <v>45290.4375</v>
       </c>
       <c r="F118" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G118" t="s">
         <v>42</v>
@@ -11222,7 +11222,7 @@
         <v>29</v>
       </c>
       <c r="G121" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -11934,7 +11934,7 @@
         <v>32</v>
       </c>
       <c r="G129" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -12020,7 +12020,7 @@
         <v>45340.53125</v>
       </c>
       <c r="F130" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G130" t="s">
         <v>31</v>
@@ -12554,7 +12554,7 @@
         <v>45353.53125</v>
       </c>
       <c r="F136" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G136" t="s">
         <v>40</v>
@@ -12713,6 +12713,1221 @@
       </c>
       <c r="AC137">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:29">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>7628927</v>
+      </c>
+      <c r="C138" t="s">
+        <v>28</v>
+      </c>
+      <c r="D138" t="s">
+        <v>28</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45354.4375</v>
+      </c>
+      <c r="F138" t="s">
+        <v>44</v>
+      </c>
+      <c r="G138" t="s">
+        <v>34</v>
+      </c>
+      <c r="H138">
+        <v>2</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138" t="s">
+        <v>46</v>
+      </c>
+      <c r="K138">
+        <v>7</v>
+      </c>
+      <c r="L138">
+        <v>3.75</v>
+      </c>
+      <c r="M138">
+        <v>1.45</v>
+      </c>
+      <c r="N138">
+        <v>5</v>
+      </c>
+      <c r="O138">
+        <v>3.5</v>
+      </c>
+      <c r="P138">
+        <v>1.615</v>
+      </c>
+      <c r="Q138">
+        <v>0.75</v>
+      </c>
+      <c r="R138">
+        <v>1.925</v>
+      </c>
+      <c r="S138">
+        <v>1.875</v>
+      </c>
+      <c r="T138">
+        <v>2</v>
+      </c>
+      <c r="U138">
+        <v>1.825</v>
+      </c>
+      <c r="V138">
+        <v>1.975</v>
+      </c>
+      <c r="W138">
+        <v>4</v>
+      </c>
+      <c r="X138">
+        <v>-1</v>
+      </c>
+      <c r="Y138">
+        <v>-1</v>
+      </c>
+      <c r="Z138">
+        <v>0.925</v>
+      </c>
+      <c r="AA138">
+        <v>-1</v>
+      </c>
+      <c r="AB138">
+        <v>0</v>
+      </c>
+      <c r="AC138">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:29">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>7628936</v>
+      </c>
+      <c r="C139" t="s">
+        <v>28</v>
+      </c>
+      <c r="D139" t="s">
+        <v>28</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45356.60416666666</v>
+      </c>
+      <c r="F139" t="s">
+        <v>36</v>
+      </c>
+      <c r="G139" t="s">
+        <v>33</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139" t="s">
+        <v>45</v>
+      </c>
+      <c r="K139">
+        <v>1.909</v>
+      </c>
+      <c r="L139">
+        <v>3</v>
+      </c>
+      <c r="M139">
+        <v>4</v>
+      </c>
+      <c r="N139">
+        <v>2.45</v>
+      </c>
+      <c r="O139">
+        <v>2.8</v>
+      </c>
+      <c r="P139">
+        <v>2.9</v>
+      </c>
+      <c r="Q139">
+        <v>0</v>
+      </c>
+      <c r="R139">
+        <v>1.75</v>
+      </c>
+      <c r="S139">
+        <v>2.05</v>
+      </c>
+      <c r="T139">
+        <v>2</v>
+      </c>
+      <c r="U139">
+        <v>1.975</v>
+      </c>
+      <c r="V139">
+        <v>1.825</v>
+      </c>
+      <c r="W139">
+        <v>-1</v>
+      </c>
+      <c r="X139">
+        <v>-1</v>
+      </c>
+      <c r="Y139">
+        <v>1.9</v>
+      </c>
+      <c r="Z139">
+        <v>-1</v>
+      </c>
+      <c r="AA139">
+        <v>1.05</v>
+      </c>
+      <c r="AB139">
+        <v>-1</v>
+      </c>
+      <c r="AC139">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="140" spans="1:29">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>7628935</v>
+      </c>
+      <c r="C140" t="s">
+        <v>28</v>
+      </c>
+      <c r="D140" t="s">
+        <v>28</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45356.60416666666</v>
+      </c>
+      <c r="F140" t="s">
+        <v>41</v>
+      </c>
+      <c r="G140" t="s">
+        <v>40</v>
+      </c>
+      <c r="H140">
+        <v>1</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
+      </c>
+      <c r="J140" t="s">
+        <v>47</v>
+      </c>
+      <c r="K140">
+        <v>1.75</v>
+      </c>
+      <c r="L140">
+        <v>3.2</v>
+      </c>
+      <c r="M140">
+        <v>4.75</v>
+      </c>
+      <c r="N140">
+        <v>1.8</v>
+      </c>
+      <c r="O140">
+        <v>3</v>
+      </c>
+      <c r="P140">
+        <v>4.75</v>
+      </c>
+      <c r="Q140">
+        <v>-0.5</v>
+      </c>
+      <c r="R140">
+        <v>1.85</v>
+      </c>
+      <c r="S140">
+        <v>1.95</v>
+      </c>
+      <c r="T140">
+        <v>1.75</v>
+      </c>
+      <c r="U140">
+        <v>1.85</v>
+      </c>
+      <c r="V140">
+        <v>1.95</v>
+      </c>
+      <c r="W140">
+        <v>-1</v>
+      </c>
+      <c r="X140">
+        <v>2</v>
+      </c>
+      <c r="Y140">
+        <v>-1</v>
+      </c>
+      <c r="Z140">
+        <v>-1</v>
+      </c>
+      <c r="AA140">
+        <v>0.95</v>
+      </c>
+      <c r="AB140">
+        <v>0.425</v>
+      </c>
+      <c r="AC140">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:29">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>7628937</v>
+      </c>
+      <c r="C141" t="s">
+        <v>28</v>
+      </c>
+      <c r="D141" t="s">
+        <v>28</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45356.60416666666</v>
+      </c>
+      <c r="F141" t="s">
+        <v>35</v>
+      </c>
+      <c r="G141" t="s">
+        <v>31</v>
+      </c>
+      <c r="H141">
+        <v>1</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141" t="s">
+        <v>46</v>
+      </c>
+      <c r="K141">
+        <v>1.7</v>
+      </c>
+      <c r="L141">
+        <v>3.4</v>
+      </c>
+      <c r="M141">
+        <v>4.75</v>
+      </c>
+      <c r="N141">
+        <v>1.615</v>
+      </c>
+      <c r="O141">
+        <v>3.4</v>
+      </c>
+      <c r="P141">
+        <v>5.5</v>
+      </c>
+      <c r="Q141">
+        <v>-0.75</v>
+      </c>
+      <c r="R141">
+        <v>1.825</v>
+      </c>
+      <c r="S141">
+        <v>1.975</v>
+      </c>
+      <c r="T141">
+        <v>2</v>
+      </c>
+      <c r="U141">
+        <v>1.85</v>
+      </c>
+      <c r="V141">
+        <v>1.95</v>
+      </c>
+      <c r="W141">
+        <v>0.615</v>
+      </c>
+      <c r="X141">
+        <v>-1</v>
+      </c>
+      <c r="Y141">
+        <v>-1</v>
+      </c>
+      <c r="Z141">
+        <v>0.4125</v>
+      </c>
+      <c r="AA141">
+        <v>-0.5</v>
+      </c>
+      <c r="AB141">
+        <v>-1</v>
+      </c>
+      <c r="AC141">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="142" spans="1:29">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>7628833</v>
+      </c>
+      <c r="C142" t="s">
+        <v>28</v>
+      </c>
+      <c r="D142" t="s">
+        <v>28</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45357.60416666666</v>
+      </c>
+      <c r="F142" t="s">
+        <v>29</v>
+      </c>
+      <c r="G142" t="s">
+        <v>32</v>
+      </c>
+      <c r="H142">
+        <v>1</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142" t="s">
+        <v>46</v>
+      </c>
+      <c r="K142">
+        <v>1.909</v>
+      </c>
+      <c r="L142">
+        <v>3</v>
+      </c>
+      <c r="M142">
+        <v>4.2</v>
+      </c>
+      <c r="N142">
+        <v>1.85</v>
+      </c>
+      <c r="O142">
+        <v>3.1</v>
+      </c>
+      <c r="P142">
+        <v>4.2</v>
+      </c>
+      <c r="Q142">
+        <v>-0.5</v>
+      </c>
+      <c r="R142">
+        <v>1.85</v>
+      </c>
+      <c r="S142">
+        <v>1.95</v>
+      </c>
+      <c r="T142">
+        <v>2</v>
+      </c>
+      <c r="U142">
+        <v>1.95</v>
+      </c>
+      <c r="V142">
+        <v>1.85</v>
+      </c>
+      <c r="W142">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="X142">
+        <v>-1</v>
+      </c>
+      <c r="Y142">
+        <v>-1</v>
+      </c>
+      <c r="Z142">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA142">
+        <v>-1</v>
+      </c>
+      <c r="AB142">
+        <v>-1</v>
+      </c>
+      <c r="AC142">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:29">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>7628939</v>
+      </c>
+      <c r="C143" t="s">
+        <v>28</v>
+      </c>
+      <c r="D143" t="s">
+        <v>28</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45357.60416666666</v>
+      </c>
+      <c r="F143" t="s">
+        <v>38</v>
+      </c>
+      <c r="G143" t="s">
+        <v>44</v>
+      </c>
+      <c r="H143">
+        <v>1</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="J143" t="s">
+        <v>47</v>
+      </c>
+      <c r="K143">
+        <v>1.363</v>
+      </c>
+      <c r="L143">
+        <v>4.5</v>
+      </c>
+      <c r="M143">
+        <v>7.5</v>
+      </c>
+      <c r="N143">
+        <v>1.3</v>
+      </c>
+      <c r="O143">
+        <v>5</v>
+      </c>
+      <c r="P143">
+        <v>7.5</v>
+      </c>
+      <c r="Q143">
+        <v>-1.5</v>
+      </c>
+      <c r="R143">
+        <v>1.925</v>
+      </c>
+      <c r="S143">
+        <v>1.875</v>
+      </c>
+      <c r="T143">
+        <v>2.75</v>
+      </c>
+      <c r="U143">
+        <v>1.775</v>
+      </c>
+      <c r="V143">
+        <v>2.025</v>
+      </c>
+      <c r="W143">
+        <v>-1</v>
+      </c>
+      <c r="X143">
+        <v>4</v>
+      </c>
+      <c r="Y143">
+        <v>-1</v>
+      </c>
+      <c r="Z143">
+        <v>-1</v>
+      </c>
+      <c r="AA143">
+        <v>0.875</v>
+      </c>
+      <c r="AB143">
+        <v>-1</v>
+      </c>
+      <c r="AC143">
+        <v>1.025</v>
+      </c>
+    </row>
+    <row r="144" spans="1:29">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>7628938</v>
+      </c>
+      <c r="C144" t="s">
+        <v>28</v>
+      </c>
+      <c r="D144" t="s">
+        <v>28</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45357.60416666666</v>
+      </c>
+      <c r="F144" t="s">
+        <v>42</v>
+      </c>
+      <c r="G144" t="s">
+        <v>37</v>
+      </c>
+      <c r="H144">
+        <v>3</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144" t="s">
+        <v>46</v>
+      </c>
+      <c r="K144">
+        <v>2.375</v>
+      </c>
+      <c r="L144">
+        <v>2.75</v>
+      </c>
+      <c r="M144">
+        <v>3.1</v>
+      </c>
+      <c r="N144">
+        <v>2.25</v>
+      </c>
+      <c r="O144">
+        <v>2.75</v>
+      </c>
+      <c r="P144">
+        <v>3.4</v>
+      </c>
+      <c r="Q144">
+        <v>-0.25</v>
+      </c>
+      <c r="R144">
+        <v>1.975</v>
+      </c>
+      <c r="S144">
+        <v>1.825</v>
+      </c>
+      <c r="T144">
+        <v>2</v>
+      </c>
+      <c r="U144">
+        <v>2.025</v>
+      </c>
+      <c r="V144">
+        <v>1.775</v>
+      </c>
+      <c r="W144">
+        <v>1.25</v>
+      </c>
+      <c r="X144">
+        <v>-1</v>
+      </c>
+      <c r="Y144">
+        <v>-1</v>
+      </c>
+      <c r="Z144">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA144">
+        <v>-1</v>
+      </c>
+      <c r="AB144">
+        <v>1.025</v>
+      </c>
+      <c r="AC144">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:27">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>7628929</v>
+      </c>
+      <c r="C145" t="s">
+        <v>28</v>
+      </c>
+      <c r="D145" t="s">
+        <v>28</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45360.4375</v>
+      </c>
+      <c r="F145" t="s">
+        <v>38</v>
+      </c>
+      <c r="G145" t="s">
+        <v>35</v>
+      </c>
+      <c r="K145">
+        <v>1.95</v>
+      </c>
+      <c r="L145">
+        <v>3</v>
+      </c>
+      <c r="M145">
+        <v>3.75</v>
+      </c>
+      <c r="N145">
+        <v>1.833</v>
+      </c>
+      <c r="O145">
+        <v>3.1</v>
+      </c>
+      <c r="P145">
+        <v>4.2</v>
+      </c>
+      <c r="Q145">
+        <v>-0.5</v>
+      </c>
+      <c r="R145">
+        <v>1.875</v>
+      </c>
+      <c r="S145">
+        <v>1.925</v>
+      </c>
+      <c r="T145">
+        <v>2</v>
+      </c>
+      <c r="U145">
+        <v>1.9</v>
+      </c>
+      <c r="V145">
+        <v>1.9</v>
+      </c>
+      <c r="W145">
+        <v>0</v>
+      </c>
+      <c r="X145">
+        <v>0</v>
+      </c>
+      <c r="Y145">
+        <v>0</v>
+      </c>
+      <c r="Z145">
+        <v>0</v>
+      </c>
+      <c r="AA145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:27">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>7628831</v>
+      </c>
+      <c r="C146" t="s">
+        <v>28</v>
+      </c>
+      <c r="D146" t="s">
+        <v>28</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45360.52083333334</v>
+      </c>
+      <c r="F146" t="s">
+        <v>30</v>
+      </c>
+      <c r="G146" t="s">
+        <v>41</v>
+      </c>
+      <c r="K146">
+        <v>1.8</v>
+      </c>
+      <c r="L146">
+        <v>3</v>
+      </c>
+      <c r="M146">
+        <v>4.5</v>
+      </c>
+      <c r="N146">
+        <v>1.833</v>
+      </c>
+      <c r="O146">
+        <v>3</v>
+      </c>
+      <c r="P146">
+        <v>4.333</v>
+      </c>
+      <c r="Q146">
+        <v>-0.5</v>
+      </c>
+      <c r="R146">
+        <v>1.85</v>
+      </c>
+      <c r="S146">
+        <v>1.95</v>
+      </c>
+      <c r="T146">
+        <v>2</v>
+      </c>
+      <c r="U146">
+        <v>1.85</v>
+      </c>
+      <c r="V146">
+        <v>1.95</v>
+      </c>
+      <c r="W146">
+        <v>0</v>
+      </c>
+      <c r="X146">
+        <v>0</v>
+      </c>
+      <c r="Y146">
+        <v>0</v>
+      </c>
+      <c r="Z146">
+        <v>0</v>
+      </c>
+      <c r="AA146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:27">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>7628832</v>
+      </c>
+      <c r="C147" t="s">
+        <v>28</v>
+      </c>
+      <c r="D147" t="s">
+        <v>28</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45360.52083333334</v>
+      </c>
+      <c r="F147" t="s">
+        <v>40</v>
+      </c>
+      <c r="G147" t="s">
+        <v>29</v>
+      </c>
+      <c r="K147">
+        <v>2.7</v>
+      </c>
+      <c r="L147">
+        <v>2.8</v>
+      </c>
+      <c r="M147">
+        <v>2.6</v>
+      </c>
+      <c r="N147">
+        <v>2.9</v>
+      </c>
+      <c r="O147">
+        <v>2.7</v>
+      </c>
+      <c r="P147">
+        <v>2.5</v>
+      </c>
+      <c r="Q147">
+        <v>0</v>
+      </c>
+      <c r="R147">
+        <v>2</v>
+      </c>
+      <c r="S147">
+        <v>1.8</v>
+      </c>
+      <c r="T147">
+        <v>1.75</v>
+      </c>
+      <c r="U147">
+        <v>1.8</v>
+      </c>
+      <c r="V147">
+        <v>2</v>
+      </c>
+      <c r="W147">
+        <v>0</v>
+      </c>
+      <c r="X147">
+        <v>0</v>
+      </c>
+      <c r="Y147">
+        <v>0</v>
+      </c>
+      <c r="Z147">
+        <v>0</v>
+      </c>
+      <c r="AA147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:27">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>7628931</v>
+      </c>
+      <c r="C148" t="s">
+        <v>28</v>
+      </c>
+      <c r="D148" t="s">
+        <v>28</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45360.52083333334</v>
+      </c>
+      <c r="F148" t="s">
+        <v>33</v>
+      </c>
+      <c r="G148" t="s">
+        <v>44</v>
+      </c>
+      <c r="K148">
+        <v>1.5</v>
+      </c>
+      <c r="L148">
+        <v>3.4</v>
+      </c>
+      <c r="M148">
+        <v>6.5</v>
+      </c>
+      <c r="N148">
+        <v>1.533</v>
+      </c>
+      <c r="O148">
+        <v>3.4</v>
+      </c>
+      <c r="P148">
+        <v>6</v>
+      </c>
+      <c r="Q148">
+        <v>-1</v>
+      </c>
+      <c r="R148">
+        <v>1.975</v>
+      </c>
+      <c r="S148">
+        <v>1.825</v>
+      </c>
+      <c r="T148">
+        <v>2.25</v>
+      </c>
+      <c r="U148">
+        <v>1.85</v>
+      </c>
+      <c r="V148">
+        <v>1.95</v>
+      </c>
+      <c r="W148">
+        <v>0</v>
+      </c>
+      <c r="X148">
+        <v>0</v>
+      </c>
+      <c r="Y148">
+        <v>0</v>
+      </c>
+      <c r="Z148">
+        <v>0</v>
+      </c>
+      <c r="AA148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:27">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>7628932</v>
+      </c>
+      <c r="C149" t="s">
+        <v>28</v>
+      </c>
+      <c r="D149" t="s">
+        <v>28</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45360.625</v>
+      </c>
+      <c r="F149" t="s">
+        <v>37</v>
+      </c>
+      <c r="G149" t="s">
+        <v>34</v>
+      </c>
+      <c r="K149">
+        <v>4</v>
+      </c>
+      <c r="L149">
+        <v>2.75</v>
+      </c>
+      <c r="M149">
+        <v>2</v>
+      </c>
+      <c r="N149">
+        <v>3.4</v>
+      </c>
+      <c r="O149">
+        <v>2.625</v>
+      </c>
+      <c r="P149">
+        <v>2.25</v>
+      </c>
+      <c r="Q149">
+        <v>0.25</v>
+      </c>
+      <c r="R149">
+        <v>1.825</v>
+      </c>
+      <c r="S149">
+        <v>1.975</v>
+      </c>
+      <c r="T149">
+        <v>1.75</v>
+      </c>
+      <c r="U149">
+        <v>1.775</v>
+      </c>
+      <c r="V149">
+        <v>2.025</v>
+      </c>
+      <c r="W149">
+        <v>0</v>
+      </c>
+      <c r="X149">
+        <v>0</v>
+      </c>
+      <c r="Y149">
+        <v>0</v>
+      </c>
+      <c r="Z149">
+        <v>0</v>
+      </c>
+      <c r="AA149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:27">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>7628930</v>
+      </c>
+      <c r="C150" t="s">
+        <v>28</v>
+      </c>
+      <c r="D150" t="s">
+        <v>28</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45360.625</v>
+      </c>
+      <c r="F150" t="s">
+        <v>39</v>
+      </c>
+      <c r="G150" t="s">
+        <v>42</v>
+      </c>
+      <c r="K150">
+        <v>1.285</v>
+      </c>
+      <c r="L150">
+        <v>4.5</v>
+      </c>
+      <c r="M150">
+        <v>9</v>
+      </c>
+      <c r="N150">
+        <v>1.25</v>
+      </c>
+      <c r="O150">
+        <v>4.5</v>
+      </c>
+      <c r="P150">
+        <v>10</v>
+      </c>
+      <c r="Q150">
+        <v>-1.5</v>
+      </c>
+      <c r="R150">
+        <v>1.9</v>
+      </c>
+      <c r="S150">
+        <v>1.9</v>
+      </c>
+      <c r="T150">
+        <v>2.5</v>
+      </c>
+      <c r="U150">
+        <v>1.875</v>
+      </c>
+      <c r="V150">
+        <v>1.925</v>
+      </c>
+      <c r="W150">
+        <v>0</v>
+      </c>
+      <c r="X150">
+        <v>0</v>
+      </c>
+      <c r="Y150">
+        <v>0</v>
+      </c>
+      <c r="Z150">
+        <v>0</v>
+      </c>
+      <c r="AA150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:27">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>7628933</v>
+      </c>
+      <c r="C151" t="s">
+        <v>28</v>
+      </c>
+      <c r="D151" t="s">
+        <v>28</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45361.4375</v>
+      </c>
+      <c r="F151" t="s">
+        <v>43</v>
+      </c>
+      <c r="G151" t="s">
+        <v>31</v>
+      </c>
+      <c r="K151">
+        <v>2.1</v>
+      </c>
+      <c r="L151">
+        <v>2.9</v>
+      </c>
+      <c r="M151">
+        <v>3.4</v>
+      </c>
+      <c r="N151">
+        <v>2</v>
+      </c>
+      <c r="O151">
+        <v>2.9</v>
+      </c>
+      <c r="P151">
+        <v>3.6</v>
+      </c>
+      <c r="Q151">
+        <v>-0.25</v>
+      </c>
+      <c r="R151">
+        <v>1.775</v>
+      </c>
+      <c r="S151">
+        <v>2.025</v>
+      </c>
+      <c r="T151">
+        <v>2</v>
+      </c>
+      <c r="U151">
+        <v>1.875</v>
+      </c>
+      <c r="V151">
+        <v>1.925</v>
+      </c>
+      <c r="W151">
+        <v>0</v>
+      </c>
+      <c r="X151">
+        <v>0</v>
+      </c>
+      <c r="Y151">
+        <v>0</v>
+      </c>
+      <c r="Z151">
+        <v>0</v>
+      </c>
+      <c r="AA151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:27">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>7628934</v>
+      </c>
+      <c r="C152" t="s">
+        <v>28</v>
+      </c>
+      <c r="D152" t="s">
+        <v>28</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45361.53125</v>
+      </c>
+      <c r="F152" t="s">
+        <v>32</v>
+      </c>
+      <c r="G152" t="s">
+        <v>36</v>
+      </c>
+      <c r="K152">
+        <v>3.5</v>
+      </c>
+      <c r="L152">
+        <v>3</v>
+      </c>
+      <c r="M152">
+        <v>2</v>
+      </c>
+      <c r="N152">
+        <v>3.6</v>
+      </c>
+      <c r="O152">
+        <v>3</v>
+      </c>
+      <c r="P152">
+        <v>1.95</v>
+      </c>
+      <c r="Q152">
+        <v>0.5</v>
+      </c>
+      <c r="R152">
+        <v>1.775</v>
+      </c>
+      <c r="S152">
+        <v>2.025</v>
+      </c>
+      <c r="T152">
+        <v>2</v>
+      </c>
+      <c r="U152">
+        <v>1.8</v>
+      </c>
+      <c r="V152">
+        <v>2</v>
+      </c>
+      <c r="W152">
+        <v>0</v>
+      </c>
+      <c r="X152">
+        <v>0</v>
+      </c>
+      <c r="Y152">
+        <v>0</v>
+      </c>
+      <c r="Z152">
+        <v>0</v>
+      </c>
+      <c r="AA152">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/South Africa Premier/South Africa Premier.xlsx
+++ b/South Africa Premier/South Africa Premier.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -118,10 +118,10 @@
     <t>Stellenbosch FC</t>
   </si>
   <si>
-    <t>TS Galaxy</t>
+    <t>Kaizer Chiefs</t>
   </si>
   <si>
-    <t>Kaizer Chiefs</t>
+    <t>TS Galaxy</t>
   </si>
   <si>
     <t>Cape Town City</t>
@@ -133,19 +133,19 @@
     <t>Orlando Pirates</t>
   </si>
   <si>
-    <t>Mamelodi Sundowns</t>
+    <t>Moroka Swallows</t>
   </si>
   <si>
-    <t>Moroka Swallows</t>
+    <t>Mamelodi Sundowns</t>
   </si>
   <si>
     <t>Amazulu</t>
   </si>
   <si>
-    <t>Chippa United</t>
+    <t>Polokwane City</t>
   </si>
   <si>
-    <t>Polokwane City</t>
+    <t>Chippa United</t>
   </si>
   <si>
     <t>Ajax Cape Town</t>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC152"/>
+  <dimension ref="A1:AC151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,7 +631,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -809,7 +809,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -1061,7 +1061,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6961781</v>
+        <v>6961782</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1076,37 +1076,37 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K7">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="L7">
+        <v>3.3</v>
+      </c>
+      <c r="M7">
+        <v>7</v>
+      </c>
+      <c r="N7">
+        <v>1.65</v>
+      </c>
+      <c r="O7">
         <v>3.1</v>
       </c>
-      <c r="M7">
-        <v>4</v>
-      </c>
-      <c r="N7">
-        <v>2.05</v>
-      </c>
-      <c r="O7">
-        <v>2.8</v>
-      </c>
       <c r="P7">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q7">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R7">
         <v>1.85</v>
@@ -1118,31 +1118,31 @@
         <v>2</v>
       </c>
       <c r="U7">
+        <v>1.825</v>
+      </c>
+      <c r="V7">
         <v>1.975</v>
       </c>
-      <c r="V7">
-        <v>1.825</v>
-      </c>
       <c r="W7">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB7">
         <v>-1</v>
       </c>
       <c r="AC7">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1150,7 +1150,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6961782</v>
+        <v>6961781</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1165,37 +1165,37 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K8">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="L8">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N8">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="O8">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P8">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q8">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R8">
         <v>1.85</v>
@@ -1207,31 +1207,31 @@
         <v>2</v>
       </c>
       <c r="U8">
+        <v>1.975</v>
+      </c>
+      <c r="V8">
         <v>1.825</v>
       </c>
-      <c r="V8">
-        <v>1.975</v>
-      </c>
       <c r="W8">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X8">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA8">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
         <v>-1</v>
       </c>
       <c r="AC8">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1254,7 +1254,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7007757</v>
+        <v>7007756</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1521,73 +1521,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K12">
-        <v>1.65</v>
+        <v>2.625</v>
       </c>
       <c r="L12">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M12">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="N12">
-        <v>1.45</v>
+        <v>2.625</v>
       </c>
       <c r="O12">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="P12">
-        <v>6.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S12">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T12">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U12">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V12">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W12">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB12">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1595,7 +1595,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7007756</v>
+        <v>7007757</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1610,73 +1610,73 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K13">
-        <v>2.625</v>
+        <v>1.65</v>
       </c>
       <c r="L13">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M13">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="N13">
-        <v>2.625</v>
+        <v>1.45</v>
       </c>
       <c r="O13">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="P13">
-        <v>2.625</v>
+        <v>6.5</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R13">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S13">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T13">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U13">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V13">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA13">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC13">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1773,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7007760</v>
+        <v>7007759</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1788,73 +1788,73 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K15">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M15">
+        <v>2.25</v>
+      </c>
+      <c r="N15">
+        <v>2.875</v>
+      </c>
+      <c r="O15">
         <v>3</v>
       </c>
-      <c r="N15">
-        <v>2.4</v>
-      </c>
-      <c r="O15">
-        <v>2.8</v>
-      </c>
       <c r="P15">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="Q15">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R15">
+        <v>1.725</v>
+      </c>
+      <c r="S15">
         <v>2.075</v>
       </c>
-      <c r="S15">
-        <v>1.725</v>
-      </c>
       <c r="T15">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U15">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V15">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X15">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-0.5</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA15">
-        <v>0.3625</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
         <v>-1</v>
       </c>
       <c r="AC15">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1862,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7007759</v>
+        <v>7007760</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1877,73 +1877,73 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K16">
+        <v>2.4</v>
+      </c>
+      <c r="L16">
+        <v>2.9</v>
+      </c>
+      <c r="M16">
         <v>3</v>
       </c>
-      <c r="L16">
-        <v>3.1</v>
-      </c>
-      <c r="M16">
-        <v>2.25</v>
-      </c>
       <c r="N16">
-        <v>2.875</v>
+        <v>2.4</v>
       </c>
       <c r="O16">
+        <v>2.8</v>
+      </c>
+      <c r="P16">
         <v>3</v>
       </c>
-      <c r="P16">
-        <v>2.45</v>
-      </c>
       <c r="Q16">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R16">
+        <v>2.075</v>
+      </c>
+      <c r="S16">
         <v>1.725</v>
       </c>
-      <c r="S16">
-        <v>2.075</v>
-      </c>
       <c r="T16">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U16">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V16">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W16">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.7250000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
       <c r="AB16">
         <v>-1</v>
       </c>
       <c r="AC16">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2052,7 +2052,7 @@
         <v>45153.5</v>
       </c>
       <c r="F18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G18" t="s">
         <v>31</v>
@@ -2141,7 +2141,7 @@
         <v>45153.60416666666</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G19" t="s">
         <v>38</v>
@@ -2233,7 +2233,7 @@
         <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2497,7 +2497,7 @@
         <v>45157.41666666666</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G23" t="s">
         <v>44</v>
@@ -2675,10 +2675,10 @@
         <v>45157.625</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2764,10 +2764,10 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" t="s">
         <v>34</v>
-      </c>
-      <c r="G26" t="s">
-        <v>35</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -2856,7 +2856,7 @@
         <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>44</v>
       </c>
       <c r="G29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3123,7 +3123,7 @@
         <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H30">
         <v>3</v>
@@ -3209,7 +3209,7 @@
         <v>45164.52083333334</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G31" t="s">
         <v>41</v>
@@ -3390,7 +3390,7 @@
         <v>32</v>
       </c>
       <c r="G33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -3654,10 +3654,10 @@
         <v>45168.5</v>
       </c>
       <c r="F36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3731,7 +3731,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>7078409</v>
+        <v>7078411</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3743,46 +3743,46 @@
         <v>45168.60416666666</v>
       </c>
       <c r="F37" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G37" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J37" t="s">
         <v>45</v>
       </c>
       <c r="K37">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="L37">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M37">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="N37">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="O37">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="P37">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q37">
         <v>-0.25</v>
       </c>
       <c r="R37">
-        <v>1.825</v>
+        <v>2.075</v>
       </c>
       <c r="S37">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="T37">
         <v>2</v>
@@ -3800,19 +3800,19 @@
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="Z37">
         <v>-1</v>
       </c>
       <c r="AA37">
-        <v>0.9750000000000001</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB37">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC37">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3835,7 +3835,7 @@
         <v>41</v>
       </c>
       <c r="G38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -3921,7 +3921,7 @@
         <v>45168.60416666666</v>
       </c>
       <c r="F39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G39" t="s">
         <v>44</v>
@@ -3998,7 +3998,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7078410</v>
+        <v>7078409</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4010,49 +4010,49 @@
         <v>45168.60416666666</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G40" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J40" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K40">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="L40">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M40">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="N40">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="O40">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="P40">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R40">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S40">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T40">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U40">
         <v>2.025</v>
@@ -4064,22 +4064,22 @@
         <v>-1</v>
       </c>
       <c r="X40">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z40">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB40">
-        <v>0.5125</v>
+        <v>1.025</v>
       </c>
       <c r="AC40">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4087,7 +4087,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7078411</v>
+        <v>7078410</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4099,49 +4099,49 @@
         <v>45168.60416666666</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G41" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K41">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="L41">
         <v>3.1</v>
       </c>
       <c r="M41">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="N41">
+        <v>3</v>
+      </c>
+      <c r="O41">
+        <v>2.875</v>
+      </c>
+      <c r="P41">
         <v>2.4</v>
       </c>
-      <c r="O41">
-        <v>2.75</v>
-      </c>
-      <c r="P41">
-        <v>3</v>
-      </c>
       <c r="Q41">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R41">
-        <v>2.075</v>
+        <v>2.05</v>
       </c>
       <c r="S41">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="T41">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U41">
         <v>2.025</v>
@@ -4153,22 +4153,22 @@
         <v>-1</v>
       </c>
       <c r="X41">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y41">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA41">
-        <v>0.7250000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB41">
-        <v>0</v>
+        <v>0.5125</v>
       </c>
       <c r="AC41">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4188,7 +4188,7 @@
         <v>45184.60416666666</v>
       </c>
       <c r="F42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G42" t="s">
         <v>37</v>
@@ -4366,7 +4366,7 @@
         <v>45185.52083333334</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G44" t="s">
         <v>32</v>
@@ -4532,7 +4532,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7169683</v>
+        <v>7169682</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4544,13 +4544,13 @@
         <v>45188.60416666666</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G46" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46">
         <v>2</v>
@@ -4559,40 +4559,40 @@
         <v>45</v>
       </c>
       <c r="K46">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="L46">
         <v>2.9</v>
       </c>
       <c r="M46">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="N46">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="O46">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="P46">
         <v>3</v>
       </c>
       <c r="Q46">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R46">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S46">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T46">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U46">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V46">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W46">
         <v>-1</v>
@@ -4607,13 +4607,13 @@
         <v>-1</v>
       </c>
       <c r="AA46">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB46">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC46">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4621,7 +4621,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7169682</v>
+        <v>7169681</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4633,10 +4633,10 @@
         <v>45188.60416666666</v>
       </c>
       <c r="F47" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G47" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4648,41 +4648,41 @@
         <v>45</v>
       </c>
       <c r="K47">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="L47">
+        <v>3.2</v>
+      </c>
+      <c r="M47">
+        <v>1.909</v>
+      </c>
+      <c r="N47">
+        <v>2.875</v>
+      </c>
+      <c r="O47">
         <v>2.9</v>
       </c>
-      <c r="M47">
-        <v>2.75</v>
-      </c>
-      <c r="N47">
-        <v>2.5</v>
-      </c>
-      <c r="O47">
-        <v>2.7</v>
-      </c>
       <c r="P47">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R47">
+        <v>1.725</v>
+      </c>
+      <c r="S47">
+        <v>2.075</v>
+      </c>
+      <c r="T47">
+        <v>2.25</v>
+      </c>
+      <c r="U47">
+        <v>2.025</v>
+      </c>
+      <c r="V47">
         <v>1.775</v>
       </c>
-      <c r="S47">
-        <v>2.025</v>
-      </c>
-      <c r="T47">
-        <v>1.75</v>
-      </c>
-      <c r="U47">
-        <v>1.925</v>
-      </c>
-      <c r="V47">
-        <v>1.875</v>
-      </c>
       <c r="W47">
         <v>-1</v>
       </c>
@@ -4690,16 +4690,16 @@
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>2</v>
+        <v>1.375</v>
       </c>
       <c r="Z47">
         <v>-1</v>
       </c>
       <c r="AA47">
+        <v>1.075</v>
+      </c>
+      <c r="AB47">
         <v>1.025</v>
-      </c>
-      <c r="AB47">
-        <v>0.925</v>
       </c>
       <c r="AC47">
         <v>-1</v>
@@ -4710,7 +4710,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>7169681</v>
+        <v>7169683</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4722,13 +4722,13 @@
         <v>45188.60416666666</v>
       </c>
       <c r="F48" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G48" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48">
         <v>2</v>
@@ -4737,34 +4737,34 @@
         <v>45</v>
       </c>
       <c r="K48">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="L48">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M48">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="N48">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="O48">
         <v>2.9</v>
       </c>
       <c r="P48">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="Q48">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R48">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="S48">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="T48">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U48">
         <v>2.025</v>
@@ -4779,19 +4779,19 @@
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>1.375</v>
+        <v>2</v>
       </c>
       <c r="Z48">
         <v>-1</v>
       </c>
       <c r="AA48">
-        <v>1.075</v>
+        <v>0.8</v>
       </c>
       <c r="AB48">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4811,7 +4811,7 @@
         <v>45189.60416666666</v>
       </c>
       <c r="F49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G49" t="s">
         <v>36</v>
@@ -4888,7 +4888,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7170833</v>
+        <v>7169684</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4900,10 +4900,10 @@
         <v>45189.60416666666</v>
       </c>
       <c r="F50" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G50" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -4915,25 +4915,25 @@
         <v>45</v>
       </c>
       <c r="K50">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="L50">
         <v>2.875</v>
       </c>
       <c r="M50">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="N50">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="O50">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="P50">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="Q50">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R50">
         <v>1.925</v>
@@ -4942,13 +4942,13 @@
         <v>1.875</v>
       </c>
       <c r="T50">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U50">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V50">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W50">
         <v>-1</v>
@@ -4957,7 +4957,7 @@
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>1.1</v>
+        <v>1.625</v>
       </c>
       <c r="Z50">
         <v>-1</v>
@@ -4969,7 +4969,7 @@
         <v>-1</v>
       </c>
       <c r="AC50">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4977,7 +4977,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>7169685</v>
+        <v>7170833</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4989,76 +4989,76 @@
         <v>45189.60416666666</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G51" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
         <v>1</v>
       </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
       <c r="J51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K51">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="L51">
+        <v>2.875</v>
+      </c>
+      <c r="M51">
+        <v>2.5</v>
+      </c>
+      <c r="N51">
+        <v>3.4</v>
+      </c>
+      <c r="O51">
         <v>2.9</v>
       </c>
-      <c r="M51">
-        <v>3.75</v>
-      </c>
-      <c r="N51">
-        <v>1.909</v>
-      </c>
-      <c r="O51">
-        <v>2.875</v>
-      </c>
       <c r="P51">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q51">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R51">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S51">
+        <v>1.875</v>
+      </c>
+      <c r="T51">
+        <v>2</v>
+      </c>
+      <c r="U51">
         <v>1.8</v>
       </c>
-      <c r="T51">
-        <v>1.75</v>
-      </c>
-      <c r="U51">
-        <v>1.75</v>
-      </c>
       <c r="V51">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W51">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z51">
+        <v>-1</v>
+      </c>
+      <c r="AA51">
+        <v>0.875</v>
+      </c>
+      <c r="AB51">
+        <v>-1</v>
+      </c>
+      <c r="AC51">
         <v>1</v>
-      </c>
-      <c r="AA51">
-        <v>-1</v>
-      </c>
-      <c r="AB51">
-        <v>-1</v>
-      </c>
-      <c r="AC51">
-        <v>1.05</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5066,7 +5066,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>7169684</v>
+        <v>7169685</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5078,76 +5078,76 @@
         <v>45189.60416666666</v>
       </c>
       <c r="F52" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G52" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K52">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="L52">
+        <v>2.9</v>
+      </c>
+      <c r="M52">
+        <v>3.75</v>
+      </c>
+      <c r="N52">
+        <v>1.909</v>
+      </c>
+      <c r="O52">
         <v>2.875</v>
       </c>
-      <c r="M52">
-        <v>2.875</v>
-      </c>
-      <c r="N52">
-        <v>2.7</v>
-      </c>
-      <c r="O52">
-        <v>2.7</v>
-      </c>
       <c r="P52">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R52">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S52">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T52">
         <v>1.75</v>
       </c>
       <c r="U52">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V52">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W52">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA52">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
         <v>-1</v>
       </c>
       <c r="AC52">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5167,7 +5167,7 @@
         <v>45194.41666666666</v>
       </c>
       <c r="F53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G53" t="s">
         <v>41</v>
@@ -5256,7 +5256,7 @@
         <v>45195.60416666666</v>
       </c>
       <c r="F54" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G54" t="s">
         <v>30</v>
@@ -5333,7 +5333,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7234870</v>
+        <v>7234871</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5345,13 +5345,13 @@
         <v>45196.60416666666</v>
       </c>
       <c r="F55" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G55" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I55">
         <v>1</v>
@@ -5360,43 +5360,43 @@
         <v>46</v>
       </c>
       <c r="K55">
-        <v>1.333</v>
+        <v>1.85</v>
       </c>
       <c r="L55">
+        <v>3.1</v>
+      </c>
+      <c r="M55">
         <v>4.333</v>
       </c>
-      <c r="M55">
-        <v>8.5</v>
-      </c>
       <c r="N55">
-        <v>1.363</v>
+        <v>2.05</v>
       </c>
       <c r="O55">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="P55">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="Q55">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R55">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S55">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T55">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U55">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V55">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="W55">
-        <v>0.363</v>
+        <v>1.05</v>
       </c>
       <c r="X55">
         <v>-1</v>
@@ -5405,13 +5405,13 @@
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA55">
         <v>-1</v>
       </c>
       <c r="AB55">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AC55">
         <v>-1</v>
@@ -5422,7 +5422,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7234871</v>
+        <v>7234870</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5434,13 +5434,13 @@
         <v>45196.60416666666</v>
       </c>
       <c r="F56" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G56" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I56">
         <v>1</v>
@@ -5449,43 +5449,43 @@
         <v>46</v>
       </c>
       <c r="K56">
+        <v>1.333</v>
+      </c>
+      <c r="L56">
+        <v>4.333</v>
+      </c>
+      <c r="M56">
+        <v>8.5</v>
+      </c>
+      <c r="N56">
+        <v>1.363</v>
+      </c>
+      <c r="O56">
+        <v>4.2</v>
+      </c>
+      <c r="P56">
+        <v>8.5</v>
+      </c>
+      <c r="Q56">
+        <v>-1.25</v>
+      </c>
+      <c r="R56">
         <v>1.85</v>
       </c>
-      <c r="L56">
-        <v>3.1</v>
-      </c>
-      <c r="M56">
-        <v>4.333</v>
-      </c>
-      <c r="N56">
-        <v>2.05</v>
-      </c>
-      <c r="O56">
-        <v>2.875</v>
-      </c>
-      <c r="P56">
-        <v>4</v>
-      </c>
-      <c r="Q56">
-        <v>-0.5</v>
-      </c>
-      <c r="R56">
-        <v>2</v>
-      </c>
       <c r="S56">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T56">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U56">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V56">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="W56">
-        <v>1.05</v>
+        <v>0.363</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5494,13 +5494,13 @@
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA56">
         <v>-1</v>
       </c>
       <c r="AB56">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AC56">
         <v>-1</v>
@@ -5523,7 +5523,7 @@
         <v>45198.60416666666</v>
       </c>
       <c r="F57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G57" t="s">
         <v>41</v>
@@ -5701,7 +5701,7 @@
         <v>45199.52083333334</v>
       </c>
       <c r="F59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G59" t="s">
         <v>32</v>
@@ -5790,7 +5790,7 @@
         <v>45200.4375</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G60" t="s">
         <v>37</v>
@@ -5879,7 +5879,7 @@
         <v>45202.60416666666</v>
       </c>
       <c r="F61" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G61" t="s">
         <v>36</v>
@@ -5968,10 +5968,10 @@
         <v>45203.5</v>
       </c>
       <c r="F62" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G62" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -6045,7 +6045,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7267513</v>
+        <v>7267510</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6057,76 +6057,76 @@
         <v>45203.60416666666</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G63" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K63">
-        <v>2.55</v>
+        <v>2.35</v>
       </c>
       <c r="L63">
         <v>2.875</v>
       </c>
       <c r="M63">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="N63">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O63">
         <v>2.875</v>
       </c>
       <c r="P63">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q63">
         <v>-0.25</v>
       </c>
       <c r="R63">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S63">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T63">
         <v>2</v>
       </c>
       <c r="U63">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V63">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA63">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC63">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6134,7 +6134,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7267510</v>
+        <v>7267513</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6146,76 +6146,76 @@
         <v>45203.60416666666</v>
       </c>
       <c r="F64" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G64" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H64">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K64">
-        <v>2.35</v>
+        <v>2.55</v>
       </c>
       <c r="L64">
         <v>2.875</v>
       </c>
       <c r="M64">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="N64">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O64">
         <v>2.875</v>
       </c>
       <c r="P64">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q64">
         <v>-0.25</v>
       </c>
       <c r="R64">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S64">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T64">
         <v>2</v>
       </c>
       <c r="U64">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V64">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W64">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z64">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB64">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC64">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6416,7 +6416,7 @@
         <v>29</v>
       </c>
       <c r="G67" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6683,7 +6683,7 @@
         <v>38</v>
       </c>
       <c r="G70" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -6772,7 +6772,7 @@
         <v>31</v>
       </c>
       <c r="G71" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H71">
         <v>2</v>
@@ -6858,7 +6858,7 @@
         <v>45227.53125</v>
       </c>
       <c r="F72" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G72" t="s">
         <v>41</v>
@@ -7291,7 +7291,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>7404431</v>
+        <v>7404430</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7303,10 +7303,10 @@
         <v>45237.60416666666</v>
       </c>
       <c r="F77" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G77" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H77">
         <v>2</v>
@@ -7318,43 +7318,43 @@
         <v>46</v>
       </c>
       <c r="K77">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="L77">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M77">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="N77">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O77">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P77">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q77">
         <v>-0.5</v>
       </c>
       <c r="R77">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S77">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T77">
         <v>2</v>
       </c>
       <c r="U77">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V77">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W77">
-        <v>0.909</v>
+        <v>0.8</v>
       </c>
       <c r="X77">
         <v>-1</v>
@@ -7363,13 +7363,13 @@
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA77">
         <v>-1</v>
       </c>
       <c r="AB77">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC77">
         <v>-1</v>
@@ -7380,7 +7380,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7404430</v>
+        <v>7404431</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7392,10 +7392,10 @@
         <v>45237.60416666666</v>
       </c>
       <c r="F78" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G78" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H78">
         <v>2</v>
@@ -7407,43 +7407,43 @@
         <v>46</v>
       </c>
       <c r="K78">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="L78">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M78">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="N78">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O78">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P78">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q78">
         <v>-0.5</v>
       </c>
       <c r="R78">
+        <v>2</v>
+      </c>
+      <c r="S78">
         <v>1.8</v>
       </c>
-      <c r="S78">
-        <v>2</v>
-      </c>
       <c r="T78">
         <v>2</v>
       </c>
       <c r="U78">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V78">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W78">
-        <v>0.8</v>
+        <v>0.909</v>
       </c>
       <c r="X78">
         <v>-1</v>
@@ -7452,13 +7452,13 @@
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA78">
         <v>-1</v>
       </c>
       <c r="AB78">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC78">
         <v>-1</v>
@@ -7481,10 +7481,10 @@
         <v>45238.60416666666</v>
       </c>
       <c r="F79" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -7558,7 +7558,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>7404434</v>
+        <v>7404433</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7570,76 +7570,76 @@
         <v>45238.60416666666</v>
       </c>
       <c r="F80" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G80" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K80">
-        <v>2.6</v>
+        <v>1.533</v>
       </c>
       <c r="L80">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="M80">
-        <v>2.6</v>
+        <v>5.75</v>
       </c>
       <c r="N80">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
       <c r="O80">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="P80">
+        <v>6</v>
+      </c>
+      <c r="Q80">
+        <v>-1</v>
+      </c>
+      <c r="R80">
+        <v>1.8</v>
+      </c>
+      <c r="S80">
+        <v>2</v>
+      </c>
+      <c r="T80">
         <v>2.25</v>
       </c>
-      <c r="Q80">
-        <v>0.25</v>
-      </c>
-      <c r="R80">
+      <c r="U80">
         <v>1.85</v>
       </c>
-      <c r="S80">
+      <c r="V80">
         <v>1.95</v>
       </c>
-      <c r="T80">
-        <v>2</v>
-      </c>
-      <c r="U80">
-        <v>1.95</v>
-      </c>
-      <c r="V80">
-        <v>1.85</v>
-      </c>
       <c r="W80">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X80">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y80">
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="AA80">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB80">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC80">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7647,7 +7647,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>7404433</v>
+        <v>7404434</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7659,76 +7659,76 @@
         <v>45238.60416666666</v>
       </c>
       <c r="F81" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G81" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81" t="s">
+        <v>47</v>
+      </c>
+      <c r="K81">
+        <v>2.6</v>
+      </c>
+      <c r="L81">
         <v>3</v>
       </c>
-      <c r="I81">
-        <v>2</v>
-      </c>
-      <c r="J81" t="s">
-        <v>46</v>
-      </c>
-      <c r="K81">
-        <v>1.533</v>
-      </c>
-      <c r="L81">
-        <v>3.8</v>
-      </c>
       <c r="M81">
-        <v>5.75</v>
+        <v>2.6</v>
       </c>
       <c r="N81">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="O81">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="P81">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="Q81">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R81">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S81">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T81">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U81">
+        <v>1.95</v>
+      </c>
+      <c r="V81">
         <v>1.85</v>
       </c>
-      <c r="V81">
-        <v>1.95</v>
-      </c>
       <c r="W81">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X81">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AA81">
+        <v>-0.5</v>
+      </c>
+      <c r="AB81">
+        <v>0</v>
+      </c>
+      <c r="AC81">
         <v>-0</v>
-      </c>
-      <c r="AB81">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC81">
-        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7825,7 +7825,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7404437</v>
+        <v>7404438</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7837,76 +7837,76 @@
         <v>45241.4375</v>
       </c>
       <c r="F83" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G83" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H83">
         <v>0</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K83">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L83">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M83">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="N83">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O83">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="P83">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q83">
         <v>0</v>
       </c>
       <c r="R83">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S83">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T83">
         <v>2</v>
       </c>
       <c r="U83">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V83">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z83">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB83">
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7914,7 +7914,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>7404438</v>
+        <v>7404437</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7926,76 +7926,76 @@
         <v>45241.4375</v>
       </c>
       <c r="F84" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G84" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H84">
         <v>0</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K84">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L84">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M84">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="N84">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O84">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="P84">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="Q84">
         <v>0</v>
       </c>
       <c r="R84">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S84">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T84">
         <v>2</v>
       </c>
       <c r="U84">
+        <v>1.85</v>
+      </c>
+      <c r="V84">
+        <v>1.95</v>
+      </c>
+      <c r="W84">
+        <v>-1</v>
+      </c>
+      <c r="X84">
         <v>1.875</v>
       </c>
-      <c r="V84">
-        <v>1.925</v>
-      </c>
-      <c r="W84">
-        <v>-1</v>
-      </c>
-      <c r="X84">
-        <v>-1</v>
-      </c>
       <c r="Y84">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA84">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB84">
         <v>-1</v>
       </c>
       <c r="AC84">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8015,7 +8015,7 @@
         <v>45241.625</v>
       </c>
       <c r="F85" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G85" t="s">
         <v>33</v>
@@ -8359,7 +8359,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7404445</v>
+        <v>7404444</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8371,76 +8371,76 @@
         <v>45255.4375</v>
       </c>
       <c r="F89" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G89" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H89">
         <v>0</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K89">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="L89">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M89">
-        <v>1.65</v>
+        <v>3.25</v>
       </c>
       <c r="N89">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="O89">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="P89">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="Q89">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R89">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S89">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T89">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U89">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V89">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W89">
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z89">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8448,7 +8448,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7404444</v>
+        <v>7404445</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8460,76 +8460,76 @@
         <v>45255.4375</v>
       </c>
       <c r="F90" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G90" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H90">
         <v>0</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K90">
+        <v>5.25</v>
+      </c>
+      <c r="L90">
+        <v>3.4</v>
+      </c>
+      <c r="M90">
+        <v>1.65</v>
+      </c>
+      <c r="N90">
+        <v>4.2</v>
+      </c>
+      <c r="O90">
+        <v>3.2</v>
+      </c>
+      <c r="P90">
+        <v>1.85</v>
+      </c>
+      <c r="Q90">
+        <v>0.5</v>
+      </c>
+      <c r="R90">
+        <v>1.9</v>
+      </c>
+      <c r="S90">
+        <v>1.9</v>
+      </c>
+      <c r="T90">
+        <v>2</v>
+      </c>
+      <c r="U90">
+        <v>1.925</v>
+      </c>
+      <c r="V90">
+        <v>1.875</v>
+      </c>
+      <c r="W90">
+        <v>-1</v>
+      </c>
+      <c r="X90">
         <v>2.2</v>
       </c>
-      <c r="L90">
-        <v>3</v>
-      </c>
-      <c r="M90">
-        <v>3.25</v>
-      </c>
-      <c r="N90">
-        <v>2.7</v>
-      </c>
-      <c r="O90">
-        <v>2.8</v>
-      </c>
-      <c r="P90">
-        <v>2.75</v>
-      </c>
-      <c r="Q90">
-        <v>0</v>
-      </c>
-      <c r="R90">
-        <v>1.875</v>
-      </c>
-      <c r="S90">
-        <v>1.925</v>
-      </c>
-      <c r="T90">
-        <v>1.75</v>
-      </c>
-      <c r="U90">
-        <v>1.775</v>
-      </c>
-      <c r="V90">
-        <v>2.025</v>
-      </c>
-      <c r="W90">
-        <v>-1</v>
-      </c>
-      <c r="X90">
-        <v>-1</v>
-      </c>
       <c r="Y90">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA90">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
         <v>-1</v>
       </c>
       <c r="AC90">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8638,10 +8638,10 @@
         <v>45256.4375</v>
       </c>
       <c r="F92" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G92" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -8727,10 +8727,10 @@
         <v>45256.4375</v>
       </c>
       <c r="F93" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G93" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H93">
         <v>3</v>
@@ -8997,7 +8997,7 @@
         <v>30</v>
       </c>
       <c r="G96" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>38</v>
       </c>
       <c r="G97" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H97">
         <v>2</v>
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7512821</v>
+        <v>7448508</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,76 +9172,76 @@
         <v>45266.60416666666</v>
       </c>
       <c r="F98" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G98" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K98">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="L98">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="M98">
-        <v>3.2</v>
+        <v>1.65</v>
       </c>
       <c r="N98">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="O98">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="P98">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q98">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R98">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S98">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T98">
+        <v>2</v>
+      </c>
+      <c r="U98">
         <v>1.75</v>
       </c>
-      <c r="U98">
-        <v>1.9</v>
-      </c>
       <c r="V98">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W98">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z98">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB98">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9249,7 +9249,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7448508</v>
+        <v>7512821</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9261,76 +9261,76 @@
         <v>45266.60416666666</v>
       </c>
       <c r="F99" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G99" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K99">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="L99">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="M99">
-        <v>1.65</v>
+        <v>3.2</v>
       </c>
       <c r="N99">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="O99">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="P99">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q99">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R99">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S99">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T99">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U99">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V99">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA99">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC99">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9439,10 +9439,10 @@
         <v>45269.4375</v>
       </c>
       <c r="F101" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G101" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>45269.53125</v>
       </c>
       <c r="F102" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G102" t="s">
         <v>31</v>
@@ -9620,7 +9620,7 @@
         <v>38</v>
       </c>
       <c r="G103" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9884,7 +9884,7 @@
         <v>45273.60416666666</v>
       </c>
       <c r="F106" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G106" t="s">
         <v>44</v>
@@ -9973,7 +9973,7 @@
         <v>45275.4375</v>
       </c>
       <c r="F107" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G107" t="s">
         <v>30</v>
@@ -10228,7 +10228,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7477992</v>
+        <v>7477991</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10240,76 +10240,76 @@
         <v>45283.4375</v>
       </c>
       <c r="F110" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G110" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K110">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="L110">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M110">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="N110">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="O110">
         <v>2.9</v>
       </c>
       <c r="P110">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="Q110">
         <v>0</v>
       </c>
       <c r="R110">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S110">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T110">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U110">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V110">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W110">
         <v>-1</v>
       </c>
       <c r="X110">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y110">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA110">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB110">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC110">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10317,7 +10317,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7478004</v>
+        <v>7477992</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10329,46 +10329,46 @@
         <v>45283.4375</v>
       </c>
       <c r="F111" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G111" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H111">
         <v>1</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J111" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K111">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="L111">
         <v>3</v>
       </c>
       <c r="M111">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N111">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="O111">
+        <v>2.9</v>
+      </c>
+      <c r="P111">
         <v>3</v>
       </c>
-      <c r="P111">
-        <v>4.75</v>
-      </c>
       <c r="Q111">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R111">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S111">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T111">
         <v>1.75</v>
@@ -10380,25 +10380,25 @@
         <v>2.05</v>
       </c>
       <c r="W111">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z111">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB111">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC111">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10421,7 +10421,7 @@
         <v>31</v>
       </c>
       <c r="G112" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -10495,7 +10495,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7477991</v>
+        <v>7478004</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10507,76 +10507,76 @@
         <v>45283.4375</v>
       </c>
       <c r="F113" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G113" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113">
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K113">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="L113">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M113">
-        <v>2.625</v>
+        <v>5</v>
       </c>
       <c r="N113">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="O113">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P113">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="Q113">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R113">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S113">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T113">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U113">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V113">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W113">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X113">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y113">
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA113">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
         <v>-1</v>
       </c>
       <c r="AC113">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10688,7 +10688,7 @@
         <v>36</v>
       </c>
       <c r="G115" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -10952,10 +10952,10 @@
         <v>45290.4375</v>
       </c>
       <c r="F118" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G118" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H118">
         <v>2</v>
@@ -11130,10 +11130,10 @@
         <v>45290.53125</v>
       </c>
       <c r="F120" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G120" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -11222,7 +11222,7 @@
         <v>29</v>
       </c>
       <c r="G121" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -11486,7 +11486,7 @@
         <v>45339.4375</v>
       </c>
       <c r="F124" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G124" t="s">
         <v>36</v>
@@ -11575,10 +11575,10 @@
         <v>45339.4375</v>
       </c>
       <c r="F125" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G125" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H125">
         <v>0</v>
@@ -11842,7 +11842,7 @@
         <v>45339.625</v>
       </c>
       <c r="F128" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G128" t="s">
         <v>38</v>
@@ -11934,7 +11934,7 @@
         <v>32</v>
       </c>
       <c r="G129" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -12020,7 +12020,7 @@
         <v>45340.53125</v>
       </c>
       <c r="F130" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G130" t="s">
         <v>31</v>
@@ -12109,7 +12109,7 @@
         <v>45349.60416666666</v>
       </c>
       <c r="F131" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G131" t="s">
         <v>41</v>
@@ -12186,7 +12186,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7628830</v>
+        <v>7628608</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12198,76 +12198,76 @@
         <v>45350.60416666666</v>
       </c>
       <c r="F132" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G132" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132">
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K132">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L132">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M132">
+        <v>3.5</v>
+      </c>
+      <c r="N132">
+        <v>2.5</v>
+      </c>
+      <c r="O132">
         <v>3</v>
       </c>
-      <c r="N132">
-        <v>3</v>
-      </c>
-      <c r="O132">
-        <v>2.9</v>
-      </c>
       <c r="P132">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="Q132">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R132">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S132">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T132">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U132">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V132">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y132">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA132">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC132">
-        <v>0.925</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12275,7 +12275,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7628608</v>
+        <v>7628830</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12287,76 +12287,76 @@
         <v>45350.60416666666</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G133" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133">
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K133">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="L133">
+        <v>2.9</v>
+      </c>
+      <c r="M133">
         <v>3</v>
       </c>
-      <c r="M133">
-        <v>3.5</v>
-      </c>
       <c r="N133">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="O133">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P133">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q133">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R133">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S133">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T133">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U133">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V133">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z133">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB133">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12379,7 +12379,7 @@
         <v>33</v>
       </c>
       <c r="G134" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H134">
         <v>1</v>
@@ -12465,7 +12465,7 @@
         <v>45353.4375</v>
       </c>
       <c r="F135" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G135" t="s">
         <v>38</v>
@@ -12554,10 +12554,10 @@
         <v>45353.53125</v>
       </c>
       <c r="F136" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G136" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -12735,7 +12735,7 @@
         <v>44</v>
       </c>
       <c r="G138" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H138">
         <v>2</v>
@@ -12809,7 +12809,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7628936</v>
+        <v>7628935</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12821,76 +12821,76 @@
         <v>45356.60416666666</v>
       </c>
       <c r="F139" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G139" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139">
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K139">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="L139">
+        <v>3.2</v>
+      </c>
+      <c r="M139">
+        <v>4.75</v>
+      </c>
+      <c r="N139">
+        <v>1.8</v>
+      </c>
+      <c r="O139">
         <v>3</v>
       </c>
-      <c r="M139">
-        <v>4</v>
-      </c>
-      <c r="N139">
-        <v>2.45</v>
-      </c>
-      <c r="O139">
-        <v>2.8</v>
-      </c>
       <c r="P139">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="Q139">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R139">
+        <v>1.85</v>
+      </c>
+      <c r="S139">
+        <v>1.95</v>
+      </c>
+      <c r="T139">
         <v>1.75</v>
       </c>
-      <c r="S139">
-        <v>2.05</v>
-      </c>
-      <c r="T139">
-        <v>2</v>
-      </c>
       <c r="U139">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V139">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W139">
         <v>-1</v>
       </c>
       <c r="X139">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y139">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
         <v>-1</v>
       </c>
       <c r="AA139">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AB139">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC139">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12898,7 +12898,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7628935</v>
+        <v>7628937</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12910,49 +12910,49 @@
         <v>45356.60416666666</v>
       </c>
       <c r="F140" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G140" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H140">
         <v>1</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K140">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="L140">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M140">
         <v>4.75</v>
       </c>
       <c r="N140">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="O140">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P140">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q140">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R140">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S140">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T140">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U140">
         <v>1.85</v>
@@ -12961,25 +12961,25 @@
         <v>1.95</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X140">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA140">
+        <v>-0.5</v>
+      </c>
+      <c r="AB140">
+        <v>-1</v>
+      </c>
+      <c r="AC140">
         <v>0.95</v>
-      </c>
-      <c r="AB140">
-        <v>0.425</v>
-      </c>
-      <c r="AC140">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12987,7 +12987,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7628937</v>
+        <v>7628936</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12999,76 +12999,76 @@
         <v>45356.60416666666</v>
       </c>
       <c r="F141" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G141" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
         <v>1</v>
       </c>
-      <c r="I141">
-        <v>0</v>
-      </c>
       <c r="J141" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K141">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="L141">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M141">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N141">
-        <v>1.615</v>
+        <v>2.45</v>
       </c>
       <c r="O141">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="P141">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q141">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R141">
+        <v>1.75</v>
+      </c>
+      <c r="S141">
+        <v>2.05</v>
+      </c>
+      <c r="T141">
+        <v>2</v>
+      </c>
+      <c r="U141">
+        <v>1.975</v>
+      </c>
+      <c r="V141">
         <v>1.825</v>
       </c>
-      <c r="S141">
-        <v>1.975</v>
-      </c>
-      <c r="T141">
-        <v>2</v>
-      </c>
-      <c r="U141">
-        <v>1.85</v>
-      </c>
-      <c r="V141">
-        <v>1.95</v>
-      </c>
       <c r="W141">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z141">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB141">
         <v>-1</v>
       </c>
       <c r="AC141">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13076,7 +13076,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7628833</v>
+        <v>7628938</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13088,13 +13088,13 @@
         <v>45357.60416666666</v>
       </c>
       <c r="F142" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G142" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I142">
         <v>0</v>
@@ -13103,43 +13103,43 @@
         <v>46</v>
       </c>
       <c r="K142">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="L142">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M142">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="N142">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="O142">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="P142">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q142">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R142">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S142">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T142">
         <v>2</v>
       </c>
       <c r="U142">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V142">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W142">
-        <v>0.8500000000000001</v>
+        <v>1.25</v>
       </c>
       <c r="X142">
         <v>-1</v>
@@ -13148,16 +13148,16 @@
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA142">
         <v>-1</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC142">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13254,7 +13254,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7628938</v>
+        <v>7628833</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13266,13 +13266,13 @@
         <v>45357.60416666666</v>
       </c>
       <c r="F144" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G144" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H144">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I144">
         <v>0</v>
@@ -13281,43 +13281,43 @@
         <v>46</v>
       </c>
       <c r="K144">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="L144">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M144">
+        <v>4.2</v>
+      </c>
+      <c r="N144">
+        <v>1.85</v>
+      </c>
+      <c r="O144">
         <v>3.1</v>
       </c>
-      <c r="N144">
-        <v>2.25</v>
-      </c>
-      <c r="O144">
-        <v>2.75</v>
-      </c>
       <c r="P144">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q144">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R144">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S144">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T144">
         <v>2</v>
       </c>
       <c r="U144">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V144">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W144">
-        <v>1.25</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X144">
         <v>-1</v>
@@ -13326,16 +13326,16 @@
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA144">
         <v>-1</v>
       </c>
       <c r="AB144">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="145" spans="1:27">
@@ -13343,7 +13343,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7628929</v>
+        <v>7628831</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13352,40 +13352,40 @@
         <v>28</v>
       </c>
       <c r="E145" s="2">
-        <v>45360.4375</v>
+        <v>45360.52083333334</v>
       </c>
       <c r="F145" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G145" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="K145">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="L145">
         <v>3</v>
       </c>
       <c r="M145">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="N145">
         <v>1.833</v>
       </c>
       <c r="O145">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P145">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q145">
         <v>-0.5</v>
       </c>
       <c r="R145">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S145">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T145">
         <v>2</v>
@@ -13417,7 +13417,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7628831</v>
+        <v>7628832</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13429,46 +13429,46 @@
         <v>45360.52083333334</v>
       </c>
       <c r="F146" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G146" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="K146">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="L146">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M146">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="N146">
-        <v>1.833</v>
+        <v>3.1</v>
       </c>
       <c r="O146">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="P146">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="Q146">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R146">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="S146">
-        <v>1.95</v>
+        <v>2.075</v>
       </c>
       <c r="T146">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U146">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V146">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W146">
         <v>0</v>
@@ -13491,7 +13491,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7628832</v>
+        <v>7628931</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13503,46 +13503,46 @@
         <v>45360.52083333334</v>
       </c>
       <c r="F147" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G147" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="K147">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="L147">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="M147">
-        <v>2.6</v>
+        <v>6.5</v>
       </c>
       <c r="N147">
-        <v>2.9</v>
+        <v>1.55</v>
       </c>
       <c r="O147">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="P147">
-        <v>2.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q147">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R147">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S147">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T147">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U147">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V147">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W147">
         <v>0</v>
@@ -13565,7 +13565,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7628931</v>
+        <v>7628932</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13574,49 +13574,49 @@
         <v>28</v>
       </c>
       <c r="E148" s="2">
-        <v>45360.52083333334</v>
+        <v>45360.625</v>
       </c>
       <c r="F148" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G148" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K148">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="L148">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="M148">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="N148">
-        <v>1.533</v>
+        <v>3.2</v>
       </c>
       <c r="O148">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="P148">
-        <v>6</v>
+        <v>2.375</v>
       </c>
       <c r="Q148">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R148">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S148">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T148">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U148">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V148">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W148">
         <v>0</v>
@@ -13639,7 +13639,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7628932</v>
+        <v>7628930</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13651,46 +13651,46 @@
         <v>45360.625</v>
       </c>
       <c r="F149" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G149" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="K149">
-        <v>4</v>
+        <v>1.285</v>
       </c>
       <c r="L149">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="M149">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N149">
-        <v>3.4</v>
+        <v>1.285</v>
       </c>
       <c r="O149">
-        <v>2.625</v>
+        <v>4.333</v>
       </c>
       <c r="P149">
-        <v>2.25</v>
+        <v>9.5</v>
       </c>
       <c r="Q149">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R149">
+        <v>1.975</v>
+      </c>
+      <c r="S149">
         <v>1.825</v>
       </c>
-      <c r="S149">
-        <v>1.975</v>
-      </c>
       <c r="T149">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U149">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V149">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W149">
         <v>0</v>
@@ -13713,7 +13713,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7628930</v>
+        <v>7628933</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13722,43 +13722,43 @@
         <v>28</v>
       </c>
       <c r="E150" s="2">
-        <v>45360.625</v>
+        <v>45361.4375</v>
       </c>
       <c r="F150" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G150" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="K150">
-        <v>1.285</v>
+        <v>2.1</v>
       </c>
       <c r="L150">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="M150">
-        <v>9</v>
+        <v>3.4</v>
       </c>
       <c r="N150">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="O150">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="P150">
-        <v>10</v>
+        <v>3.6</v>
       </c>
       <c r="Q150">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R150">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S150">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T150">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U150">
         <v>1.875</v>
@@ -13787,7 +13787,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>7628933</v>
+        <v>7628934</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13796,50 +13796,50 @@
         <v>28</v>
       </c>
       <c r="E151" s="2">
-        <v>45361.4375</v>
+        <v>45361.53125</v>
       </c>
       <c r="F151" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G151" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="K151">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="L151">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M151">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="N151">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="O151">
         <v>2.9</v>
       </c>
       <c r="P151">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="Q151">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R151">
+        <v>1.95</v>
+      </c>
+      <c r="S151">
+        <v>1.85</v>
+      </c>
+      <c r="T151">
+        <v>2</v>
+      </c>
+      <c r="U151">
         <v>1.775</v>
       </c>
-      <c r="S151">
+      <c r="V151">
         <v>2.025</v>
       </c>
-      <c r="T151">
-        <v>2</v>
-      </c>
-      <c r="U151">
-        <v>1.875</v>
-      </c>
-      <c r="V151">
-        <v>1.925</v>
-      </c>
       <c r="W151">
         <v>0</v>
       </c>
@@ -13853,80 +13853,6 @@
         <v>0</v>
       </c>
       <c r="AA151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:27">
-      <c r="A152" s="1">
-        <v>150</v>
-      </c>
-      <c r="B152">
-        <v>7628934</v>
-      </c>
-      <c r="C152" t="s">
-        <v>28</v>
-      </c>
-      <c r="D152" t="s">
-        <v>28</v>
-      </c>
-      <c r="E152" s="2">
-        <v>45361.53125</v>
-      </c>
-      <c r="F152" t="s">
-        <v>32</v>
-      </c>
-      <c r="G152" t="s">
-        <v>36</v>
-      </c>
-      <c r="K152">
-        <v>3.5</v>
-      </c>
-      <c r="L152">
-        <v>3</v>
-      </c>
-      <c r="M152">
-        <v>2</v>
-      </c>
-      <c r="N152">
-        <v>3.6</v>
-      </c>
-      <c r="O152">
-        <v>3</v>
-      </c>
-      <c r="P152">
-        <v>1.95</v>
-      </c>
-      <c r="Q152">
-        <v>0.5</v>
-      </c>
-      <c r="R152">
-        <v>1.775</v>
-      </c>
-      <c r="S152">
-        <v>2.025</v>
-      </c>
-      <c r="T152">
-        <v>2</v>
-      </c>
-      <c r="U152">
-        <v>1.8</v>
-      </c>
-      <c r="V152">
-        <v>2</v>
-      </c>
-      <c r="W152">
-        <v>0</v>
-      </c>
-      <c r="X152">
-        <v>0</v>
-      </c>
-      <c r="Y152">
-        <v>0</v>
-      </c>
-      <c r="Z152">
-        <v>0</v>
-      </c>
-      <c r="AA152">
         <v>0</v>
       </c>
     </row>

--- a/South Africa Premier/South Africa Premier.xlsx
+++ b/South Africa Premier/South Africa Premier.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -142,13 +142,13 @@
     <t>Amazulu</t>
   </si>
   <si>
+    <t>Ajax Cape Town</t>
+  </si>
+  <si>
     <t>Polokwane City</t>
   </si>
   <si>
     <t>Chippa United</t>
-  </si>
-  <si>
-    <t>Ajax Cape Town</t>
   </si>
   <si>
     <t>A</t>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC151"/>
+  <dimension ref="A1:AC153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1076,7 +1076,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1254,7 +1254,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7007759</v>
+        <v>7007761</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1788,73 +1788,73 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K15">
         <v>3</v>
       </c>
       <c r="L15">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M15">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="N15">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="O15">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="P15">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="Q15">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S15">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="T15">
         <v>2</v>
       </c>
       <c r="U15">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V15">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W15">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z15">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC15">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1862,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7007760</v>
+        <v>7007759</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1877,73 +1877,73 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K16">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M16">
+        <v>2.25</v>
+      </c>
+      <c r="N16">
+        <v>2.875</v>
+      </c>
+      <c r="O16">
         <v>3</v>
       </c>
-      <c r="N16">
-        <v>2.4</v>
-      </c>
-      <c r="O16">
-        <v>2.8</v>
-      </c>
       <c r="P16">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="Q16">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R16">
+        <v>1.725</v>
+      </c>
+      <c r="S16">
         <v>2.075</v>
       </c>
-      <c r="S16">
-        <v>1.725</v>
-      </c>
       <c r="T16">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U16">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V16">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X16">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-0.5</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA16">
-        <v>0.3625</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
         <v>-1</v>
       </c>
       <c r="AC16">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1951,7 +1951,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7007761</v>
+        <v>7007760</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1966,73 +1966,73 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K17">
+        <v>2.4</v>
+      </c>
+      <c r="L17">
+        <v>2.9</v>
+      </c>
+      <c r="M17">
         <v>3</v>
       </c>
-      <c r="L17">
+      <c r="N17">
+        <v>2.4</v>
+      </c>
+      <c r="O17">
+        <v>2.8</v>
+      </c>
+      <c r="P17">
         <v>3</v>
       </c>
-      <c r="M17">
-        <v>2.3</v>
-      </c>
-      <c r="N17">
-        <v>2.7</v>
-      </c>
-      <c r="O17">
-        <v>2.625</v>
-      </c>
-      <c r="P17">
-        <v>2.75</v>
-      </c>
       <c r="Q17">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R17">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="S17">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="T17">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U17">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V17">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y17">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA17">
-        <v>0.8999999999999999</v>
+        <v>0.3625</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2141,7 +2141,7 @@
         <v>45153.60416666666</v>
       </c>
       <c r="F19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G19" t="s">
         <v>38</v>
@@ -2307,7 +2307,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7068224</v>
+        <v>7007762</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2319,76 +2319,76 @@
         <v>45156.60416666666</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K21">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="L21">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M21">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="N21">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="O21">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P21">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="Q21">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R21">
+        <v>1.8</v>
+      </c>
+      <c r="S21">
+        <v>2</v>
+      </c>
+      <c r="T21">
+        <v>2</v>
+      </c>
+      <c r="U21">
         <v>1.95</v>
       </c>
-      <c r="S21">
+      <c r="V21">
         <v>1.85</v>
       </c>
-      <c r="T21">
-        <v>2</v>
-      </c>
-      <c r="U21">
-        <v>2</v>
-      </c>
-      <c r="V21">
-        <v>1.8</v>
-      </c>
       <c r="W21">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z21">
+        <v>-1</v>
+      </c>
+      <c r="AA21">
+        <v>1</v>
+      </c>
+      <c r="AB21">
         <v>0.95</v>
       </c>
-      <c r="AA21">
-        <v>-1</v>
-      </c>
-      <c r="AB21">
-        <v>-1</v>
-      </c>
       <c r="AC21">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2396,7 +2396,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7007762</v>
+        <v>7068224</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2408,76 +2408,76 @@
         <v>45156.60416666666</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22">
+        <v>1.909</v>
+      </c>
+      <c r="L22">
         <v>3</v>
       </c>
-      <c r="J22" t="s">
-        <v>45</v>
-      </c>
-      <c r="K22">
-        <v>2.6</v>
-      </c>
-      <c r="L22">
-        <v>2.875</v>
-      </c>
       <c r="M22">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="N22">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="O22">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P22">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R22">
+        <v>1.95</v>
+      </c>
+      <c r="S22">
+        <v>1.85</v>
+      </c>
+      <c r="T22">
+        <v>2</v>
+      </c>
+      <c r="U22">
+        <v>2</v>
+      </c>
+      <c r="V22">
         <v>1.8</v>
       </c>
-      <c r="S22">
-        <v>2</v>
-      </c>
-      <c r="T22">
-        <v>2</v>
-      </c>
-      <c r="U22">
-        <v>1.95</v>
-      </c>
-      <c r="V22">
-        <v>1.85</v>
-      </c>
       <c r="W22">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA22">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2497,10 +2497,10 @@
         <v>45157.41666666666</v>
       </c>
       <c r="F23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" t="s">
         <v>42</v>
-      </c>
-      <c r="G23" t="s">
-        <v>44</v>
       </c>
       <c r="H23">
         <v>3</v>
@@ -2675,7 +2675,7 @@
         <v>45157.625</v>
       </c>
       <c r="F25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G25" t="s">
         <v>40</v>
@@ -3031,10 +3031,10 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F29" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" t="s">
         <v>44</v>
-      </c>
-      <c r="G29" t="s">
-        <v>43</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3123,7 +3123,7 @@
         <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H30">
         <v>3</v>
@@ -3654,7 +3654,7 @@
         <v>45168.5</v>
       </c>
       <c r="F36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G36" t="s">
         <v>40</v>
@@ -3731,7 +3731,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>7078411</v>
+        <v>7078410</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3743,49 +3743,49 @@
         <v>45168.60416666666</v>
       </c>
       <c r="F37" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G37" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K37">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="L37">
         <v>3.1</v>
       </c>
       <c r="M37">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="N37">
+        <v>3</v>
+      </c>
+      <c r="O37">
+        <v>2.875</v>
+      </c>
+      <c r="P37">
         <v>2.4</v>
       </c>
-      <c r="O37">
-        <v>2.75</v>
-      </c>
-      <c r="P37">
-        <v>3</v>
-      </c>
       <c r="Q37">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R37">
-        <v>2.075</v>
+        <v>2.05</v>
       </c>
       <c r="S37">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="T37">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U37">
         <v>2.025</v>
@@ -3797,22 +3797,22 @@
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y37">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA37">
-        <v>0.7250000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB37">
-        <v>0</v>
+        <v>0.5125</v>
       </c>
       <c r="AC37">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3820,7 +3820,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>7078413</v>
+        <v>7078409</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3832,76 +3832,76 @@
         <v>45168.60416666666</v>
       </c>
       <c r="F38" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G38" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K38">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="L38">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="M38">
+        <v>3.25</v>
+      </c>
+      <c r="N38">
+        <v>2.15</v>
+      </c>
+      <c r="O38">
         <v>2.9</v>
       </c>
-      <c r="N38">
-        <v>3.1</v>
-      </c>
-      <c r="O38">
-        <v>2.8</v>
-      </c>
       <c r="P38">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q38">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R38">
-        <v>1.7</v>
+        <v>1.825</v>
       </c>
       <c r="S38">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="T38">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U38">
+        <v>2.025</v>
+      </c>
+      <c r="V38">
         <v>1.775</v>
       </c>
-      <c r="V38">
-        <v>2.025</v>
-      </c>
       <c r="W38">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z38">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC38">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3909,7 +3909,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>7078412</v>
+        <v>7078413</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3921,58 +3921,58 @@
         <v>45168.60416666666</v>
       </c>
       <c r="F39" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G39" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
         <v>46</v>
       </c>
       <c r="K39">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="L39">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="M39">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="N39">
-        <v>1.833</v>
+        <v>3.1</v>
       </c>
       <c r="O39">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P39">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q39">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R39">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="S39">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="T39">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U39">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V39">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W39">
-        <v>0.833</v>
+        <v>2.1</v>
       </c>
       <c r="X39">
         <v>-1</v>
@@ -3981,16 +3981,16 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.8999999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="AA39">
         <v>-1</v>
       </c>
       <c r="AB39">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3998,7 +3998,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7078409</v>
+        <v>7078412</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4010,73 +4010,73 @@
         <v>45168.60416666666</v>
       </c>
       <c r="F40" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G40" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K40">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="L40">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="M40">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="N40">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="O40">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P40">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q40">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R40">
+        <v>1.9</v>
+      </c>
+      <c r="S40">
+        <v>1.9</v>
+      </c>
+      <c r="T40">
+        <v>2</v>
+      </c>
+      <c r="U40">
+        <v>1.975</v>
+      </c>
+      <c r="V40">
         <v>1.825</v>
       </c>
-      <c r="S40">
-        <v>1.975</v>
-      </c>
-      <c r="T40">
-        <v>2</v>
-      </c>
-      <c r="U40">
-        <v>2.025</v>
-      </c>
-      <c r="V40">
-        <v>1.775</v>
-      </c>
       <c r="W40">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA40">
+        <v>-1</v>
+      </c>
+      <c r="AB40">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB40">
-        <v>1.025</v>
       </c>
       <c r="AC40">
         <v>-1</v>
@@ -4087,7 +4087,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7078410</v>
+        <v>7078411</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4099,49 +4099,49 @@
         <v>45168.60416666666</v>
       </c>
       <c r="F41" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G41" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K41">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="L41">
         <v>3.1</v>
       </c>
       <c r="M41">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="N41">
+        <v>2.4</v>
+      </c>
+      <c r="O41">
+        <v>2.75</v>
+      </c>
+      <c r="P41">
         <v>3</v>
       </c>
-      <c r="O41">
-        <v>2.875</v>
-      </c>
-      <c r="P41">
-        <v>2.4</v>
-      </c>
       <c r="Q41">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R41">
-        <v>2.05</v>
+        <v>2.075</v>
       </c>
       <c r="S41">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="T41">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U41">
         <v>2.025</v>
@@ -4153,22 +4153,22 @@
         <v>-1</v>
       </c>
       <c r="X41">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z41">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
+        <v>0.7250000000000001</v>
+      </c>
+      <c r="AB41">
+        <v>0</v>
+      </c>
+      <c r="AC41">
         <v>-0</v>
-      </c>
-      <c r="AB41">
-        <v>0.5125</v>
-      </c>
-      <c r="AC41">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4532,7 +4532,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7169682</v>
+        <v>7169681</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4544,10 +4544,10 @@
         <v>45188.60416666666</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G46" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -4559,41 +4559,41 @@
         <v>45</v>
       </c>
       <c r="K46">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="L46">
+        <v>3.2</v>
+      </c>
+      <c r="M46">
+        <v>1.909</v>
+      </c>
+      <c r="N46">
+        <v>2.875</v>
+      </c>
+      <c r="O46">
         <v>2.9</v>
       </c>
-      <c r="M46">
-        <v>2.75</v>
-      </c>
-      <c r="N46">
-        <v>2.5</v>
-      </c>
-      <c r="O46">
-        <v>2.7</v>
-      </c>
       <c r="P46">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R46">
+        <v>1.725</v>
+      </c>
+      <c r="S46">
+        <v>2.075</v>
+      </c>
+      <c r="T46">
+        <v>2.25</v>
+      </c>
+      <c r="U46">
+        <v>2.025</v>
+      </c>
+      <c r="V46">
         <v>1.775</v>
       </c>
-      <c r="S46">
-        <v>2.025</v>
-      </c>
-      <c r="T46">
-        <v>1.75</v>
-      </c>
-      <c r="U46">
-        <v>1.925</v>
-      </c>
-      <c r="V46">
-        <v>1.875</v>
-      </c>
       <c r="W46">
         <v>-1</v>
       </c>
@@ -4601,16 +4601,16 @@
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>2</v>
+        <v>1.375</v>
       </c>
       <c r="Z46">
         <v>-1</v>
       </c>
       <c r="AA46">
+        <v>1.075</v>
+      </c>
+      <c r="AB46">
         <v>1.025</v>
-      </c>
-      <c r="AB46">
-        <v>0.925</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -4621,7 +4621,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7169681</v>
+        <v>7169683</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4633,13 +4633,13 @@
         <v>45188.60416666666</v>
       </c>
       <c r="F47" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G47" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47">
         <v>2</v>
@@ -4648,34 +4648,34 @@
         <v>45</v>
       </c>
       <c r="K47">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="L47">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M47">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="N47">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="O47">
         <v>2.9</v>
       </c>
       <c r="P47">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="Q47">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R47">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="S47">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="T47">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U47">
         <v>2.025</v>
@@ -4690,19 +4690,19 @@
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>1.375</v>
+        <v>2</v>
       </c>
       <c r="Z47">
         <v>-1</v>
       </c>
       <c r="AA47">
-        <v>1.075</v>
+        <v>0.8</v>
       </c>
       <c r="AB47">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4710,7 +4710,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>7169683</v>
+        <v>7169682</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4722,13 +4722,13 @@
         <v>45188.60416666666</v>
       </c>
       <c r="F48" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G48" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48">
         <v>2</v>
@@ -4737,40 +4737,40 @@
         <v>45</v>
       </c>
       <c r="K48">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="L48">
         <v>2.9</v>
       </c>
       <c r="M48">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="N48">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="O48">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="P48">
         <v>3</v>
       </c>
       <c r="Q48">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R48">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S48">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T48">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U48">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V48">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W48">
         <v>-1</v>
@@ -4785,13 +4785,13 @@
         <v>-1</v>
       </c>
       <c r="AA48">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB48">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC48">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4799,7 +4799,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>7170834</v>
+        <v>7169684</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4811,76 +4811,76 @@
         <v>45189.60416666666</v>
       </c>
       <c r="F49" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G49" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H49">
         <v>0</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K49">
         <v>2.375</v>
       </c>
       <c r="L49">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="M49">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="N49">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="O49">
         <v>2.7</v>
       </c>
       <c r="P49">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="Q49">
         <v>0</v>
       </c>
       <c r="R49">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S49">
-        <v>2.075</v>
+        <v>1.875</v>
       </c>
       <c r="T49">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U49">
+        <v>1.775</v>
+      </c>
+      <c r="V49">
         <v>2.025</v>
       </c>
-      <c r="V49">
-        <v>1.775</v>
-      </c>
       <c r="W49">
         <v>-1</v>
       </c>
       <c r="X49">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z49">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA49">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB49">
         <v>-1</v>
       </c>
       <c r="AC49">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4888,7 +4888,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7169684</v>
+        <v>7169685</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4900,76 +4900,76 @@
         <v>45189.60416666666</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G50" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K50">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="L50">
+        <v>2.9</v>
+      </c>
+      <c r="M50">
+        <v>3.75</v>
+      </c>
+      <c r="N50">
+        <v>1.909</v>
+      </c>
+      <c r="O50">
         <v>2.875</v>
       </c>
-      <c r="M50">
-        <v>2.875</v>
-      </c>
-      <c r="N50">
-        <v>2.7</v>
-      </c>
-      <c r="O50">
-        <v>2.7</v>
-      </c>
       <c r="P50">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="Q50">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R50">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S50">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T50">
         <v>1.75</v>
       </c>
       <c r="U50">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V50">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA50">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
         <v>-1</v>
       </c>
       <c r="AC50">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5066,7 +5066,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>7169685</v>
+        <v>7170834</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5078,76 +5078,76 @@
         <v>45189.60416666666</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G52" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K52">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="L52">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="M52">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N52">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="O52">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="P52">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="Q52">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R52">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="S52">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="T52">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U52">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="V52">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="W52">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X52">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB52">
         <v>-1</v>
       </c>
       <c r="AC52">
-        <v>1.05</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5167,7 +5167,7 @@
         <v>45194.41666666666</v>
       </c>
       <c r="F53" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G53" t="s">
         <v>41</v>
@@ -5256,7 +5256,7 @@
         <v>45195.60416666666</v>
       </c>
       <c r="F54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G54" t="s">
         <v>30</v>
@@ -5615,7 +5615,7 @@
         <v>36</v>
       </c>
       <c r="G58" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H58">
         <v>3</v>
@@ -5701,7 +5701,7 @@
         <v>45199.52083333334</v>
       </c>
       <c r="F59" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G59" t="s">
         <v>32</v>
@@ -5971,7 +5971,7 @@
         <v>39</v>
       </c>
       <c r="G62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -6134,7 +6134,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7267513</v>
+        <v>7267512</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6146,55 +6146,55 @@
         <v>45203.60416666666</v>
       </c>
       <c r="F64" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G64" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J64" t="s">
         <v>45</v>
       </c>
       <c r="K64">
-        <v>2.55</v>
+        <v>5</v>
       </c>
       <c r="L64">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="M64">
-        <v>2.875</v>
+        <v>1.7</v>
       </c>
       <c r="N64">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="O64">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="P64">
-        <v>3.6</v>
+        <v>1.7</v>
       </c>
       <c r="Q64">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R64">
+        <v>1.875</v>
+      </c>
+      <c r="S64">
         <v>1.925</v>
       </c>
-      <c r="S64">
-        <v>1.875</v>
-      </c>
       <c r="T64">
         <v>2</v>
       </c>
       <c r="U64">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V64">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W64">
         <v>-1</v>
@@ -6203,19 +6203,19 @@
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA64">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC64">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6223,7 +6223,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7267512</v>
+        <v>7267513</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6235,55 +6235,55 @@
         <v>45203.60416666666</v>
       </c>
       <c r="F65" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G65" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
         <v>1</v>
-      </c>
-      <c r="I65">
-        <v>2</v>
       </c>
       <c r="J65" t="s">
         <v>45</v>
       </c>
       <c r="K65">
-        <v>5</v>
+        <v>2.55</v>
       </c>
       <c r="L65">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="M65">
-        <v>1.7</v>
+        <v>2.875</v>
       </c>
       <c r="N65">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="O65">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="P65">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="Q65">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R65">
+        <v>1.925</v>
+      </c>
+      <c r="S65">
         <v>1.875</v>
       </c>
-      <c r="S65">
-        <v>1.925</v>
-      </c>
       <c r="T65">
         <v>2</v>
       </c>
       <c r="U65">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V65">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W65">
         <v>-1</v>
@@ -6292,19 +6292,19 @@
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="Z65">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AB65">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC65">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6416,7 +6416,7 @@
         <v>29</v>
       </c>
       <c r="G67" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6683,7 +6683,7 @@
         <v>38</v>
       </c>
       <c r="G70" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -6858,7 +6858,7 @@
         <v>45227.53125</v>
       </c>
       <c r="F72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G72" t="s">
         <v>41</v>
@@ -7036,7 +7036,7 @@
         <v>45231.60416666666</v>
       </c>
       <c r="F74" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G74" t="s">
         <v>38</v>
@@ -7113,7 +7113,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>7404428</v>
+        <v>7404430</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7125,58 +7125,58 @@
         <v>45237.60416666666</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G75" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H75">
+        <v>2</v>
+      </c>
+      <c r="I75">
         <v>1</v>
-      </c>
-      <c r="I75">
-        <v>0</v>
       </c>
       <c r="J75" t="s">
         <v>46</v>
       </c>
       <c r="K75">
-        <v>3.4</v>
+        <v>1.75</v>
       </c>
       <c r="L75">
+        <v>3.25</v>
+      </c>
+      <c r="M75">
+        <v>4.5</v>
+      </c>
+      <c r="N75">
+        <v>1.8</v>
+      </c>
+      <c r="O75">
         <v>3.1</v>
       </c>
-      <c r="M75">
-        <v>2.1</v>
-      </c>
-      <c r="N75">
-        <v>3</v>
-      </c>
-      <c r="O75">
-        <v>3</v>
-      </c>
       <c r="P75">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q75">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R75">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S75">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T75">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U75">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V75">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W75">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="X75">
         <v>-1</v>
@@ -7185,16 +7185,16 @@
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AA75">
         <v>-1</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC75">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7291,7 +7291,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>7404430</v>
+        <v>7404428</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7303,58 +7303,58 @@
         <v>45237.60416666666</v>
       </c>
       <c r="F77" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G77" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="s">
         <v>46</v>
       </c>
       <c r="K77">
+        <v>3.4</v>
+      </c>
+      <c r="L77">
+        <v>3.1</v>
+      </c>
+      <c r="M77">
+        <v>2.1</v>
+      </c>
+      <c r="N77">
+        <v>3</v>
+      </c>
+      <c r="O77">
+        <v>3</v>
+      </c>
+      <c r="P77">
+        <v>2.3</v>
+      </c>
+      <c r="Q77">
+        <v>0.25</v>
+      </c>
+      <c r="R77">
         <v>1.75</v>
       </c>
-      <c r="L77">
-        <v>3.25</v>
-      </c>
-      <c r="M77">
-        <v>4.5</v>
-      </c>
-      <c r="N77">
-        <v>1.8</v>
-      </c>
-      <c r="O77">
-        <v>3.1</v>
-      </c>
-      <c r="P77">
-        <v>4.5</v>
-      </c>
-      <c r="Q77">
-        <v>-0.5</v>
-      </c>
-      <c r="R77">
-        <v>1.8</v>
-      </c>
       <c r="S77">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T77">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U77">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V77">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W77">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="X77">
         <v>-1</v>
@@ -7363,16 +7363,16 @@
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AA77">
         <v>-1</v>
       </c>
       <c r="AB77">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7469,7 +7469,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7404435</v>
+        <v>7404434</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7481,76 +7481,76 @@
         <v>45238.60416666666</v>
       </c>
       <c r="F79" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G79" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H79">
         <v>1</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K79">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="L79">
         <v>3</v>
       </c>
       <c r="M79">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="N79">
+        <v>3.25</v>
+      </c>
+      <c r="O79">
+        <v>2.875</v>
+      </c>
+      <c r="P79">
         <v>2.25</v>
       </c>
-      <c r="O79">
-        <v>3</v>
-      </c>
-      <c r="P79">
-        <v>3.2</v>
-      </c>
       <c r="Q79">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R79">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S79">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T79">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U79">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V79">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W79">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X79">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y79">
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AA79">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC79">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7558,7 +7558,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>7404433</v>
+        <v>7404435</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7570,58 +7570,58 @@
         <v>45238.60416666666</v>
       </c>
       <c r="F80" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G80" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J80" t="s">
         <v>46</v>
       </c>
       <c r="K80">
-        <v>1.533</v>
+        <v>2.45</v>
       </c>
       <c r="L80">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="M80">
-        <v>5.75</v>
+        <v>2.8</v>
       </c>
       <c r="N80">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="O80">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P80">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="Q80">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R80">
+        <v>1.975</v>
+      </c>
+      <c r="S80">
+        <v>1.825</v>
+      </c>
+      <c r="T80">
+        <v>1.75</v>
+      </c>
+      <c r="U80">
         <v>1.8</v>
       </c>
-      <c r="S80">
-        <v>2</v>
-      </c>
-      <c r="T80">
-        <v>2.25</v>
-      </c>
-      <c r="U80">
-        <v>1.85</v>
-      </c>
       <c r="V80">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W80">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7630,16 +7630,16 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA80">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB80">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC80">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7647,7 +7647,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>7404434</v>
+        <v>7404433</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7659,76 +7659,76 @@
         <v>45238.60416666666</v>
       </c>
       <c r="F81" t="s">
+        <v>34</v>
+      </c>
+      <c r="G81" t="s">
         <v>42</v>
       </c>
-      <c r="G81" t="s">
-        <v>30</v>
-      </c>
       <c r="H81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K81">
-        <v>2.6</v>
+        <v>1.533</v>
       </c>
       <c r="L81">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="M81">
-        <v>2.6</v>
+        <v>5.75</v>
       </c>
       <c r="N81">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
       <c r="O81">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="P81">
+        <v>6</v>
+      </c>
+      <c r="Q81">
+        <v>-1</v>
+      </c>
+      <c r="R81">
+        <v>1.8</v>
+      </c>
+      <c r="S81">
+        <v>2</v>
+      </c>
+      <c r="T81">
         <v>2.25</v>
       </c>
-      <c r="Q81">
-        <v>0.25</v>
-      </c>
-      <c r="R81">
+      <c r="U81">
         <v>1.85</v>
       </c>
-      <c r="S81">
+      <c r="V81">
         <v>1.95</v>
       </c>
-      <c r="T81">
-        <v>2</v>
-      </c>
-      <c r="U81">
-        <v>1.95</v>
-      </c>
-      <c r="V81">
-        <v>1.85</v>
-      </c>
       <c r="W81">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X81">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="AA81">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB81">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC81">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7926,7 +7926,7 @@
         <v>45241.4375</v>
       </c>
       <c r="F84" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G84" t="s">
         <v>39</v>
@@ -8015,7 +8015,7 @@
         <v>45241.625</v>
       </c>
       <c r="F85" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G85" t="s">
         <v>33</v>
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7404440</v>
+        <v>7404441</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,76 +8104,76 @@
         <v>45242.4375</v>
       </c>
       <c r="F86" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G86" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H86">
         <v>1</v>
       </c>
       <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86" t="s">
+        <v>46</v>
+      </c>
+      <c r="K86">
+        <v>2.3</v>
+      </c>
+      <c r="L86">
+        <v>2.9</v>
+      </c>
+      <c r="M86">
         <v>3</v>
       </c>
-      <c r="J86" t="s">
-        <v>45</v>
-      </c>
-      <c r="K86">
-        <v>2.15</v>
-      </c>
-      <c r="L86">
-        <v>3</v>
-      </c>
-      <c r="M86">
-        <v>3.2</v>
-      </c>
       <c r="N86">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="O86">
         <v>3</v>
       </c>
       <c r="P86">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q86">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R86">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S86">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T86">
         <v>2</v>
       </c>
       <c r="U86">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V86">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA86">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7404441</v>
+        <v>7404440</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8193,76 +8193,76 @@
         <v>45242.4375</v>
       </c>
       <c r="F87" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G87" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H87">
         <v>1</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J87" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K87">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L87">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M87">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N87">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="O87">
         <v>3</v>
       </c>
       <c r="P87">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="Q87">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R87">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S87">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T87">
         <v>2</v>
       </c>
       <c r="U87">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V87">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W87">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z87">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC87">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8359,7 +8359,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7404444</v>
+        <v>7404445</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8371,76 +8371,76 @@
         <v>45255.4375</v>
       </c>
       <c r="F89" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G89" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H89">
         <v>0</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K89">
+        <v>5.25</v>
+      </c>
+      <c r="L89">
+        <v>3.4</v>
+      </c>
+      <c r="M89">
+        <v>1.65</v>
+      </c>
+      <c r="N89">
+        <v>4.2</v>
+      </c>
+      <c r="O89">
+        <v>3.2</v>
+      </c>
+      <c r="P89">
+        <v>1.85</v>
+      </c>
+      <c r="Q89">
+        <v>0.5</v>
+      </c>
+      <c r="R89">
+        <v>1.9</v>
+      </c>
+      <c r="S89">
+        <v>1.9</v>
+      </c>
+      <c r="T89">
+        <v>2</v>
+      </c>
+      <c r="U89">
+        <v>1.925</v>
+      </c>
+      <c r="V89">
+        <v>1.875</v>
+      </c>
+      <c r="W89">
+        <v>-1</v>
+      </c>
+      <c r="X89">
         <v>2.2</v>
       </c>
-      <c r="L89">
-        <v>3</v>
-      </c>
-      <c r="M89">
-        <v>3.25</v>
-      </c>
-      <c r="N89">
-        <v>2.7</v>
-      </c>
-      <c r="O89">
-        <v>2.8</v>
-      </c>
-      <c r="P89">
-        <v>2.75</v>
-      </c>
-      <c r="Q89">
-        <v>0</v>
-      </c>
-      <c r="R89">
-        <v>1.875</v>
-      </c>
-      <c r="S89">
-        <v>1.925</v>
-      </c>
-      <c r="T89">
-        <v>1.75</v>
-      </c>
-      <c r="U89">
-        <v>1.775</v>
-      </c>
-      <c r="V89">
-        <v>2.025</v>
-      </c>
-      <c r="W89">
-        <v>-1</v>
-      </c>
-      <c r="X89">
-        <v>-1</v>
-      </c>
       <c r="Y89">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA89">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8448,7 +8448,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7404445</v>
+        <v>7404444</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8460,76 +8460,76 @@
         <v>45255.4375</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G90" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H90">
         <v>0</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K90">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="L90">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M90">
-        <v>1.65</v>
+        <v>3.25</v>
       </c>
       <c r="N90">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="O90">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="P90">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="Q90">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R90">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S90">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T90">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U90">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V90">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z90">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB90">
         <v>-1</v>
       </c>
       <c r="AC90">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8549,7 +8549,7 @@
         <v>45255.53125</v>
       </c>
       <c r="F91" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G91" t="s">
         <v>32</v>
@@ -8626,7 +8626,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7404449</v>
+        <v>7404450</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8638,76 +8638,76 @@
         <v>45256.4375</v>
       </c>
       <c r="F92" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G92" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K92">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="L92">
+        <v>2.875</v>
+      </c>
+      <c r="M92">
+        <v>2.4</v>
+      </c>
+      <c r="N92">
+        <v>2.5</v>
+      </c>
+      <c r="O92">
+        <v>2.75</v>
+      </c>
+      <c r="P92">
         <v>2.9</v>
       </c>
-      <c r="M92">
-        <v>2.9</v>
-      </c>
-      <c r="N92">
-        <v>2.75</v>
-      </c>
-      <c r="O92">
-        <v>2.7</v>
-      </c>
-      <c r="P92">
-        <v>2.8</v>
-      </c>
       <c r="Q92">
         <v>0</v>
       </c>
       <c r="R92">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="S92">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T92">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U92">
+        <v>1.75</v>
+      </c>
+      <c r="V92">
         <v>2.05</v>
       </c>
-      <c r="V92">
-        <v>1.75</v>
-      </c>
       <c r="W92">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AA92">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC92">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8715,7 +8715,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>7404450</v>
+        <v>7404449</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8727,76 +8727,76 @@
         <v>45256.4375</v>
       </c>
       <c r="F93" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G93" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K93">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="L93">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M93">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="N93">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="O93">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="P93">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="Q93">
         <v>0</v>
       </c>
       <c r="R93">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="S93">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T93">
+        <v>2</v>
+      </c>
+      <c r="U93">
+        <v>2.05</v>
+      </c>
+      <c r="V93">
         <v>1.75</v>
       </c>
-      <c r="U93">
-        <v>1.75</v>
-      </c>
-      <c r="V93">
-        <v>2.05</v>
-      </c>
       <c r="W93">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z93">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB93">
+        <v>-1</v>
+      </c>
+      <c r="AC93">
         <v>0.75</v>
-      </c>
-      <c r="AC93">
-        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8905,7 +8905,7 @@
         <v>45258.60416666666</v>
       </c>
       <c r="F95" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G95" t="s">
         <v>33</v>
@@ -9264,7 +9264,7 @@
         <v>29</v>
       </c>
       <c r="G99" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -9439,7 +9439,7 @@
         <v>45269.4375</v>
       </c>
       <c r="F101" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G101" t="s">
         <v>34</v>
@@ -9528,7 +9528,7 @@
         <v>45269.53125</v>
       </c>
       <c r="F102" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G102" t="s">
         <v>31</v>
@@ -9783,7 +9783,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7476568</v>
+        <v>7464395</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9795,13 +9795,13 @@
         <v>45273.60416666666</v>
       </c>
       <c r="F105" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G105" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -9810,34 +9810,34 @@
         <v>46</v>
       </c>
       <c r="K105">
-        <v>2.2</v>
+        <v>1.181</v>
       </c>
       <c r="L105">
+        <v>6.5</v>
+      </c>
+      <c r="M105">
+        <v>13</v>
+      </c>
+      <c r="N105">
+        <v>1.2</v>
+      </c>
+      <c r="O105">
+        <v>6</v>
+      </c>
+      <c r="P105">
+        <v>12</v>
+      </c>
+      <c r="Q105">
+        <v>-1.75</v>
+      </c>
+      <c r="R105">
+        <v>1.775</v>
+      </c>
+      <c r="S105">
+        <v>2.025</v>
+      </c>
+      <c r="T105">
         <v>3</v>
-      </c>
-      <c r="M105">
-        <v>3.4</v>
-      </c>
-      <c r="N105">
-        <v>2.25</v>
-      </c>
-      <c r="O105">
-        <v>2.75</v>
-      </c>
-      <c r="P105">
-        <v>3.6</v>
-      </c>
-      <c r="Q105">
-        <v>-0.25</v>
-      </c>
-      <c r="R105">
-        <v>1.9</v>
-      </c>
-      <c r="S105">
-        <v>1.9</v>
-      </c>
-      <c r="T105">
-        <v>1.75</v>
       </c>
       <c r="U105">
         <v>1.975</v>
@@ -9846,7 +9846,7 @@
         <v>1.825</v>
       </c>
       <c r="W105">
-        <v>1.25</v>
+        <v>0.2</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9855,16 +9855,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA105">
         <v>-1</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC105">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9872,7 +9872,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7464395</v>
+        <v>7476568</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9884,13 +9884,13 @@
         <v>45273.60416666666</v>
       </c>
       <c r="F106" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G106" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H106">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -9899,34 +9899,34 @@
         <v>46</v>
       </c>
       <c r="K106">
-        <v>1.181</v>
+        <v>2.2</v>
       </c>
       <c r="L106">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="M106">
-        <v>13</v>
+        <v>3.4</v>
       </c>
       <c r="N106">
-        <v>1.2</v>
+        <v>2.25</v>
       </c>
       <c r="O106">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="P106">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="Q106">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R106">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S106">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T106">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="U106">
         <v>1.975</v>
@@ -9935,7 +9935,7 @@
         <v>1.825</v>
       </c>
       <c r="W106">
-        <v>0.2</v>
+        <v>1.25</v>
       </c>
       <c r="X106">
         <v>-1</v>
@@ -9944,16 +9944,16 @@
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA106">
         <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10154,7 +10154,7 @@
         <v>41</v>
       </c>
       <c r="G109" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10228,7 +10228,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7477991</v>
+        <v>7479719</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10240,76 +10240,76 @@
         <v>45283.4375</v>
       </c>
       <c r="F110" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G110" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H110">
         <v>0</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J110" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K110">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="L110">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M110">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="N110">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="O110">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="P110">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="Q110">
         <v>0</v>
       </c>
       <c r="R110">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S110">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T110">
         <v>2</v>
       </c>
       <c r="U110">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V110">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W110">
         <v>-1</v>
       </c>
       <c r="X110">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z110">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB110">
+        <v>0</v>
+      </c>
+      <c r="AC110">
         <v>-0</v>
-      </c>
-      <c r="AB110">
-        <v>-1</v>
-      </c>
-      <c r="AC110">
-        <v>0.825</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10329,10 +10329,10 @@
         <v>45283.4375</v>
       </c>
       <c r="F111" t="s">
+        <v>44</v>
+      </c>
+      <c r="G111" t="s">
         <v>43</v>
-      </c>
-      <c r="G111" t="s">
-        <v>42</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10406,7 +10406,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7479719</v>
+        <v>7478004</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10418,76 +10418,76 @@
         <v>45283.4375</v>
       </c>
       <c r="F112" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G112" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K112">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L112">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M112">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N112">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="O112">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P112">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q112">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R112">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S112">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T112">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U112">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V112">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="W112">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA112">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC112">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10495,7 +10495,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7478004</v>
+        <v>7477991</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10507,76 +10507,76 @@
         <v>45283.4375</v>
       </c>
       <c r="F113" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G113" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113">
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K113">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="L113">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M113">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="N113">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="O113">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P113">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q113">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R113">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S113">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T113">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U113">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V113">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W113">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X113">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y113">
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA113">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB113">
         <v>-1</v>
       </c>
       <c r="AC113">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10940,7 +10940,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7477995</v>
+        <v>7477996</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10952,58 +10952,58 @@
         <v>45290.4375</v>
       </c>
       <c r="F118" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G118" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="s">
         <v>46</v>
       </c>
       <c r="K118">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="L118">
         <v>3</v>
       </c>
       <c r="M118">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="N118">
+        <v>3.6</v>
+      </c>
+      <c r="O118">
+        <v>2.9</v>
+      </c>
+      <c r="P118">
         <v>2.1</v>
       </c>
-      <c r="O118">
-        <v>3</v>
-      </c>
-      <c r="P118">
-        <v>3.6</v>
-      </c>
       <c r="Q118">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R118">
+        <v>1.975</v>
+      </c>
+      <c r="S118">
         <v>1.825</v>
       </c>
-      <c r="S118">
-        <v>1.975</v>
-      </c>
       <c r="T118">
         <v>2</v>
       </c>
       <c r="U118">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V118">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W118">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="X118">
         <v>-1</v>
@@ -11012,16 +11012,16 @@
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA118">
         <v>-1</v>
       </c>
       <c r="AB118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC118">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11029,7 +11029,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7477996</v>
+        <v>7477995</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11041,58 +11041,58 @@
         <v>45290.4375</v>
       </c>
       <c r="F119" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G119" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H119">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="s">
         <v>46</v>
       </c>
       <c r="K119">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="L119">
         <v>3</v>
       </c>
       <c r="M119">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="N119">
+        <v>2.1</v>
+      </c>
+      <c r="O119">
+        <v>3</v>
+      </c>
+      <c r="P119">
         <v>3.6</v>
       </c>
-      <c r="O119">
-        <v>2.9</v>
-      </c>
-      <c r="P119">
-        <v>2.1</v>
-      </c>
       <c r="Q119">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R119">
+        <v>1.825</v>
+      </c>
+      <c r="S119">
         <v>1.975</v>
       </c>
-      <c r="S119">
-        <v>1.825</v>
-      </c>
       <c r="T119">
         <v>2</v>
       </c>
       <c r="U119">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V119">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W119">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="X119">
         <v>-1</v>
@@ -11101,16 +11101,16 @@
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA119">
         <v>-1</v>
       </c>
       <c r="AB119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11133,7 +11133,7 @@
         <v>40</v>
       </c>
       <c r="G120" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -11308,7 +11308,7 @@
         <v>45291.4375</v>
       </c>
       <c r="F122" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G122" t="s">
         <v>36</v>
@@ -11486,7 +11486,7 @@
         <v>45339.4375</v>
       </c>
       <c r="F124" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G124" t="s">
         <v>36</v>
@@ -11578,7 +11578,7 @@
         <v>39</v>
       </c>
       <c r="G125" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H125">
         <v>0</v>
@@ -11753,7 +11753,7 @@
         <v>45339.53125</v>
       </c>
       <c r="F127" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G127" t="s">
         <v>41</v>
@@ -12186,7 +12186,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7628608</v>
+        <v>7628830</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12198,76 +12198,76 @@
         <v>45350.60416666666</v>
       </c>
       <c r="F132" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G132" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132">
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K132">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="L132">
+        <v>2.9</v>
+      </c>
+      <c r="M132">
         <v>3</v>
       </c>
-      <c r="M132">
-        <v>3.5</v>
-      </c>
       <c r="N132">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="O132">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P132">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q132">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R132">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S132">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T132">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U132">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V132">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z132">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB132">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12275,7 +12275,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7628830</v>
+        <v>7628608</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12287,76 +12287,76 @@
         <v>45350.60416666666</v>
       </c>
       <c r="F133" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G133" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133">
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K133">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L133">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M133">
+        <v>3.5</v>
+      </c>
+      <c r="N133">
+        <v>2.5</v>
+      </c>
+      <c r="O133">
         <v>3</v>
       </c>
-      <c r="N133">
-        <v>3</v>
-      </c>
-      <c r="O133">
-        <v>2.9</v>
-      </c>
       <c r="P133">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="Q133">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R133">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S133">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T133">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U133">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V133">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y133">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA133">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC133">
-        <v>0.925</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12379,7 +12379,7 @@
         <v>33</v>
       </c>
       <c r="G134" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H134">
         <v>1</v>
@@ -12465,7 +12465,7 @@
         <v>45353.4375</v>
       </c>
       <c r="F135" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G135" t="s">
         <v>38</v>
@@ -12732,7 +12732,7 @@
         <v>45354.4375</v>
       </c>
       <c r="F138" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G138" t="s">
         <v>35</v>
@@ -13076,7 +13076,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7628938</v>
+        <v>7628833</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13088,13 +13088,13 @@
         <v>45357.60416666666</v>
       </c>
       <c r="F142" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G142" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H142">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I142">
         <v>0</v>
@@ -13103,43 +13103,43 @@
         <v>46</v>
       </c>
       <c r="K142">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="L142">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M142">
+        <v>4.2</v>
+      </c>
+      <c r="N142">
+        <v>1.85</v>
+      </c>
+      <c r="O142">
         <v>3.1</v>
       </c>
-      <c r="N142">
-        <v>2.25</v>
-      </c>
-      <c r="O142">
-        <v>2.75</v>
-      </c>
       <c r="P142">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q142">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R142">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S142">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T142">
         <v>2</v>
       </c>
       <c r="U142">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V142">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W142">
-        <v>1.25</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X142">
         <v>-1</v>
@@ -13148,16 +13148,16 @@
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA142">
         <v>-1</v>
       </c>
       <c r="AB142">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13165,7 +13165,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7628939</v>
+        <v>7628938</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13177,76 +13177,76 @@
         <v>45357.60416666666</v>
       </c>
       <c r="F143" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G143" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K143">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="L143">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="M143">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="N143">
-        <v>1.3</v>
+        <v>2.25</v>
       </c>
       <c r="O143">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="P143">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q143">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R143">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S143">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T143">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U143">
+        <v>2.025</v>
+      </c>
+      <c r="V143">
         <v>1.775</v>
       </c>
-      <c r="V143">
-        <v>2.025</v>
-      </c>
       <c r="W143">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X143">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA143">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC143">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13254,7 +13254,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7628833</v>
+        <v>7628939</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13266,84 +13266,84 @@
         <v>45357.60416666666</v>
       </c>
       <c r="F144" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G144" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H144">
         <v>1</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K144">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="L144">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="M144">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="N144">
-        <v>1.85</v>
+        <v>1.3</v>
       </c>
       <c r="O144">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="P144">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="Q144">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R144">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S144">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T144">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U144">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V144">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W144">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X144">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB144">
         <v>-1</v>
       </c>
       <c r="AC144">
-        <v>0.8500000000000001</v>
-      </c>
-    </row>
-    <row r="145" spans="1:27">
+        <v>1.025</v>
+      </c>
+    </row>
+    <row r="145" spans="1:29">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7628831</v>
+        <v>7628929</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13352,22 +13352,31 @@
         <v>28</v>
       </c>
       <c r="E145" s="2">
-        <v>45360.52083333334</v>
+        <v>45360.4375</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G145" t="s">
-        <v>41</v>
+        <v>34</v>
+      </c>
+      <c r="H145">
+        <v>3</v>
+      </c>
+      <c r="I145">
+        <v>2</v>
+      </c>
+      <c r="J145" t="s">
+        <v>46</v>
       </c>
       <c r="K145">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="L145">
         <v>3</v>
       </c>
       <c r="M145">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="N145">
         <v>1.833</v>
@@ -13382,37 +13391,43 @@
         <v>-0.5</v>
       </c>
       <c r="R145">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S145">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T145">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U145">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V145">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W145">
-        <v>0</v>
+        <v>0.833</v>
       </c>
       <c r="X145">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y145">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB145">
+        <v>0.75</v>
+      </c>
+      <c r="AC145">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:29">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -13434,6 +13449,15 @@
       <c r="G146" t="s">
         <v>29</v>
       </c>
+      <c r="H146">
+        <v>1</v>
+      </c>
+      <c r="I146">
+        <v>4</v>
+      </c>
+      <c r="J146" t="s">
+        <v>45</v>
+      </c>
       <c r="K146">
         <v>2.7</v>
       </c>
@@ -13444,7 +13468,7 @@
         <v>2.6</v>
       </c>
       <c r="N146">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O146">
         <v>2.6</v>
@@ -13453,40 +13477,46 @@
         <v>2.5</v>
       </c>
       <c r="Q146">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R146">
-        <v>1.725</v>
+        <v>2.05</v>
       </c>
       <c r="S146">
-        <v>2.075</v>
+        <v>1.75</v>
       </c>
       <c r="T146">
         <v>1.75</v>
       </c>
       <c r="U146">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V146">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W146">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X146">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y146">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Z146">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:27">
+        <v>0.75</v>
+      </c>
+      <c r="AB146">
+        <v>1</v>
+      </c>
+      <c r="AC146">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:29">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -13506,7 +13536,16 @@
         <v>33</v>
       </c>
       <c r="G147" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="H147">
+        <v>1</v>
+      </c>
+      <c r="I147">
+        <v>1</v>
+      </c>
+      <c r="J147" t="s">
+        <v>47</v>
       </c>
       <c r="K147">
         <v>1.5</v>
@@ -13518,7 +13557,7 @@
         <v>6.5</v>
       </c>
       <c r="N147">
-        <v>1.55</v>
+        <v>1.571</v>
       </c>
       <c r="O147">
         <v>3.3</v>
@@ -13539,33 +13578,39 @@
         <v>2.25</v>
       </c>
       <c r="U147">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V147">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W147">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X147">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="Y147">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:27">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB147">
+        <v>-0.5</v>
+      </c>
+      <c r="AC147">
+        <v>0.475</v>
+      </c>
+    </row>
+    <row r="148" spans="1:29">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7628932</v>
+        <v>7628831</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13574,67 +13619,82 @@
         <v>28</v>
       </c>
       <c r="E148" s="2">
-        <v>45360.625</v>
+        <v>45360.52083333334</v>
       </c>
       <c r="F148" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G148" t="s">
-        <v>35</v>
+        <v>41</v>
+      </c>
+      <c r="H148">
+        <v>1</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="J148" t="s">
+        <v>47</v>
       </c>
       <c r="K148">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="L148">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M148">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="N148">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="O148">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="P148">
-        <v>2.375</v>
+        <v>4.2</v>
       </c>
       <c r="Q148">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R148">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S148">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T148">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U148">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V148">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W148">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X148">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="Y148">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:27">
+        <v>0.825</v>
+      </c>
+      <c r="AB148">
+        <v>0</v>
+      </c>
+      <c r="AC148">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:29">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -13654,7 +13714,16 @@
         <v>40</v>
       </c>
       <c r="G149" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="H149">
+        <v>2</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149" t="s">
+        <v>46</v>
       </c>
       <c r="K149">
         <v>1.285</v>
@@ -13678,10 +13747,10 @@
         <v>-1.5</v>
       </c>
       <c r="R149">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S149">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T149">
         <v>2.5</v>
@@ -13693,27 +13762,33 @@
         <v>1.8</v>
       </c>
       <c r="W149">
-        <v>0</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X149">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y149">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB149">
+        <v>-1</v>
+      </c>
+      <c r="AC149">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:29">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7628933</v>
+        <v>7628932</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13722,72 +13797,87 @@
         <v>28</v>
       </c>
       <c r="E150" s="2">
-        <v>45361.4375</v>
+        <v>45360.625</v>
       </c>
       <c r="F150" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G150" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150" t="s">
+        <v>47</v>
       </c>
       <c r="K150">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="L150">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="M150">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="N150">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="O150">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="P150">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="Q150">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R150">
+        <v>1.75</v>
+      </c>
+      <c r="S150">
+        <v>2.05</v>
+      </c>
+      <c r="T150">
+        <v>1.75</v>
+      </c>
+      <c r="U150">
         <v>1.775</v>
       </c>
-      <c r="S150">
+      <c r="V150">
         <v>2.025</v>
       </c>
-      <c r="T150">
-        <v>2</v>
-      </c>
-      <c r="U150">
-        <v>1.875</v>
-      </c>
-      <c r="V150">
-        <v>1.925</v>
-      </c>
       <c r="W150">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X150">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="Y150">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="AA150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:27">
+        <v>-0.5</v>
+      </c>
+      <c r="AB150">
+        <v>-1</v>
+      </c>
+      <c r="AC150">
+        <v>1.025</v>
+      </c>
+    </row>
+    <row r="151" spans="1:29">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151">
-        <v>7628934</v>
+        <v>7628933</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13796,63 +13886,241 @@
         <v>28</v>
       </c>
       <c r="E151" s="2">
-        <v>45361.53125</v>
+        <v>45361.4375</v>
       </c>
       <c r="F151" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G151" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+      <c r="J151" t="s">
+        <v>45</v>
       </c>
       <c r="K151">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="L151">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M151">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="N151">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="O151">
         <v>2.9</v>
       </c>
       <c r="P151">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q151">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R151">
+        <v>1.75</v>
+      </c>
+      <c r="S151">
+        <v>2.05</v>
+      </c>
+      <c r="T151">
+        <v>2</v>
+      </c>
+      <c r="U151">
+        <v>1.9</v>
+      </c>
+      <c r="V151">
+        <v>1.9</v>
+      </c>
+      <c r="W151">
+        <v>-1</v>
+      </c>
+      <c r="X151">
+        <v>-1</v>
+      </c>
+      <c r="Y151">
+        <v>2.8</v>
+      </c>
+      <c r="Z151">
+        <v>-1</v>
+      </c>
+      <c r="AA151">
+        <v>1.05</v>
+      </c>
+      <c r="AB151">
+        <v>-1</v>
+      </c>
+      <c r="AC151">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="152" spans="1:29">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>7628934</v>
+      </c>
+      <c r="C152" t="s">
+        <v>28</v>
+      </c>
+      <c r="D152" t="s">
+        <v>28</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45361.53125</v>
+      </c>
+      <c r="F152" t="s">
+        <v>32</v>
+      </c>
+      <c r="G152" t="s">
+        <v>36</v>
+      </c>
+      <c r="H152">
+        <v>2</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152" t="s">
+        <v>46</v>
+      </c>
+      <c r="K152">
+        <v>3.5</v>
+      </c>
+      <c r="L152">
+        <v>3</v>
+      </c>
+      <c r="M152">
+        <v>2</v>
+      </c>
+      <c r="N152">
+        <v>4</v>
+      </c>
+      <c r="O152">
+        <v>3.1</v>
+      </c>
+      <c r="P152">
+        <v>1.833</v>
+      </c>
+      <c r="Q152">
+        <v>0.5</v>
+      </c>
+      <c r="R152">
+        <v>1.85</v>
+      </c>
+      <c r="S152">
         <v>1.95</v>
       </c>
-      <c r="S151">
-        <v>1.85</v>
-      </c>
-      <c r="T151">
-        <v>2</v>
-      </c>
-      <c r="U151">
-        <v>1.775</v>
-      </c>
-      <c r="V151">
-        <v>2.025</v>
-      </c>
-      <c r="W151">
-        <v>0</v>
-      </c>
-      <c r="X151">
-        <v>0</v>
-      </c>
-      <c r="Y151">
-        <v>0</v>
-      </c>
-      <c r="Z151">
-        <v>0</v>
-      </c>
-      <c r="AA151">
+      <c r="T152">
+        <v>2</v>
+      </c>
+      <c r="U152">
+        <v>1.75</v>
+      </c>
+      <c r="V152">
+        <v>2.05</v>
+      </c>
+      <c r="W152">
+        <v>3</v>
+      </c>
+      <c r="X152">
+        <v>-1</v>
+      </c>
+      <c r="Y152">
+        <v>-1</v>
+      </c>
+      <c r="Z152">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA152">
+        <v>-1</v>
+      </c>
+      <c r="AB152">
+        <v>0</v>
+      </c>
+      <c r="AC152">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:29">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>7658758</v>
+      </c>
+      <c r="C153" t="s">
+        <v>28</v>
+      </c>
+      <c r="D153" t="s">
+        <v>28</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45363.60416666666</v>
+      </c>
+      <c r="F153" t="s">
+        <v>40</v>
+      </c>
+      <c r="G153" t="s">
+        <v>30</v>
+      </c>
+      <c r="K153">
+        <v>1.5</v>
+      </c>
+      <c r="L153">
+        <v>3.8</v>
+      </c>
+      <c r="M153">
+        <v>6</v>
+      </c>
+      <c r="N153">
+        <v>1.333</v>
+      </c>
+      <c r="O153">
+        <v>4.333</v>
+      </c>
+      <c r="P153">
+        <v>8</v>
+      </c>
+      <c r="Q153">
+        <v>-1.25</v>
+      </c>
+      <c r="R153">
+        <v>1.875</v>
+      </c>
+      <c r="S153">
+        <v>1.925</v>
+      </c>
+      <c r="T153">
+        <v>2.5</v>
+      </c>
+      <c r="U153">
+        <v>1.975</v>
+      </c>
+      <c r="V153">
+        <v>1.825</v>
+      </c>
+      <c r="W153">
+        <v>0</v>
+      </c>
+      <c r="X153">
+        <v>0</v>
+      </c>
+      <c r="Y153">
+        <v>0</v>
+      </c>
+      <c r="Z153">
+        <v>0</v>
+      </c>
+      <c r="AA153">
         <v>0</v>
       </c>
     </row>

--- a/South Africa Premier/South Africa Premier.xlsx
+++ b/South Africa Premier/South Africa Premier.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -118,10 +118,10 @@
     <t>Stellenbosch FC</t>
   </si>
   <si>
-    <t>Kaizer Chiefs</t>
+    <t>TS Galaxy</t>
   </si>
   <si>
-    <t>TS Galaxy</t>
+    <t>Kaizer Chiefs</t>
   </si>
   <si>
     <t>Cape Town City</t>
@@ -142,13 +142,13 @@
     <t>Amazulu</t>
   </si>
   <si>
-    <t>Ajax Cape Town</t>
+    <t>Chippa United</t>
   </si>
   <si>
     <t>Polokwane City</t>
   </si>
   <si>
-    <t>Chippa United</t>
+    <t>Ajax Cape Town</t>
   </si>
   <si>
     <t>A</t>
@@ -1061,7 +1061,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6961782</v>
+        <v>6961781</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1079,34 +1079,34 @@
         <v>44</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K7">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="L7">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N7">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="O7">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P7">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q7">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R7">
         <v>1.85</v>
@@ -1118,31 +1118,31 @@
         <v>2</v>
       </c>
       <c r="U7">
+        <v>1.975</v>
+      </c>
+      <c r="V7">
         <v>1.825</v>
       </c>
-      <c r="V7">
-        <v>1.975</v>
-      </c>
       <c r="W7">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X7">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA7">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
         <v>-1</v>
       </c>
       <c r="AC7">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1150,7 +1150,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6961781</v>
+        <v>6961782</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1168,34 +1168,34 @@
         <v>42</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K8">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="L8">
+        <v>3.3</v>
+      </c>
+      <c r="M8">
+        <v>7</v>
+      </c>
+      <c r="N8">
+        <v>1.65</v>
+      </c>
+      <c r="O8">
         <v>3.1</v>
       </c>
-      <c r="M8">
-        <v>4</v>
-      </c>
-      <c r="N8">
-        <v>2.05</v>
-      </c>
-      <c r="O8">
-        <v>2.8</v>
-      </c>
       <c r="P8">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q8">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R8">
         <v>1.85</v>
@@ -1207,31 +1207,31 @@
         <v>2</v>
       </c>
       <c r="U8">
+        <v>1.825</v>
+      </c>
+      <c r="V8">
         <v>1.975</v>
       </c>
-      <c r="V8">
-        <v>1.825</v>
-      </c>
       <c r="W8">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB8">
         <v>-1</v>
       </c>
       <c r="AC8">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1610,7 +1610,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1773,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7007761</v>
+        <v>7007760</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1788,73 +1788,73 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K15">
+        <v>2.4</v>
+      </c>
+      <c r="L15">
+        <v>2.9</v>
+      </c>
+      <c r="M15">
         <v>3</v>
       </c>
-      <c r="L15">
+      <c r="N15">
+        <v>2.4</v>
+      </c>
+      <c r="O15">
+        <v>2.8</v>
+      </c>
+      <c r="P15">
         <v>3</v>
       </c>
-      <c r="M15">
-        <v>2.3</v>
-      </c>
-      <c r="N15">
-        <v>2.7</v>
-      </c>
-      <c r="O15">
-        <v>2.625</v>
-      </c>
-      <c r="P15">
-        <v>2.75</v>
-      </c>
       <c r="Q15">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R15">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="S15">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="T15">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U15">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V15">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y15">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA15">
-        <v>0.8999999999999999</v>
+        <v>0.3625</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1951,7 +1951,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7007760</v>
+        <v>7007761</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1966,73 +1966,73 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K17">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M17">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="N17">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="O17">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="P17">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q17">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="S17">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="T17">
+        <v>2</v>
+      </c>
+      <c r="U17">
+        <v>2.025</v>
+      </c>
+      <c r="V17">
+        <v>1.775</v>
+      </c>
+      <c r="W17">
+        <v>-1</v>
+      </c>
+      <c r="X17">
+        <v>-1</v>
+      </c>
+      <c r="Y17">
         <v>1.75</v>
       </c>
-      <c r="U17">
-        <v>1.825</v>
-      </c>
-      <c r="V17">
-        <v>1.975</v>
-      </c>
-      <c r="W17">
-        <v>-1</v>
-      </c>
-      <c r="X17">
-        <v>1.8</v>
-      </c>
-      <c r="Y17">
-        <v>-1</v>
-      </c>
       <c r="Z17">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>0.3625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC17">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2141,7 +2141,7 @@
         <v>45153.60416666666</v>
       </c>
       <c r="F19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G19" t="s">
         <v>38</v>
@@ -2307,7 +2307,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7007762</v>
+        <v>7068224</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2319,76 +2319,76 @@
         <v>45156.60416666666</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21">
+        <v>1.909</v>
+      </c>
+      <c r="L21">
         <v>3</v>
       </c>
-      <c r="J21" t="s">
-        <v>45</v>
-      </c>
-      <c r="K21">
-        <v>2.6</v>
-      </c>
-      <c r="L21">
-        <v>2.875</v>
-      </c>
       <c r="M21">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="N21">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="O21">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P21">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R21">
+        <v>1.95</v>
+      </c>
+      <c r="S21">
+        <v>1.85</v>
+      </c>
+      <c r="T21">
+        <v>2</v>
+      </c>
+      <c r="U21">
+        <v>2</v>
+      </c>
+      <c r="V21">
         <v>1.8</v>
       </c>
-      <c r="S21">
-        <v>2</v>
-      </c>
-      <c r="T21">
-        <v>2</v>
-      </c>
-      <c r="U21">
-        <v>1.95</v>
-      </c>
-      <c r="V21">
-        <v>1.85</v>
-      </c>
       <c r="W21">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA21">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2396,7 +2396,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7068224</v>
+        <v>7007762</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2408,76 +2408,76 @@
         <v>45156.60416666666</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K22">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="L22">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M22">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="N22">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="O22">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P22">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="Q22">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R22">
+        <v>1.8</v>
+      </c>
+      <c r="S22">
+        <v>2</v>
+      </c>
+      <c r="T22">
+        <v>2</v>
+      </c>
+      <c r="U22">
         <v>1.95</v>
       </c>
-      <c r="S22">
+      <c r="V22">
         <v>1.85</v>
       </c>
-      <c r="T22">
-        <v>2</v>
-      </c>
-      <c r="U22">
-        <v>2</v>
-      </c>
-      <c r="V22">
-        <v>1.8</v>
-      </c>
       <c r="W22">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z22">
+        <v>-1</v>
+      </c>
+      <c r="AA22">
+        <v>1</v>
+      </c>
+      <c r="AB22">
         <v>0.95</v>
       </c>
-      <c r="AA22">
-        <v>-1</v>
-      </c>
-      <c r="AB22">
-        <v>-1</v>
-      </c>
       <c r="AC22">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2500,7 +2500,7 @@
         <v>43</v>
       </c>
       <c r="G23" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H23">
         <v>3</v>
@@ -2675,7 +2675,7 @@
         <v>45157.625</v>
       </c>
       <c r="F25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G25" t="s">
         <v>40</v>
@@ -2764,10 +2764,10 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" t="s">
         <v>35</v>
-      </c>
-      <c r="G26" t="s">
-        <v>34</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -3031,10 +3031,10 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F29" t="s">
+        <v>44</v>
+      </c>
+      <c r="G29" t="s">
         <v>42</v>
-      </c>
-      <c r="G29" t="s">
-        <v>44</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3209,7 +3209,7 @@
         <v>45164.52083333334</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G31" t="s">
         <v>41</v>
@@ -3390,7 +3390,7 @@
         <v>32</v>
       </c>
       <c r="G33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -3731,7 +3731,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>7078410</v>
+        <v>7078412</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3743,76 +3743,76 @@
         <v>45168.60416666666</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G37" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I37">
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K37">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="L37">
+        <v>3.25</v>
+      </c>
+      <c r="M37">
+        <v>4.333</v>
+      </c>
+      <c r="N37">
+        <v>1.833</v>
+      </c>
+      <c r="O37">
         <v>3.1</v>
       </c>
-      <c r="M37">
-        <v>2.5</v>
-      </c>
-      <c r="N37">
-        <v>3</v>
-      </c>
-      <c r="O37">
-        <v>2.875</v>
-      </c>
       <c r="P37">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R37">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S37">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T37">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U37">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V37">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X37">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA37">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC37">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3820,7 +3820,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>7078409</v>
+        <v>7078413</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3832,76 +3832,76 @@
         <v>45168.60416666666</v>
       </c>
       <c r="F38" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G38" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K38">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="L38">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="M38">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="N38">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="O38">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="P38">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q38">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R38">
-        <v>1.825</v>
+        <v>1.7</v>
       </c>
       <c r="S38">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="T38">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U38">
+        <v>1.775</v>
+      </c>
+      <c r="V38">
         <v>2.025</v>
       </c>
-      <c r="V38">
-        <v>1.775</v>
-      </c>
       <c r="W38">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AA38">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
+        <v>-1</v>
+      </c>
+      <c r="AC38">
         <v>1.025</v>
-      </c>
-      <c r="AC38">
-        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3909,7 +3909,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>7078413</v>
+        <v>7078409</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3921,76 +3921,76 @@
         <v>45168.60416666666</v>
       </c>
       <c r="F39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K39">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="L39">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="M39">
+        <v>3.25</v>
+      </c>
+      <c r="N39">
+        <v>2.15</v>
+      </c>
+      <c r="O39">
         <v>2.9</v>
       </c>
-      <c r="N39">
-        <v>3.1</v>
-      </c>
-      <c r="O39">
-        <v>2.8</v>
-      </c>
       <c r="P39">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q39">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R39">
-        <v>1.7</v>
+        <v>1.825</v>
       </c>
       <c r="S39">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="T39">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U39">
+        <v>2.025</v>
+      </c>
+      <c r="V39">
         <v>1.775</v>
       </c>
-      <c r="V39">
-        <v>2.025</v>
-      </c>
       <c r="W39">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z39">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC39">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3998,7 +3998,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7078412</v>
+        <v>7078410</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4010,76 +4010,76 @@
         <v>45168.60416666666</v>
       </c>
       <c r="F40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G40" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K40">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="L40">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M40">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="N40">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="O40">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P40">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>2.05</v>
+      </c>
+      <c r="S40">
+        <v>1.75</v>
+      </c>
+      <c r="T40">
+        <v>1.75</v>
+      </c>
+      <c r="U40">
+        <v>2.025</v>
+      </c>
+      <c r="V40">
+        <v>1.775</v>
+      </c>
+      <c r="W40">
+        <v>-1</v>
+      </c>
+      <c r="X40">
+        <v>1.875</v>
+      </c>
+      <c r="Y40">
+        <v>-1</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <v>-0</v>
+      </c>
+      <c r="AB40">
+        <v>0.5125</v>
+      </c>
+      <c r="AC40">
         <v>-0.5</v>
-      </c>
-      <c r="R40">
-        <v>1.9</v>
-      </c>
-      <c r="S40">
-        <v>1.9</v>
-      </c>
-      <c r="T40">
-        <v>2</v>
-      </c>
-      <c r="U40">
-        <v>1.975</v>
-      </c>
-      <c r="V40">
-        <v>1.825</v>
-      </c>
-      <c r="W40">
-        <v>0.833</v>
-      </c>
-      <c r="X40">
-        <v>-1</v>
-      </c>
-      <c r="Y40">
-        <v>-1</v>
-      </c>
-      <c r="Z40">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA40">
-        <v>-1</v>
-      </c>
-      <c r="AB40">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC40">
-        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4102,7 +4102,7 @@
         <v>33</v>
       </c>
       <c r="G41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4366,7 +4366,7 @@
         <v>45185.52083333334</v>
       </c>
       <c r="F44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G44" t="s">
         <v>32</v>
@@ -4544,7 +4544,7 @@
         <v>45188.60416666666</v>
       </c>
       <c r="F46" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G46" t="s">
         <v>31</v>
@@ -4725,7 +4725,7 @@
         <v>37</v>
       </c>
       <c r="G48" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -4888,7 +4888,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7169685</v>
+        <v>7170834</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4900,76 +4900,76 @@
         <v>45189.60416666666</v>
       </c>
       <c r="F50" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G50" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K50">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="L50">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="M50">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N50">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="O50">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="P50">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="Q50">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R50">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="S50">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="T50">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U50">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="V50">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="W50">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB50">
         <v>-1</v>
       </c>
       <c r="AC50">
-        <v>1.05</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4977,7 +4977,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>7170833</v>
+        <v>7169685</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4989,76 +4989,76 @@
         <v>45189.60416666666</v>
       </c>
       <c r="F51" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G51" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51" t="s">
+        <v>46</v>
+      </c>
+      <c r="K51">
+        <v>2</v>
+      </c>
+      <c r="L51">
+        <v>2.9</v>
+      </c>
+      <c r="M51">
+        <v>3.75</v>
+      </c>
+      <c r="N51">
+        <v>1.909</v>
+      </c>
+      <c r="O51">
+        <v>2.875</v>
+      </c>
+      <c r="P51">
+        <v>4.2</v>
+      </c>
+      <c r="Q51">
+        <v>-0.5</v>
+      </c>
+      <c r="R51">
+        <v>2</v>
+      </c>
+      <c r="S51">
+        <v>1.8</v>
+      </c>
+      <c r="T51">
+        <v>1.75</v>
+      </c>
+      <c r="U51">
+        <v>1.75</v>
+      </c>
+      <c r="V51">
+        <v>2.05</v>
+      </c>
+      <c r="W51">
+        <v>0.909</v>
+      </c>
+      <c r="X51">
+        <v>-1</v>
+      </c>
+      <c r="Y51">
+        <v>-1</v>
+      </c>
+      <c r="Z51">
         <v>1</v>
       </c>
-      <c r="J51" t="s">
-        <v>45</v>
-      </c>
-      <c r="K51">
-        <v>2.75</v>
-      </c>
-      <c r="L51">
-        <v>2.875</v>
-      </c>
-      <c r="M51">
-        <v>2.5</v>
-      </c>
-      <c r="N51">
-        <v>3.4</v>
-      </c>
-      <c r="O51">
-        <v>2.9</v>
-      </c>
-      <c r="P51">
-        <v>2.1</v>
-      </c>
-      <c r="Q51">
-        <v>0.25</v>
-      </c>
-      <c r="R51">
-        <v>1.925</v>
-      </c>
-      <c r="S51">
-        <v>1.875</v>
-      </c>
-      <c r="T51">
-        <v>2</v>
-      </c>
-      <c r="U51">
-        <v>1.8</v>
-      </c>
-      <c r="V51">
-        <v>2</v>
-      </c>
-      <c r="W51">
-        <v>-1</v>
-      </c>
-      <c r="X51">
-        <v>-1</v>
-      </c>
-      <c r="Y51">
-        <v>1.1</v>
-      </c>
-      <c r="Z51">
-        <v>-1</v>
-      </c>
       <c r="AA51">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
         <v>-1</v>
       </c>
       <c r="AC51">
-        <v>1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5066,7 +5066,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>7170834</v>
+        <v>7170833</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5078,76 +5078,76 @@
         <v>45189.60416666666</v>
       </c>
       <c r="F52" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G52" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H52">
         <v>0</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K52">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="L52">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="M52">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N52">
-        <v>2.45</v>
+        <v>3.4</v>
       </c>
       <c r="O52">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="P52">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R52">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S52">
-        <v>2.075</v>
+        <v>1.875</v>
       </c>
       <c r="T52">
         <v>2</v>
       </c>
       <c r="U52">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V52">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W52">
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z52">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB52">
         <v>-1</v>
       </c>
       <c r="AC52">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5256,7 +5256,7 @@
         <v>45195.60416666666</v>
       </c>
       <c r="F54" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G54" t="s">
         <v>30</v>
@@ -5345,7 +5345,7 @@
         <v>45196.60416666666</v>
       </c>
       <c r="F55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G55" t="s">
         <v>29</v>
@@ -5615,7 +5615,7 @@
         <v>36</v>
       </c>
       <c r="G58" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H58">
         <v>3</v>
@@ -5790,7 +5790,7 @@
         <v>45200.4375</v>
       </c>
       <c r="F60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G60" t="s">
         <v>37</v>
@@ -5879,7 +5879,7 @@
         <v>45202.60416666666</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G61" t="s">
         <v>36</v>
@@ -5971,7 +5971,7 @@
         <v>39</v>
       </c>
       <c r="G62" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -6045,7 +6045,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7267510</v>
+        <v>7267513</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6057,76 +6057,76 @@
         <v>45203.60416666666</v>
       </c>
       <c r="F63" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G63" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H63">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K63">
-        <v>2.35</v>
+        <v>2.55</v>
       </c>
       <c r="L63">
         <v>2.875</v>
       </c>
       <c r="M63">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="N63">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O63">
         <v>2.875</v>
       </c>
       <c r="P63">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q63">
         <v>-0.25</v>
       </c>
       <c r="R63">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S63">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T63">
         <v>2</v>
       </c>
       <c r="U63">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V63">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W63">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z63">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB63">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6134,7 +6134,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7267512</v>
+        <v>7267510</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6146,73 +6146,73 @@
         <v>45203.60416666666</v>
       </c>
       <c r="F64" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G64" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K64">
-        <v>5</v>
+        <v>2.35</v>
       </c>
       <c r="L64">
+        <v>2.875</v>
+      </c>
+      <c r="M64">
+        <v>3.2</v>
+      </c>
+      <c r="N64">
+        <v>2.3</v>
+      </c>
+      <c r="O64">
+        <v>2.875</v>
+      </c>
+      <c r="P64">
         <v>3.3</v>
       </c>
-      <c r="M64">
-        <v>1.7</v>
-      </c>
-      <c r="N64">
-        <v>5</v>
-      </c>
-      <c r="O64">
-        <v>3.3</v>
-      </c>
-      <c r="P64">
-        <v>1.7</v>
-      </c>
       <c r="Q64">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R64">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S64">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T64">
         <v>2</v>
       </c>
       <c r="U64">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V64">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W64">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA64">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC64">
         <v>-1</v>
@@ -6223,7 +6223,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7267513</v>
+        <v>7267512</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6235,55 +6235,55 @@
         <v>45203.60416666666</v>
       </c>
       <c r="F65" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G65" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J65" t="s">
         <v>45</v>
       </c>
       <c r="K65">
-        <v>2.55</v>
+        <v>5</v>
       </c>
       <c r="L65">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="M65">
-        <v>2.875</v>
+        <v>1.7</v>
       </c>
       <c r="N65">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="O65">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="P65">
-        <v>3.6</v>
+        <v>1.7</v>
       </c>
       <c r="Q65">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R65">
+        <v>1.875</v>
+      </c>
+      <c r="S65">
         <v>1.925</v>
       </c>
-      <c r="S65">
-        <v>1.875</v>
-      </c>
       <c r="T65">
         <v>2</v>
       </c>
       <c r="U65">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V65">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W65">
         <v>-1</v>
@@ -6292,19 +6292,19 @@
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA65">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AB65">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC65">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6772,7 +6772,7 @@
         <v>31</v>
       </c>
       <c r="G71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H71">
         <v>2</v>
@@ -6858,7 +6858,7 @@
         <v>45227.53125</v>
       </c>
       <c r="F72" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G72" t="s">
         <v>41</v>
@@ -7036,7 +7036,7 @@
         <v>45231.60416666666</v>
       </c>
       <c r="F74" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G74" t="s">
         <v>38</v>
@@ -7113,7 +7113,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>7404430</v>
+        <v>7404429</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7125,76 +7125,76 @@
         <v>45237.60416666666</v>
       </c>
       <c r="F75" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G75" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="s">
         <v>46</v>
       </c>
       <c r="K75">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="L75">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M75">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="N75">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="O75">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P75">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q75">
+        <v>-0.75</v>
+      </c>
+      <c r="R75">
+        <v>1.875</v>
+      </c>
+      <c r="S75">
+        <v>1.925</v>
+      </c>
+      <c r="T75">
+        <v>2.25</v>
+      </c>
+      <c r="U75">
+        <v>1.925</v>
+      </c>
+      <c r="V75">
+        <v>1.875</v>
+      </c>
+      <c r="W75">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X75">
+        <v>-1</v>
+      </c>
+      <c r="Y75">
+        <v>-1</v>
+      </c>
+      <c r="Z75">
+        <v>0.4375</v>
+      </c>
+      <c r="AA75">
         <v>-0.5</v>
       </c>
-      <c r="R75">
-        <v>1.8</v>
-      </c>
-      <c r="S75">
-        <v>2</v>
-      </c>
-      <c r="T75">
-        <v>2</v>
-      </c>
-      <c r="U75">
-        <v>1.9</v>
-      </c>
-      <c r="V75">
-        <v>1.9</v>
-      </c>
-      <c r="W75">
-        <v>0.8</v>
-      </c>
-      <c r="X75">
-        <v>-1</v>
-      </c>
-      <c r="Y75">
-        <v>-1</v>
-      </c>
-      <c r="Z75">
-        <v>0.8</v>
-      </c>
-      <c r="AA75">
-        <v>-1</v>
-      </c>
       <c r="AB75">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7202,7 +7202,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>7404429</v>
+        <v>7404430</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7214,58 +7214,58 @@
         <v>45237.60416666666</v>
       </c>
       <c r="F76" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G76" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H76">
+        <v>2</v>
+      </c>
+      <c r="I76">
         <v>1</v>
-      </c>
-      <c r="I76">
-        <v>0</v>
       </c>
       <c r="J76" t="s">
         <v>46</v>
       </c>
       <c r="K76">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="L76">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M76">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="N76">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="O76">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P76">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q76">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R76">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S76">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T76">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U76">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V76">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W76">
-        <v>0.6499999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X76">
         <v>-1</v>
@@ -7274,16 +7274,16 @@
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
       <c r="AA76">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC76">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7291,7 +7291,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>7404428</v>
+        <v>7404431</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7303,58 +7303,58 @@
         <v>45237.60416666666</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G77" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H77">
+        <v>2</v>
+      </c>
+      <c r="I77">
         <v>1</v>
-      </c>
-      <c r="I77">
-        <v>0</v>
       </c>
       <c r="J77" t="s">
         <v>46</v>
       </c>
       <c r="K77">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="L77">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M77">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="N77">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="O77">
         <v>3</v>
       </c>
       <c r="P77">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="Q77">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R77">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S77">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T77">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U77">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V77">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="W77">
-        <v>2</v>
+        <v>0.909</v>
       </c>
       <c r="X77">
         <v>-1</v>
@@ -7363,16 +7363,16 @@
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AA77">
         <v>-1</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC77">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7380,7 +7380,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7404431</v>
+        <v>7404428</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7392,58 +7392,58 @@
         <v>45237.60416666666</v>
       </c>
       <c r="F78" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G78" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="s">
         <v>46</v>
       </c>
       <c r="K78">
-        <v>2.05</v>
+        <v>3.4</v>
       </c>
       <c r="L78">
+        <v>3.1</v>
+      </c>
+      <c r="M78">
+        <v>2.1</v>
+      </c>
+      <c r="N78">
         <v>3</v>
-      </c>
-      <c r="M78">
-        <v>3.5</v>
-      </c>
-      <c r="N78">
-        <v>1.909</v>
       </c>
       <c r="O78">
         <v>3</v>
       </c>
       <c r="P78">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q78">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R78">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S78">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T78">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U78">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V78">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="W78">
-        <v>0.909</v>
+        <v>2</v>
       </c>
       <c r="X78">
         <v>-1</v>
@@ -7452,16 +7452,16 @@
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AA78">
         <v>-1</v>
       </c>
       <c r="AB78">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7469,7 +7469,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7404434</v>
+        <v>7404433</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7481,76 +7481,76 @@
         <v>45238.60416666666</v>
       </c>
       <c r="F79" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G79" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J79" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K79">
-        <v>2.6</v>
+        <v>1.533</v>
       </c>
       <c r="L79">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="M79">
-        <v>2.6</v>
+        <v>5.75</v>
       </c>
       <c r="N79">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
       <c r="O79">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="P79">
+        <v>6</v>
+      </c>
+      <c r="Q79">
+        <v>-1</v>
+      </c>
+      <c r="R79">
+        <v>1.8</v>
+      </c>
+      <c r="S79">
+        <v>2</v>
+      </c>
+      <c r="T79">
         <v>2.25</v>
       </c>
-      <c r="Q79">
-        <v>0.25</v>
-      </c>
-      <c r="R79">
+      <c r="U79">
         <v>1.85</v>
       </c>
-      <c r="S79">
+      <c r="V79">
         <v>1.95</v>
       </c>
-      <c r="T79">
-        <v>2</v>
-      </c>
-      <c r="U79">
-        <v>1.95</v>
-      </c>
-      <c r="V79">
-        <v>1.85</v>
-      </c>
       <c r="W79">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X79">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y79">
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="AA79">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB79">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC79">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7573,7 +7573,7 @@
         <v>39</v>
       </c>
       <c r="G80" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7647,7 +7647,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>7404433</v>
+        <v>7404434</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7659,76 +7659,76 @@
         <v>45238.60416666666</v>
       </c>
       <c r="F81" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G81" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81" t="s">
+        <v>47</v>
+      </c>
+      <c r="K81">
+        <v>2.6</v>
+      </c>
+      <c r="L81">
         <v>3</v>
       </c>
-      <c r="I81">
-        <v>2</v>
-      </c>
-      <c r="J81" t="s">
-        <v>46</v>
-      </c>
-      <c r="K81">
-        <v>1.533</v>
-      </c>
-      <c r="L81">
-        <v>3.8</v>
-      </c>
       <c r="M81">
-        <v>5.75</v>
+        <v>2.6</v>
       </c>
       <c r="N81">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="O81">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="P81">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="Q81">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R81">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S81">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T81">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U81">
+        <v>1.95</v>
+      </c>
+      <c r="V81">
         <v>1.85</v>
       </c>
-      <c r="V81">
-        <v>1.95</v>
-      </c>
       <c r="W81">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X81">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AA81">
+        <v>-0.5</v>
+      </c>
+      <c r="AB81">
+        <v>0</v>
+      </c>
+      <c r="AC81">
         <v>-0</v>
-      </c>
-      <c r="AB81">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC81">
-        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7837,7 +7837,7 @@
         <v>45241.4375</v>
       </c>
       <c r="F83" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G83" t="s">
         <v>38</v>
@@ -8015,7 +8015,7 @@
         <v>45241.625</v>
       </c>
       <c r="F85" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G85" t="s">
         <v>33</v>
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7404441</v>
+        <v>7404440</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,76 +8104,76 @@
         <v>45242.4375</v>
       </c>
       <c r="F86" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G86" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H86">
         <v>1</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J86" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K86">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L86">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M86">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N86">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="O86">
         <v>3</v>
       </c>
       <c r="P86">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="Q86">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R86">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S86">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T86">
         <v>2</v>
       </c>
       <c r="U86">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V86">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W86">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z86">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC86">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7404440</v>
+        <v>7404441</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8193,76 +8193,76 @@
         <v>45242.4375</v>
       </c>
       <c r="F87" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G87" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H87">
         <v>1</v>
       </c>
       <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87" t="s">
+        <v>46</v>
+      </c>
+      <c r="K87">
+        <v>2.3</v>
+      </c>
+      <c r="L87">
+        <v>2.9</v>
+      </c>
+      <c r="M87">
         <v>3</v>
       </c>
-      <c r="J87" t="s">
-        <v>45</v>
-      </c>
-      <c r="K87">
-        <v>2.15</v>
-      </c>
-      <c r="L87">
-        <v>3</v>
-      </c>
-      <c r="M87">
-        <v>3.2</v>
-      </c>
       <c r="N87">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="O87">
         <v>3</v>
       </c>
       <c r="P87">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q87">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R87">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S87">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T87">
         <v>2</v>
       </c>
       <c r="U87">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V87">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA87">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8549,7 +8549,7 @@
         <v>45255.53125</v>
       </c>
       <c r="F91" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G91" t="s">
         <v>32</v>
@@ -8626,7 +8626,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7404450</v>
+        <v>7404449</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8638,76 +8638,76 @@
         <v>45256.4375</v>
       </c>
       <c r="F92" t="s">
+        <v>39</v>
+      </c>
+      <c r="G92" t="s">
         <v>35</v>
       </c>
-      <c r="G92" t="s">
-        <v>43</v>
-      </c>
       <c r="H92">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K92">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="L92">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M92">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="N92">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="O92">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="P92">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="Q92">
         <v>0</v>
       </c>
       <c r="R92">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="S92">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T92">
+        <v>2</v>
+      </c>
+      <c r="U92">
+        <v>2.05</v>
+      </c>
+      <c r="V92">
         <v>1.75</v>
       </c>
-      <c r="U92">
-        <v>1.75</v>
-      </c>
-      <c r="V92">
-        <v>2.05</v>
-      </c>
       <c r="W92">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z92">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB92">
+        <v>-1</v>
+      </c>
+      <c r="AC92">
         <v>0.75</v>
-      </c>
-      <c r="AC92">
-        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8715,7 +8715,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>7404449</v>
+        <v>7404450</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8727,76 +8727,76 @@
         <v>45256.4375</v>
       </c>
       <c r="F93" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G93" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K93">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="L93">
+        <v>2.875</v>
+      </c>
+      <c r="M93">
+        <v>2.4</v>
+      </c>
+      <c r="N93">
+        <v>2.5</v>
+      </c>
+      <c r="O93">
+        <v>2.75</v>
+      </c>
+      <c r="P93">
         <v>2.9</v>
       </c>
-      <c r="M93">
-        <v>2.9</v>
-      </c>
-      <c r="N93">
-        <v>2.75</v>
-      </c>
-      <c r="O93">
-        <v>2.7</v>
-      </c>
-      <c r="P93">
-        <v>2.8</v>
-      </c>
       <c r="Q93">
         <v>0</v>
       </c>
       <c r="R93">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="S93">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T93">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U93">
+        <v>1.75</v>
+      </c>
+      <c r="V93">
         <v>2.05</v>
       </c>
-      <c r="V93">
-        <v>1.75</v>
-      </c>
       <c r="W93">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AA93">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC93">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8905,7 +8905,7 @@
         <v>45258.60416666666</v>
       </c>
       <c r="F95" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G95" t="s">
         <v>33</v>
@@ -9264,7 +9264,7 @@
         <v>29</v>
       </c>
       <c r="G99" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -9442,7 +9442,7 @@
         <v>43</v>
       </c>
       <c r="G101" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>45269.53125</v>
       </c>
       <c r="F102" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G102" t="s">
         <v>31</v>
@@ -9620,7 +9620,7 @@
         <v>38</v>
       </c>
       <c r="G103" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9798,7 +9798,7 @@
         <v>40</v>
       </c>
       <c r="G105" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H105">
         <v>3</v>
@@ -10154,7 +10154,7 @@
         <v>41</v>
       </c>
       <c r="G109" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10228,7 +10228,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7479719</v>
+        <v>7477992</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10240,13 +10240,13 @@
         <v>45283.4375</v>
       </c>
       <c r="F110" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G110" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110">
         <v>2</v>
@@ -10255,40 +10255,40 @@
         <v>45</v>
       </c>
       <c r="K110">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="L110">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M110">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N110">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="O110">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="P110">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="Q110">
         <v>0</v>
       </c>
       <c r="R110">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S110">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T110">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U110">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V110">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="W110">
         <v>-1</v>
@@ -10297,19 +10297,19 @@
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="Z110">
         <v>-1</v>
       </c>
       <c r="AA110">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB110">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AC110">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10317,7 +10317,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7477992</v>
+        <v>7477991</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10329,76 +10329,76 @@
         <v>45283.4375</v>
       </c>
       <c r="F111" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G111" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K111">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="L111">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M111">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="N111">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="O111">
         <v>2.9</v>
       </c>
       <c r="P111">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="Q111">
         <v>0</v>
       </c>
       <c r="R111">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S111">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T111">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U111">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V111">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W111">
         <v>-1</v>
       </c>
       <c r="X111">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y111">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA111">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB111">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC111">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10406,7 +10406,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7478004</v>
+        <v>7479719</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10418,76 +10418,76 @@
         <v>45283.4375</v>
       </c>
       <c r="F112" t="s">
+        <v>31</v>
+      </c>
+      <c r="G112" t="s">
         <v>34</v>
       </c>
-      <c r="G112" t="s">
-        <v>37</v>
-      </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K112">
+        <v>1.909</v>
+      </c>
+      <c r="L112">
+        <v>3.2</v>
+      </c>
+      <c r="M112">
+        <v>4</v>
+      </c>
+      <c r="N112">
+        <v>2.7</v>
+      </c>
+      <c r="O112">
+        <v>2.875</v>
+      </c>
+      <c r="P112">
+        <v>2.6</v>
+      </c>
+      <c r="Q112">
+        <v>0</v>
+      </c>
+      <c r="R112">
+        <v>1.95</v>
+      </c>
+      <c r="S112">
+        <v>1.85</v>
+      </c>
+      <c r="T112">
+        <v>2</v>
+      </c>
+      <c r="U112">
+        <v>2</v>
+      </c>
+      <c r="V112">
         <v>1.8</v>
       </c>
-      <c r="L112">
-        <v>3</v>
-      </c>
-      <c r="M112">
-        <v>5</v>
-      </c>
-      <c r="N112">
-        <v>1.85</v>
-      </c>
-      <c r="O112">
-        <v>3</v>
-      </c>
-      <c r="P112">
-        <v>4.75</v>
-      </c>
-      <c r="Q112">
-        <v>-0.5</v>
-      </c>
-      <c r="R112">
-        <v>1.875</v>
-      </c>
-      <c r="S112">
-        <v>1.925</v>
-      </c>
-      <c r="T112">
-        <v>1.75</v>
-      </c>
-      <c r="U112">
-        <v>1.75</v>
-      </c>
-      <c r="V112">
-        <v>2.05</v>
-      </c>
       <c r="W112">
+        <v>-1</v>
+      </c>
+      <c r="X112">
+        <v>-1</v>
+      </c>
+      <c r="Y112">
+        <v>1.6</v>
+      </c>
+      <c r="Z112">
+        <v>-1</v>
+      </c>
+      <c r="AA112">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X112">
-        <v>-1</v>
-      </c>
-      <c r="Y112">
-        <v>-1</v>
-      </c>
-      <c r="Z112">
-        <v>0.875</v>
-      </c>
-      <c r="AA112">
-        <v>-1</v>
-      </c>
       <c r="AB112">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC112">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10495,7 +10495,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7477991</v>
+        <v>7478004</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10507,76 +10507,76 @@
         <v>45283.4375</v>
       </c>
       <c r="F113" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G113" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113">
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K113">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="L113">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M113">
-        <v>2.625</v>
+        <v>5</v>
       </c>
       <c r="N113">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="O113">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P113">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="Q113">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R113">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S113">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T113">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U113">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V113">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W113">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X113">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y113">
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA113">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
         <v>-1</v>
       </c>
       <c r="AC113">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10940,7 +10940,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7477996</v>
+        <v>7477995</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10952,58 +10952,58 @@
         <v>45290.4375</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G118" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H118">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="s">
         <v>46</v>
       </c>
       <c r="K118">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="L118">
         <v>3</v>
       </c>
       <c r="M118">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="N118">
+        <v>2.1</v>
+      </c>
+      <c r="O118">
+        <v>3</v>
+      </c>
+      <c r="P118">
         <v>3.6</v>
       </c>
-      <c r="O118">
-        <v>2.9</v>
-      </c>
-      <c r="P118">
-        <v>2.1</v>
-      </c>
       <c r="Q118">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R118">
+        <v>1.825</v>
+      </c>
+      <c r="S118">
         <v>1.975</v>
       </c>
-      <c r="S118">
-        <v>1.825</v>
-      </c>
       <c r="T118">
         <v>2</v>
       </c>
       <c r="U118">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V118">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W118">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="X118">
         <v>-1</v>
@@ -11012,16 +11012,16 @@
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA118">
         <v>-1</v>
       </c>
       <c r="AB118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11029,7 +11029,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7477995</v>
+        <v>7477996</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11041,58 +11041,58 @@
         <v>45290.4375</v>
       </c>
       <c r="F119" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G119" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="s">
         <v>46</v>
       </c>
       <c r="K119">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="L119">
         <v>3</v>
       </c>
       <c r="M119">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="N119">
+        <v>3.6</v>
+      </c>
+      <c r="O119">
+        <v>2.9</v>
+      </c>
+      <c r="P119">
         <v>2.1</v>
       </c>
-      <c r="O119">
-        <v>3</v>
-      </c>
-      <c r="P119">
-        <v>3.6</v>
-      </c>
       <c r="Q119">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R119">
+        <v>1.975</v>
+      </c>
+      <c r="S119">
         <v>1.825</v>
       </c>
-      <c r="S119">
-        <v>1.975</v>
-      </c>
       <c r="T119">
         <v>2</v>
       </c>
       <c r="U119">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V119">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W119">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="X119">
         <v>-1</v>
@@ -11101,16 +11101,16 @@
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA119">
         <v>-1</v>
       </c>
       <c r="AB119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC119">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11222,7 +11222,7 @@
         <v>29</v>
       </c>
       <c r="G121" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -11308,7 +11308,7 @@
         <v>45291.4375</v>
       </c>
       <c r="F122" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G122" t="s">
         <v>36</v>
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7577337</v>
+        <v>7577336</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,76 +11486,76 @@
         <v>45339.4375</v>
       </c>
       <c r="F124" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G124" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124">
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K124">
         <v>3.1</v>
       </c>
       <c r="L124">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="M124">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="N124">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="O124">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="P124">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="Q124">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R124">
+        <v>1.85</v>
+      </c>
+      <c r="S124">
+        <v>1.95</v>
+      </c>
+      <c r="T124">
+        <v>2.25</v>
+      </c>
+      <c r="U124">
+        <v>2.025</v>
+      </c>
+      <c r="V124">
         <v>1.775</v>
       </c>
-      <c r="S124">
-        <v>2.025</v>
-      </c>
-      <c r="T124">
-        <v>2</v>
-      </c>
-      <c r="U124">
-        <v>2</v>
-      </c>
-      <c r="V124">
-        <v>1.8</v>
-      </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z124">
-        <v>0.3875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA124">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB124">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11563,7 +11563,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7577336</v>
+        <v>7577337</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11575,76 +11575,76 @@
         <v>45339.4375</v>
       </c>
       <c r="F125" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G125" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125">
         <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K125">
         <v>3.1</v>
       </c>
       <c r="L125">
+        <v>2.8</v>
+      </c>
+      <c r="M125">
+        <v>2.45</v>
+      </c>
+      <c r="N125">
         <v>3.3</v>
       </c>
-      <c r="M125">
-        <v>2.15</v>
-      </c>
-      <c r="N125">
-        <v>4.333</v>
-      </c>
       <c r="O125">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="P125">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="Q125">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R125">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S125">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T125">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U125">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V125">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W125">
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y125">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
+        <v>0.3875</v>
+      </c>
+      <c r="AA125">
         <v>-0.5</v>
       </c>
-      <c r="AA125">
-        <v>0.475</v>
-      </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC125">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11753,7 +11753,7 @@
         <v>45339.53125</v>
       </c>
       <c r="F127" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G127" t="s">
         <v>41</v>
@@ -11934,7 +11934,7 @@
         <v>32</v>
       </c>
       <c r="G129" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -12020,7 +12020,7 @@
         <v>45340.53125</v>
       </c>
       <c r="F130" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G130" t="s">
         <v>31</v>
@@ -12186,7 +12186,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7628830</v>
+        <v>7628608</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12198,76 +12198,76 @@
         <v>45350.60416666666</v>
       </c>
       <c r="F132" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G132" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132">
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K132">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L132">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M132">
+        <v>3.5</v>
+      </c>
+      <c r="N132">
+        <v>2.5</v>
+      </c>
+      <c r="O132">
         <v>3</v>
       </c>
-      <c r="N132">
-        <v>3</v>
-      </c>
-      <c r="O132">
-        <v>2.9</v>
-      </c>
       <c r="P132">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="Q132">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R132">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S132">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T132">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U132">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V132">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y132">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA132">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC132">
-        <v>0.925</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12275,7 +12275,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7628608</v>
+        <v>7628830</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12287,76 +12287,76 @@
         <v>45350.60416666666</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G133" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133">
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K133">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="L133">
+        <v>2.9</v>
+      </c>
+      <c r="M133">
         <v>3</v>
       </c>
-      <c r="M133">
-        <v>3.5</v>
-      </c>
       <c r="N133">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="O133">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P133">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q133">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R133">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S133">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T133">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U133">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V133">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z133">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB133">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12379,7 +12379,7 @@
         <v>33</v>
       </c>
       <c r="G134" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H134">
         <v>1</v>
@@ -12554,7 +12554,7 @@
         <v>45353.53125</v>
       </c>
       <c r="F136" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G136" t="s">
         <v>39</v>
@@ -12732,10 +12732,10 @@
         <v>45354.4375</v>
       </c>
       <c r="F138" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G138" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H138">
         <v>2</v>
@@ -12809,7 +12809,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7628935</v>
+        <v>7628937</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12821,49 +12821,49 @@
         <v>45356.60416666666</v>
       </c>
       <c r="F139" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G139" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H139">
         <v>1</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K139">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="L139">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M139">
         <v>4.75</v>
       </c>
       <c r="N139">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="O139">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P139">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q139">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R139">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S139">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T139">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U139">
         <v>1.85</v>
@@ -12872,25 +12872,25 @@
         <v>1.95</v>
       </c>
       <c r="W139">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X139">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA139">
+        <v>-0.5</v>
+      </c>
+      <c r="AB139">
+        <v>-1</v>
+      </c>
+      <c r="AC139">
         <v>0.95</v>
-      </c>
-      <c r="AB139">
-        <v>0.425</v>
-      </c>
-      <c r="AC139">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12898,7 +12898,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7628937</v>
+        <v>7628936</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12910,76 +12910,76 @@
         <v>45356.60416666666</v>
       </c>
       <c r="F140" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G140" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
         <v>1</v>
       </c>
-      <c r="I140">
-        <v>0</v>
-      </c>
       <c r="J140" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K140">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="L140">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M140">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N140">
-        <v>1.615</v>
+        <v>2.45</v>
       </c>
       <c r="O140">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="P140">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q140">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R140">
+        <v>1.75</v>
+      </c>
+      <c r="S140">
+        <v>2.05</v>
+      </c>
+      <c r="T140">
+        <v>2</v>
+      </c>
+      <c r="U140">
+        <v>1.975</v>
+      </c>
+      <c r="V140">
         <v>1.825</v>
       </c>
-      <c r="S140">
-        <v>1.975</v>
-      </c>
-      <c r="T140">
-        <v>2</v>
-      </c>
-      <c r="U140">
-        <v>1.85</v>
-      </c>
-      <c r="V140">
-        <v>1.95</v>
-      </c>
       <c r="W140">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z140">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB140">
         <v>-1</v>
       </c>
       <c r="AC140">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12987,7 +12987,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7628936</v>
+        <v>7628935</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12999,76 +12999,76 @@
         <v>45356.60416666666</v>
       </c>
       <c r="F141" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G141" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141">
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K141">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="L141">
+        <v>3.2</v>
+      </c>
+      <c r="M141">
+        <v>4.75</v>
+      </c>
+      <c r="N141">
+        <v>1.8</v>
+      </c>
+      <c r="O141">
         <v>3</v>
       </c>
-      <c r="M141">
-        <v>4</v>
-      </c>
-      <c r="N141">
-        <v>2.45</v>
-      </c>
-      <c r="O141">
-        <v>2.8</v>
-      </c>
       <c r="P141">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="Q141">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R141">
+        <v>1.85</v>
+      </c>
+      <c r="S141">
+        <v>1.95</v>
+      </c>
+      <c r="T141">
         <v>1.75</v>
       </c>
-      <c r="S141">
-        <v>2.05</v>
-      </c>
-      <c r="T141">
-        <v>2</v>
-      </c>
       <c r="U141">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V141">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W141">
         <v>-1</v>
       </c>
       <c r="X141">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y141">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC141">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13177,7 +13177,7 @@
         <v>45357.60416666666</v>
       </c>
       <c r="F143" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G143" t="s">
         <v>37</v>
@@ -13269,7 +13269,7 @@
         <v>38</v>
       </c>
       <c r="G144" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H144">
         <v>1</v>
@@ -13358,7 +13358,7 @@
         <v>38</v>
       </c>
       <c r="G145" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H145">
         <v>3</v>
@@ -13432,7 +13432,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7628832</v>
+        <v>7628931</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13444,76 +13444,76 @@
         <v>45360.52083333334</v>
       </c>
       <c r="F146" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G146" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H146">
         <v>1</v>
       </c>
       <c r="I146">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K146">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="L146">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="M146">
-        <v>2.6</v>
+        <v>6.5</v>
       </c>
       <c r="N146">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="O146">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="P146">
-        <v>2.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q146">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R146">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S146">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="T146">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U146">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V146">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W146">
         <v>-1</v>
       </c>
       <c r="X146">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y146">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z146">
         <v>-1</v>
       </c>
       <c r="AA146">
-        <v>0.75</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB146">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC146">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13521,7 +13521,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7628931</v>
+        <v>7628832</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13533,76 +13533,76 @@
         <v>45360.52083333334</v>
       </c>
       <c r="F147" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G147" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H147">
         <v>1</v>
       </c>
       <c r="I147">
+        <v>4</v>
+      </c>
+      <c r="J147" t="s">
+        <v>45</v>
+      </c>
+      <c r="K147">
+        <v>2.7</v>
+      </c>
+      <c r="L147">
+        <v>2.8</v>
+      </c>
+      <c r="M147">
+        <v>2.6</v>
+      </c>
+      <c r="N147">
+        <v>3</v>
+      </c>
+      <c r="O147">
+        <v>2.6</v>
+      </c>
+      <c r="P147">
+        <v>2.5</v>
+      </c>
+      <c r="Q147">
+        <v>0</v>
+      </c>
+      <c r="R147">
+        <v>2.05</v>
+      </c>
+      <c r="S147">
+        <v>1.75</v>
+      </c>
+      <c r="T147">
+        <v>1.75</v>
+      </c>
+      <c r="U147">
+        <v>2</v>
+      </c>
+      <c r="V147">
+        <v>1.8</v>
+      </c>
+      <c r="W147">
+        <v>-1</v>
+      </c>
+      <c r="X147">
+        <v>-1</v>
+      </c>
+      <c r="Y147">
+        <v>1.5</v>
+      </c>
+      <c r="Z147">
+        <v>-1</v>
+      </c>
+      <c r="AA147">
+        <v>0.75</v>
+      </c>
+      <c r="AB147">
         <v>1</v>
       </c>
-      <c r="J147" t="s">
-        <v>47</v>
-      </c>
-      <c r="K147">
-        <v>1.5</v>
-      </c>
-      <c r="L147">
-        <v>3.4</v>
-      </c>
-      <c r="M147">
-        <v>6.5</v>
-      </c>
-      <c r="N147">
-        <v>1.571</v>
-      </c>
-      <c r="O147">
-        <v>3.3</v>
-      </c>
-      <c r="P147">
-        <v>5.75</v>
-      </c>
-      <c r="Q147">
-        <v>-1</v>
-      </c>
-      <c r="R147">
-        <v>2.025</v>
-      </c>
-      <c r="S147">
-        <v>1.775</v>
-      </c>
-      <c r="T147">
-        <v>2.25</v>
-      </c>
-      <c r="U147">
-        <v>1.85</v>
-      </c>
-      <c r="V147">
-        <v>1.95</v>
-      </c>
-      <c r="W147">
-        <v>-1</v>
-      </c>
-      <c r="X147">
-        <v>2.3</v>
-      </c>
-      <c r="Y147">
-        <v>-1</v>
-      </c>
-      <c r="Z147">
-        <v>-1</v>
-      </c>
-      <c r="AA147">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AB147">
-        <v>-0.5</v>
-      </c>
       <c r="AC147">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13699,7 +13699,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7628930</v>
+        <v>7628932</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13711,76 +13711,76 @@
         <v>45360.625</v>
       </c>
       <c r="F149" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G149" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149">
         <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K149">
-        <v>1.285</v>
+        <v>4</v>
       </c>
       <c r="L149">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="M149">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="N149">
-        <v>1.285</v>
+        <v>3.2</v>
       </c>
       <c r="O149">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="P149">
-        <v>9.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q149">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R149">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S149">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T149">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U149">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V149">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W149">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X149">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Y149">
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.95</v>
+        <v>0.375</v>
       </c>
       <c r="AA149">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB149">
         <v>-1</v>
       </c>
       <c r="AC149">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13788,7 +13788,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7628932</v>
+        <v>7628930</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13800,76 +13800,76 @@
         <v>45360.625</v>
       </c>
       <c r="F150" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G150" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150">
         <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K150">
-        <v>4</v>
+        <v>1.285</v>
       </c>
       <c r="L150">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="M150">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N150">
-        <v>3.2</v>
+        <v>1.285</v>
       </c>
       <c r="O150">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="P150">
-        <v>2.375</v>
+        <v>9.5</v>
       </c>
       <c r="Q150">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R150">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S150">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T150">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U150">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V150">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W150">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X150">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Y150">
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.375</v>
+        <v>0.95</v>
       </c>
       <c r="AA150">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB150">
         <v>-1</v>
       </c>
       <c r="AC150">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -14072,6 +14072,15 @@
       <c r="G153" t="s">
         <v>30</v>
       </c>
+      <c r="H153">
+        <v>1</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+      <c r="J153" t="s">
+        <v>47</v>
+      </c>
       <c r="K153">
         <v>1.5</v>
       </c>
@@ -14082,46 +14091,52 @@
         <v>6</v>
       </c>
       <c r="N153">
-        <v>1.333</v>
+        <v>1.444</v>
       </c>
       <c r="O153">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P153">
         <v>8</v>
       </c>
       <c r="Q153">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R153">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S153">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T153">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U153">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V153">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W153">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X153">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="Y153">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
-        <v>0</v>
+        <v>1.025</v>
+      </c>
+      <c r="AB153">
+        <v>-0.5</v>
+      </c>
+      <c r="AC153">
+        <v>0.475</v>
       </c>
     </row>
   </sheetData>

--- a/South Africa Premier/South Africa Premier.xlsx
+++ b/South Africa Premier/South Africa Premier.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -106,10 +106,10 @@
     <t>Sekhukhune United FC</t>
   </si>
   <si>
-    <t>Supersport United</t>
+    <t>Golden Arrows</t>
   </si>
   <si>
-    <t>Golden Arrows</t>
+    <t>Supersport United</t>
   </si>
   <si>
     <t>Royal AM FC</t>
@@ -118,10 +118,10 @@
     <t>Stellenbosch FC</t>
   </si>
   <si>
-    <t>TS Galaxy</t>
+    <t>Kaizer Chiefs</t>
   </si>
   <si>
-    <t>Kaizer Chiefs</t>
+    <t>TS Galaxy</t>
   </si>
   <si>
     <t>Cape Town City</t>
@@ -145,19 +145,19 @@
     <t>Chippa United</t>
   </si>
   <si>
-    <t>Polokwane City</t>
+    <t>Ajax Cape Town</t>
   </si>
   <si>
-    <t>Ajax Cape Town</t>
+    <t>Polokwane City</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>H</t>
+    <t>D</t>
   </si>
   <si>
-    <t>D</t>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC153"/>
+  <dimension ref="A1:AC156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6961780</v>
+        <v>6961777</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -720,70 +720,70 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>46</v>
       </c>
       <c r="K3">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>2.75</v>
+      </c>
+      <c r="N3">
+        <v>2.2</v>
+      </c>
+      <c r="O3">
+        <v>2.875</v>
+      </c>
+      <c r="P3">
         <v>3.2</v>
       </c>
-      <c r="M3">
-        <v>5.5</v>
-      </c>
-      <c r="N3">
-        <v>1.65</v>
-      </c>
-      <c r="O3">
-        <v>3.2</v>
-      </c>
-      <c r="P3">
-        <v>5.5</v>
-      </c>
       <c r="Q3">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R3">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S3">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T3">
         <v>1.75</v>
       </c>
       <c r="U3">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V3">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W3">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB3">
-        <v>0.3875</v>
+        <v>0.45</v>
       </c>
       <c r="AC3">
         <v>-0.5</v>
@@ -794,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6961777</v>
+        <v>6961780</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -809,70 +809,70 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
         <v>47</v>
       </c>
       <c r="K4">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="L4">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M4">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="N4">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="O4">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="P4">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q4">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R4">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S4">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T4">
         <v>1.75</v>
       </c>
       <c r="U4">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V4">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X4">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA4">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.45</v>
+        <v>0.3875</v>
       </c>
       <c r="AC4">
         <v>-0.5</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K5">
         <v>2.4</v>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K6">
         <v>2.75</v>
@@ -1061,7 +1061,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6961781</v>
+        <v>6961782</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1076,10 +1076,10 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1088,25 +1088,25 @@
         <v>46</v>
       </c>
       <c r="K7">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="L7">
+        <v>3.3</v>
+      </c>
+      <c r="M7">
+        <v>7</v>
+      </c>
+      <c r="N7">
+        <v>1.65</v>
+      </c>
+      <c r="O7">
         <v>3.1</v>
       </c>
-      <c r="M7">
-        <v>4</v>
-      </c>
-      <c r="N7">
-        <v>2.05</v>
-      </c>
-      <c r="O7">
-        <v>2.8</v>
-      </c>
       <c r="P7">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q7">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R7">
         <v>1.85</v>
@@ -1118,31 +1118,31 @@
         <v>2</v>
       </c>
       <c r="U7">
+        <v>1.825</v>
+      </c>
+      <c r="V7">
         <v>1.975</v>
       </c>
-      <c r="V7">
-        <v>1.825</v>
-      </c>
       <c r="W7">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB7">
         <v>-1</v>
       </c>
       <c r="AC7">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1150,7 +1150,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6961782</v>
+        <v>6961781</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1165,10 +1165,10 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1177,25 +1177,25 @@
         <v>47</v>
       </c>
       <c r="K8">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="L8">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N8">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="O8">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P8">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q8">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R8">
         <v>1.85</v>
@@ -1207,31 +1207,31 @@
         <v>2</v>
       </c>
       <c r="U8">
+        <v>1.975</v>
+      </c>
+      <c r="V8">
         <v>1.825</v>
       </c>
-      <c r="V8">
-        <v>1.975</v>
-      </c>
       <c r="W8">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X8">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA8">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
         <v>-1</v>
       </c>
       <c r="AC8">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1254,7 +1254,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K9">
         <v>1.5</v>
@@ -1343,7 +1343,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1441,7 +1441,7 @@
         <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K11">
         <v>1.4</v>
@@ -1610,7 +1610,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1619,7 +1619,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K13">
         <v>1.65</v>
@@ -1699,7 +1699,7 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1708,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K14">
         <v>3.4</v>
@@ -1788,7 +1788,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1797,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K15">
         <v>2.4</v>
@@ -1862,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7007759</v>
+        <v>7007761</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1877,73 +1877,73 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K16">
         <v>3</v>
       </c>
       <c r="L16">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M16">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="N16">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="O16">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="P16">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="Q16">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S16">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="T16">
         <v>2</v>
       </c>
       <c r="U16">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V16">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W16">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z16">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC16">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1951,7 +1951,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7007761</v>
+        <v>7007759</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1966,73 +1966,73 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K17">
         <v>3</v>
       </c>
       <c r="L17">
+        <v>3.1</v>
+      </c>
+      <c r="M17">
+        <v>2.25</v>
+      </c>
+      <c r="N17">
+        <v>2.875</v>
+      </c>
+      <c r="O17">
         <v>3</v>
       </c>
-      <c r="M17">
-        <v>2.3</v>
-      </c>
-      <c r="N17">
-        <v>2.7</v>
-      </c>
-      <c r="O17">
-        <v>2.625</v>
-      </c>
       <c r="P17">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R17">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="S17">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="T17">
         <v>2</v>
       </c>
       <c r="U17">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V17">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA17">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2055,7 +2055,7 @@
         <v>40</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H18">
         <v>4</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K18">
         <v>1.4</v>
@@ -2153,7 +2153,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K19">
         <v>4.5</v>
@@ -2319,7 +2319,7 @@
         <v>45156.60416666666</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G21" t="s">
         <v>36</v>
@@ -2331,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K21">
         <v>1.909</v>
@@ -2497,10 +2497,10 @@
         <v>45157.41666666666</v>
       </c>
       <c r="F23" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" t="s">
         <v>43</v>
-      </c>
-      <c r="G23" t="s">
-        <v>44</v>
       </c>
       <c r="H23">
         <v>3</v>
@@ -2509,7 +2509,7 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K23">
         <v>2.15</v>
@@ -2598,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K24">
         <v>2.2</v>
@@ -2764,10 +2764,10 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" t="s">
         <v>34</v>
-      </c>
-      <c r="G26" t="s">
-        <v>35</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -2776,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K26">
         <v>2.875</v>
@@ -3031,7 +3031,7 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G29" t="s">
         <v>42</v>
@@ -3120,10 +3120,10 @@
         <v>45164.41666666666</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H30">
         <v>3</v>
@@ -3132,7 +3132,7 @@
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K30">
         <v>2.1</v>
@@ -3209,7 +3209,7 @@
         <v>45164.52083333334</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G31" t="s">
         <v>41</v>
@@ -3221,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -3301,7 +3301,7 @@
         <v>33</v>
       </c>
       <c r="G32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3390,7 +3390,7 @@
         <v>32</v>
       </c>
       <c r="G33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -3399,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K33">
         <v>2.4</v>
@@ -3476,10 +3476,10 @@
         <v>45167.5</v>
       </c>
       <c r="F34" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" t="s">
         <v>30</v>
-      </c>
-      <c r="G34" t="s">
-        <v>31</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -3577,7 +3577,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -3654,7 +3654,7 @@
         <v>45168.5</v>
       </c>
       <c r="F36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G36" t="s">
         <v>40</v>
@@ -3731,7 +3731,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>7078412</v>
+        <v>7078409</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3743,73 +3743,73 @@
         <v>45168.60416666666</v>
       </c>
       <c r="F37" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G37" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37">
         <v>3</v>
       </c>
-      <c r="I37">
-        <v>1</v>
-      </c>
       <c r="J37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K37">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="L37">
+        <v>2.875</v>
+      </c>
+      <c r="M37">
         <v>3.25</v>
       </c>
-      <c r="M37">
-        <v>4.333</v>
-      </c>
       <c r="N37">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="O37">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P37">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q37">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R37">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S37">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T37">
         <v>2</v>
       </c>
       <c r="U37">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V37">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W37">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z37">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB37">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC37">
         <v>-1</v>
@@ -3820,7 +3820,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>7078413</v>
+        <v>7078410</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3832,76 +3832,76 @@
         <v>45168.60416666666</v>
       </c>
       <c r="F38" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G38" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="s">
         <v>46</v>
       </c>
       <c r="K38">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="L38">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="M38">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="N38">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O38">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="P38">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="Q38">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R38">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="S38">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="T38">
         <v>1.75</v>
       </c>
       <c r="U38">
+        <v>2.025</v>
+      </c>
+      <c r="V38">
         <v>1.775</v>
       </c>
-      <c r="V38">
-        <v>2.025</v>
-      </c>
       <c r="W38">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AC38">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3909,7 +3909,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>7078409</v>
+        <v>7078411</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3921,46 +3921,46 @@
         <v>45168.60416666666</v>
       </c>
       <c r="F39" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G39" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J39" t="s">
         <v>45</v>
       </c>
       <c r="K39">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="L39">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M39">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="N39">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="O39">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="P39">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q39">
         <v>-0.25</v>
       </c>
       <c r="R39">
-        <v>1.825</v>
+        <v>2.075</v>
       </c>
       <c r="S39">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="T39">
         <v>2</v>
@@ -3978,19 +3978,19 @@
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="Z39">
         <v>-1</v>
       </c>
       <c r="AA39">
-        <v>0.9750000000000001</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB39">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3998,7 +3998,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7078410</v>
+        <v>7078413</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4010,76 +4010,76 @@
         <v>45168.60416666666</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G40" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H40">
         <v>1</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
         <v>47</v>
       </c>
       <c r="K40">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="L40">
+        <v>2.75</v>
+      </c>
+      <c r="M40">
+        <v>2.9</v>
+      </c>
+      <c r="N40">
         <v>3.1</v>
       </c>
-      <c r="M40">
-        <v>2.5</v>
-      </c>
-      <c r="N40">
-        <v>3</v>
-      </c>
       <c r="O40">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="P40">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R40">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="S40">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="T40">
         <v>1.75</v>
       </c>
       <c r="U40">
+        <v>1.775</v>
+      </c>
+      <c r="V40">
         <v>2.025</v>
       </c>
-      <c r="V40">
-        <v>1.775</v>
-      </c>
       <c r="W40">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X40">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="AA40">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4087,7 +4087,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7078411</v>
+        <v>7078412</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4099,76 +4099,76 @@
         <v>45168.60416666666</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G41" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K41">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="L41">
+        <v>3.25</v>
+      </c>
+      <c r="M41">
+        <v>4.333</v>
+      </c>
+      <c r="N41">
+        <v>1.833</v>
+      </c>
+      <c r="O41">
         <v>3.1</v>
       </c>
-      <c r="M41">
-        <v>2.6</v>
-      </c>
-      <c r="N41">
-        <v>2.4</v>
-      </c>
-      <c r="O41">
-        <v>2.75</v>
-      </c>
       <c r="P41">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="Q41">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R41">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="S41">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="T41">
         <v>2</v>
       </c>
       <c r="U41">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V41">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W41">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA41">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC41">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4277,7 +4277,7 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G43" t="s">
         <v>33</v>
@@ -4289,7 +4289,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K43">
         <v>1.95</v>
@@ -4366,7 +4366,7 @@
         <v>45185.52083333334</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G44" t="s">
         <v>32</v>
@@ -4378,7 +4378,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K44">
         <v>1.833</v>
@@ -4467,7 +4467,7 @@
         <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K45">
         <v>2.625</v>
@@ -4532,7 +4532,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7169681</v>
+        <v>7169683</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4544,13 +4544,13 @@
         <v>45188.60416666666</v>
       </c>
       <c r="F46" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46">
         <v>2</v>
@@ -4559,34 +4559,34 @@
         <v>45</v>
       </c>
       <c r="K46">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="L46">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M46">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="N46">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="O46">
         <v>2.9</v>
       </c>
       <c r="P46">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="Q46">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R46">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="S46">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="T46">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U46">
         <v>2.025</v>
@@ -4601,19 +4601,19 @@
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>1.375</v>
+        <v>2</v>
       </c>
       <c r="Z46">
         <v>-1</v>
       </c>
       <c r="AA46">
-        <v>1.075</v>
+        <v>0.8</v>
       </c>
       <c r="AB46">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC46">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4621,7 +4621,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7169683</v>
+        <v>7169682</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4633,13 +4633,13 @@
         <v>45188.60416666666</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G47" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47">
         <v>2</v>
@@ -4648,40 +4648,40 @@
         <v>45</v>
       </c>
       <c r="K47">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="L47">
         <v>2.9</v>
       </c>
       <c r="M47">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="N47">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="O47">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="P47">
         <v>3</v>
       </c>
       <c r="Q47">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R47">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S47">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T47">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U47">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V47">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W47">
         <v>-1</v>
@@ -4696,13 +4696,13 @@
         <v>-1</v>
       </c>
       <c r="AA47">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB47">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC47">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4710,7 +4710,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>7169682</v>
+        <v>7169681</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4722,10 +4722,10 @@
         <v>45188.60416666666</v>
       </c>
       <c r="F48" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G48" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -4737,41 +4737,41 @@
         <v>45</v>
       </c>
       <c r="K48">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="L48">
+        <v>3.2</v>
+      </c>
+      <c r="M48">
+        <v>1.909</v>
+      </c>
+      <c r="N48">
+        <v>2.875</v>
+      </c>
+      <c r="O48">
         <v>2.9</v>
       </c>
-      <c r="M48">
-        <v>2.75</v>
-      </c>
-      <c r="N48">
-        <v>2.5</v>
-      </c>
-      <c r="O48">
-        <v>2.7</v>
-      </c>
       <c r="P48">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R48">
+        <v>1.725</v>
+      </c>
+      <c r="S48">
+        <v>2.075</v>
+      </c>
+      <c r="T48">
+        <v>2.25</v>
+      </c>
+      <c r="U48">
+        <v>2.025</v>
+      </c>
+      <c r="V48">
         <v>1.775</v>
       </c>
-      <c r="S48">
-        <v>2.025</v>
-      </c>
-      <c r="T48">
-        <v>1.75</v>
-      </c>
-      <c r="U48">
-        <v>1.925</v>
-      </c>
-      <c r="V48">
-        <v>1.875</v>
-      </c>
       <c r="W48">
         <v>-1</v>
       </c>
@@ -4779,16 +4779,16 @@
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>2</v>
+        <v>1.375</v>
       </c>
       <c r="Z48">
         <v>-1</v>
       </c>
       <c r="AA48">
+        <v>1.075</v>
+      </c>
+      <c r="AB48">
         <v>1.025</v>
-      </c>
-      <c r="AB48">
-        <v>0.925</v>
       </c>
       <c r="AC48">
         <v>-1</v>
@@ -4799,7 +4799,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>7169684</v>
+        <v>7170833</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4811,10 +4811,10 @@
         <v>45189.60416666666</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G49" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -4826,25 +4826,25 @@
         <v>45</v>
       </c>
       <c r="K49">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="L49">
         <v>2.875</v>
       </c>
       <c r="M49">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="N49">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="O49">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="P49">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R49">
         <v>1.925</v>
@@ -4853,13 +4853,13 @@
         <v>1.875</v>
       </c>
       <c r="T49">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U49">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V49">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W49">
         <v>-1</v>
@@ -4868,7 +4868,7 @@
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>1.625</v>
+        <v>1.1</v>
       </c>
       <c r="Z49">
         <v>-1</v>
@@ -4880,7 +4880,7 @@
         <v>-1</v>
       </c>
       <c r="AC49">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4888,7 +4888,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7170834</v>
+        <v>7169684</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4900,76 +4900,76 @@
         <v>45189.60416666666</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G50" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H50">
         <v>0</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K50">
         <v>2.375</v>
       </c>
       <c r="L50">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="M50">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="N50">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="O50">
         <v>2.7</v>
       </c>
       <c r="P50">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="Q50">
         <v>0</v>
       </c>
       <c r="R50">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S50">
-        <v>2.075</v>
+        <v>1.875</v>
       </c>
       <c r="T50">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U50">
+        <v>1.775</v>
+      </c>
+      <c r="V50">
         <v>2.025</v>
       </c>
-      <c r="V50">
-        <v>1.775</v>
-      </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z50">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB50">
         <v>-1</v>
       </c>
       <c r="AC50">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4989,10 +4989,10 @@
         <v>45189.60416666666</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5001,7 +5001,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K51">
         <v>2</v>
@@ -5066,7 +5066,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>7170833</v>
+        <v>7170834</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5078,76 +5078,76 @@
         <v>45189.60416666666</v>
       </c>
       <c r="F52" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G52" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H52">
         <v>0</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K52">
+        <v>2.375</v>
+      </c>
+      <c r="L52">
         <v>2.75</v>
       </c>
-      <c r="L52">
-        <v>2.875</v>
-      </c>
       <c r="M52">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="N52">
-        <v>3.4</v>
+        <v>2.45</v>
       </c>
       <c r="O52">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="P52">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="Q52">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R52">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="S52">
-        <v>1.875</v>
+        <v>2.075</v>
       </c>
       <c r="T52">
         <v>2</v>
       </c>
       <c r="U52">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V52">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W52">
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y52">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA52">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB52">
         <v>-1</v>
       </c>
       <c r="AC52">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5167,7 +5167,7 @@
         <v>45194.41666